--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,57 +582,53 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ignitex sponsor taiwan blockchain hackathon empowering next generation of web innovator is the rule unattainable in typical u household need to spend of income to afford the medianpriced home b rfg advisory launch suite of active etf free settlement money from att who qualifies and when you can file your claim cnet what house and senate republican cant agree on in trump tax bill pony ai the next trillion robotaxi play fcps look toward next decade of school construction enrollment growth tri pointe home inc announces second quarter earnings release and conference call date growth stock that turned investment year ago into over million today the everglades foundation name shannon estenoz a it first chief policy officer santech holding announces unaudited financial result for the first half of fiscal year b bleakley add advisor coach ray sclafani to board of director air canada completes million substantial issuer bid acting on it commitment to balanced longterm capital allocation zapp ev report financial result for the six month ended march and provides operational update ufe doesnt remove fibroidsheres what woman arent being told quincy data precision time exchange service recognized a best time stamping measurement system by tradingtech insight award santech holding announces unaudited financial result for the first half of fiscal year a regulation fade a nonprofit push voluntary standard is the rule unattainable in typical u household need to spend of income to afford the medianpriced home improvement to make playground more accessible underway east texas bbb warns of major data breach chainlink whale diversifying into bitcoin solaris before it inevitable price explosion first quantum provides notice of second quarter result the everglades foundation name shannon estenoz a it first chief policy officer first patient enrolled in aclarions groundbreaking clarity trial pure property management named to inc best workplace hidden cost of homeownership now exceed a year kalmar and cagliari roro terminal continue collaboration with new order for terminal tractor no one expected oil price to crash this much first quantum provides notice of second quarter result sweden riksbank see some probability for further rate cut amid murky outlook buy now pay later plan will soon impact your credit scorewhat you need to know well fargo hike microsoft price target say ai business could reach billion in revenue cd rate today june take home up to teenage sprint sensation gout gout break his own m australian record in first race abroad china and india cut import of lowerquality coal from indonesia fueling ai data center behind the meter solution cherry bekaert appoints dan wheadon a cfo advisory leader is apa stock underperforming the dow bitget head to milan a sponsor at ethmilan watch fed chair jerome powell testify live before senate banking panel could berkshire hathaway stock double by even without warren buffett could berkshire hathaway stock double by even without warren buffett trimble tdks advanced navigation solution to enhance automotive positioning drone maker aerovironment share pop on earnings beat american in line to pocket up to k from m data breach settlement exact date to note down sp future muted with focus on powell testimony finding a mentor can be key to your success expert tip for finding one it going to get you place qdoba restaurant expands with th location in florida skelton big state budget question linger about crime medical delta tunnel former circuit clinical colleague join force again to form health care startup where will coreweave stock be in year how social security privatization could change the role of ira in your portfolio wayfair is selling a lounge chair for just and shopper say it will turn your patio into a little oasis how tariff might impact u car price by brand exclusive uber and palantir alum raise m to disrupt corporate recruitment with ai fortune amazon is selling a stunning citizen ecodrive watch for and buyer call it an eyecatcher amazon prime day start date early deal and shopping tip share in wr berkley corporation nysewrb purchased by kentucky retirement system insurance trust fund kentucky retirement system insurance trust fund make new investment in eversource energy nysees state of alaska department of revenue buy share of hyatt hotel corporation nyseh new york city is closer to electing a democratic socialist mayor business have mixed feeling why blackberry share are trading higher by around here are stock moving premarket kentucky retirement system insurance trust fund invests in citizen financial group inc nysecfg williamssonoma inc nysewsm share bought by janney montgomery scott llc kentucky retirement system insurance trust fund ha stock holding in tyson food inc nysetsn jfs wealth advisor llc purchase share of johnson control international plc nysejci omnicom group inc nyseomc stake reduced by continuum advisory llc xml financial llc ha holding in eaton corporation plc nyseetn exchange traded concept llc raise stock holding in allegion plc nysealle exchange traded concept llc ha stock holding in air product and chemical inc nyseapd gm inc nysegms share sold by state of alaska department of revenue williamssonoma inc nysewsm share acquired by janney montgomery scott llc trump advisor stephen miller reportedly hold stake worth million in ice contractor palantir he could easilyhave a direct and predictable impact micron face earnings test after share price doubled since april nba owner unanimously approve b sale of wolf wnbas lynx from taylor to lorerodriguez group first female reporter at kpnx in phoenix diane kalas dy bitcoin price rise the crypto is being boosted by these factor today verizon team up with nokia to bring hightech g boost to busy british port verizon team up with nokia to bring hightech g boost to busy british port usdinr inch up a market weighs middle east ceasefire amid fed and rbi action jadwa investment buy majority stake in saudi retailer makhazen alenaya why are some people calling for a mcdonalds boycott alexandria real estate equity inc nyseare share purchased by flagship harbor advisor llc kentucky retirement system insurance trust fund acquires new position in synchrony financial nysesyf kentucky retirement system insurance trust fund cut position in darden restaurant inc nysedri flagship harbor advisor llc purchase share of dexcom inc nasdaqdxcm how private capital could be the key to rebuilding america is palantir stock outperforming the dow is palantir stock outperforming the dow retirement system of alabama ha million stock position in firstenergy corporation nysefe retirement system of alabama sell share of cm energy corporation nysecms retirement system of alabama reduces position in kellanova nysek pfg investment llc decrease stake in ishares msci emerging market etf nysearcaeem today quordle hint and answer for june detroit station to open coffee shop in hope of connecting to the community trump medium stock edge higher premarket after nyse file to list truth social bitcoin and ethereum etf share flagship harbor advisor llc ha stake in edward lifesciences corporation nyseew retirement system of alabama lower position in devon energy corporation nysedvn wealth enhancement advisory service llc increase position in public service enterprise group incorporated nysepeg despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer what to do when success make you lose touch with your identity beef price at record high trump attack on iran pushed diplomacy with kim jong un further out of reach more than idaho airman are deployed in the middle east are they safe impactful bill that passed in idaho legislative session this year childrens hospital los angeles threw trans kid overboard teenage sprint sensation gout gout break his own m australian record in first race abroad the longest battle in world war i occurred around which french city the federalist society isnt going anywhere the federalist society isnt going anywhere trump united surveillance state of america how will your data be deployed glen alpine alderman step down cite board behavior highschoollike squabble in resignation orangeburg county council reject homeowner request to close road sioux city resident express concern to staff of sen joni ernst about federal budget cut new york city is closer to electing a democratic socialist mayor business have mixed feeling reader view dont doubt those protesting the powerful reader view beautiful bill could cut service we need editorial cartoon for june rubio hegseth slam medium over iran strike leak professional stabber undermining u victory upper township renews liquor license for the deauville inn on one condition bamberg county sheriff office detention center honor employee behind the curtain ai urgency call for a modern marshall plan gop leader accused of pressuring lobbyist to drop gaming client in ugly pa budget fight a whirlwind hour how trump israeliran ceasefire agreement came together letter let not lose more of bidwells legacy letter let not lose more of bidwells legacy a tremendous victory for everybody trump on iran strike from cable to vision pro how luxshare is replacing foxconn in apple ecosystem trump hoping for comprehensive peace agreement with iran witkoff court order trump administration to return another wrongly deported man overdoses are down in iredell county a more proactive approach may be helping letter eliminating fluoridation carry health risk letter eliminating fluoridation carry health risk a whirlwind hour how trump israeliran ceasefire agreement came together a whirlwind hour how trump israeliran ceasefire agreement came together kennedyappointed cdc vaccine panel say it will scrutinize the childhood vaccine schedule letter trust our president and pray for our country letter trust our president and pray for our country ice will see you now everyday ethic what if you had only one day to live everyday ethic what if you had only one day to live a columbia trustee view higher education is at a crossroad let choose builder over destroyer im a veteran and former democratic congressman here why the gop ought to think hard about iran big beautiful bill should not include sale of public land opinion big beautiful bill should not include sale of public land opinion rare earth startup say without subsidy and support u cant shake china control asra nomani iran ideological foot soldier wage proxy war in america death from heart attack are way down here whats killing u instead trump lawyer and doj enforcer face confirmation hearing for federal judgeship our opinion berkshire carousel horse ride again can they carry this downtown destination to sustainability the normalization of american indecency iran strategic blunder paved the way for humiliating defeat expert say want happier healthier kid let them play a decade after obergefell lgbtq right remain under threat exclusive thune urge light touch on ai regulation when everything go wrong trump pick for appeal judge seen a illsuited to lifetime appointment skinnytok rebranded eating disorder dangerously fast scoop trump admin cut contract with scientific publishing giant how to contact cayuga county federal state and county elected official iranian royalty fed local rumor mill year ago letter bomb and peace dont work well together letter bomb and peace dont work well together u marine sentenced to year over sexual assault in japan letter not feeling represented by district congressman letter not feeling represented by district congressman nato summit yield a big win on defense spending for trump but key question over the alliance remain trump isnt ready for a ceasefire with massie zambian president burial halted just a it wa to begin despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer super coral and supplement inside the lab trying to save the great barrier reef food hygiene rating handed to two doncaster establishment trump did the right thing israeli intelligence see significant damage to iran nuclear facility official say after a halfcentury of legal logjam will killer of coast banker wife face execution june during patriotic season searching for the right america public forum bill threatens mental health care aging entrepreneur face new policy hurdle here how to help highyielding dividend stock to buy for the long haul trump triumph nato bow to u pressure with defense pledge rep mike quigley tell trump to put your ego in your pocket rep mike quigley on intel suggesting limited damage to iran nuclear program a criminal justice expert on the implication of the karen read verdict morning brief nato commits to defense spike nyc pick a socialist expert push transing kid trump pick for appeal judge draw controversy zohran mamdani set to defeat cuomo in nyc mayoral primary upset today in history june korean war begin australian outback transformed by water rubio dont believe report of only modest damage in iran pell grant cut would be a blow to maine economic future opinion pell grant cut would be a blow to maine economic future opinion the supreme court blessed samesex marriage year ago is a backlash brewing franklin board modifies some district policy after discussion astronomical society to hold public night saturday editorial minnesota shooting shatter trust faith bridge builder announces first recipient of technical career investment grant year ago june state issue warning on fake inheritance scam column pursue smarter choice on the northern border scatec asa subscription for the employee share purchase programme exclusive shell in early talk to acquire rival bp wsj palantir stock hit alltime high whats going on vimergy brings mouth of america campaign to washington dc to expose a system that profit while american get sicker cpsc urge firework safety ahead of july th holiday metas insane technology give user something no screen today can deliver say mark zuckerberg in the future ill just beam in is charles river laboratory stock underperforming the sp is charles river laboratory stock underperforming the sp national survey find american favor a federal budget completely different from the one congress is developing bumble to cut of workforce a online dating apps aim to improve user experience wsj why aerovironment stock is soaring today why aerovironment stock is soaring today nvidia stock soar near record high whats driving the rally forget crossfit this million fitness event is taking over how teacher are using chatgptand getting their time back how seattle won over fifas club world cup skeptic bitcoin rise nyse battle for trump etf and crypto may be coming to mortgage next ai for impact day explores the potential for ai to improve decisionmaking and increase efficiency across critical national security operation should you buy slide insurance stock after the slde ipo should you buy slide insurance stock after the slde ipo carnival booking surge ha wall street talking already solstad renews partnership with marlink for it next stage of digital transformation forester financial welcome new leadership to it board of director trump megabill and economic agenda would spur growth and reduce national debt according to white house report here how much invested in oracle year ago would be worth today amazon is selling a espresso machine for and shopper say it make great coffee just like starbucks another huge retail chain liquidating after chapter bankruptcy duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu siili solution plc share repurchase duck return to a long island farm that lost it entire flock to the bird flu aigenerated scam claim more victim yearoveryear despite declining consumer concern new sift report reveals duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu russia to boost export of china favorite russian crude in july duck return to a long island farm that lost it entire flock to the bird flu how data analytics power and governs nextgen digital twin duck return to a long island farm that lost it entire flock to the bird flu shiba inu to be left in pepe dollar tokenomics attract institutional investor over shiba inus massive dilution risk intrinsic therapeutic announces the first implantation of the barricaid annular closure device via endoscopic approach happy city holding limited announces closing of initial public offering duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu fed chair powell the crypto industry is maturing becoming more mainstream duck return to a long island farm that lost it entire flock to the bird flu invent inventor develops temporary replacement for windshield wiper mho duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu nostalgic pepsi brand from the s roll out new flavor week after rival coke launch it version pictory introduces one of the world first ai video mcp server pictory introduces one of the world first ai video mcp server rosen a trusted and leading law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt have the wheel fallen off the corn market have the wheel fallen off the corn market senate minority leader schumer treated for dehydration at area hospital his office say study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform valuesinaction foundation honor leadership from across the u valuesinaction foundation honor leadership from across the u new home sale plummet more than expected a high mortgage rate sink demand bi claim stablecoins fail a money call for strict limit on their role tidy up your patio in second get off the aerobroom in cordless leaf blower broom is skin cancer linked to climate change hims hers health ceo say compounding novo weightloss drug will continue report himsnyse seeking alpha ahold delhaize usa tap food lion executive a cfo paychex stock take a hit a margin squeeze overshadows outlook spotify stock hit record high get pricetarget hike american became millionaire in way your neigbors are getting rich and how to keep up pacific life introduces new variable universal life insurance product now available through state farm ulta beauty cfo paula oyibo quits pick insider for interim role u state to roll out huge bottle change in new july law and the ban target all of your shower supply you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation robinhood ceo highlight retail investor interest in nvidia tesla despite middle east tension barely a blip hot weather safety trick for your pet hot weather safety advice for your pet mark walter and lakers say sale of the team is expected to close later this year clever carnivore announces scalable costcompetitive and delicious cultivated pork clever carnivore announces scalable costcompetitive and delicious cultivated pork medium advisory federal government to make housing announcement in cape breton stock see support a reduced middle east tension spark riskon stock see support a reduced middle east tension spark riskon piston raise m for cardless fuel payment solution piston raise m for cardless fuel payment solution tsa say these common childrens toy may not be allowed on plane why share of tesla are sinking today navigating the complexity of crossborder freight invent inventor develops new shoe cleaning device mho overture map launch gers a global standard for interoperable geospatial id to drive data interoperability big gain start small best new meme coin to join this month before they moon kandal m venture limited announces pricing of initial public offering and listing on nasdaq woodside close stake sale in louisiana lng project kandal m venture limited announces pricing of initial public offering and listing on nasdaq ap business summarybrief at am edt wary of washington europe fret it will be left behind on an ai battlefield senate prepares for vote on big beautiful bill trump say u will meet with iran next week trump megabill and economic agenda would spur growth and reduce national debt according to white house report fox news racist smear against zohran mamdani fail in new york mayoral race un official say agency cant locate iran uranium after u strike yakima start work on water and wastewater connection in several neighborhood trump israel say u airstrike destroyed crucial nuclear facility and set iran back year denver judge to decide fate of ice subpoena a state employee sue gov polis to halt compliance reader opinion preparing the landscape trump label nycs mamdani a communist lunatic senate gop leader make opening offer on hospital fund california found in violation of title ix in clash with trump official over transgender athlete man indicted on hate crime charge in attack on boulder demonstration for israeli hostage house republican inch closer to answer a former biden advisor lose executive privilege shield you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation man get stuck in chimney while trying to rescue dog trapped in building san francisco mayor daniel lurie unveils family zoning plan to boost homebuilding trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike donald trump should be ashamed of betraying our afghan ally opinion trump denies iranian moved nuclear material before u strike kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time cayuga county budget reality raise tax or cut deeper trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump hegseth seethe at fake news medium for doubting u strike obliterated iranian nuclear site scum maverick select cooper flagg no overall in nba draft early u intelligence report suggests u strike only set back iran nuclear program by month trump attack on iran pushed diplomacy with kim jong un further out of reach tracking every firstround pick in the nba draft trump affirms his commitment to nato article pledge for mutual defense he like me trump on nato chief mark rutte calling him daddy unanimous wisconsin supreme court curtails governor partial veto power unanimous wisconsin supreme court curtails governor partial veto power dead congressman social medium account resurrected to boost former chief of staff congressional bid schumer hospitalized for dehydration a dc nears degree the myth of iran invincibility ha been broken and the fallout could be farreaching pope leo xiv urge all side in iranisrael war to reject bullying and arrogance and talk peace new york man arrested in maine on drug trafficking charge longlasting insulin take another step forward with latest clinical trial result tony abbott tell advance supporter bequeathing money to rightwing group will protect australian value excessive social medium found to harm teenager mental health but expert say moderation may be key cruel joke tax concession drive donation to australia richest private school and must stop critic argue trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending we may not agree on climate but we all feel the heat past public policy make today crisis more costly past public policy make today crisis more costly past public policy make today crisis more costly hood our lawmaker arent deadlocked on regulation toyota tlmoda and the salvation army team up to distribute backpack and school supply to student nationwide can i partner with a different attorney on my appeal appeal lawyer wichita wa donald trump decision to strike iran legal trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending shasti conrad leader of the wa democratic party win dnc vice chair race durbin tee off on bove a judiciary hearing kick off trump say assessment of iran nuclear facility damage wa not a complete report zohran mamdani ha nycs business community terrified lawless act of defiance doj say biden judge is refusing to follow supreme court order how chatgpt and other ai tool are changing the teaching profession microsoft sued by author over use of book in ai training democrat primary voter reward first prosecutor to indict trump senator air concern about doj budget proposal billionaire ackman and musk rebuke zohran mamdanis win in nyc mayoral primary senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse former democrat staffer arrested for abducting assaulting woman on the loose after posting bond baumgartner northwest republican ask rfk jr to reopen niosh worker safety office in spokane thing to know about senate bill navigating new noncompete restriction for healthcare practitioner in texas trump say u will meet with iran next week israel and iran both claim win a trumpbrokered truce hold carlisle vote to sell fire engine address upcoming project gop leader back florida ag uthmeier at u supreme court on immigration trump state visit to the uk to take place this year say buckingham palace u stock hang near their record a wall street take a breath following two big day hamas is preparing attack on american contractor helping distribute aid in gaza bezos arrives in venice a protester say his starstudded wedding highlight growing inequality new dogsized dinosaur specie discovered tax collection tumble again in latest washington budget forecast trump white house clear way for biden aide to tell all i am sweating badly new yorkers and visitor cope with extreme heat no social security tax cut in trump new bill what retiree need to know jerald mcnair while school are out our youth need to continue to read jeff bezos italian wedding by the number the senate majority run through moderate america eric dane and jensen ackles in countdown youre not dreaming score dozen of early th of july deal on mattress vulnerable long island dem warns mamdani too extreme for nyc after primary upset not just alligator alcatraz desantis float building another immigration detention center federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit eric adam ha a real chance to stop mamdani but andrew cuomo need to announce he dropping out trump admin sue every federal judge in maryland over immigration order faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ignitex sponsor taiwan blockchain hackathon empowering next generation of web innovator is the rule unattainable in typical u household need to spend of income to afford the medianpriced home b rfg advisory launch suite of active etf free settlement money from att who qualifies and when you can file your claim cnet what house and senate republican cant agree on in trump tax bill pony ai the next trillion robotaxi play fcps look toward next decade of school construction enrollment growth tri pointe home inc announces second quarter earnings release and conference call date growth stock that turned investment year ago into over million today the everglades foundation name shannon estenoz a it first chief policy officer santech holding announces unaudited financial result for the first half of fiscal year b bleakley add advisor coach ray sclafani to board of director air canada completes million substantial issuer bid acting on it commitment to balanced longterm capital allocation zapp ev report financial result for the six month ended march and provides operational update ufe doesnt remove fibroidsheres what woman arent being told quincy data precision time exchange service recognized a best time stamping measurement system by tradingtech insight award santech holding announces unaudited financial result for the first half of fiscal year a regulation fade a nonprofit push voluntary standard is the rule unattainable in typical u household need to spend of income to afford the medianpriced home improvement to make playground more accessible underway east texas bbb warns of major data breach chainlink whale diversifying into bitcoin solaris before it inevitable price explosion first quantum provides notice of second quarter result the everglades foundation name shannon estenoz a it first chief policy officer first patient enrolled in aclarions groundbreaking clarity trial pure property management named to inc best workplace hidden cost of homeownership now exceed a year kalmar and cagliari roro terminal continue collaboration with new order for terminal tractor no one expected oil price to crash this much first quantum provides notice of second quarter result sweden riksbank see some probability for further rate cut amid murky outlook buy now pay later plan will soon impact your credit scorewhat you need to know well fargo hike microsoft price target say ai business could reach billion in revenue cd rate today june take home up to teenage sprint sensation gout gout break his own m australian record in first race abroad china and india cut import of lowerquality coal from indonesia fueling ai data center behind the meter solution cherry bekaert appoints dan wheadon a cfo advisory leader is apa stock underperforming the dow bitget head to milan a sponsor at ethmilan watch fed chair jerome powell testify live before senate banking panel could berkshire hathaway stock double by even without warren buffett could berkshire hathaway stock double by even without warren buffett trimble tdks advanced navigation solution to enhance automotive positioning drone maker aerovironment share pop on earnings beat american in line to pocket up to k from m data breach settlement exact date to note down sp future muted with focus on powell testimony finding a mentor can be key to your success expert tip for finding one it going to get you place qdoba restaurant expands with th location in florida skelton big state budget question linger about crime medical delta tunnel former circuit clinical colleague join force again to form health care startup where will coreweave stock be in year how social security privatization could change the role of ira in your portfolio wayfair is selling a lounge chair for just and shopper say it will turn your patio into a little oasis how tariff might impact u car price by brand exclusive uber and palantir alum raise m to disrupt corporate recruitment with ai fortune amazon is selling a stunning citizen ecodrive watch for and buyer call it an eyecatcher amazon prime day start date early deal and shopping tip share in wr berkley corporation nysewrb purchased by kentucky retirement system insurance trust fund kentucky retirement system insurance trust fund make new investment in eversource energy nysees state of alaska department of revenue buy share of hyatt hotel corporation nyseh new york city is closer to electing a democratic socialist mayor business have mixed feeling why blackberry share are trading higher by around here are stock moving premarket kentucky retirement system insurance trust fund invests in citizen financial group inc nysecfg williamssonoma inc nysewsm share bought by janney montgomery scott llc kentucky retirement system insurance trust fund ha stock holding in tyson food inc nysetsn jfs wealth advisor llc purchase share of johnson control international plc nysejci omnicom group inc nyseomc stake reduced by continuum advisory llc xml financial llc ha holding in eaton corporation plc nyseetn exchange traded concept llc raise stock holding in allegion plc nysealle exchange traded concept llc ha stock holding in air product and chemical inc nyseapd gm inc nysegms share sold by state of alaska department of revenue williamssonoma inc nysewsm share acquired by janney montgomery scott llc trump advisor stephen miller reportedly hold stake worth million in ice contractor palantir he could easilyhave a direct and predictable impact micron face earnings test after share price doubled since april nba owner unanimously approve b sale of wolf wnbas lynx from taylor to lorerodriguez group first female reporter at kpnx in phoenix diane kalas dy bitcoin price rise the crypto is being boosted by these factor today verizon team up with nokia to bring hightech g boost to busy british port verizon team up with nokia to bring hightech g boost to busy british port usdinr inch up a market weighs middle east ceasefire amid fed and rbi action jadwa investment buy majority stake in saudi retailer makhazen alenaya why are some people calling for a mcdonalds boycott alexandria real estate equity inc nyseare share purchased by flagship harbor advisor llc kentucky retirement system insurance trust fund acquires new position in synchrony financial nysesyf kentucky retirement system insurance trust fund cut position in darden restaurant inc nysedri flagship harbor advisor llc purchase share of dexcom inc nasdaqdxcm how private capital could be the key to rebuilding america is palantir stock outperforming the dow is palantir stock outperforming the dow retirement system of alabama ha million stock position in firstenergy corporation nysefe retirement system of alabama sell share of cm energy corporation nysecms retirement system of alabama reduces position in kellanova nysek pfg investment llc decrease stake in ishares msci emerging market etf nysearcaeem today quordle hint and answer for june detroit station to open coffee shop in hope of connecting to the community trump medium stock edge higher premarket after nyse file to list truth social bitcoin and ethereum etf share flagship harbor advisor llc ha stake in edward lifesciences corporation nyseew retirement system of alabama lower position in devon energy corporation nysedvn wealth enhancement advisory service llc increase position in public service enterprise group incorporated nysepeg despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer what to do when success make you lose touch with your identity beef price at record high trump attack on iran pushed diplomacy with kim jong un further out of reach more than idaho airman are deployed in the middle east are they safe impactful bill that passed in idaho legislative session this year childrens hospital los angeles threw trans kid overboard teenage sprint sensation gout gout break his own m australian record in first race abroad the longest battle in world war i occurred around which french city the federalist society isnt going anywhere the federalist society isnt going anywhere trump united surveillance state of america how will your data be deployed glen alpine alderman step down cite board behavior highschoollike squabble in resignation orangeburg county council reject homeowner request to close road sioux city resident express concern to staff of sen joni ernst about federal budget cut new york city is closer to electing a democratic socialist mayor business have mixed feeling reader view dont doubt those protesting the powerful reader view beautiful bill could cut service we need editorial cartoon for june rubio hegseth slam medium over iran strike leak professional stabber undermining u victory upper township renews liquor license for the deauville inn on one condition bamberg county sheriff office detention center honor employee behind the curtain ai urgency call for a modern marshall plan gop leader accused of pressuring lobbyist to drop gaming client in ugly pa budget fight a whirlwind hour how trump israeliran ceasefire agreement came together letter let not lose more of bidwells legacy letter let not lose more of bidwells legacy a tremendous victory for everybody trump on iran strike from cable to vision pro how luxshare is replacing foxconn in apple ecosystem trump hoping for comprehensive peace agreement with iran witkoff court order trump administration to return another wrongly deported man overdoses are down in iredell county a more proactive approach may be helping letter eliminating fluoridation carry health risk letter eliminating fluoridation carry health risk a whirlwind hour how trump israeliran ceasefire agreement came together a whirlwind hour how trump israeliran ceasefire agreement came together kennedyappointed cdc vaccine panel say it will scrutinize the childhood vaccine schedule letter trust our president and pray for our country letter trust our president and pray for our country ice will see you now everyday ethic what if you had only one day to live everyday ethic what if you had only one day to live a columbia trustee view higher education is at a crossroad let choose builder over destroyer im a veteran and former democratic congressman here why the gop ought to think hard about iran big beautiful bill should not include sale of public land opinion big beautiful bill should not include sale of public land opinion rare earth startup say without subsidy and support u cant shake china control asra nomani iran ideological foot soldier wage proxy war in america death from heart attack are way down here whats killing u instead trump lawyer and doj enforcer face confirmation hearing for federal judgeship our opinion berkshire carousel horse ride again can they carry this downtown destination to sustainability the normalization of american indecency iran strategic blunder paved the way for humiliating defeat expert say want happier healthier kid let them play a decade after obergefell lgbtq right remain under threat exclusive thune urge light touch on ai regulation when everything go wrong trump pick for appeal judge seen a illsuited to lifetime appointment skinnytok rebranded eating disorder dangerously fast scoop trump admin cut contract with scientific publishing giant how to contact cayuga county federal state and county elected official iranian royalty fed local rumor mill year ago letter bomb and peace dont work well together letter bomb and peace dont work well together u marine sentenced to year over sexual assault in japan letter not feeling represented by district congressman letter not feeling represented by district congressman nato summit yield a big win on defense spending for trump but key question over the alliance remain trump isnt ready for a ceasefire with massie zambian president burial halted just a it wa to begin despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer super coral and supplement inside the lab trying to save the great barrier reef food hygiene rating handed to two doncaster establishment trump did the right thing israeli intelligence see significant damage to iran nuclear facility official say after a halfcentury of legal logjam will killer of coast banker wife face execution june during patriotic season searching for the right america public forum bill threatens mental health care aging entrepreneur face new policy hurdle here how to help highyielding dividend stock to buy for the long haul trump triumph nato bow to u pressure with defense pledge rep mike quigley tell trump to put your ego in your pocket rep mike quigley on intel suggesting limited damage to iran nuclear program a criminal justice expert on the implication of the karen read verdict morning brief nato commits to defense spike nyc pick a socialist expert push transing kid trump pick for appeal judge draw controversy zohran mamdani set to defeat cuomo in nyc mayoral primary upset today in history june korean war begin australian outback transformed by water rubio dont believe report of only modest damage in iran pell grant cut would be a blow to maine economic future opinion pell grant cut would be a blow to maine economic future opinion the supreme court blessed samesex marriage year ago is a backlash brewing franklin board modifies some district policy after discussion astronomical society to hold public night saturday editorial minnesota shooting shatter trust faith bridge builder announces first recipient of technical career investment grant year ago june state issue warning on fake inheritance scam column pursue smarter choice on the northern border scatec asa subscription for the employee share purchase programme exclusive shell in early talk to acquire rival bp wsj palantir stock hit alltime high whats going on vimergy brings mouth of america campaign to washington dc to expose a system that profit while american get sicker cpsc urge firework safety ahead of july th holiday metas insane technology give user something no screen today can deliver say mark zuckerberg in the future ill just beam in is charles river laboratory stock underperforming the sp is charles river laboratory stock underperforming the sp national survey find american favor a federal budget completely different from the one congress is developing bumble to cut of workforce a online dating apps aim to improve user experience wsj why aerovironment stock is soaring today why aerovironment stock is soaring today nvidia stock soar near record high whats driving the rally forget crossfit this million fitness event is taking over how teacher are using chatgptand getting their time back how seattle won over fifas club world cup skeptic bitcoin rise nyse battle for trump etf and crypto may be coming to mortgage next ai for impact day explores the potential for ai to improve decisionmaking and increase efficiency across critical national security operation should you buy slide insurance stock after the slde ipo should you buy slide insurance stock after the slde ipo carnival booking surge ha wall street talking already solstad renews partnership with marlink for it next stage of digital transformation forester financial welcome new leadership to it board of director trump megabill and economic agenda would spur growth and reduce national debt according to white house report here how much invested in oracle year ago would be worth today amazon is selling a espresso machine for and shopper say it make great coffee just like starbucks another huge retail chain liquidating after chapter bankruptcy duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu siili solution plc share repurchase duck return to a long island farm that lost it entire flock to the bird flu aigenerated scam claim more victim yearoveryear despite declining consumer concern new sift report reveals duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu russia to boost export of china favorite russian crude in july duck return to a long island farm that lost it entire flock to the bird flu how data analytics power and governs nextgen digital twin duck return to a long island farm that lost it entire flock to the bird flu shiba inu to be left in pepe dollar tokenomics attract institutional investor over shiba inus massive dilution risk intrinsic therapeutic announces the first implantation of the barricaid annular closure device via endoscopic approach happy city holding limited announces closing of initial public offering duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu fed chair powell the crypto industry is maturing becoming more mainstream duck return to a long island farm that lost it entire flock to the bird flu invent inventor develops temporary replacement for windshield wiper mho duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu nostalgic pepsi brand from the s roll out new flavor week after rival coke launch it version pictory introduces one of the world first ai video mcp server pictory introduces one of the world first ai video mcp server rosen a trusted and leading law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt have the wheel fallen off the corn market have the wheel fallen off the corn market senate minority leader schumer treated for dehydration at area hospital his office say study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform valuesinaction foundation honor leadership from across the u valuesinaction foundation honor leadership from across the u new home sale plummet more than expected a high mortgage rate sink demand bi claim stablecoins fail a money call for strict limit on their role tidy up your patio in second get off the aerobroom in cordless leaf blower broom is skin cancer linked to climate change hims hers health ceo say compounding novo weightloss drug will continue report himsnyse seeking alpha ahold delhaize usa tap food lion executive a cfo paychex stock take a hit a margin squeeze overshadows outlook spotify stock hit record high get pricetarget hike american became millionaire in way your neigbors are getting rich and how to keep up pacific life introduces new variable universal life insurance product now available through state farm ulta beauty cfo paula oyibo quits pick insider for interim role u state to roll out huge bottle change in new july law and the ban target all of your shower supply you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation robinhood ceo highlight retail investor interest in nvidia tesla despite middle east tension barely a blip hot weather safety trick for your pet hot weather safety advice for your pet mark walter and lakers say sale of the team is expected to close later this year clever carnivore announces scalable costcompetitive and delicious cultivated pork clever carnivore announces scalable costcompetitive and delicious cultivated pork medium advisory federal government to make housing announcement in cape breton stock see support a reduced middle east tension spark riskon stock see support a reduced middle east tension spark riskon piston raise m for cardless fuel payment solution piston raise m for cardless fuel payment solution tsa say these common childrens toy may not be allowed on plane why share of tesla are sinking today navigating the complexity of crossborder freight invent inventor develops new shoe cleaning device mho overture map launch gers a global standard for interoperable geospatial id to drive data interoperability big gain start small best new meme coin to join this month before they moon kandal m venture limited announces pricing of initial public offering and listing on nasdaq woodside close stake sale in louisiana lng project kandal m venture limited announces pricing of initial public offering and listing on nasdaq ap business summarybrief at am edt wary of washington europe fret it will be left behind on an ai battlefield senate prepares for vote on big beautiful bill trump say u will meet with iran next week trump megabill and economic agenda would spur growth and reduce national debt according to white house report fox news racist smear against zohran mamdani fail in new york mayoral race un official say agency cant locate iran uranium after u strike yakima start work on water and wastewater connection in several neighborhood trump israel say u airstrike destroyed crucial nuclear facility and set iran back year denver judge to decide fate of ice subpoena a state employee sue gov polis to halt compliance reader opinion preparing the landscape trump label nycs mamdani a communist lunatic senate gop leader make opening offer on hospital fund california found in violation of title ix in clash with trump official over transgender athlete man indicted on hate crime charge in attack on boulder demonstration for israeli hostage house republican inch closer to answer a former biden advisor lose executive privilege shield you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation man get stuck in chimney while trying to rescue dog trapped in building san francisco mayor daniel lurie unveils family zoning plan to boost homebuilding trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike donald trump should be ashamed of betraying our afghan ally opinion trump denies iranian moved nuclear material before u strike kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time cayuga county budget reality raise tax or cut deeper trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump hegseth seethe at fake news medium for doubting u strike obliterated iranian nuclear site scum maverick select cooper flagg no overall in nba draft early u intelligence report suggests u strike only set back iran nuclear program by month trump attack on iran pushed diplomacy with kim jong un further out of reach tracking every firstround pick in the nba draft trump affirms his commitment to nato article pledge for mutual defense he like me trump on nato chief mark rutte calling him daddy unanimous wisconsin supreme court curtails governor partial veto power unanimous wisconsin supreme court curtails governor partial veto power dead congressman social medium account resurrected to boost former chief of staff congressional bid schumer hospitalized for dehydration a dc nears degree the myth of iran invincibility ha been broken and the fallout could be farreaching pope leo xiv urge all side in iranisrael war to reject bullying and arrogance and talk peace new york man arrested in maine on drug trafficking charge longlasting insulin take another step forward with latest clinical trial result tony abbott tell advance supporter bequeathing money to rightwing group will protect australian value excessive social medium found to harm teenager mental health but expert say moderation may be key cruel joke tax concession drive donation to australia richest private school and must stop critic argue trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending we may not agree on climate but we all feel the heat past public policy make today crisis more costly past public policy make today crisis more costly past public policy make today crisis more costly hood our lawmaker arent deadlocked on regulation toyota tlmoda and the salvation army team up to distribute backpack and school supply to student nationwide can i partner with a different attorney on my appeal appeal lawyer wichita wa donald trump decision to strike iran legal trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending shasti conrad leader of the wa democratic party win dnc vice chair race durbin tee off on bove a judiciary hearing kick off trump say assessment of iran nuclear facility damage wa not a complete report zohran mamdani ha nycs business community terrified lawless act of defiance doj say biden judge is refusing to follow supreme court order how chatgpt and other ai tool are changing the teaching profession microsoft sued by author over use of book in ai training democrat primary voter reward first prosecutor to indict trump senator air concern about doj budget proposal billionaire ackman and musk rebuke zohran mamdanis win in nyc mayoral primary senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse former democrat staffer arrested for abducting assaulting woman on the loose after posting bond baumgartner northwest republican ask rfk jr to reopen niosh worker safety office in spokane thing to know about senate bill navigating new noncompete restriction for healthcare practitioner in texas trump say u will meet with iran next week israel and iran both claim win a trumpbrokered truce hold carlisle vote to sell fire engine address upcoming project gop leader back florida ag uthmeier at u supreme court on immigration trump state visit to the uk to take place this year say buckingham palace u stock hang near their record a wall street take a breath following two big day hamas is preparing attack on american contractor helping distribute aid in gaza bezos arrives in venice a protester say his starstudded wedding highlight growing inequality new dogsized dinosaur specie discovered tax collection tumble again in latest washington budget forecast trump white house clear way for biden aide to tell all i am sweating badly new yorkers and visitor cope with extreme heat no social security tax cut in trump new bill what retiree need to know jerald mcnair while school are out our youth need to continue to read jeff bezos italian wedding by the number the senate majority run through moderate america eric dane and jensen ackles in countdown youre not dreaming score dozen of early th of july deal on mattress vulnerable long island dem warns mamdani too extreme for nyc after primary upset not just alligator alcatraz desantis float building another immigration detention center federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit eric adam ha a real chance to stop mamdani but andrew cuomo need to announce he dropping out trump admin sue every federal judge in maryland over immigration order faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.748</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9988</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -662,55 +658,55 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>jeff bezos and blue origin engaged with trump administration for government contract amid elon musk rift with the president report best smart glass with camera to buy in iran confirms nuclear site damaged a trump promise a meeting next week sitime corporation announces pricing of followon public offering analysisinvestors shore up defence against another august market rout kroger parent company of ralphs plan to close dozen of grocery store investor shore up defence against another august market rout reuters city council committee back minimum wage for hospitality worker who winning the innovation race new year analysis point to what matter most avermedia unveils two new hdmi capture device for creator at every level who winning the innovation race new year analysis point to what matter most why trump need the world to believe iran nuclear program is obliterated how japan and alaska pioneered the global market for lng the alaska town at the center of trump billion lng push ai reasoning problem why thinking model may not actually be smarter bik data analysis indicates including bnpl transaction data in credit history could help almost every second thinfile customer improve their creditworthiness north korea opening a tourist site on it east coast next week thats key to it tourism hope eu rule out production aid in blow to battery cleantech industry hong kong home price little changed in may electricity use for commercial computing could surpass space cooling ventilation tim draper say this will be the fate of bitcoin and the dollar in year billionaire highlight apps built on btc that matter california raise the bar with two three starred restaurant joining selection storage project planned for laurel oak ranch veteran analyst drop bold new call on nvidia stock yahoo finance buyer emerge for northvolt carlsbad newly opened lilo restaurant crowned with a michelin star fujitsus uvance wayfinders consulting empowers customer to evolve business foundation leveraging data and ai strongest naruto character ranked oxford cambridge fall in global college ranking expert say it a red flag for uk innovation trump familybacked world liberty financial plan to launch a new app that will make it easy for lay investor to use crypto at least reason why trump should reject a nobel peace prize china fintech giant ant double down on health care with new ai app and it want it to go global top meme coin to buy for with real narrative and epic roadmaps beijing ramp up stimulus a uschina trade tension threaten recovery kratos defense security solution inc price public offering of common stock asia fx firm dollar hit yr low a trump call for rate cut amid powell feud is this the most political fashion item ever south korea central bank adjusts open market operation to boost money supply mark zuckerbergs meta beat lawsuit over ai training on book judge find no meaningful evidence on market dilution analysis trump claim the press is demeaning the military but questioning power is patriotic colorado native nique clifford selected with no overall pick in nba draft wall street panic a socialist set to take over new york reit tumble at the idiocy of it all enthusiast gaming announces annual general meeting top desktop deal for june alienware lenovo hp and more enthusiast gaming announces annual general meeting colorado proposal seek to double income tax rate for taxpayer who earn at least million bitcoin top this key level a institution pile on ethereum dogecoin rangebound analyst say buying btc now is like buying it for in blacklisted by the u and backed by beijing this chinese ai startup ha caught openais attention vietnam to remove death penalty for embezzlement sparing tycoon life why trump strike on iran will leave north korea more determined than ever to keep it nuke acen and upc renewables break ground on over mw of new renewable energy project in india firm outline audit into iedc operation over past year rove pest control join force with greenix pest control optiva inc announces result of annual meeting mar acquisition of pringles maker trigger eu alarm dw isisinspired drone war plan leaked from u national security council china will take forceful step to boost consumption premier li say fema is not a replacement for insurance coverage risk management expert say here why cnbc daily open funny how the sp is teasing a new high amid uncertainty top poco phone under r first nordic announces annual general meeting voting result judge reject author claim that meta ai training violated copyright variety trump organization scrap made in the usa tag for it gold t smartphone asian stock hesitant dollar slide on trump attack on powell australia job vacancy bounce in may quarter ab data show hm share jump a it flag summer shopping pickup why not an islamic bomb how israel planned failed to stop pakistan going nuclear asos shopper say they were banned for making too many return sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity tesla begin rolling out self driving service in texas flexiview lending close million fixandflip loan in montpelier vermont how daddy talk and trump and ruttes bromance stole the nato spotlight htc partner with ntt com to forge a new model for immersive entertainment in japan murata push capacitor design with world first fvdc mlcc in inch size for automotive application bay miner launch aipowered cloud mining supporting bitcoin ethereum sol xrp litecoin and dogecoin jefferson capital announces pricing of initial public offering jefferson capital announces pricing of initial public offering it not my responsibility working with autonomyrestricting algorithm facilitates unethical behavior and displacement of responsibility new covidwave scarecampaign a massive flop the secret out top meme coin to buy that are taking over crypto influencer portfolio best malayalam cop thriller on ott you cant miss craft telemedicine launch to redefine specialty care with humancentered my bos lead the right way understanding how and when the institutionalization of ethic impact supervisor leadership style michael novogratzs galaxy and invesco file to launch solana etf what you should know about qsol trump judicial nominee bove denies advising justice department lawyer to ignore court order treasury yield fall a concern grow over trump criticism of powell inplay oil corp announces annual meeting voting result for election of director trump admin move to let borrower use crypto in mortgage application alaska commissioner of revenue adam crum and prospr aligned announce launch of the frontier economic fund nyse akaf getchell gold corp announces total debenture conversion walmart is selling an easy to assemble gaming chair for and shopper say it quality is excellent cathie wood double down on shopify buy the dip dump million worth of robinhood stock at peak tariff cost boost demand for efficiency in reverse logistics ap technology summarybrief at pm edt ap technology summarybrief at pm edt how chatgpt and other ai tool are changing the teaching profession modernday monopoly gop senator sound alarm on mega corporation hijacking u beef supply hims investor alert robbins geller rudman dowd llp announces that hims hers health inc investor with substantial loss have opportunity to lead the hims hers class action lawsuit denis villeneuve to direct next james bond film international paper to release secondquarter earnings on july trump latest rejection of intelligence assessment reflects a long distrust of spy agency editorial stay up to date on status of water recreation option trump official to give first classified briefing to congress on iran strike iran confirms nuclear site damaged a trump promise a meeting next week republican congresswoman office evacuated after proabortion activist send chilling threat cal thomas make america clean again john hood nc lawmaker arent deadlocked on regulation bull take yearold noa essengue at no for central division lone firstround pick eu leader meet to discus tougher russia sanction u tariff and middle east conflict trump official to give first classified briefing to congress on iran strike trump official to give first classified briefing to congress on iran strike trump latest rejection of intelligence assessment reflects a long distrust of spy agency trump latest rejection of intelligence assessment reflects a long distrust of spy agency senior are the fastestgrowing age group in the bay area and nationwide dear neighbor it because of my value my turn were running out of caregiver im scared for the future larry efird an uncommon spirit why trump need the world to believe iran nuclear program is obliterated how a california psychology student exposed the dark side of therapy education my turn usa bombed iran now the electrical grid and your network are in the crosshairs letter to the editor watt need your support editorial baltimore sun trump entry into iran war left congress mia letter to the editor thanks to city public work steven borne absentee ballot and access help people vote keith kuenning new hampshire budget betrays it child trump announces iran nuclear talk following u strike that severely damaged iranian nuclear program little league serra mesa tierrasanta septum set to vote on budget proposal thursday this is a real doomsday scenario jonah goldberg u right to bomb iran with or without nuclear specter ted talley tinkering trump creates problem where none exist kratos defense security solution inc price public offering of common stock is this the most political fashion item ever analysis trump claim the press is demeaning the military but questioning power is patriotic vietnam to remove death penalty for embezzlement sparing tycoon life mamdani say listening making city affordable key part of campaign trump considering several candidate for next federal reserve chair florida rep kat cammack say her office wa evacuated due to death threat florida rep kat cammack say her office wa evacuated due to death threat why trump strike on iran will leave north korea more determined than ever to keep it nuke miranda devine trumpderangement syndrome drive deep state leaker cnn to treasonous length to deny prez a victory live update hegseth will hold new conference to respond to intelligence report on iran strike nato survives another day sf resident to see a hike in trash fee sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity minnesota solar energy advocate mourn the loss of champion rep melissa hortman author of law boosting industry htc partner with ntt com to forge a new model for immersive entertainment in japan citrix release emergency patch for actively exploited cve in netscaler adc cooper flagg is the new face of maine cooper flagg is the new face of maine donation to local organization get matching boost this week where is our mexican vacation refund weve been waiting for month after more than a year on the run gang leader recaptured florida alligator alcatraz what to know minnesota face federal lawsuit for offering illegal immigrant college tuition benefit denied to american gloversvilles antonucci surprised self with mayoral primary win honduras u discus immigration security after tense start to relation under trump administration feeling gutted msnbcs nicolle wallace is sad tren de aragua gang member were deported to cecot exclusive leading house conservative call senate bluff on trump beautiful bill la immigration detention facility a ticking time bomb immigration lawyer say expert warns senate tax cut plan could add far more to the deficit than expected trump administration sue all maryland federal judge over order blocking removal of immigrant the trump administration is suing minnesota over break in higher education for immigrant student young cuban girl asks trump to lift travel ban stopping her from joining mom in u why the fed is keeping rate steady for now rental impact fee discussed a obstacle to college station affordable housing breaking down whistleblower claim against trump judicial pick denver judge say ice subpoena doesnt comply with state law but doesnt prohibit polis from responding the u also ha a bombproof bunker in a mountain analysis a battered iran face an uncertain future after it grinding war with israel sabrina carpenter release alternate album cover after online backlash approved by god federal judge block trump admin from ending collective bargaining for some federal worker independence day drone show spark council debate lt cmdr nathan ouellette retires after year of service veteran from deerfield named nyu truman scholar yearold billing boy remembered a stepfather is sentenced for his murder armed immigration officer arent even telling local police at time about their raid leak are a problem congress feud over trump limit on sharing intel duke phenom cooper flagg go to dallas maverick with no overall pick in nba draft cia say it ha evidence iran nuclear program wa severely damaged a assessment of u strike impact continue little league north park cholla lake mar pending acquisition of kellanova clear ftc antitrust review oklahoma supreme court begin oral argument on state question trump spy chief say new intel show iran nuclear facility were destroyed meta win artificial intelligence copyright case in blow to author republican suddenly realize voter hate their health care cut editorial class of youve earned your place this is your time trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump win over lifelong democrat autoworker with big beautiful bill vehicle loan tax benefit oregon house pass bipartisan bill to combat chronic absenteeism in school republican candidate who ran against maxine water admits to misusing campaign donation scoop protrump group unleashes first tv ad against massie trump administration to investigate university of california hiring practice ltte noise at the uv pilot site</t>
+          <t>ignitex sponsor taiwan blockchain hackathon empowering next generation of web innovator is the rule unattainable in typical u household need to spend of income to afford the medianpriced home b rfg advisory launch suite of active etf free settlement money from att who qualifies and when you can file your claim cnet what house and senate republican cant agree on in trump tax bill pony ai the next trillion robotaxi play fcps look toward next decade of school construction enrollment growth tri pointe home inc announces second quarter earnings release and conference call date growth stock that turned investment year ago into over million today the everglades foundation name shannon estenoz a it first chief policy officer santech holding announces unaudited financial result for the first half of fiscal year b bleakley add advisor coach ray sclafani to board of director air canada completes million substantial issuer bid acting on it commitment to balanced longterm capital allocation zapp ev report financial result for the six month ended march and provides operational update ufe doesnt remove fibroidsheres what woman arent being told quincy data precision time exchange service recognized a best time stamping measurement system by tradingtech insight award santech holding announces unaudited financial result for the first half of fiscal year a regulation fade a nonprofit push voluntary standard is the rule unattainable in typical u household need to spend of income to afford the medianpriced home improvement to make playground more accessible underway east texas bbb warns of major data breach chainlink whale diversifying into bitcoin solaris before it inevitable price explosion first quantum provides notice of second quarter result the everglades foundation name shannon estenoz a it first chief policy officer first patient enrolled in aclarions groundbreaking clarity trial pure property management named to inc best workplace hidden cost of homeownership now exceed a year kalmar and cagliari roro terminal continue collaboration with new order for terminal tractor no one expected oil price to crash this much first quantum provides notice of second quarter result sweden riksbank see some probability for further rate cut amid murky outlook buy now pay later plan will soon impact your credit scorewhat you need to know well fargo hike microsoft price target say ai business could reach billion in revenue cd rate today june take home up to teenage sprint sensation gout gout break his own m australian record in first race abroad china and india cut import of lowerquality coal from indonesia fueling ai data center behind the meter solution cherry bekaert appoints dan wheadon a cfo advisory leader is apa stock underperforming the dow bitget head to milan a sponsor at ethmilan watch fed chair jerome powell testify live before senate banking panel could berkshire hathaway stock double by even without warren buffett could berkshire hathaway stock double by even without warren buffett trimble tdks advanced navigation solution to enhance automotive positioning drone maker aerovironment share pop on earnings beat american in line to pocket up to k from m data breach settlement exact date to note down sp future muted with focus on powell testimony finding a mentor can be key to your success expert tip for finding one it going to get you place qdoba restaurant expands with th location in florida skelton big state budget question linger about crime medical delta tunnel former circuit clinical colleague join force again to form health care startup where will coreweave stock be in year how social security privatization could change the role of ira in your portfolio wayfair is selling a lounge chair for just and shopper say it will turn your patio into a little oasis how tariff might impact u car price by brand exclusive uber and palantir alum raise m to disrupt corporate recruitment with ai fortune amazon is selling a stunning citizen ecodrive watch for and buyer call it an eyecatcher amazon prime day start date early deal and shopping tip share in wr berkley corporation nysewrb purchased by kentucky retirement system insurance trust fund kentucky retirement system insurance trust fund make new investment in eversource energy nysees state of alaska department of revenue buy share of hyatt hotel corporation nyseh new york city is closer to electing a democratic socialist mayor business have mixed feeling why blackberry share are trading higher by around here are stock moving premarket kentucky retirement system insurance trust fund invests in citizen financial group inc nysecfg williamssonoma inc nysewsm share bought by janney montgomery scott llc kentucky retirement system insurance trust fund ha stock holding in tyson food inc nysetsn jfs wealth advisor llc purchase share of johnson control international plc nysejci omnicom group inc nyseomc stake reduced by continuum advisory llc xml financial llc ha holding in eaton corporation plc nyseetn exchange traded concept llc raise stock holding in allegion plc nysealle exchange traded concept llc ha stock holding in air product and chemical inc nyseapd gm inc nysegms share sold by state of alaska department of revenue williamssonoma inc nysewsm share acquired by janney montgomery scott llc trump advisor stephen miller reportedly hold stake worth million in ice contractor palantir he could easilyhave a direct and predictable impact micron face earnings test after share price doubled since april nba owner unanimously approve b sale of wolf wnbas lynx from taylor to lorerodriguez group first female reporter at kpnx in phoenix diane kalas dy bitcoin price rise the crypto is being boosted by these factor today verizon team up with nokia to bring hightech g boost to busy british port verizon team up with nokia to bring hightech g boost to busy british port usdinr inch up a market weighs middle east ceasefire amid fed and rbi action jadwa investment buy majority stake in saudi retailer makhazen alenaya why are some people calling for a mcdonalds boycott alexandria real estate equity inc nyseare share purchased by flagship harbor advisor llc kentucky retirement system insurance trust fund acquires new position in synchrony financial nysesyf kentucky retirement system insurance trust fund cut position in darden restaurant inc nysedri flagship harbor advisor llc purchase share of dexcom inc nasdaqdxcm how private capital could be the key to rebuilding america is palantir stock outperforming the dow is palantir stock outperforming the dow retirement system of alabama ha million stock position in firstenergy corporation nysefe retirement system of alabama sell share of cm energy corporation nysecms retirement system of alabama reduces position in kellanova nysek pfg investment llc decrease stake in ishares msci emerging market etf nysearcaeem today quordle hint and answer for june detroit station to open coffee shop in hope of connecting to the community trump medium stock edge higher premarket after nyse file to list truth social bitcoin and ethereum etf share flagship harbor advisor llc ha stake in edward lifesciences corporation nyseew retirement system of alabama lower position in devon energy corporation nysedvn wealth enhancement advisory service llc increase position in public service enterprise group incorporated nysepeg despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer what to do when success make you lose touch with your identity beef price at record high trump attack on iran pushed diplomacy with kim jong un further out of reach more than idaho airman are deployed in the middle east are they safe impactful bill that passed in idaho legislative session this year childrens hospital los angeles threw trans kid overboard teenage sprint sensation gout gout break his own m australian record in first race abroad the longest battle in world war i occurred around which french city the federalist society isnt going anywhere the federalist society isnt going anywhere trump united surveillance state of america how will your data be deployed glen alpine alderman step down cite board behavior highschoollike squabble in resignation orangeburg county council reject homeowner request to close road sioux city resident express concern to staff of sen joni ernst about federal budget cut new york city is closer to electing a democratic socialist mayor business have mixed feeling reader view dont doubt those protesting the powerful reader view beautiful bill could cut service we need editorial cartoon for june rubio hegseth slam medium over iran strike leak professional stabber undermining u victory upper township renews liquor license for the deauville inn on one condition bamberg county sheriff office detention center honor employee behind the curtain ai urgency call for a modern marshall plan gop leader accused of pressuring lobbyist to drop gaming client in ugly pa budget fight a whirlwind hour how trump israeliran ceasefire agreement came together letter let not lose more of bidwells legacy letter let not lose more of bidwells legacy a tremendous victory for everybody trump on iran strike from cable to vision pro how luxshare is replacing foxconn in apple ecosystem trump hoping for comprehensive peace agreement with iran witkoff court order trump administration to return another wrongly deported man overdoses are down in iredell county a more proactive approach may be helping letter eliminating fluoridation carry health risk letter eliminating fluoridation carry health risk a whirlwind hour how trump israeliran ceasefire agreement came together a whirlwind hour how trump israeliran ceasefire agreement came together kennedyappointed cdc vaccine panel say it will scrutinize the childhood vaccine schedule letter trust our president and pray for our country letter trust our president and pray for our country ice will see you now everyday ethic what if you had only one day to live everyday ethic what if you had only one day to live a columbia trustee view higher education is at a crossroad let choose builder over destroyer im a veteran and former democratic congressman here why the gop ought to think hard about iran big beautiful bill should not include sale of public land opinion big beautiful bill should not include sale of public land opinion rare earth startup say without subsidy and support u cant shake china control asra nomani iran ideological foot soldier wage proxy war in america death from heart attack are way down here whats killing u instead trump lawyer and doj enforcer face confirmation hearing for federal judgeship our opinion berkshire carousel horse ride again can they carry this downtown destination to sustainability the normalization of american indecency iran strategic blunder paved the way for humiliating defeat expert say want happier healthier kid let them play a decade after obergefell lgbtq right remain under threat exclusive thune urge light touch on ai regulation when everything go wrong trump pick for appeal judge seen a illsuited to lifetime appointment skinnytok rebranded eating disorder dangerously fast scoop trump admin cut contract with scientific publishing giant how to contact cayuga county federal state and county elected official iranian royalty fed local rumor mill year ago letter bomb and peace dont work well together letter bomb and peace dont work well together u marine sentenced to year over sexual assault in japan letter not feeling represented by district congressman letter not feeling represented by district congressman nato summit yield a big win on defense spending for trump but key question over the alliance remain trump isnt ready for a ceasefire with massie zambian president burial halted just a it wa to begin despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer super coral and supplement inside the lab trying to save the great barrier reef food hygiene rating handed to two doncaster establishment trump did the right thing israeli intelligence see significant damage to iran nuclear facility official say after a halfcentury of legal logjam will killer of coast banker wife face execution june during patriotic season searching for the right america public forum bill threatens mental health care aging entrepreneur face new policy hurdle here how to help highyielding dividend stock to buy for the long haul trump triumph nato bow to u pressure with defense pledge rep mike quigley tell trump to put your ego in your pocket rep mike quigley on intel suggesting limited damage to iran nuclear program a criminal justice expert on the implication of the karen read verdict morning brief nato commits to defense spike nyc pick a socialist expert push transing kid trump pick for appeal judge draw controversy zohran mamdani set to defeat cuomo in nyc mayoral primary upset today in history june korean war begin australian outback transformed by water rubio dont believe report of only modest damage in iran pell grant cut would be a blow to maine economic future opinion pell grant cut would be a blow to maine economic future opinion the supreme court blessed samesex marriage year ago is a backlash brewing franklin board modifies some district policy after discussion astronomical society to hold public night saturday editorial minnesota shooting shatter trust faith bridge builder announces first recipient of technical career investment grant year ago june state issue warning on fake inheritance scam column pursue smarter choice on the northern border scatec asa subscription for the employee share purchase programme exclusive shell in early talk to acquire rival bp wsj palantir stock hit alltime high whats going on vimergy brings mouth of america campaign to washington dc to expose a system that profit while american get sicker cpsc urge firework safety ahead of july th holiday metas insane technology give user something no screen today can deliver say mark zuckerberg in the future ill just beam in is charles river laboratory stock underperforming the sp is charles river laboratory stock underperforming the sp national survey find american favor a federal budget completely different from the one congress is developing bumble to cut of workforce a online dating apps aim to improve user experience wsj why aerovironment stock is soaring today why aerovironment stock is soaring today nvidia stock soar near record high whats driving the rally forget crossfit this million fitness event is taking over how teacher are using chatgptand getting their time back how seattle won over fifas club world cup skeptic bitcoin rise nyse battle for trump etf and crypto may be coming to mortgage next ai for impact day explores the potential for ai to improve decisionmaking and increase efficiency across critical national security operation should you buy slide insurance stock after the slde ipo should you buy slide insurance stock after the slde ipo carnival booking surge ha wall street talking already solstad renews partnership with marlink for it next stage of digital transformation forester financial welcome new leadership to it board of director trump megabill and economic agenda would spur growth and reduce national debt according to white house report here how much invested in oracle year ago would be worth today amazon is selling a espresso machine for and shopper say it make great coffee just like starbucks another huge retail chain liquidating after chapter bankruptcy duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu siili solution plc share repurchase duck return to a long island farm that lost it entire flock to the bird flu aigenerated scam claim more victim yearoveryear despite declining consumer concern new sift report reveals duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu russia to boost export of china favorite russian crude in july duck return to a long island farm that lost it entire flock to the bird flu how data analytics power and governs nextgen digital twin duck return to a long island farm that lost it entire flock to the bird flu shiba inu to be left in pepe dollar tokenomics attract institutional investor over shiba inus massive dilution risk intrinsic therapeutic announces the first implantation of the barricaid annular closure device via endoscopic approach happy city holding limited announces closing of initial public offering duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu fed chair powell the crypto industry is maturing becoming more mainstream duck return to a long island farm that lost it entire flock to the bird flu invent inventor develops temporary replacement for windshield wiper mho duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu nostalgic pepsi brand from the s roll out new flavor week after rival coke launch it version pictory introduces one of the world first ai video mcp server pictory introduces one of the world first ai video mcp server rosen a trusted and leading law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt have the wheel fallen off the corn market have the wheel fallen off the corn market senate minority leader schumer treated for dehydration at area hospital his office say study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform valuesinaction foundation honor leadership from across the u valuesinaction foundation honor leadership from across the u new home sale plummet more than expected a high mortgage rate sink demand bi claim stablecoins fail a money call for strict limit on their role tidy up your patio in second get off the aerobroom in cordless leaf blower broom is skin cancer linked to climate change hims hers health ceo say compounding novo weightloss drug will continue report himsnyse seeking alpha ahold delhaize usa tap food lion executive a cfo paychex stock take a hit a margin squeeze overshadows outlook spotify stock hit record high get pricetarget hike american became millionaire in way your neigbors are getting rich and how to keep up pacific life introduces new variable universal life insurance product now available through state farm ulta beauty cfo paula oyibo quits pick insider for interim role u state to roll out huge bottle change in new july law and the ban target all of your shower supply you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation robinhood ceo highlight retail investor interest in nvidia tesla despite middle east tension barely a blip hot weather safety trick for your pet hot weather safety advice for your pet mark walter and lakers say sale of the team is expected to close later this year clever carnivore announces scalable costcompetitive and delicious cultivated pork clever carnivore announces scalable costcompetitive and delicious cultivated pork medium advisory federal government to make housing announcement in cape breton stock see support a reduced middle east tension spark riskon stock see support a reduced middle east tension spark riskon piston raise m for cardless fuel payment solution piston raise m for cardless fuel payment solution tsa say these common childrens toy may not be allowed on plane why share of tesla are sinking today navigating the complexity of crossborder freight invent inventor develops new shoe cleaning device mho overture map launch gers a global standard for interoperable geospatial id to drive data interoperability big gain start small best new meme coin to join this month before they moon kandal m venture limited announces pricing of initial public offering and listing on nasdaq woodside close stake sale in louisiana lng project kandal m venture limited announces pricing of initial public offering and listing on nasdaq ap business summarybrief at am edt wary of washington europe fret it will be left behind on an ai battlefield senate prepares for vote on big beautiful bill trump say u will meet with iran next week trump megabill and economic agenda would spur growth and reduce national debt according to white house report fox news racist smear against zohran mamdani fail in new york mayoral race un official say agency cant locate iran uranium after u strike yakima start work on water and wastewater connection in several neighborhood trump israel say u airstrike destroyed crucial nuclear facility and set iran back year denver judge to decide fate of ice subpoena a state employee sue gov polis to halt compliance reader opinion preparing the landscape trump label nycs mamdani a communist lunatic senate gop leader make opening offer on hospital fund california found in violation of title ix in clash with trump official over transgender athlete man indicted on hate crime charge in attack on boulder demonstration for israeli hostage house republican inch closer to answer a former biden advisor lose executive privilege shield you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation man get stuck in chimney while trying to rescue dog trapped in building san francisco mayor daniel lurie unveils family zoning plan to boost homebuilding trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike donald trump should be ashamed of betraying our afghan ally opinion trump denies iranian moved nuclear material before u strike kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time cayuga county budget reality raise tax or cut deeper trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump hegseth seethe at fake news medium for doubting u strike obliterated iranian nuclear site scum maverick select cooper flagg no overall in nba draft early u intelligence report suggests u strike only set back iran nuclear program by month trump attack on iran pushed diplomacy with kim jong un further out of reach tracking every firstround pick in the nba draft trump affirms his commitment to nato article pledge for mutual defense he like me trump on nato chief mark rutte calling him daddy unanimous wisconsin supreme court curtails governor partial veto power unanimous wisconsin supreme court curtails governor partial veto power dead congressman social medium account resurrected to boost former chief of staff congressional bid schumer hospitalized for dehydration a dc nears degree the myth of iran invincibility ha been broken and the fallout could be farreaching pope leo xiv urge all side in iranisrael war to reject bullying and arrogance and talk peace new york man arrested in maine on drug trafficking charge longlasting insulin take another step forward with latest clinical trial result tony abbott tell advance supporter bequeathing money to rightwing group will protect australian value excessive social medium found to harm teenager mental health but expert say moderation may be key cruel joke tax concession drive donation to australia richest private school and must stop critic argue trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending we may not agree on climate but we all feel the heat past public policy make today crisis more costly past public policy make today crisis more costly past public policy make today crisis more costly hood our lawmaker arent deadlocked on regulation toyota tlmoda and the salvation army team up to distribute backpack and school supply to student nationwide can i partner with a different attorney on my appeal appeal lawyer wichita wa donald trump decision to strike iran legal trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending shasti conrad leader of the wa democratic party win dnc vice chair race durbin tee off on bove a judiciary hearing kick off trump say assessment of iran nuclear facility damage wa not a complete report zohran mamdani ha nycs business community terrified lawless act of defiance doj say biden judge is refusing to follow supreme court order how chatgpt and other ai tool are changing the teaching profession microsoft sued by author over use of book in ai training democrat primary voter reward first prosecutor to indict trump senator air concern about doj budget proposal billionaire ackman and musk rebuke zohran mamdanis win in nyc mayoral primary senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse former democrat staffer arrested for abducting assaulting woman on the loose after posting bond baumgartner northwest republican ask rfk jr to reopen niosh worker safety office in spokane thing to know about senate bill navigating new noncompete restriction for healthcare practitioner in texas trump say u will meet with iran next week israel and iran both claim win a trumpbrokered truce hold carlisle vote to sell fire engine address upcoming project gop leader back florida ag uthmeier at u supreme court on immigration trump state visit to the uk to take place this year say buckingham palace u stock hang near their record a wall street take a breath following two big day hamas is preparing attack on american contractor helping distribute aid in gaza bezos arrives in venice a protester say his starstudded wedding highlight growing inequality new dogsized dinosaur specie discovered tax collection tumble again in latest washington budget forecast trump white house clear way for biden aide to tell all i am sweating badly new yorkers and visitor cope with extreme heat no social security tax cut in trump new bill what retiree need to know jerald mcnair while school are out our youth need to continue to read jeff bezos italian wedding by the number the senate majority run through moderate america eric dane and jensen ackles in countdown youre not dreaming score dozen of early th of july deal on mattress vulnerable long island dem warns mamdani too extreme for nyc after primary upset not just alligator alcatraz desantis float building another immigration detention center federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit eric adam ha a real chance to stop mamdani but andrew cuomo need to announce he dropping out trump admin sue every federal judge in maryland over immigration order faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>jeff bezos and blue origin engaged with trump administration for government contract amid elon musk rift with the president report best smart glass with camera to buy in iran confirms nuclear site damaged a trump promise a meeting next week sitime corporation announces pricing of followon public offering analysisinvestors shore up defence against another august market rout kroger parent company of ralphs plan to close dozen of grocery store investor shore up defence against another august market rout reuters city council committee back minimum wage for hospitality worker who winning the innovation race new year analysis point to what matter most avermedia unveils two new hdmi capture device for creator at every level who winning the innovation race new year analysis point to what matter most why trump need the world to believe iran nuclear program is obliterated how japan and alaska pioneered the global market for lng the alaska town at the center of trump billion lng push ai reasoning problem why thinking model may not actually be smarter bik data analysis indicates including bnpl transaction data in credit history could help almost every second thinfile customer improve their creditworthiness north korea opening a tourist site on it east coast next week thats key to it tourism hope eu rule out production aid in blow to battery cleantech industry hong kong home price little changed in may electricity use for commercial computing could surpass space cooling ventilation tim draper say this will be the fate of bitcoin and the dollar in year billionaire highlight apps built on btc that matter california raise the bar with two three starred restaurant joining selection storage project planned for laurel oak ranch veteran analyst drop bold new call on nvidia stock yahoo finance buyer emerge for northvolt carlsbad newly opened lilo restaurant crowned with a michelin star fujitsus uvance wayfinders consulting empowers customer to evolve business foundation leveraging data and ai strongest naruto character ranked oxford cambridge fall in global college ranking expert say it a red flag for uk innovation trump familybacked world liberty financial plan to launch a new app that will make it easy for lay investor to use crypto at least reason why trump should reject a nobel peace prize china fintech giant ant double down on health care with new ai app and it want it to go global top meme coin to buy for with real narrative and epic roadmaps beijing ramp up stimulus a uschina trade tension threaten recovery kratos defense security solution inc price public offering of common stock asia fx firm dollar hit yr low a trump call for rate cut amid powell feud is this the most political fashion item ever south korea central bank adjusts open market operation to boost money supply mark zuckerbergs meta beat lawsuit over ai training on book judge find no meaningful evidence on market dilution analysis trump claim the press is demeaning the military but questioning power is patriotic colorado native nique clifford selected with no overall pick in nba draft wall street panic a socialist set to take over new york reit tumble at the idiocy of it all enthusiast gaming announces annual general meeting top desktop deal for june alienware lenovo hp and more enthusiast gaming announces annual general meeting colorado proposal seek to double income tax rate for taxpayer who earn at least million bitcoin top this key level a institution pile on ethereum dogecoin rangebound analyst say buying btc now is like buying it for in blacklisted by the u and backed by beijing this chinese ai startup ha caught openais attention vietnam to remove death penalty for embezzlement sparing tycoon life why trump strike on iran will leave north korea more determined than ever to keep it nuke acen and upc renewables break ground on over mw of new renewable energy project in india firm outline audit into iedc operation over past year rove pest control join force with greenix pest control optiva inc announces result of annual meeting mar acquisition of pringles maker trigger eu alarm dw isisinspired drone war plan leaked from u national security council china will take forceful step to boost consumption premier li say fema is not a replacement for insurance coverage risk management expert say here why cnbc daily open funny how the sp is teasing a new high amid uncertainty top poco phone under r first nordic announces annual general meeting voting result judge reject author claim that meta ai training violated copyright variety trump organization scrap made in the usa tag for it gold t smartphone asian stock hesitant dollar slide on trump attack on powell australia job vacancy bounce in may quarter ab data show hm share jump a it flag summer shopping pickup why not an islamic bomb how israel planned failed to stop pakistan going nuclear asos shopper say they were banned for making too many return sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity tesla begin rolling out self driving service in texas flexiview lending close million fixandflip loan in montpelier vermont how daddy talk and trump and ruttes bromance stole the nato spotlight htc partner with ntt com to forge a new model for immersive entertainment in japan murata push capacitor design with world first fvdc mlcc in inch size for automotive application bay miner launch aipowered cloud mining supporting bitcoin ethereum sol xrp litecoin and dogecoin jefferson capital announces pricing of initial public offering jefferson capital announces pricing of initial public offering it not my responsibility working with autonomyrestricting algorithm facilitates unethical behavior and displacement of responsibility new covidwave scarecampaign a massive flop the secret out top meme coin to buy that are taking over crypto influencer portfolio best malayalam cop thriller on ott you cant miss craft telemedicine launch to redefine specialty care with humancentered my bos lead the right way understanding how and when the institutionalization of ethic impact supervisor leadership style michael novogratzs galaxy and invesco file to launch solana etf what you should know about qsol trump judicial nominee bove denies advising justice department lawyer to ignore court order treasury yield fall a concern grow over trump criticism of powell inplay oil corp announces annual meeting voting result for election of director trump admin move to let borrower use crypto in mortgage application alaska commissioner of revenue adam crum and prospr aligned announce launch of the frontier economic fund nyse akaf getchell gold corp announces total debenture conversion walmart is selling an easy to assemble gaming chair for and shopper say it quality is excellent cathie wood double down on shopify buy the dip dump million worth of robinhood stock at peak tariff cost boost demand for efficiency in reverse logistics ap technology summarybrief at pm edt ap technology summarybrief at pm edt how chatgpt and other ai tool are changing the teaching profession modernday monopoly gop senator sound alarm on mega corporation hijacking u beef supply hims investor alert robbins geller rudman dowd llp announces that hims hers health inc investor with substantial loss have opportunity to lead the hims hers class action lawsuit denis villeneuve to direct next james bond film international paper to release secondquarter earnings on july trump latest rejection of intelligence assessment reflects a long distrust of spy agency editorial stay up to date on status of water recreation option trump official to give first classified briefing to congress on iran strike iran confirms nuclear site damaged a trump promise a meeting next week republican congresswoman office evacuated after proabortion activist send chilling threat cal thomas make america clean again john hood nc lawmaker arent deadlocked on regulation bull take yearold noa essengue at no for central division lone firstround pick eu leader meet to discus tougher russia sanction u tariff and middle east conflict trump official to give first classified briefing to congress on iran strike trump official to give first classified briefing to congress on iran strike trump latest rejection of intelligence assessment reflects a long distrust of spy agency trump latest rejection of intelligence assessment reflects a long distrust of spy agency senior are the fastestgrowing age group in the bay area and nationwide dear neighbor it because of my value my turn were running out of caregiver im scared for the future larry efird an uncommon spirit why trump need the world to believe iran nuclear program is obliterated how a california psychology student exposed the dark side of therapy education my turn usa bombed iran now the electrical grid and your network are in the crosshairs letter to the editor watt need your support editorial baltimore sun trump entry into iran war left congress mia letter to the editor thanks to city public work steven borne absentee ballot and access help people vote keith kuenning new hampshire budget betrays it child trump announces iran nuclear talk following u strike that severely damaged iranian nuclear program little league serra mesa tierrasanta septum set to vote on budget proposal thursday this is a real doomsday scenario jonah goldberg u right to bomb iran with or without nuclear specter ted talley tinkering trump creates problem where none exist kratos defense security solution inc price public offering of common stock is this the most political fashion item ever analysis trump claim the press is demeaning the military but questioning power is patriotic vietnam to remove death penalty for embezzlement sparing tycoon life mamdani say listening making city affordable key part of campaign trump considering several candidate for next federal reserve chair florida rep kat cammack say her office wa evacuated due to death threat florida rep kat cammack say her office wa evacuated due to death threat why trump strike on iran will leave north korea more determined than ever to keep it nuke miranda devine trumpderangement syndrome drive deep state leaker cnn to treasonous length to deny prez a victory live update hegseth will hold new conference to respond to intelligence report on iran strike nato survives another day sf resident to see a hike in trash fee sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity minnesota solar energy advocate mourn the loss of champion rep melissa hortman author of law boosting industry htc partner with ntt com to forge a new model for immersive entertainment in japan citrix release emergency patch for actively exploited cve in netscaler adc cooper flagg is the new face of maine cooper flagg is the new face of maine donation to local organization get matching boost this week where is our mexican vacation refund weve been waiting for month after more than a year on the run gang leader recaptured florida alligator alcatraz what to know minnesota face federal lawsuit for offering illegal immigrant college tuition benefit denied to american gloversvilles antonucci surprised self with mayoral primary win honduras u discus immigration security after tense start to relation under trump administration feeling gutted msnbcs nicolle wallace is sad tren de aragua gang member were deported to cecot exclusive leading house conservative call senate bluff on trump beautiful bill la immigration detention facility a ticking time bomb immigration lawyer say expert warns senate tax cut plan could add far more to the deficit than expected trump administration sue all maryland federal judge over order blocking removal of immigrant the trump administration is suing minnesota over break in higher education for immigrant student young cuban girl asks trump to lift travel ban stopping her from joining mom in u why the fed is keeping rate steady for now rental impact fee discussed a obstacle to college station affordable housing breaking down whistleblower claim against trump judicial pick denver judge say ice subpoena doesnt comply with state law but doesnt prohibit polis from responding the u also ha a bombproof bunker in a mountain analysis a battered iran face an uncertain future after it grinding war with israel sabrina carpenter release alternate album cover after online backlash approved by god federal judge block trump admin from ending collective bargaining for some federal worker independence day drone show spark council debate lt cmdr nathan ouellette retires after year of service veteran from deerfield named nyu truman scholar yearold billing boy remembered a stepfather is sentenced for his murder armed immigration officer arent even telling local police at time about their raid leak are a problem congress feud over trump limit on sharing intel duke phenom cooper flagg go to dallas maverick with no overall pick in nba draft cia say it ha evidence iran nuclear program wa severely damaged a assessment of u strike impact continue little league north park cholla lake mar pending acquisition of kellanova clear ftc antitrust review oklahoma supreme court begin oral argument on state question trump spy chief say new intel show iran nuclear facility were destroyed meta win artificial intelligence copyright case in blow to author republican suddenly realize voter hate their health care cut editorial class of youve earned your place this is your time trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump win over lifelong democrat autoworker with big beautiful bill vehicle loan tax benefit oregon house pass bipartisan bill to combat chronic absenteeism in school republican candidate who ran against maxine water admits to misusing campaign donation scoop protrump group unleashes first tv ad against massie trump administration to investigate university of california hiring practice ltte noise at the uv pilot site</t>
+          <t>ignitex sponsor taiwan blockchain hackathon empowering next generation of web innovator is the rule unattainable in typical u household need to spend of income to afford the medianpriced home b rfg advisory launch suite of active etf free settlement money from att who qualifies and when you can file your claim cnet what house and senate republican cant agree on in trump tax bill pony ai the next trillion robotaxi play fcps look toward next decade of school construction enrollment growth tri pointe home inc announces second quarter earnings release and conference call date growth stock that turned investment year ago into over million today the everglades foundation name shannon estenoz a it first chief policy officer santech holding announces unaudited financial result for the first half of fiscal year b bleakley add advisor coach ray sclafani to board of director air canada completes million substantial issuer bid acting on it commitment to balanced longterm capital allocation zapp ev report financial result for the six month ended march and provides operational update ufe doesnt remove fibroidsheres what woman arent being told quincy data precision time exchange service recognized a best time stamping measurement system by tradingtech insight award santech holding announces unaudited financial result for the first half of fiscal year a regulation fade a nonprofit push voluntary standard is the rule unattainable in typical u household need to spend of income to afford the medianpriced home improvement to make playground more accessible underway east texas bbb warns of major data breach chainlink whale diversifying into bitcoin solaris before it inevitable price explosion first quantum provides notice of second quarter result the everglades foundation name shannon estenoz a it first chief policy officer first patient enrolled in aclarions groundbreaking clarity trial pure property management named to inc best workplace hidden cost of homeownership now exceed a year kalmar and cagliari roro terminal continue collaboration with new order for terminal tractor no one expected oil price to crash this much first quantum provides notice of second quarter result sweden riksbank see some probability for further rate cut amid murky outlook buy now pay later plan will soon impact your credit scorewhat you need to know well fargo hike microsoft price target say ai business could reach billion in revenue cd rate today june take home up to teenage sprint sensation gout gout break his own m australian record in first race abroad china and india cut import of lowerquality coal from indonesia fueling ai data center behind the meter solution cherry bekaert appoints dan wheadon a cfo advisory leader is apa stock underperforming the dow bitget head to milan a sponsor at ethmilan watch fed chair jerome powell testify live before senate banking panel could berkshire hathaway stock double by even without warren buffett could berkshire hathaway stock double by even without warren buffett trimble tdks advanced navigation solution to enhance automotive positioning drone maker aerovironment share pop on earnings beat american in line to pocket up to k from m data breach settlement exact date to note down sp future muted with focus on powell testimony finding a mentor can be key to your success expert tip for finding one it going to get you place qdoba restaurant expands with th location in florida skelton big state budget question linger about crime medical delta tunnel former circuit clinical colleague join force again to form health care startup where will coreweave stock be in year how social security privatization could change the role of ira in your portfolio wayfair is selling a lounge chair for just and shopper say it will turn your patio into a little oasis how tariff might impact u car price by brand exclusive uber and palantir alum raise m to disrupt corporate recruitment with ai fortune amazon is selling a stunning citizen ecodrive watch for and buyer call it an eyecatcher amazon prime day start date early deal and shopping tip share in wr berkley corporation nysewrb purchased by kentucky retirement system insurance trust fund kentucky retirement system insurance trust fund make new investment in eversource energy nysees state of alaska department of revenue buy share of hyatt hotel corporation nyseh new york city is closer to electing a democratic socialist mayor business have mixed feeling why blackberry share are trading higher by around here are stock moving premarket kentucky retirement system insurance trust fund invests in citizen financial group inc nysecfg williamssonoma inc nysewsm share bought by janney montgomery scott llc kentucky retirement system insurance trust fund ha stock holding in tyson food inc nysetsn jfs wealth advisor llc purchase share of johnson control international plc nysejci omnicom group inc nyseomc stake reduced by continuum advisory llc xml financial llc ha holding in eaton corporation plc nyseetn exchange traded concept llc raise stock holding in allegion plc nysealle exchange traded concept llc ha stock holding in air product and chemical inc nyseapd gm inc nysegms share sold by state of alaska department of revenue williamssonoma inc nysewsm share acquired by janney montgomery scott llc trump advisor stephen miller reportedly hold stake worth million in ice contractor palantir he could easilyhave a direct and predictable impact micron face earnings test after share price doubled since april nba owner unanimously approve b sale of wolf wnbas lynx from taylor to lorerodriguez group first female reporter at kpnx in phoenix diane kalas dy bitcoin price rise the crypto is being boosted by these factor today verizon team up with nokia to bring hightech g boost to busy british port verizon team up with nokia to bring hightech g boost to busy british port usdinr inch up a market weighs middle east ceasefire amid fed and rbi action jadwa investment buy majority stake in saudi retailer makhazen alenaya why are some people calling for a mcdonalds boycott alexandria real estate equity inc nyseare share purchased by flagship harbor advisor llc kentucky retirement system insurance trust fund acquires new position in synchrony financial nysesyf kentucky retirement system insurance trust fund cut position in darden restaurant inc nysedri flagship harbor advisor llc purchase share of dexcom inc nasdaqdxcm how private capital could be the key to rebuilding america is palantir stock outperforming the dow is palantir stock outperforming the dow retirement system of alabama ha million stock position in firstenergy corporation nysefe retirement system of alabama sell share of cm energy corporation nysecms retirement system of alabama reduces position in kellanova nysek pfg investment llc decrease stake in ishares msci emerging market etf nysearcaeem today quordle hint and answer for june detroit station to open coffee shop in hope of connecting to the community trump medium stock edge higher premarket after nyse file to list truth social bitcoin and ethereum etf share flagship harbor advisor llc ha stake in edward lifesciences corporation nyseew retirement system of alabama lower position in devon energy corporation nysedvn wealth enhancement advisory service llc increase position in public service enterprise group incorporated nysepeg despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer what to do when success make you lose touch with your identity beef price at record high trump attack on iran pushed diplomacy with kim jong un further out of reach more than idaho airman are deployed in the middle east are they safe impactful bill that passed in idaho legislative session this year childrens hospital los angeles threw trans kid overboard teenage sprint sensation gout gout break his own m australian record in first race abroad the longest battle in world war i occurred around which french city the federalist society isnt going anywhere the federalist society isnt going anywhere trump united surveillance state of america how will your data be deployed glen alpine alderman step down cite board behavior highschoollike squabble in resignation orangeburg county council reject homeowner request to close road sioux city resident express concern to staff of sen joni ernst about federal budget cut new york city is closer to electing a democratic socialist mayor business have mixed feeling reader view dont doubt those protesting the powerful reader view beautiful bill could cut service we need editorial cartoon for june rubio hegseth slam medium over iran strike leak professional stabber undermining u victory upper township renews liquor license for the deauville inn on one condition bamberg county sheriff office detention center honor employee behind the curtain ai urgency call for a modern marshall plan gop leader accused of pressuring lobbyist to drop gaming client in ugly pa budget fight a whirlwind hour how trump israeliran ceasefire agreement came together letter let not lose more of bidwells legacy letter let not lose more of bidwells legacy a tremendous victory for everybody trump on iran strike from cable to vision pro how luxshare is replacing foxconn in apple ecosystem trump hoping for comprehensive peace agreement with iran witkoff court order trump administration to return another wrongly deported man overdoses are down in iredell county a more proactive approach may be helping letter eliminating fluoridation carry health risk letter eliminating fluoridation carry health risk a whirlwind hour how trump israeliran ceasefire agreement came together a whirlwind hour how trump israeliran ceasefire agreement came together kennedyappointed cdc vaccine panel say it will scrutinize the childhood vaccine schedule letter trust our president and pray for our country letter trust our president and pray for our country ice will see you now everyday ethic what if you had only one day to live everyday ethic what if you had only one day to live a columbia trustee view higher education is at a crossroad let choose builder over destroyer im a veteran and former democratic congressman here why the gop ought to think hard about iran big beautiful bill should not include sale of public land opinion big beautiful bill should not include sale of public land opinion rare earth startup say without subsidy and support u cant shake china control asra nomani iran ideological foot soldier wage proxy war in america death from heart attack are way down here whats killing u instead trump lawyer and doj enforcer face confirmation hearing for federal judgeship our opinion berkshire carousel horse ride again can they carry this downtown destination to sustainability the normalization of american indecency iran strategic blunder paved the way for humiliating defeat expert say want happier healthier kid let them play a decade after obergefell lgbtq right remain under threat exclusive thune urge light touch on ai regulation when everything go wrong trump pick for appeal judge seen a illsuited to lifetime appointment skinnytok rebranded eating disorder dangerously fast scoop trump admin cut contract with scientific publishing giant how to contact cayuga county federal state and county elected official iranian royalty fed local rumor mill year ago letter bomb and peace dont work well together letter bomb and peace dont work well together u marine sentenced to year over sexual assault in japan letter not feeling represented by district congressman letter not feeling represented by district congressman nato summit yield a big win on defense spending for trump but key question over the alliance remain trump isnt ready for a ceasefire with massie zambian president burial halted just a it wa to begin despite promise to remove worst of the worst ice ha arrested only of known immigrant murderer super coral and supplement inside the lab trying to save the great barrier reef food hygiene rating handed to two doncaster establishment trump did the right thing israeli intelligence see significant damage to iran nuclear facility official say after a halfcentury of legal logjam will killer of coast banker wife face execution june during patriotic season searching for the right america public forum bill threatens mental health care aging entrepreneur face new policy hurdle here how to help highyielding dividend stock to buy for the long haul trump triumph nato bow to u pressure with defense pledge rep mike quigley tell trump to put your ego in your pocket rep mike quigley on intel suggesting limited damage to iran nuclear program a criminal justice expert on the implication of the karen read verdict morning brief nato commits to defense spike nyc pick a socialist expert push transing kid trump pick for appeal judge draw controversy zohran mamdani set to defeat cuomo in nyc mayoral primary upset today in history june korean war begin australian outback transformed by water rubio dont believe report of only modest damage in iran pell grant cut would be a blow to maine economic future opinion pell grant cut would be a blow to maine economic future opinion the supreme court blessed samesex marriage year ago is a backlash brewing franklin board modifies some district policy after discussion astronomical society to hold public night saturday editorial minnesota shooting shatter trust faith bridge builder announces first recipient of technical career investment grant year ago june state issue warning on fake inheritance scam column pursue smarter choice on the northern border scatec asa subscription for the employee share purchase programme exclusive shell in early talk to acquire rival bp wsj palantir stock hit alltime high whats going on vimergy brings mouth of america campaign to washington dc to expose a system that profit while american get sicker cpsc urge firework safety ahead of july th holiday metas insane technology give user something no screen today can deliver say mark zuckerberg in the future ill just beam in is charles river laboratory stock underperforming the sp is charles river laboratory stock underperforming the sp national survey find american favor a federal budget completely different from the one congress is developing bumble to cut of workforce a online dating apps aim to improve user experience wsj why aerovironment stock is soaring today why aerovironment stock is soaring today nvidia stock soar near record high whats driving the rally forget crossfit this million fitness event is taking over how teacher are using chatgptand getting their time back how seattle won over fifas club world cup skeptic bitcoin rise nyse battle for trump etf and crypto may be coming to mortgage next ai for impact day explores the potential for ai to improve decisionmaking and increase efficiency across critical national security operation should you buy slide insurance stock after the slde ipo should you buy slide insurance stock after the slde ipo carnival booking surge ha wall street talking already solstad renews partnership with marlink for it next stage of digital transformation forester financial welcome new leadership to it board of director trump megabill and economic agenda would spur growth and reduce national debt according to white house report here how much invested in oracle year ago would be worth today amazon is selling a espresso machine for and shopper say it make great coffee just like starbucks another huge retail chain liquidating after chapter bankruptcy duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu siili solution plc share repurchase duck return to a long island farm that lost it entire flock to the bird flu aigenerated scam claim more victim yearoveryear despite declining consumer concern new sift report reveals duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu russia to boost export of china favorite russian crude in july duck return to a long island farm that lost it entire flock to the bird flu how data analytics power and governs nextgen digital twin duck return to a long island farm that lost it entire flock to the bird flu shiba inu to be left in pepe dollar tokenomics attract institutional investor over shiba inus massive dilution risk intrinsic therapeutic announces the first implantation of the barricaid annular closure device via endoscopic approach happy city holding limited announces closing of initial public offering duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu fed chair powell the crypto industry is maturing becoming more mainstream duck return to a long island farm that lost it entire flock to the bird flu invent inventor develops temporary replacement for windshield wiper mho duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu duck return to a long island farm that lost it entire flock to the bird flu nostalgic pepsi brand from the s roll out new flavor week after rival coke launch it version pictory introduces one of the world first ai video mcp server pictory introduces one of the world first ai video mcp server rosen a trusted and leading law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt have the wheel fallen off the corn market have the wheel fallen off the corn market senate minority leader schumer treated for dehydration at area hospital his office say study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform study find trump most favored nation drug proposal could still raise outofpocket cost without pbm reform valuesinaction foundation honor leadership from across the u valuesinaction foundation honor leadership from across the u new home sale plummet more than expected a high mortgage rate sink demand bi claim stablecoins fail a money call for strict limit on their role tidy up your patio in second get off the aerobroom in cordless leaf blower broom is skin cancer linked to climate change hims hers health ceo say compounding novo weightloss drug will continue report himsnyse seeking alpha ahold delhaize usa tap food lion executive a cfo paychex stock take a hit a margin squeeze overshadows outlook spotify stock hit record high get pricetarget hike american became millionaire in way your neigbors are getting rich and how to keep up pacific life introduces new variable universal life insurance product now available through state farm ulta beauty cfo paula oyibo quits pick insider for interim role u state to roll out huge bottle change in new july law and the ban target all of your shower supply you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation robinhood ceo highlight retail investor interest in nvidia tesla despite middle east tension barely a blip hot weather safety trick for your pet hot weather safety advice for your pet mark walter and lakers say sale of the team is expected to close later this year clever carnivore announces scalable costcompetitive and delicious cultivated pork clever carnivore announces scalable costcompetitive and delicious cultivated pork medium advisory federal government to make housing announcement in cape breton stock see support a reduced middle east tension spark riskon stock see support a reduced middle east tension spark riskon piston raise m for cardless fuel payment solution piston raise m for cardless fuel payment solution tsa say these common childrens toy may not be allowed on plane why share of tesla are sinking today navigating the complexity of crossborder freight invent inventor develops new shoe cleaning device mho overture map launch gers a global standard for interoperable geospatial id to drive data interoperability big gain start small best new meme coin to join this month before they moon kandal m venture limited announces pricing of initial public offering and listing on nasdaq woodside close stake sale in louisiana lng project kandal m venture limited announces pricing of initial public offering and listing on nasdaq ap business summarybrief at am edt wary of washington europe fret it will be left behind on an ai battlefield senate prepares for vote on big beautiful bill trump say u will meet with iran next week trump megabill and economic agenda would spur growth and reduce national debt according to white house report fox news racist smear against zohran mamdani fail in new york mayoral race un official say agency cant locate iran uranium after u strike yakima start work on water and wastewater connection in several neighborhood trump israel say u airstrike destroyed crucial nuclear facility and set iran back year denver judge to decide fate of ice subpoena a state employee sue gov polis to halt compliance reader opinion preparing the landscape trump label nycs mamdani a communist lunatic senate gop leader make opening offer on hospital fund california found in violation of title ix in clash with trump official over transgender athlete man indicted on hate crime charge in attack on boulder demonstration for israeli hostage house republican inch closer to answer a former biden advisor lose executive privilege shield you are cordially invited to critique jeff bezos and lauren sanchez wedding invitation man get stuck in chimney while trying to rescue dog trapped in building san francisco mayor daniel lurie unveils family zoning plan to boost homebuilding trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike donald trump should be ashamed of betraying our afghan ally opinion trump denies iranian moved nuclear material before u strike kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time kennedy new vaccine adviser meet for first time cayuga county budget reality raise tax or cut deeper trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump denies iranian moved nuclear material before u strike trump hegseth seethe at fake news medium for doubting u strike obliterated iranian nuclear site scum maverick select cooper flagg no overall in nba draft early u intelligence report suggests u strike only set back iran nuclear program by month trump attack on iran pushed diplomacy with kim jong un further out of reach tracking every firstround pick in the nba draft trump affirms his commitment to nato article pledge for mutual defense he like me trump on nato chief mark rutte calling him daddy unanimous wisconsin supreme court curtails governor partial veto power unanimous wisconsin supreme court curtails governor partial veto power dead congressman social medium account resurrected to boost former chief of staff congressional bid schumer hospitalized for dehydration a dc nears degree the myth of iran invincibility ha been broken and the fallout could be farreaching pope leo xiv urge all side in iranisrael war to reject bullying and arrogance and talk peace new york man arrested in maine on drug trafficking charge longlasting insulin take another step forward with latest clinical trial result tony abbott tell advance supporter bequeathing money to rightwing group will protect australian value excessive social medium found to harm teenager mental health but expert say moderation may be key cruel joke tax concession drive donation to australia richest private school and must stop critic argue trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending we may not agree on climate but we all feel the heat past public policy make today crisis more costly past public policy make today crisis more costly past public policy make today crisis more costly hood our lawmaker arent deadlocked on regulation toyota tlmoda and the salvation army team up to distribute backpack and school supply to student nationwide can i partner with a different attorney on my appeal appeal lawyer wichita wa donald trump decision to strike iran legal trump lay into spain over nato defense spending trump lay into spain over nato defense spending trump lay into spain over nato defense spending shasti conrad leader of the wa democratic party win dnc vice chair race durbin tee off on bove a judiciary hearing kick off trump say assessment of iran nuclear facility damage wa not a complete report zohran mamdani ha nycs business community terrified lawless act of defiance doj say biden judge is refusing to follow supreme court order how chatgpt and other ai tool are changing the teaching profession microsoft sued by author over use of book in ai training democrat primary voter reward first prosecutor to indict trump senator air concern about doj budget proposal billionaire ackman and musk rebuke zohran mamdanis win in nyc mayoral primary senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse senate bill a sensible cure for ada abuse former democrat staffer arrested for abducting assaulting woman on the loose after posting bond baumgartner northwest republican ask rfk jr to reopen niosh worker safety office in spokane thing to know about senate bill navigating new noncompete restriction for healthcare practitioner in texas trump say u will meet with iran next week israel and iran both claim win a trumpbrokered truce hold carlisle vote to sell fire engine address upcoming project gop leader back florida ag uthmeier at u supreme court on immigration trump state visit to the uk to take place this year say buckingham palace u stock hang near their record a wall street take a breath following two big day hamas is preparing attack on american contractor helping distribute aid in gaza bezos arrives in venice a protester say his starstudded wedding highlight growing inequality new dogsized dinosaur specie discovered tax collection tumble again in latest washington budget forecast trump white house clear way for biden aide to tell all i am sweating badly new yorkers and visitor cope with extreme heat no social security tax cut in trump new bill what retiree need to know jerald mcnair while school are out our youth need to continue to read jeff bezos italian wedding by the number the senate majority run through moderate america eric dane and jensen ackles in countdown youre not dreaming score dozen of early th of july deal on mattress vulnerable long island dem warns mamdani too extreme for nyc after primary upset not just alligator alcatraz desantis float building another immigration detention center federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit federal judge order u labor department to keep job corp running during lawsuit eric adam ha a real chance to stop mamdani but andrew cuomo need to announce he dropping out trump admin sue every federal judge in maryland over immigration order faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law faith leader and family sue to block texas new ten commandment in school law</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
       <c r="L3" t="n">
-        <v>0.141</v>
+        <v>0.133</v>
       </c>
       <c r="M3" t="n">
-        <v>0.737</v>
+        <v>0.748</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9969</v>
+        <v>-0.9988</v>
       </c>
       <c r="O3" t="n">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="P3" t="n">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="S3" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="T3" t="n">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="U3" t="n">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="V3" t="n">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="W3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -740,55 +736,55 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can chinese battery giant and tesla supplier catl is expanding globally here why it matter how to stay on top of google search faraday x preparation are in the final stage for the private preview and cocreation launch event on june th for the groundbreaking fx super one mpv biocon biologics receives health canada approval for yesafilitm aflibercept first global launch scheduled for july china factory activity expected to shrink for third month amid trade tension reuters poll nike vomero quietly became a million franchise in day a ceo say it time to turn the page investor gary black cheer afterhours rally ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt amazon google not far behind but dan ives say microsoft clearly leading in these segment price target is probably conservative why your to feel more like report say analysisin dovish tilt boj zoom in on obscure underlying inflation trend find the best crypto to join for emerging project reshaping the digital economy tesla shakeup who is omead afshar senior executive reportedly fired by elon musk amid slumping sale i time of india ap business summarybrief at am edt ap business summarybrief at am edt asian share are mostly higher after u stock rise to the brink of a record trump tariff have unsettled thailand pet food exporter germany tell apple google to block deepseek a the chinese ai app face rising pressure in europe hugging face cofounder challenge ai optimist model cant ask original scientific question you might not have bezoslevel buck but you still might consider a prenup vertex founder boger donates m to boston art academy trump big beautiful bill might be unloved and a mess but it will still probably pas here how the luxury real estate market is splitting up how company profit from your data without consent full circle boy leap forward with debut ep jete and official music video this go out to you out now increase of share capital in connection with realization of the employee option programm and subscription result more than an ev charger it peace of mind wherever the road take you cutting u energy credit doesnt save money it steal it from ratepayer local government ansi officially approves two new seia standard on consumer protection and operation and maintenance kymera therapeutic announces pricing of million public offering kymera therapeutic announces pricing of million public offering solaredge expands u manufacturing in salt lake city utah why denver homeowner are investing more in renovation project leap power national grid virtual power plant initiative in massachusetts hawaiian airline report cybersecurity event no flight disruption kitv boeing dreamliner black box recovered data under scrutiny to provide insight into fatal air india crash cso receives grant from mt charitable foundation achieve life science announces pricing of million underwritten public offering the mobility house and schneider electric unveil solar charging depot for turlock unifieds electric school bus fleet trump crypto advisor david sack say july will be a big month say president support legislation on market structure and stablecoins amazon grocery chief blame ridiculous red tape for holding back initiative at whole food were wasting time year old driver from tripura treated with eastern india firstever bachmanns bundle pacing vdh in the end everyone hated the iranian theocracy oklahoma governor kevin stitt and u secretary of health and human service robert f kennedy jr visit mom meal to highlight food a medicine leadership japan executes twitter killer who murdered and dismembered nine people saratoga county celebrates m airport revitalization ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt driver crash nearly plummet over san mateo county cliff north korea just opened a beach resort for people but who will visit jeep gladiator rank first in midsize pickup segment in jd power u initial quality study chrysler jeep and dodge brand improve iq score over thailand will hold trade talk with u next week finance minister say meta say it winning the talent war with openai the verge china u agree on detail of london trade framework beijing say saratogians remember mark straus a pioneer sp cut colombia debt rating to bb over declining fiscal result why lumen technology stock wa winning this week annovis bio to present key finding at alzheimers association international conference iraq war veteran hegseths news conference wa conduct unbecoming chinese influence in climate change lawsuit threatens to derail u energy industry asia fx muted dollar struggle at yr low with pce data on tap demolition start at former kera hq clearing way for new uptown tower european stock extend gain after white house hint at tariff extension baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence china skirt u sanction a top buyer of iranian oil here how and why thats unlikely to change soon china may industrial profit slip back into sharp decline reuters gold head for weekly loss a middle east truce sap demand uk auto production for may slump to lowest level since a trump tariff hit hard mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy informal mining boom is biggest fear for peru copper investor best cryptos to buy now one already up and climbing bill gate say he know for a fact that more child will die due to u health aid cut and he taking the proof to congress cancer patient recover by taking repurposed antiparasitic drug india economy to hold top spot for growth but underlying weakness remain reuters poll cnbc daily open wall street is tuning out the noise and catching ray turkish farmer pioneer xag agricultural drone for watersmart practice treasury yield inch higher a investor await the fed preferred inflation print bitcoin ethereum rangebound dogecoin dip amid potential july tariff deadline extension analyst predicts btcs next big move once it break out of this range softbank ceo say he all in on openai reveals he long wanted microsofts spot a main backer mexico investigating contamination from spacex explosion debris sandia national laboratory to cut up to workforce by early fall canada approves law to fasttrack resource project face indigenous opposition lithium industry bemoans paradox of low price rising demand china industrial profit slip back into sharp decline in may two north texas school board increase teacher pay in final budget confusion a trump say deal with china signed yet both side violate term of ceasefire share rally but dollar weakens with fed independence seen under threat courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois atlantic strategic mineral start commercial production at virginia operation u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can clarence page did you miss a holiday mr president arthur cyr bombing iran mideast stability and the role of the u former minnesota house speaker melissa hortman to lie in state a suspect face court date former minnesota house speaker melissa hortman to lie in state a suspect face court date democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship you might not have bezoslevel buck but you still might consider a prenup summer league basketball islander rattler trump big beautiful bill might be unloved and a mess but it will still probably pas edward d shanshala ii billion in waste fraud and abuse maybe but look in the right place editorial go slow on waymo several caution before selfdriving car arrive rev allison palm rev jonathan hopkins gov ayotte reneged on promise to meet with faith leader senator diverge sharply on damage done by iran strike after classified briefing japan executes twitter killer who murdered and dismembered nine people oregon senate vote to override governor veto a first since dallas place future of the franchise in cooper flagg a southwest division get better north korea just opened a beach resort for people but who will visit panton named johnstown knox elementary school principal former top aide to jill biden subpoenaed in house gop biden age probe iraq war veteran hegseths news conference wa conduct unbecoming selling public land isnt the answer to affordable housing title lx protection matter more than ever trump appointing a shadow chair at the fed ha put dollar under pressure meanwhile china is dumping the greenback and hoarding gold baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence abbott trump approval rating poll show economy thc reduce favorability among texan family file for release in lawsuit considered first involving child challenging arrest at court family file for release in lawsuit considered first involving child challenging arrest at court family sue over u detention in what may be first challenge to courthouse arrest involving kid gov ferguson warns medicaid cut could devastate washington health care system review gloversvilles stump city brewing is modern version of oldtime public house pintsized louisiana is latest state to redefine natural gas a planetwarming fossil fuel a green energy change coming for wilco voter courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois critical rce flaw in cisco ise and isepic allow unauthenticated attacker to gain root access pete hegseth air medium coverage grievance towards cnn and others the latest pretrial development in the idaho student killing case green leader larissa water on holding the labor government to account australian politics podcast labor must protect environment while rewriting law written to facilitate development larissa water say wife of minnesota suspect say she wa blindsided by shooting of state politician cnn this is your brain on chatgpt white house confirms u china have reached additional trade agreement trump threatens cnn and new york time with lawsuit over iran report senate parliamentarian ok gop cut to federal food assistance former trail blazer ben mclemore say sex wa consensual while taking the stand during rape trial woman accused of stealing from jewelry store in washington oregon former defense secy iranian nuclear facility damage assessment will take week community rally in massive show of support for caesar palace time square u tariff may sideline youth sport for many family making it harder for kid to stay active rep josh gottheimer american dont like trump big policy bill court issue opinion on centennial at tejon ranch cnn medium analyst responds to false attack on iranian nuclear site report let go through it zohran mamdani tell erin burnett how he plan to pay for his policy fireball fly across the sky and cause sonic boom america controversial iran airstrike letter to the editor june china on alert a nato boost defense spending mamdani vow to stand up to trump border czar and ice canadian official press u government for detail on canadian citizen who died in ice custody at a florida detention center former montana u rep pat williams who won a liberal conservative showdown dy at portland city council pass resolution to strengthen portland street response a look at legal threat facing samesex marriage year after obergefell decision it judgement time for john thune on the big beautiful bill guest commentary rtc targeting senior with displacement former pantagraph building get positive recommendation for landmark status eu leader on wto we need to come up with something else senate democrat question obliteration of iran nuclear site after classified briefing on strike officer placed on leave after shooting in bangor at least orgs urge senator to support iran war power resolution lawsuit filed on behalf of nex benedict estate against owasso public school trump spotlight parent who have lost kid due to open border during big beautiful bill event former trump lawyer kenneth chesebro disbarred in new york over election interference case donald trump say uschina trade truce ha been signed hegseth defends success of u strike on iran nuclear site amid doubt over impact standing up to bullying unscientific transgender activist mob canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say illinois gov jb pritzker announces bid for historic third term amidst presidential buzz interior secretary doug burgum answer question about the big beautiful bill and public land trump doj is targeting daily ko agent mental health passport led to push for secured bond famous preston night rodeo gearing up for it th annual community experience</t>
+          <t>jeff bezos and blue origin engaged with trump administration for government contract amid elon musk rift with the president report best smart glass with camera to buy in iran confirms nuclear site damaged a trump promise a meeting next week sitime corporation announces pricing of followon public offering analysisinvestors shore up defence against another august market rout kroger parent company of ralphs plan to close dozen of grocery store investor shore up defence against another august market rout reuters city council committee back minimum wage for hospitality worker who winning the innovation race new year analysis point to what matter most avermedia unveils two new hdmi capture device for creator at every level who winning the innovation race new year analysis point to what matter most why trump need the world to believe iran nuclear program is obliterated how japan and alaska pioneered the global market for lng the alaska town at the center of trump billion lng push ai reasoning problem why thinking model may not actually be smarter bik data analysis indicates including bnpl transaction data in credit history could help almost every second thinfile customer improve their creditworthiness north korea opening a tourist site on it east coast next week thats key to it tourism hope eu rule out production aid in blow to battery cleantech industry hong kong home price little changed in may electricity use for commercial computing could surpass space cooling ventilation tim draper say this will be the fate of bitcoin and the dollar in year billionaire highlight apps built on btc that matter california raise the bar with two three starred restaurant joining selection storage project planned for laurel oak ranch veteran analyst drop bold new call on nvidia stock yahoo finance buyer emerge for northvolt carlsbad newly opened lilo restaurant crowned with a michelin star fujitsus uvance wayfinders consulting empowers customer to evolve business foundation leveraging data and ai strongest naruto character ranked oxford cambridge fall in global college ranking expert say it a red flag for uk innovation trump familybacked world liberty financial plan to launch a new app that will make it easy for lay investor to use crypto at least reason why trump should reject a nobel peace prize china fintech giant ant double down on health care with new ai app and it want it to go global top meme coin to buy for with real narrative and epic roadmaps beijing ramp up stimulus a uschina trade tension threaten recovery kratos defense security solution inc price public offering of common stock asia fx firm dollar hit yr low a trump call for rate cut amid powell feud is this the most political fashion item ever south korea central bank adjusts open market operation to boost money supply mark zuckerbergs meta beat lawsuit over ai training on book judge find no meaningful evidence on market dilution analysis trump claim the press is demeaning the military but questioning power is patriotic colorado native nique clifford selected with no overall pick in nba draft wall street panic a socialist set to take over new york reit tumble at the idiocy of it all enthusiast gaming announces annual general meeting top desktop deal for june alienware lenovo hp and more enthusiast gaming announces annual general meeting colorado proposal seek to double income tax rate for taxpayer who earn at least million bitcoin top this key level a institution pile on ethereum dogecoin rangebound analyst say buying btc now is like buying it for in blacklisted by the u and backed by beijing this chinese ai startup ha caught openais attention vietnam to remove death penalty for embezzlement sparing tycoon life why trump strike on iran will leave north korea more determined than ever to keep it nuke acen and upc renewables break ground on over mw of new renewable energy project in india firm outline audit into iedc operation over past year rove pest control join force with greenix pest control optiva inc announces result of annual meeting mar acquisition of pringles maker trigger eu alarm dw isisinspired drone war plan leaked from u national security council china will take forceful step to boost consumption premier li say fema is not a replacement for insurance coverage risk management expert say here why cnbc daily open funny how the sp is teasing a new high amid uncertainty top poco phone under r first nordic announces annual general meeting voting result judge reject author claim that meta ai training violated copyright variety trump organization scrap made in the usa tag for it gold t smartphone asian stock hesitant dollar slide on trump attack on powell australia job vacancy bounce in may quarter ab data show hm share jump a it flag summer shopping pickup why not an islamic bomb how israel planned failed to stop pakistan going nuclear asos shopper say they were banned for making too many return sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity tesla begin rolling out self driving service in texas flexiview lending close million fixandflip loan in montpelier vermont how daddy talk and trump and ruttes bromance stole the nato spotlight htc partner with ntt com to forge a new model for immersive entertainment in japan murata push capacitor design with world first fvdc mlcc in inch size for automotive application bay miner launch aipowered cloud mining supporting bitcoin ethereum sol xrp litecoin and dogecoin jefferson capital announces pricing of initial public offering jefferson capital announces pricing of initial public offering it not my responsibility working with autonomyrestricting algorithm facilitates unethical behavior and displacement of responsibility new covidwave scarecampaign a massive flop the secret out top meme coin to buy that are taking over crypto influencer portfolio best malayalam cop thriller on ott you cant miss craft telemedicine launch to redefine specialty care with humancentered my bos lead the right way understanding how and when the institutionalization of ethic impact supervisor leadership style michael novogratzs galaxy and invesco file to launch solana etf what you should know about qsol trump judicial nominee bove denies advising justice department lawyer to ignore court order treasury yield fall a concern grow over trump criticism of powell inplay oil corp announces annual meeting voting result for election of director trump admin move to let borrower use crypto in mortgage application alaska commissioner of revenue adam crum and prospr aligned announce launch of the frontier economic fund nyse akaf getchell gold corp announces total debenture conversion walmart is selling an easy to assemble gaming chair for and shopper say it quality is excellent cathie wood double down on shopify buy the dip dump million worth of robinhood stock at peak tariff cost boost demand for efficiency in reverse logistics ap technology summarybrief at pm edt ap technology summarybrief at pm edt how chatgpt and other ai tool are changing the teaching profession modernday monopoly gop senator sound alarm on mega corporation hijacking u beef supply hims investor alert robbins geller rudman dowd llp announces that hims hers health inc investor with substantial loss have opportunity to lead the hims hers class action lawsuit denis villeneuve to direct next james bond film international paper to release secondquarter earnings on july trump latest rejection of intelligence assessment reflects a long distrust of spy agency editorial stay up to date on status of water recreation option trump official to give first classified briefing to congress on iran strike iran confirms nuclear site damaged a trump promise a meeting next week republican congresswoman office evacuated after proabortion activist send chilling threat cal thomas make america clean again john hood nc lawmaker arent deadlocked on regulation bull take yearold noa essengue at no for central division lone firstround pick eu leader meet to discus tougher russia sanction u tariff and middle east conflict trump official to give first classified briefing to congress on iran strike trump official to give first classified briefing to congress on iran strike trump latest rejection of intelligence assessment reflects a long distrust of spy agency trump latest rejection of intelligence assessment reflects a long distrust of spy agency senior are the fastestgrowing age group in the bay area and nationwide dear neighbor it because of my value my turn were running out of caregiver im scared for the future larry efird an uncommon spirit why trump need the world to believe iran nuclear program is obliterated how a california psychology student exposed the dark side of therapy education my turn usa bombed iran now the electrical grid and your network are in the crosshairs letter to the editor watt need your support editorial baltimore sun trump entry into iran war left congress mia letter to the editor thanks to city public work steven borne absentee ballot and access help people vote keith kuenning new hampshire budget betrays it child trump announces iran nuclear talk following u strike that severely damaged iranian nuclear program little league serra mesa tierrasanta septum set to vote on budget proposal thursday this is a real doomsday scenario jonah goldberg u right to bomb iran with or without nuclear specter ted talley tinkering trump creates problem where none exist kratos defense security solution inc price public offering of common stock is this the most political fashion item ever analysis trump claim the press is demeaning the military but questioning power is patriotic vietnam to remove death penalty for embezzlement sparing tycoon life mamdani say listening making city affordable key part of campaign trump considering several candidate for next federal reserve chair florida rep kat cammack say her office wa evacuated due to death threat florida rep kat cammack say her office wa evacuated due to death threat why trump strike on iran will leave north korea more determined than ever to keep it nuke miranda devine trumpderangement syndrome drive deep state leaker cnn to treasonous length to deny prez a victory live update hegseth will hold new conference to respond to intelligence report on iran strike nato survives another day sf resident to see a hike in trash fee sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity minnesota solar energy advocate mourn the loss of champion rep melissa hortman author of law boosting industry htc partner with ntt com to forge a new model for immersive entertainment in japan citrix release emergency patch for actively exploited cve in netscaler adc cooper flagg is the new face of maine cooper flagg is the new face of maine donation to local organization get matching boost this week where is our mexican vacation refund weve been waiting for month after more than a year on the run gang leader recaptured florida alligator alcatraz what to know minnesota face federal lawsuit for offering illegal immigrant college tuition benefit denied to american gloversvilles antonucci surprised self with mayoral primary win honduras u discus immigration security after tense start to relation under trump administration feeling gutted msnbcs nicolle wallace is sad tren de aragua gang member were deported to cecot exclusive leading house conservative call senate bluff on trump beautiful bill la immigration detention facility a ticking time bomb immigration lawyer say expert warns senate tax cut plan could add far more to the deficit than expected trump administration sue all maryland federal judge over order blocking removal of immigrant the trump administration is suing minnesota over break in higher education for immigrant student young cuban girl asks trump to lift travel ban stopping her from joining mom in u why the fed is keeping rate steady for now rental impact fee discussed a obstacle to college station affordable housing breaking down whistleblower claim against trump judicial pick denver judge say ice subpoena doesnt comply with state law but doesnt prohibit polis from responding the u also ha a bombproof bunker in a mountain analysis a battered iran face an uncertain future after it grinding war with israel sabrina carpenter release alternate album cover after online backlash approved by god federal judge block trump admin from ending collective bargaining for some federal worker independence day drone show spark council debate lt cmdr nathan ouellette retires after year of service veteran from deerfield named nyu truman scholar yearold billing boy remembered a stepfather is sentenced for his murder armed immigration officer arent even telling local police at time about their raid leak are a problem congress feud over trump limit on sharing intel duke phenom cooper flagg go to dallas maverick with no overall pick in nba draft cia say it ha evidence iran nuclear program wa severely damaged a assessment of u strike impact continue little league north park cholla lake mar pending acquisition of kellanova clear ftc antitrust review oklahoma supreme court begin oral argument on state question trump spy chief say new intel show iran nuclear facility were destroyed meta win artificial intelligence copyright case in blow to author republican suddenly realize voter hate their health care cut editorial class of youve earned your place this is your time trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump win over lifelong democrat autoworker with big beautiful bill vehicle loan tax benefit oregon house pass bipartisan bill to combat chronic absenteeism in school republican candidate who ran against maxine water admits to misusing campaign donation scoop protrump group unleashes first tv ad against massie trump administration to investigate university of california hiring practice ltte noise at the uv pilot site</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can chinese battery giant and tesla supplier catl is expanding globally here why it matter how to stay on top of google search faraday x preparation are in the final stage for the private preview and cocreation launch event on june th for the groundbreaking fx super one mpv biocon biologics receives health canada approval for yesafilitm aflibercept first global launch scheduled for july china factory activity expected to shrink for third month amid trade tension reuters poll nike vomero quietly became a million franchise in day a ceo say it time to turn the page investor gary black cheer afterhours rally ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt amazon google not far behind but dan ives say microsoft clearly leading in these segment price target is probably conservative why your to feel more like report say analysisin dovish tilt boj zoom in on obscure underlying inflation trend find the best crypto to join for emerging project reshaping the digital economy tesla shakeup who is omead afshar senior executive reportedly fired by elon musk amid slumping sale i time of india ap business summarybrief at am edt ap business summarybrief at am edt asian share are mostly higher after u stock rise to the brink of a record trump tariff have unsettled thailand pet food exporter germany tell apple google to block deepseek a the chinese ai app face rising pressure in europe hugging face cofounder challenge ai optimist model cant ask original scientific question you might not have bezoslevel buck but you still might consider a prenup vertex founder boger donates m to boston art academy trump big beautiful bill might be unloved and a mess but it will still probably pas here how the luxury real estate market is splitting up how company profit from your data without consent full circle boy leap forward with debut ep jete and official music video this go out to you out now increase of share capital in connection with realization of the employee option programm and subscription result more than an ev charger it peace of mind wherever the road take you cutting u energy credit doesnt save money it steal it from ratepayer local government ansi officially approves two new seia standard on consumer protection and operation and maintenance kymera therapeutic announces pricing of million public offering kymera therapeutic announces pricing of million public offering solaredge expands u manufacturing in salt lake city utah why denver homeowner are investing more in renovation project leap power national grid virtual power plant initiative in massachusetts hawaiian airline report cybersecurity event no flight disruption kitv boeing dreamliner black box recovered data under scrutiny to provide insight into fatal air india crash cso receives grant from mt charitable foundation achieve life science announces pricing of million underwritten public offering the mobility house and schneider electric unveil solar charging depot for turlock unifieds electric school bus fleet trump crypto advisor david sack say july will be a big month say president support legislation on market structure and stablecoins amazon grocery chief blame ridiculous red tape for holding back initiative at whole food were wasting time year old driver from tripura treated with eastern india firstever bachmanns bundle pacing vdh in the end everyone hated the iranian theocracy oklahoma governor kevin stitt and u secretary of health and human service robert f kennedy jr visit mom meal to highlight food a medicine leadership japan executes twitter killer who murdered and dismembered nine people saratoga county celebrates m airport revitalization ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt driver crash nearly plummet over san mateo county cliff north korea just opened a beach resort for people but who will visit jeep gladiator rank first in midsize pickup segment in jd power u initial quality study chrysler jeep and dodge brand improve iq score over thailand will hold trade talk with u next week finance minister say meta say it winning the talent war with openai the verge china u agree on detail of london trade framework beijing say saratogians remember mark straus a pioneer sp cut colombia debt rating to bb over declining fiscal result why lumen technology stock wa winning this week annovis bio to present key finding at alzheimers association international conference iraq war veteran hegseths news conference wa conduct unbecoming chinese influence in climate change lawsuit threatens to derail u energy industry asia fx muted dollar struggle at yr low with pce data on tap demolition start at former kera hq clearing way for new uptown tower european stock extend gain after white house hint at tariff extension baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence china skirt u sanction a top buyer of iranian oil here how and why thats unlikely to change soon china may industrial profit slip back into sharp decline reuters gold head for weekly loss a middle east truce sap demand uk auto production for may slump to lowest level since a trump tariff hit hard mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy informal mining boom is biggest fear for peru copper investor best cryptos to buy now one already up and climbing bill gate say he know for a fact that more child will die due to u health aid cut and he taking the proof to congress cancer patient recover by taking repurposed antiparasitic drug india economy to hold top spot for growth but underlying weakness remain reuters poll cnbc daily open wall street is tuning out the noise and catching ray turkish farmer pioneer xag agricultural drone for watersmart practice treasury yield inch higher a investor await the fed preferred inflation print bitcoin ethereum rangebound dogecoin dip amid potential july tariff deadline extension analyst predicts btcs next big move once it break out of this range softbank ceo say he all in on openai reveals he long wanted microsofts spot a main backer mexico investigating contamination from spacex explosion debris sandia national laboratory to cut up to workforce by early fall canada approves law to fasttrack resource project face indigenous opposition lithium industry bemoans paradox of low price rising demand china industrial profit slip back into sharp decline in may two north texas school board increase teacher pay in final budget confusion a trump say deal with china signed yet both side violate term of ceasefire share rally but dollar weakens with fed independence seen under threat courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois atlantic strategic mineral start commercial production at virginia operation u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can clarence page did you miss a holiday mr president arthur cyr bombing iran mideast stability and the role of the u former minnesota house speaker melissa hortman to lie in state a suspect face court date former minnesota house speaker melissa hortman to lie in state a suspect face court date democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship you might not have bezoslevel buck but you still might consider a prenup summer league basketball islander rattler trump big beautiful bill might be unloved and a mess but it will still probably pas edward d shanshala ii billion in waste fraud and abuse maybe but look in the right place editorial go slow on waymo several caution before selfdriving car arrive rev allison palm rev jonathan hopkins gov ayotte reneged on promise to meet with faith leader senator diverge sharply on damage done by iran strike after classified briefing japan executes twitter killer who murdered and dismembered nine people oregon senate vote to override governor veto a first since dallas place future of the franchise in cooper flagg a southwest division get better north korea just opened a beach resort for people but who will visit panton named johnstown knox elementary school principal former top aide to jill biden subpoenaed in house gop biden age probe iraq war veteran hegseths news conference wa conduct unbecoming selling public land isnt the answer to affordable housing title lx protection matter more than ever trump appointing a shadow chair at the fed ha put dollar under pressure meanwhile china is dumping the greenback and hoarding gold baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence abbott trump approval rating poll show economy thc reduce favorability among texan family file for release in lawsuit considered first involving child challenging arrest at court family file for release in lawsuit considered first involving child challenging arrest at court family sue over u detention in what may be first challenge to courthouse arrest involving kid gov ferguson warns medicaid cut could devastate washington health care system review gloversvilles stump city brewing is modern version of oldtime public house pintsized louisiana is latest state to redefine natural gas a planetwarming fossil fuel a green energy change coming for wilco voter courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois critical rce flaw in cisco ise and isepic allow unauthenticated attacker to gain root access pete hegseth air medium coverage grievance towards cnn and others the latest pretrial development in the idaho student killing case green leader larissa water on holding the labor government to account australian politics podcast labor must protect environment while rewriting law written to facilitate development larissa water say wife of minnesota suspect say she wa blindsided by shooting of state politician cnn this is your brain on chatgpt white house confirms u china have reached additional trade agreement trump threatens cnn and new york time with lawsuit over iran report senate parliamentarian ok gop cut to federal food assistance former trail blazer ben mclemore say sex wa consensual while taking the stand during rape trial woman accused of stealing from jewelry store in washington oregon former defense secy iranian nuclear facility damage assessment will take week community rally in massive show of support for caesar palace time square u tariff may sideline youth sport for many family making it harder for kid to stay active rep josh gottheimer american dont like trump big policy bill court issue opinion on centennial at tejon ranch cnn medium analyst responds to false attack on iranian nuclear site report let go through it zohran mamdani tell erin burnett how he plan to pay for his policy fireball fly across the sky and cause sonic boom america controversial iran airstrike letter to the editor june china on alert a nato boost defense spending mamdani vow to stand up to trump border czar and ice canadian official press u government for detail on canadian citizen who died in ice custody at a florida detention center former montana u rep pat williams who won a liberal conservative showdown dy at portland city council pass resolution to strengthen portland street response a look at legal threat facing samesex marriage year after obergefell decision it judgement time for john thune on the big beautiful bill guest commentary rtc targeting senior with displacement former pantagraph building get positive recommendation for landmark status eu leader on wto we need to come up with something else senate democrat question obliteration of iran nuclear site after classified briefing on strike officer placed on leave after shooting in bangor at least orgs urge senator to support iran war power resolution lawsuit filed on behalf of nex benedict estate against owasso public school trump spotlight parent who have lost kid due to open border during big beautiful bill event former trump lawyer kenneth chesebro disbarred in new york over election interference case donald trump say uschina trade truce ha been signed hegseth defends success of u strike on iran nuclear site amid doubt over impact standing up to bullying unscientific transgender activist mob canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say illinois gov jb pritzker announces bid for historic third term amidst presidential buzz interior secretary doug burgum answer question about the big beautiful bill and public land trump doj is targeting daily ko agent mental health passport led to push for secured bond famous preston night rodeo gearing up for it th annual community experience</t>
+          <t>jeff bezos and blue origin engaged with trump administration for government contract amid elon musk rift with the president report best smart glass with camera to buy in iran confirms nuclear site damaged a trump promise a meeting next week sitime corporation announces pricing of followon public offering analysisinvestors shore up defence against another august market rout kroger parent company of ralphs plan to close dozen of grocery store investor shore up defence against another august market rout reuters city council committee back minimum wage for hospitality worker who winning the innovation race new year analysis point to what matter most avermedia unveils two new hdmi capture device for creator at every level who winning the innovation race new year analysis point to what matter most why trump need the world to believe iran nuclear program is obliterated how japan and alaska pioneered the global market for lng the alaska town at the center of trump billion lng push ai reasoning problem why thinking model may not actually be smarter bik data analysis indicates including bnpl transaction data in credit history could help almost every second thinfile customer improve their creditworthiness north korea opening a tourist site on it east coast next week thats key to it tourism hope eu rule out production aid in blow to battery cleantech industry hong kong home price little changed in may electricity use for commercial computing could surpass space cooling ventilation tim draper say this will be the fate of bitcoin and the dollar in year billionaire highlight apps built on btc that matter california raise the bar with two three starred restaurant joining selection storage project planned for laurel oak ranch veteran analyst drop bold new call on nvidia stock yahoo finance buyer emerge for northvolt carlsbad newly opened lilo restaurant crowned with a michelin star fujitsus uvance wayfinders consulting empowers customer to evolve business foundation leveraging data and ai strongest naruto character ranked oxford cambridge fall in global college ranking expert say it a red flag for uk innovation trump familybacked world liberty financial plan to launch a new app that will make it easy for lay investor to use crypto at least reason why trump should reject a nobel peace prize china fintech giant ant double down on health care with new ai app and it want it to go global top meme coin to buy for with real narrative and epic roadmaps beijing ramp up stimulus a uschina trade tension threaten recovery kratos defense security solution inc price public offering of common stock asia fx firm dollar hit yr low a trump call for rate cut amid powell feud is this the most political fashion item ever south korea central bank adjusts open market operation to boost money supply mark zuckerbergs meta beat lawsuit over ai training on book judge find no meaningful evidence on market dilution analysis trump claim the press is demeaning the military but questioning power is patriotic colorado native nique clifford selected with no overall pick in nba draft wall street panic a socialist set to take over new york reit tumble at the idiocy of it all enthusiast gaming announces annual general meeting top desktop deal for june alienware lenovo hp and more enthusiast gaming announces annual general meeting colorado proposal seek to double income tax rate for taxpayer who earn at least million bitcoin top this key level a institution pile on ethereum dogecoin rangebound analyst say buying btc now is like buying it for in blacklisted by the u and backed by beijing this chinese ai startup ha caught openais attention vietnam to remove death penalty for embezzlement sparing tycoon life why trump strike on iran will leave north korea more determined than ever to keep it nuke acen and upc renewables break ground on over mw of new renewable energy project in india firm outline audit into iedc operation over past year rove pest control join force with greenix pest control optiva inc announces result of annual meeting mar acquisition of pringles maker trigger eu alarm dw isisinspired drone war plan leaked from u national security council china will take forceful step to boost consumption premier li say fema is not a replacement for insurance coverage risk management expert say here why cnbc daily open funny how the sp is teasing a new high amid uncertainty top poco phone under r first nordic announces annual general meeting voting result judge reject author claim that meta ai training violated copyright variety trump organization scrap made in the usa tag for it gold t smartphone asian stock hesitant dollar slide on trump attack on powell australia job vacancy bounce in may quarter ab data show hm share jump a it flag summer shopping pickup why not an islamic bomb how israel planned failed to stop pakistan going nuclear asos shopper say they were banned for making too many return sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity tesla begin rolling out self driving service in texas flexiview lending close million fixandflip loan in montpelier vermont how daddy talk and trump and ruttes bromance stole the nato spotlight htc partner with ntt com to forge a new model for immersive entertainment in japan murata push capacitor design with world first fvdc mlcc in inch size for automotive application bay miner launch aipowered cloud mining supporting bitcoin ethereum sol xrp litecoin and dogecoin jefferson capital announces pricing of initial public offering jefferson capital announces pricing of initial public offering it not my responsibility working with autonomyrestricting algorithm facilitates unethical behavior and displacement of responsibility new covidwave scarecampaign a massive flop the secret out top meme coin to buy that are taking over crypto influencer portfolio best malayalam cop thriller on ott you cant miss craft telemedicine launch to redefine specialty care with humancentered my bos lead the right way understanding how and when the institutionalization of ethic impact supervisor leadership style michael novogratzs galaxy and invesco file to launch solana etf what you should know about qsol trump judicial nominee bove denies advising justice department lawyer to ignore court order treasury yield fall a concern grow over trump criticism of powell inplay oil corp announces annual meeting voting result for election of director trump admin move to let borrower use crypto in mortgage application alaska commissioner of revenue adam crum and prospr aligned announce launch of the frontier economic fund nyse akaf getchell gold corp announces total debenture conversion walmart is selling an easy to assemble gaming chair for and shopper say it quality is excellent cathie wood double down on shopify buy the dip dump million worth of robinhood stock at peak tariff cost boost demand for efficiency in reverse logistics ap technology summarybrief at pm edt ap technology summarybrief at pm edt how chatgpt and other ai tool are changing the teaching profession modernday monopoly gop senator sound alarm on mega corporation hijacking u beef supply hims investor alert robbins geller rudman dowd llp announces that hims hers health inc investor with substantial loss have opportunity to lead the hims hers class action lawsuit denis villeneuve to direct next james bond film international paper to release secondquarter earnings on july trump latest rejection of intelligence assessment reflects a long distrust of spy agency editorial stay up to date on status of water recreation option trump official to give first classified briefing to congress on iran strike iran confirms nuclear site damaged a trump promise a meeting next week republican congresswoman office evacuated after proabortion activist send chilling threat cal thomas make america clean again john hood nc lawmaker arent deadlocked on regulation bull take yearold noa essengue at no for central division lone firstround pick eu leader meet to discus tougher russia sanction u tariff and middle east conflict trump official to give first classified briefing to congress on iran strike trump official to give first classified briefing to congress on iran strike trump latest rejection of intelligence assessment reflects a long distrust of spy agency trump latest rejection of intelligence assessment reflects a long distrust of spy agency senior are the fastestgrowing age group in the bay area and nationwide dear neighbor it because of my value my turn were running out of caregiver im scared for the future larry efird an uncommon spirit why trump need the world to believe iran nuclear program is obliterated how a california psychology student exposed the dark side of therapy education my turn usa bombed iran now the electrical grid and your network are in the crosshairs letter to the editor watt need your support editorial baltimore sun trump entry into iran war left congress mia letter to the editor thanks to city public work steven borne absentee ballot and access help people vote keith kuenning new hampshire budget betrays it child trump announces iran nuclear talk following u strike that severely damaged iranian nuclear program little league serra mesa tierrasanta septum set to vote on budget proposal thursday this is a real doomsday scenario jonah goldberg u right to bomb iran with or without nuclear specter ted talley tinkering trump creates problem where none exist kratos defense security solution inc price public offering of common stock is this the most political fashion item ever analysis trump claim the press is demeaning the military but questioning power is patriotic vietnam to remove death penalty for embezzlement sparing tycoon life mamdani say listening making city affordable key part of campaign trump considering several candidate for next federal reserve chair florida rep kat cammack say her office wa evacuated due to death threat florida rep kat cammack say her office wa evacuated due to death threat why trump strike on iran will leave north korea more determined than ever to keep it nuke miranda devine trumpderangement syndrome drive deep state leaker cnn to treasonous length to deny prez a victory live update hegseth will hold new conference to respond to intelligence report on iran strike nato survives another day sf resident to see a hike in trash fee sembrando vida and mexinol establish the first publicprivate partnership in sinaloa to build local capacity minnesota solar energy advocate mourn the loss of champion rep melissa hortman author of law boosting industry htc partner with ntt com to forge a new model for immersive entertainment in japan citrix release emergency patch for actively exploited cve in netscaler adc cooper flagg is the new face of maine cooper flagg is the new face of maine donation to local organization get matching boost this week where is our mexican vacation refund weve been waiting for month after more than a year on the run gang leader recaptured florida alligator alcatraz what to know minnesota face federal lawsuit for offering illegal immigrant college tuition benefit denied to american gloversvilles antonucci surprised self with mayoral primary win honduras u discus immigration security after tense start to relation under trump administration feeling gutted msnbcs nicolle wallace is sad tren de aragua gang member were deported to cecot exclusive leading house conservative call senate bluff on trump beautiful bill la immigration detention facility a ticking time bomb immigration lawyer say expert warns senate tax cut plan could add far more to the deficit than expected trump administration sue all maryland federal judge over order blocking removal of immigrant the trump administration is suing minnesota over break in higher education for immigrant student young cuban girl asks trump to lift travel ban stopping her from joining mom in u why the fed is keeping rate steady for now rental impact fee discussed a obstacle to college station affordable housing breaking down whistleblower claim against trump judicial pick denver judge say ice subpoena doesnt comply with state law but doesnt prohibit polis from responding the u also ha a bombproof bunker in a mountain analysis a battered iran face an uncertain future after it grinding war with israel sabrina carpenter release alternate album cover after online backlash approved by god federal judge block trump admin from ending collective bargaining for some federal worker independence day drone show spark council debate lt cmdr nathan ouellette retires after year of service veteran from deerfield named nyu truman scholar yearold billing boy remembered a stepfather is sentenced for his murder armed immigration officer arent even telling local police at time about their raid leak are a problem congress feud over trump limit on sharing intel duke phenom cooper flagg go to dallas maverick with no overall pick in nba draft cia say it ha evidence iran nuclear program wa severely damaged a assessment of u strike impact continue little league north park cholla lake mar pending acquisition of kellanova clear ftc antitrust review oklahoma supreme court begin oral argument on state question trump spy chief say new intel show iran nuclear facility were destroyed meta win artificial intelligence copyright case in blow to author republican suddenly realize voter hate their health care cut editorial class of youve earned your place this is your time trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump drop made in the usa label for new phone and a debate ensues how to define made trump win over lifelong democrat autoworker with big beautiful bill vehicle loan tax benefit oregon house pass bipartisan bill to combat chronic absenteeism in school republican candidate who ran against maxine water admits to misusing campaign donation scoop protrump group unleashes first tv ad against massie trump administration to investigate university of california hiring practice ltte noise at the uv pilot site</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.115</v>
+        <v>0.122</v>
       </c>
       <c r="L4" t="n">
         <v>0.141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.9978</v>
+        <v>-0.9969</v>
       </c>
       <c r="O4" t="n">
+        <v>91</v>
+      </c>
+      <c r="P4" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>130</v>
+      </c>
+      <c r="S4" t="n">
         <v>90</v>
       </c>
-      <c r="P4" t="n">
-        <v>78</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>146</v>
-      </c>
-      <c r="S4" t="n">
-        <v>46</v>
-      </c>
       <c r="T4" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="U4" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="V4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W4" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X4" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -818,55 +814,55 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">plan unveiled for story link at boca at west yamato road in boca raton fact check trump make big false claim about his big domestic policy bill biogen genentech may stay mum on damage at trial inside the trading desk that surfed day of oil market mayhem bloomberg trader bet on interest rate cut from jay powell successor at the fed financial time etf are booming mutual fund want in on the action analyst amd stock will close the gap with nvidia by should you buy amd stock here leadership style arent staticheres why that myth is costing you good manager microservices in healthcare market size to hit usd million by driven by cloud adoption and healthcare digitization sn insider meme coin like pepe and wif lose steamozak ai gain investor attention brilliant stock that could soar by to according to wall street balfour beatty community foundation award over in scholarship hims hers stock investor need to know this before buying or selling this growth stock whats going on with adobe stock nyt wordle hint and answer for june puzzle lpro investor have the opportunity to lead the open lending security fraud lawsuit with faruqi faruqi llp ftre investor deadline fortrea holding inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqftre ogn investor deadline organon co investor with loss may have been affected by fraud contact bfa law by july court deadline nyseogn breaking hims news a security fraud class action ha been filed on behalf of hims hers health inc nysehims investor contact bfa law if you lost money aapl investor deadline apple inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqaapl civi investor deadline civitas resource inc investor with loss may have been affected by fraud contact bfa law by july court deadline nysecivi rddt investor deadline reddit inc investor with loss may have been affected by fraud contact bfa law by august court deadline nyserddt breaking codi news compass diversified holding nysecodi announces nonreliance on financial statement for contact bfa law by july iova investor deadline iovance biotherapeutics investor with loss may have been affected by fraud contact bfa law by july court deadline nasdaqiova womens sober housing along the mississippi ha a bright future following troubled past this stock is up since it ipo here reason it could still be a smart buy oppenheimer co inc raise stock position in marsh mclennan company inc nysemmc kremlin reacts to nato defense spending hike no significant effect house republican don bacon of nebraska will not seek reelection stock market pullback coming etf to buy meta platform inc nasdaqmeta share bought by pinnacle bancorp inc golden state wealth management llc boost stock position in lam research corporation nasdaqlrcx hims hers stock financial analysis following huge stock price crash incredible news for quantumscape stock investor this blackrock etf could soar according to billionaire michael saylor new owner to keep childrens exchange open for rochester family how to start learning math for data science a simple guide at bezos venetian wedding buzz bling and backlash the new york time spire wealth management purchase share of doordash inc nasdaqdash bessemer group inc sell share of ameriprise financial inc nyseamp cambridge investment research advisor inc cut position in huntington bancshares incorporated nasdaqhban beloved grocery chain better than costco to open new store a part of expansion after buying closed winndixie site amd v arista network which artificial intelligence ai stock is a better buy right now tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration agg is a great choice for most but i like this vanguard etf better can disney stock keep rising after hitting a new week high memory of muscatine a post card of the golden state tampa outsource call center firm name new ceo whats going on with micron stock america newest space ipo wa a smashing success reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro i make a year and want to retire at should i invest more in stock or focus on real estate jeff bezos lauren sanchez join list of richest married couple here how prenups for wealthiest people take place hindustan time hindustan time farm labor land cost dominate discussion at inaugural lake county agricultural summit here what the new condo law requires is it too much to handle here what the new condo law requires is it too much to handle developer file preapplication for mixeduse project at nw th st miami florida debt is a growing force influencing jobseekers choice career expert say here how im year old and the father of functional medicine here my daily routine for a healthy life target face serious challenge a ceo cornell retirement nears walmart slash price on popular summer essential to just and it even cheaper than target version the end of bank branch how europe digital euro and stablecoins are reshaping finance luvmes independence day wig sale limitedtime countdown deal old navy is selling americana flip flop for just theyre identical to havaianas but and nearly cheaper new la trader joes open across the street from another trader joes amid messiness at the social security administration more people are taking benefit early asking the right question can reframe how you respond to challenge grandfather k seized by chase in sudden account closure it destroyed his credit forced him to delay retirement macro trend likely to send bitcoin and xrp skyrocketing in how to budget weekly pay when freight is inconsistent why ai resume are overwhelming recruiter and manager after lahaina burned an experiment in housing the most vulnerable golden state wealth management llc purchase share of diageo plc nysedeo rob biederman join the stage at all stage family and business are concerned about the effect of tariff on youth sport share in meta platform inc nasdaqmeta acquired by mokan wealth management inc meta platform inc nasdaqmeta share sold by moran wealth management llc bessemer group inc reduces stake in tmobile u inc nasdaqtmus bessemer group inc lower stock holding in stryker corporation nysesyk aurora private wealth inc purchase share of meta platform inc nasdaqmeta first pacific financial trim position in meta platform inc nasdaqmeta meta platform inc nasdaqmeta stake lifted by symmetry partner llc gamma investing llc ha million stock holding in meta platform inc nasdaqmeta share in carnival corporation nyseccl bought by oppenheimer asset management inc which stock will dominate the weight management market through thing every tesla investor need to watch right now asset management one co ltd sell share of expeditors international of washington inc nasdaqexpd sch financial advisor inc ha million position in alphabet inc nasdaqgoogl walkner condon financial advisor llc acquires share of alphabet inc nasdaqgoogl fidelity national financial inc nysefnf stake increased by oppenheimer co inc nobrainer stock to buy for under right now house republican don bacon of nebraska will not seek reelection wealth enhancement advisory service llc ha million stock holding in darden restaurant inc nysedri llm project every ai enthusiast should build for a stronger resume how europe can mitigate it mighty defence cost challenge ing which cryptocurrency is more likely to be a millionaire maker xrp v shiba inu mortgage rate hit lowest level since early may why you should drop this phrase from your business email colorado health official brace for layoff amid loss of federal funding from trump administration broadcast bias network shield nyc socialist mamdani from extreme label they apply to conservative fact check trump make big false claim about his big domestic policy bill why donald trump is trying to make an example out of this one house republican colorado play about israelgaza debate explores difficult conversation a crisis deepens editorial cartoon for saturday june letter dial back the false rhetoric that inspires violence memory of firework lyon fall and a childhood fueled by curiosity and imagination albemarle look to add more school zone speed camera after initial success column limit of free speech shouldnt be condoned why it time to make america think again deportation nation trump is gunning for new record in immigration prosecution person rescued friday from the penobscot river supreme court limit judge power to block trump order take a stand against the fascist takeover of america policy change could have big consequence for veteran va care drop the charade when it come to social security medicare tesla say it made it first driverless delivery of a new car to a customer this stock is up since it ipo here reason it could still be a smart buy developer lay out their latest vision for the former pleasant hill golf course opinion what doe it mean to be a patriot reader view protect minnesota resource from data center reader view u hypocritical when sending troop senate to hold initial vote today on trump big beautiful bill senate to hold initial vote today on trump big beautiful bill fall river school employee out after arrest on serious charge how psychiatry and activism created the dangerous concept of transgender child reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro fbi attack on fentanyl is working to reduce overdose death opinion democrat are trying to figure out what to do about john fetterman conor lamb is stepping up letter to the editor truth aint what it used to be why wouldnt there be a regime change what if a hurricane hit alligator alcatraz florida drawing up evacuation plan opinion john tayer that uncomfortable situation where economic and social interest converge opinion max boykoff what will we say in community editorial board considering the sale of public land who is mitchell berger the fort lauderdale democrat chairing david jolly governor campaign canadian man who died in miami detention lived in daytona beach kenosha festivity to change parking traffic downtown old bogeyman reunite maga after explosive iran divide colorado supreme court accepts case on parole revocation debt collection congressional candidate allard see little need for campaign spending limit a look back colorado republican jeff crank get up close look at fire station air base and a convenience store bridging the lgbtq wealth gap the left political philosophy persuasion with a government club roger koopman thing you need to know about new idf chief canceled screening stalled grant federal cut hit iowa group fighting cancer new ut tyler poll reflects texas voter view on current issue political matchup keep our public land public letter hitching a flight tell your story hitching a flight tell your story letter to the editor flag day deserves to be a federal holiday more than other holiday lost in translation off the record lost in translation off the record i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time what happens if wisconsin budget isnt passed on time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time abbott paxton can withhold uvalde jan related record texas supreme court rule uw nurse bid to reclaim union status rejected by wisconsin supreme court unanimously dont take me out to the ballgame editorial cartoon for saturday june walter five year on the pandemic still plague california employee safety net legislator review kurth disappointed by republican education funding plan legislator review kurth disappointed by republican education funding plan editorial veto speed cam tax credit bill measure to protect hawaii fishing industry one of five food and farm bill signed friday mayor name nominee to future ocean safety commission gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty the tribune quote of the week quiz for june letter route series neglect to capture the beauty along the road in new mexico final day of scotus decision brings wave of historymaking ruling trump nato turnaround from threatening to pull u out to daddy of the alliance msgr charles j dubois is travis decker alive a fruitless week manhunt ha produced no certain evidence republican plan to overhaul medicaid are already shaking up the midterm trump immigration arrest are seeing a wave of resistance wanda ammons regina gina marie williams baccigalopi letter trump like staging spectacle more than he like helping people heat dome pass but climatefueled wave arent going anywhere word of the week eudaimonia what is the meaning of the pursuit of happiness tom sawyer fence painting closed to girl the jackpod taking a break cnn report from the huge crowd attending state funeral in tehran oreo is bringing back a fanfavorite flavor after year stop yelling at u biden join thousand paying final respect to slain minnesota lawmaker and husband ge appliance moving production from china to republican state matthew schaefer honor late mother after getting selected first overall by new york islander in nhl draft letter city could do better to help north tulsa grow thing every rivian investor need to watch right now shiba inu and cardano price prediction leave investor nervous many are joining the remittix train after gain walmart is selling an excellent soundbar for and shopper say it quite impressive bigfoot stomp in from east county mountain it your business bigfoot stomp in from east county mountain it your business unpacking the content strategy definition a modern marketer guide delta operation recovering through weekend more delay and cancellation sunday alivecom la vega strip casino cant escape troubling trend in their shoe what is life like a an olympic longdistance runner the type of load board when and how to use each bart improves in safety cleanliness and satisfaction yet ridership recovery remains slow uptown aventura planned for biscayne blvd miami fl house gop leadership discussing new way to limit classified information on capitol hill from hallucination to hardware lesson from a realworld computer vision project gone sideways this psychedelic drug flopped on trial result should you buy the dip ai stock up to in that should continue moving higher this ridiculously cheap warren buffett stock could make you richer iranian hacker could become more active after military strike here how to protect your business im not putting on a fing hijab uk singer refuse to virtue signal for palestine pull out of festival three sneaky way sam club trick you into buying a tv worth plus easy tip to maximize your home viewing marktomarket middle east conflict whipsaw energy price cheer to year abc fine wine spirit renews support for pediatric cancer research marktomarket middle east conflict whipsaw energy price xrp price prediction payment token surge incoming xrp rtx xlm expected to outperform in july trump tax bill conflict with trump trade goal editorial supreme court ruling restores right to parent walmart is selling a burner expert grill for just and it cheaper than the lowes version borderland mexico winner in global tariff war could be mexico report say global sport medicine leader smithnephew to sponsor select player competing at wimbledon highlighting advanced solution for joint repair an energy star inside u home is under attack from trump with the cost to homeowner uncertain costco branded insane and archaic a shopper beg chain to speed up roll out of popular checkout method used by rival autodesk inc nasdaqadsk share acquired by spire wealth management spire wealth management raise stock holding in autodesk inc nasdaqadsk alphabet inc nasdaqgoogl is apeiron capital ltds th largest position promising robotics stock to consider june th ameriprise financial inc nyseamp share bought by spire wealth management sequoia financial advisor llc buy share of yum brand inc nyseyum elevance health inc nyseelv share bought by sequoia financial advisor llc robeco institutional asset management bv ha million stock position in paychex inc nasdaqpayx top streaming stock worth watching june th steele capital management inc ha million holding in nvidia corporation nasdaqnvda amphenol corporation nyseaph share purchased by cambridge investment research advisor inc robeco institutional asset management bv purchase share of the charles schwab corporation nyseschw sequoia financial advisor llc buy share of public storage nysepsa nvidia corporation nasdaqnvda share purchased by ipswich investment management co inc spire wealth management boost stock position in ameriprise financial inc nyseamp nvidia corporation nasdaqnvda share bought by bigsur wealth management llc can this burnsville land go from garbage dump to golf destination litecoin remittix and algorand to rally hardest in july while pi coin face further struggle in spy could turn into million french minister call for extension of euus trade talk sen thom tillis say he wont seek reelection after opposing trump megabill the chanzuckerbergs stopped funding social cause kid lost their school shohei ohtani throw fastest pitch of mlb career in third mound start for los angeles dodger watch somebody feed phil at the food wine classic in aspen walmarts sam club make bold move to steal costco customer down should you buy the dip on ionq dogecoin remittix and solana price ready to surge technical setup signal upcoming breakout top ai job recruiter you should know in the u artificial intelligence ai company to buy now and hold forever sol capital management co sell share of meta platform inc nasdaqmeta golden state wealth management llc increase stock position in analog device inc nasdaqadi bessemer group inc ha million holding in celsius holding inc nasdaqcelh the nhl is changing it most bizarre rule is it a big win or a terrible loss the law qa snack packaging a cause for confusion un nuclear watchdog chief say iran could again begin enriching uranium in matter of month nvidia insider dump more than billion in stock according to report it your business i corn crib of newman reopens bar expert forecast new high for bnb rtx hbar in july but which is tipped for gain i have million will my plan to invest for monthly work robeco institutional asset management bv purchase share of toast inc nysetost autodesk inc nasdaqadsk share acquired by cambridge investment research advisor inc portland general electric company nysepor share sold by envestnet portfolio solution inc oped it time for u to treat rare earth metal a instrument of geopolitical power china already doe dividend snowball building predictable cash flow sequoia financial advisor llc increase stock holding in cv health corporation nysecvs equinix inc nasdaqeqix share acquired by perigon wealth management llc robeco institutional asset management bv grows position in cv health corporation nysecvs sequoia financial advisor llc ha million position in dte energy company nysedte kratos defense security solution inc nasdaqktos share purchased by sequoia financial advisor llc robeco institutional asset management bv acquires share of te connectivity ltd nysetel nike inc nysenke share purchased by gamma investing llc head to head review nvidia nasdaqnvda and amtech system nasdaqasys sequoia financial advisor llc acquires share of revvity inc nyservty sequoia financial advisor llc sell share of motorola solution inc nysemsi president trump government cutback could be a serious problem for next year social security cola governor seek clean slate to appoint new hawaii tourism authority board rubrik inc nyserbrk director sell in stock pinterest inc nysepins director sell in stock trump canada trade flip oil market shock and nvidias rise to the top this week in economy ivanka trump hubby jared kushners eightword demand at bezos lavish venice wedding revealed shed like to hindustan time ivanka trump hubby jared kushners eightword demand at bezos lavish venice wedding revealed shed like to hindustan time hindustan time day turn to night in the bar minneapolis rebuilt gay living room a father grief when a light to the world is put out prophecy not politics may also shape america clash with iran tip to quickly start and grow a business is archer aviation stock a buy now amazon member just got early access to hundred of prime day dealsshop the best one up to off travel leisure tariff turmoil uncertainty higher price the new norm across colorado outdoor industry data analytics internship you can apply for this weekend focus group whats your response to u bombing iran axios explains inside ice superpower national hurricane center issue tropical storm warning for tropical depression two what to know reader view antiwar president guess not the high and low of our weather page editor note the high and low of our weather page editor note in silicon valley backyard pescadero struggle with unclean water rising rate oh the horror cyberspace help ruin plot for scaredy cat new in town oh the horror cyberspace help ruin plot for scaredy cat new in town opinion clarence page did you miss a holiday mr president im a christian pastor who wa born in egypt here are fact i learned about iran nuclear obsession opinion alex schwartz what if universal rental assistance were implemented to deal with the housing crisis editorial losing international student will be a blow to cu and boulder house gop leadership discussing new way to limit classified information on capitol hill opinion jim martin boeberts bill to delist gray wolf not surprising given her little hat comment letter to the editor council should set up a citizen advisory panel decision to fire teacher is shameful callous commentary america history of foreign intervention isnt encouraging why trump budget bill could mean america electric vehicle surrender brian howey when masked men are not hero here who made the acadiana advocate allmetro boy track and field team boy scout retiring u flag berry tramel thunder belongs to the entire state which is relishing in nba championship sunday letter gop goal comfort the rich afflict the poor will israeli strike strain iran alliance with russia nebraska prisoner have killed their cellmates while being double bunked lawmaker have yet to limit the practice gen z and millennials push into politics editorial pritzker to run again before he make really big run voicesdebra karplus old dog learning new trick llewellyn king doge kid crude cut to research undermine american strength shohei ohtani throw fastest pitch of mlb career in third mound start for los angeles dodger watch somebody feed phil at the food wine classic in aspen letter to the editor other state are taking advantage of pa for solar wind power ronald brownstein the gop is still trying to repeal obamacare un nuclear watchdog chief say iran could again begin enriching uranium in matter of month another voice diocese followed an oblique unfair process in determining payment the california story we keep erasing democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history the year rule of social security a retirement rule democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history will caron tea for two editorial why chicago ha a restaurant crisis edward keegan nascar ha embraced the chicago backdrop but will it return clarence page new york mayoral race could be a testing ground for a democratic comeback asra nomani how socialist muslim pulled off a year takeover of the democratic party faith leader we cannot be silent about what is happening in america a father grief when a light to the world is put out prophecy not politics may also shape america clash with iran policy that could be affected by supreme court decision on nationwide injunction letter climate job training show what we can accomplish at the state level don wooten iran is a problem of our own making chris mccabe dont let politics abandon our park in tulsa my view tattered letter from the fifty tell a surprising love story thing to catch viewpoint when school is out our child need to keep reading the biomedical research enterprise is under attack trans right distracted driving and paid leave new iowa law take effect july former chief of staff to late rep gerry connolly win democratic nomination for his seat leaving trump side didnt make elon musk much more popular letter option is best choice for bidwell park greensboro unveils fiveyear plan to reduce violent crime raihala meet the minnesotan who coined the term gay pride and tossed a pie in anita bryants face letter congress must approve war resolution act letter congress must approve war resolution act the column nothing to hide yet something to fear are you owed money thanks to the ssfa you might need to do something to get it big trump win boomerang appeal define supreme court term to fight trump funding freeze state try a new gambit withholding federal payment letter mullins leadership key but more is needed beyonce pause performance in houston after prop car tilt midair over crowd convicted boston city councilor tania fernandes anderson prays to avoid time in jail reader speak subpoena ct pura phone before it too late man arrested in deadly stabbing of mother boyfriend in middleborough da say reader view medical research brain drain concerning protester line highway in florida everglades to oppose alligator alcatraz trump approval rating tariff deadline schumers criticism and defense budget shift this week in politics against the odds gen z is breaking into the housing market the spanish town where local soak each other with wine from sport to birth certificate supreme court to confront more antitransgender policy she helped texas close a loophole preventing sexual assault survivor from getting justice why cant more state do it what are voluntary layoff rfk jr move on vaccine cause problem for louisiana bill cassidy lisa kelly medicaid cut will worsen the caregiver crisis weve already seen the warning sign evan brown strengthening america defense start in oklahoma join the item challenge feed the hungry in louisiana by donating this specific list welcome to the louisiana town where highspeed internet line end here how resident make do year into home insurance crisis when will louisiana resident get relief renovating northgate mall will take lot of work jacoby landry say he is up for the challenge this louisiana lawyer is suing big oil for billion but dont call him a tree hugger upstate sc senator enters governor race with endorsement from two lawmaker there a blue drawbridge near myrtle beach why it remains after year of non use lsu interim president matt lee want to keep winning thats what the big dog do you are my sunshine and exlouisiana gov jimmie davis are eternally bound author writes letter some oklahoma lawmaker are putting their party before their country piston malik beasley under federal investigation for nba gambling allegation letter a closer look at face claim letter a closer look at face claim londonbased startup laverock therapeutic raise over million for it gene control tech robinhood expands it global push minute from crypto chief old cramped apartment in cannes medium advisory justice is a common cause day commemoration of the downing of flight p and first memorial unveiled webuy global ltd integrates coinbase to accept stablecoin payment leading the way in travel technology and digital payment in market rally back to record best sp tech trade hasnt been mag or tech sector itself inspirational quote albert einstein virginia woolf and others u dollar suffers worst start to year since financial time canada talk show tariff have created a new world for investor axios doc alleged bribe came before antioch homebuilder played all legal card moderna report phase flu data teeing up new submission with federal support uncertain state and nonprofit scramble to safeguard access to vaccine houstonbased developer proposes story highrise for nw th st miami fl brookfield business partner to host second quarter result conference call expert tip for securing debt financing in a challenging market option flow alert bull making their move in googl stock modernas flu vaccine show positive latestage trial result paving way for combination covid shot ardagh metal packaging sa q result and investor call notification shatterproof name public affair and health leader pam jenkins a new ceo killam apartment reit announces normal course issuer bid largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country should you buy xrp ripple while it under first merchant corporation to report second quarter financial result host conference call and webcast st louisarea business opening and closing in june lantronix enters into cooperation agreement with investor group led by chain of lake investment fund llc amazon miss out on switch sale after nintendo pulled product from u site bloomberg signify share repurchase period update avadel pharmaceutical announces unanimous appeal court decision upholding fda approval of lumryz in narcolepsy in administrative procedure act litigation work advice my bos want me to install a work app on my personal phone brookfield infrastructure to host second quarter result conference call king street close oversubscribed european real estate special situation fund ii oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy how flower by edie parker landed million social impression with a single campaign jinkosolar and ib vogt partner to deliver highefficiency tiger neo module for spain mwp segovia solar cluster wesco publishes sustainability report modine launch dsu destratification fan bringing bestinclass airflow solution to commercial and industrial space cielo announces agm result and extension of unit offering intershunt enrolls first patient in new heart failure study canadian premium sand inc provides operational update core natural resource provides update on ongoing effort to resume longwall operation at leer south iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth way chief marketing officer are harnessing ai right now tonix pharmaceutical announces inclusion in the russell and russell index regenx amends debenture term and announces nonbrokered financing for gross proceeds of king street close oversubscribed european real estate special situation fund ii first legal step taken this time by wsta to untangle the legal knot of the clean truck partnership regenx amends debenture term and announces nonbrokered financing for gross proceeds of cdr foundation announces grant to five nonprofit organization in new york city digital worker have arrived in banking wsj miss a accelerates national growth aiming for store by q iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth mty food group inc announces renewal of normal course issuer bid brookfield infrastructure to host second quarter result conference call largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country oncolytics biotech appoints former ambrx executive a chief </t>
+          <t>why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can chinese battery giant and tesla supplier catl is expanding globally here why it matter how to stay on top of google search faraday x preparation are in the final stage for the private preview and cocreation launch event on june th for the groundbreaking fx super one mpv biocon biologics receives health canada approval for yesafilitm aflibercept first global launch scheduled for july china factory activity expected to shrink for third month amid trade tension reuters poll nike vomero quietly became a million franchise in day a ceo say it time to turn the page investor gary black cheer afterhours rally ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt amazon google not far behind but dan ives say microsoft clearly leading in these segment price target is probably conservative why your to feel more like report say analysisin dovish tilt boj zoom in on obscure underlying inflation trend find the best crypto to join for emerging project reshaping the digital economy tesla shakeup who is omead afshar senior executive reportedly fired by elon musk amid slumping sale i time of india ap business summarybrief at am edt ap business summarybrief at am edt asian share are mostly higher after u stock rise to the brink of a record trump tariff have unsettled thailand pet food exporter germany tell apple google to block deepseek a the chinese ai app face rising pressure in europe hugging face cofounder challenge ai optimist model cant ask original scientific question you might not have bezoslevel buck but you still might consider a prenup vertex founder boger donates m to boston art academy trump big beautiful bill might be unloved and a mess but it will still probably pas here how the luxury real estate market is splitting up how company profit from your data without consent full circle boy leap forward with debut ep jete and official music video this go out to you out now increase of share capital in connection with realization of the employee option programm and subscription result more than an ev charger it peace of mind wherever the road take you cutting u energy credit doesnt save money it steal it from ratepayer local government ansi officially approves two new seia standard on consumer protection and operation and maintenance kymera therapeutic announces pricing of million public offering kymera therapeutic announces pricing of million public offering solaredge expands u manufacturing in salt lake city utah why denver homeowner are investing more in renovation project leap power national grid virtual power plant initiative in massachusetts hawaiian airline report cybersecurity event no flight disruption kitv boeing dreamliner black box recovered data under scrutiny to provide insight into fatal air india crash cso receives grant from mt charitable foundation achieve life science announces pricing of million underwritten public offering the mobility house and schneider electric unveil solar charging depot for turlock unifieds electric school bus fleet trump crypto advisor david sack say july will be a big month say president support legislation on market structure and stablecoins amazon grocery chief blame ridiculous red tape for holding back initiative at whole food were wasting time year old driver from tripura treated with eastern india firstever bachmanns bundle pacing vdh in the end everyone hated the iranian theocracy oklahoma governor kevin stitt and u secretary of health and human service robert f kennedy jr visit mom meal to highlight food a medicine leadership japan executes twitter killer who murdered and dismembered nine people saratoga county celebrates m airport revitalization ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt driver crash nearly plummet over san mateo county cliff north korea just opened a beach resort for people but who will visit jeep gladiator rank first in midsize pickup segment in jd power u initial quality study chrysler jeep and dodge brand improve iq score over thailand will hold trade talk with u next week finance minister say meta say it winning the talent war with openai the verge china u agree on detail of london trade framework beijing say saratogians remember mark straus a pioneer sp cut colombia debt rating to bb over declining fiscal result why lumen technology stock wa winning this week annovis bio to present key finding at alzheimers association international conference iraq war veteran hegseths news conference wa conduct unbecoming chinese influence in climate change lawsuit threatens to derail u energy industry asia fx muted dollar struggle at yr low with pce data on tap demolition start at former kera hq clearing way for new uptown tower european stock extend gain after white house hint at tariff extension baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence china skirt u sanction a top buyer of iranian oil here how and why thats unlikely to change soon china may industrial profit slip back into sharp decline reuters gold head for weekly loss a middle east truce sap demand uk auto production for may slump to lowest level since a trump tariff hit hard mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy informal mining boom is biggest fear for peru copper investor best cryptos to buy now one already up and climbing bill gate say he know for a fact that more child will die due to u health aid cut and he taking the proof to congress cancer patient recover by taking repurposed antiparasitic drug india economy to hold top spot for growth but underlying weakness remain reuters poll cnbc daily open wall street is tuning out the noise and catching ray turkish farmer pioneer xag agricultural drone for watersmart practice treasury yield inch higher a investor await the fed preferred inflation print bitcoin ethereum rangebound dogecoin dip amid potential july tariff deadline extension analyst predicts btcs next big move once it break out of this range softbank ceo say he all in on openai reveals he long wanted microsofts spot a main backer mexico investigating contamination from spacex explosion debris sandia national laboratory to cut up to workforce by early fall canada approves law to fasttrack resource project face indigenous opposition lithium industry bemoans paradox of low price rising demand china industrial profit slip back into sharp decline in may two north texas school board increase teacher pay in final budget confusion a trump say deal with china signed yet both side violate term of ceasefire share rally but dollar weakens with fed independence seen under threat courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois atlantic strategic mineral start commercial production at virginia operation u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can clarence page did you miss a holiday mr president arthur cyr bombing iran mideast stability and the role of the u former minnesota house speaker melissa hortman to lie in state a suspect face court date former minnesota house speaker melissa hortman to lie in state a suspect face court date democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship you might not have bezoslevel buck but you still might consider a prenup summer league basketball islander rattler trump big beautiful bill might be unloved and a mess but it will still probably pas edward d shanshala ii billion in waste fraud and abuse maybe but look in the right place editorial go slow on waymo several caution before selfdriving car arrive rev allison palm rev jonathan hopkins gov ayotte reneged on promise to meet with faith leader senator diverge sharply on damage done by iran strike after classified briefing japan executes twitter killer who murdered and dismembered nine people oregon senate vote to override governor veto a first since dallas place future of the franchise in cooper flagg a southwest division get better north korea just opened a beach resort for people but who will visit panton named johnstown knox elementary school principal former top aide to jill biden subpoenaed in house gop biden age probe iraq war veteran hegseths news conference wa conduct unbecoming selling public land isnt the answer to affordable housing title lx protection matter more than ever trump appointing a shadow chair at the fed ha put dollar under pressure meanwhile china is dumping the greenback and hoarding gold baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence abbott trump approval rating poll show economy thc reduce favorability among texan family file for release in lawsuit considered first involving child challenging arrest at court family file for release in lawsuit considered first involving child challenging arrest at court family sue over u detention in what may be first challenge to courthouse arrest involving kid gov ferguson warns medicaid cut could devastate washington health care system review gloversvilles stump city brewing is modern version of oldtime public house pintsized louisiana is latest state to redefine natural gas a planetwarming fossil fuel a green energy change coming for wilco voter courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois critical rce flaw in cisco ise and isepic allow unauthenticated attacker to gain root access pete hegseth air medium coverage grievance towards cnn and others the latest pretrial development in the idaho student killing case green leader larissa water on holding the labor government to account australian politics podcast labor must protect environment while rewriting law written to facilitate development larissa water say wife of minnesota suspect say she wa blindsided by shooting of state politician cnn this is your brain on chatgpt white house confirms u china have reached additional trade agreement trump threatens cnn and new york time with lawsuit over iran report senate parliamentarian ok gop cut to federal food assistance former trail blazer ben mclemore say sex wa consensual while taking the stand during rape trial woman accused of stealing from jewelry store in washington oregon former defense secy iranian nuclear facility damage assessment will take week community rally in massive show of support for caesar palace time square u tariff may sideline youth sport for many family making it harder for kid to stay active rep josh gottheimer american dont like trump big policy bill court issue opinion on centennial at tejon ranch cnn medium analyst responds to false attack on iranian nuclear site report let go through it zohran mamdani tell erin burnett how he plan to pay for his policy fireball fly across the sky and cause sonic boom america controversial iran airstrike letter to the editor june china on alert a nato boost defense spending mamdani vow to stand up to trump border czar and ice canadian official press u government for detail on canadian citizen who died in ice custody at a florida detention center former montana u rep pat williams who won a liberal conservative showdown dy at portland city council pass resolution to strengthen portland street response a look at legal threat facing samesex marriage year after obergefell decision it judgement time for john thune on the big beautiful bill guest commentary rtc targeting senior with displacement former pantagraph building get positive recommendation for landmark status eu leader on wto we need to come up with something else senate democrat question obliteration of iran nuclear site after classified briefing on strike officer placed on leave after shooting in bangor at least orgs urge senator to support iran war power resolution lawsuit filed on behalf of nex benedict estate against owasso public school trump spotlight parent who have lost kid due to open border during big beautiful bill event former trump lawyer kenneth chesebro disbarred in new york over election interference case donald trump say uschina trade truce ha been signed hegseth defends success of u strike on iran nuclear site amid doubt over impact standing up to bullying unscientific transgender activist mob canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say illinois gov jb pritzker announces bid for historic third term amidst presidential buzz interior secretary doug burgum answer question about the big beautiful bill and public land trump doj is targeting daily ko agent mental health passport led to push for secured bond famous preston night rodeo gearing up for it th annual community experience plan unveiled for story link at boca at west yamato road in boca raton fact check trump make big false claim about his big domestic policy bill biogen genentech may stay mum on damage at trial inside the trading desk that surfed day of oil market mayhem bloomberg trader bet on interest rate cut from jay powell successor at the fed financial time etf are booming mutual fund want in on the action analyst amd stock will close the gap with nvidia by should you buy amd stock here leadership style arent staticheres why that myth is costing you good manager microservices in healthcare market size to hit usd million by driven by cloud adoption and healthcare digitization sn insider meme coin like pepe and wif lose steamozak ai gain investor attention brilliant stock that could soar by to according to wall street balfour beatty community foundation award over in scholarship hims hers stock investor need to know this before buying or selling this growth stock whats going on with adobe stock nyt wordle hint and answer for june puzzle lpro investor have the opportunity to lead the open lending security fraud lawsuit with faruqi faruqi llp ftre investor deadline fortrea holding inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqftre ogn investor deadline organon co investor with loss may have been affected by fraud contact bfa law by july court deadline nyseogn breaking hims news a security fraud class action ha been filed on behalf of hims hers health inc nysehims investor contact bfa law if you lost money aapl investor deadline apple inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqaapl civi investor deadline civitas resource inc investor with loss may have been affected by fraud contact bfa law by july court deadline nysecivi rddt investor deadline reddit inc investor with loss may have been affected by fraud contact bfa law by august court deadline nyserddt breaking codi news compass diversified holding nysecodi announces nonreliance on financial statement for contact bfa law by july iova investor deadline iovance biotherapeutics investor with loss may have been affected by fraud contact bfa law by july court deadline nasdaqiova womens sober housing along the mississippi ha a bright future following troubled past this stock is up since it ipo here reason it could still be a smart buy oppenheimer co inc raise stock position in marsh mclennan company inc nysemmc kremlin reacts to nato defense spending hike no significant effect house republican don bacon of nebraska will not seek reelection stock market pullback coming etf to buy meta platform inc nasdaqmeta share bought by pinnacle bancorp inc golden state wealth management llc boost stock position in lam research corporation nasdaqlrcx hims hers stock financial analysis following huge stock price crash incredible news for quantumscape stock investor this blackrock etf could soar according to billionaire michael saylor new owner to keep childrens exchange open for rochester family how to start learning math for data science a simple guide at bezos venetian wedding buzz bling and backlash the new york time spire wealth management purchase share of doordash inc nasdaqdash bessemer group inc sell share of ameriprise financial inc nyseamp cambridge investment research advisor inc cut position in huntington bancshares incorporated nasdaqhban beloved grocery chain better than costco to open new store a part of expansion after buying closed winndixie site amd v arista network which artificial intelligence ai stock is a better buy right now tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration agg is a great choice for most but i like this vanguard etf better can disney stock keep rising after hitting a new week high memory of muscatine a post card of the golden state tampa outsource call center firm name new ceo whats going on with micron stock america newest space ipo wa a smashing success reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro i make a year and want to retire at should i invest more in stock or focus on real estate jeff bezos lauren sanchez join list of richest married couple here how prenups for wealthiest people take place hindustan time hindustan time farm labor land cost dominate discussion at inaugural lake county agricultural summit here what the new condo law requires is it too much to handle here what the new condo law requires is it too much to handle developer file preapplication for mixeduse project at nw th st miami florida debt is a growing force influencing jobseekers choice career expert say here how im year old and the father of functional medicine here my daily routine for a healthy life target face serious challenge a ceo cornell retirement nears walmart slash price on popular summer essential to just and it even cheaper than target version the end of bank branch how europe digital euro and stablecoins are reshaping finance luvmes independence day wig sale limitedtime countdown deal old navy is selling americana flip flop for just theyre identical to havaianas but and nearly cheaper new la trader joes open across the street from another trader joes amid messiness at the social security administration more people are taking benefit early asking the right question can reframe how you respond to challenge grandfather k seized by chase in sudden account closure it destroyed his credit forced him to delay retirement macro trend likely to send bitcoin and xrp skyrocketing in how to budget weekly pay when freight is inconsistent why ai resume are overwhelming recruiter and manager after lahaina burned an experiment in housing the most vulnerable golden state wealth management llc purchase share of diageo plc nysedeo rob biederman join the stage at all stage family and business are concerned about the effect of tariff on youth sport share in meta platform inc nasdaqmeta acquired by mokan wealth management inc meta platform inc nasdaqmeta share sold by moran wealth management llc bessemer group inc reduces stake in tmobile u inc nasdaqtmus bessemer group inc lower stock holding in stryker corporation nysesyk aurora private wealth inc purchase share of meta platform inc nasdaqmeta first pacific financial trim position in meta platform inc nasdaqmeta meta platform inc nasdaqmeta stake lifted by symmetry partner llc gamma investing llc ha million stock holding in meta platform inc nasdaqmeta share in carnival corporation nyseccl bought by oppenheimer asset management inc which stock will dominate the weight management market through thing every tesla investor need to watch right now asset management one co ltd sell share of expeditors international of washington inc nasdaqexpd sch financial advisor inc ha million position in alphabet inc nasdaqgoogl walkner condon financial advisor llc acquires share of alphabet inc nasdaqgoogl fidelity national financial inc nysefnf stake increased by oppenheimer co inc nobrainer stock to buy for under right now house republican don bacon of nebraska will not seek reelection wealth enhancement advisory service llc ha million stock holding in darden restaurant inc nysedri llm project every ai enthusiast should build for a stronger resume how europe can mitigate it mighty defence cost challenge ing which cryptocurrency is more likely to be a millionaire maker xrp v shiba inu mortgage rate hit lowest level since early may why you should drop this phrase from your business email colorado health official brace for layoff amid loss of federal funding from trump administration broadcast bias network shield nyc socialist mamdani from extreme label they apply to conservative fact check trump make big false claim about his big domestic policy bill why donald trump is trying to make an example out of this one house republican colorado play about israelgaza debate explores difficult conversation a crisis deepens editorial cartoon for saturday june letter dial back the false rhetoric that inspires violence memory of firework lyon fall and a childhood fueled by curiosity and imagination albemarle look to add more school zone speed camera after initial success column limit of free speech shouldnt be condoned why it time to make america think again deportation nation trump is gunning for new record in immigration prosecution person rescued friday from the penobscot river supreme court limit judge power to block trump order take a stand against the fascist takeover of america policy change could have big consequence for veteran va care drop the charade when it come to social security medicare tesla say it made it first driverless delivery of a new car to a customer this stock is up since it ipo here reason it could still be a smart buy developer lay out their latest vision for the former pleasant hill golf course opinion what doe it mean to be a patriot reader view protect minnesota resource from data center reader view u hypocritical when sending troop senate to hold initial vote today on trump big beautiful bill senate to hold initial vote today on trump big beautiful bill fall river school employee out after arrest on serious charge how psychiatry and activism created the dangerous concept of transgender child reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro fbi attack on fentanyl is working to reduce overdose death opinion democrat are trying to figure out what to do about john fetterman conor lamb is stepping up letter to the editor truth aint what it used to be why wouldnt there be a regime change what if a hurricane hit alligator alcatraz florida drawing up evacuation plan opinion john tayer that uncomfortable situation where economic and social interest converge opinion max boykoff what will we say in community editorial board considering the sale of public land who is mitchell berger the fort lauderdale democrat chairing david jolly governor campaign canadian man who died in miami detention lived in daytona beach kenosha festivity to change parking traffic downtown old bogeyman reunite maga after explosive iran divide colorado supreme court accepts case on parole revocation debt collection congressional candidate allard see little need for campaign spending limit a look back colorado republican jeff crank get up close look at fire station air base and a convenience store bridging the lgbtq wealth gap the left political philosophy persuasion with a government club roger koopman thing you need to know about new idf chief canceled screening stalled grant federal cut hit iowa group fighting cancer new ut tyler poll reflects texas voter view on current issue political matchup keep our public land public letter hitching a flight tell your story hitching a flight tell your story letter to the editor flag day deserves to be a federal holiday more than other holiday lost in translation off the record lost in translation off the record i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time what happens if wisconsin budget isnt passed on time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time abbott paxton can withhold uvalde jan related record texas supreme court rule uw nurse bid to reclaim union status rejected by wisconsin supreme court unanimously dont take me out to the ballgame editorial cartoon for saturday june walter five year on the pandemic still plague california employee safety net legislator review kurth disappointed by republican education funding plan legislator review kurth disappointed by republican education funding plan editorial veto speed cam tax credit bill measure to protect hawaii fishing industry one of five food and farm bill signed friday mayor name nominee to future ocean safety commission gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty the tribune quote of the week quiz for june letter route series neglect to capture the beauty along the road in new mexico final day of scotus decision brings wave of historymaking ruling trump nato turnaround from threatening to pull u out to daddy of the alliance msgr charles j dubois is travis decker alive a fruitless week manhunt ha produced no certain evidence republican plan to overhaul medicaid are already shaking up the midterm trump immigration arrest are seeing a wave of resistance wanda ammons regina gina marie williams baccigalopi letter trump like staging spectacle more than he like helping people heat dome pass but climatefueled wave arent going anywhere word of the week eudaimonia what is the meaning of the pursuit of happiness tom sawyer fence painting closed to girl the jackpod taking a break cnn report from the huge crowd attending state funeral in tehran oreo is bringing back a fanfavorite flavor after year stop yelling at u biden join thousand paying final respect to slain minnesota lawmaker and husband ge appliance moving production from china to republican state matthew schaefer honor late mother after getting selected first overall by new york islander in nhl draft letter city could do better to help north tulsa grow thing every rivian investor need to watch right now shiba inu and cardano price prediction leave investor nervous many are joining the remittix train after gain walmart is selling an excellent soundbar for and shopper say it quite impressive bigfoot stomp in from east county mountain it your business bigfoot stomp in from east county mountain it your business unpacking the content strategy definition a modern marketer guide delta operation recovering through weekend more delay and cancellation sunday alivecom la vega strip casino cant escape troubling trend in their shoe what is life like a an olympic longdistance runner the type of load board when and how to use each bart improves in safety cleanliness and satisfaction yet ridership recovery remains slow uptown aventura planned for biscayne blvd miami fl house gop leadership discussing new way to limit classified information on capitol hill from hallucination to hardware lesson from a realworld computer vision project gone sideways this psychedelic drug flopped on trial result should you buy the dip ai stock up to in that should continue moving higher this ridiculously cheap warren buffett stock could make you richer iranian hacker could become more active after military strike here how to protect your business im not putting on a fing hijab uk singer refuse to virtue signal for palestine pull out of festival three sneaky way sam club trick you into buying a tv worth plus easy tip to maximize your home viewing marktomarket middle east conflict whipsaw energy price cheer to year abc fine wine spirit renews support for pediatric cancer research marktomarket middle east conflict whipsaw energy price xrp price prediction payment token surge incoming xrp rtx xlm expected to outperform in july trump tax bill conflict with trump trade goal editorial supreme court ruling restores right to parent walmart is selling a burner expert grill for just and it cheaper than the lowes version borderland mexico winner in global tariff war could be mexico report say global sport medicine leader smithnephew to sponsor select player competing at wimbledon highlighting advanced solution for joint repair an energy star inside u home is under attack from trump with the cost to homeowner uncertain costco branded insane and archaic a shopper beg chain to speed up roll out of popular checkout method used by rival autodesk inc nasdaqadsk share acquired by spire wealth management spire wealth management raise stock holding in autodesk inc nasdaqadsk alphabet inc nasdaqgoogl is apeiron capital ltds th largest position promising robotics stock to consider june th ameriprise financial inc nyseamp share bought by spire wealth management sequoia financial advisor llc buy share of yum brand inc nyseyum elevance health inc nyseelv share bought by sequoia financial advisor llc robeco institutional asset management bv ha million stock position in paychex inc nasdaqpayx top streaming stock worth watching june th steele capital management inc ha million holding in nvidia corporation nasdaqnvda amphenol corporation nyseaph share purchased by cambridge investment research advisor inc robeco institutional asset management bv purchase share of the charles schwab corporation nyseschw sequoia financial advisor llc buy share of public storage nysepsa nvidia corporation nasdaqnvda share purchased by ipswich investment management co inc spire wealth management boost stock position in ameriprise financial inc nyseamp nvidia cor</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plan unveiled for story link at boca at west yamato road in boca raton fact check trump make big false claim about his big domestic policy bill biogen genentech may stay mum on damage at trial inside the trading desk that surfed day of oil market mayhem bloomberg trader bet on interest rate cut from jay powell successor at the fed financial time etf are booming mutual fund want in on the action analyst amd stock will close the gap with nvidia by should you buy amd stock here leadership style arent staticheres why that myth is costing you good manager microservices in healthcare market size to hit usd million by driven by cloud adoption and healthcare digitization sn insider meme coin like pepe and wif lose steamozak ai gain investor attention brilliant stock that could soar by to according to wall street balfour beatty community foundation award over in scholarship hims hers stock investor need to know this before buying or selling this growth stock whats going on with adobe stock nyt wordle hint and answer for june puzzle lpro investor have the opportunity to lead the open lending security fraud lawsuit with faruqi faruqi llp ftre investor deadline fortrea holding inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqftre ogn investor deadline organon co investor with loss may have been affected by fraud contact bfa law by july court deadline nyseogn breaking hims news a security fraud class action ha been filed on behalf of hims hers health inc nysehims investor contact bfa law if you lost money aapl investor deadline apple inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqaapl civi investor deadline civitas resource inc investor with loss may have been affected by fraud contact bfa law by july court deadline nysecivi rddt investor deadline reddit inc investor with loss may have been affected by fraud contact bfa law by august court deadline nyserddt breaking codi news compass diversified holding nysecodi announces nonreliance on financial statement for contact bfa law by july iova investor deadline iovance biotherapeutics investor with loss may have been affected by fraud contact bfa law by july court deadline nasdaqiova womens sober housing along the mississippi ha a bright future following troubled past this stock is up since it ipo here reason it could still be a smart buy oppenheimer co inc raise stock position in marsh mclennan company inc nysemmc kremlin reacts to nato defense spending hike no significant effect house republican don bacon of nebraska will not seek reelection stock market pullback coming etf to buy meta platform inc nasdaqmeta share bought by pinnacle bancorp inc golden state wealth management llc boost stock position in lam research corporation nasdaqlrcx hims hers stock financial analysis following huge stock price crash incredible news for quantumscape stock investor this blackrock etf could soar according to billionaire michael saylor new owner to keep childrens exchange open for rochester family how to start learning math for data science a simple guide at bezos venetian wedding buzz bling and backlash the new york time spire wealth management purchase share of doordash inc nasdaqdash bessemer group inc sell share of ameriprise financial inc nyseamp cambridge investment research advisor inc cut position in huntington bancshares incorporated nasdaqhban beloved grocery chain better than costco to open new store a part of expansion after buying closed winndixie site amd v arista network which artificial intelligence ai stock is a better buy right now tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration agg is a great choice for most but i like this vanguard etf better can disney stock keep rising after hitting a new week high memory of muscatine a post card of the golden state tampa outsource call center firm name new ceo whats going on with micron stock america newest space ipo wa a smashing success reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro i make a year and want to retire at should i invest more in stock or focus on real estate jeff bezos lauren sanchez join list of richest married couple here how prenups for wealthiest people take place hindustan time hindustan time farm labor land cost dominate discussion at inaugural lake county agricultural summit here what the new condo law requires is it too much to handle here what the new condo law requires is it too much to handle developer file preapplication for mixeduse project at nw th st miami florida debt is a growing force influencing jobseekers choice career expert say here how im year old and the father of functional medicine here my daily routine for a healthy life target face serious challenge a ceo cornell retirement nears walmart slash price on popular summer essential to just and it even cheaper than target version the end of bank branch how europe digital euro and stablecoins are reshaping finance luvmes independence day wig sale limitedtime countdown deal old navy is selling americana flip flop for just theyre identical to havaianas but and nearly cheaper new la trader joes open across the street from another trader joes amid messiness at the social security administration more people are taking benefit early asking the right question can reframe how you respond to challenge grandfather k seized by chase in sudden account closure it destroyed his credit forced him to delay retirement macro trend likely to send bitcoin and xrp skyrocketing in how to budget weekly pay when freight is inconsistent why ai resume are overwhelming recruiter and manager after lahaina burned an experiment in housing the most vulnerable golden state wealth management llc purchase share of diageo plc nysedeo rob biederman join the stage at all stage family and business are concerned about the effect of tariff on youth sport share in meta platform inc nasdaqmeta acquired by mokan wealth management inc meta platform inc nasdaqmeta share sold by moran wealth management llc bessemer group inc reduces stake in tmobile u inc nasdaqtmus bessemer group inc lower stock holding in stryker corporation nysesyk aurora private wealth inc purchase share of meta platform inc nasdaqmeta first pacific financial trim position in meta platform inc nasdaqmeta meta platform inc nasdaqmeta stake lifted by symmetry partner llc gamma investing llc ha million stock holding in meta platform inc nasdaqmeta share in carnival corporation nyseccl bought by oppenheimer asset management inc which stock will dominate the weight management market through thing every tesla investor need to watch right now asset management one co ltd sell share of expeditors international of washington inc nasdaqexpd sch financial advisor inc ha million position in alphabet inc nasdaqgoogl walkner condon financial advisor llc acquires share of alphabet inc nasdaqgoogl fidelity national financial inc nysefnf stake increased by oppenheimer co inc nobrainer stock to buy for under right now house republican don bacon of nebraska will not seek reelection wealth enhancement advisory service llc ha million stock holding in darden restaurant inc nysedri llm project every ai enthusiast should build for a stronger resume how europe can mitigate it mighty defence cost challenge ing which cryptocurrency is more likely to be a millionaire maker xrp v shiba inu mortgage rate hit lowest level since early may why you should drop this phrase from your business email colorado health official brace for layoff amid loss of federal funding from trump administration broadcast bias network shield nyc socialist mamdani from extreme label they apply to conservative fact check trump make big false claim about his big domestic policy bill why donald trump is trying to make an example out of this one house republican colorado play about israelgaza debate explores difficult conversation a crisis deepens editorial cartoon for saturday june letter dial back the false rhetoric that inspires violence memory of firework lyon fall and a childhood fueled by curiosity and imagination albemarle look to add more school zone speed camera after initial success column limit of free speech shouldnt be condoned why it time to make america think again deportation nation trump is gunning for new record in immigration prosecution person rescued friday from the penobscot river supreme court limit judge power to block trump order take a stand against the fascist takeover of america policy change could have big consequence for veteran va care drop the charade when it come to social security medicare tesla say it made it first driverless delivery of a new car to a customer this stock is up since it ipo here reason it could still be a smart buy developer lay out their latest vision for the former pleasant hill golf course opinion what doe it mean to be a patriot reader view protect minnesota resource from data center reader view u hypocritical when sending troop senate to hold initial vote today on trump big beautiful bill senate to hold initial vote today on trump big beautiful bill fall river school employee out after arrest on serious charge how psychiatry and activism created the dangerous concept of transgender child reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro fbi attack on fentanyl is working to reduce overdose death opinion democrat are trying to figure out what to do about john fetterman conor lamb is stepping up letter to the editor truth aint what it used to be why wouldnt there be a regime change what if a hurricane hit alligator alcatraz florida drawing up evacuation plan opinion john tayer that uncomfortable situation where economic and social interest converge opinion max boykoff what will we say in community editorial board considering the sale of public land who is mitchell berger the fort lauderdale democrat chairing david jolly governor campaign canadian man who died in miami detention lived in daytona beach kenosha festivity to change parking traffic downtown old bogeyman reunite maga after explosive iran divide colorado supreme court accepts case on parole revocation debt collection congressional candidate allard see little need for campaign spending limit a look back colorado republican jeff crank get up close look at fire station air base and a convenience store bridging the lgbtq wealth gap the left political philosophy persuasion with a government club roger koopman thing you need to know about new idf chief canceled screening stalled grant federal cut hit iowa group fighting cancer new ut tyler poll reflects texas voter view on current issue political matchup keep our public land public letter hitching a flight tell your story hitching a flight tell your story letter to the editor flag day deserves to be a federal holiday more than other holiday lost in translation off the record lost in translation off the record i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time what happens if wisconsin budget isnt passed on time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time abbott paxton can withhold uvalde jan related record texas supreme court rule uw nurse bid to reclaim union status rejected by wisconsin supreme court unanimously dont take me out to the ballgame editorial cartoon for saturday june walter five year on the pandemic still plague california employee safety net legislator review kurth disappointed by republican education funding plan legislator review kurth disappointed by republican education funding plan editorial veto speed cam tax credit bill measure to protect hawaii fishing industry one of five food and farm bill signed friday mayor name nominee to future ocean safety commission gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty the tribune quote of the week quiz for june letter route series neglect to capture the beauty along the road in new mexico final day of scotus decision brings wave of historymaking ruling trump nato turnaround from threatening to pull u out to daddy of the alliance msgr charles j dubois is travis decker alive a fruitless week manhunt ha produced no certain evidence republican plan to overhaul medicaid are already shaking up the midterm trump immigration arrest are seeing a wave of resistance wanda ammons regina gina marie williams baccigalopi letter trump like staging spectacle more than he like helping people heat dome pass but climatefueled wave arent going anywhere word of the week eudaimonia what is the meaning of the pursuit of happiness tom sawyer fence painting closed to girl the jackpod taking a break cnn report from the huge crowd attending state funeral in tehran oreo is bringing back a fanfavorite flavor after year stop yelling at u biden join thousand paying final respect to slain minnesota lawmaker and husband ge appliance moving production from china to republican state matthew schaefer honor late mother after getting selected first overall by new york islander in nhl draft letter city could do better to help north tulsa grow thing every rivian investor need to watch right now shiba inu and cardano price prediction leave investor nervous many are joining the remittix train after gain walmart is selling an excellent soundbar for and shopper say it quite impressive bigfoot stomp in from east county mountain it your business bigfoot stomp in from east county mountain it your business unpacking the content strategy definition a modern marketer guide delta operation recovering through weekend more delay and cancellation sunday alivecom la vega strip casino cant escape troubling trend in their shoe what is life like a an olympic longdistance runner the type of load board when and how to use each bart improves in safety cleanliness and satisfaction yet ridership recovery remains slow uptown aventura planned for biscayne blvd miami fl house gop leadership discussing new way to limit classified information on capitol hill from hallucination to hardware lesson from a realworld computer vision project gone sideways this psychedelic drug flopped on trial result should you buy the dip ai stock up to in that should continue moving higher this ridiculously cheap warren buffett stock could make you richer iranian hacker could become more active after military strike here how to protect your business im not putting on a fing hijab uk singer refuse to virtue signal for palestine pull out of festival three sneaky way sam club trick you into buying a tv worth plus easy tip to maximize your home viewing marktomarket middle east conflict whipsaw energy price cheer to year abc fine wine spirit renews support for pediatric cancer research marktomarket middle east conflict whipsaw energy price xrp price prediction payment token surge incoming xrp rtx xlm expected to outperform in july trump tax bill conflict with trump trade goal editorial supreme court ruling restores right to parent walmart is selling a burner expert grill for just and it cheaper than the lowes version borderland mexico winner in global tariff war could be mexico report say global sport medicine leader smithnephew to sponsor select player competing at wimbledon highlighting advanced solution for joint repair an energy star inside u home is under attack from trump with the cost to homeowner uncertain costco branded insane and archaic a shopper beg chain to speed up roll out of popular checkout method used by rival autodesk inc nasdaqadsk share acquired by spire wealth management spire wealth management raise stock holding in autodesk inc nasdaqadsk alphabet inc nasdaqgoogl is apeiron capital ltds th largest position promising robotics stock to consider june th ameriprise financial inc nyseamp share bought by spire wealth management sequoia financial advisor llc buy share of yum brand inc nyseyum elevance health inc nyseelv share bought by sequoia financial advisor llc robeco institutional asset management bv ha million stock position in paychex inc nasdaqpayx top streaming stock worth watching june th steele capital management inc ha million holding in nvidia corporation nasdaqnvda amphenol corporation nyseaph share purchased by cambridge investment research advisor inc robeco institutional asset management bv purchase share of the charles schwab corporation nyseschw sequoia financial advisor llc buy share of public storage nysepsa nvidia corporation nasdaqnvda share purchased by ipswich investment management co inc spire wealth management boost stock position in ameriprise financial inc nyseamp nvidia corporation nasdaqnvda share bought by bigsur wealth management llc can this burnsville land go from garbage dump to golf destination litecoin remittix and algorand to rally hardest in july while pi coin face further struggle in spy could turn into million french minister call for extension of euus trade talk sen thom tillis say he wont seek reelection after opposing trump megabill the chanzuckerbergs stopped funding social cause kid lost their school shohei ohtani throw fastest pitch of mlb career in third mound start for los angeles dodger watch somebody feed phil at the food wine classic in aspen walmarts sam club make bold move to steal costco customer down should you buy the dip on ionq dogecoin remittix and solana price ready to surge technical setup signal upcoming breakout top ai job recruiter you should know in the u artificial intelligence ai company to buy now and hold forever sol capital management co sell share of meta platform inc nasdaqmeta golden state wealth management llc increase stock position in analog device inc nasdaqadi bessemer group inc ha million holding in celsius holding inc nasdaqcelh the nhl is changing it most bizarre rule is it a big win or a terrible loss the law qa snack packaging a cause for confusion un nuclear watchdog chief say iran could again begin enriching uranium in matter of month nvidia insider dump more than billion in stock according to report it your business i corn crib of newman reopens bar expert forecast new high for bnb rtx hbar in july but which is tipped for gain i have million will my plan to invest for monthly work robeco institutional asset management bv purchase share of toast inc nysetost autodesk inc nasdaqadsk share acquired by cambridge investment research advisor inc portland general electric company nysepor share sold by envestnet portfolio solution inc oped it time for u to treat rare earth metal a instrument of geopolitical power china already doe dividend snowball building predictable cash flow sequoia financial advisor llc increase stock holding in cv health corporation nysecvs equinix inc nasdaqeqix share acquired by perigon wealth management llc robeco institutional asset management bv grows position in cv health corporation nysecvs sequoia financial advisor llc ha million position in dte energy company nysedte kratos defense security solution inc nasdaqktos share purchased by sequoia financial advisor llc robeco institutional asset management bv acquires share of te connectivity ltd nysetel nike inc nysenke share purchased by gamma investing llc head to head review nvidia nasdaqnvda and amtech system nasdaqasys sequoia financial advisor llc acquires share of revvity inc nyservty sequoia financial advisor llc sell share of motorola solution inc nysemsi president trump government cutback could be a serious problem for next year social security cola governor seek clean slate to appoint new hawaii tourism authority board rubrik inc nyserbrk director sell in stock pinterest inc nysepins director sell in stock trump canada trade flip oil market shock and nvidias rise to the top this week in economy ivanka trump hubby jared kushners eightword demand at bezos lavish venice wedding revealed shed like to hindustan time ivanka trump hubby jared kushners eightword demand at bezos lavish venice wedding revealed shed like to hindustan time hindustan time day turn to night in the bar minneapolis rebuilt gay living room a father grief when a light to the world is put out prophecy not politics may also shape america clash with iran tip to quickly start and grow a business is archer aviation stock a buy now amazon member just got early access to hundred of prime day dealsshop the best one up to off travel leisure tariff turmoil uncertainty higher price the new norm across colorado outdoor industry data analytics internship you can apply for this weekend focus group whats your response to u bombing iran axios explains inside ice superpower national hurricane center issue tropical storm warning for tropical depression two what to know reader view antiwar president guess not the high and low of our weather page editor note the high and low of our weather page editor note in silicon valley backyard pescadero struggle with unclean water rising rate oh the horror cyberspace help ruin plot for scaredy cat new in town oh the horror cyberspace help ruin plot for scaredy cat new in town opinion clarence page did you miss a holiday mr president im a christian pastor who wa born in egypt here are fact i learned about iran nuclear obsession opinion alex schwartz what if universal rental assistance were implemented to deal with the housing crisis editorial losing international student will be a blow to cu and boulder house gop leadership discussing new way to limit classified information on capitol hill opinion jim martin boeberts bill to delist gray wolf not surprising given her little hat comment letter to the editor council should set up a citizen advisory panel decision to fire teacher is shameful callous commentary america history of foreign intervention isnt encouraging why trump budget bill could mean america electric vehicle surrender brian howey when masked men are not hero here who made the acadiana advocate allmetro boy track and field team boy scout retiring u flag berry tramel thunder belongs to the entire state which is relishing in nba championship sunday letter gop goal comfort the rich afflict the poor will israeli strike strain iran alliance with russia nebraska prisoner have killed their cellmates while being double bunked lawmaker have yet to limit the practice gen z and millennials push into politics editorial pritzker to run again before he make really big run voicesdebra karplus old dog learning new trick llewellyn king doge kid crude cut to research undermine american strength shohei ohtani throw fastest pitch of mlb career in third mound start for los angeles dodger watch somebody feed phil at the food wine classic in aspen letter to the editor other state are taking advantage of pa for solar wind power ronald brownstein the gop is still trying to repeal obamacare un nuclear watchdog chief say iran could again begin enriching uranium in matter of month another voice diocese followed an oblique unfair process in determining payment the california story we keep erasing democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history the year rule of social security a retirement rule democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history democrat howling over iran forced to defend own party history will caron tea for two editorial why chicago ha a restaurant crisis edward keegan nascar ha embraced the chicago backdrop but will it return clarence page new york mayoral race could be a testing ground for a democratic comeback asra nomani how socialist muslim pulled off a year takeover of the democratic party faith leader we cannot be silent about what is happening in america a father grief when a light to the world is put out prophecy not politics may also shape america clash with iran policy that could be affected by supreme court decision on nationwide injunction letter climate job training show what we can accomplish at the state level don wooten iran is a problem of our own making chris mccabe dont let politics abandon our park in tulsa my view tattered letter from the fifty tell a surprising love story thing to catch viewpoint when school is out our child need to keep reading the biomedical research enterprise is under attack trans right distracted driving and paid leave new iowa law take effect july former chief of staff to late rep gerry connolly win democratic nomination for his seat leaving trump side didnt make elon musk much more popular letter option is best choice for bidwell park greensboro unveils fiveyear plan to reduce violent crime raihala meet the minnesotan who coined the term gay pride and tossed a pie in anita bryants face letter congress must approve war resolution act letter congress must approve war resolution act the column nothing to hide yet something to fear are you owed money thanks to the ssfa you might need to do something to get it big trump win boomerang appeal define supreme court term to fight trump funding freeze state try a new gambit withholding federal payment letter mullins leadership key but more is needed beyonce pause performance in houston after prop car tilt midair over crowd convicted boston city councilor tania fernandes anderson prays to avoid time in jail reader speak subpoena ct pura phone before it too late man arrested in deadly stabbing of mother boyfriend in middleborough da say reader view medical research brain drain concerning protester line highway in florida everglades to oppose alligator alcatraz trump approval rating tariff deadline schumers criticism and defense budget shift this week in politics against the odds gen z is breaking into the housing market the spanish town where local soak each other with wine from sport to birth certificate supreme court to confront more antitransgender policy she helped texas close a loophole preventing sexual assault survivor from getting justice why cant more state do it what are voluntary layoff rfk jr move on vaccine cause problem for louisiana bill cassidy lisa kelly medicaid cut will worsen the caregiver crisis weve already seen the warning sign evan brown strengthening america defense start in oklahoma join the item challenge feed the hungry in louisiana by donating this specific list welcome to the louisiana town where highspeed internet line end here how resident make do year into home insurance crisis when will louisiana resident get relief renovating northgate mall will take lot of work jacoby landry say he is up for the challenge this louisiana lawyer is suing big oil for billion but dont call him a tree hugger upstate sc senator enters governor race with endorsement from two lawmaker there a blue drawbridge near myrtle beach why it remains after year of non use lsu interim president matt lee want to keep winning thats what the big dog do you are my sunshine and exlouisiana gov jimmie davis are eternally bound author writes letter some oklahoma lawmaker are putting their party before their country piston malik beasley under federal investigation for nba gambling allegation letter a closer look at face claim letter a closer look at face claim londonbased startup laverock therapeutic raise over million for it gene control tech robinhood expands it global push minute from crypto chief old cramped apartment in cannes medium advisory justice is a common cause day commemoration of the downing of flight p and first memorial unveiled webuy global ltd integrates coinbase to accept stablecoin payment leading the way in travel technology and digital payment in market rally back to record best sp tech trade hasnt been mag or tech sector itself inspirational quote albert einstein virginia woolf and others u dollar suffers worst start to year since financial time canada talk show tariff have created a new world for investor axios doc alleged bribe came before antioch homebuilder played all legal card moderna report phase flu data teeing up new submission with federal support uncertain state and nonprofit scramble to safeguard access to vaccine houstonbased developer proposes story highrise for nw th st miami fl brookfield business partner to host second quarter result conference call expert tip for securing debt financing in a challenging market option flow alert bull making their move in googl stock modernas flu vaccine show positive latestage trial result paving way for combination covid shot ardagh metal packaging sa q result and investor call notification shatterproof name public affair and health leader pam jenkins a new ceo killam apartment reit announces normal course issuer bid largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country should you buy xrp ripple while it under first merchant corporation to report second quarter financial result host conference call and webcast st louisarea business opening and closing in june lantronix enters into cooperation agreement with investor group led by chain of lake investment fund llc amazon miss out on switch sale after nintendo pulled product from u site bloomberg signify share repurchase period update avadel pharmaceutical announces unanimous appeal court decision upholding fda approval of lumryz in narcolepsy in administrative procedure act litigation work advice my bos want me to install a work app on my personal phone brookfield infrastructure to host second quarter result conference call king street close oversubscribed european real estate special situation fund ii oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy how flower by edie parker landed million social impression with a single campaign jinkosolar and ib vogt partner to deliver highefficiency tiger neo module for spain mwp segovia solar cluster wesco publishes sustainability report modine launch dsu destratification fan bringing bestinclass airflow solution to commercial and industrial space cielo announces agm result and extension of unit offering intershunt enrolls first patient in new heart failure study canadian premium sand inc provides operational update core natural resource provides update on ongoing effort to resume longwall operation at leer south iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth way chief marketing officer are harnessing ai right now tonix pharmaceutical announces inclusion in the russell and russell index regenx amends debenture term and announces nonbrokered financing for gross proceeds of king street close oversubscribed european real estate special situation fund ii first legal step taken this time by wsta to untangle the legal knot of the clean truck partnership regenx amends debenture term and announces nonbrokered financing for gross proceeds of cdr foundation announces grant to five nonprofit organization in new york city digital worker have arrived in banking wsj miss a accelerates national growth aiming for store by q iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth mty food group inc announces renewal of normal course issuer bid brookfield infrastructure to host second quarter result conference call largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country oncolytics biotech appoints former ambrx executive a chief</t>
+          <t>why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can chinese battery giant and tesla supplier catl is expanding globally here why it matter how to stay on top of google search faraday x preparation are in the final stage for the private preview and cocreation launch event on june th for the groundbreaking fx super one mpv biocon biologics receives health canada approval for yesafilitm aflibercept first global launch scheduled for july china factory activity expected to shrink for third month amid trade tension reuters poll nike vomero quietly became a million franchise in day a ceo say it time to turn the page investor gary black cheer afterhours rally ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt ap technology summarybrief at am edt amazon google not far behind but dan ives say microsoft clearly leading in these segment price target is probably conservative why your to feel more like report say analysisin dovish tilt boj zoom in on obscure underlying inflation trend find the best crypto to join for emerging project reshaping the digital economy tesla shakeup who is omead afshar senior executive reportedly fired by elon musk amid slumping sale i time of india ap business summarybrief at am edt ap business summarybrief at am edt asian share are mostly higher after u stock rise to the brink of a record trump tariff have unsettled thailand pet food exporter germany tell apple google to block deepseek a the chinese ai app face rising pressure in europe hugging face cofounder challenge ai optimist model cant ask original scientific question you might not have bezoslevel buck but you still might consider a prenup vertex founder boger donates m to boston art academy trump big beautiful bill might be unloved and a mess but it will still probably pas here how the luxury real estate market is splitting up how company profit from your data without consent full circle boy leap forward with debut ep jete and official music video this go out to you out now increase of share capital in connection with realization of the employee option programm and subscription result more than an ev charger it peace of mind wherever the road take you cutting u energy credit doesnt save money it steal it from ratepayer local government ansi officially approves two new seia standard on consumer protection and operation and maintenance kymera therapeutic announces pricing of million public offering kymera therapeutic announces pricing of million public offering solaredge expands u manufacturing in salt lake city utah why denver homeowner are investing more in renovation project leap power national grid virtual power plant initiative in massachusetts hawaiian airline report cybersecurity event no flight disruption kitv boeing dreamliner black box recovered data under scrutiny to provide insight into fatal air india crash cso receives grant from mt charitable foundation achieve life science announces pricing of million underwritten public offering the mobility house and schneider electric unveil solar charging depot for turlock unifieds electric school bus fleet trump crypto advisor david sack say july will be a big month say president support legislation on market structure and stablecoins amazon grocery chief blame ridiculous red tape for holding back initiative at whole food were wasting time year old driver from tripura treated with eastern india firstever bachmanns bundle pacing vdh in the end everyone hated the iranian theocracy oklahoma governor kevin stitt and u secretary of health and human service robert f kennedy jr visit mom meal to highlight food a medicine leadership japan executes twitter killer who murdered and dismembered nine people saratoga county celebrates m airport revitalization ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt driver crash nearly plummet over san mateo county cliff north korea just opened a beach resort for people but who will visit jeep gladiator rank first in midsize pickup segment in jd power u initial quality study chrysler jeep and dodge brand improve iq score over thailand will hold trade talk with u next week finance minister say meta say it winning the talent war with openai the verge china u agree on detail of london trade framework beijing say saratogians remember mark straus a pioneer sp cut colombia debt rating to bb over declining fiscal result why lumen technology stock wa winning this week annovis bio to present key finding at alzheimers association international conference iraq war veteran hegseths news conference wa conduct unbecoming chinese influence in climate change lawsuit threatens to derail u energy industry asia fx muted dollar struggle at yr low with pce data on tap demolition start at former kera hq clearing way for new uptown tower european stock extend gain after white house hint at tariff extension baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence china skirt u sanction a top buyer of iranian oil here how and why thats unlikely to change soon china may industrial profit slip back into sharp decline reuters gold head for weekly loss a middle east truce sap demand uk auto production for may slump to lowest level since a trump tariff hit hard mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy mgi announces partnership with negedia enhance genomic sequencing technology at the service of scientific research and precision medicine in italy informal mining boom is biggest fear for peru copper investor best cryptos to buy now one already up and climbing bill gate say he know for a fact that more child will die due to u health aid cut and he taking the proof to congress cancer patient recover by taking repurposed antiparasitic drug india economy to hold top spot for growth but underlying weakness remain reuters poll cnbc daily open wall street is tuning out the noise and catching ray turkish farmer pioneer xag agricultural drone for watersmart practice treasury yield inch higher a investor await the fed preferred inflation print bitcoin ethereum rangebound dogecoin dip amid potential july tariff deadline extension analyst predicts btcs next big move once it break out of this range softbank ceo say he all in on openai reveals he long wanted microsofts spot a main backer mexico investigating contamination from spacex explosion debris sandia national laboratory to cut up to workforce by early fall canada approves law to fasttrack resource project face indigenous opposition lithium industry bemoans paradox of low price rising demand china industrial profit slip back into sharp decline in may two north texas school board increase teacher pay in final budget confusion a trump say deal with china signed yet both side violate term of ceasefire share rally but dollar weakens with fed independence seen under threat courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois atlantic strategic mineral start commercial production at virginia operation u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label u food and drug administration approves streamlined patient monitoring requirement and removal of rem program within bristol myers squibbs cell therapy label why you should get your boot to beyonces cowboy carter tour a sermon for the weary while you can clarence page did you miss a holiday mr president arthur cyr bombing iran mideast stability and the role of the u former minnesota house speaker melissa hortman to lie in state a suspect face court date former minnesota house speaker melissa hortman to lie in state a suspect face court date democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up democrat are trying to figure out what to do about john fetterman one of them is stepping up supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship supreme court meet friday to decide remaining case including birthright citizenship you might not have bezoslevel buck but you still might consider a prenup summer league basketball islander rattler trump big beautiful bill might be unloved and a mess but it will still probably pas edward d shanshala ii billion in waste fraud and abuse maybe but look in the right place editorial go slow on waymo several caution before selfdriving car arrive rev allison palm rev jonathan hopkins gov ayotte reneged on promise to meet with faith leader senator diverge sharply on damage done by iran strike after classified briefing japan executes twitter killer who murdered and dismembered nine people oregon senate vote to override governor veto a first since dallas place future of the franchise in cooper flagg a southwest division get better north korea just opened a beach resort for people but who will visit panton named johnstown knox elementary school principal former top aide to jill biden subpoenaed in house gop biden age probe iraq war veteran hegseths news conference wa conduct unbecoming selling public land isnt the answer to affordable housing title lx protection matter more than ever trump appointing a shadow chair at the fed ha put dollar under pressure meanwhile china is dumping the greenback and hoarding gold baseball player wander franco found guilty in sexual abuse case imposed twoyear suspended sentence abbott trump approval rating poll show economy thc reduce favorability among texan family file for release in lawsuit considered first involving child challenging arrest at court family file for release in lawsuit considered first involving child challenging arrest at court family sue over u detention in what may be first challenge to courthouse arrest involving kid gov ferguson warns medicaid cut could devastate washington health care system review gloversvilles stump city brewing is modern version of oldtime public house pintsized louisiana is latest state to redefine natural gas a planetwarming fossil fuel a green energy change coming for wilco voter courtney b vance on book ban protest in los angeles and narrating the audiobook of the biography of web du bois critical rce flaw in cisco ise and isepic allow unauthenticated attacker to gain root access pete hegseth air medium coverage grievance towards cnn and others the latest pretrial development in the idaho student killing case green leader larissa water on holding the labor government to account australian politics podcast labor must protect environment while rewriting law written to facilitate development larissa water say wife of minnesota suspect say she wa blindsided by shooting of state politician cnn this is your brain on chatgpt white house confirms u china have reached additional trade agreement trump threatens cnn and new york time with lawsuit over iran report senate parliamentarian ok gop cut to federal food assistance former trail blazer ben mclemore say sex wa consensual while taking the stand during rape trial woman accused of stealing from jewelry store in washington oregon former defense secy iranian nuclear facility damage assessment will take week community rally in massive show of support for caesar palace time square u tariff may sideline youth sport for many family making it harder for kid to stay active rep josh gottheimer american dont like trump big policy bill court issue opinion on centennial at tejon ranch cnn medium analyst responds to false attack on iranian nuclear site report let go through it zohran mamdani tell erin burnett how he plan to pay for his policy fireball fly across the sky and cause sonic boom america controversial iran airstrike letter to the editor june china on alert a nato boost defense spending mamdani vow to stand up to trump border czar and ice canadian official press u government for detail on canadian citizen who died in ice custody at a florida detention center former montana u rep pat williams who won a liberal conservative showdown dy at portland city council pass resolution to strengthen portland street response a look at legal threat facing samesex marriage year after obergefell decision it judgement time for john thune on the big beautiful bill guest commentary rtc targeting senior with displacement former pantagraph building get positive recommendation for landmark status eu leader on wto we need to come up with something else senate democrat question obliteration of iran nuclear site after classified briefing on strike officer placed on leave after shooting in bangor at least orgs urge senator to support iran war power resolution lawsuit filed on behalf of nex benedict estate against owasso public school trump spotlight parent who have lost kid due to open border during big beautiful bill event former trump lawyer kenneth chesebro disbarred in new york over election interference case donald trump say uschina trade truce ha been signed hegseth defends success of u strike on iran nuclear site amid doubt over impact standing up to bullying unscientific transgender activist mob canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say canadian man held by immigration official dy in south florida federal facility official say illinois gov jb pritzker announces bid for historic third term amidst presidential buzz interior secretary doug burgum answer question about the big beautiful bill and public land trump doj is targeting daily ko agent mental health passport led to push for secured bond famous preston night rodeo gearing up for it th annual community experience plan unveiled for story link at boca at west yamato road in boca raton fact check trump make big false claim about his big domestic policy bill biogen genentech may stay mum on damage at trial inside the trading desk that surfed day of oil market mayhem bloomberg trader bet on interest rate cut from jay powell successor at the fed financial time etf are booming mutual fund want in on the action analyst amd stock will close the gap with nvidia by should you buy amd stock here leadership style arent staticheres why that myth is costing you good manager microservices in healthcare market size to hit usd million by driven by cloud adoption and healthcare digitization sn insider meme coin like pepe and wif lose steamozak ai gain investor attention brilliant stock that could soar by to according to wall street balfour beatty community foundation award over in scholarship hims hers stock investor need to know this before buying or selling this growth stock whats going on with adobe stock nyt wordle hint and answer for june puzzle lpro investor have the opportunity to lead the open lending security fraud lawsuit with faruqi faruqi llp ftre investor deadline fortrea holding inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqftre ogn investor deadline organon co investor with loss may have been affected by fraud contact bfa law by july court deadline nyseogn breaking hims news a security fraud class action ha been filed on behalf of hims hers health inc nysehims investor contact bfa law if you lost money aapl investor deadline apple inc investor with loss may have been affected by fraud contact bfa law by august court deadline nasdaqaapl civi investor deadline civitas resource inc investor with loss may have been affected by fraud contact bfa law by july court deadline nysecivi rddt investor deadline reddit inc investor with loss may have been affected by fraud contact bfa law by august court deadline nyserddt breaking codi news compass diversified holding nysecodi announces nonreliance on financial statement for contact bfa law by july iova investor deadline iovance biotherapeutics investor with loss may have been affected by fraud contact bfa law by july court deadline nasdaqiova womens sober housing along the mississippi ha a bright future following troubled past this stock is up since it ipo here reason it could still be a smart buy oppenheimer co inc raise stock position in marsh mclennan company inc nysemmc kremlin reacts to nato defense spending hike no significant effect house republican don bacon of nebraska will not seek reelection stock market pullback coming etf to buy meta platform inc nasdaqmeta share bought by pinnacle bancorp inc golden state wealth management llc boost stock position in lam research corporation nasdaqlrcx hims hers stock financial analysis following huge stock price crash incredible news for quantumscape stock investor this blackrock etf could soar according to billionaire michael saylor new owner to keep childrens exchange open for rochester family how to start learning math for data science a simple guide at bezos venetian wedding buzz bling and backlash the new york time spire wealth management purchase share of doordash inc nasdaqdash bessemer group inc sell share of ameriprise financial inc nyseamp cambridge investment research advisor inc cut position in huntington bancshares incorporated nasdaqhban beloved grocery chain better than costco to open new store a part of expansion after buying closed winndixie site amd v arista network which artificial intelligence ai stock is a better buy right now tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration tariff drive up firework price ahead of fourth of july tip to save for your celebration agg is a great choice for most but i like this vanguard etf better can disney stock keep rising after hitting a new week high memory of muscatine a post card of the golden state tampa outsource call center firm name new ceo whats going on with micron stock america newest space ipo wa a smashing success reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro i make a year and want to retire at should i invest more in stock or focus on real estate jeff bezos lauren sanchez join list of richest married couple here how prenups for wealthiest people take place hindustan time hindustan time farm labor land cost dominate discussion at inaugural lake county agricultural summit here what the new condo law requires is it too much to handle here what the new condo law requires is it too much to handle developer file preapplication for mixeduse project at nw th st miami florida debt is a growing force influencing jobseekers choice career expert say here how im year old and the father of functional medicine here my daily routine for a healthy life target face serious challenge a ceo cornell retirement nears walmart slash price on popular summer essential to just and it even cheaper than target version the end of bank branch how europe digital euro and stablecoins are reshaping finance luvmes independence day wig sale limitedtime countdown deal old navy is selling americana flip flop for just theyre identical to havaianas but and nearly cheaper new la trader joes open across the street from another trader joes amid messiness at the social security administration more people are taking benefit early asking the right question can reframe how you respond to challenge grandfather k seized by chase in sudden account closure it destroyed his credit forced him to delay retirement macro trend likely to send bitcoin and xrp skyrocketing in how to budget weekly pay when freight is inconsistent why ai resume are overwhelming recruiter and manager after lahaina burned an experiment in housing the most vulnerable golden state wealth management llc purchase share of diageo plc nysedeo rob biederman join the stage at all stage family and business are concerned about the effect of tariff on youth sport share in meta platform inc nasdaqmeta acquired by mokan wealth management inc meta platform inc nasdaqmeta share sold by moran wealth management llc bessemer group inc reduces stake in tmobile u inc nasdaqtmus bessemer group inc lower stock holding in stryker corporation nysesyk aurora private wealth inc purchase share of meta platform inc nasdaqmeta first pacific financial trim position in meta platform inc nasdaqmeta meta platform inc nasdaqmeta stake lifted by symmetry partner llc gamma investing llc ha million stock holding in meta platform inc nasdaqmeta share in carnival corporation nyseccl bought by oppenheimer asset management inc which stock will dominate the weight management market through thing every tesla investor need to watch right now asset management one co ltd sell share of expeditors international of washington inc nasdaqexpd sch financial advisor inc ha million position in alphabet inc nasdaqgoogl walkner condon financial advisor llc acquires share of alphabet inc nasdaqgoogl fidelity national financial inc nysefnf stake increased by oppenheimer co inc nobrainer stock to buy for under right now house republican don bacon of nebraska will not seek reelection wealth enhancement advisory service llc ha million stock holding in darden restaurant inc nysedri llm project every ai enthusiast should build for a stronger resume how europe can mitigate it mighty defence cost challenge ing which cryptocurrency is more likely to be a millionaire maker xrp v shiba inu mortgage rate hit lowest level since early may why you should drop this phrase from your business email colorado health official brace for layoff amid loss of federal funding from trump administration broadcast bias network shield nyc socialist mamdani from extreme label they apply to conservative fact check trump make big false claim about his big domestic policy bill why donald trump is trying to make an example out of this one house republican colorado play about israelgaza debate explores difficult conversation a crisis deepens editorial cartoon for saturday june letter dial back the false rhetoric that inspires violence memory of firework lyon fall and a childhood fueled by curiosity and imagination albemarle look to add more school zone speed camera after initial success column limit of free speech shouldnt be condoned why it time to make america think again deportation nation trump is gunning for new record in immigration prosecution person rescued friday from the penobscot river supreme court limit judge power to block trump order take a stand against the fascist takeover of america policy change could have big consequence for veteran va care drop the charade when it come to social security medicare tesla say it made it first driverless delivery of a new car to a customer this stock is up since it ipo here reason it could still be a smart buy developer lay out their latest vision for the former pleasant hill golf course opinion what doe it mean to be a patriot reader view protect minnesota resource from data center reader view u hypocritical when sending troop senate to hold initial vote today on trump big beautiful bill senate to hold initial vote today on trump big beautiful bill fall river school employee out after arrest on serious charge how psychiatry and activism created the dangerous concept of transgender child reigning ballon dor winner aitana bonmati hospitalized with meningitis less than a week before euro fbi attack on fentanyl is working to reduce overdose death opinion democrat are trying to figure out what to do about john fetterman conor lamb is stepping up letter to the editor truth aint what it used to be why wouldnt there be a regime change what if a hurricane hit alligator alcatraz florida drawing up evacuation plan opinion john tayer that uncomfortable situation where economic and social interest converge opinion max boykoff what will we say in community editorial board considering the sale of public land who is mitchell berger the fort lauderdale democrat chairing david jolly governor campaign canadian man who died in miami detention lived in daytona beach kenosha festivity to change parking traffic downtown old bogeyman reunite maga after explosive iran divide colorado supreme court accepts case on parole revocation debt collection congressional candidate allard see little need for campaign spending limit a look back colorado republican jeff crank get up close look at fire station air base and a convenience store bridging the lgbtq wealth gap the left political philosophy persuasion with a government club roger koopman thing you need to know about new idf chief canceled screening stalled grant federal cut hit iowa group fighting cancer new ut tyler poll reflects texas voter view on current issue political matchup keep our public land public letter hitching a flight tell your story hitching a flight tell your story letter to the editor flag day deserves to be a federal holiday more than other holiday lost in translation off the record lost in translation off the record i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time what happens if wisconsin budget isnt passed on time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time i dont shy away from a fight pritzkers run for atypical third term fit unprecedented time abbott paxton can withhold uvalde jan related record texas supreme court rule uw nurse bid to reclaim union status rejected by wisconsin supreme court unanimously dont take me out to the ballgame editorial cartoon for saturday june walter five year on the pandemic still plague california employee safety net legislator review kurth disappointed by republican education funding plan legislator review kurth disappointed by republican education funding plan editorial veto speed cam tax credit bill measure to protect hawaii fishing industry one of five food and farm bill signed friday mayor name nominee to future ocean safety commission gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill gop leader boost rural hospital fund rewrite medicaid provision to save trump megabill republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty republican race toward crucial vote on trump megabill despite uncertainty the tribune quote of the week quiz for june letter route series neglect to capture the beauty along the road in new mexico final day of scotus decision brings wave of historymaking ruling trump nato turnaround from threatening to pull u out to daddy of the alliance msgr charles j dubois is travis decker alive a fruitless week manhunt ha produced no certain evidence republican plan to overhaul medicaid are already shaking up the midterm trump immigration arrest are seeing a wave of resistance wanda ammons regina gina marie williams baccigalopi letter trump like staging spectacle more than he like helping people heat dome pass but climatefueled wave arent going anywhere word of the week eudaimonia what is the meaning of the pursuit of happiness tom sawyer fence painting closed to girl the jackpod taking a break cnn report from the huge crowd attending state funeral in tehran oreo is bringing back a fanfavorite flavor after year stop yelling at u biden join thousand paying final respect to slain minnesota lawmaker and husband ge appliance moving production from china to republican state matthew schaefer honor late mother after getting selected first overall by new york islander in nhl draft letter city could do better to help north tulsa grow thing every rivian investor need to watch right now shiba inu and cardano price prediction leave investor nervous many are joining the remittix train after gain walmart is selling an excellent soundbar for and shopper say it quite impressive bigfoot stomp in from east county mountain it your business bigfoot stomp in from east county mountain it your business unpacking the content strategy definition a modern marketer guide delta operation recovering through weekend more delay and cancellation sunday alivecom la vega strip casino cant escape troubling trend in their shoe what is life like a an olympic longdistance runner the type of load board when and how to use each bart improves in safety cleanliness and satisfaction yet ridership recovery remains slow uptown aventura planned for biscayne blvd miami fl house gop leadership discussing new way to limit classified information on capitol hill from hallucination to hardware lesson from a realworld computer vision project gone sideways this psychedelic drug flopped on trial result should you buy the dip ai stock up to in that should continue moving higher this ridiculously cheap warren buffett stock could make you richer iranian hacker could become more active after military strike here how to protect your business im not putting on a fing hijab uk singer refuse to virtue signal for palestine pull out of festival three sneaky way sam club trick you into buying a tv worth plus easy tip to maximize your home viewing marktomarket middle east conflict whipsaw energy price cheer to year abc fine wine spirit renews support for pediatric cancer research marktomarket middle east conflict whipsaw energy price xrp price prediction payment token surge incoming xrp rtx xlm expected to outperform in july trump tax bill conflict with trump trade goal editorial supreme court ruling restores right to parent walmart is selling a burner expert grill for just and it cheaper than the lowes version borderland mexico winner in global tariff war could be mexico report say global sport medicine leader smithnephew to sponsor select player competing at wimbledon highlighting advanced solution for joint repair an energy star inside u home is under attack from trump with the cost to homeowner uncertain costco branded insane and archaic a shopper beg chain to speed up roll out of popular checkout method used by rival autodesk inc nasdaqadsk share acquired by spire wealth management spire wealth management raise stock holding in autodesk inc nasdaqadsk alphabet inc nasdaqgoogl is apeiron capital ltds th largest position promising robotics stock to consider june th ameriprise financial inc nyseamp share bought by spire wealth management sequoia financial advisor llc buy share of yum brand inc nyseyum elevance health inc nyseelv share bought by sequoia financial advisor llc robeco institutional asset management bv ha million stock position in paychex inc nasdaqpayx top streaming stock worth watching june th steele capital management inc ha million holding in nvidia corporation nasdaqnvda amphenol corporation nyseaph share purchased by cambridge investment research advisor inc robeco institutional asset management bv purchase share of the charles schwab corporation nyseschw sequoia financial advisor llc buy share of public storage nysepsa nvidia corporation nasdaqnvda share purchased by ipswich investment management co inc spire wealth management boost stock position in ameriprise financial inc nyseamp nvidia cor</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.165</v>
+        <v>0.151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.097</v>
+        <v>0.121</v>
       </c>
       <c r="M5" t="n">
-        <v>0.737</v>
+        <v>0.729</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999</v>
+        <v>0.9996</v>
       </c>
       <c r="O5" t="n">
+        <v>179</v>
+      </c>
+      <c r="P5" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>341</v>
+      </c>
+      <c r="S5" t="n">
+        <v>115</v>
+      </c>
+      <c r="T5" t="n">
+        <v>458</v>
+      </c>
+      <c r="U5" t="n">
+        <v>283</v>
+      </c>
+      <c r="V5" t="n">
+        <v>132</v>
+      </c>
+      <c r="W5" t="n">
+        <v>70</v>
+      </c>
+      <c r="X5" t="n">
         <v>168</v>
-      </c>
-      <c r="P5" t="n">
-        <v>143</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>329</v>
-      </c>
-      <c r="S5" t="n">
-        <v>106</v>
-      </c>
-      <c r="T5" t="n">
-        <v>466</v>
-      </c>
-      <c r="U5" t="n">
-        <v>244</v>
-      </c>
-      <c r="V5" t="n">
-        <v>111</v>
-      </c>
-      <c r="W5" t="n">
-        <v>57</v>
-      </c>
-      <c r="X5" t="n">
-        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -896,55 +892,55 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>esperion appoints craig thompson to board of director mercadolibre applied material and a healthcare stock on cnbcs final trade ap business summarybrief at am edt ap business summarybrief at am edt how to plan in an uncertain economy senate churn through overnight session a republican seek support for trump big bill senate churn through overnight session a republican seek support for trump big bill bbg launch data center specialty practice appoints industry veteran chris fudacz to lead new specialty practice mara report june bitcoin production and mining operation update issue midyear outlook the bond canary in the big beautiful coal mine nasdaq welcome ipo in the first half of ameresco receives frost sullivan global company of the year award for excellence in energy service nasdaq welcome ipo in the first half of outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer beyond the number analyst discus taysha gene therapy stock deep dive into new fortress energy stock analyst perspective rating trevi therapeutic to attend leerink partner therapeutic forum ii and metabolism beyond the number analyst discus lineage stock stock market today dow jones fall ahead of powell talk tesla dive on trumpmusk feud live coverage analyst assess ionis pharmaceutical what you need to know where robinhood market stand with analyst deep dive into weyerhaeuser stock analyst perspective rating should you expect demand growth in range resource rrc alphyns zabalafin hydrogel for atopic dermatitis highlighted in leading peerreviewed journal oppo reno pro price availability spec more qapel medical appoints stewart strong a president and chief executive officer highspring and vaco by highspring earn top honor from staffing industry analyst what make pinnacle financial partner pnfp a longterm bet ap technology summarybrief at am edt july is flush smart month who need a refresher on potty training basic historic hip hop def jam memorabilia auction to benefit rush philanthropic art foundation bidding close july july is flush smart month who need a refresher on potty training basic bounce empire debut world largest indoor circular transparent led screen surpasses visitor in two year rohrer aesthetic unveils new clinical study highlighting pixe a the future of regenerative aesthetic can community health launch susan terry foundation to empower individual living with hiv blackrock esg capital allocation term trust ecat certified result of annual meeting announced td synnex acquires apptium to accelerate innovation breadth of cloud and everythingasaservice offering masco corporation announces date for earnings release and conference call for second quarter fifth third wealth advisor surpasses billion in net new asset under management expands platform capability thredd expands global footprint with new office in the u intrabio inc completes recruitment for ib at pivotal clinical trial dakota announces formation of advisory board to accelerate strategic growth and product evolution uber eats expands partnership with beloved local grocer marea therapeutic appoints shishir gadam phd a chief technical officer lynq set july th launch date for realtime interestbearing settlement network retail investor use ethransaction btc xrp usdc and other mainstream currency for cloud mining earning a stable income of per day cordia pittsburgh win system of the year award at idea senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state thermo fisher scientific to hold earnings conference call on wednesday july amentum to host third quarter fiscal year earnings conference call on august momentus and orbit fab partner to advance space servicing with podracer and rafti demonstration flight this stock is still the very best place you can put your money tailor expands series a to m with privatepublic support operation hope and georgia state university launch groundbreaking ai literacy program for underserved youth levelblue to acquire trustwave becoming largest pureplay managed security service provider this stock is still the very best place you can put your money nline energy and penn state health milton s hershey medical center win joseph m brillhart innovation award at idea pepper launch the first open and extensible endless aisle platform in the foodservice industry fresenius expands biosimilars portfolio with the launch of denosumab biosimilars in the u sofi schedule conference call to discus q result valley national bancorp announces new general counsel unnatural product tap argenxs help for ringed molecule expands internal work into obesity brightspring health lead company in line for tripledigit profit growth brightspring health lead company in line for tripledigit profit growth i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good transcript velina peneva swiss re chief investment officer elon musk and donald trump are fighting again miami beach city commission grant final approval to terras redevelopment of the historic deauville hotel site canadian cuisine food that reflect the country size and diversity is nvidia stock a buy at new record high jewelry sale outperform a u spending for most luxury good falter citi report find cnbc oportun responds to comment by findell capital actelis network announces private placement priced atthemarket under nasdaq rule deepki accelerates u operation to help commercial real estate tackle sustainability challenge manage risk and drive financial performance duo technology added to russell microcap index dih appoints rehazentrum valens a a dih center of excellence lendmark financial service announces expiration and result of it tender offer for it senior note due cole engineering awarded m u army production contract for nextgeneration stinger training system zohran mamdanis primary win is a warning to every legacy brand travtus partner with engrain to bring spatial intelligence to it everyday ai platform jd martin expands partnership with nvent eriflex to florida north carolina and south carolina radius recycling report third quarter fiscal financial result stryker to announce financial result for it second quarter of fiscal year richtech robotics announces inclusion in u smallcap russell and russell index oncternal therapeutic announces the sale of select development program and the winddown of it operation arevon secures million credit facility to accelerate renewable energy growth in the united state dih appoints rehazentrum valens a a dih center of excellence kavalan blitz iwc taking trio of whisky distillery and master distiller of the year prize inriver research reveals widespread ai deployment in pim of company have moved beyond pilot randamu and chengdu university of information technology collaborate to advance cryptographic research and web coordination infrastructure kestra medical technology ltd to report fourth quarter and fiscal year result on july genmab announces change to it executive committee document available regarding ramacos brook mine rare earth and critical mineral project condo price dropped in maythe second largest decline on record independent preliminary economic assessment report from fluor corporation confirms commercial and technical feasibility of ramacos brook mine rare earth deposit realme series set to shake up india midrange smartphone market aocs childhood nickname revealed amid bronx girl claim second democrat announces campaign to unseat gop congressman in competitive michigan district these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more the multiverse scandal how academia is redefining science to avoid god senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good elon musk and donald trump are fighting again dan gainor the good the bad and the absurd june wildest political moment and celebrity meltdown canadian cuisine food that reflect the country size and diversity la new budget kick in today here what your tax dollar are paying for montana leader need to protect our export economy mark noland letter bad outcome if medicare is cut editorial cartoon for tuesday july cant wait for saturday today texas state to the pac then what james walkinshaw win democratic contest to likely replace u rep connolly in northern virginia mystery surround the jeffrey epstein file after bondi claim ten of thousand of video amendment targeting medicaid expansion wont get a senate vote trump say doge might have to go back and eat elon musk after his criticism of the gop bill president lee jaemyung hope for a better interkorean relationship hickory public housing authority officially abolished after final meeting monday well break your leg un accused of mafiatype response to usled gaza relief effort usaid cut could cause staggering number of avoidable death study say how iran lost the short war with israel and america republican struggle to pas trump massive tax bill after hour of drama opinion senate bill undermines decade of progress in disability service thousand of cancer patient fear disruption in care due to insurance contract dispute supreme court medina ruling free state to defund planned parenthood muscatine contingent visit china trump blame att after conference call with faith leader disrupted takeaway from aps report on attorney general bondis comment about evidence in epstein case takeaway from aps report on attorney general bondis comment about evidence in epstein case texas democrat who lost to ted cruz month ago jump into senate race watching area near florida for possible tropical development saudi arabia alhilal had to climb mount everest without oxygen in shock club world cup win over manchester city trump score major victory a vance help push big beautiful bill through senate maybe he ha a knife yulia putintseva asks for crazy wimbledon spectator to be ejected over safety fear senate hold votearama on trump big beautiful bill senate votearama on gop megabill go all night most american feel democracy is theatened poll show and mamdani speaks with npr new jersey phil murphy take heat from all side in final budget a governor south korea energy policy under lee jaemyung american opinion deportation alone cant fix u immigration problem can south korea achieve peace in a chaotic world trump big beautiful bill awaits final senate vote opinion spense havlick scam are everywhere these day dont be fooled the future of air combat how long will the u military still need pilot california new consumer protection law go into effect july amc theater will start placing even more ad in cinema nationwide starting today letter to the editor power must be maintained at all cost extend freedom beyond our own specie we need a shared morality major insurance change are coming to glp drug for weight loss here how that could affect patient editorial american deserve clearer explanation of what happened in iran maglite pedestrian safety institute and additional partner to promote traffic and pedestrian safety during national roadside traffic safety awareness month egg harbor township approves year affordable housing plan remembering the men and woman who serve our country do the saint have their qb of the future in the building this season should decide that trump relief for farmer look like control by fear guest commentary florida resident get a new roof now and receive free exterior painting just in time for hurricane season letter democrat seem incapable of praising trump for anything whats the point of being a u senator if you dont have gut bob brown the most undervalued asset for a leader it these hour the bully pulpit ron waterman what sdas latest win signal for military space republican still pushing to pas trump big beautiful bill he hasnt played in mlb for more than two decade one team is paying him million a year until senate republican closing in on final vote on gop spending bill more republican than dems vote to raise tax on billionaire in latenight senate vote house democrat announces he wont seek reelection in trump doge is the monster that might have to go back and eat elon will state assembly save energy independence california focus will state assembly save energy independence california focus watch out for weirdo facebook scammer promising the world scam of the week letter obama policy necessitated u strike on nuclear site opinion state bill pausing new building code risk climate change progress public health expert trump big beautiful bill will cause misery and death my turn we need to be a twohospital town my turn thanks extremist for making me reexamine who i want to be and what our nation should be my turn state democrat play dirty trick with legislation my turn another four year of the idiot council doofus thing to know for july trump megabill israelgaza alligator alcatraz idaho shooting hurricane data debate over trump big bill continues tuesday morning in u senate hundred of national guard force deployed to la by trump could be returned to calif wildfire duty editorial cartoon for july reader view congress must reject any cut to medicaid who to say anybodys vote is safe trump doj target north carolina voter roll here how president trump mega tax bill would impact illinois council lower real estate tax rate yet restores funding for service program concern in north dakota grow about increased aca cost medical debt flood drown out lancaster county roadway in aftermath of monday storm hundred of child told to test for disease in australia after childcare worker charged with child sex abuse here are offensive player who can contribute for southern football in wisconsin governor gop reach budget deal to cut tax fund university maha report call for fighting chronic disease but trump and kennedy have yanked funding local expert detail potential effect of federal funding cut lagniappe next up the steve miller band jay take isolation a doubleedged sword letter catholic must stand in unity and sacrifice a jesus did letter america most beautiful wild land are in grave danger burke catawba mcdowell iredell city county close for july see garbage impact</t>
+          <t>londonbased startup laverock therapeutic raise over million for it gene control tech robinhood expands it global push minute from crypto chief old cramped apartment in cannes medium advisory justice is a common cause day commemoration of the downing of flight p and first memorial unveiled webuy global ltd integrates coinbase to accept stablecoin payment leading the way in travel technology and digital payment in market rally back to record best sp tech trade hasnt been mag or tech sector itself inspirational quote albert einstein virginia woolf and others u dollar suffers worst start to year since financial time canada talk show tariff have created a new world for investor axios doc alleged bribe came before antioch homebuilder played all legal card moderna report phase flu data teeing up new submission with federal support uncertain state and nonprofit scramble to safeguard access to vaccine houstonbased developer proposes story highrise for nw th st miami fl brookfield business partner to host second quarter result conference call expert tip for securing debt financing in a challenging market option flow alert bull making their move in googl stock modernas flu vaccine show positive latestage trial result paving way for combination covid shot ardagh metal packaging sa q result and investor call notification shatterproof name public affair and health leader pam jenkins a new ceo killam apartment reit announces normal course issuer bid largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country should you buy xrp ripple while it under first merchant corporation to report second quarter financial result host conference call and webcast st louisarea business opening and closing in june lantronix enters into cooperation agreement with investor group led by chain of lake investment fund llc amazon miss out on switch sale after nintendo pulled product from u site bloomberg signify share repurchase period update avadel pharmaceutical announces unanimous appeal court decision upholding fda approval of lumryz in narcolepsy in administrative procedure act litigation work advice my bos want me to install a work app on my personal phone brookfield infrastructure to host second quarter result conference call king street close oversubscribed european real estate special situation fund ii oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy how flower by edie parker landed million social impression with a single campaign jinkosolar and ib vogt partner to deliver highefficiency tiger neo module for spain mwp segovia solar cluster wesco publishes sustainability report modine launch dsu destratification fan bringing bestinclass airflow solution to commercial and industrial space cielo announces agm result and extension of unit offering intershunt enrolls first patient in new heart failure study canadian premium sand inc provides operational update core natural resource provides update on ongoing effort to resume longwall operation at leer south iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth way chief marketing officer are harnessing ai right now tonix pharmaceutical announces inclusion in the russell and russell index regenx amends debenture term and announces nonbrokered financing for gross proceeds of king street close oversubscribed european real estate special situation fund ii first legal step taken this time by wsta to untangle the legal knot of the clean truck partnership regenx amends debenture term and announces nonbrokered financing for gross proceeds of cdr foundation announces grant to five nonprofit organization in new york city digital worker have arrived in banking wsj miss a accelerates national growth aiming for store by q iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth mty food group inc announces renewal of normal course issuer bid brookfield infrastructure to host second quarter result conference call largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy poet technology provides result of annual general and special meeting brookfield business partner to host second quarter result conference call northstar announces receipt of letter of interest on potential funding for up to four united state asphalt shingle reprocessing facility carobway launch foodforward prebiotic fiber innovation at ift selling downtown minneapolis skyscraper a tall order these day core natural resource provides update on ongoing effort to resume longwall operation at leer south nls pharmaceutic and kadimastem announce pricing and closing of million equity financing cassava present promising preclinical simufilam data at tsc alliance meeting editorial embrace the real solution to our health care crisis huachen ai parking management technology holding co ltd and hangzhou qianhui electric technology co ltd establish cooperative relationship to enhance twowheeled echarging infrastructure indivior announces inclusion in the u russell and index credicorp ltd credicorp take legal action to defend rule of law in tax dispute with sunat signify share repurchase period update best cryptos to buy on th june nls pharmaceutic and kadimastem announce pricing and closing of million equity financing what you need to know ahead of blackrocks earnings release zscaler announces proposed offering of billion of convertible senior note due down is jetblue stock a buy zscaler announces proposed offering of billion of convertible senior note due plug power stock is rising why hydrogen just got a boost from the senate bill barrons ap business summarybrief at am edt klarna boost banking effort a it prepares to go public judge rule against human right group claim that the uk is illegally arming israel judge rule against human right group claim that the uk is illegally arming israel what you need to know ahead of steel dynamic earnings release verny capital sign agreement to sell rg gold verny capital sign agreement to sell rg gold ahold delhaize usa cyberattack exposed million people data petroperu seek partner for amazon oil block reactivation zohran mamdani admits he hate capitalism allied with socialist operative linked to marxist terror group white house expects more country will drop digital service tax after canada back down friend reunited why it wasnt just lionel messi who faced paris saintgermain at the fifa club world cup share in jpmorgan chase co nysejpm acquired by ffg partner llc cambridge investment research advisor inc ha million position in otis worldwide corporation nyseotis hbk sorce advisory llc ha million stock position in jpmorgan chase co nysejpm ferguson shapiro llc trim stake in jpmorgan chase co nysejpm jpmorgan chase co nysejpm is pinnacle bancorp inc th largest position cambridge investment research advisor inc ha million stake in otis worldwide corporation nyseotis cambridge investment research advisor inc boost stock holding in paccar inc nasdaqpcar carux to buy pioneer for bn perigon wealth management llc acquires share of the bank of new york mellon corporation nysebk robeco institutional asset management bv lower stock position in the allstate corporation nyseall amphenol corporation nyseaph share sold by bartlett co wealth management llc social security july payment schedule here when beneficiary get their check russia deploys new shadow fleet lng carrier to load gas at sanctioned arctic project india aprilmay fiscal deficit at of fullyear target with federal support uncertain state and nonprofit scramble to safeguard access to vaccine canada talk show tariff create new world for investor letter to the editor we must keep trying to understand one another better keep attendance up at rec center class i lost my yearold son to suicide from addictive ai algorithm we cant let big tech destroy our child zohran mamdanis primary victory spark debate over israel antisemitism and nycs future editorial supreme court once more give trump wide power on deportation further statement re u budget reconciliation bill cnn ha no one to blame but itself zefiro subsidiary plant goodwin awarded additional governmentfunded remediation work in ohio capitol agenda thune head into a perilous votearama tuesday aldermanic election pit mayor spencer v president green reader view stauber still ha time to save legacy a hardright lawmaker is sworn in a greece migration minister nasrallahs status at risk a hezbollah face israeli blitz zoren here a look at main philly july activity some of which will be on tv bill and jan friend reunited why it wasnt just lionel messi who faced paris saintgermain at the fifa club world cup average age of a firsttime homebuyer is just under year old fed clear plan for more medicaid aid for nebraska hospital statesvilles sinkhole at tradd and front street to be repaired by midjuly fed clear plan for more medicaid aid for nebraska hospital italy meloni break bread with trump at the hague warren buffett donates record billion berkshire share the rise of ai in ceo communicationsand the credibility threat it pose answer to pressing social security question senate republican are in a sprint on trump big bill after a weekend of setback senator consider proposed amendment to trump big bill of tax break and spending cut senate republican are in a sprint on trump big bill after a weekend of setback senate republican are in a sprint on trump big bill after a weekend of setback editorial cartoon for june thing to know for june idaho shooting trump bill uscanada iran escaped inmate in china crackdown on gay erotica woman bear the brunt iga swiatek slam intense calendar a player feel the grind to protect ranking plan submitted to convert burnley terrace into shared housing the flip of a coin today will determine who sits on the pasadena city council letter parking and other policy reveal city dysfunction social security cola estimate are out how do they compare to past year bob asmussen the thing i love and enjoy is helping people move forward letter williamsville need to rethink priority canadaus trade talk resuming after canada kill plan to tax u tech firm carney say trump had railed against it senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill after picking up million player option with the los angeles lakers what doe the future hold for lebron james senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill janet march ruled dead focus turn to husband notorious nashville jason chaffetz ten sneaky way the deep state steal your data and how trump can help you stop it editorial is brandon johnson pitching wall streeters on moving to chicago postmamdani we thought not editorial driver sport bettor vapers and airbnb user wont be toasting this fiscal new year in illinois zohran mamdani want to build government supermarket america already ha them iranisrael conflict after the war enter the diplomat gov jb pritzker is running for reelection who will he pick a his no trump th week set to focus on big beautiful bill passage ahead of independence day deadline letter the victory of a progressive mayoral candidate in new york is not a signal to democrat john t shaw wesleyan university president stand up for higher education a it under assault new law taking effect july impact seat belt waterworks and more unexpected roadblock for woman entrepreneursand how to overcome them rochester police department daily incident report june july fan follow hagen thru hole of match boston police sergeant charged with aggravated rape of a minor what is meant by a fait accompli nasa plan to stream rocket launch on netflix starting this summer lucas obama and the democrat paved the way for iran nuclear program ace bailey say he blessed to be with the utah jazz after he fell to them in the nba draft total ambush idaho firefighter gunned down suspect found dead in apparent trap most peaceful country fight over transit skill game and overall spending mean the pa budget will again be late canada pm say trade talk with u resuming in auburn regional gop leader urge battle tested lawler to run for ny governor allegheny county finance not yet dire but unsustainable say oconnor pa lawmaker consider new state board to fasttrack electricity project new doc get schooled in old disease a vaccine rate fall q a with the president of connecticut association of board of education over accuser filed sex abuse claim in race to beat cap on child victim act why is ice masked up china favorite coffee chain arrives in u reader speak ct is fortunate lamont is our governor trump tell fox news he ha group of wealthy people to buy tiktok morning brief trump big beautiful bill nears finish line scotus rein in judicial overreach the gaudy tie that bind trump and bezos trump new american doctrine mean peace through strength ha returned loss of clean energy tax credit would be a step backward for maine opinion loss of clean energy tax credit would be a step backward for maine opinion loss of clean energy tax credit would be a step backward for maine opinion this could be the summer of economic hell hhs cut cdc staff who made sure birth control is safe for woman at risk loeffler trump one big beautiful bill could cement economic legacy for decade door and dream are no match for feline frolic left lefter and leftist democrat could be defined by radical big city mayor million of u kid attend school in urban heat zone trumpstarmer trade deal kick in uk luxury car get tariff rollsroyce engine fly dutyfree into u republican leader struggle to find balance on reconciliation bill sen ron johnson on why he decided to support president trump spending agenda traditional business planning doesnt cut it anymore here what leader should embrace instead senate move ahead on massive tax and spending bill the trump administration is building a national citizenship system coverage of no king had the wrong focus letter is maine enthusiasm for firework fizzling out</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>esperion appoints craig thompson to board of director mercadolibre applied material and a healthcare stock on cnbcs final trade ap business summarybrief at am edt ap business summarybrief at am edt how to plan in an uncertain economy senate churn through overnight session a republican seek support for trump big bill senate churn through overnight session a republican seek support for trump big bill bbg launch data center specialty practice appoints industry veteran chris fudacz to lead new specialty practice mara report june bitcoin production and mining operation update issue midyear outlook the bond canary in the big beautiful coal mine nasdaq welcome ipo in the first half of ameresco receives frost sullivan global company of the year award for excellence in energy service nasdaq welcome ipo in the first half of outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer beyond the number analyst discus taysha gene therapy stock deep dive into new fortress energy stock analyst perspective rating trevi therapeutic to attend leerink partner therapeutic forum ii and metabolism beyond the number analyst discus lineage stock stock market today dow jones fall ahead of powell talk tesla dive on trumpmusk feud live coverage analyst assess ionis pharmaceutical what you need to know where robinhood market stand with analyst deep dive into weyerhaeuser stock analyst perspective rating should you expect demand growth in range resource rrc alphyns zabalafin hydrogel for atopic dermatitis highlighted in leading peerreviewed journal oppo reno pro price availability spec more qapel medical appoints stewart strong a president and chief executive officer highspring and vaco by highspring earn top honor from staffing industry analyst what make pinnacle financial partner pnfp a longterm bet ap technology summarybrief at am edt july is flush smart month who need a refresher on potty training basic historic hip hop def jam memorabilia auction to benefit rush philanthropic art foundation bidding close july july is flush smart month who need a refresher on potty training basic bounce empire debut world largest indoor circular transparent led screen surpasses visitor in two year rohrer aesthetic unveils new clinical study highlighting pixe a the future of regenerative aesthetic can community health launch susan terry foundation to empower individual living with hiv blackrock esg capital allocation term trust ecat certified result of annual meeting announced td synnex acquires apptium to accelerate innovation breadth of cloud and everythingasaservice offering masco corporation announces date for earnings release and conference call for second quarter fifth third wealth advisor surpasses billion in net new asset under management expands platform capability thredd expands global footprint with new office in the u intrabio inc completes recruitment for ib at pivotal clinical trial dakota announces formation of advisory board to accelerate strategic growth and product evolution uber eats expands partnership with beloved local grocer marea therapeutic appoints shishir gadam phd a chief technical officer lynq set july th launch date for realtime interestbearing settlement network retail investor use ethransaction btc xrp usdc and other mainstream currency for cloud mining earning a stable income of per day cordia pittsburgh win system of the year award at idea senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state thermo fisher scientific to hold earnings conference call on wednesday july amentum to host third quarter fiscal year earnings conference call on august momentus and orbit fab partner to advance space servicing with podracer and rafti demonstration flight this stock is still the very best place you can put your money tailor expands series a to m with privatepublic support operation hope and georgia state university launch groundbreaking ai literacy program for underserved youth levelblue to acquire trustwave becoming largest pureplay managed security service provider this stock is still the very best place you can put your money nline energy and penn state health milton s hershey medical center win joseph m brillhart innovation award at idea pepper launch the first open and extensible endless aisle platform in the foodservice industry fresenius expands biosimilars portfolio with the launch of denosumab biosimilars in the u sofi schedule conference call to discus q result valley national bancorp announces new general counsel unnatural product tap argenxs help for ringed molecule expands internal work into obesity brightspring health lead company in line for tripledigit profit growth brightspring health lead company in line for tripledigit profit growth i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good transcript velina peneva swiss re chief investment officer elon musk and donald trump are fighting again miami beach city commission grant final approval to terras redevelopment of the historic deauville hotel site canadian cuisine food that reflect the country size and diversity is nvidia stock a buy at new record high jewelry sale outperform a u spending for most luxury good falter citi report find cnbc oportun responds to comment by findell capital actelis network announces private placement priced atthemarket under nasdaq rule deepki accelerates u operation to help commercial real estate tackle sustainability challenge manage risk and drive financial performance duo technology added to russell microcap index dih appoints rehazentrum valens a a dih center of excellence lendmark financial service announces expiration and result of it tender offer for it senior note due cole engineering awarded m u army production contract for nextgeneration stinger training system zohran mamdanis primary win is a warning to every legacy brand travtus partner with engrain to bring spatial intelligence to it everyday ai platform jd martin expands partnership with nvent eriflex to florida north carolina and south carolina radius recycling report third quarter fiscal financial result stryker to announce financial result for it second quarter of fiscal year richtech robotics announces inclusion in u smallcap russell and russell index oncternal therapeutic announces the sale of select development program and the winddown of it operation arevon secures million credit facility to accelerate renewable energy growth in the united state dih appoints rehazentrum valens a a dih center of excellence kavalan blitz iwc taking trio of whisky distillery and master distiller of the year prize inriver research reveals widespread ai deployment in pim of company have moved beyond pilot randamu and chengdu university of information technology collaborate to advance cryptographic research and web coordination infrastructure kestra medical technology ltd to report fourth quarter and fiscal year result on july genmab announces change to it executive committee document available regarding ramacos brook mine rare earth and critical mineral project condo price dropped in maythe second largest decline on record independent preliminary economic assessment report from fluor corporation confirms commercial and technical feasibility of ramacos brook mine rare earth deposit realme series set to shake up india midrange smartphone market aocs childhood nickname revealed amid bronx girl claim second democrat announces campaign to unseat gop congressman in competitive michigan district these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more the multiverse scandal how academia is redefining science to avoid god senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good elon musk and donald trump are fighting again dan gainor the good the bad and the absurd june wildest political moment and celebrity meltdown canadian cuisine food that reflect the country size and diversity la new budget kick in today here what your tax dollar are paying for montana leader need to protect our export economy mark noland letter bad outcome if medicare is cut editorial cartoon for tuesday july cant wait for saturday today texas state to the pac then what james walkinshaw win democratic contest to likely replace u rep connolly in northern virginia mystery surround the jeffrey epstein file after bondi claim ten of thousand of video amendment targeting medicaid expansion wont get a senate vote trump say doge might have to go back and eat elon musk after his criticism of the gop bill president lee jaemyung hope for a better interkorean relationship hickory public housing authority officially abolished after final meeting monday well break your leg un accused of mafiatype response to usled gaza relief effort usaid cut could cause staggering number of avoidable death study say how iran lost the short war with israel and america republican struggle to pas trump massive tax bill after hour of drama opinion senate bill undermines decade of progress in disability service thousand of cancer patient fear disruption in care due to insurance contract dispute supreme court medina ruling free state to defund planned parenthood muscatine contingent visit china trump blame att after conference call with faith leader disrupted takeaway from aps report on attorney general bondis comment about evidence in epstein case takeaway from aps report on attorney general bondis comment about evidence in epstein case texas democrat who lost to ted cruz month ago jump into senate race watching area near florida for possible tropical development saudi arabia alhilal had to climb mount everest without oxygen in shock club world cup win over manchester city trump score major victory a vance help push big beautiful bill through senate maybe he ha a knife yulia putintseva asks for crazy wimbledon spectator to be ejected over safety fear senate hold votearama on trump big beautiful bill senate votearama on gop megabill go all night most american feel democracy is theatened poll show and mamdani speaks with npr new jersey phil murphy take heat from all side in final budget a governor south korea energy policy under lee jaemyung american opinion deportation alone cant fix u immigration problem can south korea achieve peace in a chaotic world trump big beautiful bill awaits final senate vote opinion spense havlick scam are everywhere these day dont be fooled the future of air combat how long will the u military still need pilot california new consumer protection law go into effect july amc theater will start placing even more ad in cinema nationwide starting today letter to the editor power must be maintained at all cost extend freedom beyond our own specie we need a shared morality major insurance change are coming to glp drug for weight loss here how that could affect patient editorial american deserve clearer explanation of what happened in iran maglite pedestrian safety institute and additional partner to promote traffic and pedestrian safety during national roadside traffic safety awareness month egg harbor township approves year affordable housing plan remembering the men and woman who serve our country do the saint have their qb of the future in the building this season should decide that trump relief for farmer look like control by fear guest commentary florida resident get a new roof now and receive free exterior painting just in time for hurricane season letter democrat seem incapable of praising trump for anything whats the point of being a u senator if you dont have gut bob brown the most undervalued asset for a leader it these hour the bully pulpit ron waterman what sdas latest win signal for military space republican still pushing to pas trump big beautiful bill he hasnt played in mlb for more than two decade one team is paying him million a year until senate republican closing in on final vote on gop spending bill more republican than dems vote to raise tax on billionaire in latenight senate vote house democrat announces he wont seek reelection in trump doge is the monster that might have to go back and eat elon will state assembly save energy independence california focus will state assembly save energy independence california focus watch out for weirdo facebook scammer promising the world scam of the week letter obama policy necessitated u strike on nuclear site opinion state bill pausing new building code risk climate change progress public health expert trump big beautiful bill will cause misery and death my turn we need to be a twohospital town my turn thanks extremist for making me reexamine who i want to be and what our nation should be my turn state democrat play dirty trick with legislation my turn another four year of the idiot council doofus thing to know for july trump megabill israelgaza alligator alcatraz idaho shooting hurricane data debate over trump big bill continues tuesday morning in u senate hundred of national guard force deployed to la by trump could be returned to calif wildfire duty editorial cartoon for july reader view congress must reject any cut to medicaid who to say anybodys vote is safe trump doj target north carolina voter roll here how president trump mega tax bill would impact illinois council lower real estate tax rate yet restores funding for service program concern in north dakota grow about increased aca cost medical debt flood drown out lancaster county roadway in aftermath of monday storm hundred of child told to test for disease in australia after childcare worker charged with child sex abuse here are offensive player who can contribute for southern football in wisconsin governor gop reach budget deal to cut tax fund university maha report call for fighting chronic disease but trump and kennedy have yanked funding local expert detail potential effect of federal funding cut lagniappe next up the steve miller band jay take isolation a doubleedged sword letter catholic must stand in unity and sacrifice a jesus did letter america most beautiful wild land are in grave danger burke catawba mcdowell iredell city county close for july see garbage impact</t>
+          <t>londonbased startup laverock therapeutic raise over million for it gene control tech robinhood expands it global push minute from crypto chief old cramped apartment in cannes medium advisory justice is a common cause day commemoration of the downing of flight p and first memorial unveiled webuy global ltd integrates coinbase to accept stablecoin payment leading the way in travel technology and digital payment in market rally back to record best sp tech trade hasnt been mag or tech sector itself inspirational quote albert einstein virginia woolf and others u dollar suffers worst start to year since financial time canada talk show tariff have created a new world for investor axios doc alleged bribe came before antioch homebuilder played all legal card moderna report phase flu data teeing up new submission with federal support uncertain state and nonprofit scramble to safeguard access to vaccine houstonbased developer proposes story highrise for nw th st miami fl brookfield business partner to host second quarter result conference call expert tip for securing debt financing in a challenging market option flow alert bull making their move in googl stock modernas flu vaccine show positive latestage trial result paving way for combination covid shot ardagh metal packaging sa q result and investor call notification shatterproof name public affair and health leader pam jenkins a new ceo killam apartment reit announces normal course issuer bid largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country should you buy xrp ripple while it under first merchant corporation to report second quarter financial result host conference call and webcast st louisarea business opening and closing in june lantronix enters into cooperation agreement with investor group led by chain of lake investment fund llc amazon miss out on switch sale after nintendo pulled product from u site bloomberg signify share repurchase period update avadel pharmaceutical announces unanimous appeal court decision upholding fda approval of lumryz in narcolepsy in administrative procedure act litigation work advice my bos want me to install a work app on my personal phone brookfield infrastructure to host second quarter result conference call king street close oversubscribed european real estate special situation fund ii oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy how flower by edie parker landed million social impression with a single campaign jinkosolar and ib vogt partner to deliver highefficiency tiger neo module for spain mwp segovia solar cluster wesco publishes sustainability report modine launch dsu destratification fan bringing bestinclass airflow solution to commercial and industrial space cielo announces agm result and extension of unit offering intershunt enrolls first patient in new heart failure study canadian premium sand inc provides operational update core natural resource provides update on ongoing effort to resume longwall operation at leer south iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth way chief marketing officer are harnessing ai right now tonix pharmaceutical announces inclusion in the russell and russell index regenx amends debenture term and announces nonbrokered financing for gross proceeds of king street close oversubscribed european real estate special situation fund ii first legal step taken this time by wsta to untangle the legal knot of the clean truck partnership regenx amends debenture term and announces nonbrokered financing for gross proceeds of cdr foundation announces grant to five nonprofit organization in new york city digital worker have arrived in banking wsj miss a accelerates national growth aiming for store by q iterum name christine coyne a chief commercial officer to lead orlynvahtm launch and commercial growth mty food group inc announces renewal of normal course issuer bid brookfield infrastructure to host second quarter result conference call largest crossmod neighborhood provides blueprint for scaling new attainable home inventory across the country oncolytics biotech appoints former ambrx executive a chief business officer to drive business development strategy poet technology provides result of annual general and special meeting brookfield business partner to host second quarter result conference call northstar announces receipt of letter of interest on potential funding for up to four united state asphalt shingle reprocessing facility carobway launch foodforward prebiotic fiber innovation at ift selling downtown minneapolis skyscraper a tall order these day core natural resource provides update on ongoing effort to resume longwall operation at leer south nls pharmaceutic and kadimastem announce pricing and closing of million equity financing cassava present promising preclinical simufilam data at tsc alliance meeting editorial embrace the real solution to our health care crisis huachen ai parking management technology holding co ltd and hangzhou qianhui electric technology co ltd establish cooperative relationship to enhance twowheeled echarging infrastructure indivior announces inclusion in the u russell and index credicorp ltd credicorp take legal action to defend rule of law in tax dispute with sunat signify share repurchase period update best cryptos to buy on th june nls pharmaceutic and kadimastem announce pricing and closing of million equity financing what you need to know ahead of blackrocks earnings release zscaler announces proposed offering of billion of convertible senior note due down is jetblue stock a buy zscaler announces proposed offering of billion of convertible senior note due plug power stock is rising why hydrogen just got a boost from the senate bill barrons ap business summarybrief at am edt klarna boost banking effort a it prepares to go public judge rule against human right group claim that the uk is illegally arming israel judge rule against human right group claim that the uk is illegally arming israel what you need to know ahead of steel dynamic earnings release verny capital sign agreement to sell rg gold verny capital sign agreement to sell rg gold ahold delhaize usa cyberattack exposed million people data petroperu seek partner for amazon oil block reactivation zohran mamdani admits he hate capitalism allied with socialist operative linked to marxist terror group white house expects more country will drop digital service tax after canada back down friend reunited why it wasnt just lionel messi who faced paris saintgermain at the fifa club world cup share in jpmorgan chase co nysejpm acquired by ffg partner llc cambridge investment research advisor inc ha million position in otis worldwide corporation nyseotis hbk sorce advisory llc ha million stock position in jpmorgan chase co nysejpm ferguson shapiro llc trim stake in jpmorgan chase co nysejpm jpmorgan chase co nysejpm is pinnacle bancorp inc th largest position cambridge investment research advisor inc ha million stake in otis worldwide corporation nyseotis cambridge investment research advisor inc boost stock holding in paccar inc nasdaqpcar carux to buy pioneer for bn perigon wealth management llc acquires share of the bank of new york mellon corporation nysebk robeco institutional asset management bv lower stock position in the allstate corporation nyseall amphenol corporation nyseaph share sold by bartlett co wealth management llc social security july payment schedule here when beneficiary get their check russia deploys new shadow fleet lng carrier to load gas at sanctioned arctic project india aprilmay fiscal deficit at of fullyear target with federal support uncertain state and nonprofit scramble to safeguard access to vaccine canada talk show tariff create new world for investor letter to the editor we must keep trying to understand one another better keep attendance up at rec center class i lost my yearold son to suicide from addictive ai algorithm we cant let big tech destroy our child zohran mamdanis primary victory spark debate over israel antisemitism and nycs future editorial supreme court once more give trump wide power on deportation further statement re u budget reconciliation bill cnn ha no one to blame but itself zefiro subsidiary plant goodwin awarded additional governmentfunded remediation work in ohio capitol agenda thune head into a perilous votearama tuesday aldermanic election pit mayor spencer v president green reader view stauber still ha time to save legacy a hardright lawmaker is sworn in a greece migration minister nasrallahs status at risk a hezbollah face israeli blitz zoren here a look at main philly july activity some of which will be on tv bill and jan friend reunited why it wasnt just lionel messi who faced paris saintgermain at the fifa club world cup average age of a firsttime homebuyer is just under year old fed clear plan for more medicaid aid for nebraska hospital statesvilles sinkhole at tradd and front street to be repaired by midjuly fed clear plan for more medicaid aid for nebraska hospital italy meloni break bread with trump at the hague warren buffett donates record billion berkshire share the rise of ai in ceo communicationsand the credibility threat it pose answer to pressing social security question senate republican are in a sprint on trump big bill after a weekend of setback senator consider proposed amendment to trump big bill of tax break and spending cut senate republican are in a sprint on trump big bill after a weekend of setback senate republican are in a sprint on trump big bill after a weekend of setback editorial cartoon for june thing to know for june idaho shooting trump bill uscanada iran escaped inmate in china crackdown on gay erotica woman bear the brunt iga swiatek slam intense calendar a player feel the grind to protect ranking plan submitted to convert burnley terrace into shared housing the flip of a coin today will determine who sits on the pasadena city council letter parking and other policy reveal city dysfunction social security cola estimate are out how do they compare to past year bob asmussen the thing i love and enjoy is helping people move forward letter williamsville need to rethink priority canadaus trade talk resuming after canada kill plan to tax u tech firm carney say trump had railed against it senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill after picking up million player option with the los angeles lakers what doe the future hold for lebron james senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill senate gop look to pas marathon final test on trump big beautiful bill janet march ruled dead focus turn to husband notorious nashville jason chaffetz ten sneaky way the deep state steal your data and how trump can help you stop it editorial is brandon johnson pitching wall streeters on moving to chicago postmamdani we thought not editorial driver sport bettor vapers and airbnb user wont be toasting this fiscal new year in illinois zohran mamdani want to build government supermarket america already ha them iranisrael conflict after the war enter the diplomat gov jb pritzker is running for reelection who will he pick a his no trump th week set to focus on big beautiful bill passage ahead of independence day deadline letter the victory of a progressive mayoral candidate in new york is not a signal to democrat john t shaw wesleyan university president stand up for higher education a it under assault new law taking effect july impact seat belt waterworks and more unexpected roadblock for woman entrepreneursand how to overcome them rochester police department daily incident report june july fan follow hagen thru hole of match boston police sergeant charged with aggravated rape of a minor what is meant by a fait accompli nasa plan to stream rocket launch on netflix starting this summer lucas obama and the democrat paved the way for iran nuclear program ace bailey say he blessed to be with the utah jazz after he fell to them in the nba draft total ambush idaho firefighter gunned down suspect found dead in apparent trap most peaceful country fight over transit skill game and overall spending mean the pa budget will again be late canada pm say trade talk with u resuming in auburn regional gop leader urge battle tested lawler to run for ny governor allegheny county finance not yet dire but unsustainable say oconnor pa lawmaker consider new state board to fasttrack electricity project new doc get schooled in old disease a vaccine rate fall q a with the president of connecticut association of board of education over accuser filed sex abuse claim in race to beat cap on child victim act why is ice masked up china favorite coffee chain arrives in u reader speak ct is fortunate lamont is our governor trump tell fox news he ha group of wealthy people to buy tiktok morning brief trump big beautiful bill nears finish line scotus rein in judicial overreach the gaudy tie that bind trump and bezos trump new american doctrine mean peace through strength ha returned loss of clean energy tax credit would be a step backward for maine opinion loss of clean energy tax credit would be a step backward for maine opinion loss of clean energy tax credit would be a step backward for maine opinion this could be the summer of economic hell hhs cut cdc staff who made sure birth control is safe for woman at risk loeffler trump one big beautiful bill could cement economic legacy for decade door and dream are no match for feline frolic left lefter and leftist democrat could be defined by radical big city mayor million of u kid attend school in urban heat zone trumpstarmer trade deal kick in uk luxury car get tariff rollsroyce engine fly dutyfree into u republican leader struggle to find balance on reconciliation bill sen ron johnson on why he decided to support president trump spending agenda traditional business planning doesnt cut it anymore here what leader should embrace instead senate move ahead on massive tax and spending bill the trump administration is building a national citizenship system coverage of no king had the wrong focus letter is maine enthusiasm for firework fizzling out</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.099</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.057</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.844</v>
+        <v>0.803</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9967</v>
+        <v>0.9988</v>
       </c>
       <c r="O6" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="P6" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="S6" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="T6" t="n">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="U6" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="V6" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="W6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -974,55 +970,55 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>halftime show icon take big fall get injured during wnba commissioner cup championship after paying u tariff on it product busy baby look to europe and australia a future market dan ives urge apple to make a move saying that perplexity acquisition is a nobrainer it a matter of when and not if centene stock plummet what sparked the brutal selloff centene stock plummet what sparked the brutal selloff barrons iran president approves law suspending cooperation with un nuclear watchdog invivyd and leading researcher form spear spike protein elimination and recovery study group first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share new study reveals brutal hit that u employer face from trump tariff huffpost fortnite how to get the battle bus suv try this trick wildfire kill people in spain a part of europe bake in heat wave think you missed the ai rally these gridbacked play are just getting warmed up tech billionaire launch erebor bank to fill svbs gap invivyd and leading researcher form spear spike protein elimination and recovery study group to assess the effect of monoclonal antibody therapy for long covid and covid postvaccination syndrome diversified energy promotes michael garrett to chief accounting officer diversified energy promotes michael garrett to chief accounting officer uk investor see not one but two pathway to rail merger developer acquire land for westgate village at north congress avenue west palm beach florida argon ai raise m to build the ai workspace powering the future of life science nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide trump to cut protection for home health aide migrant farmworkers is atlantic hurricane season behind schedule here whats really going on a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier ge aerospace bear put spread could return in the next few month the humn etf let you invest in humanoid robotics stock should you buy in now the humn etf let you invest in humanoid robotics stock should you buy in now ge aerospace bear put spread could return in the next few month mortgage refinance demand surge a interest rate drop further cnbc u of m health care consulting fee adding up at rate of to per hour mortgage refinance demand surge a interest rate drop further certik hackd fortress building product accelerates fencing and steel framing growth strategy divests railing and lighting business to primesource brand inventus sign milling agreement with mcewen mining alta equipment group announces preferred stock dividend erdene commences trading on the otcqb riley permian announces closing of new mexico acquisition tonix pharmaceutical announces peerreviewed publication in cancer cell journal highlighting positive preclinical data of mtnx in gastric cancer animal model have an allamerican fourth of july with beef on the grill greystone logistics share information on stock buyback this is the key to building a personal brand that resonates with others olipops latest marketing stunt drew a person waitlistand sold out immediately alta equipment group announces preferred stock dividend pasinex announces annual and q financial result green thumb industry to hold second quarter earnings conference call on august whitestone reit announces second quarter earnings webcast and conference call the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it whitestone reit announces second quarter earnings webcast and conference call cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update inventus sign milling agreement with mcewen mining riley permian announces closing of new mexico acquisition amc network announces early result and upsizing of tender offer for it senior note due amc network announces early result and upsizing of tender offer for it senior note due cardano price prediction ada price struggle to surpass a newcomer remittix gain ground with ico surge the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it token crypto presale go live price prediction x potential and what early buyer need to know now is bitcoin getting ready for a big price move in july water way technology enters strategic partnership for exclusive tomato hybrid development for vertical farming editorial stop the bleeding for colorado medicaid paramount resource ltd announces renewal of normal course issuer bid and july dividend pyrogenesis sign contract targeting plastic waste management problem in europe mda space completes acquisition of satixfy communication cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update valore report result from successful hole trado auger drilling campaign at pedra branca including m at gt pgeau from surface dr phone fix expands partnership with assurant to accelerate certified preowned phone sale across canada what are the best vanguard etf for a wellrounded portfolio first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share what are the best vanguard etf for a wellrounded portfolio wallbridge exploration drilling continues to intercept highgrade gold mineralization at martiniere consumertech brand nothing tap cevas realspace software to bring immersive spatial audio to headphone and earbuds primesource brand acquires fortress railing product shattuck lab announces participation in upcoming leerink partner therapeutic forum ii and metabolism pyrogenesis sign contract targeting plastic waste management problem in europe dayforce empowers canadian small and midsized business with powerpay by dayforce identiv partner with narravero to accelerate digital product passport adoption and compliance blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina verkkokauppacom to publish januaryjune halfyear report on july crypto loss surpass billion in h certik report reveals alarming rise in phishing attack blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina main street announces followon portfolio investment paramount global and donald trump settle for million inside america department store tarifftriggered price hike are picking up robeco institutional asset management bv ha million position in dollar general corporation nysedg after trump warns elon musk to close up shop china rally behind world richest man there no need to keep putting up with it year old grocery store staple file for bankruptcy northisle announces near surface intercept and highergrade intercept at depth at west goodspeed on it north island project stock market news dow set to open higher after senate pass spending bill barrons meeka metal begin gold production at murchison project australia seeking stable passive income in crypto quid miner offer a sustainable new cloud mining solution democrat the last holdout bear could be the key to a new stockmarket rally marketwatch smart gas meter market worth billion by marketsandmarketstm yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others aldi is selling a comfort sandal for just it a perfect oofos dupe but cheaper kkr bet on sustainable protein demand with proten investment in australia kitron receive eur million contract for defense airborne radar application northern trust q earnings what to expect northern trust q earnings what to expect murkowski got to yes on t megabill thanks to spending for alaska how the megabill will limit health care access and plan to ease gun regulation iran president approves law suspending cooperation with un nuclear watchdog new study reveals brutal hit that u employer face from trump tariff another one bite the dust cbs settle with trump over infamous kamala minute segment letter to the editor a plea to boulder earbud hiker no excuse for not repaying student loan guthrie song is a relevant a ever guest opinion stuart c lord education wa my way out this bill slam that door shut house republican race toward a final vote on trump tax bill daring critic to oppose guest opinion christopher schweitzer the siren song of unreason is a dangerous plunge into darkness hollywood lost the plot now rebel are making movie great again what the rd budget proposal say about the future of war is atlantic hurricane season behind schedule here whats really going on trump immigration crackdown ripple through economy a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier politician push jobkilling minimum wage hike while ignoring the devastating economic reality editorial attacking zohran mamdanis u citizenship is contemptible and dangerous republican rep jim jordan discusses trumpbacked megabill after senate passage rash kid have been abducted from ukraine these midwest senator want to find them a welcome shift in federal financial reporting wednesday letter sen budd where is your courage where is your honesty grow keep an eye out for brown patch disease in coolseason grass american opinion instead of ice raid on farmworkers overhaul this visa program cytosorbents provides u fda and health canada regulatory update for drugsorbatr best of the babylon bee defeated cuomo left groping for answer berry tramel rising valuation of nba franchise will prompt thunder ownership to sell opinion minneapolis police chief brian ohara is getting a bum rap over lake street raid year old grocery store staple file for bankruptcy democratic gov janet mill discusses how the gop megabill will impact maine maine cant afford to lose federal funding governor say modestly bipartisan budget could go to full wisconsin legislature wednesday gop megabill head back to the house for final approval u wont send some weapon pledged to ukraine following a pentagon review of military aid what the mar elia church bombing mean for syria future artificial intelligence saving you money and helping massdot build faster republican holdout head to the white house to discus trump bill letter patriot not saying much on ice treatment of veteran opinion a july approach supreme court sign away american democracy trump put senate in play in wall street journal new jersey gubernatorial candidate to speak at made in nj manufacturing day trump put senate in play in wall street journal nelly denies he maga say kamala harris locked up black ha white husband trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal lawrence odonnells unfiltered reaction to bonkers trump presser moment say it all how ai can help ease the strain on health care service man charged in deadly brockton stabbing pleads not guilty house republican race toward a final vote on trump tax bill sen ron johnson a yes on trump budget bill sen tammy baldwin disgusted by it holy cow history happy july whatever green bay prison would close by under republican budget proposal gen z is the worst at work right wrong thing to know for july usaid ukraine munition trump megabill climate change paramount settlement former insurance commissioner say lara should go california focus former insurance commissioner say lara should go california focus letter spending choice make republican leader priority clear incredible growth stock poised for longterm gain win an ar old state saloon present conspiracy theory trivia and salooncast with ian carroll a twonight blast of truth tech and patriotism analysis show trump tariff would cost u employer billion if elon stick to rocket i will stick to finance bessent shrug off musk debt drama lancashire need to set investment priority to get biggest bang for buck can south korea deescalate north korea without u support how to be editor for a day notorious husband and wife professional tenant indicted on criminal charge we will not let hate win provincetown town manager say following second incident protect your pet on the fourth of july editor for a day letter constitutional system seems abandoned the u military cant quit the middle east another voice financial restitution is necessary but not sufficient for abuse survivor letter war against diversity education in unjust and disrespect history sean diddy comb found guilty on count acquitted of most serious charge firework warehouse explodes in california dalai lama say he intends to reincarnate after death ukraine look to jointly produce weapon with ally while u halt some shipment honolulu board of water supply sue navy for b over red hill fuel leak governor state budget veto trim public school maintenance new hawaii firework law take effect today hooser walking through my thought and value federal climate website go dark a trump administration promise policy reset house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill leore james kowarsch liz shulman will big tech transform school into an ai video game jerald mcnair doe student use of ai spell the end for homework trump lit a fire under nato but more need to be done to contain the russiachina axis north korea to send a many a troop to bolster russia force ukrainian official say trump pick to run federal watchdog a yearold who once shared a conspiracy video and ha tie to a holocaust denier letter keep an eye on what matter not just what seems exciting editorial financial hit keep on coming and city hall only response is excuse steve chapman congress and the supreme court approve donald trump drive for absolute power letter why centrism doesnt have enough bite to make an impact</t>
+          <t>esperion appoints craig thompson to board of director mercadolibre applied material and a healthcare stock on cnbcs final trade ap business summarybrief at am edt ap business summarybrief at am edt how to plan in an uncertain economy senate churn through overnight session a republican seek support for trump big bill senate churn through overnight session a republican seek support for trump big bill bbg launch data center specialty practice appoints industry veteran chris fudacz to lead new specialty practice mara report june bitcoin production and mining operation update issue midyear outlook the bond canary in the big beautiful coal mine nasdaq welcome ipo in the first half of ameresco receives frost sullivan global company of the year award for excellence in energy service nasdaq welcome ipo in the first half of outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer beyond the number analyst discus taysha gene therapy stock deep dive into new fortress energy stock analyst perspective rating trevi therapeutic to attend leerink partner therapeutic forum ii and metabolism beyond the number analyst discus lineage stock stock market today dow jones fall ahead of powell talk tesla dive on trumpmusk feud live coverage analyst assess ionis pharmaceutical what you need to know where robinhood market stand with analyst deep dive into weyerhaeuser stock analyst perspective rating should you expect demand growth in range resource rrc alphyns zabalafin hydrogel for atopic dermatitis highlighted in leading peerreviewed journal oppo reno pro price availability spec more qapel medical appoints stewart strong a president and chief executive officer highspring and vaco by highspring earn top honor from staffing industry analyst what make pinnacle financial partner pnfp a longterm bet ap technology summarybrief at am edt july is flush smart month who need a refresher on potty training basic historic hip hop def jam memorabilia auction to benefit rush philanthropic art foundation bidding close july july is flush smart month who need a refresher on potty training basic bounce empire debut world largest indoor circular transparent led screen surpasses visitor in two year rohrer aesthetic unveils new clinical study highlighting pixe a the future of regenerative aesthetic can community health launch susan terry foundation to empower individual living with hiv blackrock esg capital allocation term trust ecat certified result of annual meeting announced td synnex acquires apptium to accelerate innovation breadth of cloud and everythingasaservice offering masco corporation announces date for earnings release and conference call for second quarter fifth third wealth advisor surpasses billion in net new asset under management expands platform capability thredd expands global footprint with new office in the u intrabio inc completes recruitment for ib at pivotal clinical trial dakota announces formation of advisory board to accelerate strategic growth and product evolution uber eats expands partnership with beloved local grocer marea therapeutic appoints shishir gadam phd a chief technical officer lynq set july th launch date for realtime interestbearing settlement network retail investor use ethransaction btc xrp usdc and other mainstream currency for cloud mining earning a stable income of per day cordia pittsburgh win system of the year award at idea senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state thermo fisher scientific to hold earnings conference call on wednesday july amentum to host third quarter fiscal year earnings conference call on august momentus and orbit fab partner to advance space servicing with podracer and rafti demonstration flight this stock is still the very best place you can put your money tailor expands series a to m with privatepublic support operation hope and georgia state university launch groundbreaking ai literacy program for underserved youth levelblue to acquire trustwave becoming largest pureplay managed security service provider this stock is still the very best place you can put your money nline energy and penn state health milton s hershey medical center win joseph m brillhart innovation award at idea pepper launch the first open and extensible endless aisle platform in the foodservice industry fresenius expands biosimilars portfolio with the launch of denosumab biosimilars in the u sofi schedule conference call to discus q result valley national bancorp announces new general counsel unnatural product tap argenxs help for ringed molecule expands internal work into obesity brightspring health lead company in line for tripledigit profit growth brightspring health lead company in line for tripledigit profit growth i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good transcript velina peneva swiss re chief investment officer elon musk and donald trump are fighting again miami beach city commission grant final approval to terras redevelopment of the historic deauville hotel site canadian cuisine food that reflect the country size and diversity is nvidia stock a buy at new record high jewelry sale outperform a u spending for most luxury good falter citi report find cnbc oportun responds to comment by findell capital actelis network announces private placement priced atthemarket under nasdaq rule deepki accelerates u operation to help commercial real estate tackle sustainability challenge manage risk and drive financial performance duo technology added to russell microcap index dih appoints rehazentrum valens a a dih center of excellence lendmark financial service announces expiration and result of it tender offer for it senior note due cole engineering awarded m u army production contract for nextgeneration stinger training system zohran mamdanis primary win is a warning to every legacy brand travtus partner with engrain to bring spatial intelligence to it everyday ai platform jd martin expands partnership with nvent eriflex to florida north carolina and south carolina radius recycling report third quarter fiscal financial result stryker to announce financial result for it second quarter of fiscal year richtech robotics announces inclusion in u smallcap russell and russell index oncternal therapeutic announces the sale of select development program and the winddown of it operation arevon secures million credit facility to accelerate renewable energy growth in the united state dih appoints rehazentrum valens a a dih center of excellence kavalan blitz iwc taking trio of whisky distillery and master distiller of the year prize inriver research reveals widespread ai deployment in pim of company have moved beyond pilot randamu and chengdu university of information technology collaborate to advance cryptographic research and web coordination infrastructure kestra medical technology ltd to report fourth quarter and fiscal year result on july genmab announces change to it executive committee document available regarding ramacos brook mine rare earth and critical mineral project condo price dropped in maythe second largest decline on record independent preliminary economic assessment report from fluor corporation confirms commercial and technical feasibility of ramacos brook mine rare earth deposit realme series set to shake up india midrange smartphone market aocs childhood nickname revealed amid bronx girl claim second democrat announces campaign to unseat gop congressman in competitive michigan district these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more the multiverse scandal how academia is redefining science to avoid god senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good elon musk and donald trump are fighting again dan gainor the good the bad and the absurd june wildest political moment and celebrity meltdown canadian cuisine food that reflect the country size and diversity la new budget kick in today here what your tax dollar are paying for montana leader need to protect our export economy mark noland letter bad outcome if medicare is cut editorial cartoon for tuesday july cant wait for saturday today texas state to the pac then what james walkinshaw win democratic contest to likely replace u rep connolly in northern virginia mystery surround the jeffrey epstein file after bondi claim ten of thousand of video amendment targeting medicaid expansion wont get a senate vote trump say doge might have to go back and eat elon musk after his criticism of the gop bill president lee jaemyung hope for a better interkorean relationship hickory public housing authority officially abolished after final meeting monday well break your leg un accused of mafiatype response to usled gaza relief effort usaid cut could cause staggering number of avoidable death study say how iran lost the short war with israel and america republican struggle to pas trump massive tax bill after hour of drama opinion senate bill undermines decade of progress in disability service thousand of cancer patient fear disruption in care due to insurance contract dispute supreme court medina ruling free state to defund planned parenthood muscatine contingent visit china trump blame att after conference call with faith leader disrupted takeaway from aps report on attorney general bondis comment about evidence in epstein case takeaway from aps report on attorney general bondis comment about evidence in epstein case texas democrat who lost to ted cruz month ago jump into senate race watching area near florida for possible tropical development saudi arabia alhilal had to climb mount everest without oxygen in shock club world cup win over manchester city trump score major victory a vance help push big beautiful bill through senate maybe he ha a knife yulia putintseva asks for crazy wimbledon spectator to be ejected over safety fear senate hold votearama on trump big beautiful bill senate votearama on gop megabill go all night most american feel democracy is theatened poll show and mamdani speaks with npr new jersey phil murphy take heat from all side in final budget a governor south korea energy policy under lee jaemyung american opinion deportation alone cant fix u immigration problem can south korea achieve peace in a chaotic world trump big beautiful bill awaits final senate vote opinion spense havlick scam are everywhere these day dont be fooled the future of air combat how long will the u military still need pilot california new consumer protection law go into effect july amc theater will start placing even more ad in cinema nationwide starting today letter to the editor power must be maintained at all cost extend freedom beyond our own specie we need a shared morality major insurance change are coming to glp drug for weight loss here how that could affect patient editorial american deserve clearer explanation of what happened in iran maglite pedestrian safety institute and additional partner to promote traffic and pedestrian safety during national roadside traffic safety awareness month egg harbor township approves year affordable housing plan remembering the men and woman who serve our country do the saint have their qb of the future in the building this season should decide that trump relief for farmer look like control by fear guest commentary florida resident get a new roof now and receive free exterior painting just in time for hurricane season letter democrat seem incapable of praising trump for anything whats the point of being a u senator if you dont have gut bob brown the most undervalued asset for a leader it these hour the bully pulpit ron waterman what sdas latest win signal for military space republican still pushing to pas trump big beautiful bill he hasnt played in mlb for more than two decade one team is paying him million a year until senate republican closing in on final vote on gop spending bill more republican than dems vote to raise tax on billionaire in latenight senate vote house democrat announces he wont seek reelection in trump doge is the monster that might have to go back and eat elon will state assembly save energy independence california focus will state assembly save energy independence california focus watch out for weirdo facebook scammer promising the world scam of the week letter obama policy necessitated u strike on nuclear site opinion state bill pausing new building code risk climate change progress public health expert trump big beautiful bill will cause misery and death my turn we need to be a twohospital town my turn thanks extremist for making me reexamine who i want to be and what our nation should be my turn state democrat play dirty trick with legislation my turn another four year of the idiot council doofus thing to know for july trump megabill israelgaza alligator alcatraz idaho shooting hurricane data debate over trump big bill continues tuesday morning in u senate hundred of national guard force deployed to la by trump could be returned to calif wildfire duty editorial cartoon for july reader view congress must reject any cut to medicaid who to say anybodys vote is safe trump doj target north carolina voter roll here how president trump mega tax bill would impact illinois council lower real estate tax rate yet restores funding for service program concern in north dakota grow about increased aca cost medical debt flood drown out lancaster county roadway in aftermath of monday storm hundred of child told to test for disease in australia after childcare worker charged with child sex abuse here are offensive player who can contribute for southern football in wisconsin governor gop reach budget deal to cut tax fund university maha report call for fighting chronic disease but trump and kennedy have yanked funding local expert detail potential effect of federal funding cut lagniappe next up the steve miller band jay take isolation a doubleedged sword letter catholic must stand in unity and sacrifice a jesus did letter america most beautiful wild land are in grave danger burke catawba mcdowell iredell city county close for july see garbage impact</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>halftime show icon take big fall get injured during wnba commissioner cup championship after paying u tariff on it product busy baby look to europe and australia a future market dan ives urge apple to make a move saying that perplexity acquisition is a nobrainer it a matter of when and not if centene stock plummet what sparked the brutal selloff centene stock plummet what sparked the brutal selloff barrons iran president approves law suspending cooperation with un nuclear watchdog invivyd and leading researcher form spear spike protein elimination and recovery study group first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share new study reveals brutal hit that u employer face from trump tariff huffpost fortnite how to get the battle bus suv try this trick wildfire kill people in spain a part of europe bake in heat wave think you missed the ai rally these gridbacked play are just getting warmed up tech billionaire launch erebor bank to fill svbs gap invivyd and leading researcher form spear spike protein elimination and recovery study group to assess the effect of monoclonal antibody therapy for long covid and covid postvaccination syndrome diversified energy promotes michael garrett to chief accounting officer diversified energy promotes michael garrett to chief accounting officer uk investor see not one but two pathway to rail merger developer acquire land for westgate village at north congress avenue west palm beach florida argon ai raise m to build the ai workspace powering the future of life science nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide trump to cut protection for home health aide migrant farmworkers is atlantic hurricane season behind schedule here whats really going on a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier ge aerospace bear put spread could return in the next few month the humn etf let you invest in humanoid robotics stock should you buy in now the humn etf let you invest in humanoid robotics stock should you buy in now ge aerospace bear put spread could return in the next few month mortgage refinance demand surge a interest rate drop further cnbc u of m health care consulting fee adding up at rate of to per hour mortgage refinance demand surge a interest rate drop further certik hackd fortress building product accelerates fencing and steel framing growth strategy divests railing and lighting business to primesource brand inventus sign milling agreement with mcewen mining alta equipment group announces preferred stock dividend erdene commences trading on the otcqb riley permian announces closing of new mexico acquisition tonix pharmaceutical announces peerreviewed publication in cancer cell journal highlighting positive preclinical data of mtnx in gastric cancer animal model have an allamerican fourth of july with beef on the grill greystone logistics share information on stock buyback this is the key to building a personal brand that resonates with others olipops latest marketing stunt drew a person waitlistand sold out immediately alta equipment group announces preferred stock dividend pasinex announces annual and q financial result green thumb industry to hold second quarter earnings conference call on august whitestone reit announces second quarter earnings webcast and conference call the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it whitestone reit announces second quarter earnings webcast and conference call cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update inventus sign milling agreement with mcewen mining riley permian announces closing of new mexico acquisition amc network announces early result and upsizing of tender offer for it senior note due amc network announces early result and upsizing of tender offer for it senior note due cardano price prediction ada price struggle to surpass a newcomer remittix gain ground with ico surge the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it token crypto presale go live price prediction x potential and what early buyer need to know now is bitcoin getting ready for a big price move in july water way technology enters strategic partnership for exclusive tomato hybrid development for vertical farming editorial stop the bleeding for colorado medicaid paramount resource ltd announces renewal of normal course issuer bid and july dividend pyrogenesis sign contract targeting plastic waste management problem in europe mda space completes acquisition of satixfy communication cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update valore report result from successful hole trado auger drilling campaign at pedra branca including m at gt pgeau from surface dr phone fix expands partnership with assurant to accelerate certified preowned phone sale across canada what are the best vanguard etf for a wellrounded portfolio first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share what are the best vanguard etf for a wellrounded portfolio wallbridge exploration drilling continues to intercept highgrade gold mineralization at martiniere consumertech brand nothing tap cevas realspace software to bring immersive spatial audio to headphone and earbuds primesource brand acquires fortress railing product shattuck lab announces participation in upcoming leerink partner therapeutic forum ii and metabolism pyrogenesis sign contract targeting plastic waste management problem in europe dayforce empowers canadian small and midsized business with powerpay by dayforce identiv partner with narravero to accelerate digital product passport adoption and compliance blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina verkkokauppacom to publish januaryjune halfyear report on july crypto loss surpass billion in h certik report reveals alarming rise in phishing attack blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina main street announces followon portfolio investment paramount global and donald trump settle for million inside america department store tarifftriggered price hike are picking up robeco institutional asset management bv ha million position in dollar general corporation nysedg after trump warns elon musk to close up shop china rally behind world richest man there no need to keep putting up with it year old grocery store staple file for bankruptcy northisle announces near surface intercept and highergrade intercept at depth at west goodspeed on it north island project stock market news dow set to open higher after senate pass spending bill barrons meeka metal begin gold production at murchison project australia seeking stable passive income in crypto quid miner offer a sustainable new cloud mining solution democrat the last holdout bear could be the key to a new stockmarket rally marketwatch smart gas meter market worth billion by marketsandmarketstm yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others aldi is selling a comfort sandal for just it a perfect oofos dupe but cheaper kkr bet on sustainable protein demand with proten investment in australia kitron receive eur million contract for defense airborne radar application northern trust q earnings what to expect northern trust q earnings what to expect murkowski got to yes on t megabill thanks to spending for alaska how the megabill will limit health care access and plan to ease gun regulation iran president approves law suspending cooperation with un nuclear watchdog new study reveals brutal hit that u employer face from trump tariff another one bite the dust cbs settle with trump over infamous kamala minute segment letter to the editor a plea to boulder earbud hiker no excuse for not repaying student loan guthrie song is a relevant a ever guest opinion stuart c lord education wa my way out this bill slam that door shut house republican race toward a final vote on trump tax bill daring critic to oppose guest opinion christopher schweitzer the siren song of unreason is a dangerous plunge into darkness hollywood lost the plot now rebel are making movie great again what the rd budget proposal say about the future of war is atlantic hurricane season behind schedule here whats really going on trump immigration crackdown ripple through economy a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier politician push jobkilling minimum wage hike while ignoring the devastating economic reality editorial attacking zohran mamdanis u citizenship is contemptible and dangerous republican rep jim jordan discusses trumpbacked megabill after senate passage rash kid have been abducted from ukraine these midwest senator want to find them a welcome shift in federal financial reporting wednesday letter sen budd where is your courage where is your honesty grow keep an eye out for brown patch disease in coolseason grass american opinion instead of ice raid on farmworkers overhaul this visa program cytosorbents provides u fda and health canada regulatory update for drugsorbatr best of the babylon bee defeated cuomo left groping for answer berry tramel rising valuation of nba franchise will prompt thunder ownership to sell opinion minneapolis police chief brian ohara is getting a bum rap over lake street raid year old grocery store staple file for bankruptcy democratic gov janet mill discusses how the gop megabill will impact maine maine cant afford to lose federal funding governor say modestly bipartisan budget could go to full wisconsin legislature wednesday gop megabill head back to the house for final approval u wont send some weapon pledged to ukraine following a pentagon review of military aid what the mar elia church bombing mean for syria future artificial intelligence saving you money and helping massdot build faster republican holdout head to the white house to discus trump bill letter patriot not saying much on ice treatment of veteran opinion a july approach supreme court sign away american democracy trump put senate in play in wall street journal new jersey gubernatorial candidate to speak at made in nj manufacturing day trump put senate in play in wall street journal nelly denies he maga say kamala harris locked up black ha white husband trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal lawrence odonnells unfiltered reaction to bonkers trump presser moment say it all how ai can help ease the strain on health care service man charged in deadly brockton stabbing pleads not guilty house republican race toward a final vote on trump tax bill sen ron johnson a yes on trump budget bill sen tammy baldwin disgusted by it holy cow history happy july whatever green bay prison would close by under republican budget proposal gen z is the worst at work right wrong thing to know for july usaid ukraine munition trump megabill climate change paramount settlement former insurance commissioner say lara should go california focus former insurance commissioner say lara should go california focus letter spending choice make republican leader priority clear incredible growth stock poised for longterm gain win an ar old state saloon present conspiracy theory trivia and salooncast with ian carroll a twonight blast of truth tech and patriotism analysis show trump tariff would cost u employer billion if elon stick to rocket i will stick to finance bessent shrug off musk debt drama lancashire need to set investment priority to get biggest bang for buck can south korea deescalate north korea without u support how to be editor for a day notorious husband and wife professional tenant indicted on criminal charge we will not let hate win provincetown town manager say following second incident protect your pet on the fourth of july editor for a day letter constitutional system seems abandoned the u military cant quit the middle east another voice financial restitution is necessary but not sufficient for abuse survivor letter war against diversity education in unjust and disrespect history sean diddy comb found guilty on count acquitted of most serious charge firework warehouse explodes in california dalai lama say he intends to reincarnate after death ukraine look to jointly produce weapon with ally while u halt some shipment honolulu board of water supply sue navy for b over red hill fuel leak governor state budget veto trim public school maintenance new hawaii firework law take effect today hooser walking through my thought and value federal climate website go dark a trump administration promise policy reset house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill leore james kowarsch liz shulman will big tech transform school into an ai video game jerald mcnair doe student use of ai spell the end for homework trump lit a fire under nato but more need to be done to contain the russiachina axis north korea to send a many a troop to bolster russia force ukrainian official say trump pick to run federal watchdog a yearold who once shared a conspiracy video and ha tie to a holocaust denier letter keep an eye on what matter not just what seems exciting editorial financial hit keep on coming and city hall only response is excuse steve chapman congress and the supreme court approve donald trump drive for absolute power letter why centrism doesnt have enough bite to make an impact</t>
+          <t>esperion appoints craig thompson to board of director mercadolibre applied material and a healthcare stock on cnbcs final trade ap business summarybrief at am edt ap business summarybrief at am edt how to plan in an uncertain economy senate churn through overnight session a republican seek support for trump big bill senate churn through overnight session a republican seek support for trump big bill bbg launch data center specialty practice appoints industry veteran chris fudacz to lead new specialty practice mara report june bitcoin production and mining operation update issue midyear outlook the bond canary in the big beautiful coal mine nasdaq welcome ipo in the first half of ameresco receives frost sullivan global company of the year award for excellence in energy service nasdaq welcome ipo in the first half of outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer outlook therapeutic appoints biopharmaceutical industry and commercial leader bob jahr a chief executive officer beyond the number analyst discus taysha gene therapy stock deep dive into new fortress energy stock analyst perspective rating trevi therapeutic to attend leerink partner therapeutic forum ii and metabolism beyond the number analyst discus lineage stock stock market today dow jones fall ahead of powell talk tesla dive on trumpmusk feud live coverage analyst assess ionis pharmaceutical what you need to know where robinhood market stand with analyst deep dive into weyerhaeuser stock analyst perspective rating should you expect demand growth in range resource rrc alphyns zabalafin hydrogel for atopic dermatitis highlighted in leading peerreviewed journal oppo reno pro price availability spec more qapel medical appoints stewart strong a president and chief executive officer highspring and vaco by highspring earn top honor from staffing industry analyst what make pinnacle financial partner pnfp a longterm bet ap technology summarybrief at am edt july is flush smart month who need a refresher on potty training basic historic hip hop def jam memorabilia auction to benefit rush philanthropic art foundation bidding close july july is flush smart month who need a refresher on potty training basic bounce empire debut world largest indoor circular transparent led screen surpasses visitor in two year rohrer aesthetic unveils new clinical study highlighting pixe a the future of regenerative aesthetic can community health launch susan terry foundation to empower individual living with hiv blackrock esg capital allocation term trust ecat certified result of annual meeting announced td synnex acquires apptium to accelerate innovation breadth of cloud and everythingasaservice offering masco corporation announces date for earnings release and conference call for second quarter fifth third wealth advisor surpasses billion in net new asset under management expands platform capability thredd expands global footprint with new office in the u intrabio inc completes recruitment for ib at pivotal clinical trial dakota announces formation of advisory board to accelerate strategic growth and product evolution uber eats expands partnership with beloved local grocer marea therapeutic appoints shishir gadam phd a chief technical officer lynq set july th launch date for realtime interestbearing settlement network retail investor use ethransaction btc xrp usdc and other mainstream currency for cloud mining earning a stable income of per day cordia pittsburgh win system of the year award at idea senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state thermo fisher scientific to hold earnings conference call on wednesday july amentum to host third quarter fiscal year earnings conference call on august momentus and orbit fab partner to advance space servicing with podracer and rafti demonstration flight this stock is still the very best place you can put your money tailor expands series a to m with privatepublic support operation hope and georgia state university launch groundbreaking ai literacy program for underserved youth levelblue to acquire trustwave becoming largest pureplay managed security service provider this stock is still the very best place you can put your money nline energy and penn state health milton s hershey medical center win joseph m brillhart innovation award at idea pepper launch the first open and extensible endless aisle platform in the foodservice industry fresenius expands biosimilars portfolio with the launch of denosumab biosimilars in the u sofi schedule conference call to discus q result valley national bancorp announces new general counsel unnatural product tap argenxs help for ringed molecule expands internal work into obesity brightspring health lead company in line for tripledigit profit growth brightspring health lead company in line for tripledigit profit growth i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good transcript velina peneva swiss re chief investment officer elon musk and donald trump are fighting again miami beach city commission grant final approval to terras redevelopment of the historic deauville hotel site canadian cuisine food that reflect the country size and diversity is nvidia stock a buy at new record high jewelry sale outperform a u spending for most luxury good falter citi report find cnbc oportun responds to comment by findell capital actelis network announces private placement priced atthemarket under nasdaq rule deepki accelerates u operation to help commercial real estate tackle sustainability challenge manage risk and drive financial performance duo technology added to russell microcap index dih appoints rehazentrum valens a a dih center of excellence lendmark financial service announces expiration and result of it tender offer for it senior note due cole engineering awarded m u army production contract for nextgeneration stinger training system zohran mamdanis primary win is a warning to every legacy brand travtus partner with engrain to bring spatial intelligence to it everyday ai platform jd martin expands partnership with nvent eriflex to florida north carolina and south carolina radius recycling report third quarter fiscal financial result stryker to announce financial result for it second quarter of fiscal year richtech robotics announces inclusion in u smallcap russell and russell index oncternal therapeutic announces the sale of select development program and the winddown of it operation arevon secures million credit facility to accelerate renewable energy growth in the united state dih appoints rehazentrum valens a a dih center of excellence kavalan blitz iwc taking trio of whisky distillery and master distiller of the year prize inriver research reveals widespread ai deployment in pim of company have moved beyond pilot randamu and chengdu university of information technology collaborate to advance cryptographic research and web coordination infrastructure kestra medical technology ltd to report fourth quarter and fiscal year result on july genmab announces change to it executive committee document available regarding ramacos brook mine rare earth and critical mineral project condo price dropped in maythe second largest decline on record independent preliminary economic assessment report from fluor corporation confirms commercial and technical feasibility of ramacos brook mine rare earth deposit realme series set to shake up india midrange smartphone market aocs childhood nickname revealed amid bronx girl claim second democrat announces campaign to unseat gop congressman in competitive michigan district these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more these new colorado law take effect tuesday regulating gun shop sexual assault case youth detention and more the multiverse scandal how academia is redefining science to avoid god senate strike ai provision from gop bill after uproar from the state senate strike ai provision from gop bill after uproar from the state i tried amazon bestselling beckham hotel collection pillow to see if theyre actually any good elon musk and donald trump are fighting again dan gainor the good the bad and the absurd june wildest political moment and celebrity meltdown canadian cuisine food that reflect the country size and diversity la new budget kick in today here what your tax dollar are paying for montana leader need to protect our export economy mark noland letter bad outcome if medicare is cut editorial cartoon for tuesday july cant wait for saturday today texas state to the pac then what james walkinshaw win democratic contest to likely replace u rep connolly in northern virginia mystery surround the jeffrey epstein file after bondi claim ten of thousand of video amendment targeting medicaid expansion wont get a senate vote trump say doge might have to go back and eat elon musk after his criticism of the gop bill president lee jaemyung hope for a better interkorean relationship hickory public housing authority officially abolished after final meeting monday well break your leg un accused of mafiatype response to usled gaza relief effort usaid cut could cause staggering number of avoidable death study say how iran lost the short war with israel and america republican struggle to pas trump massive tax bill after hour of drama opinion senate bill undermines decade of progress in disability service thousand of cancer patient fear disruption in care due to insurance contract dispute supreme court medina ruling free state to defund planned parenthood muscatine contingent visit china trump blame att after conference call with faith leader disrupted takeaway from aps report on attorney general bondis comment about evidence in epstein case takeaway from aps report on attorney general bondis comment about evidence in epstein case texas democrat who lost to ted cruz month ago jump into senate race watching area near florida for possible tropical development saudi arabia alhilal had to climb mount everest without oxygen in shock club world cup win over manchester city trump score major victory a vance help push big beautiful bill through senate maybe he ha a knife yulia putintseva asks for crazy wimbledon spectator to be ejected over safety fear senate hold votearama on trump big beautiful bill senate votearama on gop megabill go all night most american feel democracy is theatened poll show and mamdani speaks with npr new jersey phil murphy take heat from all side in final budget a governor south korea energy policy under lee jaemyung american opinion deportation alone cant fix u immigration problem can south korea achieve peace in a chaotic world trump big beautiful bill awaits final senate vote opinion spense havlick scam are everywhere these day dont be fooled the future of air combat how long will the u military still need pilot california new consumer protection law go into effect july amc theater will start placing even more ad in cinema nationwide starting today letter to the editor power must be maintained at all cost extend freedom beyond our own specie we need a shared morality major insurance change are coming to glp drug for weight loss here how that could affect patient editorial american deserve clearer explanation of what happened in iran maglite pedestrian safety institute and additional partner to promote traffic and pedestrian safety during national roadside traffic safety awareness month egg harbor township approves year affordable housing plan remembering the men and woman who serve our country do the saint have their qb of the future in the building this season should decide that trump relief for farmer look like control by fear guest commentary florida resident get a new roof now and receive free exterior painting just in time for hurricane season letter democrat seem incapable of praising trump for anything whats the point of being a u senator if you dont have gut bob brown the most undervalued asset for a leader it these hour the bully pulpit ron waterman what sdas latest win signal for military space republican still pushing to pas trump big beautiful bill he hasnt played in mlb for more than two decade one team is paying him million a year until senate republican closing in on final vote on gop spending bill more republican than dems vote to raise tax on billionaire in latenight senate vote house democrat announces he wont seek reelection in trump doge is the monster that might have to go back and eat elon will state assembly save energy independence california focus will state assembly save energy independence california focus watch out for weirdo facebook scammer promising the world scam of the week letter obama policy necessitated u strike on nuclear site opinion state bill pausing new building code risk climate change progress public health expert trump big beautiful bill will cause misery and death my turn we need to be a twohospital town my turn thanks extremist for making me reexamine who i want to be and what our nation should be my turn state democrat play dirty trick with legislation my turn another four year of the idiot council doofus thing to know for july trump megabill israelgaza alligator alcatraz idaho shooting hurricane data debate over trump big bill continues tuesday morning in u senate hundred of national guard force deployed to la by trump could be returned to calif wildfire duty editorial cartoon for july reader view congress must reject any cut to medicaid who to say anybodys vote is safe trump doj target north carolina voter roll here how president trump mega tax bill would impact illinois council lower real estate tax rate yet restores funding for service program concern in north dakota grow about increased aca cost medical debt flood drown out lancaster county roadway in aftermath of monday storm hundred of child told to test for disease in australia after childcare worker charged with child sex abuse here are offensive player who can contribute for southern football in wisconsin governor gop reach budget deal to cut tax fund university maha report call for fighting chronic disease but trump and kennedy have yanked funding local expert detail potential effect of federal funding cut lagniappe next up the steve miller band jay take isolation a doubleedged sword letter catholic must stand in unity and sacrifice a jesus did letter america most beautiful wild land are in grave danger burke catawba mcdowell iredell city county close for july see garbage impact</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.137</v>
+        <v>0.099</v>
       </c>
       <c r="L7" t="n">
-        <v>0.096</v>
+        <v>0.057</v>
       </c>
       <c r="M7" t="n">
-        <v>0.767</v>
+        <v>0.844</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9987</v>
+        <v>0.9967</v>
       </c>
       <c r="O7" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="S7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T7" t="n">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="U7" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="V7" t="n">
         <v>58</v>
       </c>
       <c r="W7" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1052,55 +1048,55 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>u employer added a surprising job last month despite uncertainty over economic policy canada trade deficit in may narrow export to u drop millionaire renter surge in nyc a high earner opt for luxury lease report trader pare bet on fed rate cut after job report here lindsell train global equity fund comment on nintendo co ltd ntdoy stock market today dow sp and nasdaq future advance after strong payroll data trump tax and spending bill face vote marketwatch new online casino canada reddit user share the leading real money online casino for tcl csot exclusively supply display for xiaomi mix flip and xiaomi yu powering xiaomis new beginning blowout june payroll k job added smashing expectation unemployment rate drop to avdx alert monsey firm of wohl fruchter investigating fairness of the sale of avidxchange holding to tpg global and corpay dune awakening drop massive july update fix exploit and rebalances pvp zone clearmind medicine announces irb approval for phase a clinical trial for alcohol use disorder at tel aviv sourasky medical center u stock and bond market are open on eve of july but they close early trump want the world to squeeze out china he starting with vietnam u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trader pare bet on fed rate cut after job report yahoo finance u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low parazero receives a recurring bulk order of safeair system from an australian distributor nyt strand july serf a sweet scoop with icecream a spangram half yearly report on lvmhs liquidity contract with oddo bhf sca half yearly report on lvmhs liquidity contract with oddo bhf sca these fossil fuel stock rallied a senate passed trump tax spending plan deep tristate layoff leave continuing jobless claim stuck at highest since canada trade deficit narrow in may a export rise these fossil fuel stock rallied a senate passed trump tax spending plan investor business daily ford jpmorgan amazon executive predict deep job cut a ai advance u weekly firsttime unemployment claim fewest since may ap business summarybrief at am edt u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low review liquid death on fire plus one of the most unique thc drink yet hog look to close thing out ahead of holiday break cotton mixed in early thursday trade corn pushing gain into thursday morning trade cattle look to round out short week wheat sneaking out gain ahead of threeday weekend soybean strength continuing on thursday am top financial stock you may want to dump this quarter house beat and hidden venue a new sound is emerging in abu dhabi u employer added a surprising job last month despite uncertainty over economic policy u employer added a surprising job last month despite uncertainty over economic policy starbucks offer million stock bonus to exec but should you buy it share here what technical analysis show fed rate cut appears less likely after strongerthanforecast june payroll data green science alliance established an electric vehicle ev company utilizing next generation inwheel motor technology developed by a japanese engineer who pioneered supercar ev named eliica over year ago u economy add new job unemployment rate dip to percent in june stock market today dow sp nasdaq future hit pause after a solid job report liveone synervoz partner for nextgen voice experience u employer added job in june strategy stock rise after key trading signal jobless claim fall to lowest level since midmay sp build on record high future rising after strong job report barrons my parent gifted me what should i do with it u economy add job in june more than expected popular restaurant chain close all location no bankruptcy u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trade deficit widens surpassing both forecast and previous figure u job growth beat expectation in june celebrate independence wilmatm set aba practice free from manual workflow with powerful patient relationship management nike is back in the race billionaire bill ackman urge tired subdued andrew cuomo to drop out of nyc mayoral race begrudgingly endorses eric adam u payroll increased by in june more than expected navitas semiconductor to participate in upcoming cjs security conference u add k job in june beating expectation u initial jobless claim dip below expectation bolstering usd u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy labor market stay afloat a hiring top forecastsagain u employer added job in june a labor market show resilience despite uncertainty over trump economic policy airline face investor after strong but cheaper july holiday cnbc lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park navitas semiconductor to participate in upcoming cjs security conference dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up nonfarm payroll beat expectation indicating robust u job market coinex research june report bitcoin in the crossfire u payroll increased by in june more than expected cnbc etoro appoints former sec commissioner laura unger and wix cfo lior shemesh a board member beauty and the bear michael burry estee lauder snub china smci stock get price target bump but it still below current share price agf announces passing of kevin mccreadie ceo and cio coreweave is the first cloud provider to deploy nvidias latest ai chip why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego can california democrat require ice agent to unmask and show id trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news congressional intern killed in dc shooting scrum alliance ranked on comparablys list of best leadership team among small company judge strike down trump policy that deleted transgender page from govt website house beat and hidden venue a new sound is emerging in abu dhabi federal judge rule noncalifornia resident can apply for concealedcarry gun permit the latest house leader rush toward a final vote a democrat hold the floor what maga mean to american u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low aclu sue to block ice raid in southern california alleging constitutional violation u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy california boost film and tv tax credit to million to preserve job attorney general tap politically connected billing lawyer for judicial discipline panel dnrcs drought outlook for montana is grim going into hot dry summer attorney general tap politically connected billing lawyer for judicial discipline panel attorney general tap politically connected billing lawyer for judicial discipline panel double standard no no standard did the pentagon spread false ufo story were skeptical trump t megabill set house record for longest vote in history number of megarounds drop in first half a biotech struggle against worsening slump california school official say video show immigration agent urinating in public view homeland security investigating iran suspends cooperation with un nuclear monitoring agency a slider a milestone and a heartfelt thank you kershaws th strikeout federal funding for contraceptive access return to missouri nonprofit after threemonth freeze dan walter california lawmaker finally achieve holy grail reform of state key environmental law jeffries us magic minute to delay vote on trump megabill after settling with trump cbs news staffer fear what come next some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say family of slain police officer krystal rivera shot by a fellow officer want an independent investigation vance boelter man charged in minnesota lawmaker shooting due back in federal court how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how can azerbaijan be ally with iran and israel nova ukraine earns platinum seal of transparency from candid ukraine kill one of the highestranking russian officer of the conflict federal budget megabill would shift billion in cost to missouri taxpayer ups violates teamster national contract with plan for buyout chile cut up to of red tape promise streamlined mining approval colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding colorado education leader urge trump to release million in k school funding opinion pb is a national treasure worthy of government support the best american express credit card for picked by a frequent traveler trump cut are squeezing america most popular national park in peak season here what mental health study should look like at a christian college steven eng a christian crisis across our nation and in our backyard the united state just cut off key defense aid to ukraine</t>
+          <t>halftime show icon take big fall get injured during wnba commissioner cup championship after paying u tariff on it product busy baby look to europe and australia a future market dan ives urge apple to make a move saying that perplexity acquisition is a nobrainer it a matter of when and not if centene stock plummet what sparked the brutal selloff centene stock plummet what sparked the brutal selloff barrons iran president approves law suspending cooperation with un nuclear watchdog invivyd and leading researcher form spear spike protein elimination and recovery study group first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share new study reveals brutal hit that u employer face from trump tariff huffpost fortnite how to get the battle bus suv try this trick wildfire kill people in spain a part of europe bake in heat wave think you missed the ai rally these gridbacked play are just getting warmed up tech billionaire launch erebor bank to fill svbs gap invivyd and leading researcher form spear spike protein elimination and recovery study group to assess the effect of monoclonal antibody therapy for long covid and covid postvaccination syndrome diversified energy promotes michael garrett to chief accounting officer diversified energy promotes michael garrett to chief accounting officer uk investor see not one but two pathway to rail merger developer acquire land for westgate village at north congress avenue west palm beach florida argon ai raise m to build the ai workspace powering the future of life science nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide trump to cut protection for home health aide migrant farmworkers is atlantic hurricane season behind schedule here whats really going on a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier ge aerospace bear put spread could return in the next few month the humn etf let you invest in humanoid robotics stock should you buy in now the humn etf let you invest in humanoid robotics stock should you buy in now ge aerospace bear put spread could return in the next few month mortgage refinance demand surge a interest rate drop further cnbc u of m health care consulting fee adding up at rate of to per hour mortgage refinance demand surge a interest rate drop further certik hackd fortress building product accelerates fencing and steel framing growth strategy divests railing and lighting business to primesource brand inventus sign milling agreement with mcewen mining alta equipment group announces preferred stock dividend erdene commences trading on the otcqb riley permian announces closing of new mexico acquisition tonix pharmaceutical announces peerreviewed publication in cancer cell journal highlighting positive preclinical data of mtnx in gastric cancer animal model have an allamerican fourth of july with beef on the grill greystone logistics share information on stock buyback this is the key to building a personal brand that resonates with others olipops latest marketing stunt drew a person waitlistand sold out immediately alta equipment group announces preferred stock dividend pasinex announces annual and q financial result green thumb industry to hold second quarter earnings conference call on august whitestone reit announces second quarter earnings webcast and conference call the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it whitestone reit announces second quarter earnings webcast and conference call cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update inventus sign milling agreement with mcewen mining riley permian announces closing of new mexico acquisition amc network announces early result and upsizing of tender offer for it senior note due amc network announces early result and upsizing of tender offer for it senior note due cardano price prediction ada price struggle to surpass a newcomer remittix gain ground with ico surge the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it token crypto presale go live price prediction x potential and what early buyer need to know now is bitcoin getting ready for a big price move in july water way technology enters strategic partnership for exclusive tomato hybrid development for vertical farming editorial stop the bleeding for colorado medicaid paramount resource ltd announces renewal of normal course issuer bid and july dividend pyrogenesis sign contract targeting plastic waste management problem in europe mda space completes acquisition of satixfy communication cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update valore report result from successful hole trado auger drilling campaign at pedra branca including m at gt pgeau from surface dr phone fix expands partnership with assurant to accelerate certified preowned phone sale across canada what are the best vanguard etf for a wellrounded portfolio first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share what are the best vanguard etf for a wellrounded portfolio wallbridge exploration drilling continues to intercept highgrade gold mineralization at martiniere consumertech brand nothing tap cevas realspace software to bring immersive spatial audio to headphone and earbuds primesource brand acquires fortress railing product shattuck lab announces participation in upcoming leerink partner therapeutic forum ii and metabolism pyrogenesis sign contract targeting plastic waste management problem in europe dayforce empowers canadian small and midsized business with powerpay by dayforce identiv partner with narravero to accelerate digital product passport adoption and compliance blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina verkkokauppacom to publish januaryjune halfyear report on july crypto loss surpass billion in h certik report reveals alarming rise in phishing attack blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina main street announces followon portfolio investment paramount global and donald trump settle for million inside america department store tarifftriggered price hike are picking up robeco institutional asset management bv ha million position in dollar general corporation nysedg after trump warns elon musk to close up shop china rally behind world richest man there no need to keep putting up with it year old grocery store staple file for bankruptcy northisle announces near surface intercept and highergrade intercept at depth at west goodspeed on it north island project stock market news dow set to open higher after senate pass spending bill barrons meeka metal begin gold production at murchison project australia seeking stable passive income in crypto quid miner offer a sustainable new cloud mining solution democrat the last holdout bear could be the key to a new stockmarket rally marketwatch smart gas meter market worth billion by marketsandmarketstm yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others aldi is selling a comfort sandal for just it a perfect oofos dupe but cheaper kkr bet on sustainable protein demand with proten investment in australia kitron receive eur million contract for defense airborne radar application northern trust q earnings what to expect northern trust q earnings what to expect murkowski got to yes on t megabill thanks to spending for alaska how the megabill will limit health care access and plan to ease gun regulation iran president approves law suspending cooperation with un nuclear watchdog new study reveals brutal hit that u employer face from trump tariff another one bite the dust cbs settle with trump over infamous kamala minute segment letter to the editor a plea to boulder earbud hiker no excuse for not repaying student loan guthrie song is a relevant a ever guest opinion stuart c lord education wa my way out this bill slam that door shut house republican race toward a final vote on trump tax bill daring critic to oppose guest opinion christopher schweitzer the siren song of unreason is a dangerous plunge into darkness hollywood lost the plot now rebel are making movie great again what the rd budget proposal say about the future of war is atlantic hurricane season behind schedule here whats really going on trump immigration crackdown ripple through economy a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier politician push jobkilling minimum wage hike while ignoring the devastating economic reality editorial attacking zohran mamdanis u citizenship is contemptible and dangerous republican rep jim jordan discusses trumpbacked megabill after senate passage rash kid have been abducted from ukraine these midwest senator want to find them a welcome shift in federal financial reporting wednesday letter sen budd where is your courage where is your honesty grow keep an eye out for brown patch disease in coolseason grass american opinion instead of ice raid on farmworkers overhaul this visa program cytosorbents provides u fda and health canada regulatory update for drugsorbatr best of the babylon bee defeated cuomo left groping for answer berry tramel rising valuation of nba franchise will prompt thunder ownership to sell opinion minneapolis police chief brian ohara is getting a bum rap over lake street raid year old grocery store staple file for bankruptcy democratic gov janet mill discusses how the gop megabill will impact maine maine cant afford to lose federal funding governor say modestly bipartisan budget could go to full wisconsin legislature wednesday gop megabill head back to the house for final approval u wont send some weapon pledged to ukraine following a pentagon review of military aid what the mar elia church bombing mean for syria future artificial intelligence saving you money and helping massdot build faster republican holdout head to the white house to discus trump bill letter patriot not saying much on ice treatment of veteran opinion a july approach supreme court sign away american democracy trump put senate in play in wall street journal new jersey gubernatorial candidate to speak at made in nj manufacturing day trump put senate in play in wall street journal nelly denies he maga say kamala harris locked up black ha white husband trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal lawrence odonnells unfiltered reaction to bonkers trump presser moment say it all how ai can help ease the strain on health care service man charged in deadly brockton stabbing pleads not guilty house republican race toward a final vote on trump tax bill sen ron johnson a yes on trump budget bill sen tammy baldwin disgusted by it holy cow history happy july whatever green bay prison would close by under republican budget proposal gen z is the worst at work right wrong thing to know for july usaid ukraine munition trump megabill climate change paramount settlement former insurance commissioner say lara should go california focus former insurance commissioner say lara should go california focus letter spending choice make republican leader priority clear incredible growth stock poised for longterm gain win an ar old state saloon present conspiracy theory trivia and salooncast with ian carroll a twonight blast of truth tech and patriotism analysis show trump tariff would cost u employer billion if elon stick to rocket i will stick to finance bessent shrug off musk debt drama lancashire need to set investment priority to get biggest bang for buck can south korea deescalate north korea without u support how to be editor for a day notorious husband and wife professional tenant indicted on criminal charge we will not let hate win provincetown town manager say following second incident protect your pet on the fourth of july editor for a day letter constitutional system seems abandoned the u military cant quit the middle east another voice financial restitution is necessary but not sufficient for abuse survivor letter war against diversity education in unjust and disrespect history sean diddy comb found guilty on count acquitted of most serious charge firework warehouse explodes in california dalai lama say he intends to reincarnate after death ukraine look to jointly produce weapon with ally while u halt some shipment honolulu board of water supply sue navy for b over red hill fuel leak governor state budget veto trim public school maintenance new hawaii firework law take effect today hooser walking through my thought and value federal climate website go dark a trump administration promise policy reset house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill leore james kowarsch liz shulman will big tech transform school into an ai video game jerald mcnair doe student use of ai spell the end for homework trump lit a fire under nato but more need to be done to contain the russiachina axis north korea to send a many a troop to bolster russia force ukrainian official say trump pick to run federal watchdog a yearold who once shared a conspiracy video and ha tie to a holocaust denier letter keep an eye on what matter not just what seems exciting editorial financial hit keep on coming and city hall only response is excuse steve chapman congress and the supreme court approve donald trump drive for absolute power letter why centrism doesnt have enough bite to make an impact</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>u employer added a surprising job last month despite uncertainty over economic policy canada trade deficit in may narrow export to u drop millionaire renter surge in nyc a high earner opt for luxury lease report trader pare bet on fed rate cut after job report here lindsell train global equity fund comment on nintendo co ltd ntdoy stock market today dow sp and nasdaq future advance after strong payroll data trump tax and spending bill face vote marketwatch new online casino canada reddit user share the leading real money online casino for tcl csot exclusively supply display for xiaomi mix flip and xiaomi yu powering xiaomis new beginning blowout june payroll k job added smashing expectation unemployment rate drop to avdx alert monsey firm of wohl fruchter investigating fairness of the sale of avidxchange holding to tpg global and corpay dune awakening drop massive july update fix exploit and rebalances pvp zone clearmind medicine announces irb approval for phase a clinical trial for alcohol use disorder at tel aviv sourasky medical center u stock and bond market are open on eve of july but they close early trump want the world to squeeze out china he starting with vietnam u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trader pare bet on fed rate cut after job report yahoo finance u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low parazero receives a recurring bulk order of safeair system from an australian distributor nyt strand july serf a sweet scoop with icecream a spangram half yearly report on lvmhs liquidity contract with oddo bhf sca half yearly report on lvmhs liquidity contract with oddo bhf sca these fossil fuel stock rallied a senate passed trump tax spending plan deep tristate layoff leave continuing jobless claim stuck at highest since canada trade deficit narrow in may a export rise these fossil fuel stock rallied a senate passed trump tax spending plan investor business daily ford jpmorgan amazon executive predict deep job cut a ai advance u weekly firsttime unemployment claim fewest since may ap business summarybrief at am edt u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low review liquid death on fire plus one of the most unique thc drink yet hog look to close thing out ahead of holiday break cotton mixed in early thursday trade corn pushing gain into thursday morning trade cattle look to round out short week wheat sneaking out gain ahead of threeday weekend soybean strength continuing on thursday am top financial stock you may want to dump this quarter house beat and hidden venue a new sound is emerging in abu dhabi u employer added a surprising job last month despite uncertainty over economic policy u employer added a surprising job last month despite uncertainty over economic policy starbucks offer million stock bonus to exec but should you buy it share here what technical analysis show fed rate cut appears less likely after strongerthanforecast june payroll data green science alliance established an electric vehicle ev company utilizing next generation inwheel motor technology developed by a japanese engineer who pioneered supercar ev named eliica over year ago u economy add new job unemployment rate dip to percent in june stock market today dow sp nasdaq future hit pause after a solid job report liveone synervoz partner for nextgen voice experience u employer added job in june strategy stock rise after key trading signal jobless claim fall to lowest level since midmay sp build on record high future rising after strong job report barrons my parent gifted me what should i do with it u economy add job in june more than expected popular restaurant chain close all location no bankruptcy u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trade deficit widens surpassing both forecast and previous figure u job growth beat expectation in june celebrate independence wilmatm set aba practice free from manual workflow with powerful patient relationship management nike is back in the race billionaire bill ackman urge tired subdued andrew cuomo to drop out of nyc mayoral race begrudgingly endorses eric adam u payroll increased by in june more than expected navitas semiconductor to participate in upcoming cjs security conference u add k job in june beating expectation u initial jobless claim dip below expectation bolstering usd u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy labor market stay afloat a hiring top forecastsagain u employer added job in june a labor market show resilience despite uncertainty over trump economic policy airline face investor after strong but cheaper july holiday cnbc lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park navitas semiconductor to participate in upcoming cjs security conference dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up nonfarm payroll beat expectation indicating robust u job market coinex research june report bitcoin in the crossfire u payroll increased by in june more than expected cnbc etoro appoints former sec commissioner laura unger and wix cfo lior shemesh a board member beauty and the bear michael burry estee lauder snub china smci stock get price target bump but it still below current share price agf announces passing of kevin mccreadie ceo and cio coreweave is the first cloud provider to deploy nvidias latest ai chip why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego can california democrat require ice agent to unmask and show id trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news congressional intern killed in dc shooting scrum alliance ranked on comparablys list of best leadership team among small company judge strike down trump policy that deleted transgender page from govt website house beat and hidden venue a new sound is emerging in abu dhabi federal judge rule noncalifornia resident can apply for concealedcarry gun permit the latest house leader rush toward a final vote a democrat hold the floor what maga mean to american u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low aclu sue to block ice raid in southern california alleging constitutional violation u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy california boost film and tv tax credit to million to preserve job attorney general tap politically connected billing lawyer for judicial discipline panel dnrcs drought outlook for montana is grim going into hot dry summer attorney general tap politically connected billing lawyer for judicial discipline panel attorney general tap politically connected billing lawyer for judicial discipline panel double standard no no standard did the pentagon spread false ufo story were skeptical trump t megabill set house record for longest vote in history number of megarounds drop in first half a biotech struggle against worsening slump california school official say video show immigration agent urinating in public view homeland security investigating iran suspends cooperation with un nuclear monitoring agency a slider a milestone and a heartfelt thank you kershaws th strikeout federal funding for contraceptive access return to missouri nonprofit after threemonth freeze dan walter california lawmaker finally achieve holy grail reform of state key environmental law jeffries us magic minute to delay vote on trump megabill after settling with trump cbs news staffer fear what come next some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say family of slain police officer krystal rivera shot by a fellow officer want an independent investigation vance boelter man charged in minnesota lawmaker shooting due back in federal court how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how can azerbaijan be ally with iran and israel nova ukraine earns platinum seal of transparency from candid ukraine kill one of the highestranking russian officer of the conflict federal budget megabill would shift billion in cost to missouri taxpayer ups violates teamster national contract with plan for buyout chile cut up to of red tape promise streamlined mining approval colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding colorado education leader urge trump to release million in k school funding opinion pb is a national treasure worthy of government support the best american express credit card for picked by a frequent traveler trump cut are squeezing america most popular national park in peak season here what mental health study should look like at a christian college steven eng a christian crisis across our nation and in our backyard the united state just cut off key defense aid to ukraine</t>
+          <t>halftime show icon take big fall get injured during wnba commissioner cup championship after paying u tariff on it product busy baby look to europe and australia a future market dan ives urge apple to make a move saying that perplexity acquisition is a nobrainer it a matter of when and not if centene stock plummet what sparked the brutal selloff centene stock plummet what sparked the brutal selloff barrons iran president approves law suspending cooperation with un nuclear watchdog invivyd and leading researcher form spear spike protein elimination and recovery study group first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share new study reveals brutal hit that u employer face from trump tariff huffpost fortnite how to get the battle bus suv try this trick wildfire kill people in spain a part of europe bake in heat wave think you missed the ai rally these gridbacked play are just getting warmed up tech billionaire launch erebor bank to fill svbs gap invivyd and leading researcher form spear spike protein elimination and recovery study group to assess the effect of monoclonal antibody therapy for long covid and covid postvaccination syndrome diversified energy promotes michael garrett to chief accounting officer diversified energy promotes michael garrett to chief accounting officer uk investor see not one but two pathway to rail merger developer acquire land for westgate village at north congress avenue west palm beach florida argon ai raise m to build the ai workspace powering the future of life science nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide nationsbenefits integrates with dollar general to enable greater access to healthy food and wellness essential for million of healthcare consumer nationwide trump to cut protection for home health aide migrant farmworkers is atlantic hurricane season behind schedule here whats really going on a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier ge aerospace bear put spread could return in the next few month the humn etf let you invest in humanoid robotics stock should you buy in now the humn etf let you invest in humanoid robotics stock should you buy in now ge aerospace bear put spread could return in the next few month mortgage refinance demand surge a interest rate drop further cnbc u of m health care consulting fee adding up at rate of to per hour mortgage refinance demand surge a interest rate drop further certik hackd fortress building product accelerates fencing and steel framing growth strategy divests railing and lighting business to primesource brand inventus sign milling agreement with mcewen mining alta equipment group announces preferred stock dividend erdene commences trading on the otcqb riley permian announces closing of new mexico acquisition tonix pharmaceutical announces peerreviewed publication in cancer cell journal highlighting positive preclinical data of mtnx in gastric cancer animal model have an allamerican fourth of july with beef on the grill greystone logistics share information on stock buyback this is the key to building a personal brand that resonates with others olipops latest marketing stunt drew a person waitlistand sold out immediately alta equipment group announces preferred stock dividend pasinex announces annual and q financial result green thumb industry to hold second quarter earnings conference call on august whitestone reit announces second quarter earnings webcast and conference call the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it whitestone reit announces second quarter earnings webcast and conference call cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update inventus sign milling agreement with mcewen mining riley permian announces closing of new mexico acquisition amc network announces early result and upsizing of tender offer for it senior note due amc network announces early result and upsizing of tender offer for it senior note due cardano price prediction ada price struggle to surpass a newcomer remittix gain ground with ico surge the bestperforming sp stock of the last year have key commonality other than being ai stock can you guess it token crypto presale go live price prediction x potential and what early buyer need to know now is bitcoin getting ready for a big price move in july water way technology enters strategic partnership for exclusive tomato hybrid development for vertical farming editorial stop the bleeding for colorado medicaid paramount resource ltd announces renewal of normal course issuer bid and july dividend pyrogenesis sign contract targeting plastic waste management problem in europe mda space completes acquisition of satixfy communication cipher mining surpasses hashrate growth forecast at black pearl and announces june operational update valore report result from successful hole trado auger drilling campaign at pedra branca including m at gt pgeau from surface dr phone fix expands partnership with assurant to accelerate certified preowned phone sale across canada what are the best vanguard etf for a wellrounded portfolio first horizon corporation announces redemption of series b preferred stock and corresponding series b depositary share what are the best vanguard etf for a wellrounded portfolio wallbridge exploration drilling continues to intercept highgrade gold mineralization at martiniere consumertech brand nothing tap cevas realspace software to bring immersive spatial audio to headphone and earbuds primesource brand acquires fortress railing product shattuck lab announces participation in upcoming leerink partner therapeutic forum ii and metabolism pyrogenesis sign contract targeting plastic waste management problem in europe dayforce empowers canadian small and midsized business with powerpay by dayforce identiv partner with narravero to accelerate digital product passport adoption and compliance blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina verkkokauppacom to publish januaryjune halfyear report on july crypto loss surpass billion in h certik report reveals alarming rise in phishing attack blue sky uranium acquires key subsurface data for corcovo uranium project mendoza province argentina main street announces followon portfolio investment paramount global and donald trump settle for million inside america department store tarifftriggered price hike are picking up robeco institutional asset management bv ha million position in dollar general corporation nysedg after trump warns elon musk to close up shop china rally behind world richest man there no need to keep putting up with it year old grocery store staple file for bankruptcy northisle announces near surface intercept and highergrade intercept at depth at west goodspeed on it north island project stock market news dow set to open higher after senate pass spending bill barrons meeka metal begin gold production at murchison project australia seeking stable passive income in crypto quid miner offer a sustainable new cloud mining solution democrat the last holdout bear could be the key to a new stockmarket rally marketwatch smart gas meter market worth billion by marketsandmarketstm yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others yieldmax etf announces distribution on smcy ulty msty wntr lfgy and others aldi is selling a comfort sandal for just it a perfect oofos dupe but cheaper kkr bet on sustainable protein demand with proten investment in australia kitron receive eur million contract for defense airborne radar application northern trust q earnings what to expect northern trust q earnings what to expect murkowski got to yes on t megabill thanks to spending for alaska how the megabill will limit health care access and plan to ease gun regulation iran president approves law suspending cooperation with un nuclear watchdog new study reveals brutal hit that u employer face from trump tariff another one bite the dust cbs settle with trump over infamous kamala minute segment letter to the editor a plea to boulder earbud hiker no excuse for not repaying student loan guthrie song is a relevant a ever guest opinion stuart c lord education wa my way out this bill slam that door shut house republican race toward a final vote on trump tax bill daring critic to oppose guest opinion christopher schweitzer the siren song of unreason is a dangerous plunge into darkness hollywood lost the plot now rebel are making movie great again what the rd budget proposal say about the future of war is atlantic hurricane season behind schedule here whats really going on trump immigration crackdown ripple through economy a striking trend after texas banned abortion more woman nearly bled to death during miscarriage america tariffdriven buying spree leaf household saddled with debt and financially vulnerable elon musk want to create a new political party building rocket may be easier politician push jobkilling minimum wage hike while ignoring the devastating economic reality editorial attacking zohran mamdanis u citizenship is contemptible and dangerous republican rep jim jordan discusses trumpbacked megabill after senate passage rash kid have been abducted from ukraine these midwest senator want to find them a welcome shift in federal financial reporting wednesday letter sen budd where is your courage where is your honesty grow keep an eye out for brown patch disease in coolseason grass american opinion instead of ice raid on farmworkers overhaul this visa program cytosorbents provides u fda and health canada regulatory update for drugsorbatr best of the babylon bee defeated cuomo left groping for answer berry tramel rising valuation of nba franchise will prompt thunder ownership to sell opinion minneapolis police chief brian ohara is getting a bum rap over lake street raid year old grocery store staple file for bankruptcy democratic gov janet mill discusses how the gop megabill will impact maine maine cant afford to lose federal funding governor say modestly bipartisan budget could go to full wisconsin legislature wednesday gop megabill head back to the house for final approval u wont send some weapon pledged to ukraine following a pentagon review of military aid what the mar elia church bombing mean for syria future artificial intelligence saving you money and helping massdot build faster republican holdout head to the white house to discus trump bill letter patriot not saying much on ice treatment of veteran opinion a july approach supreme court sign away american democracy trump put senate in play in wall street journal new jersey gubernatorial candidate to speak at made in nj manufacturing day trump put senate in play in wall street journal nelly denies he maga say kamala harris locked up black ha white husband trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal trump put senate in play in wall street journal lawrence odonnells unfiltered reaction to bonkers trump presser moment say it all how ai can help ease the strain on health care service man charged in deadly brockton stabbing pleads not guilty house republican race toward a final vote on trump tax bill sen ron johnson a yes on trump budget bill sen tammy baldwin disgusted by it holy cow history happy july whatever green bay prison would close by under republican budget proposal gen z is the worst at work right wrong thing to know for july usaid ukraine munition trump megabill climate change paramount settlement former insurance commissioner say lara should go california focus former insurance commissioner say lara should go california focus letter spending choice make republican leader priority clear incredible growth stock poised for longterm gain win an ar old state saloon present conspiracy theory trivia and salooncast with ian carroll a twonight blast of truth tech and patriotism analysis show trump tariff would cost u employer billion if elon stick to rocket i will stick to finance bessent shrug off musk debt drama lancashire need to set investment priority to get biggest bang for buck can south korea deescalate north korea without u support how to be editor for a day notorious husband and wife professional tenant indicted on criminal charge we will not let hate win provincetown town manager say following second incident protect your pet on the fourth of july editor for a day letter constitutional system seems abandoned the u military cant quit the middle east another voice financial restitution is necessary but not sufficient for abuse survivor letter war against diversity education in unjust and disrespect history sean diddy comb found guilty on count acquitted of most serious charge firework warehouse explodes in california dalai lama say he intends to reincarnate after death ukraine look to jointly produce weapon with ally while u halt some shipment honolulu board of water supply sue navy for b over red hill fuel leak governor state budget veto trim public school maintenance new hawaii firework law take effect today hooser walking through my thought and value federal climate website go dark a trump administration promise policy reset house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill house gop leader scrambling to rally holdout behind trump megabill leore james kowarsch liz shulman will big tech transform school into an ai video game jerald mcnair doe student use of ai spell the end for homework trump lit a fire under nato but more need to be done to contain the russiachina axis north korea to send a many a troop to bolster russia force ukrainian official say trump pick to run federal watchdog a yearold who once shared a conspiracy video and ha tie to a holocaust denier letter keep an eye on what matter not just what seems exciting editorial financial hit keep on coming and city hall only response is excuse steve chapman congress and the supreme court approve donald trump drive for absolute power letter why centrism doesnt have enough bite to make an impact</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.12</v>
+        <v>0.137</v>
       </c>
       <c r="L8" t="n">
-        <v>0.126</v>
+        <v>0.096</v>
       </c>
       <c r="M8" t="n">
-        <v>0.753</v>
+        <v>0.767</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.98</v>
+        <v>0.9987</v>
       </c>
       <c r="O8" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P8" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S8" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="T8" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="U8" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V8" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="X8" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1130,55 +1126,55 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>stock to buy with less than nordstrom rack is selling a gorgeous kendra scott necklace for and shopper get so many compliment openai ceo sam altman say he politically homeless in july post bashing democrat what to expect from boston scientifics next quarterly earnings report buttonwood financial advisor inc ha million holding in meta platform inc nasdaqmeta crown wealth group llc buy share of meta platform inc nasdaqmeta bankplus wealth management llc grows position in meta platform inc nasdaqmeta shilanski associate inc raise holding in meta platform inc nasdaqmeta amalgamated bank acquires share of meta platform inc nasdaqmeta monument capital management buy share of meta platform inc nasdaqmeta best car insurance company of july risk remains of uschina trade truce breakdown capital economics say ups make drastic change it never done before in year history a part of major overhaul the secret to great grilled kabob it all in the cut prediction this magnificent artificial intelligence ai stock will skyrocket to new high in july bitcoin price on the brink a congress introduces a new groundbreaking crypto bill forbes veraltos quarterly earnings preview what you need to know oppo pad se india launch check variant spec price breakdown sofi stock skyrocket in a year how high can it go in consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing bmo announces special cash distribution for etf series unit of bmo money market fund consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing niurstour i utboi rikisbrefa riks is trader joes open on the th of july best podcast headphone of auction result of treasury bond riks rtx corporation q earnings what to expect how to fix lenovo fingerprint scanner issue fast quick easy guide what to expect from dover q earnings report what you need to know ahead of erie indemnity earnings release petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding sakana ai treequest deploy multimodel team that outperform individual llm by sony break exclusivity helldivers land on xbox this august tesla ha a problem and it not just the elon musk backlash bloombergcom eu stick with timeline for ai rule reuters lot of speculation is swirling around the sumy front wildfire cripple alberta oil production this is why tesla robotaxi launch needed human babysitter what to expect from raymond james financials q earnings report which store are open and closed on independence day kusacom btc hit k why pro trader arent fully confident yet the fiscal treadmill is speeding up and washington keep jogging after year of grinding i have million but am burned out what are my option these catalyst could lift micron stock higher in and beyond costco stock analysis buy sell or hold every breath you take affect how you move here how to fix both my smartest dividend stock to buy today earnings preview what to expect from globe life report here what to expect from ameriprise financials next earnings report key headwind facing usdc cme group quarterly earnings preview what you need to know is subway open on the fourth of july west fargo new herbz and spicez store offer customer allnatural alternative be resilient by accepting adversity and learning from it why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort who the coolest person at your july barbecue they got six thing goin on according to a new study construction start on beacon at princeton hill at s dixie hwy homestead fl i visited universal studio and people were on their phone everywhereeven rollercoasters that habit is really hard to break expert say company in the new york city metro area that are great place to work the strategy that will make your sale call more successful editorial today we celebrate the real no king holiday how glen powell condiment brand made more than million in it first month azi announces receipt of minimum bid price notice from nasdaq fourth of july weekend lotterycom and sportscom driver revved up for midohio challenge stoneform launch a tokenized real estate platform to open up investment opportunity northwest copper announces closing of oversubscribed private placement bybit tradfi x crypto report regulatory tailwind drive coinbase outperformance despite premium valuation stoneform launch a tokenized real estate platform to open up investment opportunity esg hitgen release it inaugural sustainability report is chickfila closed on july northwest copper announces closing of oversubscribed private placement china using tiktok a a pawn to squeeze trump in trade talk source net zero now clear key milestone on acre energy campus accelerating alberta lowcarbon data center infrastructure build out whats open whats closed on july th what grocery store are open walmart costco target more alcom u future slide after trump say hell start sending tariff letter today setting levy up to musk back sen paul criticism of trump megabill in first comment since it passed cf cfrp market worth billion in exclusive report by marketsandmarketstm cf cfrp market worth billion in exclusive report by marketsandmarketstm trump vietnam pact take aim at china but it raise more question than answer cnbc new york state teacher retirement system sell share of avery dennison corporation nyseavy ameritas advisory service llc buy share of ulta beauty inc nasdaqulta these were the bestperforming stock in the dow jones industrial average in june hot dog eating contest host share prediction for this year winner partner value investment lp announces tenforone unit split xrp and ozak ai price prediction which token ha the clearer path to massive gain american flight diverts after nosy passenger cause bomb scare one mile at a time trump bill secures billion for u arctic surge six new icebreaker to counter russian and chinese dominance ethereum is powering wall street future the crypto scene at cannes show how far it come apex group appoints wang a chief ai and data science officer kinterra score small win in new world copper takeover fight new york state teacher retirement system reduces position in oge energy corporation nyseoge u patriotism among democrat crash a marxist demand grow louder birdie for charity in the final stretch to reach m milestone what oracle meta platform and nvidia stock investor should know about recent ai update amber international raise m to enhance m crypto ecosystem reserve best horror game that test your morality marsden launch workplace saving with charity pledge for first business in today gop there is no choice at all multiple suspect charged in separate drug dealing case in billing the secret to great grilled kabob it all in the cut is central asia the next target of russian aggression opinion congress making big mistake with energy tax credit what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean the house just did our patriotic duty to deliver tax relief and uphold our value what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean controversy a staggering amount of usmexico border is now militarized what is trump new realism in foreign policy to celebrate july fully consider the context of the declaration of independence selfevident truth every breath you take affect how you move here how to fix both my smartest dividend stock to buy today army experiment with integrating attack drone into artillery formation trump admin to adjust national park fee to prioritize american family over foreign tourist flooding in texas cause multiple fatality a guadalupe river surge to record level jocko willink in a sea of imperfect voice i heard the anthem and the spirit of a nation this july th a family wait american hostage father pleads for son freedom from hamas terrorist opinion bill lueders reason to celebrate july th why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort guest opinion bj and brecken jones u supreme court got it right on parental right and education who the coolest person at your july barbecue they got six thing goin on according to a new study trump ha big plan for america next birthday historian have question trump to sign big beautiful bill in july fourth ceremony at white house editorial after year righteousness and truth must prevail letter to the editor county should be compensated for iris field honoring superintendent extraordinary service trump crowning moment is ammo for dems in america nonstop birthday party watt happening tonis weekly energy highlight hot dog eating contest host share prediction for this year winner opinion supreme court unitary executive theory threatens our balance of power trump concedes he made no progress on achieving top campaign promise democratic rep katherine clark discusses gop megabill heading for trump signature president trump take victory lap after congress pass tax cut and policy bill elote churrasco and churros alligator alcatraz worker fed by miami food truck scientist issue warning after detecting concerning surge in infection in domestic cat should be closely monitored chef who feed penn state student make summer shift helping family with meal are the worst of the storm behind u hateful trump trashed over fking disgusting line about half the country for th of july the allamerican director you dont know by name katy perry and orlando bloom confirm split what we know about the death of liverpool soccer star diogo jota and his brother la activist indicted after handing out face shield to antiice protester president trump to honor iran strike flight team at the white house glenn eden who is chicago greatest ambassador you editorial on july of all day a naturalized citizen is not less than a u citizen editorial america is soon to turn remember the warmth of the bicentennial heidi stevens on long list of thing being cut art may seem inconsequential it not zohran mamdani ha big housing plan here what stand in the way letter what july fourth mean to me a an ahmadi muslim american rep bob morgan what patriotism mean to me three year after the highland park mass shooting this artist hope to be chosen to make a sculpture for trump garden of american hero how ice raid turned part of los angeles into ghost town maggie mulqueen what doe summer mean for my family and me the beach and book a declaration of independence for these time trump pardon cost at least billion in restitution tax hike in december is helping local library raise worker wage and restore lost position ny official react to passage of big beautiful bill through congress impending signature into law who broke george washington walking stick at the sc statehouse yankee rebel an exgovernor hegseth halted weapon for ukraine despite military analysis that the aid wouldnt jeopardize u readiness legislature should act on the pernicious effect of cellphone in school trump success rate in the court so far letter budget cut harmful for health nutrition letter budget cut harmful for health nutrition think youre smarter than a slate associate writer find out with this week news quiz editorial cartoon for july world share are mostly down a trump tariff deadline loom while u stock set record trump pitch plan allowing farmer to vouch for illegal immigrant worker facing deportation blaze engulfs four home in la amid active firework a strike by air traffic controller is disrupting travel to from and over france trump ag secretary ha irony meter exploding left right and center with beyond parody spin trump decision to end taxfree loophole for lowvalue good from china lead to a sharp decline in air cargo shipment cyber school facing wrongful death suit say it unreasonable for teacher to see student weekly opinion blockbuster made me do it questionable advice from big summer movie pa republican gamble on rural health care a megabill push through cumberland county official optimistic that new memo will improve coordination with library system galasso look forward to tomorrow expectantly beyond current circumstance joey chestnut return to coney island expected to dominate hot dog eating contest trump proposes ufc fight at white house to celebrate year of independence will new england sky stay clear for friday night big firework show u colombia announce recall of envoy amid diplomatic rift lucas trump should demand the unconditional surrender of the democrat party food hygiene rating handed to four doncaster establishment one need major improvement elephant kill two female tourist from the uk and new zealand in zambian national park many missouri law restricting abortion blocked again by state judge iredell county name rodney harris a the new deputy county manager iran try keeping new military commander a secret mossad offer guessing game confirms winner atlanta clogged road bring out the rage in motorist opinion challenge opportunity and bright future in ct for dairy farming trump tear into marxist lunatic mamdani honor american hero in bold rebuke play these p plus free game in july xrp hold market confidence while lightchain ai latejuly launch prepares to broaden investor option rosen nationally regarded investor counsel encourages reckitt benckiser group plc investor to secure counsel before important deadline in security class action rbgly robinhood want to redo wall street on the blockchain gizmodo why tempus ai stock soared in june japan brace for more quake authority dismiss doomsday hype opec plus agrees to pump more oil in august the new york time trump reportedly told iran it wa ok to strike back after u attack i said go ahead i understand poland blast trumpputin dialogue after drone strike escalation walmart is selling calvin klein eternity perfume for only and shopper say it an unbeatable deal ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street were watching a brain drain in real time openai hit hard a top researcher defect to rival tech giant meta rude baguette the best amazon prime day deal under save on gear from blink anker samsung and others engadget nextgen ai and social startup backed by thrive capital and y combinator shaping were on the brink of another big consumer wave click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast a amazon double down on robotaxis is amzn stock a buy charlize theron is choosing to be single she told call her daddy that can be a sign of strength say relationship expert the future of ai selfdriving car mechanical weeding health care assistant and more patriotic parade at the park the market hidden current delivering fast gain top romantic drama on ott to watch this weekend daily habit that separate high achiever from everyone else best altcoins for next bull run blockdags m summer raffle roi feature alongside inj rndr tia a forgotten megatrend that could be key to the ai economy quality nonus stock to buy in simply staggering cnn correspondent describes floodwater impact in texas good stock still worth buying in this market matt mower after nato summit europe free ride is on the line archer aviation the bet that could take off sooner than you think oneofakind brewery taproom closing no bankruptcy oneofakind brewery taproom closing no bankruptcy trump hit with backlash over use of antisemitic slur at iowa rally stage almost over arctic pablos price hike imminent a myro and housecoin push forward shopper race to get off all item in major closing down sale after iconic activewear brand shuts store investor deadline robbins geller rudman dowd llp announces that sarepta therapeutic inc srpt investor with substantial loss have opportunity to lead class action lawsuit one big beautiful budget deficit opec to increase output by barrel a day in august what it mean for oil market btc miner cloud mining platform strives to offer stability security a bitcoin recently crossed k amazon prime day the best deal live right now plus everything else you need to know engadget an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory walmart is selling a sleek digital camera for and shopper say it look professional subaru launch killer legacy lease offer for july top short anime to watch this weekend odd taxi death parade more safeway strike end a albertsons and local union reach agreement colorado public radio headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life the average american family is a millionaire how you can join them your kid is getting a trump account should you put your money in it unstoppable growth stock to hold for the next year big solar battery news from egypt south africa will lower mortgage rate save california housing market will lower mortgage rate save california housing market rep mark green resigns from congress leaving speaker johnson with an even narrower republican majority in the house council to vote on new fire chief monday direct payday loan lender in the u for globenewswire fbi sheriff office arrest motorcycle gang member in operation mongolian beef oasis return after year hiatus to a uk crowd ecstatic for the band s hit dave ramsey say real estate can outperform stock but warned that higer return dont come free best cryptos to buy in for longterm growth bdag hbar fil algo pipeline disruption slash ecuador output by bpd life saver lawrence general paramedic can now bring blood right at accident scene why smart founder build company that run without them an excia advisor presentation suggests u could enter postdebt era without raising taxesthanks to overlooked federal asset how to make an atsfriendly resume for free using ai tip and trick chipotle customer uncovers receipt from here how much price have changed in a decade new york post ap business summarybrief at am edt ap business summarybrief at am edt china first legoland open to visitor in shanghai opec surprise with oversized output hike jim cramer say he not going to fight joby aviation jim cramer on titan international i cant go for it jim cramer say i like domino here jim cramer say danaher can make a comeback jim cramer on centene very painful story jim cramer say he very happy with well fargo jim cramer considers morgan stanley a tremendous investment bank jim cramer call jpmorgan the big dog in the banking sector jim cramer call goldman sachs cramer fave jim cramer on citigroup the best in the group yet it ha the cheapest stock jim cramer call bank of america the weakest in the group jim cramer on capital one were going to see great thing out of them jim cramer on etsy the franchise is worth more than the stock jim cramer on palantir cant avoid buying another data center jim cramer on procter gamble theyll be able to beat the number jim cramer say whirlpool in the driver seat jim cramer on kontoor brand i like that story jim cramer say levi had a decent story jim cramer say williamssonomas ceo moved a ton of manufacturing to vietnam shipping climate reckoning the imo billion pivot uk foreign secretary visit syria after easing sanction pepsi shockingly discontinuous two big name soda an electric solar sailpowered catamaran the modx columbia to pay million to settle lawsuit over u news college ranking data xrp mining introduces allnew cloud mining app seamless profitable green crypto earning for all shiba inu price prediction why shib could surge soon japan brace for more quake authority dismiss doomsday hype in sinaloas capital news of a boxing scion arrest and allegation of cartel tie cause unease click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast if the u president threatens to take away freedom are we no longer free the civil war that never ended a trip through the america destroyed by inevitable progress these popular sovietera fighter used to give nato nightmare american veteran injured in grenade attack while distributing aid in gaza kamala harris skewered on social medium over somber july post with photo that crop out joe biden iran supreme leader resurfaces in public simply staggering cnn correspondent describes floodwater impact in texas which kpop idol is the ultimate fashion trendsetter vote now at least people killed in central texas flood apple rescue cupertinos transit project u deports men from asia and latin america with criminal record to south sudan after legal saga an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory letter a question of decency letter title x and planned parenthood headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life musk say steve bannon will go to prison for a long time after deportation jab he ha lifetime of crime to pay for will u continue to fall in world university ranking bloated ice spending show the worst of trump letter u deports men from asia and latin america to south sudan after legal saga oasis return after year hiatus to a uk crowd ecstatic for the band s hit where will crypto mining go next pfmcrypto launch new mobile cloud mining app for earning harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open you voted for budget cut why are you cry now alaska steve mann lodi native swimming with shark bernie sander say the middle class is shrinking he wrong hood america freedom clock need winding the northrop f is getting a new lease on lifein iran simon davidson at inka grill peruvian flavor and charlottesville are a dream come true ukraine zelensky say latest call with trump wa most productive yet trump say he very satisfied with the official narrative on butler assassination exposed jdwp interface lead to crypto mining hpingbot target ssh for ddos improperly thrown away firework lead to garage fire in fond du lac home susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government injured in july shooting on north elm street in greensboro letter remembering gloucester july victory reader view stauber duplicitous regarding public radio tv measles case surge to record high since disease wa declared eliminated in the u this is too rich msnbc panel loses it over republican budget vote defense letter retreat from constitution an affront ronda rich the summer leaf and heartache photo suv crash into pool on cape cod letter to the editor parental law a good idea letter to the editor fight back against trump letter to the editor sleep should not come easy letter to the editor new law add protection letter to the editor u failing to meet goal letter to the editor abortion is not equitable letter to the editor where is compassion letter to the editor unhappy about parade change california trial lawyer racket and how to end it california trial lawyer racket and how to end it california trial lawyer racket and how to end it california trial lawyer racket and how to end it amid the terror of smashandgrab mob is retail theft actually up i will never regret coming amid israel devastating strike on iran a woman traveling solo had to find her way out larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party july protester in midtown sound the alarm against trump big beautiful bill now the law of the land xi jinpings surprise noshow at brics summit fuel speculation about china global standing how sensationalized headline about brain plastic are undermining trust in safe sustainable material the next megabill congress need to worry about housing funding cut in illinois budget a homelessness increase laura mccall a new weather station honor a charlottesville weather connoisseur the marine are getting rid of their fa hornet jetsfor new f housing funding cut in illinois budget a homelessness increase matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city burcum im haunted by the minnesota shooter uncanny police impersonation letter having class and caring are example for u koerth what go on behind the scene to make a good fishing hole in the city opinion supreme court decision on citizenship and injunction divide american unity reader opinion a terrible thing north carolina governor veto republicanled anti dei and trans legislation battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails turkey arrest more opposition mayor how to protect yourself from tick yearround bitcoin return to the mark and cloud mining platform quid miner attracts much covering the hit dont wait for amazon prime day our expert found deal worth shopping early how trump big beautiful bill will make china great again iova day deadline alert iovances iova promising cell therapy falter triggering ubs downgrade and investor lawsuit hagens berman from day to chevron cloud migration roi in real number walmart is selling a pair of travel bag for only and shopper call them wonderful costcos ev charging ha been developed by spacex engineer it low price could usher in a new wave of car buyer get paid to share your opinion the benefit of paid survey bitcoins bull springboard why diversifying into altcoins make sense shiba inu price prediction can shib rally to or will little pepe lilpepe overtake it and hit billion market cap by codi day deadline alert hagens berman alert compass diversified codi investor to security class action over accounting irregularity encourages investor with loss to contact the firm edge of eternity bonus sheet leak are disappointing dud mtg rock ozzy osbourne reunites with original black sabbath band member during farewell performance content marketing idea for august zelenskys latest call with trump wa most productive he ever had couple unable to pay bill after having social security check slashed from k to a recipient face july cut hims investor alert kessler topaz meltzer check llp urge hims investor with loss to contact the firm on gps what defines a good society man spends day searching for wallet hiding in plain sight thanks to this optical illusion trending hindustan time hindustan time on gps tom friedman on making sense of the middle east serafina to open trattoria at latest anagram apartment tower on gps why cant we build nice thing dot miner trusted crypto cloud mining platform launch new mobile app on gps three expert on trump transformation of the world order a beer pioneer south africa first black female brewery owner train a new generation on gps a debate on regime change in iran ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt amazon prime day we found the best deal to shop before the sale officially kick off yahoo the rise of bitcoin stock and bond lyn alden investment strategy business people new brighton mayor kari niedfeldtthomas to lead regional bbb treasury secretary say some country will see tariff boomerang to april rate by aug california urban housing development exempted from ceqa a game changer steve milloy president trump terminate the green new scam now tariff dealine fed minute and other key thing to watch this week summer buzz build a blockdag launch m summer raffle while doge and bnb lose momentum new u sanction on iran increase pressure on iraq meet one of the men searching for body after tragic texas flood watauga county road closed mount airy firm doing highway work there tchir the risk for stock is that the administration decides it wa correct all along on tariff final week for m lottery jackpot winner to claim prize before it expires a player check floor for winning slip asiapacific market set for mixed open after trump shift goalpost on tariff again harder than it look cnn panel reacts to musk saying he launching a new political party ton surge on uae golden visa news crypto community reacts with excitement and doubt gov beshear trump domestic policy law an attack on rural america full interview bessent tariff will boomerang to liberation day level if country dont make deal full interview shiba inu price prediction shib wont reach even if it hit xrps ath market cap here the best meme coin to buy instead propane council of texas offer key safety reminder after recent flooding absolutely devastating texas congressman on deadly flood bessent say tariff will boomerang to liberation day level if country fail to negotiate deal u close to several trade deal bessent say bitcoin worth billion moved for the first time since bought for just k techspot u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship anthony scaramucci want to discus new party with musk mark cuban offer ballot access aid tuesday investor deadline compass diversified holding investor with substantial loss have opportunity to lead class action lawsuit codi tropical storm chantal make landfall all eye on possible nyc path how soundhound ai is quietly building a global ai empire the motley fool dan ives predicts a strong second half for tech top ai stock to buy now how soundhound ai is quietly building a global ai empire u tariff on european good threaten to shake up the world largest trade relationship yearold texas restaurant chain close all location chron robert kiyosaki this is the easiest money ever how will tesla stock react a elon musk form america party ev giant loses tax credit mining stock to buy on an ai boom the sp is soaring nobrainer vanguard etf to buy right now solaxys surge grab attention but blockdags m presale tool remain the key focus for trader salmar q trading update the sp is soaring nobrainer vanguard etf to buy right now davenport co llc cut stock holding in intel corporation nasdaqintc urban automotive open u hq in phoenix to serve luxury tuning market explosive device likely damaged greek tanker off libya last week bessent tariff will boomerang back to april level by aug for country without deal the mindmachine merge how braincomputer interface could transform everything musk form new political party after split with trump over president signature tax cut law tesla robotaxi hit parked car in first recorded accident pcmag social security no tax message on trump bill raise eyebrow russia report ammonia leak at leningrad ustluga seaport expert revea</t>
+          <t xml:space="preserve">u employer added a surprising job last month despite uncertainty over economic policy canada trade deficit in may narrow export to u drop millionaire renter surge in nyc a high earner opt for luxury lease report trader pare bet on fed rate cut after job report here lindsell train global equity fund comment on nintendo co ltd ntdoy stock market today dow sp and nasdaq future advance after strong payroll data trump tax and spending bill face vote marketwatch new online casino canada reddit user share the leading real money online casino for tcl csot exclusively supply display for xiaomi mix flip and xiaomi yu powering xiaomis new beginning blowout june payroll k job added smashing expectation unemployment rate drop to avdx alert monsey firm of wohl fruchter investigating fairness of the sale of avidxchange holding to tpg global and corpay dune awakening drop massive july update fix exploit and rebalances pvp zone clearmind medicine announces irb approval for phase a clinical trial for alcohol use disorder at tel aviv sourasky medical center u stock and bond market are open on eve of july but they close early trump want the world to squeeze out china he starting with vietnam u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trader pare bet on fed rate cut after job report yahoo finance u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low parazero receives a recurring bulk order of safeair system from an australian distributor nyt strand july serf a sweet scoop with icecream a spangram half yearly report on lvmhs liquidity contract with oddo bhf sca half yearly report on lvmhs liquidity contract with oddo bhf sca these fossil fuel stock rallied a senate passed trump tax spending plan deep tristate layoff leave continuing jobless claim stuck at highest since canada trade deficit narrow in may a export rise these fossil fuel stock rallied a senate passed trump tax spending plan investor business daily ford jpmorgan amazon executive predict deep job cut a ai advance u weekly firsttime unemployment claim fewest since may ap business summarybrief at am edt u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low review liquid death on fire plus one of the most unique thc drink yet hog look to close thing out ahead of holiday break cotton mixed in early thursday trade corn pushing gain into thursday morning trade cattle look to round out short week wheat sneaking out gain ahead of threeday weekend soybean strength continuing on thursday am top financial stock you may want to dump this quarter house beat and hidden venue a new sound is emerging in abu dhabi u employer added a surprising job last month despite uncertainty over economic policy u employer added a surprising job last month despite uncertainty over economic policy starbucks offer million stock bonus to exec but should you buy it share here what technical analysis show fed rate cut appears less likely after strongerthanforecast june payroll data green science alliance established an electric vehicle ev company utilizing next generation inwheel motor technology developed by a japanese engineer who pioneered supercar ev named eliica over year ago u economy add new job unemployment rate dip to percent in june stock market today dow sp nasdaq future hit pause after a solid job report liveone synervoz partner for nextgen voice experience u employer added job in june strategy stock rise after key trading signal jobless claim fall to lowest level since midmay sp build on record high future rising after strong job report barrons my parent gifted me what should i do with it u economy add job in june more than expected popular restaurant chain close all location no bankruptcy u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trade deficit widens surpassing both forecast and previous figure u job growth beat expectation in june celebrate independence wilmatm set aba practice free from manual workflow with powerful patient relationship management nike is back in the race billionaire bill ackman urge tired subdued andrew cuomo to drop out of nyc mayoral race begrudgingly endorses eric adam u payroll increased by in june more than expected navitas semiconductor to participate in upcoming cjs security conference u add k job in june beating expectation u initial jobless claim dip below expectation bolstering usd u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy labor market stay afloat a hiring top forecastsagain u employer added job in june a labor market show resilience despite uncertainty over trump economic policy airline face investor after strong but cheaper july holiday cnbc lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park navitas semiconductor to participate in upcoming cjs security conference dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up nonfarm payroll beat expectation indicating robust u job market coinex research june report bitcoin in the crossfire u payroll increased by in june more than expected cnbc etoro appoints former sec commissioner laura unger and wix cfo lior shemesh a board member beauty and the bear michael burry estee lauder snub china smci stock get price target bump but it still below current share price agf announces passing of kevin mccreadie ceo and cio coreweave is the first cloud provider to deploy nvidias latest ai chip why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego can california democrat require ice agent to unmask and show id trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news congressional intern killed in dc shooting scrum alliance ranked on comparablys list of best leadership team among small company judge strike down trump policy that deleted transgender page from govt website house beat and hidden venue a new sound is emerging in abu dhabi federal judge rule noncalifornia resident can apply for concealedcarry gun permit the latest house leader rush toward a final vote a democrat hold the floor what maga mean to american u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low aclu sue to block ice raid in southern california alleging constitutional violation u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy california boost film and tv tax credit to million to preserve job attorney general tap politically connected billing lawyer for judicial discipline panel dnrcs drought outlook for montana is grim going into hot dry summer attorney general tap politically connected billing lawyer for judicial discipline panel attorney general tap politically connected billing lawyer for judicial discipline panel double standard no no standard did the pentagon spread false ufo story were skeptical trump t megabill set house record for longest vote in history number of megarounds drop in first half a biotech struggle against worsening slump california school official say video show immigration agent urinating in public view homeland security investigating iran suspends cooperation with un nuclear monitoring agency a slider a milestone and a heartfelt thank you kershaws th strikeout federal funding for contraceptive access return to missouri nonprofit after threemonth freeze dan walter california lawmaker finally achieve holy grail reform of state key environmental law jeffries us magic minute to delay vote on trump megabill after settling with trump cbs news staffer fear what come next some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say family of slain police officer krystal rivera shot by a fellow officer want an independent investigation vance boelter man charged in minnesota lawmaker shooting due back in federal court how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how can azerbaijan be ally with iran and israel nova ukraine earns platinum seal of transparency from candid ukraine kill one of the highestranking russian officer of the conflict federal budget megabill would shift billion in cost to missouri taxpayer ups violates teamster national contract with plan for buyout chile cut up to of red tape promise streamlined mining approval colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding colorado education leader urge trump to release million in k school funding opinion pb is a national treasure worthy of government support the best american express credit card for picked by a frequent traveler trump cut are squeezing america most popular national park in peak season here what mental health study should look like at a christian college steven eng a christian crisis across our nation and in our backyard the united state just cut off key defense aid to ukraine stock to buy with less than nordstrom rack is selling a gorgeous kendra scott necklace for and shopper get so many compliment openai ceo sam altman say he politically homeless in july post bashing democrat what to expect from boston scientifics next quarterly earnings report buttonwood financial advisor inc ha million holding in meta platform inc nasdaqmeta crown wealth group llc buy share of meta platform inc nasdaqmeta bankplus wealth management llc grows position in meta platform inc nasdaqmeta shilanski associate inc raise holding in meta platform inc nasdaqmeta amalgamated bank acquires share of meta platform inc nasdaqmeta monument capital management buy share of meta platform inc nasdaqmeta best car insurance company of july risk remains of uschina trade truce breakdown capital economics say ups make drastic change it never done before in year history a part of major overhaul the secret to great grilled kabob it all in the cut prediction this magnificent artificial intelligence ai stock will skyrocket to new high in july bitcoin price on the brink a congress introduces a new groundbreaking crypto bill forbes veraltos quarterly earnings preview what you need to know oppo pad se india launch check variant spec price breakdown sofi stock skyrocket in a year how high can it go in consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing bmo announces special cash distribution for etf series unit of bmo money market fund consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing niurstour i utboi rikisbrefa riks is trader joes open on the th of july best podcast headphone of auction result of treasury bond riks rtx corporation q earnings what to expect how to fix lenovo fingerprint scanner issue fast quick easy guide what to expect from dover q earnings report what you need to know ahead of erie indemnity earnings release petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding sakana ai treequest deploy multimodel team that outperform individual llm by sony break exclusivity helldivers land on xbox this august tesla ha a problem and it not just the elon musk backlash bloombergcom eu stick with timeline for ai rule reuters lot of speculation is swirling around the sumy front wildfire cripple alberta oil production this is why tesla robotaxi launch needed human babysitter what to expect from raymond james financials q earnings report which store are open and closed on independence day kusacom btc hit k why pro trader arent fully confident yet the fiscal treadmill is speeding up and washington keep jogging after year of grinding i have million but am burned out what are my option these catalyst could lift micron stock higher in and beyond costco stock analysis buy sell or hold every breath you take affect how you move here how to fix both my smartest dividend stock to buy today earnings preview what to expect from globe life report here what to expect from ameriprise financials next earnings report key headwind facing usdc cme group quarterly earnings preview what you need to know is subway open on the fourth of july west fargo new herbz and spicez store offer customer allnatural alternative be resilient by accepting adversity and learning from it why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort who the coolest person at your july barbecue they got six thing goin on according to a new study construction start on beacon at princeton hill at s dixie hwy homestead fl i visited universal studio and people were on their phone everywhereeven rollercoasters that habit is really hard to break expert say company in the new york city metro area that are great place to work the strategy that will make your sale call more successful editorial today we celebrate the real no king holiday how glen powell condiment brand made more than million in it first month azi announces receipt of minimum bid price notice from nasdaq fourth of july weekend lotterycom and sportscom driver revved up for midohio challenge stoneform launch a tokenized real estate platform to open up investment opportunity northwest copper announces closing of oversubscribed private placement bybit tradfi x crypto report regulatory tailwind drive coinbase outperformance despite premium valuation stoneform launch a tokenized real estate platform to open up investment opportunity esg hitgen release it inaugural sustainability report is chickfila closed on july northwest copper announces closing of oversubscribed private placement china using tiktok a a pawn to squeeze trump in trade talk source net zero now clear key milestone on acre energy campus accelerating alberta lowcarbon data center infrastructure build out whats open whats closed on july th what grocery store are open walmart costco target more alcom u future slide after trump say hell start sending tariff letter today setting levy up to musk back sen paul criticism of trump megabill in first comment since it passed cf cfrp market worth billion in exclusive report by marketsandmarketstm cf cfrp market worth billion in exclusive report by marketsandmarketstm trump vietnam pact take aim at china but it raise more question than answer cnbc new york state teacher retirement system sell share of avery dennison corporation nyseavy ameritas advisory service llc buy share of ulta beauty inc nasdaqulta these were the bestperforming stock in the dow jones industrial average in june hot dog eating contest host share prediction for this year winner partner value investment lp announces tenforone unit split xrp and ozak ai price prediction which token ha the clearer path to massive gain american flight diverts after nosy passenger cause bomb scare one mile at a time trump bill secures billion for u arctic surge six new icebreaker to counter russian and chinese dominance ethereum is powering wall street future the crypto scene at cannes show how far it come apex group appoints wang a chief ai and data science officer kinterra score small win in new world copper takeover fight new york state teacher retirement system reduces position in oge energy corporation nyseoge u patriotism among democrat crash a marxist demand grow louder birdie for charity in the final stretch to reach m milestone what oracle meta platform and nvidia stock investor should know about recent ai update amber international raise m to enhance m crypto ecosystem reserve best horror game that test your morality marsden launch workplace saving with charity pledge for first business in today gop there is no choice at all multiple suspect charged in separate drug dealing case in billing the secret to great grilled kabob it all in the cut is central asia the next target of russian aggression opinion congress making big mistake with energy tax credit what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean the house just did our patriotic duty to deliver tax relief and uphold our value what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean controversy a staggering amount of usmexico border is now militarized what is trump new realism in foreign policy to celebrate july fully consider the context of the declaration of independence selfevident truth every breath you take affect how you move here how to fix both my smartest dividend stock to buy today army experiment with integrating attack drone into artillery formation trump admin to adjust national park fee to prioritize american family over foreign tourist flooding in texas cause multiple fatality a guadalupe river surge to record level jocko willink in a sea of imperfect voice i heard the anthem and the spirit of a nation this july th a family wait american hostage father pleads for son freedom from hamas terrorist opinion bill lueders reason to celebrate july th why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort guest opinion bj and brecken jones u supreme court got it right on parental right and education who the coolest person at your july barbecue they got six thing goin on according to a new study trump ha big plan for america next birthday historian have question trump to sign big beautiful bill in july fourth ceremony at white house editorial after year righteousness and truth must prevail letter to the editor county should be compensated for iris field honoring superintendent extraordinary service trump crowning moment is ammo for dems in america nonstop birthday party watt happening tonis weekly energy highlight hot dog eating contest host share prediction for this year winner opinion supreme court unitary executive theory threatens our balance of power trump concedes he made no progress on achieving top campaign promise democratic rep katherine clark discusses gop megabill heading for trump signature president trump take victory lap after congress pass tax cut and policy bill elote churrasco and churros alligator alcatraz worker fed by miami food truck scientist issue warning after detecting concerning surge in infection in domestic cat should be closely monitored chef who feed penn state student make summer shift helping family with meal are the worst of the storm behind u hateful trump trashed over fking disgusting line about half the country for th of july the allamerican director you dont know by name katy perry and orlando bloom confirm split what we know about the death of liverpool soccer star diogo jota and his brother la activist indicted after handing out face shield to antiice protester president trump to honor iran strike flight team at the white house glenn eden who is chicago greatest ambassador you editorial on july of all day a naturalized citizen is not less than a u citizen editorial america is soon to turn remember the warmth of the bicentennial heidi stevens on long list of thing being cut art may seem inconsequential it not zohran mamdani ha big housing plan here what stand in the way letter what july fourth mean to me a an ahmadi muslim american rep bob morgan what patriotism mean to me three year after the highland park mass shooting this artist hope to be chosen to make a sculpture for trump garden of american hero how ice raid turned part of los angeles into ghost town maggie mulqueen what doe summer mean for my family and me the beach and book a declaration of independence for these time trump pardon cost at least billion in restitution tax hike in december is helping local library raise worker wage and restore lost position ny official react to passage of big beautiful bill through congress impending signature into law who broke george washington walking stick at the sc statehouse yankee rebel an exgovernor hegseth halted weapon for ukraine despite military analysis that the aid wouldnt jeopardize u readiness legislature should act on the pernicious effect of cellphone in school trump success rate in the court so far letter budget cut harmful for health nutrition letter budget cut harmful for health nutrition think youre smarter than a slate associate writer find out with this week news quiz editorial cartoon for july world share are mostly down a trump tariff deadline loom while u stock set record trump pitch plan allowing farmer to vouch for illegal immigrant worker facing deportation blaze engulfs four home in la amid active firework a strike by air traffic controller is disrupting travel to from and over france trump ag secretary ha irony meter exploding left right and center with beyond parody spin trump decision to end taxfree loophole for lowvalue good from china lead to a sharp decline in air cargo shipment cyber school facing wrongful death suit say it unreasonable for teacher to see student weekly opinion blockbuster made me do it questionable advice from big summer movie pa republican gamble on rural health care a megabill push through cumberland county official optimistic that new memo will improve coordination with library system galasso look forward to tomorrow expectantly beyond current circumstance joey chestnut return to coney island expected to dominate hot dog eating contest trump proposes ufc fight at white house to celebrate year of independence will new england sky stay clear for friday night big firework show u colombia announce recall of envoy amid diplomatic rift lucas trump should demand the unconditional surrender of the democrat party food hygiene rating handed to four doncaster establishment one need major improvement elephant kill two female tourist from the uk and new zealand in zambian national park many missouri law restricting abortion blocked again by state judge iredell county name rodney harris a the new deputy county manager iran try keeping new military commander a secret mossad offer guessing game confirms winner atlanta clogged road bring out the rage in motorist opinion challenge opportunity and bright future in ct for dairy farming trump tear into marxist lunatic mamdani honor american hero in bold rebuke play these p plus free game in july xrp hold market confidence while lightchain ai latejuly launch prepares to broaden investor option rosen nationally regarded investor counsel encourages reckitt benckiser group plc investor to secure counsel before important deadline in security class action rbgly robinhood want to redo wall street on the blockchain gizmodo why tempus ai stock soared in june japan brace for more quake authority dismiss doomsday hype opec plus agrees to pump more oil in august the new york time trump reportedly told iran it wa ok to strike back after u attack i said go ahead i understand poland blast trumpputin dialogue after drone strike escalation walmart is selling calvin klein eternity perfume for only and shopper say it an unbeatable deal ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street were watching a brain drain in real time openai hit hard a top researcher defect to rival tech giant meta rude baguette the best amazon prime day deal under save on gear from blink anker samsung and others engadget nextgen ai and social startup backed by thrive capital and y combinator shaping were on the brink of another big consumer wave click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast a amazon double down on robotaxis is amzn stock a buy charlize theron is choosing to be single she told call her daddy that can be a sign of strength say relationship expert the future of ai selfdriving car mechanical weeding health care assistant and more patriotic parade at the park the market hidden current delivering fast gain top romantic drama on ott to watch this weekend daily habit that separate high achiever from everyone else best altcoins for next bull run blockdags m summer raffle roi feature alongside inj rndr tia a forgotten megatrend that could be key to the ai economy quality nonus stock to buy in simply staggering cnn correspondent describes floodwater impact in texas good stock still worth buying in this market matt mower after nato summit europe free ride is on the line archer aviation the bet that could take off sooner than you think oneofakind brewery taproom closing no bankruptcy oneofakind brewery taproom closing no bankruptcy trump hit with backlash over use of antisemitic slur at iowa rally stage almost over arctic pablos price hike imminent a myro and housecoin push forward shopper race to get off all item in major closing down sale after iconic activewear brand shuts store investor deadline robbins geller rudman dowd llp announces that sarepta therapeutic inc srpt investor with substantial loss have opportunity to lead class action lawsuit one big beautiful budget deficit opec to increase output by barrel a day in august what it mean for oil market btc miner cloud mining platform strives to offer stability security a bitcoin recently crossed k amazon prime day the best deal live right now plus everything else you need to know engadget an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory walmart is selling a sleek digital camera for and shopper say it look professional subaru launch killer legacy lease offer for july top short anime to watch this weekend odd taxi death parade more safeway strike end a albertsons and local union reach agreement colorado public radio headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life the average american family is a millionaire how you can join them your kid is </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>stock to buy with less than nordstrom rack is selling a gorgeous kendra scott necklace for and shopper get so many compliment openai ceo sam altman say he politically homeless in july post bashing democrat what to expect from boston scientifics next quarterly earnings report buttonwood financial advisor inc ha million holding in meta platform inc nasdaqmeta crown wealth group llc buy share of meta platform inc nasdaqmeta bankplus wealth management llc grows position in meta platform inc nasdaqmeta shilanski associate inc raise holding in meta platform inc nasdaqmeta amalgamated bank acquires share of meta platform inc nasdaqmeta monument capital management buy share of meta platform inc nasdaqmeta best car insurance company of july risk remains of uschina trade truce breakdown capital economics say ups make drastic change it never done before in year history a part of major overhaul the secret to great grilled kabob it all in the cut prediction this magnificent artificial intelligence ai stock will skyrocket to new high in july bitcoin price on the brink a congress introduces a new groundbreaking crypto bill forbes veraltos quarterly earnings preview what you need to know oppo pad se india launch check variant spec price breakdown sofi stock skyrocket in a year how high can it go in consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing bmo announces special cash distribution for etf series unit of bmo money market fund consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing niurstour i utboi rikisbrefa riks is trader joes open on the th of july best podcast headphone of auction result of treasury bond riks rtx corporation q earnings what to expect how to fix lenovo fingerprint scanner issue fast quick easy guide what to expect from dover q earnings report what you need to know ahead of erie indemnity earnings release petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding sakana ai treequest deploy multimodel team that outperform individual llm by sony break exclusivity helldivers land on xbox this august tesla ha a problem and it not just the elon musk backlash bloombergcom eu stick with timeline for ai rule reuters lot of speculation is swirling around the sumy front wildfire cripple alberta oil production this is why tesla robotaxi launch needed human babysitter what to expect from raymond james financials q earnings report which store are open and closed on independence day kusacom btc hit k why pro trader arent fully confident yet the fiscal treadmill is speeding up and washington keep jogging after year of grinding i have million but am burned out what are my option these catalyst could lift micron stock higher in and beyond costco stock analysis buy sell or hold every breath you take affect how you move here how to fix both my smartest dividend stock to buy today earnings preview what to expect from globe life report here what to expect from ameriprise financials next earnings report key headwind facing usdc cme group quarterly earnings preview what you need to know is subway open on the fourth of july west fargo new herbz and spicez store offer customer allnatural alternative be resilient by accepting adversity and learning from it why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort who the coolest person at your july barbecue they got six thing goin on according to a new study construction start on beacon at princeton hill at s dixie hwy homestead fl i visited universal studio and people were on their phone everywhereeven rollercoasters that habit is really hard to break expert say company in the new york city metro area that are great place to work the strategy that will make your sale call more successful editorial today we celebrate the real no king holiday how glen powell condiment brand made more than million in it first month azi announces receipt of minimum bid price notice from nasdaq fourth of july weekend lotterycom and sportscom driver revved up for midohio challenge stoneform launch a tokenized real estate platform to open up investment opportunity northwest copper announces closing of oversubscribed private placement bybit tradfi x crypto report regulatory tailwind drive coinbase outperformance despite premium valuation stoneform launch a tokenized real estate platform to open up investment opportunity esg hitgen release it inaugural sustainability report is chickfila closed on july northwest copper announces closing of oversubscribed private placement china using tiktok a a pawn to squeeze trump in trade talk source net zero now clear key milestone on acre energy campus accelerating alberta lowcarbon data center infrastructure build out whats open whats closed on july th what grocery store are open walmart costco target more alcom u future slide after trump say hell start sending tariff letter today setting levy up to musk back sen paul criticism of trump megabill in first comment since it passed cf cfrp market worth billion in exclusive report by marketsandmarketstm cf cfrp market worth billion in exclusive report by marketsandmarketstm trump vietnam pact take aim at china but it raise more question than answer cnbc new york state teacher retirement system sell share of avery dennison corporation nyseavy ameritas advisory service llc buy share of ulta beauty inc nasdaqulta these were the bestperforming stock in the dow jones industrial average in june hot dog eating contest host share prediction for this year winner partner value investment lp announces tenforone unit split xrp and ozak ai price prediction which token ha the clearer path to massive gain american flight diverts after nosy passenger cause bomb scare one mile at a time trump bill secures billion for u arctic surge six new icebreaker to counter russian and chinese dominance ethereum is powering wall street future the crypto scene at cannes show how far it come apex group appoints wang a chief ai and data science officer kinterra score small win in new world copper takeover fight new york state teacher retirement system reduces position in oge energy corporation nyseoge u patriotism among democrat crash a marxist demand grow louder birdie for charity in the final stretch to reach m milestone what oracle meta platform and nvidia stock investor should know about recent ai update amber international raise m to enhance m crypto ecosystem reserve best horror game that test your morality marsden launch workplace saving with charity pledge for first business in today gop there is no choice at all multiple suspect charged in separate drug dealing case in billing the secret to great grilled kabob it all in the cut is central asia the next target of russian aggression opinion congress making big mistake with energy tax credit what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean the house just did our patriotic duty to deliver tax relief and uphold our value what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean controversy a staggering amount of usmexico border is now militarized what is trump new realism in foreign policy to celebrate july fully consider the context of the declaration of independence selfevident truth every breath you take affect how you move here how to fix both my smartest dividend stock to buy today army experiment with integrating attack drone into artillery formation trump admin to adjust national park fee to prioritize american family over foreign tourist flooding in texas cause multiple fatality a guadalupe river surge to record level jocko willink in a sea of imperfect voice i heard the anthem and the spirit of a nation this july th a family wait american hostage father pleads for son freedom from hamas terrorist opinion bill lueders reason to celebrate july th why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort guest opinion bj and brecken jones u supreme court got it right on parental right and education who the coolest person at your july barbecue they got six thing goin on according to a new study trump ha big plan for america next birthday historian have question trump to sign big beautiful bill in july fourth ceremony at white house editorial after year righteousness and truth must prevail letter to the editor county should be compensated for iris field honoring superintendent extraordinary service trump crowning moment is ammo for dems in america nonstop birthday party watt happening tonis weekly energy highlight hot dog eating contest host share prediction for this year winner opinion supreme court unitary executive theory threatens our balance of power trump concedes he made no progress on achieving top campaign promise democratic rep katherine clark discusses gop megabill heading for trump signature president trump take victory lap after congress pass tax cut and policy bill elote churrasco and churros alligator alcatraz worker fed by miami food truck scientist issue warning after detecting concerning surge in infection in domestic cat should be closely monitored chef who feed penn state student make summer shift helping family with meal are the worst of the storm behind u hateful trump trashed over fking disgusting line about half the country for th of july the allamerican director you dont know by name katy perry and orlando bloom confirm split what we know about the death of liverpool soccer star diogo jota and his brother la activist indicted after handing out face shield to antiice protester president trump to honor iran strike flight team at the white house glenn eden who is chicago greatest ambassador you editorial on july of all day a naturalized citizen is not less than a u citizen editorial america is soon to turn remember the warmth of the bicentennial heidi stevens on long list of thing being cut art may seem inconsequential it not zohran mamdani ha big housing plan here what stand in the way letter what july fourth mean to me a an ahmadi muslim american rep bob morgan what patriotism mean to me three year after the highland park mass shooting this artist hope to be chosen to make a sculpture for trump garden of american hero how ice raid turned part of los angeles into ghost town maggie mulqueen what doe summer mean for my family and me the beach and book a declaration of independence for these time trump pardon cost at least billion in restitution tax hike in december is helping local library raise worker wage and restore lost position ny official react to passage of big beautiful bill through congress impending signature into law who broke george washington walking stick at the sc statehouse yankee rebel an exgovernor hegseth halted weapon for ukraine despite military analysis that the aid wouldnt jeopardize u readiness legislature should act on the pernicious effect of cellphone in school trump success rate in the court so far letter budget cut harmful for health nutrition letter budget cut harmful for health nutrition think youre smarter than a slate associate writer find out with this week news quiz editorial cartoon for july world share are mostly down a trump tariff deadline loom while u stock set record trump pitch plan allowing farmer to vouch for illegal immigrant worker facing deportation blaze engulfs four home in la amid active firework a strike by air traffic controller is disrupting travel to from and over france trump ag secretary ha irony meter exploding left right and center with beyond parody spin trump decision to end taxfree loophole for lowvalue good from china lead to a sharp decline in air cargo shipment cyber school facing wrongful death suit say it unreasonable for teacher to see student weekly opinion blockbuster made me do it questionable advice from big summer movie pa republican gamble on rural health care a megabill push through cumberland county official optimistic that new memo will improve coordination with library system galasso look forward to tomorrow expectantly beyond current circumstance joey chestnut return to coney island expected to dominate hot dog eating contest trump proposes ufc fight at white house to celebrate year of independence will new england sky stay clear for friday night big firework show u colombia announce recall of envoy amid diplomatic rift lucas trump should demand the unconditional surrender of the democrat party food hygiene rating handed to four doncaster establishment one need major improvement elephant kill two female tourist from the uk and new zealand in zambian national park many missouri law restricting abortion blocked again by state judge iredell county name rodney harris a the new deputy county manager iran try keeping new military commander a secret mossad offer guessing game confirms winner atlanta clogged road bring out the rage in motorist opinion challenge opportunity and bright future in ct for dairy farming trump tear into marxist lunatic mamdani honor american hero in bold rebuke play these p plus free game in july xrp hold market confidence while lightchain ai latejuly launch prepares to broaden investor option rosen nationally regarded investor counsel encourages reckitt benckiser group plc investor to secure counsel before important deadline in security class action rbgly robinhood want to redo wall street on the blockchain gizmodo why tempus ai stock soared in june japan brace for more quake authority dismiss doomsday hype opec plus agrees to pump more oil in august the new york time trump reportedly told iran it wa ok to strike back after u attack i said go ahead i understand poland blast trumpputin dialogue after drone strike escalation walmart is selling calvin klein eternity perfume for only and shopper say it an unbeatable deal ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street were watching a brain drain in real time openai hit hard a top researcher defect to rival tech giant meta rude baguette the best amazon prime day deal under save on gear from blink anker samsung and others engadget nextgen ai and social startup backed by thrive capital and y combinator shaping were on the brink of another big consumer wave click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast a amazon double down on robotaxis is amzn stock a buy charlize theron is choosing to be single she told call her daddy that can be a sign of strength say relationship expert the future of ai selfdriving car mechanical weeding health care assistant and more patriotic parade at the park the market hidden current delivering fast gain top romantic drama on ott to watch this weekend daily habit that separate high achiever from everyone else best altcoins for next bull run blockdags m summer raffle roi feature alongside inj rndr tia a forgotten megatrend that could be key to the ai economy quality nonus stock to buy in simply staggering cnn correspondent describes floodwater impact in texas good stock still worth buying in this market matt mower after nato summit europe free ride is on the line archer aviation the bet that could take off sooner than you think oneofakind brewery taproom closing no bankruptcy oneofakind brewery taproom closing no bankruptcy trump hit with backlash over use of antisemitic slur at iowa rally stage almost over arctic pablos price hike imminent a myro and housecoin push forward shopper race to get off all item in major closing down sale after iconic activewear brand shuts store investor deadline robbins geller rudman dowd llp announces that sarepta therapeutic inc srpt investor with substantial loss have opportunity to lead class action lawsuit one big beautiful budget deficit opec to increase output by barrel a day in august what it mean for oil market btc miner cloud mining platform strives to offer stability security a bitcoin recently crossed k amazon prime day the best deal live right now plus everything else you need to know engadget an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory walmart is selling a sleek digital camera for and shopper say it look professional subaru launch killer legacy lease offer for july top short anime to watch this weekend odd taxi death parade more safeway strike end a albertsons and local union reach agreement colorado public radio headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life the average american family is a millionaire how you can join them your kid is getting a trump account should you put your money in it unstoppable growth stock to hold for the next year big solar battery news from egypt south africa will lower mortgage rate save california housing market will lower mortgage rate save california housing market rep mark green resigns from congress leaving speaker johnson with an even narrower republican majority in the house council to vote on new fire chief monday direct payday loan lender in the u for globenewswire fbi sheriff office arrest motorcycle gang member in operation mongolian beef oasis return after year hiatus to a uk crowd ecstatic for the band s hit dave ramsey say real estate can outperform stock but warned that higer return dont come free best cryptos to buy in for longterm growth bdag hbar fil algo pipeline disruption slash ecuador output by bpd life saver lawrence general paramedic can now bring blood right at accident scene why smart founder build company that run without them an excia advisor presentation suggests u could enter postdebt era without raising taxesthanks to overlooked federal asset how to make an atsfriendly resume for free using ai tip and trick chipotle customer uncovers receipt from here how much price have changed in a decade new york post ap business summarybrief at am edt ap business summarybrief at am edt china first legoland open to visitor in shanghai opec surprise with oversized output hike jim cramer say he not going to fight joby aviation jim cramer on titan international i cant go for it jim cramer say i like domino here jim cramer say danaher can make a comeback jim cramer on centene very painful story jim cramer say he very happy with well fargo jim cramer considers morgan stanley a tremendous investment bank jim cramer call jpmorgan the big dog in the banking sector jim cramer call goldman sachs cramer fave jim cramer on citigroup the best in the group yet it ha the cheapest stock jim cramer call bank of america the weakest in the group jim cramer on capital one were going to see great thing out of them jim cramer on etsy the franchise is worth more than the stock jim cramer on palantir cant avoid buying another data center jim cramer on procter gamble theyll be able to beat the number jim cramer say whirlpool in the driver seat jim cramer on kontoor brand i like that story jim cramer say levi had a decent story jim cramer say williamssonomas ceo moved a ton of manufacturing to vietnam shipping climate reckoning the imo billion pivot uk foreign secretary visit syria after easing sanction pepsi shockingly discontinuous two big name soda an electric solar sailpowered catamaran the modx columbia to pay million to settle lawsuit over u news college ranking data xrp mining introduces allnew cloud mining app seamless profitable green crypto earning for all shiba inu price prediction why shib could surge soon japan brace for more quake authority dismiss doomsday hype in sinaloas capital news of a boxing scion arrest and allegation of cartel tie cause unease click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast if the u president threatens to take away freedom are we no longer free the civil war that never ended a trip through the america destroyed by inevitable progress these popular sovietera fighter used to give nato nightmare american veteran injured in grenade attack while distributing aid in gaza kamala harris skewered on social medium over somber july post with photo that crop out joe biden iran supreme leader resurfaces in public simply staggering cnn correspondent describes floodwater impact in texas which kpop idol is the ultimate fashion trendsetter vote now at least people killed in central texas flood apple rescue cupertinos transit project u deports men from asia and latin america with criminal record to south sudan after legal saga an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory letter a question of decency letter title x and planned parenthood headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life musk say steve bannon will go to prison for a long time after deportation jab he ha lifetime of crime to pay for will u continue to fall in world university ranking bloated ice spending show the worst of trump letter u deports men from asia and latin america to south sudan after legal saga oasis return after year hiatus to a uk crowd ecstatic for the band s hit where will crypto mining go next pfmcrypto launch new mobile cloud mining app for earning harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open harris and newsom diverge a polling show democrat race is wide open you voted for budget cut why are you cry now alaska steve mann lodi native swimming with shark bernie sander say the middle class is shrinking he wrong hood america freedom clock need winding the northrop f is getting a new lease on lifein iran simon davidson at inka grill peruvian flavor and charlottesville are a dream come true ukraine zelensky say latest call with trump wa most productive yet trump say he very satisfied with the official narrative on butler assassination exposed jdwp interface lead to crypto mining hpingbot target ssh for ddos improperly thrown away firework lead to garage fire in fond du lac home susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government susan shelley scotus restores needed balance to our government injured in july shooting on north elm street in greensboro letter remembering gloucester july victory reader view stauber duplicitous regarding public radio tv measles case surge to record high since disease wa declared eliminated in the u this is too rich msnbc panel loses it over republican budget vote defense letter retreat from constitution an affront ronda rich the summer leaf and heartache photo suv crash into pool on cape cod letter to the editor parental law a good idea letter to the editor fight back against trump letter to the editor sleep should not come easy letter to the editor new law add protection letter to the editor u failing to meet goal letter to the editor abortion is not equitable letter to the editor where is compassion letter to the editor unhappy about parade change california trial lawyer racket and how to end it california trial lawyer racket and how to end it california trial lawyer racket and how to end it california trial lawyer racket and how to end it amid the terror of smashandgrab mob is retail theft actually up i will never regret coming amid israel devastating strike on iran a woman traveling solo had to find her way out larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party larry wilson what the mamdani win mean for the democratic party july protester in midtown sound the alarm against trump big beautiful bill now the law of the land xi jinpings surprise noshow at brics summit fuel speculation about china global standing how sensationalized headline about brain plastic are undermining trust in safe sustainable material the next megabill congress need to worry about housing funding cut in illinois budget a homelessness increase laura mccall a new weather station honor a charlottesville weather connoisseur the marine are getting rid of their fa hornet jetsfor new f housing funding cut in illinois budget a homelessness increase matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city matt fleming the lunacy of socialism in new york city burcum im haunted by the minnesota shooter uncanny police impersonation letter having class and caring are example for u koerth what go on behind the scene to make a good fishing hole in the city opinion supreme court decision on citizenship and injunction divide american unity reader opinion a terrible thing north carolina governor veto republicanled anti dei and trans legislation battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails battle over public land loom even after selloff proposal fails turkey arrest more opposition mayor how to protect yourself from tick yearround bitcoin return to the mark and cloud mining platform quid miner attracts much covering the hit dont wait for amazon prime day our expert found deal worth shopping early how trump big beautiful bill will make china great again iova day deadline alert iovances iova promising cell therapy falter triggering ubs downgrade and investor lawsuit hagens berman from day to chevron cloud migration roi in real number walmart is selling a pair of travel bag for only and shopper call them wonderful costcos ev charging ha been developed by spacex engineer it low price could usher in a new wave of car buyer get paid to share your opinion the benefit of paid survey bitcoins bull springboard why diversifying into altcoins make sense shiba inu price prediction can shib rally to or will little pepe lilpepe overtake it and hit billion market cap by codi day deadline alert hagens berman alert compass diversified codi investor to security class action over accounting irregularity encourages investor with loss to contact the firm edge of eternity bonus sheet leak are disappointing dud mtg rock ozzy osbourne reunites with original black sabbath band member during farewell performance content marketing idea for august zelenskys latest call with trump wa most productive he ever had couple unable to pay bill after having social security check slashed from k to a recipient face july cut hims investor alert kessler topaz meltzer check llp urge hims investor with loss to contact the firm on gps what defines a good society man spends day searching for wallet hiding in plain sight thanks to this optical illusion trending hindustan time hindustan time on gps tom friedman on making sense of the middle east serafina to open trattoria at latest anagram apartment tower on gps why cant we build nice thing dot miner trusted crypto cloud mining platform launch new mobile app on gps three expert on trump transformation of the world order a beer pioneer south africa first black female brewery owner train a new generation on gps a debate on regime change in iran ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt amazon prime day we found the best deal to shop before the sale officially kick off yahoo the rise of bitcoin stock and bond lyn alden investment strategy business people new brighton mayor kari niedfeldtthomas to lead regional bbb treasury secretary say some country will see tariff boomerang to april rate by aug california urban housing development exempted from ceqa a game changer steve milloy president trump terminate the green new scam now tariff dealine fed minute and other key thing to watch this week summer buzz build a blockdag launch m summer raffle while doge and bnb lose momentum new u sanction on iran increase pressure on iraq meet one of the men searching for body after tragic texas flood watauga county road closed mount airy firm doing highway work there tchir the risk for stock is that the administration decides it wa correct all along on tariff final week for m lottery jackpot winner to claim prize before it expires a player check floor for winning slip asiapacific market set for mixed open after trump shift goalpost on tariff again harder than it look cnn panel reacts to musk saying he launching a new political party ton surge on uae golden visa news crypto community reacts with excitement and doubt gov beshear trump domestic policy law an attack on rural america full interview bessent tariff will boomerang to liberation day level if country dont make deal full interview shiba inu price prediction shib wont reach even if it hit xrps ath market cap here the best meme coin to buy instead propane council of texas offer key safety reminder after recent flooding absolutely devastating texas congressman on deadly flood bessent say tariff will boomerang to liberation day level if country fail to negotiate deal u close to several trade deal bessent say bitcoin worth billion moved for the first time since bought for just k techspot u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship u tariff on european good threaten to shake up the world largest trade relationship anthony scaramucci want to discus new party with musk mark cuban offer ballot access aid tuesday investor deadline compass diversified holding investor with substantial loss have opportunity to lead class action lawsuit codi tropical storm chantal make landfall all eye on possible nyc path how soundhound ai is quietly building a global ai empire the motley fool dan ives predicts a strong second half for tech top ai stock to buy now how soundhound ai is quietly building a global ai empire u tariff on european good threaten to shake up the world largest trade relationship yearold texas restaurant chain close all location chron robert kiyosaki this is the easiest money ever how will tesla stock react a elon musk form america party ev giant loses tax credit mining stock to buy on an ai boom the sp is soaring nobrainer vanguard etf to buy right now solaxys surge grab attention but blockdags m presale tool remain the key focus for trader salmar q trading update the sp is soaring nobrainer vanguard etf to buy right now davenport co llc cut stock holding in intel corporation nasdaqintc urban automotive open u hq in phoenix to serve luxury tuning market explosive device likely damaged greek tanker off libya last week bessent tariff will boomerang back to april level by aug for country without deal the mindmachine merge how braincomputer interface could transform everything musk form new political party after split with trump over president signature tax cut law tesla robotaxi hit parked car in first recorded accident pcmag social security no tax message on trump bill raise eyebrow russia report ammonia leak at leningrad ustluga seaport expert revea</t>
+          <t>u employer added a surprising job last month despite uncertainty over economic policy canada trade deficit in may narrow export to u drop millionaire renter surge in nyc a high earner opt for luxury lease report trader pare bet on fed rate cut after job report here lindsell train global equity fund comment on nintendo co ltd ntdoy stock market today dow sp and nasdaq future advance after strong payroll data trump tax and spending bill face vote marketwatch new online casino canada reddit user share the leading real money online casino for tcl csot exclusively supply display for xiaomi mix flip and xiaomi yu powering xiaomis new beginning blowout june payroll k job added smashing expectation unemployment rate drop to avdx alert monsey firm of wohl fruchter investigating fairness of the sale of avidxchange holding to tpg global and corpay dune awakening drop massive july update fix exploit and rebalances pvp zone clearmind medicine announces irb approval for phase a clinical trial for alcohol use disorder at tel aviv sourasky medical center u stock and bond market are open on eve of july but they close early trump want the world to squeeze out china he starting with vietnam u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trader pare bet on fed rate cut after job report yahoo finance u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low parazero receives a recurring bulk order of safeair system from an australian distributor nyt strand july serf a sweet scoop with icecream a spangram half yearly report on lvmhs liquidity contract with oddo bhf sca half yearly report on lvmhs liquidity contract with oddo bhf sca these fossil fuel stock rallied a senate passed trump tax spending plan deep tristate layoff leave continuing jobless claim stuck at highest since canada trade deficit narrow in may a export rise these fossil fuel stock rallied a senate passed trump tax spending plan investor business daily ford jpmorgan amazon executive predict deep job cut a ai advance u weekly firsttime unemployment claim fewest since may ap business summarybrief at am edt u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low review liquid death on fire plus one of the most unique thc drink yet hog look to close thing out ahead of holiday break cotton mixed in early thursday trade corn pushing gain into thursday morning trade cattle look to round out short week wheat sneaking out gain ahead of threeday weekend soybean strength continuing on thursday am top financial stock you may want to dump this quarter house beat and hidden venue a new sound is emerging in abu dhabi u employer added a surprising job last month despite uncertainty over economic policy u employer added a surprising job last month despite uncertainty over economic policy starbucks offer million stock bonus to exec but should you buy it share here what technical analysis show fed rate cut appears less likely after strongerthanforecast june payroll data green science alliance established an electric vehicle ev company utilizing next generation inwheel motor technology developed by a japanese engineer who pioneered supercar ev named eliica over year ago u economy add new job unemployment rate dip to percent in june stock market today dow sp nasdaq future hit pause after a solid job report liveone synervoz partner for nextgen voice experience u employer added job in june strategy stock rise after key trading signal jobless claim fall to lowest level since midmay sp build on record high future rising after strong job report barrons my parent gifted me what should i do with it u economy add job in june more than expected popular restaurant chain close all location no bankruptcy u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low trade deficit widens surpassing both forecast and previous figure u job growth beat expectation in june celebrate independence wilmatm set aba practice free from manual workflow with powerful patient relationship management nike is back in the race billionaire bill ackman urge tired subdued andrew cuomo to drop out of nyc mayoral race begrudgingly endorses eric adam u payroll increased by in june more than expected navitas semiconductor to participate in upcoming cjs security conference u add k job in june beating expectation u initial jobless claim dip below expectation bolstering usd u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy labor market stay afloat a hiring top forecastsagain u employer added job in june a labor market show resilience despite uncertainty over trump economic policy airline face investor after strong but cheaper july holiday cnbc lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up lamplight luxury rv park invite traveler to discover their perfect texas getaway at holiday road rv park navitas semiconductor to participate in upcoming cjs security conference dsh hotel advisor close jacksonville fl candlewood suite sale a hospitality market heat up nonfarm payroll beat expectation indicating robust u job market coinex research june report bitcoin in the crossfire u payroll increased by in june more than expected cnbc etoro appoints former sec commissioner laura unger and wix cfo lior shemesh a board member beauty and the bear michael burry estee lauder snub china smci stock get price target bump but it still below current share price agf announces passing of kevin mccreadie ceo and cio coreweave is the first cloud provider to deploy nvidias latest ai chip why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego why kelly slater moved headquarters of his sustainable clothing brand from la to san diego can california democrat require ice agent to unmask and show id trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news texas internet porn law is constitutional common sense prevails dallas morning news trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick trump show america wont tolerate nuclear threat james fitzpatrick texas internet porn law is constitutional common sense prevails dallas morning news congressional intern killed in dc shooting scrum alliance ranked on comparablys list of best leadership team among small company judge strike down trump policy that deleted transgender page from govt website house beat and hidden venue a new sound is emerging in abu dhabi federal judge rule noncalifornia resident can apply for concealedcarry gun permit the latest house leader rush toward a final vote a democrat hold the floor what maga mean to american u application for jobless aid fell to last week a layoff remain low u application for jobless aid fell to last week a layoff remain low aclu sue to block ice raid in southern california alleging constitutional violation u employer added job in june a labor market show resilience despite uncertainty over trump economic policy u employer added job in june a labor market show resilience despite uncertainty over trump economic policy california boost film and tv tax credit to million to preserve job attorney general tap politically connected billing lawyer for judicial discipline panel dnrcs drought outlook for montana is grim going into hot dry summer attorney general tap politically connected billing lawyer for judicial discipline panel attorney general tap politically connected billing lawyer for judicial discipline panel double standard no no standard did the pentagon spread false ufo story were skeptical trump t megabill set house record for longest vote in history number of megarounds drop in first half a biotech struggle against worsening slump california school official say video show immigration agent urinating in public view homeland security investigating iran suspends cooperation with un nuclear monitoring agency a slider a milestone and a heartfelt thank you kershaws th strikeout federal funding for contraceptive access return to missouri nonprofit after threemonth freeze dan walter california lawmaker finally achieve holy grail reform of state key environmental law jeffries us magic minute to delay vote on trump megabill after settling with trump cbs news staffer fear what come next some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say some education grant in limbo were used for leftwing agenda trump administration say family of slain police officer krystal rivera shot by a fellow officer want an independent investigation vance boelter man charged in minnesota lawmaker shooting due back in federal court how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford choosing war over diplomacy increase danger for u elizabeth shackelford how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how george washington america reluctant leader contrast with today frederic j fransen how can azerbaijan be ally with iran and israel nova ukraine earns platinum seal of transparency from candid ukraine kill one of the highestranking russian officer of the conflict federal budget megabill would shift billion in cost to missouri taxpayer ups violates teamster national contract with plan for buyout chile cut up to of red tape promise streamlined mining approval colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding capitol walkway backed by gov polis is a bridge to nowhere key lawmaker say a project face criticism colorado education leader urge trump to release million in k school funding colorado education leader urge trump to release million in k school funding opinion pb is a national treasure worthy of government support the best american express credit card for picked by a frequent traveler trump cut are squeezing america most popular national park in peak season here what mental health study should look like at a christian college steven eng a christian crisis across our nation and in our backyard the united state just cut off key defense aid to ukraine stock to buy with less than nordstrom rack is selling a gorgeous kendra scott necklace for and shopper get so many compliment openai ceo sam altman say he politically homeless in july post bashing democrat what to expect from boston scientifics next quarterly earnings report buttonwood financial advisor inc ha million holding in meta platform inc nasdaqmeta crown wealth group llc buy share of meta platform inc nasdaqmeta bankplus wealth management llc grows position in meta platform inc nasdaqmeta shilanski associate inc raise holding in meta platform inc nasdaqmeta amalgamated bank acquires share of meta platform inc nasdaqmeta monument capital management buy share of meta platform inc nasdaqmeta best car insurance company of july risk remains of uschina trade truce breakdown capital economics say ups make drastic change it never done before in year history a part of major overhaul the secret to great grilled kabob it all in the cut prediction this magnificent artificial intelligence ai stock will skyrocket to new high in july bitcoin price on the brink a congress introduces a new groundbreaking crypto bill forbes veraltos quarterly earnings preview what you need to know oppo pad se india launch check variant spec price breakdown sofi stock skyrocket in a year how high can it go in consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing bmo announces special cash distribution for etf series unit of bmo money market fund consolidated lithium metal announces exposure of a new libearing pegmatite at it preissac project and close financing niurstour i utboi rikisbrefa riks is trader joes open on the th of july best podcast headphone of auction result of treasury bond riks rtx corporation q earnings what to expect how to fix lenovo fingerprint scanner issue fast quick easy guide what to expect from dover q earnings report what you need to know ahead of erie indemnity earnings release petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding petrovictory energy corp and azevedo travassos energia sa sign binding memorandum of understanding sakana ai treequest deploy multimodel team that outperform individual llm by sony break exclusivity helldivers land on xbox this august tesla ha a problem and it not just the elon musk backlash bloombergcom eu stick with timeline for ai rule reuters lot of speculation is swirling around the sumy front wildfire cripple alberta oil production this is why tesla robotaxi launch needed human babysitter what to expect from raymond james financials q earnings report which store are open and closed on independence day kusacom btc hit k why pro trader arent fully confident yet the fiscal treadmill is speeding up and washington keep jogging after year of grinding i have million but am burned out what are my option these catalyst could lift micron stock higher in and beyond costco stock analysis buy sell or hold every breath you take affect how you move here how to fix both my smartest dividend stock to buy today earnings preview what to expect from globe life report here what to expect from ameriprise financials next earnings report key headwind facing usdc cme group quarterly earnings preview what you need to know is subway open on the fourth of july west fargo new herbz and spicez store offer customer allnatural alternative be resilient by accepting adversity and learning from it why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort who the coolest person at your july barbecue they got six thing goin on according to a new study construction start on beacon at princeton hill at s dixie hwy homestead fl i visited universal studio and people were on their phone everywhereeven rollercoasters that habit is really hard to break expert say company in the new york city metro area that are great place to work the strategy that will make your sale call more successful editorial today we celebrate the real no king holiday how glen powell condiment brand made more than million in it first month azi announces receipt of minimum bid price notice from nasdaq fourth of july weekend lotterycom and sportscom driver revved up for midohio challenge stoneform launch a tokenized real estate platform to open up investment opportunity northwest copper announces closing of oversubscribed private placement bybit tradfi x crypto report regulatory tailwind drive coinbase outperformance despite premium valuation stoneform launch a tokenized real estate platform to open up investment opportunity esg hitgen release it inaugural sustainability report is chickfila closed on july northwest copper announces closing of oversubscribed private placement china using tiktok a a pawn to squeeze trump in trade talk source net zero now clear key milestone on acre energy campus accelerating alberta lowcarbon data center infrastructure build out whats open whats closed on july th what grocery store are open walmart costco target more alcom u future slide after trump say hell start sending tariff letter today setting levy up to musk back sen paul criticism of trump megabill in first comment since it passed cf cfrp market worth billion in exclusive report by marketsandmarketstm cf cfrp market worth billion in exclusive report by marketsandmarketstm trump vietnam pact take aim at china but it raise more question than answer cnbc new york state teacher retirement system sell share of avery dennison corporation nyseavy ameritas advisory service llc buy share of ulta beauty inc nasdaqulta these were the bestperforming stock in the dow jones industrial average in june hot dog eating contest host share prediction for this year winner partner value investment lp announces tenforone unit split xrp and ozak ai price prediction which token ha the clearer path to massive gain american flight diverts after nosy passenger cause bomb scare one mile at a time trump bill secures billion for u arctic surge six new icebreaker to counter russian and chinese dominance ethereum is powering wall street future the crypto scene at cannes show how far it come apex group appoints wang a chief ai and data science officer kinterra score small win in new world copper takeover fight new york state teacher retirement system reduces position in oge energy corporation nyseoge u patriotism among democrat crash a marxist demand grow louder birdie for charity in the final stretch to reach m milestone what oracle meta platform and nvidia stock investor should know about recent ai update amber international raise m to enhance m crypto ecosystem reserve best horror game that test your morality marsden launch workplace saving with charity pledge for first business in today gop there is no choice at all multiple suspect charged in separate drug dealing case in billing the secret to great grilled kabob it all in the cut is central asia the next target of russian aggression opinion congress making big mistake with energy tax credit what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean the house just did our patriotic duty to deliver tax relief and uphold our value what the justice department push to bring denaturalization case mean what the justice department push to bring denaturalization case mean controversy a staggering amount of usmexico border is now militarized what is trump new realism in foreign policy to celebrate july fully consider the context of the declaration of independence selfevident truth every breath you take affect how you move here how to fix both my smartest dividend stock to buy today army experiment with integrating attack drone into artillery formation trump admin to adjust national park fee to prioritize american family over foreign tourist flooding in texas cause multiple fatality a guadalupe river surge to record level jocko willink in a sea of imperfect voice i heard the anthem and the spirit of a nation this july th a family wait american hostage father pleads for son freedom from hamas terrorist opinion bill lueders reason to celebrate july th why black unemployment just rose to it highest level since january littleknown item in trump big agenda bill riley gaines ha been one of lia thomas most vocal critic she just scored two major win in her antitrans effort guest opinion bj and brecken jones u supreme court got it right on parental right and education who the coolest person at your july barbecue they got six thing goin on according to a new study trump ha big plan for america next birthday historian have question trump to sign big beautiful bill in july fourth ceremony at white house editorial after year righteousness and truth must prevail letter to the editor county should be compensated for iris field honoring superintendent extraordinary service trump crowning moment is ammo for dems in america nonstop birthday party watt happening tonis weekly energy highlight hot dog eating contest host share prediction for this year winner opinion supreme court unitary executive theory threatens our balance of power trump concedes he made no progress on achieving top campaign promise democratic rep katherine clark discusses gop megabill heading for trump signature president trump take victory lap after congress pass tax cut and policy bill elote churrasco and churros alligator alcatraz worker fed by miami food truck scientist issue warning after detecting concerning surge in infection in domestic cat should be closely monitored chef who feed penn state student make summer shift helping family with meal are the worst of the storm behind u hateful trump trashed over fking disgusting line about half the country for th of july the allamerican director you dont know by name katy perry and orlando bloom confirm split what we know about the death of liverpool soccer star diogo jota and his brother la activist indicted after handing out face shield to antiice protester president trump to honor iran strike flight team at the white house glenn eden who is chicago greatest ambassador you editorial on july of all day a naturalized citizen is not less than a u citizen editorial america is soon to turn remember the warmth of the bicentennial heidi stevens on long list of thing being cut art may seem inconsequential it not zohran mamdani ha big housing plan here what stand in the way letter what july fourth mean to me a an ahmadi muslim american rep bob morgan what patriotism mean to me three year after the highland park mass shooting this artist hope to be chosen to make a sculpture for trump garden of american hero how ice raid turned part of los angeles into ghost town maggie mulqueen what doe summer mean for my family and me the beach and book a declaration of independence for these time trump pardon cost at least billion in restitution tax hike in december is helping local library raise worker wage and restore lost position ny official react to passage of big beautiful bill through congress impending signature into law who broke george washington walking stick at the sc statehouse yankee rebel an exgovernor hegseth halted weapon for ukraine despite military analysis that the aid wouldnt jeopardize u readiness legislature should act on the pernicious effect of cellphone in school trump success rate in the court so far letter budget cut harmful for health nutrition letter budget cut harmful for health nutrition think youre smarter than a slate associate writer find out with this week news quiz editorial cartoon for july world share are mostly down a trump tariff deadline loom while u stock set record trump pitch plan allowing farmer to vouch for illegal immigrant worker facing deportation blaze engulfs four home in la amid active firework a strike by air traffic controller is disrupting travel to from and over france trump ag secretary ha irony meter exploding left right and center with beyond parody spin trump decision to end taxfree loophole for lowvalue good from china lead to a sharp decline in air cargo shipment cyber school facing wrongful death suit say it unreasonable for teacher to see student weekly opinion blockbuster made me do it questionable advice from big summer movie pa republican gamble on rural health care a megabill push through cumberland county official optimistic that new memo will improve coordination with library system galasso look forward to tomorrow expectantly beyond current circumstance joey chestnut return to coney island expected to dominate hot dog eating contest trump proposes ufc fight at white house to celebrate year of independence will new england sky stay clear for friday night big firework show u colombia announce recall of envoy amid diplomatic rift lucas trump should demand the unconditional surrender of the democrat party food hygiene rating handed to four doncaster establishment one need major improvement elephant kill two female tourist from the uk and new zealand in zambian national park many missouri law restricting abortion blocked again by state judge iredell county name rodney harris a the new deputy county manager iran try keeping new military commander a secret mossad offer guessing game confirms winner atlanta clogged road bring out the rage in motorist opinion challenge opportunity and bright future in ct for dairy farming trump tear into marxist lunatic mamdani honor american hero in bold rebuke play these p plus free game in july xrp hold market confidence while lightchain ai latejuly launch prepares to broaden investor option rosen nationally regarded investor counsel encourages reckitt benckiser group plc investor to secure counsel before important deadline in security class action rbgly robinhood want to redo wall street on the blockchain gizmodo why tempus ai stock soared in june japan brace for more quake authority dismiss doomsday hype opec plus agrees to pump more oil in august the new york time trump reportedly told iran it wa ok to strike back after u attack i said go ahead i understand poland blast trumpputin dialogue after drone strike escalation walmart is selling calvin klein eternity perfume for only and shopper say it an unbeatable deal ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street the newest stock in the sp ha soared since it ipo and it a buy right now according to wall street were watching a brain drain in real time openai hit hard a top researcher defect to rival tech giant meta rude baguette the best amazon prime day deal under save on gear from blink anker samsung and others engadget nextgen ai and social startup backed by thrive capital and y combinator shaping were on the brink of another big consumer wave click like sugar gambling in a world of quick pleasure an addiction expert say it might be time for a dopamine fast a amazon double down on robotaxis is amzn stock a buy charlize theron is choosing to be single she told call her daddy that can be a sign of strength say relationship expert the future of ai selfdriving car mechanical weeding health care assistant and more patriotic parade at the park the market hidden current delivering fast gain top romantic drama on ott to watch this weekend daily habit that separate high achiever from everyone else best altcoins for next bull run blockdags m summer raffle roi feature alongside inj rndr tia a forgotten megatrend that could be key to the ai economy quality nonus stock to buy in simply staggering cnn correspondent describes floodwater impact in texas good stock still worth buying in this market matt mower after nato summit europe free ride is on the line archer aviation the bet that could take off sooner than you think oneofakind brewery taproom closing no bankruptcy oneofakind brewery taproom closing no bankruptcy trump hit with backlash over use of antisemitic slur at iowa rally stage almost over arctic pablos price hike imminent a myro and housecoin push forward shopper race to get off all item in major closing down sale after iconic activewear brand shuts store investor deadline robbins geller rudman dowd llp announces that sarepta therapeutic inc srpt investor with substantial loss have opportunity to lead class action lawsuit one big beautiful budget deficit opec to increase output by barrel a day in august what it mean for oil market btc miner cloud mining platform strives to offer stability security a bitcoin recently crossed k amazon prime day the best deal live right now plus everything else you need to know engadget an iowa law rolling back trans civil right protection in the state ha taken effect here what to know thinkcarebelieve week of america victory walmart is selling a sleek digital camera for and shopper say it look professional subaru launch killer legacy lease offer for july top short anime to watch this weekend odd taxi death parade more safeway strike end a albertsons and local union reach agreement colorado public radio headed for sentencing sean diddy comb lawyer aim to show he no longer a bad boy for life the average american family is a millionaire how you can join them your kid is</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.159</v>
+        <v>0.151</v>
       </c>
       <c r="L9" t="n">
-        <v>0.102</v>
+        <v>0.099</v>
       </c>
       <c r="M9" t="n">
-        <v>0.739</v>
+        <v>0.75</v>
       </c>
       <c r="N9" t="n">
         <v>0.9999</v>
       </c>
       <c r="O9" t="n">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="P9" t="n">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="S9" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T9" t="n">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="U9" t="n">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="V9" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="W9" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="X9" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -1208,55 +1204,55 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>medius now fully qualified yardi ecosystem partner cohen milstein seller toll pllc and bernstein litowitz berger grossmann llp announce pendency and proposed settlement of class action involving all person and entity who purchased or otherwise acquired the publicly traded common stock and preferred stock of silvergate capital corporation from november through march inclusive or in andor traceable to security offering during medius now fully qualified yardi ecosystem partner what you need to know ahead of live nation entertainment earnings release what you need to know ahead of live nation entertainment earnings release bloomberg law host ai symposium exploring the future of legal technology score prime day clothing deal on levi crocs spanx more starting at new york post thursday july evening cable news rating fillin host win the day ovation healthcare and ludi partner to streamline operational efficiency and financial health for rural hospital can micron stock hit in can micron stock hit in sealsq commences global deployment of it gsmaaccredited euicc with telco integrating a pioneering postquantum ready cryptographic security technology manulife investment management close third coinvestment fund at b surpassing predecessor by over m mitrex set guinness world record with largest bipv solar panel mural at sunrise residential longeveron announces u fda approval of ind application for a phase pivotal registration study evaluating laromestrocel a a treatment of pediatric dilated cardiomyopathy dcm saudi arabia crude oil export jumped by bpd in april substratelike pcb market size to hit usd billion by driven by demand for compact highperformance electronics research by sn insider application for delisting of sdrs from nasdaq stockholm what to expect from mondelez international q earnings report what to expect from mondelez international q earnings report amazon share form golden cross a prime day kick off national beverage credit lacroix marketing with q fiscal year growth world no magnus carlsen add to grand chess tour legacy with victory in zagreb at superunited rapid blitz croatia quanterix close m akoya deal after competing bid leading and lagging sector for july courtney caputo named chair of the national board of director at the epilepsy foundation of america optical imaging market to reach usd billion by fueled by rising demand for noninvasive diagnostic technology and octdriven clinical expansion sn insider courtney caputo named chair of the national board of director at the epilepsy foundation of america giant pigeon float through nyc for fifa club world cup what you need to know ahead of republic service earnings release what you need to know ahead of republic service earnings release column london metal exchange reaps the reward of tariff turmoil franklin resource quarterly earnings preview what you need to know franklin resource quarterly earnings preview what you need to know the salvation army to collect school supply at rochester walmart store elon musk fan took her first tesla robotaxi ride but then it made her get out and left her stranded cuz it wa about to rain unforgettable edible close after year on northwest side chile post steepest monthly price drop since ahead of rate decision what to expect from union pacific next quarterly earnings report what to expect from union pacific next quarterly earnings report the electric porsche macan is outselling the gas model but there more to the story motorcom the energy report so much for weak demand top company offering remote data science job why is penny stock prokidney stock trading higher on tuesday why is penny stock prokidney trading higher on tuesday robotics frenzy grip hong kong market and stock ride the hype is the rally sustainable goelzer investment management inc boost position in meta platform inc nasdaqmeta checchi capital adviser llc sell share of meta platform inc nasdaqmeta palisade capital management lp decrease stock holding in meta platform inc nasdaqmeta mountain capital investment advisor inc sell share of meta platform inc nasdaqmeta whimstay open platform to independent host for the first time netanyahu present trump with nomination for nobel peace prize a both downplay twostate solution cemtrexs vicon secures m followon order for county security infrastructure expansion cemtrexs vicon secures m followon order for county security infrastructure expansion barlow wealth partner inc acquires share of meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director aurora private wealth inc raise stock holding in meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director meta platform inc nasdaqmeta share acquired by sitrin capital management llc tkg advisor llc ha holding in meta platform inc nasdaqmeta ap business summarybrief at am edt at least may have killed themselves over uk post office wrongful conviction scandal why i always convert word to pdf now elon musk lash out at tesla bull dan ives over board proposal shut up how can large enterprise navigate tcpa compliance challenge percepta celebrates year of transforming automotive customer experience waymo offer teen account for driverless ride villa vie residence celebrates th visited port with summer celebration sale wednesday july evening cable news rating fox news stay no public record investment group buy ocean view apartment in norfolk k pure solution announces major strategic bleach distribution deal for the southwestern u mainly southern california u space force space system command selects rise for forge path to production contract inmorphis acquires servicenow practice of solugenix strengthening u market presence and expanding industryaligned offering in july and beyond honoring bebe moore campbell legacy u space force space system command selects rise for forge path to production contract deep dive into alcoa stock analyst perspective rating companion spine llc announces definitive agreement to acquire the business and asset of paradigm spine gmbh and the coflex and cofix spine implant from xtanttm medical holding inc what analyst are saying about edward lifesciences stock xsolis aidriven solution new feature evaluated in klas second look report what analyst rating have to say about kla petsmart name top catloving city tegna to host second quarter earnings conference call on thursday august startup raise m for universal flu vaccine made with mrna community bankshares inc revolutionizes access to capital and speed up loan closure for assessing enovis insight from financial analyst abbott laboratory stock a deep dive into analyst perspective rating is gaming and leisure prop gaining or losing market support whats driving the market sentiment around kbr breaking down agilent technology analyst share their view what to expect from norfolk southerns q earnings report what to expect from norfolk southerns q earnings report use this amex trick to save up to on amazon prime day locumtenenscom and march of dime partner to expand and scale maternal mental health training for clinician milliman analysis corporate pension funding improves in june to highest level since october milliman analysis corporate pension funding improves in june to highest level since october honor education secures m series a to reinvent digital learning experience outcome capital launch the first dedicated ophthalmology practice to address the world leading cause of disability can adobe stock hit in can adobe stock hit in instant legislation limit hoa enforcement in california swamp game at alligator alcatraz mamdanis socialist nightmare and more from fox news opinion hillsborough county target ruskin property for new sewer system vacuum lift station to boost environment and health south carolina gop urge trump supporter to give gavin newsom a huge southern welcome federal judge nix wisconsin judge bid to dismiss charge of helping illegal immigrant evade ice mona charen we need to remember the nobility of this nation trump extends federal hiring freeze until october use this amex trick to save up to on amazon prime day american kid have become increasingly unhealthy over nearly two decade new study find trump rip reporter for asking about epstein case a american doubt doj conclusion braille institute welcome distinguished tech executive roberto medrano to board of director northwestern energy adapts a demand evolve brian bird code for america unveils new government ai landscape assessment letter to the editor response to congressman downing sensorium therapeutic receives fda ind clearance for sntx a firstinclass rapidacting anxiolytic manatt enhances entertainment offering with leading film and tv partner montana conservation voter scorecard cut through noise kearstyn cook gov jim pillen sends nebraska urban searchandrescue team to help after texas flooding who had montana back the scorecard expose the record kearstyn cook who had montana back the scorecard expose the record kearstyn cook intention rise expectation fall the number of american planning to leave an inheritance go up a the number expecting to receive one go down find northwestern mutuals planning progress study jerome christenson closing the book on mailorder book club will we miss them big brother big sister of america appoints terrance williams of trustage a newest board member the u air force might send it retired b bomber to israel bad idea impactivize shareholder of company worth trillion vote overwhelmingly to defeat antidei proposal a a travel editor these are the amazon prime day deal id actually pack michelinstarred sushi aseat dinner vice president vance wrap up california visit someone using ai to impersonate marco rubio contacted at least five people including foreign minister cable say nyse content advisory premarket update trump announces new tariff on country trump slam russiaukraine war a bidencreated monster while unveiling new aid package ice raid derail southern california economy a worker go into hiding samsungs the frame make a gorgeous unique tv even better texas lawmaker want investigation into weather alert system and storm preparedness dr elseys reinforces it longstanding commitment to safer unscented cat litter presence of ice inside california hospital denounced by local leader immigration activist kinder and u soccer foundation launch goal of joy to inspire more active and joyful community through soccer the latest trump delay tariff implementation another month pastor who endorse political candidate shouldnt lose taxexempt status irs say in filing mob in rural india kill family accused of witchcraft iova notice iovance biotherapeutics shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nasdaqiova rich lowry dont blame donald trump for flood hims notice hims hers health inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nysehims aapl notice apple inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqaapl rddt notice reddit inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nyserddt ftre notice fortrea holding inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqftre i spent five week with the new roku ultra to see if you should upgrade video show deadly fire at cairo telecommunication building picking that bow back up northern cheyenne youth reconnect with archery letter to the editor independence day spark feeling ogn notice organon co shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nyseogn apple watch ultra review still the smartwatch to get horsemounted federal agent descend on los angeles park on video the google pixel watch finally delivers the big upgrade weve been waiting for lgs transparent oled tv just blew my mind at ce united by hatred vance rip mamdani expose the american left contradiction peace through power it electric injured after motorcycle strike deer on highway what if superman existed in a world like ours director james gunn on new superhero movie the best apple watch to buy in tested by expert trump outrage is hiding the real danger to america swiss village brace for possible alpine rockslide man dy at milan airport after being sucked into jet engine local medium report target of trump new tariff speak out the best sleep tracker in tested by editor tiger lsu purple and more it fig season here are tip to optimize your harvest letter to the editor wake up montana mississippi state university announces spring honor student rotary club of zachary present scholarship puretalk and allegiance flag supply honor veteran with americanmade flag nationwide zachary high school bronco explorer travel to japan ethel student named to washburn honor roll beta sigma phi member donate snack to eastside fire department letter denying global warning isnt cool held in texas immigration detention center shooting that wa planned ambush u attorney say the apple watch series is the smartwatch most people should buy kansa city chief heiress turn to scripture after yearold cousin killed in texas flood why the israeliran ceasefire feel like a strategic failure the best vacuum for pet hair in tried and tested why airtags are the ultimate travel companion this holiday season report accuses hamas of sexual violence i tried the latest version of the internetfamous bissell little green here my review sen ted cruz caught sightseeing in greece amid devastating flood in his home state a state attorney general say welcoming child of all race is illegal ideology opinion i really like the amazon kindle colorsoft but is color worth italy bergamo airport suspends flight after a person reportedly got sucked into engine the blink mini is a tiny camera that make your home a lot smarter a long hot summer day on the ground of st andrew conjures movie magic from yesteryear copy nurse practitioner kelsey st arnaud join north oak primary care in hammond joel boerkey named to the spring dean list at lincoln memorial university louisiana farm bureau elect officer during convention letter to the editor chinese communist party influence on american soil i cant stop using the ipad mini even though it a pretty boring update i tested this smart ipl device for athome hair removal and im never going to the salon again trial underway for ucla professor who refused to exercise compassion with racebased grading the google pixel tablet is a great slate that double a a smart display i tested the viral wavytalk thermal brush i didnt love it but here why you might egypt arrest famed belly dancer world focus the beijing olympics a pivotal moment for china key advisor called hunter bidens role on strategy call inappropriate after he overruled legal guidance letter to the editor dont pull plug on energy credit editorial cartoon for tuesday july</t>
+          <t>tribe property technology announces closing of best effort public offering of unit with full exercise of overallotment option for gross proceeds of approximately will recent event dent palantir technology stock growth sinopec launch new floating solar project with green hydrogen in play storen leading the future of home energy storage scottscott attorney at law llp file security class action against reckitt benckiser group plc otc rbgly chime financial first internetnative juggernaut focused on consumer banking say bullish analyst stock making big midday move tesla uber royal gold stellantis wns and more jeldwen expands cradle to cradle certification expanding portfolio of certified sustainable door energy demand optimism and houthi rebel attack on red sea shipping boost crude price nombase powered by bevnet launch new data hub a centralized resource for food beverage beer industry report iceland seafood international hf refinancing completed big beautiful bill may help some senior on social security but it doesnt eliminate tax on benefit noridian renews commitment to continuous improvement with the promotion of jeremiah mckay nvidias ai chip rival groq launch first european data center top ai growth stock to buy in july amazon prime day is here what it mean for the stock barrons fella it time to spice up your life with the help of lynks sexual wellness collection oneoncology appoints dr michael byrne a medical director for cellular therapy investing veteran see market pricing maseratis like ford tune in at noon workplace have embraced mindfulness and selfcompassionbut did capitalism hijack their true purpose google want to hit net zero by so it signed a massive deal with a bill gatesbacked startup thats still year away from making energy could amd and nvidia face new ai chip export restriction petco health and wellness company inc nasdaq woof shareholder alert bernstein liebhard llp reminds petco health and wellness company inc investor of upcoming deadline dhls german postal unit aim to increase use of parcel locker noridian renews commitment to continuous improvement with the promotion of jeremiah mckay rubis halfyear statement on rubis liquidity agreement with exane bnp paribas gtt monthly disclosure of the total number of voting right and share composing the share capital top trending meme coin breaking the internet arctic pablo freeze out the competition a fartboy and mubarak coin rise noridian renews commitment to continuous improvement with the promotion of jeremiah mckay kpn report on progress of m share buyback gtt halfyear liquidity contract statement asm share buyback update june july fnac darty disclosure of trading in own share june to july in french only this solanafocused etf by rexosprey offer a new way to earn from crypto wmo weather forecast for come true year early sarepta therapeutic inc nasdaq srpt shareholder alert bernstein liebhard llp reminds sarepta therapeutic inc investor of upcoming deadline thread is nearing x daily app user new data show techcrunch brazil to return to global bond market this year treasury secretary say planned parenthood sue trump administration over planned defunding gold price retreat to oneweek low on u tariff delay microstrategy paused it bitcoinbuying spree last week california bill seek to rein in debt settlement company that target mcas business loan borrower ageas report on the progress of share buyback programme luxury housing market no longer out of reach for some moveup buyer report homebuyers given new way to pay for a house after gamechanging policy switch and it not with cash up in a month should you buy plug power stock here yearold ran a one direction fan account a a teennow she run a medium brand with m follower including lorde and bella hadid i love my job rarely offered donut selling for off at krispy kreme on world chocolate day what will happen to the housing market during a baby dust taste radio one of the best trade show weve ever attended fancy that strait of hormuz in the spotlight forvia total number of voting right and share forming the share capital rite aid in ashland closing this summer gray and scripps to swap station and create more duopolies were booking profit in a topperforming bank stock in an extremely overbought market can trump run it hot plan trap the fed and jolt the bond market u child are much more likely to die than kid in similar country study find here how much invested in rtx year ago would be worth today best credit card for amazon of why everyones wrong about xrps real value a spacepay aim to become a top crypto payment solution weekly report share buyback from june to july weekly report share buyback from june to july historic yes could be better how to access perplexity ai free version fake image detection market is poised to expand beyond u million by say astute analytica uk fund invests million in carbon capture project hipgnosis founder talk new venture eye buying back catalog from blackstone the best amazon prime day deal under save on gear from samsung blink anker and others engadget lululemon v dupe texas flood live update death roll rise to a nw warns of more flooding trump say he will begin announcing trade deal and tariff rate at noon sinclair name narinder sahai evp and cfo sonar enhances oracle otm integration and launch shipper consortium for unmatched supply chain benchmarking palantir stock go warp speed but there a caveat walmart sam club and the walmart foundation commit up to to support texas flood relief effort explaining assessing the digital service tax dilemma gunman ambush border patrol agent in texas amid antiice rhetoric from democrat unmanned saildrones track russian shadow fleet during nato baltic sea operation jeldwen expands cradle to cradle certification expanding portfolio of certified sustainable door chase sapphire reserve lounge access in whats actually included tesla stock price fall after elon musk plan new political party micron meteoric rise can mu stock hit in ai is the new oil and america is laying the pipeline dow industrials intraday decline now exceeds point live update which worker will ai hurt most the young or the experienced the new york time will ai replace new hire or middle manager your job interviewer is not a person it ai catch up on your reading list this prime day with up to off kindles tesla trouble amplified by musk party politics etf on edge yemen houthi rebel say bulk carrier magic sea that they attacked sunday ha sunk starbucks launch new frappuccino kusacom hims hers navigates novo nordisk breakup and compounding lawsuit italy shipbuilder appoints new u chief trump administration move to terminate a form of humanitarian relief for nicaraguan and honduran in the u global wet chemical in semiconductor market forecast usd b by driven by advanced node manufacturing valuates report st elizabeth hospital and flight for life celebrate one year in fort morgan almonty industry applies for nasdaq listing elon musk realized too late how badly tesla will hurt from trump bill electrek ascendion win gold a the artificial intelligence service provider of the year in globee award borr drilling announces first settlement of the offering of common share brcevichelivjpg trump and netanyahu may take a victory lap on iran but the gaza war loom over their meeting alaskan lng the future of natural gas brcevichelivjpg brcevichelivjpg brcevichelivjpg brcevichelivjpg opinion reclaiming my time what in the hell happened bannon blast doj over epstein announcement daily beast try to use texas tragedy to attack ted cruz man killed after shooting at a u border patrol facility in southern texas u will make several trade announcement in next hour bessent hakeem jeffries roasted for obviously photoshopped instagram post a man ha been killed after opening fire at a u border patrol facility in texas authority say musk say he forming a new political party after split with trump over tax cut law strait of hormuz in the spotlight first look swapping beer for pisco sour see dive bar new life a madisonville restaurant society of st vincent de paul usa president john berry say work to protect the poor must go on after reconciliation bill passage liberal critic question why architect of failed biden foreign policy is advising project man killed after shooting at a u border patrol facility in southern texas american kid have become increasingly unhealthy over nearly two decade new study find patricia lopez ice doesnt need another billion surprise dems medium lie blame trump for storm death ken morris you may not be a diversified a you think rep carlos barron elected a state house minority whip tiktok user try to make texas flood all about race u child are much more likely to die than kid in similar country study find carnival cruise update rule critic cry racism trump threatens not to chicken out yet again over tariff democrat trying to field candidate slate to win first statewide race in year dccc target house republican over budget law impact on rural hospital dem lawmaker say their voter are threatening blood and violence over inability to hinder trump report dhs terminates temporary protected status for around k honduran nicaraguan migrant top maga voice stunned by trump administration debunking epstein theory jesse jackson jr explores a house comeback bid california expands automatic renewal law new requirement now in effect louisiana state police arrest woman in connection with motorcycle death of shreveport man gang burn down famous haitian hotel trump administration move to terminate a form of humanitarian relief for nicaraguan and honduran in the u leave bolsonaro alone trump furious a brazil exleader face coup trial mainer need to do what democracy demand letter maga influencers scream coverup following release of doj memo closing the book on jeffrey epstein case editorial chicago mourns with texas and the parent of the camp mystic girl schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding yemen houthi rebel say bulk carrier magic sea that they attacked sunday ha sunk schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding holy cross cattleman asks for permit to kill copper creek wolf u to revoke protected status for immigrant from honduras and nicaragua u chamber of commerce discusses how tariff will raise the cost of summer fun with yourupdatetv u cancel contract save million in day doge former librarian of congress fired by trump vow to improve public information in new mellon role former librarian of congress fired by trump vow to improve public information in new mellon role trump say he will visit texas probably on friday to tour flash flood damage mcafees summer shopping study reveals it prime time for smart shopping team technology an arlington capital partner portfolio company expands medical device manufacturing capability with acquisition of duke empirical inc trump th week in office set to include visit to texas devastated hill country third netanyahu meeting i dont use credit card point to shop for prime day here what i do instead this senator just sold up to k in unitedhealth group stock recent filing show that rep john rose sold over m worth of alphabet stock u lobby group urge tariff retaliation against australia socialised medicine face the nation stoltenberg panel wear it or resist anne hanson time to reboot lucy k wyman peacham th of july dave edward michael paul williams maga turn back the clock at uva proposed radio tower cynthia krieble abm announces new board of director and executive committee member threat to freedom of religion denise fontaine court release cctv footage shown during mushroom murder trial maine ban floating camp another big week for nepa new federal procedure and a big beautiful bill benefit the mindful minute by jon heydenreich my menu correction osisko development announces positive bulk tonnage ore sorting result for the project worldwide bolster indiasouth asia leadership with strategic appointment educator view throw a book at your kid to avoid summer slide jeffery epstein died by suicide and there no client list justice department say houston official fired over raciallytinged tiktok rant about search for missing girl man with rifle and tactical gear killed after exchange of fire with border patrol in texas prominent west bank sheikh face violent threat after proposing peace with israel zelenskyy spoke with trump on replacing kyivs envoy to u israel and hamas are inching toward a new ceasefire deal for gaza this is how it might look chrome day ivanti exploit macos stealer crypto heist and more russia exminister found dead hour after being fired in an apparent suicide official said don davis eye open north carolina senate seat white house asks american to pray after deadly texas flooding planned parenthood challenge gop reconciliation law north carolina also hit with lifethreatening flash flood governor murphy mansion tax modification breaking leo source report active shooter with rifle and tactical gear ambushed border patrol agent french gameshow contestant epic month winning streak finally end a reignited trumpmusk feud burn tesla investor share of ev company tumble a reignited trumpmusk feud burn tesla investor share of ev company tumble p miner launch the world first xrp liquid mining aidriven multiasset putting up the closed sign trump policy have cost vital u business b see what first responder are facing in texas a they search for victim airwavz solution appoints monte dube to market advisory board to strengthen healthcare wireless strategy hidden megabill clause hand taxpayer bill for huge gift to private jet owner church street closed for new sewer line trump administration revoke terrorism designation of new syrian leader group mayor adam hears community concern on housing ebikes education at bayside town hall flatbread barbecue and more best thing we ate this week in baton rouge and acadiana faimon robert how this la rural sheriff is remaking his office and redefining progressive the battle over the big beautiful bill move from capitol hill to the campaign trail global trade is back in limbo revealed white house email show desperate rush to punish university</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>medius now fully qualified yardi ecosystem partner cohen milstein seller toll pllc and bernstein litowitz berger grossmann llp announce pendency and proposed settlement of class action involving all person and entity who purchased or otherwise acquired the publicly traded common stock and preferred stock of silvergate capital corporation from november through march inclusive or in andor traceable to security offering during medius now fully qualified yardi ecosystem partner what you need to know ahead of live nation entertainment earnings release what you need to know ahead of live nation entertainment earnings release bloomberg law host ai symposium exploring the future of legal technology score prime day clothing deal on levi crocs spanx more starting at new york post thursday july evening cable news rating fillin host win the day ovation healthcare and ludi partner to streamline operational efficiency and financial health for rural hospital can micron stock hit in can micron stock hit in sealsq commences global deployment of it gsmaaccredited euicc with telco integrating a pioneering postquantum ready cryptographic security technology manulife investment management close third coinvestment fund at b surpassing predecessor by over m mitrex set guinness world record with largest bipv solar panel mural at sunrise residential longeveron announces u fda approval of ind application for a phase pivotal registration study evaluating laromestrocel a a treatment of pediatric dilated cardiomyopathy dcm saudi arabia crude oil export jumped by bpd in april substratelike pcb market size to hit usd billion by driven by demand for compact highperformance electronics research by sn insider application for delisting of sdrs from nasdaq stockholm what to expect from mondelez international q earnings report what to expect from mondelez international q earnings report amazon share form golden cross a prime day kick off national beverage credit lacroix marketing with q fiscal year growth world no magnus carlsen add to grand chess tour legacy with victory in zagreb at superunited rapid blitz croatia quanterix close m akoya deal after competing bid leading and lagging sector for july courtney caputo named chair of the national board of director at the epilepsy foundation of america optical imaging market to reach usd billion by fueled by rising demand for noninvasive diagnostic technology and octdriven clinical expansion sn insider courtney caputo named chair of the national board of director at the epilepsy foundation of america giant pigeon float through nyc for fifa club world cup what you need to know ahead of republic service earnings release what you need to know ahead of republic service earnings release column london metal exchange reaps the reward of tariff turmoil franklin resource quarterly earnings preview what you need to know franklin resource quarterly earnings preview what you need to know the salvation army to collect school supply at rochester walmart store elon musk fan took her first tesla robotaxi ride but then it made her get out and left her stranded cuz it wa about to rain unforgettable edible close after year on northwest side chile post steepest monthly price drop since ahead of rate decision what to expect from union pacific next quarterly earnings report what to expect from union pacific next quarterly earnings report the electric porsche macan is outselling the gas model but there more to the story motorcom the energy report so much for weak demand top company offering remote data science job why is penny stock prokidney stock trading higher on tuesday why is penny stock prokidney trading higher on tuesday robotics frenzy grip hong kong market and stock ride the hype is the rally sustainable goelzer investment management inc boost position in meta platform inc nasdaqmeta checchi capital adviser llc sell share of meta platform inc nasdaqmeta palisade capital management lp decrease stock holding in meta platform inc nasdaqmeta mountain capital investment advisor inc sell share of meta platform inc nasdaqmeta whimstay open platform to independent host for the first time netanyahu present trump with nomination for nobel peace prize a both downplay twostate solution cemtrexs vicon secures m followon order for county security infrastructure expansion cemtrexs vicon secures m followon order for county security infrastructure expansion barlow wealth partner inc acquires share of meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director aurora private wealth inc raise stock holding in meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director meta platform inc nasdaqmeta share acquired by sitrin capital management llc tkg advisor llc ha holding in meta platform inc nasdaqmeta ap business summarybrief at am edt at least may have killed themselves over uk post office wrongful conviction scandal why i always convert word to pdf now elon musk lash out at tesla bull dan ives over board proposal shut up how can large enterprise navigate tcpa compliance challenge percepta celebrates year of transforming automotive customer experience waymo offer teen account for driverless ride villa vie residence celebrates th visited port with summer celebration sale wednesday july evening cable news rating fox news stay no public record investment group buy ocean view apartment in norfolk k pure solution announces major strategic bleach distribution deal for the southwestern u mainly southern california u space force space system command selects rise for forge path to production contract inmorphis acquires servicenow practice of solugenix strengthening u market presence and expanding industryaligned offering in july and beyond honoring bebe moore campbell legacy u space force space system command selects rise for forge path to production contract deep dive into alcoa stock analyst perspective rating companion spine llc announces definitive agreement to acquire the business and asset of paradigm spine gmbh and the coflex and cofix spine implant from xtanttm medical holding inc what analyst are saying about edward lifesciences stock xsolis aidriven solution new feature evaluated in klas second look report what analyst rating have to say about kla petsmart name top catloving city tegna to host second quarter earnings conference call on thursday august startup raise m for universal flu vaccine made with mrna community bankshares inc revolutionizes access to capital and speed up loan closure for assessing enovis insight from financial analyst abbott laboratory stock a deep dive into analyst perspective rating is gaming and leisure prop gaining or losing market support whats driving the market sentiment around kbr breaking down agilent technology analyst share their view what to expect from norfolk southerns q earnings report what to expect from norfolk southerns q earnings report use this amex trick to save up to on amazon prime day locumtenenscom and march of dime partner to expand and scale maternal mental health training for clinician milliman analysis corporate pension funding improves in june to highest level since october milliman analysis corporate pension funding improves in june to highest level since october honor education secures m series a to reinvent digital learning experience outcome capital launch the first dedicated ophthalmology practice to address the world leading cause of disability can adobe stock hit in can adobe stock hit in instant legislation limit hoa enforcement in california swamp game at alligator alcatraz mamdanis socialist nightmare and more from fox news opinion hillsborough county target ruskin property for new sewer system vacuum lift station to boost environment and health south carolina gop urge trump supporter to give gavin newsom a huge southern welcome federal judge nix wisconsin judge bid to dismiss charge of helping illegal immigrant evade ice mona charen we need to remember the nobility of this nation trump extends federal hiring freeze until october use this amex trick to save up to on amazon prime day american kid have become increasingly unhealthy over nearly two decade new study find trump rip reporter for asking about epstein case a american doubt doj conclusion braille institute welcome distinguished tech executive roberto medrano to board of director northwestern energy adapts a demand evolve brian bird code for america unveils new government ai landscape assessment letter to the editor response to congressman downing sensorium therapeutic receives fda ind clearance for sntx a firstinclass rapidacting anxiolytic manatt enhances entertainment offering with leading film and tv partner montana conservation voter scorecard cut through noise kearstyn cook gov jim pillen sends nebraska urban searchandrescue team to help after texas flooding who had montana back the scorecard expose the record kearstyn cook who had montana back the scorecard expose the record kearstyn cook intention rise expectation fall the number of american planning to leave an inheritance go up a the number expecting to receive one go down find northwestern mutuals planning progress study jerome christenson closing the book on mailorder book club will we miss them big brother big sister of america appoints terrance williams of trustage a newest board member the u air force might send it retired b bomber to israel bad idea impactivize shareholder of company worth trillion vote overwhelmingly to defeat antidei proposal a a travel editor these are the amazon prime day deal id actually pack michelinstarred sushi aseat dinner vice president vance wrap up california visit someone using ai to impersonate marco rubio contacted at least five people including foreign minister cable say nyse content advisory premarket update trump announces new tariff on country trump slam russiaukraine war a bidencreated monster while unveiling new aid package ice raid derail southern california economy a worker go into hiding samsungs the frame make a gorgeous unique tv even better texas lawmaker want investigation into weather alert system and storm preparedness dr elseys reinforces it longstanding commitment to safer unscented cat litter presence of ice inside california hospital denounced by local leader immigration activist kinder and u soccer foundation launch goal of joy to inspire more active and joyful community through soccer the latest trump delay tariff implementation another month pastor who endorse political candidate shouldnt lose taxexempt status irs say in filing mob in rural india kill family accused of witchcraft iova notice iovance biotherapeutics shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nasdaqiova rich lowry dont blame donald trump for flood hims notice hims hers health inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nysehims aapl notice apple inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqaapl rddt notice reddit inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nyserddt ftre notice fortrea holding inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqftre i spent five week with the new roku ultra to see if you should upgrade video show deadly fire at cairo telecommunication building picking that bow back up northern cheyenne youth reconnect with archery letter to the editor independence day spark feeling ogn notice organon co shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nyseogn apple watch ultra review still the smartwatch to get horsemounted federal agent descend on los angeles park on video the google pixel watch finally delivers the big upgrade weve been waiting for lgs transparent oled tv just blew my mind at ce united by hatred vance rip mamdani expose the american left contradiction peace through power it electric injured after motorcycle strike deer on highway what if superman existed in a world like ours director james gunn on new superhero movie the best apple watch to buy in tested by expert trump outrage is hiding the real danger to america swiss village brace for possible alpine rockslide man dy at milan airport after being sucked into jet engine local medium report target of trump new tariff speak out the best sleep tracker in tested by editor tiger lsu purple and more it fig season here are tip to optimize your harvest letter to the editor wake up montana mississippi state university announces spring honor student rotary club of zachary present scholarship puretalk and allegiance flag supply honor veteran with americanmade flag nationwide zachary high school bronco explorer travel to japan ethel student named to washburn honor roll beta sigma phi member donate snack to eastside fire department letter denying global warning isnt cool held in texas immigration detention center shooting that wa planned ambush u attorney say the apple watch series is the smartwatch most people should buy kansa city chief heiress turn to scripture after yearold cousin killed in texas flood why the israeliran ceasefire feel like a strategic failure the best vacuum for pet hair in tried and tested why airtags are the ultimate travel companion this holiday season report accuses hamas of sexual violence i tried the latest version of the internetfamous bissell little green here my review sen ted cruz caught sightseeing in greece amid devastating flood in his home state a state attorney general say welcoming child of all race is illegal ideology opinion i really like the amazon kindle colorsoft but is color worth italy bergamo airport suspends flight after a person reportedly got sucked into engine the blink mini is a tiny camera that make your home a lot smarter a long hot summer day on the ground of st andrew conjures movie magic from yesteryear copy nurse practitioner kelsey st arnaud join north oak primary care in hammond joel boerkey named to the spring dean list at lincoln memorial university louisiana farm bureau elect officer during convention letter to the editor chinese communist party influence on american soil i cant stop using the ipad mini even though it a pretty boring update i tested this smart ipl device for athome hair removal and im never going to the salon again trial underway for ucla professor who refused to exercise compassion with racebased grading the google pixel tablet is a great slate that double a a smart display i tested the viral wavytalk thermal brush i didnt love it but here why you might egypt arrest famed belly dancer world focus the beijing olympics a pivotal moment for china key advisor called hunter bidens role on strategy call inappropriate after he overruled legal guidance letter to the editor dont pull plug on energy credit editorial cartoon for tuesday july</t>
+          <t>tribe property technology announces closing of best effort public offering of unit with full exercise of overallotment option for gross proceeds of approximately will recent event dent palantir technology stock growth sinopec launch new floating solar project with green hydrogen in play storen leading the future of home energy storage scottscott attorney at law llp file security class action against reckitt benckiser group plc otc rbgly chime financial first internetnative juggernaut focused on consumer banking say bullish analyst stock making big midday move tesla uber royal gold stellantis wns and more jeldwen expands cradle to cradle certification expanding portfolio of certified sustainable door energy demand optimism and houthi rebel attack on red sea shipping boost crude price nombase powered by bevnet launch new data hub a centralized resource for food beverage beer industry report iceland seafood international hf refinancing completed big beautiful bill may help some senior on social security but it doesnt eliminate tax on benefit noridian renews commitment to continuous improvement with the promotion of jeremiah mckay nvidias ai chip rival groq launch first european data center top ai growth stock to buy in july amazon prime day is here what it mean for the stock barrons fella it time to spice up your life with the help of lynks sexual wellness collection oneoncology appoints dr michael byrne a medical director for cellular therapy investing veteran see market pricing maseratis like ford tune in at noon workplace have embraced mindfulness and selfcompassionbut did capitalism hijack their true purpose google want to hit net zero by so it signed a massive deal with a bill gatesbacked startup thats still year away from making energy could amd and nvidia face new ai chip export restriction petco health and wellness company inc nasdaq woof shareholder alert bernstein liebhard llp reminds petco health and wellness company inc investor of upcoming deadline dhls german postal unit aim to increase use of parcel locker noridian renews commitment to continuous improvement with the promotion of jeremiah mckay rubis halfyear statement on rubis liquidity agreement with exane bnp paribas gtt monthly disclosure of the total number of voting right and share composing the share capital top trending meme coin breaking the internet arctic pablo freeze out the competition a fartboy and mubarak coin rise noridian renews commitment to continuous improvement with the promotion of jeremiah mckay kpn report on progress of m share buyback gtt halfyear liquidity contract statement asm share buyback update june july fnac darty disclosure of trading in own share june to july in french only this solanafocused etf by rexosprey offer a new way to earn from crypto wmo weather forecast for come true year early sarepta therapeutic inc nasdaq srpt shareholder alert bernstein liebhard llp reminds sarepta therapeutic inc investor of upcoming deadline thread is nearing x daily app user new data show techcrunch brazil to return to global bond market this year treasury secretary say planned parenthood sue trump administration over planned defunding gold price retreat to oneweek low on u tariff delay microstrategy paused it bitcoinbuying spree last week california bill seek to rein in debt settlement company that target mcas business loan borrower ageas report on the progress of share buyback programme luxury housing market no longer out of reach for some moveup buyer report homebuyers given new way to pay for a house after gamechanging policy switch and it not with cash up in a month should you buy plug power stock here yearold ran a one direction fan account a a teennow she run a medium brand with m follower including lorde and bella hadid i love my job rarely offered donut selling for off at krispy kreme on world chocolate day what will happen to the housing market during a baby dust taste radio one of the best trade show weve ever attended fancy that strait of hormuz in the spotlight forvia total number of voting right and share forming the share capital rite aid in ashland closing this summer gray and scripps to swap station and create more duopolies were booking profit in a topperforming bank stock in an extremely overbought market can trump run it hot plan trap the fed and jolt the bond market u child are much more likely to die than kid in similar country study find here how much invested in rtx year ago would be worth today best credit card for amazon of why everyones wrong about xrps real value a spacepay aim to become a top crypto payment solution weekly report share buyback from june to july weekly report share buyback from june to july historic yes could be better how to access perplexity ai free version fake image detection market is poised to expand beyond u million by say astute analytica uk fund invests million in carbon capture project hipgnosis founder talk new venture eye buying back catalog from blackstone the best amazon prime day deal under save on gear from samsung blink anker and others engadget lululemon v dupe texas flood live update death roll rise to a nw warns of more flooding trump say he will begin announcing trade deal and tariff rate at noon sinclair name narinder sahai evp and cfo sonar enhances oracle otm integration and launch shipper consortium for unmatched supply chain benchmarking palantir stock go warp speed but there a caveat walmart sam club and the walmart foundation commit up to to support texas flood relief effort explaining assessing the digital service tax dilemma gunman ambush border patrol agent in texas amid antiice rhetoric from democrat unmanned saildrones track russian shadow fleet during nato baltic sea operation jeldwen expands cradle to cradle certification expanding portfolio of certified sustainable door chase sapphire reserve lounge access in whats actually included tesla stock price fall after elon musk plan new political party micron meteoric rise can mu stock hit in ai is the new oil and america is laying the pipeline dow industrials intraday decline now exceeds point live update which worker will ai hurt most the young or the experienced the new york time will ai replace new hire or middle manager your job interviewer is not a person it ai catch up on your reading list this prime day with up to off kindles tesla trouble amplified by musk party politics etf on edge yemen houthi rebel say bulk carrier magic sea that they attacked sunday ha sunk starbucks launch new frappuccino kusacom hims hers navigates novo nordisk breakup and compounding lawsuit italy shipbuilder appoints new u chief trump administration move to terminate a form of humanitarian relief for nicaraguan and honduran in the u global wet chemical in semiconductor market forecast usd b by driven by advanced node manufacturing valuates report st elizabeth hospital and flight for life celebrate one year in fort morgan almonty industry applies for nasdaq listing elon musk realized too late how badly tesla will hurt from trump bill electrek ascendion win gold a the artificial intelligence service provider of the year in globee award borr drilling announces first settlement of the offering of common share brcevichelivjpg trump and netanyahu may take a victory lap on iran but the gaza war loom over their meeting alaskan lng the future of natural gas brcevichelivjpg brcevichelivjpg brcevichelivjpg brcevichelivjpg opinion reclaiming my time what in the hell happened bannon blast doj over epstein announcement daily beast try to use texas tragedy to attack ted cruz man killed after shooting at a u border patrol facility in southern texas u will make several trade announcement in next hour bessent hakeem jeffries roasted for obviously photoshopped instagram post a man ha been killed after opening fire at a u border patrol facility in texas authority say musk say he forming a new political party after split with trump over tax cut law strait of hormuz in the spotlight first look swapping beer for pisco sour see dive bar new life a madisonville restaurant society of st vincent de paul usa president john berry say work to protect the poor must go on after reconciliation bill passage liberal critic question why architect of failed biden foreign policy is advising project man killed after shooting at a u border patrol facility in southern texas american kid have become increasingly unhealthy over nearly two decade new study find patricia lopez ice doesnt need another billion surprise dems medium lie blame trump for storm death ken morris you may not be a diversified a you think rep carlos barron elected a state house minority whip tiktok user try to make texas flood all about race u child are much more likely to die than kid in similar country study find carnival cruise update rule critic cry racism trump threatens not to chicken out yet again over tariff democrat trying to field candidate slate to win first statewide race in year dccc target house republican over budget law impact on rural hospital dem lawmaker say their voter are threatening blood and violence over inability to hinder trump report dhs terminates temporary protected status for around k honduran nicaraguan migrant top maga voice stunned by trump administration debunking epstein theory jesse jackson jr explores a house comeback bid california expands automatic renewal law new requirement now in effect louisiana state police arrest woman in connection with motorcycle death of shreveport man gang burn down famous haitian hotel trump administration move to terminate a form of humanitarian relief for nicaraguan and honduran in the u leave bolsonaro alone trump furious a brazil exleader face coup trial mainer need to do what democracy demand letter maga influencers scream coverup following release of doj memo closing the book on jeffrey epstein case editorial chicago mourns with texas and the parent of the camp mystic girl schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding yemen houthi rebel say bulk carrier magic sea that they attacked sunday ha sunk schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding schumer demand investigation of trump weather service vacancy in wake of texas flooding holy cross cattleman asks for permit to kill copper creek wolf u to revoke protected status for immigrant from honduras and nicaragua u chamber of commerce discusses how tariff will raise the cost of summer fun with yourupdatetv u cancel contract save million in day doge former librarian of congress fired by trump vow to improve public information in new mellon role former librarian of congress fired by trump vow to improve public information in new mellon role trump say he will visit texas probably on friday to tour flash flood damage mcafees summer shopping study reveals it prime time for smart shopping team technology an arlington capital partner portfolio company expands medical device manufacturing capability with acquisition of duke empirical inc trump th week in office set to include visit to texas devastated hill country third netanyahu meeting i dont use credit card point to shop for prime day here what i do instead this senator just sold up to k in unitedhealth group stock recent filing show that rep john rose sold over m worth of alphabet stock u lobby group urge tariff retaliation against australia socialised medicine face the nation stoltenberg panel wear it or resist anne hanson time to reboot lucy k wyman peacham th of july dave edward michael paul williams maga turn back the clock at uva proposed radio tower cynthia krieble abm announces new board of director and executive committee member threat to freedom of religion denise fontaine court release cctv footage shown during mushroom murder trial maine ban floating camp another big week for nepa new federal procedure and a big beautiful bill benefit the mindful minute by jon heydenreich my menu correction osisko development announces positive bulk tonnage ore sorting result for the project worldwide bolster indiasouth asia leadership with strategic appointment educator view throw a book at your kid to avoid summer slide jeffery epstein died by suicide and there no client list justice department say houston official fired over raciallytinged tiktok rant about search for missing girl man with rifle and tactical gear killed after exchange of fire with border patrol in texas prominent west bank sheikh face violent threat after proposing peace with israel zelenskyy spoke with trump on replacing kyivs envoy to u israel and hamas are inching toward a new ceasefire deal for gaza this is how it might look chrome day ivanti exploit macos stealer crypto heist and more russia exminister found dead hour after being fired in an apparent suicide official said don davis eye open north carolina senate seat white house asks american to pray after deadly texas flooding planned parenthood challenge gop reconciliation law north carolina also hit with lifethreatening flash flood governor murphy mansion tax modification breaking leo source report active shooter with rifle and tactical gear ambushed border patrol agent french gameshow contestant epic month winning streak finally end a reignited trumpmusk feud burn tesla investor share of ev company tumble a reignited trumpmusk feud burn tesla investor share of ev company tumble p miner launch the world first xrp liquid mining aidriven multiasset putting up the closed sign trump policy have cost vital u business b see what first responder are facing in texas a they search for victim airwavz solution appoints monte dube to market advisory board to strengthen healthcare wireless strategy hidden megabill clause hand taxpayer bill for huge gift to private jet owner church street closed for new sewer line trump administration revoke terrorism designation of new syrian leader group mayor adam hears community concern on housing ebikes education at bayside town hall flatbread barbecue and more best thing we ate this week in baton rouge and acadiana faimon robert how this la rural sheriff is remaking his office and redefining progressive the battle over the big beautiful bill move from capitol hill to the campaign trail global trade is back in limbo revealed white house email show desperate rush to punish university</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.142</v>
+        <v>0.148</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08</v>
+        <v>0.131</v>
       </c>
       <c r="M10" t="n">
-        <v>0.779</v>
+        <v>0.722</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.976</v>
       </c>
       <c r="O10" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P10" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="S10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T10" t="n">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="U10" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="V10" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W10" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="X10" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1286,55 +1282,55 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>what you need to know ahead of arch capital earnings release what really killed the mill reason to buy ethereum before what to expect from leidos holding q earnings report successful couple do these thing in the morning that little hello go a long way relationship expert say in a world of bull and bear be the tiger s ai launch agentic capability in latest molecular universe release to increase value proposition for rd a a service we found the best amazon prime day deal after shopping thousand of offer cnn most fed official see rate cut coming but opinion vary widely on how many minute show fury intercept m of lio at the ninaaskumuwin discovery incorporation of boerne in lawmaker will investigate response to flood covered call screener result for july th texas just passed quantum computing legislation how should you play ionq stock here homebuyers finally responded after mortgage rate hit lowest level in three month cnbc palantir technology ha been the sp s hottest stock over the past year and it not even close can it incredible rally continue cybersecurity stock you can buy and hold for the next decade business newsline july amazon extends prime day discount to day trump medium file for crypto blue chip etf vibe coding ha arrived for business wsj this bigname adviser say avoiding crypto is now a more speculative investment move than buying it marketwatch trump threatened to bomb the s out of moscow to deter putin cnn trump big beautiful bill promise no tax on tip and overtime but there a limitheres who qualifies droit launch explore mode on it adept platform h room for optimism risk for complacency aes freeportmcmoran verona pharma intel aehr penguin solution and more mover barrons michelle obama i learned this great parenting tip from my mom and dadthey did a beautiful job modeling it bmw v mercedes u sale race there a clear leader in linda yaccarino step down a ceo of elon musk x dax push higher a eu edge closer to tariff deal with u the prime day deal you can still get the verge eli manning say he no longer interested in buying a piece of the nfls giant it too expensive for me merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merckcom walmart is selling a fantastic chromebook laptop for just and shopper love the touchscreen feature these word help teach kid critical thinking say michelle obama and psychologist malaysian pm warns southeast asia that trade war is not a passing storm quadmotor rivians arrive with wild power and wilder price apple can it catch up in the ai race a rival turn up the heat boomer are buying the highestyielding dividend champion handoverfist a o smith corporation nyseaos share purchased by private trust co na elon musk grok ai chatbot denies that it praised hitler and made antisemitic comment daily vickers top insider pick for hudson edge investment partner inc ha million stock position in jpmorgan chase co nysejpm private trust co na ha stock holding in coterra energy inc nysectra rosalia is new balance newest brand ambassador russia launch another record drone attack on ukraine ukrainian official say beware of scam that promise good pay for completing easy online task beware of scam that promise good pay for completing easy online task today top money market account rate for july rate hit current heloc home equity loan rate july highyield saving account rate today july rate are steady beware of scam that promise good pay for completing easy online task ap news bank of england flag global debt pressure despite market stabilization goldman demand an oath from junior banker to fend off private equity poaching bloomberg court block rule that would let you cancel subscription easily sp future tick higher a investor shrug off trump tariff threat fomc minute on tap today mortgage refinance rate july rate increase mortgage rate today july rate move up cd rate today july rate rise uae say the oil market is thirsty for more opec barrel proposed clermont subdivision would redesign deadly lakeshore drive exact science announces medicare coverage for oncodetecttm molecular residual disease test in colorectal cancer fresh del monte produce inc to report second quarter financial result trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty a new era of restaurant worker may earn sixfigure salary and benefit that no other industry can provide tesla board need ground rule for musk political activism analyst say samsung launch three new foldable smartphones a it fends off chinese rival trump tariff extension leaf bank fed in limbo hbo max is back prestige brand return to streaming corra group see rising demand from global investor for due diligence investigation market sputter after trump push tariff deadline xrp price forecast hit but insider are loading up on the new xrp that could go x auddia announces leadership change and special committee to evaluate business combination and restructuring a ai native holding company senate gop gear up for test on trump doge cut inside information orion upgrade fullyear outlook for social security sends million of american a misleading and blatantly political message see this shreveport director awardwinning screenplay red carpet premiere here how first atlantic nickel expands rpm zone awaruite nickelalloy nife discovery meter northern extension yield nickel concentrate over meter in dtr metallurgical recovery testing shreveport to kick off return of eleven store to louisiana more site planned two ragnarok ip title achieved top game ranking in taiwan hong kong and macau toast inc nysetost share acquired by da davidson co private trust co na ha stock holding in ge healthcare technology inc nasdaqgehc trump big beautiful bill slash cfpb funding what it mean for you davenport co llc sell share of fortive corporation nyseftv private trust co na acquires share of emcor group inc nyseeme you have less than month to claim the ev tax credit now is the time to buy say car expert this legend cross time zone with just pound of gear here are his favorite principal financial group inc increase stock position in zimmer biomet holding inc nysezbh mutual advisor llc buy share of trane technology plc nysett mutual advisor llc grows stock holding in decker outdoor corporation nysedeck first malaria drug for newborn and young infant expected to be approved in africa within week former rapid city anchor given suspended sentence in domestic assault case bank of england warns of high financial market risk despite easing tension kisti secures funding for national quantum center of excellence name ionq a primary quantum partner our opinion when the president punishes patriot wednesday letter a the world burn eye turn to diddy european court russia wa behind downing of mh watch popular podcaster discusses how kamala episode wa scrapped because she talked gibberish her own campaign wanted it canned fbi bust chinese national for multimillion dollar drug ring exploiting immigration system the president mean business trump admin sue california over transgender athlete policy other view state congressional delegation must fight cut to noaa burke county company say hildebran wont issue permit for train cabin business another voice buffalo garden vibrantly express a community soul trump admin subpoena harvard over foreign student misconduct campus radicalism george conway flag trump awkward new admission a fresh proof he a fool eu seek to finalize trade deal with trump by end of the month hawaii lawmaker demand immigration arrest briefing haleiwa development under council review state road usage charge begin for electric vehicle on july governor state budget veto trim public school maintenance hooser sbcd a travesty of process and policy senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college larger fight rage on but trump racking up win against college senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting larger fight rage on but trump racking up win against college jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college candace cameron bure say son biblebased pep talk helped save her marriage antiviolence advocate why not hold gun manufacturer accountable for mass shooting like river north tragedy letter chicago allows people to be who they want to be trump trade blitz produce few deal but lot of uncertainty laura washington the art institute is slowly getting back to normal georgia police arrest farmworkers then get warrant from dhs firearm testing and ballistics unit could be open in september at county forensics lab former dc fire official want to cut tax increase police presence with city council bid my view trekking pole can lend some mountainclimber swagger steve corbin give me liberty or a tinpot dictator scare buying reported in rochester why should legislator favor legal pot business california focus why should legislator favor legal pot business california focus editorial cartoon for july this legend cross time zone with just pound of gear here are his favorite which u president had wife named ellen and edith first malaria drug for newborn and young infant expected to be approved in africa within week red bull team principal christian horner fired after year with team after month stuck in the south north korean go home letter billion not served by trump big bill letter billion not served by trump big bill supreme court reject shielding identity of police attending jan capitol rally trump slam democrat over inflation narrative say he cut cost more than any president in history red bull team principal christan horner sacked after year with team letter no one is voting after result are known letter no one is voting after result are known here everything to expect at this family fun day in colnes alkincoates park robinhood ceo tokenization is a major innovation in capital market here who will and wont qualify for the new car loan interest deduction allegheny county council approves innamorato choice for shuman advisory board pittsburgh city council pass further protection for lgbtq people elon musk grok remove politically incorrect instruction after it praise hitler wa the flash flooding in texas preventable trump say tariff on pharmaceutical import could increase to percent threetime mvp nikola jokic will delay signing extension with nugget this summer ap source say trump boast about threat to bomb the st out of moscow in leaked audio charles warns small boat crisis is a profound challenge a he host macron at state banquet ahead of migrant deal newsom go big on holy grail reform other view newsom go big on holy grail reform other view supreme court allows trump administration to resume mass federal layoff for now suit challenge government effort to deport supporter of propalestinian protest invest america act give to every u newborn investment account dell ceo call it futureproofing prosperity sam altman asks for more stuff like this reader speak why i say thank you to uconn health center off the rail trump ramble in the middle of cabinet meeting is karat nonsense wall street trump taco trade ha a chicken and an egg problem meet the new national police force mamdanis farleft ally want to primary hakeem jeffries and other nyc democrat reader speak american tragedy is that those who are in power are inhumane congressional democrat push for new watchdog to oversee trump white house american need to work together to fix education weve both done it before on opposite side the search for the old lady pony continues tariff are already squeezing corporate margin new survey find ai is changing the world faster than most realize fencing wa a chore that we enjoyed texas is relying on fema state leader said it should be cut letter trump usaid action are evil letter trump usaid action are evil microsoft patch vulnerability including critical flaw in spnego and sql server</t>
+          <t>medius now fully qualified yardi ecosystem partner cohen milstein seller toll pllc and bernstein litowitz berger grossmann llp announce pendency and proposed settlement of class action involving all person and entity who purchased or otherwise acquired the publicly traded common stock and preferred stock of silvergate capital corporation from november through march inclusive or in andor traceable to security offering during medius now fully qualified yardi ecosystem partner what you need to know ahead of live nation entertainment earnings release what you need to know ahead of live nation entertainment earnings release bloomberg law host ai symposium exploring the future of legal technology score prime day clothing deal on levi crocs spanx more starting at new york post thursday july evening cable news rating fillin host win the day ovation healthcare and ludi partner to streamline operational efficiency and financial health for rural hospital can micron stock hit in can micron stock hit in sealsq commences global deployment of it gsmaaccredited euicc with telco integrating a pioneering postquantum ready cryptographic security technology manulife investment management close third coinvestment fund at b surpassing predecessor by over m mitrex set guinness world record with largest bipv solar panel mural at sunrise residential longeveron announces u fda approval of ind application for a phase pivotal registration study evaluating laromestrocel a a treatment of pediatric dilated cardiomyopathy dcm saudi arabia crude oil export jumped by bpd in april substratelike pcb market size to hit usd billion by driven by demand for compact highperformance electronics research by sn insider application for delisting of sdrs from nasdaq stockholm what to expect from mondelez international q earnings report what to expect from mondelez international q earnings report amazon share form golden cross a prime day kick off national beverage credit lacroix marketing with q fiscal year growth world no magnus carlsen add to grand chess tour legacy with victory in zagreb at superunited rapid blitz croatia quanterix close m akoya deal after competing bid leading and lagging sector for july courtney caputo named chair of the national board of director at the epilepsy foundation of america optical imaging market to reach usd billion by fueled by rising demand for noninvasive diagnostic technology and octdriven clinical expansion sn insider courtney caputo named chair of the national board of director at the epilepsy foundation of america giant pigeon float through nyc for fifa club world cup what you need to know ahead of republic service earnings release what you need to know ahead of republic service earnings release column london metal exchange reaps the reward of tariff turmoil franklin resource quarterly earnings preview what you need to know franklin resource quarterly earnings preview what you need to know the salvation army to collect school supply at rochester walmart store elon musk fan took her first tesla robotaxi ride but then it made her get out and left her stranded cuz it wa about to rain unforgettable edible close after year on northwest side chile post steepest monthly price drop since ahead of rate decision what to expect from union pacific next quarterly earnings report what to expect from union pacific next quarterly earnings report the electric porsche macan is outselling the gas model but there more to the story motorcom the energy report so much for weak demand top company offering remote data science job why is penny stock prokidney stock trading higher on tuesday why is penny stock prokidney trading higher on tuesday robotics frenzy grip hong kong market and stock ride the hype is the rally sustainable goelzer investment management inc boost position in meta platform inc nasdaqmeta checchi capital adviser llc sell share of meta platform inc nasdaqmeta palisade capital management lp decrease stock holding in meta platform inc nasdaqmeta mountain capital investment advisor inc sell share of meta platform inc nasdaqmeta whimstay open platform to independent host for the first time netanyahu present trump with nomination for nobel peace prize a both downplay twostate solution cemtrexs vicon secures m followon order for county security infrastructure expansion cemtrexs vicon secures m followon order for county security infrastructure expansion barlow wealth partner inc acquires share of meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director aurora private wealth inc raise stock holding in meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director meta platform inc nasdaqmeta share acquired by sitrin capital management llc tkg advisor llc ha holding in meta platform inc nasdaqmeta ap business summarybrief at am edt at least may have killed themselves over uk post office wrongful conviction scandal why i always convert word to pdf now elon musk lash out at tesla bull dan ives over board proposal shut up how can large enterprise navigate tcpa compliance challenge percepta celebrates year of transforming automotive customer experience waymo offer teen account for driverless ride villa vie residence celebrates th visited port with summer celebration sale wednesday july evening cable news rating fox news stay no public record investment group buy ocean view apartment in norfolk k pure solution announces major strategic bleach distribution deal for the southwestern u mainly southern california u space force space system command selects rise for forge path to production contract inmorphis acquires servicenow practice of solugenix strengthening u market presence and expanding industryaligned offering in july and beyond honoring bebe moore campbell legacy u space force space system command selects rise for forge path to production contract deep dive into alcoa stock analyst perspective rating companion spine llc announces definitive agreement to acquire the business and asset of paradigm spine gmbh and the coflex and cofix spine implant from xtanttm medical holding inc what analyst are saying about edward lifesciences stock xsolis aidriven solution new feature evaluated in klas second look report what analyst rating have to say about kla petsmart name top catloving city tegna to host second quarter earnings conference call on thursday august startup raise m for universal flu vaccine made with mrna community bankshares inc revolutionizes access to capital and speed up loan closure for assessing enovis insight from financial analyst abbott laboratory stock a deep dive into analyst perspective rating is gaming and leisure prop gaining or losing market support whats driving the market sentiment around kbr breaking down agilent technology analyst share their view what to expect from norfolk southerns q earnings report what to expect from norfolk southerns q earnings report use this amex trick to save up to on amazon prime day locumtenenscom and march of dime partner to expand and scale maternal mental health training for clinician milliman analysis corporate pension funding improves in june to highest level since october milliman analysis corporate pension funding improves in june to highest level since october honor education secures m series a to reinvent digital learning experience outcome capital launch the first dedicated ophthalmology practice to address the world leading cause of disability can adobe stock hit in can adobe stock hit in instant legislation limit hoa enforcement in california swamp game at alligator alcatraz mamdanis socialist nightmare and more from fox news opinion hillsborough county target ruskin property for new sewer system vacuum lift station to boost environment and health south carolina gop urge trump supporter to give gavin newsom a huge southern welcome federal judge nix wisconsin judge bid to dismiss charge of helping illegal immigrant evade ice mona charen we need to remember the nobility of this nation trump extends federal hiring freeze until october use this amex trick to save up to on amazon prime day american kid have become increasingly unhealthy over nearly two decade new study find trump rip reporter for asking about epstein case a american doubt doj conclusion braille institute welcome distinguished tech executive roberto medrano to board of director northwestern energy adapts a demand evolve brian bird code for america unveils new government ai landscape assessment letter to the editor response to congressman downing sensorium therapeutic receives fda ind clearance for sntx a firstinclass rapidacting anxiolytic manatt enhances entertainment offering with leading film and tv partner montana conservation voter scorecard cut through noise kearstyn cook gov jim pillen sends nebraska urban searchandrescue team to help after texas flooding who had montana back the scorecard expose the record kearstyn cook who had montana back the scorecard expose the record kearstyn cook intention rise expectation fall the number of american planning to leave an inheritance go up a the number expecting to receive one go down find northwestern mutuals planning progress study jerome christenson closing the book on mailorder book club will we miss them big brother big sister of america appoints terrance williams of trustage a newest board member the u air force might send it retired b bomber to israel bad idea impactivize shareholder of company worth trillion vote overwhelmingly to defeat antidei proposal a a travel editor these are the amazon prime day deal id actually pack michelinstarred sushi aseat dinner vice president vance wrap up california visit someone using ai to impersonate marco rubio contacted at least five people including foreign minister cable say nyse content advisory premarket update trump announces new tariff on country trump slam russiaukraine war a bidencreated monster while unveiling new aid package ice raid derail southern california economy a worker go into hiding samsungs the frame make a gorgeous unique tv even better texas lawmaker want investigation into weather alert system and storm preparedness dr elseys reinforces it longstanding commitment to safer unscented cat litter presence of ice inside california hospital denounced by local leader immigration activist kinder and u soccer foundation launch goal of joy to inspire more active and joyful community through soccer the latest trump delay tariff implementation another month pastor who endorse political candidate shouldnt lose taxexempt status irs say in filing mob in rural india kill family accused of witchcraft iova notice iovance biotherapeutics shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nasdaqiova rich lowry dont blame donald trump for flood hims notice hims hers health inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nysehims aapl notice apple inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqaapl rddt notice reddit inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nyserddt ftre notice fortrea holding inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqftre i spent five week with the new roku ultra to see if you should upgrade video show deadly fire at cairo telecommunication building picking that bow back up northern cheyenne youth reconnect with archery letter to the editor independence day spark feeling ogn notice organon co shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nyseogn apple watch ultra review still the smartwatch to get horsemounted federal agent descend on los angeles park on video the google pixel watch finally delivers the big upgrade weve been waiting for lgs transparent oled tv just blew my mind at ce united by hatred vance rip mamdani expose the american left contradiction peace through power it electric injured after motorcycle strike deer on highway what if superman existed in a world like ours director james gunn on new superhero movie the best apple watch to buy in tested by expert trump outrage is hiding the real danger to america swiss village brace for possible alpine rockslide man dy at milan airport after being sucked into jet engine local medium report target of trump new tariff speak out the best sleep tracker in tested by editor tiger lsu purple and more it fig season here are tip to optimize your harvest letter to the editor wake up montana mississippi state university announces spring honor student rotary club of zachary present scholarship puretalk and allegiance flag supply honor veteran with americanmade flag nationwide zachary high school bronco explorer travel to japan ethel student named to washburn honor roll beta sigma phi member donate snack to eastside fire department letter denying global warning isnt cool held in texas immigration detention center shooting that wa planned ambush u attorney say the apple watch series is the smartwatch most people should buy kansa city chief heiress turn to scripture after yearold cousin killed in texas flood why the israeliran ceasefire feel like a strategic failure the best vacuum for pet hair in tried and tested why airtags are the ultimate travel companion this holiday season report accuses hamas of sexual violence i tried the latest version of the internetfamous bissell little green here my review sen ted cruz caught sightseeing in greece amid devastating flood in his home state a state attorney general say welcoming child of all race is illegal ideology opinion i really like the amazon kindle colorsoft but is color worth italy bergamo airport suspends flight after a person reportedly got sucked into engine the blink mini is a tiny camera that make your home a lot smarter a long hot summer day on the ground of st andrew conjures movie magic from yesteryear copy nurse practitioner kelsey st arnaud join north oak primary care in hammond joel boerkey named to the spring dean list at lincoln memorial university louisiana farm bureau elect officer during convention letter to the editor chinese communist party influence on american soil i cant stop using the ipad mini even though it a pretty boring update i tested this smart ipl device for athome hair removal and im never going to the salon again trial underway for ucla professor who refused to exercise compassion with racebased grading the google pixel tablet is a great slate that double a a smart display i tested the viral wavytalk thermal brush i didnt love it but here why you might egypt arrest famed belly dancer world focus the beijing olympics a pivotal moment for china key advisor called hunter bidens role on strategy call inappropriate after he overruled legal guidance letter to the editor dont pull plug on energy credit editorial cartoon for tuesday july</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>what you need to know ahead of arch capital earnings release what really killed the mill reason to buy ethereum before what to expect from leidos holding q earnings report successful couple do these thing in the morning that little hello go a long way relationship expert say in a world of bull and bear be the tiger s ai launch agentic capability in latest molecular universe release to increase value proposition for rd a a service we found the best amazon prime day deal after shopping thousand of offer cnn most fed official see rate cut coming but opinion vary widely on how many minute show fury intercept m of lio at the ninaaskumuwin discovery incorporation of boerne in lawmaker will investigate response to flood covered call screener result for july th texas just passed quantum computing legislation how should you play ionq stock here homebuyers finally responded after mortgage rate hit lowest level in three month cnbc palantir technology ha been the sp s hottest stock over the past year and it not even close can it incredible rally continue cybersecurity stock you can buy and hold for the next decade business newsline july amazon extends prime day discount to day trump medium file for crypto blue chip etf vibe coding ha arrived for business wsj this bigname adviser say avoiding crypto is now a more speculative investment move than buying it marketwatch trump threatened to bomb the s out of moscow to deter putin cnn trump big beautiful bill promise no tax on tip and overtime but there a limitheres who qualifies droit launch explore mode on it adept platform h room for optimism risk for complacency aes freeportmcmoran verona pharma intel aehr penguin solution and more mover barrons michelle obama i learned this great parenting tip from my mom and dadthey did a beautiful job modeling it bmw v mercedes u sale race there a clear leader in linda yaccarino step down a ceo of elon musk x dax push higher a eu edge closer to tariff deal with u the prime day deal you can still get the verge eli manning say he no longer interested in buying a piece of the nfls giant it too expensive for me merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merckcom walmart is selling a fantastic chromebook laptop for just and shopper love the touchscreen feature these word help teach kid critical thinking say michelle obama and psychologist malaysian pm warns southeast asia that trade war is not a passing storm quadmotor rivians arrive with wild power and wilder price apple can it catch up in the ai race a rival turn up the heat boomer are buying the highestyielding dividend champion handoverfist a o smith corporation nyseaos share purchased by private trust co na elon musk grok ai chatbot denies that it praised hitler and made antisemitic comment daily vickers top insider pick for hudson edge investment partner inc ha million stock position in jpmorgan chase co nysejpm private trust co na ha stock holding in coterra energy inc nysectra rosalia is new balance newest brand ambassador russia launch another record drone attack on ukraine ukrainian official say beware of scam that promise good pay for completing easy online task beware of scam that promise good pay for completing easy online task today top money market account rate for july rate hit current heloc home equity loan rate july highyield saving account rate today july rate are steady beware of scam that promise good pay for completing easy online task ap news bank of england flag global debt pressure despite market stabilization goldman demand an oath from junior banker to fend off private equity poaching bloomberg court block rule that would let you cancel subscription easily sp future tick higher a investor shrug off trump tariff threat fomc minute on tap today mortgage refinance rate july rate increase mortgage rate today july rate move up cd rate today july rate rise uae say the oil market is thirsty for more opec barrel proposed clermont subdivision would redesign deadly lakeshore drive exact science announces medicare coverage for oncodetecttm molecular residual disease test in colorectal cancer fresh del monte produce inc to report second quarter financial result trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty a new era of restaurant worker may earn sixfigure salary and benefit that no other industry can provide tesla board need ground rule for musk political activism analyst say samsung launch three new foldable smartphones a it fends off chinese rival trump tariff extension leaf bank fed in limbo hbo max is back prestige brand return to streaming corra group see rising demand from global investor for due diligence investigation market sputter after trump push tariff deadline xrp price forecast hit but insider are loading up on the new xrp that could go x auddia announces leadership change and special committee to evaluate business combination and restructuring a ai native holding company senate gop gear up for test on trump doge cut inside information orion upgrade fullyear outlook for social security sends million of american a misleading and blatantly political message see this shreveport director awardwinning screenplay red carpet premiere here how first atlantic nickel expands rpm zone awaruite nickelalloy nife discovery meter northern extension yield nickel concentrate over meter in dtr metallurgical recovery testing shreveport to kick off return of eleven store to louisiana more site planned two ragnarok ip title achieved top game ranking in taiwan hong kong and macau toast inc nysetost share acquired by da davidson co private trust co na ha stock holding in ge healthcare technology inc nasdaqgehc trump big beautiful bill slash cfpb funding what it mean for you davenport co llc sell share of fortive corporation nyseftv private trust co na acquires share of emcor group inc nyseeme you have less than month to claim the ev tax credit now is the time to buy say car expert this legend cross time zone with just pound of gear here are his favorite principal financial group inc increase stock position in zimmer biomet holding inc nysezbh mutual advisor llc buy share of trane technology plc nysett mutual advisor llc grows stock holding in decker outdoor corporation nysedeck first malaria drug for newborn and young infant expected to be approved in africa within week former rapid city anchor given suspended sentence in domestic assault case bank of england warns of high financial market risk despite easing tension kisti secures funding for national quantum center of excellence name ionq a primary quantum partner our opinion when the president punishes patriot wednesday letter a the world burn eye turn to diddy european court russia wa behind downing of mh watch popular podcaster discusses how kamala episode wa scrapped because she talked gibberish her own campaign wanted it canned fbi bust chinese national for multimillion dollar drug ring exploiting immigration system the president mean business trump admin sue california over transgender athlete policy other view state congressional delegation must fight cut to noaa burke county company say hildebran wont issue permit for train cabin business another voice buffalo garden vibrantly express a community soul trump admin subpoena harvard over foreign student misconduct campus radicalism george conway flag trump awkward new admission a fresh proof he a fool eu seek to finalize trade deal with trump by end of the month hawaii lawmaker demand immigration arrest briefing haleiwa development under council review state road usage charge begin for electric vehicle on july governor state budget veto trim public school maintenance hooser sbcd a travesty of process and policy senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college larger fight rage on but trump racking up win against college senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting larger fight rage on but trump racking up win against college jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college candace cameron bure say son biblebased pep talk helped save her marriage antiviolence advocate why not hold gun manufacturer accountable for mass shooting like river north tragedy letter chicago allows people to be who they want to be trump trade blitz produce few deal but lot of uncertainty laura washington the art institute is slowly getting back to normal georgia police arrest farmworkers then get warrant from dhs firearm testing and ballistics unit could be open in september at county forensics lab former dc fire official want to cut tax increase police presence with city council bid my view trekking pole can lend some mountainclimber swagger steve corbin give me liberty or a tinpot dictator scare buying reported in rochester why should legislator favor legal pot business california focus why should legislator favor legal pot business california focus editorial cartoon for july this legend cross time zone with just pound of gear here are his favorite which u president had wife named ellen and edith first malaria drug for newborn and young infant expected to be approved in africa within week red bull team principal christian horner fired after year with team after month stuck in the south north korean go home letter billion not served by trump big bill letter billion not served by trump big bill supreme court reject shielding identity of police attending jan capitol rally trump slam democrat over inflation narrative say he cut cost more than any president in history red bull team principal christan horner sacked after year with team letter no one is voting after result are known letter no one is voting after result are known here everything to expect at this family fun day in colnes alkincoates park robinhood ceo tokenization is a major innovation in capital market here who will and wont qualify for the new car loan interest deduction allegheny county council approves innamorato choice for shuman advisory board pittsburgh city council pass further protection for lgbtq people elon musk grok remove politically incorrect instruction after it praise hitler wa the flash flooding in texas preventable trump say tariff on pharmaceutical import could increase to percent threetime mvp nikola jokic will delay signing extension with nugget this summer ap source say trump boast about threat to bomb the st out of moscow in leaked audio charles warns small boat crisis is a profound challenge a he host macron at state banquet ahead of migrant deal newsom go big on holy grail reform other view newsom go big on holy grail reform other view supreme court allows trump administration to resume mass federal layoff for now suit challenge government effort to deport supporter of propalestinian protest invest america act give to every u newborn investment account dell ceo call it futureproofing prosperity sam altman asks for more stuff like this reader speak why i say thank you to uconn health center off the rail trump ramble in the middle of cabinet meeting is karat nonsense wall street trump taco trade ha a chicken and an egg problem meet the new national police force mamdanis farleft ally want to primary hakeem jeffries and other nyc democrat reader speak american tragedy is that those who are in power are inhumane congressional democrat push for new watchdog to oversee trump white house american need to work together to fix education weve both done it before on opposite side the search for the old lady pony continues tariff are already squeezing corporate margin new survey find ai is changing the world faster than most realize fencing wa a chore that we enjoyed texas is relying on fema state leader said it should be cut letter trump usaid action are evil letter trump usaid action are evil microsoft patch vulnerability including critical flaw in spnego and sql server</t>
+          <t>medius now fully qualified yardi ecosystem partner cohen milstein seller toll pllc and bernstein litowitz berger grossmann llp announce pendency and proposed settlement of class action involving all person and entity who purchased or otherwise acquired the publicly traded common stock and preferred stock of silvergate capital corporation from november through march inclusive or in andor traceable to security offering during medius now fully qualified yardi ecosystem partner what you need to know ahead of live nation entertainment earnings release what you need to know ahead of live nation entertainment earnings release bloomberg law host ai symposium exploring the future of legal technology score prime day clothing deal on levi crocs spanx more starting at new york post thursday july evening cable news rating fillin host win the day ovation healthcare and ludi partner to streamline operational efficiency and financial health for rural hospital can micron stock hit in can micron stock hit in sealsq commences global deployment of it gsmaaccredited euicc with telco integrating a pioneering postquantum ready cryptographic security technology manulife investment management close third coinvestment fund at b surpassing predecessor by over m mitrex set guinness world record with largest bipv solar panel mural at sunrise residential longeveron announces u fda approval of ind application for a phase pivotal registration study evaluating laromestrocel a a treatment of pediatric dilated cardiomyopathy dcm saudi arabia crude oil export jumped by bpd in april substratelike pcb market size to hit usd billion by driven by demand for compact highperformance electronics research by sn insider application for delisting of sdrs from nasdaq stockholm what to expect from mondelez international q earnings report what to expect from mondelez international q earnings report amazon share form golden cross a prime day kick off national beverage credit lacroix marketing with q fiscal year growth world no magnus carlsen add to grand chess tour legacy with victory in zagreb at superunited rapid blitz croatia quanterix close m akoya deal after competing bid leading and lagging sector for july courtney caputo named chair of the national board of director at the epilepsy foundation of america optical imaging market to reach usd billion by fueled by rising demand for noninvasive diagnostic technology and octdriven clinical expansion sn insider courtney caputo named chair of the national board of director at the epilepsy foundation of america giant pigeon float through nyc for fifa club world cup what you need to know ahead of republic service earnings release what you need to know ahead of republic service earnings release column london metal exchange reaps the reward of tariff turmoil franklin resource quarterly earnings preview what you need to know franklin resource quarterly earnings preview what you need to know the salvation army to collect school supply at rochester walmart store elon musk fan took her first tesla robotaxi ride but then it made her get out and left her stranded cuz it wa about to rain unforgettable edible close after year on northwest side chile post steepest monthly price drop since ahead of rate decision what to expect from union pacific next quarterly earnings report what to expect from union pacific next quarterly earnings report the electric porsche macan is outselling the gas model but there more to the story motorcom the energy report so much for weak demand top company offering remote data science job why is penny stock prokidney stock trading higher on tuesday why is penny stock prokidney trading higher on tuesday robotics frenzy grip hong kong market and stock ride the hype is the rally sustainable goelzer investment management inc boost position in meta platform inc nasdaqmeta checchi capital adviser llc sell share of meta platform inc nasdaqmeta palisade capital management lp decrease stock holding in meta platform inc nasdaqmeta mountain capital investment advisor inc sell share of meta platform inc nasdaqmeta whimstay open platform to independent host for the first time netanyahu present trump with nomination for nobel peace prize a both downplay twostate solution cemtrexs vicon secures m followon order for county security infrastructure expansion cemtrexs vicon secures m followon order for county security infrastructure expansion barlow wealth partner inc acquires share of meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director aurora private wealth inc raise stock holding in meta platform inc nasdaqmeta netsol technology appoints ian smith to it board of director meta platform inc nasdaqmeta share acquired by sitrin capital management llc tkg advisor llc ha holding in meta platform inc nasdaqmeta ap business summarybrief at am edt at least may have killed themselves over uk post office wrongful conviction scandal why i always convert word to pdf now elon musk lash out at tesla bull dan ives over board proposal shut up how can large enterprise navigate tcpa compliance challenge percepta celebrates year of transforming automotive customer experience waymo offer teen account for driverless ride villa vie residence celebrates th visited port with summer celebration sale wednesday july evening cable news rating fox news stay no public record investment group buy ocean view apartment in norfolk k pure solution announces major strategic bleach distribution deal for the southwestern u mainly southern california u space force space system command selects rise for forge path to production contract inmorphis acquires servicenow practice of solugenix strengthening u market presence and expanding industryaligned offering in july and beyond honoring bebe moore campbell legacy u space force space system command selects rise for forge path to production contract deep dive into alcoa stock analyst perspective rating companion spine llc announces definitive agreement to acquire the business and asset of paradigm spine gmbh and the coflex and cofix spine implant from xtanttm medical holding inc what analyst are saying about edward lifesciences stock xsolis aidriven solution new feature evaluated in klas second look report what analyst rating have to say about kla petsmart name top catloving city tegna to host second quarter earnings conference call on thursday august startup raise m for universal flu vaccine made with mrna community bankshares inc revolutionizes access to capital and speed up loan closure for assessing enovis insight from financial analyst abbott laboratory stock a deep dive into analyst perspective rating is gaming and leisure prop gaining or losing market support whats driving the market sentiment around kbr breaking down agilent technology analyst share their view what to expect from norfolk southerns q earnings report what to expect from norfolk southerns q earnings report use this amex trick to save up to on amazon prime day locumtenenscom and march of dime partner to expand and scale maternal mental health training for clinician milliman analysis corporate pension funding improves in june to highest level since october milliman analysis corporate pension funding improves in june to highest level since october honor education secures m series a to reinvent digital learning experience outcome capital launch the first dedicated ophthalmology practice to address the world leading cause of disability can adobe stock hit in can adobe stock hit in instant legislation limit hoa enforcement in california swamp game at alligator alcatraz mamdanis socialist nightmare and more from fox news opinion hillsborough county target ruskin property for new sewer system vacuum lift station to boost environment and health south carolina gop urge trump supporter to give gavin newsom a huge southern welcome federal judge nix wisconsin judge bid to dismiss charge of helping illegal immigrant evade ice mona charen we need to remember the nobility of this nation trump extends federal hiring freeze until october use this amex trick to save up to on amazon prime day american kid have become increasingly unhealthy over nearly two decade new study find trump rip reporter for asking about epstein case a american doubt doj conclusion braille institute welcome distinguished tech executive roberto medrano to board of director northwestern energy adapts a demand evolve brian bird code for america unveils new government ai landscape assessment letter to the editor response to congressman downing sensorium therapeutic receives fda ind clearance for sntx a firstinclass rapidacting anxiolytic manatt enhances entertainment offering with leading film and tv partner montana conservation voter scorecard cut through noise kearstyn cook gov jim pillen sends nebraska urban searchandrescue team to help after texas flooding who had montana back the scorecard expose the record kearstyn cook who had montana back the scorecard expose the record kearstyn cook intention rise expectation fall the number of american planning to leave an inheritance go up a the number expecting to receive one go down find northwestern mutuals planning progress study jerome christenson closing the book on mailorder book club will we miss them big brother big sister of america appoints terrance williams of trustage a newest board member the u air force might send it retired b bomber to israel bad idea impactivize shareholder of company worth trillion vote overwhelmingly to defeat antidei proposal a a travel editor these are the amazon prime day deal id actually pack michelinstarred sushi aseat dinner vice president vance wrap up california visit someone using ai to impersonate marco rubio contacted at least five people including foreign minister cable say nyse content advisory premarket update trump announces new tariff on country trump slam russiaukraine war a bidencreated monster while unveiling new aid package ice raid derail southern california economy a worker go into hiding samsungs the frame make a gorgeous unique tv even better texas lawmaker want investigation into weather alert system and storm preparedness dr elseys reinforces it longstanding commitment to safer unscented cat litter presence of ice inside california hospital denounced by local leader immigration activist kinder and u soccer foundation launch goal of joy to inspire more active and joyful community through soccer the latest trump delay tariff implementation another month pastor who endorse political candidate shouldnt lose taxexempt status irs say in filing mob in rural india kill family accused of witchcraft iova notice iovance biotherapeutics shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nasdaqiova rich lowry dont blame donald trump for flood hims notice hims hers health inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nysehims aapl notice apple inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqaapl rddt notice reddit inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nyserddt ftre notice fortrea holding inc shareholder are notified of the pending class action lawsuit contact bfa law by august court deadline nasdaqftre i spent five week with the new roku ultra to see if you should upgrade video show deadly fire at cairo telecommunication building picking that bow back up northern cheyenne youth reconnect with archery letter to the editor independence day spark feeling ogn notice organon co shareholder are notified of the pending class action lawsuit contact bfa law by july court deadline nyseogn apple watch ultra review still the smartwatch to get horsemounted federal agent descend on los angeles park on video the google pixel watch finally delivers the big upgrade weve been waiting for lgs transparent oled tv just blew my mind at ce united by hatred vance rip mamdani expose the american left contradiction peace through power it electric injured after motorcycle strike deer on highway what if superman existed in a world like ours director james gunn on new superhero movie the best apple watch to buy in tested by expert trump outrage is hiding the real danger to america swiss village brace for possible alpine rockslide man dy at milan airport after being sucked into jet engine local medium report target of trump new tariff speak out the best sleep tracker in tested by editor tiger lsu purple and more it fig season here are tip to optimize your harvest letter to the editor wake up montana mississippi state university announces spring honor student rotary club of zachary present scholarship puretalk and allegiance flag supply honor veteran with americanmade flag nationwide zachary high school bronco explorer travel to japan ethel student named to washburn honor roll beta sigma phi member donate snack to eastside fire department letter denying global warning isnt cool held in texas immigration detention center shooting that wa planned ambush u attorney say the apple watch series is the smartwatch most people should buy kansa city chief heiress turn to scripture after yearold cousin killed in texas flood why the israeliran ceasefire feel like a strategic failure the best vacuum for pet hair in tried and tested why airtags are the ultimate travel companion this holiday season report accuses hamas of sexual violence i tried the latest version of the internetfamous bissell little green here my review sen ted cruz caught sightseeing in greece amid devastating flood in his home state a state attorney general say welcoming child of all race is illegal ideology opinion i really like the amazon kindle colorsoft but is color worth italy bergamo airport suspends flight after a person reportedly got sucked into engine the blink mini is a tiny camera that make your home a lot smarter a long hot summer day on the ground of st andrew conjures movie magic from yesteryear copy nurse practitioner kelsey st arnaud join north oak primary care in hammond joel boerkey named to the spring dean list at lincoln memorial university louisiana farm bureau elect officer during convention letter to the editor chinese communist party influence on american soil i cant stop using the ipad mini even though it a pretty boring update i tested this smart ipl device for athome hair removal and im never going to the salon again trial underway for ucla professor who refused to exercise compassion with racebased grading the google pixel tablet is a great slate that double a a smart display i tested the viral wavytalk thermal brush i didnt love it but here why you might egypt arrest famed belly dancer world focus the beijing olympics a pivotal moment for china key advisor called hunter bidens role on strategy call inappropriate after he overruled legal guidance letter to the editor dont pull plug on energy credit editorial cartoon for tuesday july</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="L11" t="n">
-        <v>0.133</v>
+        <v>0.08</v>
       </c>
       <c r="M11" t="n">
-        <v>0.727</v>
+        <v>0.779</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9615</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P11" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="S11" t="n">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="T11" t="n">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="U11" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="V11" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="W11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X11" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -1364,55 +1360,55 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>hot yield highlight energy midstream giant mplx advanced micro device earnings preview what to expect advanced micro device earnings preview what to expect vanguard smallcap value etf nysearcavbr share purchased by telos capital management inc kimberlyclark co nysekmb share acquired by telos capital management inc telos capital management inc make new million investment in te connectivity ltd nysetel stonebrook private inc purchase share of salesforce inc nysecrm telos capital management inc ha million stake in danaher corporation nysedhr cerity partner ocio llc buy share of ishares mb etf nasdaqmbb telos capital management inc ha million holding in deere company nysede keurig dr pepper inc nasdaqkdp share purchased by parr mcknight wealth management group llc stonebrook private inc purchase share of ishares core msci europe etf nysearcaieur capital insight partner llc lower holding in tractor supply company nasdaqtsco stonebrook private inc ha million stake in darden restaurant inc nysedri most u adult say child care cost are a major problem a new apnorc poll find sunrocket capital announces million financing for renewable energy project supporting ai and data center market united airline holding unusual option activity for july where comstock resource stand with analyst this is what whale are betting on palantir technology this is what whale are betting on celestica expert outlook associated banc through the eye of analyst olehenriksen launch peach glaze collection the juicy clinical result your skin craves application for jobless benefit fall to last week korean officer to receive imo highest bravery award for fishing vessel rescue nvidia ceo jensen huang could soon be richer than warren buffetthes worth billion now where federated hermes stand with analyst spotify technology nysespot is steadview capital management llcs th largest position marvell technology nasdaqmrvl now covered by the goldman sachs group applied material nasdaqamat coverage initiated by analyst at the goldman sachs group stryker corporation nysesyk share sold by aurdan capital management llc financial gravity asset management inc invests in ge aerospace nysege nvidia nasdaqnvda coverage initiated at the goldman sachs group applovin corporation nasdaqapp share sold by steadview capital management llc aurdan capital management llc trim stock position in stryker corporation nysesyk the analyst verdict molina healthcare in the eye of expert how kanava ai is bringing voice automation to industrial workflow an interview with smit dagli peering into borgwarners recent short interest what doe the market think about somnigroup international what analyst are saying about jdcom stock white house accuses powell of mismanaging federal reserve citing headquarters renovation what doe the market think about selective insurance gr wake up dead man a knife out mystery to open bfi london film festival beyond the number analyst discus verizon communication stock stock pressured by u trade policy uncertainty stock pressured by u trade policy uncertainty change in the supervisory and management board and audit committee of admiral market a trump loses appeal of million e jean carroll sexual abuse defamation verdict sun life u and dentaquest donate to support texas flooding relief effort spindrift partner with patricof co to welcome new wave of athlete investor brain monitoring market size to hit usd million by coherent market insight brain monitoring market size to hit usd million by coherent market insight ga telesis engine service gate usa spah launch leap engine quick turn service marking major capability expansion bigbank a extended the term of the supervisory board member hammond power solution announces second quarter financial result conference call and webcast notification china asean build new paradigm for regional cooperation temo inc achieved florida product approval for hurricaneresistant impact glass sunroom vixs premium with ad now available in directvs miespanol genre pack behavioral rehabilitation market surpasses usd billion in fueled by anxiety and substance abuse disorder hydroxyethyl cellulose market to surpass usd million by demand driven by expanding application in personal care construction and pharmaceutical oil price sink a iran and u resume nuclear talk research the gender wage gap tipping point hii to host second quarter earnings conference call and webcast on july packaging solution market valued at trillion and heading to trillion by spacelift raise m series c to redefine enterprise infrastructure automation consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement vishay intertechnology q result earnings call webcast detail exclusive nbcus super bowl ad now going for million helcim introduces it new smart terminal a faster sleeker smarter way to accept payment ine security launch enhanced emapt certification blockdags global launch release entry set it apart over bitcoin cash shiba inu american airline group announces webcast of secondquarter financial result consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement rapidscale start technology scholarship at wake tech proptech market to usd billion by owing to rising demand for digital real estate transaction and smart property solution report by sn insider trader weigh opec tariff and resilient demand change in the supervisory and management board and audit committee of admiral market a everyone know what broke in leverage ratio reform can fix it greenleaf trust grows holding in blackstone inc nysebx index fund advisor inc take position in servicenow inc nysenow axxcess wealth management llc ha million stock position in morgan stanley nysems parr mcknight wealth management group llc acquires share of vanguard total international bond etf nasdaqbndx peddock capital advisor llc ha million holding in thermo fisher scientific inc nysetmo index fund advisor inc make new million investment in vanguard total international stock etf nasdaqvxus financial review creditriskmonitorcom crmz versus it competitor parr mcknight wealth management group llc make new million investment in invesco bulletshares corporate bond etf nasdaqbscr this amd analyst turn bullish here are top upgrade for thursday dhls m expansion in uk and ireland novo nordisks quality testing site in china new mexico educational retirement board reduces stock position in copart inc nasdaqcprt axxcess wealth management llc lower stake in accenture plc nyseacn u capital wealth advisor llc ha million position in airbnb inc nasdaqabnb axxcess wealth management llc ha million position in philip morris international inc nysepm leavell investment management inc purchase share of caterpillar inc nysecat linden thomas advisory service llc acquires share of accenture plc nyseacn accenture plc nyseacn share sold by axxcess wealth management llc greenleaf trust sell share of norfolk southern corporation nysensc caterpillar inc nysecat share bought by leavell investment management inc hara capital llc sell share of united airline holding inc nasdaqual hara capital llc lower holding in or royalty inc nyseor abbvie nyseabbv v bayer aktiengesellschaft otcmktsbayry head to head contrast saba capital income opportunity fund ii nysesaba share sold by hara capital llc narus financial partner llc acquires new holding in decker outdoor corporation nysedeck cerity partner ocio llc trim holding in ishares year treasury bond etf nasdaqtlt parr mcknight wealth management group llc grows stake in salesforce inc nysecrm stonebrook private inc ha million stock position in best buy co inc nysebby stonebrook private inc boost stock position in darden restaurant inc nysedri albany veteran banned from boshart davis office sue iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech gop sen thom tillis say hegseth is out of his depth a defense secretary defcon ai achieves major rd milestone with launch of advanced theater distribution planning tool for talisman sabre financial gravity asset management inc acquires share of solventum corporation nysesolv sweeping bipartisan bill would nationalize standard for student athlete pay wake up dead man a knife out mystery to open bfi london film festival drone nerd debut ndaacompliant wingtraray fixedwing drone judge weighs motion to dismiss charge against a north adam man accused of killing his wife america greatest threat come from within letter to the editor beware of halftruths around direct primary care medicaid cut in trump tax bill will devastate access to care in rural pennsylvania critic say iranian supreme leader appears in public for first time since war the washington post latest antitrump commentator is a literal clown on onon and the competition head to head contrast analyzing saker aviation service skas and it rival greenleaf trust sell share of norfolk southern corporation nysensc astra wealth partner llc increase stock position in dimensional international core equity etf batsdfic hara capital llc decrease stock position in invesco rafi u etf nysearcaprf hara capital llc sell share of gildan activewear inc nysegil hara capital llc invests in delta air line inc nysedal hara capital llc decrease holding in saba capital income opportunity fund ii nysesaba astra wealth partner llc purchase share of ishares sp midcap value etf nysearcaijj hara capital llc ha holding in franklin ftse south korea etf nysearcaflkr hara capital llc cut stake in zoom communication inc nasdaqzm bxm wealth llc ha stock position in visa inc nysev exclusive ice nabs two m ringleader in midwest raid after testifying before congress on antisemitism cal poly hosted all day for palestine hara capital llc trim stock holding in bank of america corporation nysebac parr mcknight wealth management group llc ha million stock holding in vanguard total bond market etf nasdaqbnd financial gravity asset management inc purchase share of baring bdc inc nysebbdc parr mcknight wealth management group llc acquires share of sp global inc nysespgi axxcess wealth management llc sell share of intuitive surgical inc nasdaqisrg people financial service corp trim stock position in mastercard incorporated nysema general motor company nysegm share bought by tru independence llc union pacific corporation nyseunp share purchased by axxcess wealth management llc hara capital llc sell share of japan smaller capitalization fund inc nysejof the estee lauder company inc nyseel share sold by vision capital management inc narus financial partner llc invests in marsh mclennan company inc nysemmc vision capital management inc sell share of f inc nasdaqffiv the clorox company nyseclx share purchased by vision capital management inc vision capital management inc boost stake in carmax inc nysekmx franklin resource inc nyseben position reduced by code waechter llc vision capital management inc sell share of schwab international equity etf nysearcaschf people bank oh cut stock position in broadcom inc nasdaqavgo vision capital management inc sell share of ishares esg aware msci usa etf nasdaqesgu people bank oh sell share of ishares msci eafe etf nysearcaefa stonebrook private inc ha stake in dexcom inc nasdaqdxcm realty income corporation plan aug dividend of nyseo website serving harvard undergrad woman minority and lgbtq student taken down crimson report moloney security asset management llc decrease holding in elevance health inc nyseelv nisa investment advisor llc decrease stake in marriott international inc nasdaqmar nisa investment advisor llc sell share of synopsys inc nasdaqsnps mainstreet investment advisor llc ha million stock holding in ameriprise financial inc nyseamp nisa investment advisor llc sell share of ameriprise financial inc nyseamp stratos investment management llc purchase new position in fiserv inc nysefi nisa investment advisor llc ha million position in paypal holding inc nasdaqpypl mt bank corp ha million stock position in marriott international inc nasdaqmar financial gravity asset management inc invests million in intuit inc nasdaqintu superman star nathan fillion staunchly defends his character extreme hairstyle i wa team bowl cut the whole way federal judge again block end to birthright citizenship doncasters planned number of new secondary school place will not meet demand jane birkins original hermes bag go on sale drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop true vision mn llc make new investment in occidental petroleum corporation nyseoxy moloney security asset management llc sell share of northrop grumman corporation nysenoc trane technology plc nysett share sold by alpine wood capital investor llc alpine wood capital investor llc sell share of northrop grumman corporation nysenoc quotient wealth partner llc raise stake in trane technology plc nysett euna solution issue open letter introducing competition commitment to expand supplier participation for public procurement team deutsche bank aktiengesellschaft begin coverage on cinemark nysecnk share in shell plc unsponsored adr nyseshel purchased by pom investment strategy llc nxp semiconductor nasdaqnxpi and microchip technology nasdaqmchp critical analysis sekisui house skhsy and it rival critical comparison ishares sp smallcap growth etf nasdaqijt share acquired by code waechter llc financial comparison transocean nyserig and royale energy otcmktsroyl code waechter llc boost stock position in pacer u small cap cash cow etf batscalf analyzing zkh group nysezkh and taoping nasdaqtaop unitedhealth group incorporated nyseunh stake trimmed by code waechter llc northwest natural gas company nysenwn stock holding lessened by code waechter llc code waechter llc invests in the pnc financial service group inc nysepnc medtronic plc nysemdt position trimmed by code waechter llc dexterra group tsedxt set new year high time to buy mkango resource lonmka stock price down here why oracle power lonorcp share down here why</t>
+          <t>what you need to know ahead of arch capital earnings release what really killed the mill reason to buy ethereum before what to expect from leidos holding q earnings report successful couple do these thing in the morning that little hello go a long way relationship expert say in a world of bull and bear be the tiger s ai launch agentic capability in latest molecular universe release to increase value proposition for rd a a service we found the best amazon prime day deal after shopping thousand of offer cnn most fed official see rate cut coming but opinion vary widely on how many minute show fury intercept m of lio at the ninaaskumuwin discovery incorporation of boerne in lawmaker will investigate response to flood covered call screener result for july th texas just passed quantum computing legislation how should you play ionq stock here homebuyers finally responded after mortgage rate hit lowest level in three month cnbc palantir technology ha been the sp s hottest stock over the past year and it not even close can it incredible rally continue cybersecurity stock you can buy and hold for the next decade business newsline july amazon extends prime day discount to day trump medium file for crypto blue chip etf vibe coding ha arrived for business wsj this bigname adviser say avoiding crypto is now a more speculative investment move than buying it marketwatch trump threatened to bomb the s out of moscow to deter putin cnn trump big beautiful bill promise no tax on tip and overtime but there a limitheres who qualifies droit launch explore mode on it adept platform h room for optimism risk for complacency aes freeportmcmoran verona pharma intel aehr penguin solution and more mover barrons michelle obama i learned this great parenting tip from my mom and dadthey did a beautiful job modeling it bmw v mercedes u sale race there a clear leader in linda yaccarino step down a ceo of elon musk x dax push higher a eu edge closer to tariff deal with u the prime day deal you can still get the verge eli manning say he no longer interested in buying a piece of the nfls giant it too expensive for me merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merckcom walmart is selling a fantastic chromebook laptop for just and shopper love the touchscreen feature these word help teach kid critical thinking say michelle obama and psychologist malaysian pm warns southeast asia that trade war is not a passing storm quadmotor rivians arrive with wild power and wilder price apple can it catch up in the ai race a rival turn up the heat boomer are buying the highestyielding dividend champion handoverfist a o smith corporation nyseaos share purchased by private trust co na elon musk grok ai chatbot denies that it praised hitler and made antisemitic comment daily vickers top insider pick for hudson edge investment partner inc ha million stock position in jpmorgan chase co nysejpm private trust co na ha stock holding in coterra energy inc nysectra rosalia is new balance newest brand ambassador russia launch another record drone attack on ukraine ukrainian official say beware of scam that promise good pay for completing easy online task beware of scam that promise good pay for completing easy online task today top money market account rate for july rate hit current heloc home equity loan rate july highyield saving account rate today july rate are steady beware of scam that promise good pay for completing easy online task ap news bank of england flag global debt pressure despite market stabilization goldman demand an oath from junior banker to fend off private equity poaching bloomberg court block rule that would let you cancel subscription easily sp future tick higher a investor shrug off trump tariff threat fomc minute on tap today mortgage refinance rate july rate increase mortgage rate today july rate move up cd rate today july rate rise uae say the oil market is thirsty for more opec barrel proposed clermont subdivision would redesign deadly lakeshore drive exact science announces medicare coverage for oncodetecttm molecular residual disease test in colorectal cancer fresh del monte produce inc to report second quarter financial result trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty a new era of restaurant worker may earn sixfigure salary and benefit that no other industry can provide tesla board need ground rule for musk political activism analyst say samsung launch three new foldable smartphones a it fends off chinese rival trump tariff extension leaf bank fed in limbo hbo max is back prestige brand return to streaming corra group see rising demand from global investor for due diligence investigation market sputter after trump push tariff deadline xrp price forecast hit but insider are loading up on the new xrp that could go x auddia announces leadership change and special committee to evaluate business combination and restructuring a ai native holding company senate gop gear up for test on trump doge cut inside information orion upgrade fullyear outlook for social security sends million of american a misleading and blatantly political message see this shreveport director awardwinning screenplay red carpet premiere here how first atlantic nickel expands rpm zone awaruite nickelalloy nife discovery meter northern extension yield nickel concentrate over meter in dtr metallurgical recovery testing shreveport to kick off return of eleven store to louisiana more site planned two ragnarok ip title achieved top game ranking in taiwan hong kong and macau toast inc nysetost share acquired by da davidson co private trust co na ha stock holding in ge healthcare technology inc nasdaqgehc trump big beautiful bill slash cfpb funding what it mean for you davenport co llc sell share of fortive corporation nyseftv private trust co na acquires share of emcor group inc nyseeme you have less than month to claim the ev tax credit now is the time to buy say car expert this legend cross time zone with just pound of gear here are his favorite principal financial group inc increase stock position in zimmer biomet holding inc nysezbh mutual advisor llc buy share of trane technology plc nysett mutual advisor llc grows stock holding in decker outdoor corporation nysedeck first malaria drug for newborn and young infant expected to be approved in africa within week former rapid city anchor given suspended sentence in domestic assault case bank of england warns of high financial market risk despite easing tension kisti secures funding for national quantum center of excellence name ionq a primary quantum partner our opinion when the president punishes patriot wednesday letter a the world burn eye turn to diddy european court russia wa behind downing of mh watch popular podcaster discusses how kamala episode wa scrapped because she talked gibberish her own campaign wanted it canned fbi bust chinese national for multimillion dollar drug ring exploiting immigration system the president mean business trump admin sue california over transgender athlete policy other view state congressional delegation must fight cut to noaa burke county company say hildebran wont issue permit for train cabin business another voice buffalo garden vibrantly express a community soul trump admin subpoena harvard over foreign student misconduct campus radicalism george conway flag trump awkward new admission a fresh proof he a fool eu seek to finalize trade deal with trump by end of the month hawaii lawmaker demand immigration arrest briefing haleiwa development under council review state road usage charge begin for electric vehicle on july governor state budget veto trim public school maintenance hooser sbcd a travesty of process and policy senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college larger fight rage on but trump racking up win against college senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting larger fight rage on but trump racking up win against college jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college candace cameron bure say son biblebased pep talk helped save her marriage antiviolence advocate why not hold gun manufacturer accountable for mass shooting like river north tragedy letter chicago allows people to be who they want to be trump trade blitz produce few deal but lot of uncertainty laura washington the art institute is slowly getting back to normal georgia police arrest farmworkers then get warrant from dhs firearm testing and ballistics unit could be open in september at county forensics lab former dc fire official want to cut tax increase police presence with city council bid my view trekking pole can lend some mountainclimber swagger steve corbin give me liberty or a tinpot dictator scare buying reported in rochester why should legislator favor legal pot business california focus why should legislator favor legal pot business california focus editorial cartoon for july this legend cross time zone with just pound of gear here are his favorite which u president had wife named ellen and edith first malaria drug for newborn and young infant expected to be approved in africa within week red bull team principal christian horner fired after year with team after month stuck in the south north korean go home letter billion not served by trump big bill letter billion not served by trump big bill supreme court reject shielding identity of police attending jan capitol rally trump slam democrat over inflation narrative say he cut cost more than any president in history red bull team principal christan horner sacked after year with team letter no one is voting after result are known letter no one is voting after result are known here everything to expect at this family fun day in colnes alkincoates park robinhood ceo tokenization is a major innovation in capital market here who will and wont qualify for the new car loan interest deduction allegheny county council approves innamorato choice for shuman advisory board pittsburgh city council pass further protection for lgbtq people elon musk grok remove politically incorrect instruction after it praise hitler wa the flash flooding in texas preventable trump say tariff on pharmaceutical import could increase to percent threetime mvp nikola jokic will delay signing extension with nugget this summer ap source say trump boast about threat to bomb the st out of moscow in leaked audio charles warns small boat crisis is a profound challenge a he host macron at state banquet ahead of migrant deal newsom go big on holy grail reform other view newsom go big on holy grail reform other view supreme court allows trump administration to resume mass federal layoff for now suit challenge government effort to deport supporter of propalestinian protest invest america act give to every u newborn investment account dell ceo call it futureproofing prosperity sam altman asks for more stuff like this reader speak why i say thank you to uconn health center off the rail trump ramble in the middle of cabinet meeting is karat nonsense wall street trump taco trade ha a chicken and an egg problem meet the new national police force mamdanis farleft ally want to primary hakeem jeffries and other nyc democrat reader speak american tragedy is that those who are in power are inhumane congressional democrat push for new watchdog to oversee trump white house american need to work together to fix education weve both done it before on opposite side the search for the old lady pony continues tariff are already squeezing corporate margin new survey find ai is changing the world faster than most realize fencing wa a chore that we enjoyed texas is relying on fema state leader said it should be cut letter trump usaid action are evil letter trump usaid action are evil microsoft patch vulnerability including critical flaw in spnego and sql server</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>hot yield highlight energy midstream giant mplx advanced micro device earnings preview what to expect advanced micro device earnings preview what to expect vanguard smallcap value etf nysearcavbr share purchased by telos capital management inc kimberlyclark co nysekmb share acquired by telos capital management inc telos capital management inc make new million investment in te connectivity ltd nysetel stonebrook private inc purchase share of salesforce inc nysecrm telos capital management inc ha million stake in danaher corporation nysedhr cerity partner ocio llc buy share of ishares mb etf nasdaqmbb telos capital management inc ha million holding in deere company nysede keurig dr pepper inc nasdaqkdp share purchased by parr mcknight wealth management group llc stonebrook private inc purchase share of ishares core msci europe etf nysearcaieur capital insight partner llc lower holding in tractor supply company nasdaqtsco stonebrook private inc ha million stake in darden restaurant inc nysedri most u adult say child care cost are a major problem a new apnorc poll find sunrocket capital announces million financing for renewable energy project supporting ai and data center market united airline holding unusual option activity for july where comstock resource stand with analyst this is what whale are betting on palantir technology this is what whale are betting on celestica expert outlook associated banc through the eye of analyst olehenriksen launch peach glaze collection the juicy clinical result your skin craves application for jobless benefit fall to last week korean officer to receive imo highest bravery award for fishing vessel rescue nvidia ceo jensen huang could soon be richer than warren buffetthes worth billion now where federated hermes stand with analyst spotify technology nysespot is steadview capital management llcs th largest position marvell technology nasdaqmrvl now covered by the goldman sachs group applied material nasdaqamat coverage initiated by analyst at the goldman sachs group stryker corporation nysesyk share sold by aurdan capital management llc financial gravity asset management inc invests in ge aerospace nysege nvidia nasdaqnvda coverage initiated at the goldman sachs group applovin corporation nasdaqapp share sold by steadview capital management llc aurdan capital management llc trim stock position in stryker corporation nysesyk the analyst verdict molina healthcare in the eye of expert how kanava ai is bringing voice automation to industrial workflow an interview with smit dagli peering into borgwarners recent short interest what doe the market think about somnigroup international what analyst are saying about jdcom stock white house accuses powell of mismanaging federal reserve citing headquarters renovation what doe the market think about selective insurance gr wake up dead man a knife out mystery to open bfi london film festival beyond the number analyst discus verizon communication stock stock pressured by u trade policy uncertainty stock pressured by u trade policy uncertainty change in the supervisory and management board and audit committee of admiral market a trump loses appeal of million e jean carroll sexual abuse defamation verdict sun life u and dentaquest donate to support texas flooding relief effort spindrift partner with patricof co to welcome new wave of athlete investor brain monitoring market size to hit usd million by coherent market insight brain monitoring market size to hit usd million by coherent market insight ga telesis engine service gate usa spah launch leap engine quick turn service marking major capability expansion bigbank a extended the term of the supervisory board member hammond power solution announces second quarter financial result conference call and webcast notification china asean build new paradigm for regional cooperation temo inc achieved florida product approval for hurricaneresistant impact glass sunroom vixs premium with ad now available in directvs miespanol genre pack behavioral rehabilitation market surpasses usd billion in fueled by anxiety and substance abuse disorder hydroxyethyl cellulose market to surpass usd million by demand driven by expanding application in personal care construction and pharmaceutical oil price sink a iran and u resume nuclear talk research the gender wage gap tipping point hii to host second quarter earnings conference call and webcast on july packaging solution market valued at trillion and heading to trillion by spacelift raise m series c to redefine enterprise infrastructure automation consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement vishay intertechnology q result earnings call webcast detail exclusive nbcus super bowl ad now going for million helcim introduces it new smart terminal a faster sleeker smarter way to accept payment ine security launch enhanced emapt certification blockdags global launch release entry set it apart over bitcoin cash shiba inu american airline group announces webcast of secondquarter financial result consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement rapidscale start technology scholarship at wake tech proptech market to usd billion by owing to rising demand for digital real estate transaction and smart property solution report by sn insider trader weigh opec tariff and resilient demand change in the supervisory and management board and audit committee of admiral market a everyone know what broke in leverage ratio reform can fix it greenleaf trust grows holding in blackstone inc nysebx index fund advisor inc take position in servicenow inc nysenow axxcess wealth management llc ha million stock position in morgan stanley nysems parr mcknight wealth management group llc acquires share of vanguard total international bond etf nasdaqbndx peddock capital advisor llc ha million holding in thermo fisher scientific inc nysetmo index fund advisor inc make new million investment in vanguard total international stock etf nasdaqvxus financial review creditriskmonitorcom crmz versus it competitor parr mcknight wealth management group llc make new million investment in invesco bulletshares corporate bond etf nasdaqbscr this amd analyst turn bullish here are top upgrade for thursday dhls m expansion in uk and ireland novo nordisks quality testing site in china new mexico educational retirement board reduces stock position in copart inc nasdaqcprt axxcess wealth management llc lower stake in accenture plc nyseacn u capital wealth advisor llc ha million position in airbnb inc nasdaqabnb axxcess wealth management llc ha million position in philip morris international inc nysepm leavell investment management inc purchase share of caterpillar inc nysecat linden thomas advisory service llc acquires share of accenture plc nyseacn accenture plc nyseacn share sold by axxcess wealth management llc greenleaf trust sell share of norfolk southern corporation nysensc caterpillar inc nysecat share bought by leavell investment management inc hara capital llc sell share of united airline holding inc nasdaqual hara capital llc lower holding in or royalty inc nyseor abbvie nyseabbv v bayer aktiengesellschaft otcmktsbayry head to head contrast saba capital income opportunity fund ii nysesaba share sold by hara capital llc narus financial partner llc acquires new holding in decker outdoor corporation nysedeck cerity partner ocio llc trim holding in ishares year treasury bond etf nasdaqtlt parr mcknight wealth management group llc grows stake in salesforce inc nysecrm stonebrook private inc ha million stock position in best buy co inc nysebby stonebrook private inc boost stock position in darden restaurant inc nysedri albany veteran banned from boshart davis office sue iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech gop sen thom tillis say hegseth is out of his depth a defense secretary defcon ai achieves major rd milestone with launch of advanced theater distribution planning tool for talisman sabre financial gravity asset management inc acquires share of solventum corporation nysesolv sweeping bipartisan bill would nationalize standard for student athlete pay wake up dead man a knife out mystery to open bfi london film festival drone nerd debut ndaacompliant wingtraray fixedwing drone judge weighs motion to dismiss charge against a north adam man accused of killing his wife america greatest threat come from within letter to the editor beware of halftruths around direct primary care medicaid cut in trump tax bill will devastate access to care in rural pennsylvania critic say iranian supreme leader appears in public for first time since war the washington post latest antitrump commentator is a literal clown on onon and the competition head to head contrast analyzing saker aviation service skas and it rival greenleaf trust sell share of norfolk southern corporation nysensc astra wealth partner llc increase stock position in dimensional international core equity etf batsdfic hara capital llc decrease stock position in invesco rafi u etf nysearcaprf hara capital llc sell share of gildan activewear inc nysegil hara capital llc invests in delta air line inc nysedal hara capital llc decrease holding in saba capital income opportunity fund ii nysesaba astra wealth partner llc purchase share of ishares sp midcap value etf nysearcaijj hara capital llc ha holding in franklin ftse south korea etf nysearcaflkr hara capital llc cut stake in zoom communication inc nasdaqzm bxm wealth llc ha stock position in visa inc nysev exclusive ice nabs two m ringleader in midwest raid after testifying before congress on antisemitism cal poly hosted all day for palestine hara capital llc trim stock holding in bank of america corporation nysebac parr mcknight wealth management group llc ha million stock holding in vanguard total bond market etf nasdaqbnd financial gravity asset management inc purchase share of baring bdc inc nysebbdc parr mcknight wealth management group llc acquires share of sp global inc nysespgi axxcess wealth management llc sell share of intuitive surgical inc nasdaqisrg people financial service corp trim stock position in mastercard incorporated nysema general motor company nysegm share bought by tru independence llc union pacific corporation nyseunp share purchased by axxcess wealth management llc hara capital llc sell share of japan smaller capitalization fund inc nysejof the estee lauder company inc nyseel share sold by vision capital management inc narus financial partner llc invests in marsh mclennan company inc nysemmc vision capital management inc sell share of f inc nasdaqffiv the clorox company nyseclx share purchased by vision capital management inc vision capital management inc boost stake in carmax inc nysekmx franklin resource inc nyseben position reduced by code waechter llc vision capital management inc sell share of schwab international equity etf nysearcaschf people bank oh cut stock position in broadcom inc nasdaqavgo vision capital management inc sell share of ishares esg aware msci usa etf nasdaqesgu people bank oh sell share of ishares msci eafe etf nysearcaefa stonebrook private inc ha stake in dexcom inc nasdaqdxcm realty income corporation plan aug dividend of nyseo website serving harvard undergrad woman minority and lgbtq student taken down crimson report moloney security asset management llc decrease holding in elevance health inc nyseelv nisa investment advisor llc decrease stake in marriott international inc nasdaqmar nisa investment advisor llc sell share of synopsys inc nasdaqsnps mainstreet investment advisor llc ha million stock holding in ameriprise financial inc nyseamp nisa investment advisor llc sell share of ameriprise financial inc nyseamp stratos investment management llc purchase new position in fiserv inc nysefi nisa investment advisor llc ha million position in paypal holding inc nasdaqpypl mt bank corp ha million stock position in marriott international inc nasdaqmar financial gravity asset management inc invests million in intuit inc nasdaqintu superman star nathan fillion staunchly defends his character extreme hairstyle i wa team bowl cut the whole way federal judge again block end to birthright citizenship doncasters planned number of new secondary school place will not meet demand jane birkins original hermes bag go on sale drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop true vision mn llc make new investment in occidental petroleum corporation nyseoxy moloney security asset management llc sell share of northrop grumman corporation nysenoc trane technology plc nysett share sold by alpine wood capital investor llc alpine wood capital investor llc sell share of northrop grumman corporation nysenoc quotient wealth partner llc raise stake in trane technology plc nysett euna solution issue open letter introducing competition commitment to expand supplier participation for public procurement team deutsche bank aktiengesellschaft begin coverage on cinemark nysecnk share in shell plc unsponsored adr nyseshel purchased by pom investment strategy llc nxp semiconductor nasdaqnxpi and microchip technology nasdaqmchp critical analysis sekisui house skhsy and it rival critical comparison ishares sp smallcap growth etf nasdaqijt share acquired by code waechter llc financial comparison transocean nyserig and royale energy otcmktsroyl code waechter llc boost stock position in pacer u small cap cash cow etf batscalf analyzing zkh group nysezkh and taoping nasdaqtaop unitedhealth group incorporated nyseunh stake trimmed by code waechter llc northwest natural gas company nysenwn stock holding lessened by code waechter llc code waechter llc invests in the pnc financial service group inc nysepnc medtronic plc nysemdt position trimmed by code waechter llc dexterra group tsedxt set new year high time to buy mkango resource lonmka stock price down here why oracle power lonorcp share down here why</t>
+          <t>what you need to know ahead of arch capital earnings release what really killed the mill reason to buy ethereum before what to expect from leidos holding q earnings report successful couple do these thing in the morning that little hello go a long way relationship expert say in a world of bull and bear be the tiger s ai launch agentic capability in latest molecular universe release to increase value proposition for rd a a service we found the best amazon prime day deal after shopping thousand of offer cnn most fed official see rate cut coming but opinion vary widely on how many minute show fury intercept m of lio at the ninaaskumuwin discovery incorporation of boerne in lawmaker will investigate response to flood covered call screener result for july th texas just passed quantum computing legislation how should you play ionq stock here homebuyers finally responded after mortgage rate hit lowest level in three month cnbc palantir technology ha been the sp s hottest stock over the past year and it not even close can it incredible rally continue cybersecurity stock you can buy and hold for the next decade business newsline july amazon extends prime day discount to day trump medium file for crypto blue chip etf vibe coding ha arrived for business wsj this bigname adviser say avoiding crypto is now a more speculative investment move than buying it marketwatch trump threatened to bomb the s out of moscow to deter putin cnn trump big beautiful bill promise no tax on tip and overtime but there a limitheres who qualifies droit launch explore mode on it adept platform h room for optimism risk for complacency aes freeportmcmoran verona pharma intel aehr penguin solution and more mover barrons michelle obama i learned this great parenting tip from my mom and dadthey did a beautiful job modeling it bmw v mercedes u sale race there a clear leader in linda yaccarino step down a ceo of elon musk x dax push higher a eu edge closer to tariff deal with u the prime day deal you can still get the verge eli manning say he no longer interested in buying a piece of the nfls giant it too expensive for me merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merck to acquire verona pharma expanding it portfolio to include ohtuvayre ensifentrine a firstinclass copd maintenance treatment for adult and expected to drive growth into the next decade merckcom walmart is selling a fantastic chromebook laptop for just and shopper love the touchscreen feature these word help teach kid critical thinking say michelle obama and psychologist malaysian pm warns southeast asia that trade war is not a passing storm quadmotor rivians arrive with wild power and wilder price apple can it catch up in the ai race a rival turn up the heat boomer are buying the highestyielding dividend champion handoverfist a o smith corporation nyseaos share purchased by private trust co na elon musk grok ai chatbot denies that it praised hitler and made antisemitic comment daily vickers top insider pick for hudson edge investment partner inc ha million stock position in jpmorgan chase co nysejpm private trust co na ha stock holding in coterra energy inc nysectra rosalia is new balance newest brand ambassador russia launch another record drone attack on ukraine ukrainian official say beware of scam that promise good pay for completing easy online task beware of scam that promise good pay for completing easy online task today top money market account rate for july rate hit current heloc home equity loan rate july highyield saving account rate today july rate are steady beware of scam that promise good pay for completing easy online task ap news bank of england flag global debt pressure despite market stabilization goldman demand an oath from junior banker to fend off private equity poaching bloomberg court block rule that would let you cancel subscription easily sp future tick higher a investor shrug off trump tariff threat fomc minute on tap today mortgage refinance rate july rate increase mortgage rate today july rate move up cd rate today july rate rise uae say the oil market is thirsty for more opec barrel proposed clermont subdivision would redesign deadly lakeshore drive exact science announces medicare coverage for oncodetecttm molecular residual disease test in colorectal cancer fresh del monte produce inc to report second quarter financial result trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty trump trade blitz produce few deal but lot of uncertainty a new era of restaurant worker may earn sixfigure salary and benefit that no other industry can provide tesla board need ground rule for musk political activism analyst say samsung launch three new foldable smartphones a it fends off chinese rival trump tariff extension leaf bank fed in limbo hbo max is back prestige brand return to streaming corra group see rising demand from global investor for due diligence investigation market sputter after trump push tariff deadline xrp price forecast hit but insider are loading up on the new xrp that could go x auddia announces leadership change and special committee to evaluate business combination and restructuring a ai native holding company senate gop gear up for test on trump doge cut inside information orion upgrade fullyear outlook for social security sends million of american a misleading and blatantly political message see this shreveport director awardwinning screenplay red carpet premiere here how first atlantic nickel expands rpm zone awaruite nickelalloy nife discovery meter northern extension yield nickel concentrate over meter in dtr metallurgical recovery testing shreveport to kick off return of eleven store to louisiana more site planned two ragnarok ip title achieved top game ranking in taiwan hong kong and macau toast inc nysetost share acquired by da davidson co private trust co na ha stock holding in ge healthcare technology inc nasdaqgehc trump big beautiful bill slash cfpb funding what it mean for you davenport co llc sell share of fortive corporation nyseftv private trust co na acquires share of emcor group inc nyseeme you have less than month to claim the ev tax credit now is the time to buy say car expert this legend cross time zone with just pound of gear here are his favorite principal financial group inc increase stock position in zimmer biomet holding inc nysezbh mutual advisor llc buy share of trane technology plc nysett mutual advisor llc grows stock holding in decker outdoor corporation nysedeck first malaria drug for newborn and young infant expected to be approved in africa within week former rapid city anchor given suspended sentence in domestic assault case bank of england warns of high financial market risk despite easing tension kisti secures funding for national quantum center of excellence name ionq a primary quantum partner our opinion when the president punishes patriot wednesday letter a the world burn eye turn to diddy european court russia wa behind downing of mh watch popular podcaster discusses how kamala episode wa scrapped because she talked gibberish her own campaign wanted it canned fbi bust chinese national for multimillion dollar drug ring exploiting immigration system the president mean business trump admin sue california over transgender athlete policy other view state congressional delegation must fight cut to noaa burke county company say hildebran wont issue permit for train cabin business another voice buffalo garden vibrantly express a community soul trump admin subpoena harvard over foreign student misconduct campus radicalism george conway flag trump awkward new admission a fresh proof he a fool eu seek to finalize trade deal with trump by end of the month hawaii lawmaker demand immigration arrest briefing haleiwa development under council review state road usage charge begin for electric vehicle on july governor state budget veto trim public school maintenance hooser sbcd a travesty of process and policy senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college larger fight rage on but trump racking up win against college senate gop gear up for test on trump doge cut senate gop gear up for test on trump doge cut tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani tea party patriot to push lawmaker on noncitizen voting jewish democrat in congress sound the alarm on mamdani senate gop gear up for test on trump doge cut larger fight rage on but trump racking up win against college tea party patriot to push lawmaker on noncitizen voting larger fight rage on but trump racking up win against college jewish democrat in congress sound the alarm on mamdani larger fight rage on but trump racking up win against college candace cameron bure say son biblebased pep talk helped save her marriage antiviolence advocate why not hold gun manufacturer accountable for mass shooting like river north tragedy letter chicago allows people to be who they want to be trump trade blitz produce few deal but lot of uncertainty laura washington the art institute is slowly getting back to normal georgia police arrest farmworkers then get warrant from dhs firearm testing and ballistics unit could be open in september at county forensics lab former dc fire official want to cut tax increase police presence with city council bid my view trekking pole can lend some mountainclimber swagger steve corbin give me liberty or a tinpot dictator scare buying reported in rochester why should legislator favor legal pot business california focus why should legislator favor legal pot business california focus editorial cartoon for july this legend cross time zone with just pound of gear here are his favorite which u president had wife named ellen and edith first malaria drug for newborn and young infant expected to be approved in africa within week red bull team principal christian horner fired after year with team after month stuck in the south north korean go home letter billion not served by trump big bill letter billion not served by trump big bill supreme court reject shielding identity of police attending jan capitol rally trump slam democrat over inflation narrative say he cut cost more than any president in history red bull team principal christan horner sacked after year with team letter no one is voting after result are known letter no one is voting after result are known here everything to expect at this family fun day in colnes alkincoates park robinhood ceo tokenization is a major innovation in capital market here who will and wont qualify for the new car loan interest deduction allegheny county council approves innamorato choice for shuman advisory board pittsburgh city council pass further protection for lgbtq people elon musk grok remove politically incorrect instruction after it praise hitler wa the flash flooding in texas preventable trump say tariff on pharmaceutical import could increase to percent threetime mvp nikola jokic will delay signing extension with nugget this summer ap source say trump boast about threat to bomb the st out of moscow in leaked audio charles warns small boat crisis is a profound challenge a he host macron at state banquet ahead of migrant deal newsom go big on holy grail reform other view newsom go big on holy grail reform other view supreme court allows trump administration to resume mass federal layoff for now suit challenge government effort to deport supporter of propalestinian protest invest america act give to every u newborn investment account dell ceo call it futureproofing prosperity sam altman asks for more stuff like this reader speak why i say thank you to uconn health center off the rail trump ramble in the middle of cabinet meeting is karat nonsense wall street trump taco trade ha a chicken and an egg problem meet the new national police force mamdanis farleft ally want to primary hakeem jeffries and other nyc democrat reader speak american tragedy is that those who are in power are inhumane congressional democrat push for new watchdog to oversee trump white house american need to work together to fix education weve both done it before on opposite side the search for the old lady pony continues tariff are already squeezing corporate margin new survey find ai is changing the world faster than most realize fencing wa a chore that we enjoyed texas is relying on fema state leader said it should be cut letter trump usaid action are evil letter trump usaid action are evil microsoft patch vulnerability including critical flaw in spnego and sql server</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.165</v>
+        <v>0.14</v>
       </c>
       <c r="L12" t="n">
-        <v>0.058</v>
+        <v>0.133</v>
       </c>
       <c r="M12" t="n">
-        <v>0.777</v>
+        <v>0.727</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9997</v>
+        <v>0.9615</v>
       </c>
       <c r="O12" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="S12" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="T12" t="n">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="U12" t="n">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="V12" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="X12" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -1442,55 +1438,55 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>time run out for nearly centuryold michigan clock company due to tariff other factor ap news sage rhino capital llc sell share of shell plc unsponsored adr nyseshel vanguard total stock market etf nysearcavti position increased by seamount financial group inc sage rhino capital llc acquires share of vanguard total stock market etf nysearcavti kesler norman wride llc boost stake in broadcom inc nasdaqavgo genus capital management inc invests million in ishares msci eafe etf nysearcaefa sage rhino capital llc buy share of broadcom inc nasdaqavgo vanguard total stock market etf nysearcavti is clarity wealth advisor llcs rd largest position seamount financial group inc buy share of vanguard dividend appreciation etf nysearcavig state of michigan retirement system ha million stock holding in chubb limited nysecb state of michigan retirement system ha million position in lam research corporation nasdaqlrcx clarity wealth advisor llc reduces holding in the walt disney company nysedis genus capital management inc make new investment in ishares msci eafe etf nysearcaefa kesler norman wride llc buy share of vanguard information technology etf nysearcavgt chubb limited nysecb share sold by state of michigan retirement system sage rhino capital llc purchase share of broadcom inc nasdaqavgo state of michigan retirement system decrease stake in lam research corporation nasdaqlrcx seamount financial group inc raise stock holding in vanguard dividend appreciation etf nysearcavig think quantum computing will be the next big thing these are the stock to buy today boss quietly veto devastating law that may pull the rug out on american and thousand would lose cash ford recall vehicle over fuel pump defect manufacturing layoff at pacira oak hill bios phase angelman data france launch criminal investigation into musk x over algorithm manipulation politicoeu trump million crypto mystery man reuters buy the dip win again for stock investor rockwell automation pharmasuite power sinteticas swiss drug production teledyne raymarine acquires maretron asset to boost marine automation cummins unveils new hydrogen turbocharger for european heavyduty engine dover techcon unveils new precision dispensing cartridge for key industry carrier global enhances aipowered abound app for proactive building management trane technology debut first u dynamic closed loop geothermal system in chicago school district johnson control sensormatic solution launch aipowered shopper tracking with privacyfirst reid technology goldman sachs mustbuy chip stock and a few you should forget honeywell explores sale of two division ahead of planned split raytheon from rtx demonstrates autonomous barracuda mine neutralization vehicle gmbacked energyx expands lithium holding in u smackover formation with pantera acquisition boeing win b space force contract for nextgen nuclear comms satellite penguin solution launch nextgen stratus ztc endurance for ultrahigh availability ai workload clarivate unveils enhanced g research innovation scorecard with expanded data ai insight xerox completes b lexmark acquisition support print market position globant suntory global spirit partner to deploy gen ai commercial insight agent concentrix half carbon emission target by detail progress in sustainability report dxc technology aipowered tendia solution slash bid writing time for ventia genpact launch aipowered ap suite to revolutionize account payable process kyndryl launch new aipowered service to accelerate mainframe migration to aws saic awarded m air force contract for rapid warfighting prototype development shopper can now buy a bjs membership for just a year in new deal it cheaper than rival sam club u bank set to post trading gain on trump tariff turmoil cognizant pledge to white house ai education initiative aim to train m by education department to resume interest accrual on million student loan borrower rtx corporation nysertx stake reduced by cfolife group llc fonville wealth management llc cut stake in costco wholesale corporation nasdaqcost kesler norman wride llc acquires share of invesco qqq nasdaqqqq bernardo wealth planning llc cut stock holding in alphabet inc nasdaqgoog nextera energy inc nysenee holding lifted by cerity partner llc leavell investment management inc reduces position in ishares core u aggregate bond etf nysearcaagg leavell investment management inc raise stake in uber technology inc nyseuber fonville wealth management llc sell share of southern company the nyseso cerity partner llc boost holding in invesco qqq nasdaqqqq capital insight partner llc raise stock holding in freeportmcmoran inc nysefcx kesler norman wride llc sell share of stryker corporation nysesyk costco wholesale corporation nasdaqcost share sold by alp advisor inc fonville wealth management llc increase stake in vanguard growth etf nysearcavug capital insight partner llc acquires share of freeportmcmoran inc nysefcx kesler norman wride llc increase stock holding in linde plc nasdaqlin phillips financial management llc sell share of schwab u largecap etf nysearcaschx financial gravity asset management inc purchase new position in costco wholesale corporation nasdaqcost kesler norman wride llc sell share of stryker corporation nysesyk parr mcknight wealth management group llc trim holding in spdr gold share nysearcagld cerity partner llc trim stock position in adobe inc nasdaqadbe uk business confidence plummet to threeyear low icaew walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid wall street giant issue stark message on sp walmart recall water bottle after two consumer suffer vision loss from ejecting lid ap news nikki bella discusses wwe evolution looking at ge vernovas recent unusual option activity check out what whale are doing with citigroup analyzing broadcom in comparison to competitor in semiconductor semiconductor equipment industry chief executive officer of integral ad science holdi sold k in stock italianstyle villa in south minneapolis linden hill listed for m sell alert aaron yeon ho lee cash out m in acushnet holding stock sell alert kevin chang keun yoon cash out m in acushnet holding stock allworth financial lp raise holding in pepsico inc nasdaqpep state of michigan retirement system ha million holding in philip morris international inc nysepm state of michigan retirement system sell share of intuit inc nasdaqintu cisco system inc nasdaqcsco share sold by state of michigan retirement system state of michigan retirement system sell share of pepsico inc nasdaqpep leavell investment management inc sell share of merck co inc nysemrk mjp associate inc adv increase stake in invesco sp equal weight etf nysearcarsp state of michigan retirement system cut stake in merck co inc nysemrk state of michigan retirement system reduces holding in ishares core sp midcap etf nysearcaijh merck co inc nysemrk stake reduced by leavell investment management inc insider decision gene soo yoon yoon offloads m worth of acushnet holding stock lacroix announces new partnership with the dallas wing wnba team royal caribbean take delivery of world largest cruise ship insider decision tod e carpenter exercise option at donaldson for m evaluating apple against peer in technology hardware storage peripheral industry clarity wealth advisor llc sell share of the walt disney company nysedis state of michigan retirement system reduces stock holding in cme group inc nasdaqcme state of michigan retirement system ha million stock holding in palo alto network inc nasdaqpanw sage rhino capital llc cut position in vanguard ftse allworld exus etf nysearcaveu cfc planning co llc ha million stake in the walt disney company nysedis parr mcknight wealth management group llc sell share of spdr gold share nysearcagld kesler norman wride llc ha million position in fortinet inc nasdaqftnt round rock advisor llc purchase share of verizon communication inc nysevz financial gravity asset management inc buy share of costco wholesale corporation nasdaqcost phillips financial management llc sell share of schwab u largecap etf nysearcaschx round rock advisor llc ha stock holding in salesforce inc nysecrm kesler norman wride llc buy share of linde plc nasdaqlin omb director question powell over fed hq renovation spending perfektblue bluetooth vulnerability expose million of vehicle to remote code execution trump doing all the thing he said he would bondi or bongino bongino wont remain at fbi if bondi keep job source say u is selling weapon to nato ally to give to ukraine trump say ishares core sp midcap etf nysearcaijh share sold by state of michigan retirement system kla corporation nasdaqklac share bought by mjp associate inc adv state of michigan retirement system ha million stock position in merck co inc nysemrk veteran political reporter reveals what the medium missed about trump appeal to american in back to back barrie could the antisemitism plan be used to silence dissent podcast the special envoy plan is the latest push to weaponise antisemitism a a relentless campaign pay off louise adler albanese must be careful that tackling antisemitism doesnt curb free speech tom mcilroy virginia rep john mcguire bought over k worth of meta platform stock here what you should know congressional trading report rep susie lee sold over k in full house resort stock state right to sue over medical privacy state right to sue over medical privacy state right to sue over medical privacy california rep gilbert ray cisneros sold over k worth of springworks therapeutic inc ordinary share stock here what you should know laurel libby stood strong in the face of tyranny letter beth claybourn interior trump new front in the war on drug the bank the u air force want million to double production of the aim missile new themed playground equipment officially open for use in two lake charles park steve mann more on the aftermath of magees time in san bruno new england professional planning group inc reduces holding in international business machine corporation nyseibm pfizer inc nysepfe share sold by new england professional planning group inc diversify wealth management llc buy share of cocacola company the nyseko bipartisan legislation aim to legalize adultuse cannabis in pennsylvania cerity partner llc boost holding in mcdonalds corporation nysemcd mjp associate inc adv raise stock position in mcdonalds corporation nysemcd mcdonalds corporation nysemcd share purchased by freedom day solution llc moloney security asset management llc buy share of vanguard total bond market etf nasdaqbnd benny blanco ha made so much music he ha to shazam his own tune elv deadline today rosen leading trial attorney encourages elevance health inc investor epstein conspiracy just isnt there teacher union reveals true color and more from fox news opinion stratos wealth advisor llc trim stock position in the goldman sachs group inc nysegs freedom day solution llc decrease stock holding in amgen inc nasdaqamgn lbp am sa sell share of visa inc nysev the mindful minute by jon heydenreich that martini and megaburger u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say greater midwest financial group llc purchase share of vanguard sp etf nysearcavoo barry investment advisor llc sell share of vanguard ftse emerging market etf nysearcavwo state department is firing over employee under trump administration plan rubio and wang stress cooperation after talk in malaysia a uschina tension simmer diversify wealth management llc buy share of ishares u treasury bond etf batsgovt cromwell holding llc decrease stake in micron technology inc nasdaqmu vanguard value etf nysearcavtv share sold by ade llc chevron corporation nysecvx share purchased by diversify wealth management llc cromwell holding llc raise stake in monolithic power system inc nasdaqmpwr church street road closure extended in brattleboro u is selling weapon to nato ally to give to ukraine trump say noqualifyjpg bill to clarify st louis sheriff duty stall in committee strategist flag very unusual trump admin loyalty test on cnn fidelis capital partner llc ha million stake in thermo fisher scientific inc nysetmo pkk fighter pile up their weapon in arm amnesty in northern iraq brazil vow retaliatory tariff against u if trump follows through on import tax new pac form to back mamdani nyc mayoral bid a business community rally to defeat him history program highlight the map and stone wall of dummerson financial gravity asset management inc buy new position in ishares tip bond etf nysearcatip phillips financial management llc increase holding in vanguard ftse developed market etf nysearcavea trump plan to hike tariff on canadian good to trump plan to tour texas flood damage a the scope of the disaster test his pledge to shutter fema trump plan to hike tariff on canadian good to ishares msci emerging market etf nysearcaeem share sold by ramsay stattman vela price inc burford brother inc raise position in the sherwinwilliams company nyseshw spdr dow jones industrial average etf trust nysearcadia position lifted by christopher j hasenberg inc genus capital management inc invests million in the sherwinwilliams company nyseshw state department to axe employee state of michigan retirement system boost stock position in prologis inc nysepld advanced micro device inc nasdaqamd share purchased by clarity wealth advisor llc seamount financial group inc sell share of vanguard total world stock etf nysearcavt share in vaneck gold miner etf nysearcagdx acquired by sage rhino capital llc vestia personal wealth advisor increase position in dimensional u marketwide value etf nysearcadfuv milwaukee remove fonzie statue amid reckoning with greaser past noqualifyingjpg exxon mobil corporation nysexom share sold by pineridge advisor llc cfolife group llc buy share of ge aerospace nysege stonebrook private inc buy share of vanguard total stock market etf nysearcavti allworth financial lp grows position in united parcel service inc nyseups cerity partner llc sell share of adobe inc nasdaqadbe adobe inc nasdaqadbe holding lowered by xponance inc honeywell international inc nasdaqhon share bought by kesler norman wride llc amphenol corporation nyseaph position boosted by cerity partner llc</t>
+          <t>hot yield highlight energy midstream giant mplx advanced micro device earnings preview what to expect advanced micro device earnings preview what to expect vanguard smallcap value etf nysearcavbr share purchased by telos capital management inc kimberlyclark co nysekmb share acquired by telos capital management inc telos capital management inc make new million investment in te connectivity ltd nysetel stonebrook private inc purchase share of salesforce inc nysecrm telos capital management inc ha million stake in danaher corporation nysedhr cerity partner ocio llc buy share of ishares mb etf nasdaqmbb telos capital management inc ha million holding in deere company nysede keurig dr pepper inc nasdaqkdp share purchased by parr mcknight wealth management group llc stonebrook private inc purchase share of ishares core msci europe etf nysearcaieur capital insight partner llc lower holding in tractor supply company nasdaqtsco stonebrook private inc ha million stake in darden restaurant inc nysedri most u adult say child care cost are a major problem a new apnorc poll find sunrocket capital announces million financing for renewable energy project supporting ai and data center market united airline holding unusual option activity for july where comstock resource stand with analyst this is what whale are betting on palantir technology this is what whale are betting on celestica expert outlook associated banc through the eye of analyst olehenriksen launch peach glaze collection the juicy clinical result your skin craves application for jobless benefit fall to last week korean officer to receive imo highest bravery award for fishing vessel rescue nvidia ceo jensen huang could soon be richer than warren buffetthes worth billion now where federated hermes stand with analyst spotify technology nysespot is steadview capital management llcs th largest position marvell technology nasdaqmrvl now covered by the goldman sachs group applied material nasdaqamat coverage initiated by analyst at the goldman sachs group stryker corporation nysesyk share sold by aurdan capital management llc financial gravity asset management inc invests in ge aerospace nysege nvidia nasdaqnvda coverage initiated at the goldman sachs group applovin corporation nasdaqapp share sold by steadview capital management llc aurdan capital management llc trim stock position in stryker corporation nysesyk the analyst verdict molina healthcare in the eye of expert how kanava ai is bringing voice automation to industrial workflow an interview with smit dagli peering into borgwarners recent short interest what doe the market think about somnigroup international what analyst are saying about jdcom stock white house accuses powell of mismanaging federal reserve citing headquarters renovation what doe the market think about selective insurance gr wake up dead man a knife out mystery to open bfi london film festival beyond the number analyst discus verizon communication stock stock pressured by u trade policy uncertainty stock pressured by u trade policy uncertainty change in the supervisory and management board and audit committee of admiral market a trump loses appeal of million e jean carroll sexual abuse defamation verdict sun life u and dentaquest donate to support texas flooding relief effort spindrift partner with patricof co to welcome new wave of athlete investor brain monitoring market size to hit usd million by coherent market insight brain monitoring market size to hit usd million by coherent market insight ga telesis engine service gate usa spah launch leap engine quick turn service marking major capability expansion bigbank a extended the term of the supervisory board member hammond power solution announces second quarter financial result conference call and webcast notification china asean build new paradigm for regional cooperation temo inc achieved florida product approval for hurricaneresistant impact glass sunroom vixs premium with ad now available in directvs miespanol genre pack behavioral rehabilitation market surpasses usd billion in fueled by anxiety and substance abuse disorder hydroxyethyl cellulose market to surpass usd million by demand driven by expanding application in personal care construction and pharmaceutical oil price sink a iran and u resume nuclear talk research the gender wage gap tipping point hii to host second quarter earnings conference call and webcast on july packaging solution market valued at trillion and heading to trillion by spacelift raise m series c to redefine enterprise infrastructure automation consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement vishay intertechnology q result earnings call webcast detail exclusive nbcus super bowl ad now going for million helcim introduces it new smart terminal a faster sleeker smarter way to accept payment ine security launch enhanced emapt certification blockdags global launch release entry set it apart over bitcoin cash shiba inu american airline group announces webcast of secondquarter financial result consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement rapidscale start technology scholarship at wake tech proptech market to usd billion by owing to rising demand for digital real estate transaction and smart property solution report by sn insider trader weigh opec tariff and resilient demand change in the supervisory and management board and audit committee of admiral market a everyone know what broke in leverage ratio reform can fix it greenleaf trust grows holding in blackstone inc nysebx index fund advisor inc take position in servicenow inc nysenow axxcess wealth management llc ha million stock position in morgan stanley nysems parr mcknight wealth management group llc acquires share of vanguard total international bond etf nasdaqbndx peddock capital advisor llc ha million holding in thermo fisher scientific inc nysetmo index fund advisor inc make new million investment in vanguard total international stock etf nasdaqvxus financial review creditriskmonitorcom crmz versus it competitor parr mcknight wealth management group llc make new million investment in invesco bulletshares corporate bond etf nasdaqbscr this amd analyst turn bullish here are top upgrade for thursday dhls m expansion in uk and ireland novo nordisks quality testing site in china new mexico educational retirement board reduces stock position in copart inc nasdaqcprt axxcess wealth management llc lower stake in accenture plc nyseacn u capital wealth advisor llc ha million position in airbnb inc nasdaqabnb axxcess wealth management llc ha million position in philip morris international inc nysepm leavell investment management inc purchase share of caterpillar inc nysecat linden thomas advisory service llc acquires share of accenture plc nyseacn accenture plc nyseacn share sold by axxcess wealth management llc greenleaf trust sell share of norfolk southern corporation nysensc caterpillar inc nysecat share bought by leavell investment management inc hara capital llc sell share of united airline holding inc nasdaqual hara capital llc lower holding in or royalty inc nyseor abbvie nyseabbv v bayer aktiengesellschaft otcmktsbayry head to head contrast saba capital income opportunity fund ii nysesaba share sold by hara capital llc narus financial partner llc acquires new holding in decker outdoor corporation nysedeck cerity partner ocio llc trim holding in ishares year treasury bond etf nasdaqtlt parr mcknight wealth management group llc grows stake in salesforce inc nysecrm stonebrook private inc ha million stock position in best buy co inc nysebby stonebrook private inc boost stock position in darden restaurant inc nysedri albany veteran banned from boshart davis office sue iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech gop sen thom tillis say hegseth is out of his depth a defense secretary defcon ai achieves major rd milestone with launch of advanced theater distribution planning tool for talisman sabre financial gravity asset management inc acquires share of solventum corporation nysesolv sweeping bipartisan bill would nationalize standard for student athlete pay wake up dead man a knife out mystery to open bfi london film festival drone nerd debut ndaacompliant wingtraray fixedwing drone judge weighs motion to dismiss charge against a north adam man accused of killing his wife america greatest threat come from within letter to the editor beware of halftruths around direct primary care medicaid cut in trump tax bill will devastate access to care in rural pennsylvania critic say iranian supreme leader appears in public for first time since war the washington post latest antitrump commentator is a literal clown on onon and the competition head to head contrast analyzing saker aviation service skas and it rival greenleaf trust sell share of norfolk southern corporation nysensc astra wealth partner llc increase stock position in dimensional international core equity etf batsdfic hara capital llc decrease stock position in invesco rafi u etf nysearcaprf hara capital llc sell share of gildan activewear inc nysegil hara capital llc invests in delta air line inc nysedal hara capital llc decrease holding in saba capital income opportunity fund ii nysesaba astra wealth partner llc purchase share of ishares sp midcap value etf nysearcaijj hara capital llc ha holding in franklin ftse south korea etf nysearcaflkr hara capital llc cut stake in zoom communication inc nasdaqzm bxm wealth llc ha stock position in visa inc nysev exclusive ice nabs two m ringleader in midwest raid after testifying before congress on antisemitism cal poly hosted all day for palestine hara capital llc trim stock holding in bank of america corporation nysebac parr mcknight wealth management group llc ha million stock holding in vanguard total bond market etf nasdaqbnd financial gravity asset management inc purchase share of baring bdc inc nysebbdc parr mcknight wealth management group llc acquires share of sp global inc nysespgi axxcess wealth management llc sell share of intuitive surgical inc nasdaqisrg people financial service corp trim stock position in mastercard incorporated nysema general motor company nysegm share bought by tru independence llc union pacific corporation nyseunp share purchased by axxcess wealth management llc hara capital llc sell share of japan smaller capitalization fund inc nysejof the estee lauder company inc nyseel share sold by vision capital management inc narus financial partner llc invests in marsh mclennan company inc nysemmc vision capital management inc sell share of f inc nasdaqffiv the clorox company nyseclx share purchased by vision capital management inc vision capital management inc boost stake in carmax inc nysekmx franklin resource inc nyseben position reduced by code waechter llc vision capital management inc sell share of schwab international equity etf nysearcaschf people bank oh cut stock position in broadcom inc nasdaqavgo vision capital management inc sell share of ishares esg aware msci usa etf nasdaqesgu people bank oh sell share of ishares msci eafe etf nysearcaefa stonebrook private inc ha stake in dexcom inc nasdaqdxcm realty income corporation plan aug dividend of nyseo website serving harvard undergrad woman minority and lgbtq student taken down crimson report moloney security asset management llc decrease holding in elevance health inc nyseelv nisa investment advisor llc decrease stake in marriott international inc nasdaqmar nisa investment advisor llc sell share of synopsys inc nasdaqsnps mainstreet investment advisor llc ha million stock holding in ameriprise financial inc nyseamp nisa investment advisor llc sell share of ameriprise financial inc nyseamp stratos investment management llc purchase new position in fiserv inc nysefi nisa investment advisor llc ha million position in paypal holding inc nasdaqpypl mt bank corp ha million stock position in marriott international inc nasdaqmar financial gravity asset management inc invests million in intuit inc nasdaqintu superman star nathan fillion staunchly defends his character extreme hairstyle i wa team bowl cut the whole way federal judge again block end to birthright citizenship doncasters planned number of new secondary school place will not meet demand jane birkins original hermes bag go on sale drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop true vision mn llc make new investment in occidental petroleum corporation nyseoxy moloney security asset management llc sell share of northrop grumman corporation nysenoc trane technology plc nysett share sold by alpine wood capital investor llc alpine wood capital investor llc sell share of northrop grumman corporation nysenoc quotient wealth partner llc raise stake in trane technology plc nysett euna solution issue open letter introducing competition commitment to expand supplier participation for public procurement team deutsche bank aktiengesellschaft begin coverage on cinemark nysecnk share in shell plc unsponsored adr nyseshel purchased by pom investment strategy llc nxp semiconductor nasdaqnxpi and microchip technology nasdaqmchp critical analysis sekisui house skhsy and it rival critical comparison ishares sp smallcap growth etf nasdaqijt share acquired by code waechter llc financial comparison transocean nyserig and royale energy otcmktsroyl code waechter llc boost stock position in pacer u small cap cash cow etf batscalf analyzing zkh group nysezkh and taoping nasdaqtaop unitedhealth group incorporated nyseunh stake trimmed by code waechter llc northwest natural gas company nysenwn stock holding lessened by code waechter llc code waechter llc invests in the pnc financial service group inc nysepnc medtronic plc nysemdt position trimmed by code waechter llc dexterra group tsedxt set new year high time to buy mkango resource lonmka stock price down here why oracle power lonorcp share down here why</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>time run out for nearly centuryold michigan clock company due to tariff other factor ap news sage rhino capital llc sell share of shell plc unsponsored adr nyseshel vanguard total stock market etf nysearcavti position increased by seamount financial group inc sage rhino capital llc acquires share of vanguard total stock market etf nysearcavti kesler norman wride llc boost stake in broadcom inc nasdaqavgo genus capital management inc invests million in ishares msci eafe etf nysearcaefa sage rhino capital llc buy share of broadcom inc nasdaqavgo vanguard total stock market etf nysearcavti is clarity wealth advisor llcs rd largest position seamount financial group inc buy share of vanguard dividend appreciation etf nysearcavig state of michigan retirement system ha million stock holding in chubb limited nysecb state of michigan retirement system ha million position in lam research corporation nasdaqlrcx clarity wealth advisor llc reduces holding in the walt disney company nysedis genus capital management inc make new investment in ishares msci eafe etf nysearcaefa kesler norman wride llc buy share of vanguard information technology etf nysearcavgt chubb limited nysecb share sold by state of michigan retirement system sage rhino capital llc purchase share of broadcom inc nasdaqavgo state of michigan retirement system decrease stake in lam research corporation nasdaqlrcx seamount financial group inc raise stock holding in vanguard dividend appreciation etf nysearcavig think quantum computing will be the next big thing these are the stock to buy today boss quietly veto devastating law that may pull the rug out on american and thousand would lose cash ford recall vehicle over fuel pump defect manufacturing layoff at pacira oak hill bios phase angelman data france launch criminal investigation into musk x over algorithm manipulation politicoeu trump million crypto mystery man reuters buy the dip win again for stock investor rockwell automation pharmasuite power sinteticas swiss drug production teledyne raymarine acquires maretron asset to boost marine automation cummins unveils new hydrogen turbocharger for european heavyduty engine dover techcon unveils new precision dispensing cartridge for key industry carrier global enhances aipowered abound app for proactive building management trane technology debut first u dynamic closed loop geothermal system in chicago school district johnson control sensormatic solution launch aipowered shopper tracking with privacyfirst reid technology goldman sachs mustbuy chip stock and a few you should forget honeywell explores sale of two division ahead of planned split raytheon from rtx demonstrates autonomous barracuda mine neutralization vehicle gmbacked energyx expands lithium holding in u smackover formation with pantera acquisition boeing win b space force contract for nextgen nuclear comms satellite penguin solution launch nextgen stratus ztc endurance for ultrahigh availability ai workload clarivate unveils enhanced g research innovation scorecard with expanded data ai insight xerox completes b lexmark acquisition support print market position globant suntory global spirit partner to deploy gen ai commercial insight agent concentrix half carbon emission target by detail progress in sustainability report dxc technology aipowered tendia solution slash bid writing time for ventia genpact launch aipowered ap suite to revolutionize account payable process kyndryl launch new aipowered service to accelerate mainframe migration to aws saic awarded m air force contract for rapid warfighting prototype development shopper can now buy a bjs membership for just a year in new deal it cheaper than rival sam club u bank set to post trading gain on trump tariff turmoil cognizant pledge to white house ai education initiative aim to train m by education department to resume interest accrual on million student loan borrower rtx corporation nysertx stake reduced by cfolife group llc fonville wealth management llc cut stake in costco wholesale corporation nasdaqcost kesler norman wride llc acquires share of invesco qqq nasdaqqqq bernardo wealth planning llc cut stock holding in alphabet inc nasdaqgoog nextera energy inc nysenee holding lifted by cerity partner llc leavell investment management inc reduces position in ishares core u aggregate bond etf nysearcaagg leavell investment management inc raise stake in uber technology inc nyseuber fonville wealth management llc sell share of southern company the nyseso cerity partner llc boost holding in invesco qqq nasdaqqqq capital insight partner llc raise stock holding in freeportmcmoran inc nysefcx kesler norman wride llc sell share of stryker corporation nysesyk costco wholesale corporation nasdaqcost share sold by alp advisor inc fonville wealth management llc increase stake in vanguard growth etf nysearcavug capital insight partner llc acquires share of freeportmcmoran inc nysefcx kesler norman wride llc increase stock holding in linde plc nasdaqlin phillips financial management llc sell share of schwab u largecap etf nysearcaschx financial gravity asset management inc purchase new position in costco wholesale corporation nasdaqcost kesler norman wride llc sell share of stryker corporation nysesyk parr mcknight wealth management group llc trim holding in spdr gold share nysearcagld cerity partner llc trim stock position in adobe inc nasdaqadbe uk business confidence plummet to threeyear low icaew walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid wall street giant issue stark message on sp walmart recall water bottle after two consumer suffer vision loss from ejecting lid ap news nikki bella discusses wwe evolution looking at ge vernovas recent unusual option activity check out what whale are doing with citigroup analyzing broadcom in comparison to competitor in semiconductor semiconductor equipment industry chief executive officer of integral ad science holdi sold k in stock italianstyle villa in south minneapolis linden hill listed for m sell alert aaron yeon ho lee cash out m in acushnet holding stock sell alert kevin chang keun yoon cash out m in acushnet holding stock allworth financial lp raise holding in pepsico inc nasdaqpep state of michigan retirement system ha million holding in philip morris international inc nysepm state of michigan retirement system sell share of intuit inc nasdaqintu cisco system inc nasdaqcsco share sold by state of michigan retirement system state of michigan retirement system sell share of pepsico inc nasdaqpep leavell investment management inc sell share of merck co inc nysemrk mjp associate inc adv increase stake in invesco sp equal weight etf nysearcarsp state of michigan retirement system cut stake in merck co inc nysemrk state of michigan retirement system reduces holding in ishares core sp midcap etf nysearcaijh merck co inc nysemrk stake reduced by leavell investment management inc insider decision gene soo yoon yoon offloads m worth of acushnet holding stock lacroix announces new partnership with the dallas wing wnba team royal caribbean take delivery of world largest cruise ship insider decision tod e carpenter exercise option at donaldson for m evaluating apple against peer in technology hardware storage peripheral industry clarity wealth advisor llc sell share of the walt disney company nysedis state of michigan retirement system reduces stock holding in cme group inc nasdaqcme state of michigan retirement system ha million stock holding in palo alto network inc nasdaqpanw sage rhino capital llc cut position in vanguard ftse allworld exus etf nysearcaveu cfc planning co llc ha million stake in the walt disney company nysedis parr mcknight wealth management group llc sell share of spdr gold share nysearcagld kesler norman wride llc ha million position in fortinet inc nasdaqftnt round rock advisor llc purchase share of verizon communication inc nysevz financial gravity asset management inc buy share of costco wholesale corporation nasdaqcost phillips financial management llc sell share of schwab u largecap etf nysearcaschx round rock advisor llc ha stock holding in salesforce inc nysecrm kesler norman wride llc buy share of linde plc nasdaqlin omb director question powell over fed hq renovation spending perfektblue bluetooth vulnerability expose million of vehicle to remote code execution trump doing all the thing he said he would bondi or bongino bongino wont remain at fbi if bondi keep job source say u is selling weapon to nato ally to give to ukraine trump say ishares core sp midcap etf nysearcaijh share sold by state of michigan retirement system kla corporation nasdaqklac share bought by mjp associate inc adv state of michigan retirement system ha million stock position in merck co inc nysemrk veteran political reporter reveals what the medium missed about trump appeal to american in back to back barrie could the antisemitism plan be used to silence dissent podcast the special envoy plan is the latest push to weaponise antisemitism a a relentless campaign pay off louise adler albanese must be careful that tackling antisemitism doesnt curb free speech tom mcilroy virginia rep john mcguire bought over k worth of meta platform stock here what you should know congressional trading report rep susie lee sold over k in full house resort stock state right to sue over medical privacy state right to sue over medical privacy state right to sue over medical privacy california rep gilbert ray cisneros sold over k worth of springworks therapeutic inc ordinary share stock here what you should know laurel libby stood strong in the face of tyranny letter beth claybourn interior trump new front in the war on drug the bank the u air force want million to double production of the aim missile new themed playground equipment officially open for use in two lake charles park steve mann more on the aftermath of magees time in san bruno new england professional planning group inc reduces holding in international business machine corporation nyseibm pfizer inc nysepfe share sold by new england professional planning group inc diversify wealth management llc buy share of cocacola company the nyseko bipartisan legislation aim to legalize adultuse cannabis in pennsylvania cerity partner llc boost holding in mcdonalds corporation nysemcd mjp associate inc adv raise stock position in mcdonalds corporation nysemcd mcdonalds corporation nysemcd share purchased by freedom day solution llc moloney security asset management llc buy share of vanguard total bond market etf nasdaqbnd benny blanco ha made so much music he ha to shazam his own tune elv deadline today rosen leading trial attorney encourages elevance health inc investor epstein conspiracy just isnt there teacher union reveals true color and more from fox news opinion stratos wealth advisor llc trim stock position in the goldman sachs group inc nysegs freedom day solution llc decrease stock holding in amgen inc nasdaqamgn lbp am sa sell share of visa inc nysev the mindful minute by jon heydenreich that martini and megaburger u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say greater midwest financial group llc purchase share of vanguard sp etf nysearcavoo barry investment advisor llc sell share of vanguard ftse emerging market etf nysearcavwo state department is firing over employee under trump administration plan rubio and wang stress cooperation after talk in malaysia a uschina tension simmer diversify wealth management llc buy share of ishares u treasury bond etf batsgovt cromwell holding llc decrease stake in micron technology inc nasdaqmu vanguard value etf nysearcavtv share sold by ade llc chevron corporation nysecvx share purchased by diversify wealth management llc cromwell holding llc raise stake in monolithic power system inc nasdaqmpwr church street road closure extended in brattleboro u is selling weapon to nato ally to give to ukraine trump say noqualifyjpg bill to clarify st louis sheriff duty stall in committee strategist flag very unusual trump admin loyalty test on cnn fidelis capital partner llc ha million stake in thermo fisher scientific inc nysetmo pkk fighter pile up their weapon in arm amnesty in northern iraq brazil vow retaliatory tariff against u if trump follows through on import tax new pac form to back mamdani nyc mayoral bid a business community rally to defeat him history program highlight the map and stone wall of dummerson financial gravity asset management inc buy new position in ishares tip bond etf nysearcatip phillips financial management llc increase holding in vanguard ftse developed market etf nysearcavea trump plan to hike tariff on canadian good to trump plan to tour texas flood damage a the scope of the disaster test his pledge to shutter fema trump plan to hike tariff on canadian good to ishares msci emerging market etf nysearcaeem share sold by ramsay stattman vela price inc burford brother inc raise position in the sherwinwilliams company nyseshw spdr dow jones industrial average etf trust nysearcadia position lifted by christopher j hasenberg inc genus capital management inc invests million in the sherwinwilliams company nyseshw state department to axe employee state of michigan retirement system boost stock position in prologis inc nysepld advanced micro device inc nasdaqamd share purchased by clarity wealth advisor llc seamount financial group inc sell share of vanguard total world stock etf nysearcavt share in vaneck gold miner etf nysearcagdx acquired by sage rhino capital llc vestia personal wealth advisor increase position in dimensional u marketwide value etf nysearcadfuv milwaukee remove fonzie statue amid reckoning with greaser past noqualifyingjpg exxon mobil corporation nysexom share sold by pineridge advisor llc cfolife group llc buy share of ge aerospace nysege stonebrook private inc buy share of vanguard total stock market etf nysearcavti allworth financial lp grows position in united parcel service inc nyseups cerity partner llc sell share of adobe inc nasdaqadbe adobe inc nasdaqadbe holding lowered by xponance inc honeywell international inc nasdaqhon share bought by kesler norman wride llc amphenol corporation nyseaph position boosted by cerity partner llc</t>
+          <t>hot yield highlight energy midstream giant mplx advanced micro device earnings preview what to expect advanced micro device earnings preview what to expect vanguard smallcap value etf nysearcavbr share purchased by telos capital management inc kimberlyclark co nysekmb share acquired by telos capital management inc telos capital management inc make new million investment in te connectivity ltd nysetel stonebrook private inc purchase share of salesforce inc nysecrm telos capital management inc ha million stake in danaher corporation nysedhr cerity partner ocio llc buy share of ishares mb etf nasdaqmbb telos capital management inc ha million holding in deere company nysede keurig dr pepper inc nasdaqkdp share purchased by parr mcknight wealth management group llc stonebrook private inc purchase share of ishares core msci europe etf nysearcaieur capital insight partner llc lower holding in tractor supply company nasdaqtsco stonebrook private inc ha million stake in darden restaurant inc nysedri most u adult say child care cost are a major problem a new apnorc poll find sunrocket capital announces million financing for renewable energy project supporting ai and data center market united airline holding unusual option activity for july where comstock resource stand with analyst this is what whale are betting on palantir technology this is what whale are betting on celestica expert outlook associated banc through the eye of analyst olehenriksen launch peach glaze collection the juicy clinical result your skin craves application for jobless benefit fall to last week korean officer to receive imo highest bravery award for fishing vessel rescue nvidia ceo jensen huang could soon be richer than warren buffetthes worth billion now where federated hermes stand with analyst spotify technology nysespot is steadview capital management llcs th largest position marvell technology nasdaqmrvl now covered by the goldman sachs group applied material nasdaqamat coverage initiated by analyst at the goldman sachs group stryker corporation nysesyk share sold by aurdan capital management llc financial gravity asset management inc invests in ge aerospace nysege nvidia nasdaqnvda coverage initiated at the goldman sachs group applovin corporation nasdaqapp share sold by steadview capital management llc aurdan capital management llc trim stock position in stryker corporation nysesyk the analyst verdict molina healthcare in the eye of expert how kanava ai is bringing voice automation to industrial workflow an interview with smit dagli peering into borgwarners recent short interest what doe the market think about somnigroup international what analyst are saying about jdcom stock white house accuses powell of mismanaging federal reserve citing headquarters renovation what doe the market think about selective insurance gr wake up dead man a knife out mystery to open bfi london film festival beyond the number analyst discus verizon communication stock stock pressured by u trade policy uncertainty stock pressured by u trade policy uncertainty change in the supervisory and management board and audit committee of admiral market a trump loses appeal of million e jean carroll sexual abuse defamation verdict sun life u and dentaquest donate to support texas flooding relief effort spindrift partner with patricof co to welcome new wave of athlete investor brain monitoring market size to hit usd million by coherent market insight brain monitoring market size to hit usd million by coherent market insight ga telesis engine service gate usa spah launch leap engine quick turn service marking major capability expansion bigbank a extended the term of the supervisory board member hammond power solution announces second quarter financial result conference call and webcast notification china asean build new paradigm for regional cooperation temo inc achieved florida product approval for hurricaneresistant impact glass sunroom vixs premium with ad now available in directvs miespanol genre pack behavioral rehabilitation market surpasses usd billion in fueled by anxiety and substance abuse disorder hydroxyethyl cellulose market to surpass usd million by demand driven by expanding application in personal care construction and pharmaceutical oil price sink a iran and u resume nuclear talk research the gender wage gap tipping point hii to host second quarter earnings conference call and webcast on july packaging solution market valued at trillion and heading to trillion by spacelift raise m series c to redefine enterprise infrastructure automation consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement vishay intertechnology q result earnings call webcast detail exclusive nbcus super bowl ad now going for million helcim introduces it new smart terminal a faster sleeker smarter way to accept payment ine security launch enhanced emapt certification blockdags global launch release entry set it apart over bitcoin cash shiba inu american airline group announces webcast of secondquarter financial result consumer who sold real estate that wa listed on ml property information network and paid commission to a real estate agent may be affected by a settlement rapidscale start technology scholarship at wake tech proptech market to usd billion by owing to rising demand for digital real estate transaction and smart property solution report by sn insider trader weigh opec tariff and resilient demand change in the supervisory and management board and audit committee of admiral market a everyone know what broke in leverage ratio reform can fix it greenleaf trust grows holding in blackstone inc nysebx index fund advisor inc take position in servicenow inc nysenow axxcess wealth management llc ha million stock position in morgan stanley nysems parr mcknight wealth management group llc acquires share of vanguard total international bond etf nasdaqbndx peddock capital advisor llc ha million holding in thermo fisher scientific inc nysetmo index fund advisor inc make new million investment in vanguard total international stock etf nasdaqvxus financial review creditriskmonitorcom crmz versus it competitor parr mcknight wealth management group llc make new million investment in invesco bulletshares corporate bond etf nasdaqbscr this amd analyst turn bullish here are top upgrade for thursday dhls m expansion in uk and ireland novo nordisks quality testing site in china new mexico educational retirement board reduces stock position in copart inc nasdaqcprt axxcess wealth management llc lower stake in accenture plc nyseacn u capital wealth advisor llc ha million position in airbnb inc nasdaqabnb axxcess wealth management llc ha million position in philip morris international inc nysepm leavell investment management inc purchase share of caterpillar inc nysecat linden thomas advisory service llc acquires share of accenture plc nyseacn accenture plc nyseacn share sold by axxcess wealth management llc greenleaf trust sell share of norfolk southern corporation nysensc caterpillar inc nysecat share bought by leavell investment management inc hara capital llc sell share of united airline holding inc nasdaqual hara capital llc lower holding in or royalty inc nyseor abbvie nyseabbv v bayer aktiengesellschaft otcmktsbayry head to head contrast saba capital income opportunity fund ii nysesaba share sold by hara capital llc narus financial partner llc acquires new holding in decker outdoor corporation nysedeck cerity partner ocio llc trim holding in ishares year treasury bond etf nasdaqtlt parr mcknight wealth management group llc grows stake in salesforce inc nysecrm stonebrook private inc ha million stock position in best buy co inc nysebby stonebrook private inc boost stock position in darden restaurant inc nysedri albany veteran banned from boshart davis office sue iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech iceblock criminal evasion tool or constitutionally protected speech gop sen thom tillis say hegseth is out of his depth a defense secretary defcon ai achieves major rd milestone with launch of advanced theater distribution planning tool for talisman sabre financial gravity asset management inc acquires share of solventum corporation nysesolv sweeping bipartisan bill would nationalize standard for student athlete pay wake up dead man a knife out mystery to open bfi london film festival drone nerd debut ndaacompliant wingtraray fixedwing drone judge weighs motion to dismiss charge against a north adam man accused of killing his wife america greatest threat come from within letter to the editor beware of halftruths around direct primary care medicaid cut in trump tax bill will devastate access to care in rural pennsylvania critic say iranian supreme leader appears in public for first time since war the washington post latest antitrump commentator is a literal clown on onon and the competition head to head contrast analyzing saker aviation service skas and it rival greenleaf trust sell share of norfolk southern corporation nysensc astra wealth partner llc increase stock position in dimensional international core equity etf batsdfic hara capital llc decrease stock position in invesco rafi u etf nysearcaprf hara capital llc sell share of gildan activewear inc nysegil hara capital llc invests in delta air line inc nysedal hara capital llc decrease holding in saba capital income opportunity fund ii nysesaba astra wealth partner llc purchase share of ishares sp midcap value etf nysearcaijj hara capital llc ha holding in franklin ftse south korea etf nysearcaflkr hara capital llc cut stake in zoom communication inc nasdaqzm bxm wealth llc ha stock position in visa inc nysev exclusive ice nabs two m ringleader in midwest raid after testifying before congress on antisemitism cal poly hosted all day for palestine hara capital llc trim stock holding in bank of america corporation nysebac parr mcknight wealth management group llc ha million stock holding in vanguard total bond market etf nasdaqbnd financial gravity asset management inc purchase share of baring bdc inc nysebbdc parr mcknight wealth management group llc acquires share of sp global inc nysespgi axxcess wealth management llc sell share of intuitive surgical inc nasdaqisrg people financial service corp trim stock position in mastercard incorporated nysema general motor company nysegm share bought by tru independence llc union pacific corporation nyseunp share purchased by axxcess wealth management llc hara capital llc sell share of japan smaller capitalization fund inc nysejof the estee lauder company inc nyseel share sold by vision capital management inc narus financial partner llc invests in marsh mclennan company inc nysemmc vision capital management inc sell share of f inc nasdaqffiv the clorox company nyseclx share purchased by vision capital management inc vision capital management inc boost stake in carmax inc nysekmx franklin resource inc nyseben position reduced by code waechter llc vision capital management inc sell share of schwab international equity etf nysearcaschf people bank oh cut stock position in broadcom inc nasdaqavgo vision capital management inc sell share of ishares esg aware msci usa etf nasdaqesgu people bank oh sell share of ishares msci eafe etf nysearcaefa stonebrook private inc ha stake in dexcom inc nasdaqdxcm realty income corporation plan aug dividend of nyseo website serving harvard undergrad woman minority and lgbtq student taken down crimson report moloney security asset management llc decrease holding in elevance health inc nyseelv nisa investment advisor llc decrease stake in marriott international inc nasdaqmar nisa investment advisor llc sell share of synopsys inc nasdaqsnps mainstreet investment advisor llc ha million stock holding in ameriprise financial inc nyseamp nisa investment advisor llc sell share of ameriprise financial inc nyseamp stratos investment management llc purchase new position in fiserv inc nysefi nisa investment advisor llc ha million position in paypal holding inc nasdaqpypl mt bank corp ha million stock position in marriott international inc nasdaqmar financial gravity asset management inc invests million in intuit inc nasdaqintu superman star nathan fillion staunchly defends his character extreme hairstyle i wa team bowl cut the whole way federal judge again block end to birthright citizenship doncasters planned number of new secondary school place will not meet demand jane birkins original hermes bag go on sale drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop drunk and defiant a bar song tipsy top the chart froma harrop true vision mn llc make new investment in occidental petroleum corporation nyseoxy moloney security asset management llc sell share of northrop grumman corporation nysenoc trane technology plc nysett share sold by alpine wood capital investor llc alpine wood capital investor llc sell share of northrop grumman corporation nysenoc quotient wealth partner llc raise stake in trane technology plc nysett euna solution issue open letter introducing competition commitment to expand supplier participation for public procurement team deutsche bank aktiengesellschaft begin coverage on cinemark nysecnk share in shell plc unsponsored adr nyseshel purchased by pom investment strategy llc nxp semiconductor nasdaqnxpi and microchip technology nasdaqmchp critical analysis sekisui house skhsy and it rival critical comparison ishares sp smallcap growth etf nasdaqijt share acquired by code waechter llc financial comparison transocean nyserig and royale energy otcmktsroyl code waechter llc boost stock position in pacer u small cap cash cow etf batscalf analyzing zkh group nysezkh and taoping nasdaqtaop unitedhealth group incorporated nyseunh stake trimmed by code waechter llc northwest natural gas company nysenwn stock holding lessened by code waechter llc code waechter llc invests in the pnc financial service group inc nysepnc medtronic plc nysemdt position trimmed by code waechter llc dexterra group tsedxt set new year high time to buy mkango resource lonmka stock price down here why oracle power lonorcp share down here why</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.146</v>
+        <v>0.165</v>
       </c>
       <c r="L13" t="n">
-        <v>0.048</v>
+        <v>0.058</v>
       </c>
       <c r="M13" t="n">
-        <v>0.806</v>
+        <v>0.777</v>
       </c>
       <c r="N13" t="n">
         <v>0.9997</v>
       </c>
       <c r="O13" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="T13" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="U13" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="V13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -1498,7 +1494,7 @@
         <v>45852</v>
       </c>
       <c r="B14" t="n">
-        <v>6269.5498046875</v>
+        <v>6268.56005859375</v>
       </c>
       <c r="C14" t="n">
         <v>6273.31005859375</v>
@@ -1510,65 +1506,373 @@
         <v>6255.14990234375</v>
       </c>
       <c r="F14" t="n">
-        <v>2040375000</v>
+        <v>4722250000</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0015655265286154</v>
+        <v>0.0014074138094573</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b t capital management dba alpha capital management make new investment in taiwan semiconductor manufacturing company ltd nysetsm vanguard midcap etf nysearcavo is beirne wealth consulting service llcs th largest position vanguard smallcap etf nysearcavb share sold by b t capital management dba alpha capital management walmart inc nysewmt position increased by fort sheridan advisor llc kathmere capital management llc buy share of vanguard smallcap etf nysearcavb kathmere capital management llc purchase share of walmart inc nysewmt ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc kathmere capital management llc purchase share of vanguard smallcap etf nysearcavb b t capital management dba alpha capital management boost position in honeywell international inc nasdaqhon fort sheridan advisor llc boost stake in walmart inc nysewmt ifc advisor llc sell share of the home depot inc nysehd ifc advisor llc ha million holding in pepsico inc nasdaqpep quest wealth builder inc sell share of eli lilly and company nyselly caterpillar inc nysecat share sold by ifc advisor llc ballentine partner llc lower position in invesco qqq nasdaqqqq quest wealth builder inc sell share of pepsico inc nasdaqpep ballentine partner llc sell share of invesco qqq nasdaqqqq caterpillar inc nysecat share sold by ifc advisor llc eureka business weather economic uncertainty ap business summarybrief at pm edt ap business summarybrief at pm edt why share of the metal company skyrocketed in the first half of why share of the metal company skyrocketed in the first half of is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store fulcrum equity management ha stake in broadcom inc nasdaqavgo why nvidia partner navitas semiconductor surged in the first half of why nvidia partner navitas semiconductor surged in the first half of a bitcoin matures volatility dropsso expect slower climb say expert decrypt crypto top gainer why blockdag solana pepe and render are leading in growth and utility how ai notetakers can become the black box of business the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation iron ore price surge amid china industrial crackdown northwest capital management inc buy share of ishares core sp midcap etf nysearcaijh rational advisor inc invests million in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc buy share of lowes company inc nyselow mjp associate inc adv ha holding in blackstone inc nysebx cerity partner llc grows stock position in palantir technology inc nasdaqpltr trump to impose tariff on eu mexico starting aug trump to impose eu tariff on aug trumnp to impose eu tariff on august trump announces tariff on import from mexico eu eu say it still want u trade deal will defend interest tucker carlson reveals who he think funded jeffrey epstein crime focused wealth management inc increase stock position in merck co inc nysemrk roger wittlin investment advisory llc acquires share of vanguard sp etf nysearcavoo family firm inc ha million stock holding in ishares russell etf nysearcaiwm schwab u smallcap etf nysearcascha share sold by family firm inc roger wittlin investment advisory llc purchase share of vanguard sp etf nysearcavoo quest wealth builder inc ha stock holding in parkerhannifin corporation nyseph share in vanguard high dividend yield etf nysearcavym acquired by stillwater wealth management group ishares russell etf nysearcaiwm share sold by family firm inc well fargo company nysewfc share sold by family firm inc bank of america corporation nysebac share acquired by fortem financial group llc fortem financial group llc boost stock position in att inc nyset unitedhealth down is the dividend still safe netflix inc nasdaqnflx share acquired by martin capital advisor llp vanguard ftse developed market etf nysearcavea share purchased by bridge generation wealth management llc riversedge advisor llc grows holding in vanguard ftse emerging market etf nysearcavwo american financial advisor llc reduces stock holding in ge vernova inc nysegev crowdstrike nasdaqcrwd share acquired by american financial advisor llc riversedge advisor llc purchase share of alphabet inc nasdaqgoog vanguard value etf nysearcavtv share purchased by riversedge advisor llc vanguard value etf nysearcavtv share purchased by riversedge advisor llc crowdstrike nasdaqcrwd share bought by american financial advisor llc tesla inc nasdaqtsla share bought by riversedge advisor llc riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million position in ishares core sp etf nysearcaivv vanguard ftse developed market etf nysearcavea position decreased by riversedge advisor llc grant grossmendelsohn llc ha holding in vanguard ftse developed market etf nysearcavea dogecoins doge holder are shifting to ruvi ai ruvi passed audit and early entry bonus make it the smarter bet auour investment llc ha million stake in ishares core msci eafe etf batsiefa fort sheridan advisor llc raise stock holding in abbott laboratory nyseabt beirne wealth consulting service llc increase stock position in ishares core msci eafe etf batsiefa b t capital management dba alpha capital management buy share of schwab u largecap growth etf nysearcaschg b t capital management dba alpha capital management purchase share of schwab u largecap growth etf nysearcaschg quest wealth builder inc cut stock position in walmart inc nysewmt ifc advisor llc reduces position in vanguard midcap etf nysearcavo spdr gold share nysearcagld share purchased by acorn wealth advisor llc ballentine partner llc increase position in chevron corporation nysecvx acorn wealth advisor llc sell share of ishares core sp smallcap etf nysearcaijr acorn wealth advisor llc ha stock position in vanguard midcap etf nysearcavo acorn wealth advisor llc reduces stock position in ishares core sp smallcap etf nysearcaijr ballentine partner llc acquires share of walmart inc nysewmt history say these stock could be big winner in the second half history say these stock could be big winner in the second half alp advisor inc ha million stock position in kkr co inc nysekkr eli lilly and company nyselly share sold by wealthtrust asset management llc eli lilly and company nyselly is harmony asset management llcs th largest position the home depot inc nysehd share purchased by lane associate llc fulcrum equity management lower stock holding in eli lilly and company nyselly fulcrum equity management sell share of eli lilly and company nyselly servicenow inc nysenow share acquired by steelpeak wealth llc trump target mexico eu with tariff hartford bakery inc voluntarily recall hundred of loaf of artisanal bread sold in state cbs news reader view we can all reduce greenhouse gas shes great trump back bondi want top official to end conflict over epstein ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc chevron corporation nysecvx share acquired by b t capital management dba alpha capital management forum private client group llc ha million position in vanguard midcap etf nysearcavo b t capital management dba alpha capital management increase stake in honeywell international inc nasdaqhon beirne wealth consulting service llc acquires share of vanguard smallcap etf nysearcavb ifc advisor llc boost holding in kkr co inc nysekkr ballentine partner llc grows holding in eli lilly and company nyselly young democrat have called for a rebrand theyre vying to replace the party old guard temperance in cabinetry climate change helped fuel heavy rain that led to devastating texas flood former pentagon insider could trump big beautiful bill finally unlock america longforgotten resource archaeolgists find largestever ceremony hall weapon hoard the democratic party is missing an opportunity to engage christian voter northwest capital management inc purchase share of ishares core sp midcap etf nysearcaijh rational advisor inc take position in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc acquires share of lowes company inc nyselow parkerhannifin corporation nyseph share sold by quest wealth builder inc family firm inc lower stock holding in schwab u smallcap etf nysearcascha family firm inc reduces stock holding in well fargo company nysewfc stillwater wealth management group invests in vanguard high dividend yield etf nysearcavym extrump lawyer dershowitz claim knowledge of epstein client list i know the name but im bound by confidentiality grant grossmendelsohn llc purchase share of vanguard ftse developed market etf nysearcavea riversedge advisor llc cut stake in vanguard ftse developed market etf nysearcavea piper sandler issue positive forecast for netflix nasdaqnflx stock price riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million stake in ishares core sp etf nysearcaivv riversedge advisor llc increase stake in ishares core sp etf nysearcaivv start exploring cloud mining for free from the new winnermining app and get visible daily reward forum private client group llc trim position in vanguard growth etf nysearcavug fort sheridan advisor llc buy share of vanguard growth etf nysearcavug the big beautiful bill and mlp qualifying income acorn wealth advisor llc lower holding in chevron corporation nysecvx ballentine partner llc buy share of walmart inc nysewmt ballentine partner llc sell share of ishares core sp smallcap etf nysearcaijr lane associate llc sell share of eli lilly and company nyselly harmony asset management llc ha million holding in the home depot inc nysehd steelpeak wealth llc ha million stake in the progressive corporation nysepgr servicenow inc nysenow share acquired by steelpeak wealth llc trump threatens rosie odonnells citizenship she is a threat to humanity annual new london to new brighton antique car run to take place aug coyle financial counsel llc invests in qualcomm incorporated nasdaqqcom broadcom inc nasdaqavgo share sold by skyoak wealth llc forum private client group llc take position in elevance health inc nyseelv a major red flag for republican a trump policy threatens their future fbi director kash patel responds to controversy surrounding epstein file stillwater wealth management group grows position in amgen inc nasdaqamgn riversedge advisor llc grows stake in tesla inc nasdaqtsla fort sheridan advisor llc ha position in kla corporation nasdaqklac kathmere capital management llc grows holding in vanguard value etf nysearcavtv nycs broken election system need far more than these bandaid fix ballentine partner llc ha million position in abbott laboratory nyseabt abbott laboratory nyseabt share acquired by ifc advisor llc trump post support for embattled attorney general pam bondi ma private wealth take position in bristol myers squibb company nysebmy parkerhannifin corporation nyseph share sold by lbp am sa harmony asset management llc reduces stock position in chevron corporation nysecvx bonus editorial cartoon for july federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff lawmaker visit alligator alcatraz but some wonder how much theyll get to see man convicted of meredith kerchers murder facing trial for sexual assault federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff focused wealth management inc ha million stake in walmart inc nysewmt berbice capital management llc grows position in kkr co inc nysekkr coyle financial counsel llc raise holding in invesco qqq nasdaqqqq meet china man in lima who jetted over to u to collect train donated by biden admin amazon prime day delivers record sale and saving in expanded fourday shopping event how new tax legislation impact clean energy tax credit the dalai lama is planning his succession a the ultimate protest against china the u army m vulcan air defense system wa a beast in the vietnam war the us john f kennedy fordclass carrier may miss it delivery date comcast corporation nasdaqcmcsa share sold by sage rhino capital llc kesler norman wride llc sell share of comcast corporation nasdaqcmcsa exchange capital management inc sell share of servicenow inc nysenow fukoku mutual life insurance co sell share of duke energy corporation nyseduk cerity partner llc buy share of asml holding nv nasdaqasml mjp associate inc adv take position in elevance health inc nyseelv fidelis capital partner llc boost stock position in elevance health inc nyseelv reader view u must invest in our independence candidate view localgovernment focus would benefit school board stillwater wealth management group reduces position in unitedhealth group incorporated nyseunh martin capital advisor llp sell share of oracle corporation nyseorcl park square financial group llc decrease stock position in ishares core sp midcap etf nysearcaijh fortem financial group llc purchase share of blackstone inc nysebx pya waltman capital llc ha million stake in mcdonalds corporation nysemcd massachusetts police officer shot by colleague victim of campaign to criminalize her lawyer horrified by alligator alcatraz letter coyle financial counsel llc ha million stake in ishares core sp etf nysearcaivv vanguard high dividend yield etf nysearcavym stock holding decreased by auour investment llc ifc advisor llc increase position in ishares russell etf nysearcaiwm forum private client group llc purchase new stake in cummins inc nysecmi fortem financial group llc grows holding in tesla inc nasdaqtsla vanguard ftse developed market etf nysearcavea share purchased by beirne wealth consulting service llc schear investment adviser llc buy share of tmobile u inc nasdaqtmus jrmc recognized for infection control rate wall street pro drop bold price target on circle stock bitcoin hit new alltime high above k a trader eye week uptrend cointelegraph cardinal strategic wealth guidance cut position in alphabet inc nasdaqgoog bradley co private wealth management llc reduces position in costco wholesale corporation nasdaqcost pointe capital management llc grows holding in the walt disney company nysedis westmount partner llc sell share of amgen inc nasdaqamgn westmount partner llc sell share of starbucks corporation nasdaqsbux westmount partner llc trim holding in lockheed martin corporation nyselmt q asset management buy share of williams company inc the nysewmb westmount partner llc trim holding in lockheed martin corporation nyselmt westmount partner llc trim stock position in amgen inc nasdaqamgn zullo investment group inc lower stock position in alphabet inc nasdaqgoog trunorth capital management llc acquires share of vanguard sp etf nysearcavoo pointe capital management llc boost holding in linde plc nasdaqlin ishares core u aggregate bond etf nysearcaagg share acquired by pointe capital management llc nextera energy inc nysenee share sold by pointe capital management llc bristol myers squibb company nysebmy stock holding lifted by prudent man advisor llc mqs management llc buy new position in nextera energy inc nysenee prudent man advisor llc acquires new position in blackrock nyseblk zullo investment group inc buy share of eli lilly and company nyselly zullo investment group inc acquires share of eli lilly and company nyselly zullo investment group inc cut stake in m company nysemmm prudent man advisor llc make new million investment in blackrock nyseblk mqs management llc take position in nextera energy inc nysenee ai financial service llc boost holding in eli lilly and company nyselly u tomato price could jump a soon a monday xrp break out near gain yet blockdags coin unlock chance at steal market focus top altcoins still lag while bitcoin stay strong promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of kimberlyclark co nysekmb citigroup inc nysec share purchased by ballentine partner llc cigna group nyseci share bought by ballentine partner llc ballentine partner llc purchase share of the sherwinwilliams company nyseshw arizona state retirement system purchase share of kimberlyclark co nysekmb bankplus trust department grows holding in ishares core sp smallcap etf nysearcaijr berkeley inc ha million holding in schwab u largecap etf nysearcaschx arizona state retirement system increase stake in kimberlyclark co nysekmb fdx advisor inc invests in medtronic plc nysemdt how trump latest tariff threat risk deeper damage to europe economy fort sheridan advisor llc increase stock position in cocacola company the nyseko fortem financial group llc sell share of conocophillips nysecop blackstone inc nysebx share bought by louisiana state employee retirement system eaton corporation plc nyseetn share sold by stephen inc ar taiwan semiconductor manufacturing company ltd nysetsm share sold by fulton breakefield broenniman llc why broadcoms avgo ai momentum ha goldman sachs backing the stock on gps nvidia ceo on the overwhelmingly positive effect of ai isthmus partner llc sell share of thermo fisher scientific inc nysetmo whitener capital management inc ha million stake in verizon communication inc nysevz share in thermo fisher scientific inc nysetmo purchased by eos management lp lowes company inc nyselow share acquired by zullo investment group inc eos management lp invests million in thermo fisher scientific inc nysetmo whitener capital management inc raise stock holding in lowes company inc nyselow on gps nvidia ceo on whether ai will lead to job loss rosen a topranked law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt dem strategist on trump epstein blowback you wound this up you caused this reyes financial architecture inc boost position in advanced micro device inc nasdaqamd lri investment llc ha holding in danaher corporation nysedhr on gps nvidia ceo on the uschina ai race iconic mall retailer face second chapter bankruptcy closure nvidias huang say china military unlikely to use u ai chip bloomberg greatmark investment partner inc ha position in rtx corporation nysertx mark group wealth management inc grows position in honeywell international inc nasdaqhon pfizer inc nysepfe share acquired by secured retirement advisor llc cwm llc purchase share of jpmorgan ultrashort income etf nysearcajpst tfr capital llc purchase share of rtx corporation nysertx cwm llc ha million position in jpmorgan ultrashort income etf nysearcajpst share in texas instrument incorporated nasdaqtxn purchased by secured retirement advisor llc trunorth capital management llc purchase share of fiserv inc nysefi iron horse wealth management llc purchase share of vanguard ftse developed market etf nysearcavea trunorth capital management llc ha stock holding in att inc nyset fulton breakefield broenniman llc ha million stock holding in vanguard ftse developed market etf nysearcavea abbott laboratory nyseabt share purchased by dock street asset management inc workday wday just got downgradedheres why analyst are worried about ai target sends stern message to employee amid customer struggle target sends stern message to employee amid customer struggle thestreet prism advisor inc trim stock position in ishares core msci eafe etf batsiefa the home depot inc nysehd position reduced by sentinel trust co lba philip morris international inc nysepm share sold by legacy financial group inc philip morris international inc nysepm share sold by legacy financial group inc texas congressman call for accountability after flood we cant just allow girl to drown in the middle of the night greatmark investment partner inc grows position in general mill inc nysegis tfr capital llc purchase share of jpmorgan equity premium income etf nysearcajepi greatmark investment partner inc reduces holding in southern company the nyseso tfr capital llc acquires share of cisco system inc nasdaqcsco greatmark investment partner inc trim holding in cisco system inc nasdaqcsco hughes financial service llc take position in southern company the nyseso greatmark investment partner inc trim stock position in cisco system inc nasdaqcsco tfr capital llc ha million stock position in vertex pharmaceutical incorporated nasdaqvrtx hughes financial service llc take position in southern company the nyseso brn the impact of sport betting is complicated is the stock market underestimating president trump tariff cwm llc sell share of gilead science inc nasdaqgild isthmus partner llc purchase share of accenture plc nyseacn mark group wealth management inc buy share of chipotle mexican grill inc nysecmg secured retirement advisor llc take million position in comcast corporation nasdaqcmcsa legacy financial group inc lower position in stryker corporation nysesyk prudent man advisor llc ha million stake in labcorp holding inc nyselh left brain wealth management llc sell share of ge vernova inc nysegev schear investment adviser llc lower position in deere company nysede westmount partner llc sell share of the walt disney company nysedis zullo investment group inc trim stake in alphabet inc nasdaqgoog trunorth capital management llc purchase share of vanguard sp etf nysearcavoo pet lover demand leadership change at san jose animal shelter zullo investment group inc trim stake in m company nysemmm u tomato price could jump a soon a monday trump issue executive order targeting unreliable clean energy option kathmere capital management llc buy share of citigroup inc nysec berkeley inc decrease stock holding in schwab u largecap etf nysearcaschx hotel stock to follow today july th on gps nvidia ceo on the overwhelmingly positive effect of ai whitener capital management inc grows position in lowes company inc nyselow zullo investment group inc grows stock holding in lowes company inc nyselow on gps nvidia ceo on whether ai will lead to job loss dem strategist on trump epstein blowback you wound this up you caused this on gps nvidia ceo on the uschina ai race lri investment llc ha stock position in the goldman sachs group inc nysegs secured retirement advisor llc purchase new position in texas instrument incorporated nasdaqtxn mark group wealth management inc purchase share of copart inc nasdaqcprt tfr capital llc boost holding in rtx corporation nysertx att inc nyset position boosted by trunorth capital management llc fulton breakefield broenniman llc buy share of vanguard ftse developed market etf nysearcavea blame new york democrat not washington for new state budget crisis pepsico inc nasdaqpep stock holding cut by new york state common retirement fund the home depot inc nysehd share sold by sentinel trust co lba fdx advisor inc trim holding in the home depot inc nysehd a digitally enslaved generation cry for independence texas congressman call for accountability after flood we cant just allow girl to drown in the middle of the night tfr capital llc make new investment in marsh mclennan company inc nysemmc tfr capital llc acquires share of vertex pharmaceutical incorporated nasdaqvrtx greatmark investment partner inc decrease holding in cv health corporation nysecvs tfr capital llc make new investment in southern company the nyseso octa to host public input meeting on coastal rail trouble more talk around erosion planned trump to make unprecedented second state visit to uk in september left brain wealth management llc reduces stock position in unitedhealth group incorporated nyseunh left brain wealth management llc raise position in altria group inc nysemo isthmus partner llc sell share of the pnc financial service group inc nysepnc cwm llc ha million holding in comcast corporation nasdaqcmcsa what security leader need to know about ai governance for saas violent clash erupt between farright group and migrant in spanish town caterpillar inc nysecat share sold by asset dedication llc goalfusion wealth management llc ha million stock position in vanguard value etf nysearcavtv hughes financial service llc take position in vanguard value etf nysearcavtv rainey randall wealth advisor inc invests in zoetis inc nysezts hoag open new health center monday in san clemente oxbow advisor llc sell share of vanguard growth etf nysearcavug ishares tip bond etf nysearcatip share bought by hughes financial service llc schear investment adviser llc ha position in marathon petroleum corporation nysempc who is the most handsome waterbomb seoul star vote now maga faithful weigh in on epstein file debate prisoner in france escape in his cellmates bag homeowner and driver would pay for these scheme homeowner and driver would pay for these scheme homeowner and driver would pay for these scheme texas nw office had no warning coordination meteorologist during the flood did it make a difference caster semenyas sex eligibility battle ha confounded sport for yearsand still isnt over prudent man advisor llc boost stock position in deere company nysede prudent man advisor llc purchase share of costco wholesale corporation nasdaqcost mqs management llc buy share of lockheed martin corporation nyselmt prudent man advisor llc purchase share of alphabet inc nasdaqgoog ballentine partner llc increase stock holding in waste management inc nysewm promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of bristol myers squibb company nysebmy video game stock to follow now july th stephen inc ar increase position in walmart inc nysewmt schechter investment advisor llc ha million stock position in vanguard total international stock etf nasdaqvxus trump could potentially fire fed powell over building renovation hassett say learn how to can your own garden fresh produce mason investment advisory service inc ha stock position in procter gamble company the nysepg fulton breakefield broenniman llc purchase share of vanguard dividend appreciation etf nysearcavig fulton breakefield broenniman llc buy share of ishares core sp smallcap etf nysearcaijr prudent man advisor llc sell share of conocophillips nysecop sfs zero fatality goal crash into reality sfs zero fatality goal crash into reality sfs zero fatality goal crash into reality wilkinson global asset management llc buy share of parkerhannifin corporation nyseph reyes financial architecture inc purchase share of vanguard shortterm bond etf nysearcabsv lri investment llc purchase share of ishares u technology etf nysearcaiyw lri investment llc ha position in blackstone inc nysebx gopled state discussing plan to build prison like alligator alcatraz noem lri investment llc ha stake in danaher corporation nysedhr mark group wealth management inc acquires share of eaton corporation plc nyseetn dock street asset management inc acquires share of abbott laboratory nyseabt greatmark investment partner inc ha million stake in paychex inc nasdaqpayx oxbow advisor llc boost holding in jpmorgan ultrashort income etf nysearcajpst trunorth capital management llc purchase share of rtx corporation nysertx mutual of america capital management llc decrease stock holding in att inc nyset edge asset management lp boost holding in spdr portfolio emerging market etf nysearcaspem sen padilla ice is getting more aggressive more cruel more extreme child killed in albion hitandrun man charged legacy financial group inc cut stake in vanguard shortterm inflationprotected security etf nasdaqvtip ken morris be very careful what you do two year ago legacy financial group inc reduces stake in dimensional u core equity etf nysearcadfac left brain wealth management llc cut stock holding in applovin corporation nasdaqapp were going to litigate that order homan responds to judge restricting ice raid in la reyes financial architecture inc purchase share of ww grainger inc nysegww lri investment llc sell share of corning incorporated nyseglw kerntke otto mcglone wealth management group trim position in vanguard midcap etf nysearcavo one year after trump assassination attempt in butler change at secret service but question remain axecap investment llc sell share of apple inc nasdaqaapl fifth third bancorp sell share of apple inc nasdaqaapl sagace wealth management llc sell share of microsoft corporation nasdaqmsft microsoft corporation nasdaqmsft stake lowered by tran capital management lp define financial llc buy share of microsoft corporation nasdaqmsft sapient capital llc sell share of microsoft corporation nasdaqmsft teacher retirement system of texas sell share of safety insurance group inc nasdaqsaft teacher retirement system of texas sell share of organon co nyseogn teacher retirement system of texas cut stock holding in artisan partner asset management inc nyseapam teacher retirement system of texas buy new share in a o smith corporation nyseaos rev group inc nyserevg position trimmed by teacher retirement system of texas share in lamb weston nyselw acquired by teacher retirement system of texas bridgebio pharma inc nasdaqbbio share sold by teacher retirement system of texas two west capital advisor llc trim position in apple inc nasdaqaapl teacher retirement system of texas take million position in community health system inc nysecyh teacher retirement system of texas ha million position in portland general electric company nysepor teacher retirement system of texas buy share of ugi corporation nyseugi teacher retirement system of texas ha million stake in ziff davis inc nasdaqzd teacher retirement system of texas purchase new stake in the campbell company nasdaqcpb asian heat squeeze lng flow to europe borgwarner inc nysebwa share sold by cambridge investment research advisor inc teacher retirement system of texas ha million stake in madrigal pharmaceutical inc nasdaqmdgl exclusive interview the future belongs to nocodes with deep ai integration abhinav girdhar ceo founder appy pie european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff relx nyserelx rating lowered to hold at wall street zen southside bancshares nysesbsi rating lowered to sell at wall street zen wall street zen downgrade vista energy nysevist to sell bank of america cut primo brand nyseprmb price target to silgan nyseslgn price target raised to stifel financial nysesf price target raised to ubiquitis ui buy rating reiterated at bw financial wall street zen upgrade rafael nyserfl to hold charles schwab nyseschw price target raised to sea nysese stock rating lowered by wall street zen sealed air nysesee price target raised to wall street zen upgrade te connectivity nysetel to buy telus digital nysetixt stock rating upgraded by wall street zen sealed air nysesee price target raised to telephone and data system nysetds stock rating upgraded by wall street zen synovus financial nysesnv price target raised to truist financial cut sonoco product nyseson price target to att nyset price target raised to wec energy group nysewec rating lowered to sell at wall street zen exxon mobil nysexom price target raised to at scotiabank truist financial raise webster financial nysewbs price target to top ai stock to buy this week the place report surge in company relocation driving demand for flexible office space in dubai and riyadh rockfire resource lonrock stock price up still a buy rockfire resource lonrock trading up should you buy new zealand energy cvenz trading down here what happened argentina lithium energy cvelit share down should you sell silver spruce resource cvesse share down here what happened silver spruce resource cvesse trading down time to sell new zealand energy cvenz trading down should you sell argentina lithium energy cvelit stock price down here why geomega resource cvegma stock price up whats next geomega resource cvegma trading higher still a buy geomega reso</t>
+          <t>time run out for nearly centuryold michigan clock company due to tariff other factor ap news sage rhino capital llc sell share of shell plc unsponsored adr nyseshel vanguard total stock market etf nysearcavti position increased by seamount financial group inc sage rhino capital llc acquires share of vanguard total stock market etf nysearcavti kesler norman wride llc boost stake in broadcom inc nasdaqavgo genus capital management inc invests million in ishares msci eafe etf nysearcaefa sage rhino capital llc buy share of broadcom inc nasdaqavgo vanguard total stock market etf nysearcavti is clarity wealth advisor llcs rd largest position seamount financial group inc buy share of vanguard dividend appreciation etf nysearcavig state of michigan retirement system ha million stock holding in chubb limited nysecb state of michigan retirement system ha million position in lam research corporation nasdaqlrcx clarity wealth advisor llc reduces holding in the walt disney company nysedis genus capital management inc make new investment in ishares msci eafe etf nysearcaefa kesler norman wride llc buy share of vanguard information technology etf nysearcavgt chubb limited nysecb share sold by state of michigan retirement system sage rhino capital llc purchase share of broadcom inc nasdaqavgo state of michigan retirement system decrease stake in lam research corporation nasdaqlrcx seamount financial group inc raise stock holding in vanguard dividend appreciation etf nysearcavig think quantum computing will be the next big thing these are the stock to buy today boss quietly veto devastating law that may pull the rug out on american and thousand would lose cash ford recall vehicle over fuel pump defect manufacturing layoff at pacira oak hill bios phase angelman data france launch criminal investigation into musk x over algorithm manipulation politicoeu trump million crypto mystery man reuters buy the dip win again for stock investor rockwell automation pharmasuite power sinteticas swiss drug production teledyne raymarine acquires maretron asset to boost marine automation cummins unveils new hydrogen turbocharger for european heavyduty engine dover techcon unveils new precision dispensing cartridge for key industry carrier global enhances aipowered abound app for proactive building management trane technology debut first u dynamic closed loop geothermal system in chicago school district johnson control sensormatic solution launch aipowered shopper tracking with privacyfirst reid technology goldman sachs mustbuy chip stock and a few you should forget honeywell explores sale of two division ahead of planned split raytheon from rtx demonstrates autonomous barracuda mine neutralization vehicle gmbacked energyx expands lithium holding in u smackover formation with pantera acquisition boeing win b space force contract for nextgen nuclear comms satellite penguin solution launch nextgen stratus ztc endurance for ultrahigh availability ai workload clarivate unveils enhanced g research innovation scorecard with expanded data ai insight xerox completes b lexmark acquisition support print market position globant suntory global spirit partner to deploy gen ai commercial insight agent concentrix half carbon emission target by detail progress in sustainability report dxc technology aipowered tendia solution slash bid writing time for ventia genpact launch aipowered ap suite to revolutionize account payable process kyndryl launch new aipowered service to accelerate mainframe migration to aws saic awarded m air force contract for rapid warfighting prototype development shopper can now buy a bjs membership for just a year in new deal it cheaper than rival sam club u bank set to post trading gain on trump tariff turmoil cognizant pledge to white house ai education initiative aim to train m by education department to resume interest accrual on million student loan borrower rtx corporation nysertx stake reduced by cfolife group llc fonville wealth management llc cut stake in costco wholesale corporation nasdaqcost kesler norman wride llc acquires share of invesco qqq nasdaqqqq bernardo wealth planning llc cut stock holding in alphabet inc nasdaqgoog nextera energy inc nysenee holding lifted by cerity partner llc leavell investment management inc reduces position in ishares core u aggregate bond etf nysearcaagg leavell investment management inc raise stake in uber technology inc nyseuber fonville wealth management llc sell share of southern company the nyseso cerity partner llc boost holding in invesco qqq nasdaqqqq capital insight partner llc raise stock holding in freeportmcmoran inc nysefcx kesler norman wride llc sell share of stryker corporation nysesyk costco wholesale corporation nasdaqcost share sold by alp advisor inc fonville wealth management llc increase stake in vanguard growth etf nysearcavug capital insight partner llc acquires share of freeportmcmoran inc nysefcx kesler norman wride llc increase stock holding in linde plc nasdaqlin phillips financial management llc sell share of schwab u largecap etf nysearcaschx financial gravity asset management inc purchase new position in costco wholesale corporation nasdaqcost kesler norman wride llc sell share of stryker corporation nysesyk parr mcknight wealth management group llc trim holding in spdr gold share nysearcagld cerity partner llc trim stock position in adobe inc nasdaqadbe uk business confidence plummet to threeyear low icaew walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid wall street giant issue stark message on sp walmart recall water bottle after two consumer suffer vision loss from ejecting lid ap news nikki bella discusses wwe evolution looking at ge vernovas recent unusual option activity check out what whale are doing with citigroup analyzing broadcom in comparison to competitor in semiconductor semiconductor equipment industry chief executive officer of integral ad science holdi sold k in stock italianstyle villa in south minneapolis linden hill listed for m sell alert aaron yeon ho lee cash out m in acushnet holding stock sell alert kevin chang keun yoon cash out m in acushnet holding stock allworth financial lp raise holding in pepsico inc nasdaqpep state of michigan retirement system ha million holding in philip morris international inc nysepm state of michigan retirement system sell share of intuit inc nasdaqintu cisco system inc nasdaqcsco share sold by state of michigan retirement system state of michigan retirement system sell share of pepsico inc nasdaqpep leavell investment management inc sell share of merck co inc nysemrk mjp associate inc adv increase stake in invesco sp equal weight etf nysearcarsp state of michigan retirement system cut stake in merck co inc nysemrk state of michigan retirement system reduces holding in ishares core sp midcap etf nysearcaijh merck co inc nysemrk stake reduced by leavell investment management inc insider decision gene soo yoon yoon offloads m worth of acushnet holding stock lacroix announces new partnership with the dallas wing wnba team royal caribbean take delivery of world largest cruise ship insider decision tod e carpenter exercise option at donaldson for m evaluating apple against peer in technology hardware storage peripheral industry clarity wealth advisor llc sell share of the walt disney company nysedis state of michigan retirement system reduces stock holding in cme group inc nasdaqcme state of michigan retirement system ha million stock holding in palo alto network inc nasdaqpanw sage rhino capital llc cut position in vanguard ftse allworld exus etf nysearcaveu cfc planning co llc ha million stake in the walt disney company nysedis parr mcknight wealth management group llc sell share of spdr gold share nysearcagld kesler norman wride llc ha million position in fortinet inc nasdaqftnt round rock advisor llc purchase share of verizon communication inc nysevz financial gravity asset management inc buy share of costco wholesale corporation nasdaqcost phillips financial management llc sell share of schwab u largecap etf nysearcaschx round rock advisor llc ha stock holding in salesforce inc nysecrm kesler norman wride llc buy share of linde plc nasdaqlin omb director question powell over fed hq renovation spending perfektblue bluetooth vulnerability expose million of vehicle to remote code execution trump doing all the thing he said he would bondi or bongino bongino wont remain at fbi if bondi keep job source say u is selling weapon to nato ally to give to ukraine trump say ishares core sp midcap etf nysearcaijh share sold by state of michigan retirement system kla corporation nasdaqklac share bought by mjp associate inc adv state of michigan retirement system ha million stock position in merck co inc nysemrk veteran political reporter reveals what the medium missed about trump appeal to american in back to back barrie could the antisemitism plan be used to silence dissent podcast the special envoy plan is the latest push to weaponise antisemitism a a relentless campaign pay off louise adler albanese must be careful that tackling antisemitism doesnt curb free speech tom mcilroy virginia rep john mcguire bought over k worth of meta platform stock here what you should know congressional trading report rep susie lee sold over k in full house resort stock state right to sue over medical privacy state right to sue over medical privacy state right to sue over medical privacy california rep gilbert ray cisneros sold over k worth of springworks therapeutic inc ordinary share stock here what you should know laurel libby stood strong in the face of tyranny letter beth claybourn interior trump new front in the war on drug the bank the u air force want million to double production of the aim missile new themed playground equipment officially open for use in two lake charles park steve mann more on the aftermath of magees time in san bruno new england professional planning group inc reduces holding in international business machine corporation nyseibm pfizer inc nysepfe share sold by new england professional planning group inc diversify wealth management llc buy share of cocacola company the nyseko bipartisan legislation aim to legalize adultuse cannabis in pennsylvania cerity partner llc boost holding in mcdonalds corporation nysemcd mjp associate inc adv raise stock position in mcdonalds corporation nysemcd mcdonalds corporation nysemcd share purchased by freedom day solution llc moloney security asset management llc buy share of vanguard total bond market etf nasdaqbnd benny blanco ha made so much music he ha to shazam his own tune elv deadline today rosen leading trial attorney encourages elevance health inc investor epstein conspiracy just isnt there teacher union reveals true color and more from fox news opinion stratos wealth advisor llc trim stock position in the goldman sachs group inc nysegs freedom day solution llc decrease stock holding in amgen inc nasdaqamgn lbp am sa sell share of visa inc nysev the mindful minute by jon heydenreich that martini and megaburger u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say greater midwest financial group llc purchase share of vanguard sp etf nysearcavoo barry investment advisor llc sell share of vanguard ftse emerging market etf nysearcavwo state department is firing over employee under trump administration plan rubio and wang stress cooperation after talk in malaysia a uschina tension simmer diversify wealth management llc buy share of ishares u treasury bond etf batsgovt cromwell holding llc decrease stake in micron technology inc nasdaqmu vanguard value etf nysearcavtv share sold by ade llc chevron corporation nysecvx share purchased by diversify wealth management llc cromwell holding llc raise stake in monolithic power system inc nasdaqmpwr church street road closure extended in brattleboro u is selling weapon to nato ally to give to ukraine trump say noqualifyjpg bill to clarify st louis sheriff duty stall in committee strategist flag very unusual trump admin loyalty test on cnn fidelis capital partner llc ha million stake in thermo fisher scientific inc nysetmo pkk fighter pile up their weapon in arm amnesty in northern iraq brazil vow retaliatory tariff against u if trump follows through on import tax new pac form to back mamdani nyc mayoral bid a business community rally to defeat him history program highlight the map and stone wall of dummerson financial gravity asset management inc buy new position in ishares tip bond etf nysearcatip phillips financial management llc increase holding in vanguard ftse developed market etf nysearcavea trump plan to hike tariff on canadian good to trump plan to tour texas flood damage a the scope of the disaster test his pledge to shutter fema trump plan to hike tariff on canadian good to ishares msci emerging market etf nysearcaeem share sold by ramsay stattman vela price inc burford brother inc raise position in the sherwinwilliams company nyseshw spdr dow jones industrial average etf trust nysearcadia position lifted by christopher j hasenberg inc genus capital management inc invests million in the sherwinwilliams company nyseshw state department to axe employee state of michigan retirement system boost stock position in prologis inc nysepld advanced micro device inc nasdaqamd share purchased by clarity wealth advisor llc seamount financial group inc sell share of vanguard total world stock etf nysearcavt share in vaneck gold miner etf nysearcagdx acquired by sage rhino capital llc vestia personal wealth advisor increase position in dimensional u marketwide value etf nysearcadfuv milwaukee remove fonzie statue amid reckoning with greaser past noqualifyingjpg exxon mobil corporation nysexom share sold by pineridge advisor llc cfolife group llc buy share of ge aerospace nysege stonebrook private inc buy share of vanguard total stock market etf nysearcavti allworth financial lp grows position in united parcel service inc nyseups cerity partner llc sell share of adobe inc nasdaqadbe adobe inc nasdaqadbe holding lowered by xponance inc honeywell international inc nasdaqhon share bought by kesler norman wride llc amphenol corporation nyseaph position boosted by cerity partner llc b t capital management dba alpha capital management make new investment in taiwan semiconductor manufacturing company ltd nysetsm vanguard midcap etf nysearcavo is beirne wealth consulting service llcs th largest position vanguard smallcap etf nysearcavb share sold by b t capital management dba alpha capital management walmart inc nysewmt position increased by fort sheridan advisor llc kathmere capital management llc buy share of vanguard smallcap etf nysearcavb kathmere capital management llc purchase share of walmart inc nysewmt ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc kathmere capital management llc purchase share of vanguard smallcap etf nysearcavb b t capital management dba alpha capital management boost position in honeywell international inc nasdaqhon fort sheridan advisor llc boost stake in walmart inc nysewmt ifc advisor llc sell share of the home depot inc nysehd ifc advisor llc ha million holding in pepsico inc nasdaqpep quest wealth builder inc sell share of eli lilly and company nyselly caterpillar inc nysecat share sold by ifc advisor llc ballentine partner llc lower position in invesco qqq nasdaqqqq quest wealth builder inc sell share of pepsico inc nasdaqpep ballentine partner llc sell share of invesco qqq nasdaqqqq caterpillar inc nysecat share sold by ifc advisor llc eureka business weather economic uncertainty ap business summarybrief at pm edt ap business summarybrief at pm edt why share of the metal company skyrocketed in the first half of why share of the metal company skyrocketed in the first half of is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store fulcrum equity management ha stake in broadcom inc nasdaqavgo why nvidia partner navitas semiconductor surged in the first half of why nvidia partner navitas semiconductor surged in the first half of a bitcoin matures volatility dropsso expect slower climb say expert decrypt crypto top gainer why blockdag solana pepe and render are leading in growth and utility how ai notetakers can become the black box of business the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation iron ore price surge amid china industrial crackdown northwest capital management inc buy share of ishares core sp midcap etf nysearcaijh rational advisor inc invests million in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc buy share of lowes company inc nyselow mjp associate inc adv ha holding in blackstone inc nysebx cerity partner llc grows stock position in palantir technology inc nasdaqpltr trump to impose tariff on eu mexico starting aug trump to impose eu tariff on aug trumnp to impose eu tariff on august trump announces tariff on import from mexico eu eu say it still want u trade deal will defend interest tucker carlson reveals who he think funded jeffrey epstein crime focused wealth management inc increase stock position in merck co inc nysemrk roger wittlin investment advisory llc acquires share of vanguard sp etf nysearcavoo family firm inc ha million stock holding in ishares russell etf nysearcaiwm schwab u smallcap etf nysearcascha share sold by family firm inc roger wittlin investment advisory llc purchase share of vanguard sp etf nysearcavoo quest wealth builder inc ha stock holding in parkerhannifin corporation nyseph share in vanguard high dividend yield etf nysearcavym acquired by stillwater wealth management group ishares russell etf nysearcaiwm share sold by family firm inc well fargo company nysewfc share sold by family firm inc bank of america corporation nysebac share acquired by fortem financial group llc fortem financial group llc boost stock position in att inc nyset unitedhealth down is the dividend still safe netflix inc nasdaqnflx share acquired by martin capital advisor llp vanguard ftse developed market etf nysearcavea share purchased by bridge generation wealth management llc riversedge advisor llc grows holding in vanguard ftse emerging market etf nysearcavwo american financial advisor llc reduces stock holding in ge vernova inc nysegev crowdstrike nasdaqcrwd share acquired by american financial advisor llc riversedge advisor llc purchase share of alphabet inc nasdaqgoog vanguard value etf nysearcavtv share purchased by riversedge advisor llc vanguard value etf nysearcavtv share purchased by riversedge advisor llc crowdstrike nasdaqcrwd share bought by american financial advisor llc tesla inc nasdaqtsla share bought by riversedge advisor llc riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million position in ishares core sp etf nysearcaivv vanguard ftse developed market etf nysearcavea position decreased by riversedge advisor llc grant grossmendelsohn llc ha holding in vanguard ftse developed market etf nysearcavea dogecoins doge holder are shifting to ruvi ai ruvi passed audit and early entry bonus make it the smarter bet auour investment llc ha million stake in ishares core msci eafe etf batsiefa fort sheridan advisor llc raise stock holding in abbott laboratory nyseabt beirne wealth consulting service llc increase stock position in ishares core msci eafe etf batsiefa b t capital management dba alpha capital management buy share of schwab u largecap growth etf nysearcaschg b t capital management dba alpha capital management purchase share of schwab u largecap growth etf nysearcaschg quest wealth builder inc cut stock position in walmart inc nysewmt ifc advisor llc reduces position in vanguard midcap etf nysearcavo spdr gold share nysearcagld share purchased by acorn wealth advisor llc ballentine partner llc increase position in chevron corporation nysecvx acorn wealth advisor llc sell share of ishares core sp smallcap etf nysearcaijr acorn wealth advisor llc ha stock position in vanguard midcap etf nysearcavo acorn wealth advisor llc reduces stock position in ishares core sp smallcap etf nysearcaijr ballentine partner llc acquires share of walmart inc nysewmt history say these stock could be big winner in the second half history say these stock could be big winner in the second half alp advisor inc ha million stock position in kkr co inc nysekkr eli lilly and company nyselly share sold by wealthtrust asset management llc eli lilly and company nyselly is harmony asset management llcs th largest position the home depot inc nysehd share purchased by lane associate llc fulcrum equity management lower stock holding in eli lilly and company nyselly fulcrum equity management sell share of eli lilly and company nyselly servicenow inc nysenow share acquired by steelpeak wealth llc trump target mexico eu with tariff hartford bakery inc voluntarily recall hundred of loaf of artisanal bread sold in state cbs news reader view we can all reduce greenhouse gas shes great trump back bondi want top official to end conflict over epstein ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc chevron corporation nysecvx share acquired by b t capital management dba alpha capital management forum private client group llc ha million position in vanguard midcap etf nysearcavo b t capital management dba alpha capital management increase stake in honeywell international inc nasdaqhon beirne wealth consulting service llc acquires share of vanguard smallcap etf nysearcavb ifc advisor llc boost holding in kkr co inc nysekkr ballentine partner llc grows holding in eli lilly and company nyselly young democrat have called for a rebrand theyre vying to replace the party old guard temperance in cabinetry climate change helped fuel heavy rain that led to devastating texas flood former pentagon insider could trump big beautiful bill finally unlock america longforgotten resource archaeolgists find largestever ceremony hall weapon hoard the democratic party is missing an opportunity to engage christian voter northwest capital management inc purchase share of ishares core sp midcap etf nysearcaijh rational advisor inc take position in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc acquires share of lowes company inc nyselow parkerhannifin corporation nyseph share sold by quest wealth builder inc family firm inc lower stock holding in schwab u smallcap etf nysearcascha family firm inc reduces stock holding in well fargo company nysewfc stillwater wealth management group invests in vanguard high dividend yield etf nysearcavym extrump lawyer dershowitz claim knowledge of epstein client list i know the name but im bound by confidentiality grant grossmendelsohn llc purchase share of vanguard ftse developed market etf nysearcavea riversedge advisor llc cut stake in vanguard ftse developed market etf nysearcavea piper sandler issue positive forecast for netflix nasdaqnflx stock price riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million stake in ishares core sp etf nysearcaivv riversedge advisor llc increase stake in ishares core sp etf nysearcaivv start exploring cloud mining for free from the new winnermining app and get visible daily reward forum private client group llc trim position in vanguard growth etf nysearcavug fort sheridan advisor llc buy share of vanguard growth etf nysearcavug the big beautiful bill and mlp qualifying income acorn wealth advisor llc lower holding in chevron corporation nysecvx ballentine partner llc buy share of walmart inc nysewmt ballentine partner llc sell share of ishares core sp smallcap etf nysearcaijr lane associate llc sell share of eli lilly and company nyselly harmony asset management llc ha million holding in the home depot inc nysehd steelpeak wealth llc ha million stake in the progressive corporation nysepgr servicenow inc nysenow share acquired by steelpeak wealth llc trump threatens rosie odonnells citizenship she is a threat to humanity annual new london to new brighton antique car run to take place aug coyle financial counsel llc invests in qualcomm incorporated nasdaqqcom broadcom inc nasdaqavgo share sold by skyoak wealth llc forum private client group llc take position in elevance health inc nyseelv a major red flag for republican a trump policy threatens their future fbi director kash patel responds to controversy surrounding epstein file stillwater wealth management group grows position in amgen inc nasdaqamgn riversedge advisor llc grows stake in tesla inc nasdaqtsla fort sheridan advisor llc ha position in kla corporation nasdaqklac kathmere capital management llc grows holding in vanguard value etf nysearcavtv nycs broken election system need far more than these bandaid fix ballentine partner llc ha million position in abbott laboratory nyseabt abbott laboratory nyseabt share acquired by ifc advisor llc trump post support for embattled attorney general pam bondi ma private wealth take position in bristol myers squibb company nysebmy parkerhannifin corporation nyseph share sold by lbp am sa harmony asset management llc reduces stock position in chevron corporation nysecvx bonus editorial cartoon for july federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff lawmaker visit alligator alcatraz but some wonder how much theyll get to see man convicted of meredith kerchers murder facing trial for sexual assault federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff focused wealth management inc ha million stake in walmart inc nysewmt berbice capital management llc grows position in kkr co inc nysekkr coyle financial counsel llc raise holding in invesco qqq nasdaqqqq meet china man in lima who jetted over to u to collect train donated by biden admin amazon prime day delivers record sale and saving in expanded fourday shopping event how new tax legislation impact clean energy tax credit the dalai lama is planning his succession a the ultimate protest against china the u army m vulcan air defense system wa a beast in the vietnam war the us john f kennedy fordclass carrier may miss it delivery date comcast corporation nasdaqcmcsa share sold by sage rhino capital llc kesler norman wride llc sell share of comcast corporation nasdaqcmcsa exchange capital management inc sell share of servicenow inc nysenow fukoku mutual life insurance co sell share of duke energy corporation nyseduk cerity partner llc buy share of asml holding nv nasdaqasml mjp associate inc adv take position in elevance health inc nyseelv fidelis capital partner llc boost stock position in elevance health inc nyseelv reader view u must invest in our independence candidate view localgovernment focus would benefit school board stillwater wealth management group reduces position in unitedhealth group incorporated nyseunh martin capital advisor llp sell share of oracle corporation nyseorcl park square financial group llc decrease stock position in ishares core sp midcap etf nysearcaijh fortem financial group llc purchase share of blackstone inc nysebx pya waltman capital llc ha million stake in mcdonalds corporation nysemcd massachusetts police officer shot by colleague victim of campaign to criminalize her lawyer horrified by alligator alcatraz letter coyle financial counsel llc ha million stake in ishares core sp etf nysearcaivv vanguard high dividend yield etf nysearcavym stock holding decreased by auour investment llc ifc advisor llc increase position in ishares russell etf nysearcaiwm forum private client group llc purchase new stake in cummins inc nysecmi fortem financial group llc grows holding in tesla inc nasdaqtsla vanguard ftse developed market etf nysearcavea share purchased by beirne wealth consulting service llc schear investment adviser llc buy share of tmobile u inc nasdaqtmus jrmc recognized for infection control rate wall street pro drop bold price target on circle stock bitcoin hit new alltime high above k a trader eye week uptrend cointelegraph cardinal strategic wealth guidance cut position in alphabet inc nasdaqgoog bradley co private wealth management llc reduces position in costco wholesale corporation nasdaqcost pointe capital management llc grows holding in the walt disney company nysedis westmount partner llc sell share of amgen inc nasdaqamgn westmount partner llc sell share of starbucks corporation nasdaqsbux westmount partner llc trim holding in lockheed martin corporation nyselmt q asset management buy share of williams company inc the nysewmb westmount partner llc trim holding in lockheed martin corporation nyselmt westmount partner llc trim stock position in amgen inc nasdaqamgn zullo investment group inc lower stock position in alphabet inc nasdaqgoog trunorth capital management llc acquires share of vanguard sp etf nysearcavoo pointe capital management llc boost holding in linde plc nasdaqlin ishares core u aggregate bond etf nysearcaagg share acquired by pointe capital management llc nextera energy inc nysenee share sold by pointe capital management llc bristol myers squibb company nysebmy stock holding lifted by prudent man advisor llc mqs management llc buy new position in nextera energy inc nysenee prudent man advisor llc acquires new position in blackrock nyseblk zullo investment group inc buy share of eli lilly and company nyselly zullo investment group inc acquires share of eli lilly and company nyselly zullo investment group inc cut stake in m company nysemmm prudent man advisor llc make new million investment in blackrock nyseblk mqs management llc take position in nextera energy inc nysenee ai financial service llc boost holding in eli lilly and company nyselly u tomato price could jump a soon a monday xrp break out near gain yet blockdags coin unlock chance at steal market focus top altcoins still lag while bitcoin stay strong promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of kimberlyclark co nysekmb citigroup inc nysec share purchased by ballentine partner llc cigna group nyseci share bought by ballentine partner llc ballentine partner llc purchase share of the sherwinwilliams company nyseshw arizona state retirement system purchase share of kimberlyclark co nysekmb bankplus trust department grows holding in ishares core sp smallcap etf nysearcaijr berkeley inc ha million holding in schwab u largecap etf nysearcaschx arizona state retirement system increase stake in kimberlyclark co nysekmb fdx advisor inc invests in medtronic plc nysemdt how trump latest tariff threat risk deeper damage to europe economy fort sheridan advisor llc increase stock position in cocacola company the nyseko fortem financial group llc sell share of conocophillips nysecop blackstone inc nysebx share bought by louisiana state employee retirement system eaton corporation plc nyseetn share sold by stephen inc ar taiwan semiconductor manufacturing company ltd nysetsm share sold by fulton breakefield broenniman llc why broadcoms avgo ai momentum ha goldman sachs backing the stock on gps nvidia ceo on the overwhelmingly positive effect of ai isthmus partner llc sell share of thermo fisher scientific inc nysetmo whitener ca</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>b t capital management dba alpha capital management make new investment in taiwan semiconductor manufacturing company ltd nysetsm vanguard midcap etf nysearcavo is beirne wealth consulting service llcs th largest position vanguard smallcap etf nysearcavb share sold by b t capital management dba alpha capital management walmart inc nysewmt position increased by fort sheridan advisor llc kathmere capital management llc buy share of vanguard smallcap etf nysearcavb kathmere capital management llc purchase share of walmart inc nysewmt ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc kathmere capital management llc purchase share of vanguard smallcap etf nysearcavb b t capital management dba alpha capital management boost position in honeywell international inc nasdaqhon fort sheridan advisor llc boost stake in walmart inc nysewmt ifc advisor llc sell share of the home depot inc nysehd ifc advisor llc ha million holding in pepsico inc nasdaqpep quest wealth builder inc sell share of eli lilly and company nyselly caterpillar inc nysecat share sold by ifc advisor llc ballentine partner llc lower position in invesco qqq nasdaqqqq quest wealth builder inc sell share of pepsico inc nasdaqpep ballentine partner llc sell share of invesco qqq nasdaqqqq caterpillar inc nysecat share sold by ifc advisor llc eureka business weather economic uncertainty ap business summarybrief at pm edt ap business summarybrief at pm edt why share of the metal company skyrocketed in the first half of why share of the metal company skyrocketed in the first half of is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store fulcrum equity management ha stake in broadcom inc nasdaqavgo why nvidia partner navitas semiconductor surged in the first half of why nvidia partner navitas semiconductor surged in the first half of a bitcoin matures volatility dropsso expect slower climb say expert decrypt crypto top gainer why blockdag solana pepe and render are leading in growth and utility how ai notetakers can become the black box of business the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation iron ore price surge amid china industrial crackdown northwest capital management inc buy share of ishares core sp midcap etf nysearcaijh rational advisor inc invests million in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc buy share of lowes company inc nyselow mjp associate inc adv ha holding in blackstone inc nysebx cerity partner llc grows stock position in palantir technology inc nasdaqpltr trump to impose tariff on eu mexico starting aug trump to impose eu tariff on aug trumnp to impose eu tariff on august trump announces tariff on import from mexico eu eu say it still want u trade deal will defend interest tucker carlson reveals who he think funded jeffrey epstein crime focused wealth management inc increase stock position in merck co inc nysemrk roger wittlin investment advisory llc acquires share of vanguard sp etf nysearcavoo family firm inc ha million stock holding in ishares russell etf nysearcaiwm schwab u smallcap etf nysearcascha share sold by family firm inc roger wittlin investment advisory llc purchase share of vanguard sp etf nysearcavoo quest wealth builder inc ha stock holding in parkerhannifin corporation nyseph share in vanguard high dividend yield etf nysearcavym acquired by stillwater wealth management group ishares russell etf nysearcaiwm share sold by family firm inc well fargo company nysewfc share sold by family firm inc bank of america corporation nysebac share acquired by fortem financial group llc fortem financial group llc boost stock position in att inc nyset unitedhealth down is the dividend still safe netflix inc nasdaqnflx share acquired by martin capital advisor llp vanguard ftse developed market etf nysearcavea share purchased by bridge generation wealth management llc riversedge advisor llc grows holding in vanguard ftse emerging market etf nysearcavwo american financial advisor llc reduces stock holding in ge vernova inc nysegev crowdstrike nasdaqcrwd share acquired by american financial advisor llc riversedge advisor llc purchase share of alphabet inc nasdaqgoog vanguard value etf nysearcavtv share purchased by riversedge advisor llc vanguard value etf nysearcavtv share purchased by riversedge advisor llc crowdstrike nasdaqcrwd share bought by american financial advisor llc tesla inc nasdaqtsla share bought by riversedge advisor llc riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million position in ishares core sp etf nysearcaivv vanguard ftse developed market etf nysearcavea position decreased by riversedge advisor llc grant grossmendelsohn llc ha holding in vanguard ftse developed market etf nysearcavea dogecoins doge holder are shifting to ruvi ai ruvi passed audit and early entry bonus make it the smarter bet auour investment llc ha million stake in ishares core msci eafe etf batsiefa fort sheridan advisor llc raise stock holding in abbott laboratory nyseabt beirne wealth consulting service llc increase stock position in ishares core msci eafe etf batsiefa b t capital management dba alpha capital management buy share of schwab u largecap growth etf nysearcaschg b t capital management dba alpha capital management purchase share of schwab u largecap growth etf nysearcaschg quest wealth builder inc cut stock position in walmart inc nysewmt ifc advisor llc reduces position in vanguard midcap etf nysearcavo spdr gold share nysearcagld share purchased by acorn wealth advisor llc ballentine partner llc increase position in chevron corporation nysecvx acorn wealth advisor llc sell share of ishares core sp smallcap etf nysearcaijr acorn wealth advisor llc ha stock position in vanguard midcap etf nysearcavo acorn wealth advisor llc reduces stock position in ishares core sp smallcap etf nysearcaijr ballentine partner llc acquires share of walmart inc nysewmt history say these stock could be big winner in the second half history say these stock could be big winner in the second half alp advisor inc ha million stock position in kkr co inc nysekkr eli lilly and company nyselly share sold by wealthtrust asset management llc eli lilly and company nyselly is harmony asset management llcs th largest position the home depot inc nysehd share purchased by lane associate llc fulcrum equity management lower stock holding in eli lilly and company nyselly fulcrum equity management sell share of eli lilly and company nyselly servicenow inc nysenow share acquired by steelpeak wealth llc trump target mexico eu with tariff hartford bakery inc voluntarily recall hundred of loaf of artisanal bread sold in state cbs news reader view we can all reduce greenhouse gas shes great trump back bondi want top official to end conflict over epstein ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc chevron corporation nysecvx share acquired by b t capital management dba alpha capital management forum private client group llc ha million position in vanguard midcap etf nysearcavo b t capital management dba alpha capital management increase stake in honeywell international inc nasdaqhon beirne wealth consulting service llc acquires share of vanguard smallcap etf nysearcavb ifc advisor llc boost holding in kkr co inc nysekkr ballentine partner llc grows holding in eli lilly and company nyselly young democrat have called for a rebrand theyre vying to replace the party old guard temperance in cabinetry climate change helped fuel heavy rain that led to devastating texas flood former pentagon insider could trump big beautiful bill finally unlock america longforgotten resource archaeolgists find largestever ceremony hall weapon hoard the democratic party is missing an opportunity to engage christian voter northwest capital management inc purchase share of ishares core sp midcap etf nysearcaijh rational advisor inc take position in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc acquires share of lowes company inc nyselow parkerhannifin corporation nyseph share sold by quest wealth builder inc family firm inc lower stock holding in schwab u smallcap etf nysearcascha family firm inc reduces stock holding in well fargo company nysewfc stillwater wealth management group invests in vanguard high dividend yield etf nysearcavym extrump lawyer dershowitz claim knowledge of epstein client list i know the name but im bound by confidentiality grant grossmendelsohn llc purchase share of vanguard ftse developed market etf nysearcavea riversedge advisor llc cut stake in vanguard ftse developed market etf nysearcavea piper sandler issue positive forecast for netflix nasdaqnflx stock price riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million stake in ishares core sp etf nysearcaivv riversedge advisor llc increase stake in ishares core sp etf nysearcaivv start exploring cloud mining for free from the new winnermining app and get visible daily reward forum private client group llc trim position in vanguard growth etf nysearcavug fort sheridan advisor llc buy share of vanguard growth etf nysearcavug the big beautiful bill and mlp qualifying income acorn wealth advisor llc lower holding in chevron corporation nysecvx ballentine partner llc buy share of walmart inc nysewmt ballentine partner llc sell share of ishares core sp smallcap etf nysearcaijr lane associate llc sell share of eli lilly and company nyselly harmony asset management llc ha million holding in the home depot inc nysehd steelpeak wealth llc ha million stake in the progressive corporation nysepgr servicenow inc nysenow share acquired by steelpeak wealth llc trump threatens rosie odonnells citizenship she is a threat to humanity annual new london to new brighton antique car run to take place aug coyle financial counsel llc invests in qualcomm incorporated nasdaqqcom broadcom inc nasdaqavgo share sold by skyoak wealth llc forum private client group llc take position in elevance health inc nyseelv a major red flag for republican a trump policy threatens their future fbi director kash patel responds to controversy surrounding epstein file stillwater wealth management group grows position in amgen inc nasdaqamgn riversedge advisor llc grows stake in tesla inc nasdaqtsla fort sheridan advisor llc ha position in kla corporation nasdaqklac kathmere capital management llc grows holding in vanguard value etf nysearcavtv nycs broken election system need far more than these bandaid fix ballentine partner llc ha million position in abbott laboratory nyseabt abbott laboratory nyseabt share acquired by ifc advisor llc trump post support for embattled attorney general pam bondi ma private wealth take position in bristol myers squibb company nysebmy parkerhannifin corporation nyseph share sold by lbp am sa harmony asset management llc reduces stock position in chevron corporation nysecvx bonus editorial cartoon for july federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff lawmaker visit alligator alcatraz but some wonder how much theyll get to see man convicted of meredith kerchers murder facing trial for sexual assault federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff focused wealth management inc ha million stake in walmart inc nysewmt berbice capital management llc grows position in kkr co inc nysekkr coyle financial counsel llc raise holding in invesco qqq nasdaqqqq meet china man in lima who jetted over to u to collect train donated by biden admin amazon prime day delivers record sale and saving in expanded fourday shopping event how new tax legislation impact clean energy tax credit the dalai lama is planning his succession a the ultimate protest against china the u army m vulcan air defense system wa a beast in the vietnam war the us john f kennedy fordclass carrier may miss it delivery date comcast corporation nasdaqcmcsa share sold by sage rhino capital llc kesler norman wride llc sell share of comcast corporation nasdaqcmcsa exchange capital management inc sell share of servicenow inc nysenow fukoku mutual life insurance co sell share of duke energy corporation nyseduk cerity partner llc buy share of asml holding nv nasdaqasml mjp associate inc adv take position in elevance health inc nyseelv fidelis capital partner llc boost stock position in elevance health inc nyseelv reader view u must invest in our independence candidate view localgovernment focus would benefit school board stillwater wealth management group reduces position in unitedhealth group incorporated nyseunh martin capital advisor llp sell share of oracle corporation nyseorcl park square financial group llc decrease stock position in ishares core sp midcap etf nysearcaijh fortem financial group llc purchase share of blackstone inc nysebx pya waltman capital llc ha million stake in mcdonalds corporation nysemcd massachusetts police officer shot by colleague victim of campaign to criminalize her lawyer horrified by alligator alcatraz letter coyle financial counsel llc ha million stake in ishares core sp etf nysearcaivv vanguard high dividend yield etf nysearcavym stock holding decreased by auour investment llc ifc advisor llc increase position in ishares russell etf nysearcaiwm forum private client group llc purchase new stake in cummins inc nysecmi fortem financial group llc grows holding in tesla inc nasdaqtsla vanguard ftse developed market etf nysearcavea share purchased by beirne wealth consulting service llc schear investment adviser llc buy share of tmobile u inc nasdaqtmus jrmc recognized for infection control rate wall street pro drop bold price target on circle stock bitcoin hit new alltime high above k a trader eye week uptrend cointelegraph cardinal strategic wealth guidance cut position in alphabet inc nasdaqgoog bradley co private wealth management llc reduces position in costco wholesale corporation nasdaqcost pointe capital management llc grows holding in the walt disney company nysedis westmount partner llc sell share of amgen inc nasdaqamgn westmount partner llc sell share of starbucks corporation nasdaqsbux westmount partner llc trim holding in lockheed martin corporation nyselmt q asset management buy share of williams company inc the nysewmb westmount partner llc trim holding in lockheed martin corporation nyselmt westmount partner llc trim stock position in amgen inc nasdaqamgn zullo investment group inc lower stock position in alphabet inc nasdaqgoog trunorth capital management llc acquires share of vanguard sp etf nysearcavoo pointe capital management llc boost holding in linde plc nasdaqlin ishares core u aggregate bond etf nysearcaagg share acquired by pointe capital management llc nextera energy inc nysenee share sold by pointe capital management llc bristol myers squibb company nysebmy stock holding lifted by prudent man advisor llc mqs management llc buy new position in nextera energy inc nysenee prudent man advisor llc acquires new position in blackrock nyseblk zullo investment group inc buy share of eli lilly and company nyselly zullo investment group inc acquires share of eli lilly and company nyselly zullo investment group inc cut stake in m company nysemmm prudent man advisor llc make new million investment in blackrock nyseblk mqs management llc take position in nextera energy inc nysenee ai financial service llc boost holding in eli lilly and company nyselly u tomato price could jump a soon a monday xrp break out near gain yet blockdags coin unlock chance at steal market focus top altcoins still lag while bitcoin stay strong promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of kimberlyclark co nysekmb citigroup inc nysec share purchased by ballentine partner llc cigna group nyseci share bought by ballentine partner llc ballentine partner llc purchase share of the sherwinwilliams company nyseshw arizona state retirement system purchase share of kimberlyclark co nysekmb bankplus trust department grows holding in ishares core sp smallcap etf nysearcaijr berkeley inc ha million holding in schwab u largecap etf nysearcaschx arizona state retirement system increase stake in kimberlyclark co nysekmb fdx advisor inc invests in medtronic plc nysemdt how trump latest tariff threat risk deeper damage to europe economy fort sheridan advisor llc increase stock position in cocacola company the nyseko fortem financial group llc sell share of conocophillips nysecop blackstone inc nysebx share bought by louisiana state employee retirement system eaton corporation plc nyseetn share sold by stephen inc ar taiwan semiconductor manufacturing company ltd nysetsm share sold by fulton breakefield broenniman llc why broadcoms avgo ai momentum ha goldman sachs backing the stock on gps nvidia ceo on the overwhelmingly positive effect of ai isthmus partner llc sell share of thermo fisher scientific inc nysetmo whitener capital management inc ha million stake in verizon communication inc nysevz share in thermo fisher scientific inc nysetmo purchased by eos management lp lowes company inc nyselow share acquired by zullo investment group inc eos management lp invests million in thermo fisher scientific inc nysetmo whitener capital management inc raise stock holding in lowes company inc nyselow on gps nvidia ceo on whether ai will lead to job loss rosen a topranked law firm encourages rocket pharmaceutical inc investor to secure counsel before important deadline in security class action rckt dem strategist on trump epstein blowback you wound this up you caused this reyes financial architecture inc boost position in advanced micro device inc nasdaqamd lri investment llc ha holding in danaher corporation nysedhr on gps nvidia ceo on the uschina ai race iconic mall retailer face second chapter bankruptcy closure nvidias huang say china military unlikely to use u ai chip bloomberg greatmark investment partner inc ha position in rtx corporation nysertx mark group wealth management inc grows position in honeywell international inc nasdaqhon pfizer inc nysepfe share acquired by secured retirement advisor llc cwm llc purchase share of jpmorgan ultrashort income etf nysearcajpst tfr capital llc purchase share of rtx corporation nysertx cwm llc ha million position in jpmorgan ultrashort income etf nysearcajpst share in texas instrument incorporated nasdaqtxn purchased by secured retirement advisor llc trunorth capital management llc purchase share of fiserv inc nysefi iron horse wealth management llc purchase share of vanguard ftse developed market etf nysearcavea trunorth capital management llc ha stock holding in att inc nyset fulton breakefield broenniman llc ha million stock holding in vanguard ftse developed market etf nysearcavea abbott laboratory nyseabt share purchased by dock street asset management inc workday wday just got downgradedheres why analyst are worried about ai target sends stern message to employee amid customer struggle target sends stern message to employee amid customer struggle thestreet prism advisor inc trim stock position in ishares core msci eafe etf batsiefa the home depot inc nysehd position reduced by sentinel trust co lba philip morris international inc nysepm share sold by legacy financial group inc philip morris international inc nysepm share sold by legacy financial group inc texas congressman call for accountability after flood we cant just allow girl to drown in the middle of the night greatmark investment partner inc grows position in general mill inc nysegis tfr capital llc purchase share of jpmorgan equity premium income etf nysearcajepi greatmark investment partner inc reduces holding in southern company the nyseso tfr capital llc acquires share of cisco system inc nasdaqcsco greatmark investment partner inc trim holding in cisco system inc nasdaqcsco hughes financial service llc take position in southern company the nyseso greatmark investment partner inc trim stock position in cisco system inc nasdaqcsco tfr capital llc ha million stock position in vertex pharmaceutical incorporated nasdaqvrtx hughes financial service llc take position in southern company the nyseso brn the impact of sport betting is complicated is the stock market underestimating president trump tariff cwm llc sell share of gilead science inc nasdaqgild isthmus partner llc purchase share of accenture plc nyseacn mark group wealth management inc buy share of chipotle mexican grill inc nysecmg secured retirement advisor llc take million position in comcast corporation nasdaqcmcsa legacy financial group inc lower position in stryker corporation nysesyk prudent man advisor llc ha million stake in labcorp holding inc nyselh left brain wealth management llc sell share of ge vernova inc nysegev schear investment adviser llc lower position in deere company nysede westmount partner llc sell share of the walt disney company nysedis zullo investment group inc trim stake in alphabet inc nasdaqgoog trunorth capital management llc purchase share of vanguard sp etf nysearcavoo pet lover demand leadership change at san jose animal shelter zullo investment group inc trim stake in m company nysemmm u tomato price could jump a soon a monday trump issue executive order targeting unreliable clean energy option kathmere capital management llc buy share of citigroup inc nysec berkeley inc decrease stock holding in schwab u largecap etf nysearcaschx hotel stock to follow today july th on gps nvidia ceo on the overwhelmingly positive effect of ai whitener capital management inc grows position in lowes company inc nyselow zullo investment group inc grows stock holding in lowes company inc nyselow on gps nvidia ceo on whether ai will lead to job loss dem strategist on trump epstein blowback you wound this up you caused this on gps nvidia ceo on the uschina ai race lri investment llc ha stock position in the goldman sachs group inc nysegs secured retirement advisor llc purchase new position in texas instrument incorporated nasdaqtxn mark group wealth management inc purchase share of copart inc nasdaqcprt tfr capital llc boost holding in rtx corporation nysertx att inc nyset position boosted by trunorth capital management llc fulton breakefield broenniman llc buy share of vanguard ftse developed market etf nysearcavea blame new york democrat not washington for new state budget crisis pepsico inc nasdaqpep stock holding cut by new york state common retirement fund the home depot inc nysehd share sold by sentinel trust co lba fdx advisor inc trim holding in the home depot inc nysehd a digitally enslaved generation cry for independence texas congressman call for accountability after flood we cant just allow girl to drown in the middle of the night tfr capital llc make new investment in marsh mclennan company inc nysemmc tfr capital llc acquires share of vertex pharmaceutical incorporated nasdaqvrtx greatmark investment partner inc decrease holding in cv health corporation nysecvs tfr capital llc make new investment in southern company the nyseso octa to host public input meeting on coastal rail trouble more talk around erosion planned trump to make unprecedented second state visit to uk in september left brain wealth management llc reduces stock position in unitedhealth group incorporated nyseunh left brain wealth management llc raise position in altria group inc nysemo isthmus partner llc sell share of the pnc financial service group inc nysepnc cwm llc ha million holding in comcast corporation nasdaqcmcsa what security leader need to know about ai governance for saas violent clash erupt between farright group and migrant in spanish town caterpillar inc nysecat share sold by asset dedication llc goalfusion wealth management llc ha million stock position in vanguard value etf nysearcavtv hughes financial service llc take position in vanguard value etf nysearcavtv rainey randall wealth advisor inc invests in zoetis inc nysezts hoag open new health center monday in san clemente oxbow advisor llc sell share of vanguard growth etf nysearcavug ishares tip bond etf nysearcatip share bought by hughes financial service llc schear investment adviser llc ha position in marathon petroleum corporation nysempc who is the most handsome waterbomb seoul star vote now maga faithful weigh in on epstein file debate prisoner in france escape in his cellmates bag homeowner and driver would pay for these scheme homeowner and driver would pay for these scheme homeowner and driver would pay for these scheme texas nw office had no warning coordination meteorologist during the flood did it make a difference caster semenyas sex eligibility battle ha confounded sport for yearsand still isnt over prudent man advisor llc boost stock position in deere company nysede prudent man advisor llc purchase share of costco wholesale corporation nasdaqcost mqs management llc buy share of lockheed martin corporation nyselmt prudent man advisor llc purchase share of alphabet inc nasdaqgoog ballentine partner llc increase stock holding in waste management inc nysewm promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of bristol myers squibb company nysebmy video game stock to follow now july th stephen inc ar increase position in walmart inc nysewmt schechter investment advisor llc ha million stock position in vanguard total international stock etf nasdaqvxus trump could potentially fire fed powell over building renovation hassett say learn how to can your own garden fresh produce mason investment advisory service inc ha stock position in procter gamble company the nysepg fulton breakefield broenniman llc purchase share of vanguard dividend appreciation etf nysearcavig fulton breakefield broenniman llc buy share of ishares core sp smallcap etf nysearcaijr prudent man advisor llc sell share of conocophillips nysecop sfs zero fatality goal crash into reality sfs zero fatality goal crash into reality sfs zero fatality goal crash into reality wilkinson global asset management llc buy share of parkerhannifin corporation nyseph reyes financial architecture inc purchase share of vanguard shortterm bond etf nysearcabsv lri investment llc purchase share of ishares u technology etf nysearcaiyw lri investment llc ha position in blackstone inc nysebx gopled state discussing plan to build prison like alligator alcatraz noem lri investment llc ha stake in danaher corporation nysedhr mark group wealth management inc acquires share of eaton corporation plc nyseetn dock street asset management inc acquires share of abbott laboratory nyseabt greatmark investment partner inc ha million stake in paychex inc nasdaqpayx oxbow advisor llc boost holding in jpmorgan ultrashort income etf nysearcajpst trunorth capital management llc purchase share of rtx corporation nysertx mutual of america capital management llc decrease stock holding in att inc nyset edge asset management lp boost holding in spdr portfolio emerging market etf nysearcaspem sen padilla ice is getting more aggressive more cruel more extreme child killed in albion hitandrun man charged legacy financial group inc cut stake in vanguard shortterm inflationprotected security etf nasdaqvtip ken morris be very careful what you do two year ago legacy financial group inc reduces stake in dimensional u core equity etf nysearcadfac left brain wealth management llc cut stock holding in applovin corporation nasdaqapp were going to litigate that order homan responds to judge restricting ice raid in la reyes financial architecture inc purchase share of ww grainger inc nysegww lri investment llc sell share of corning incorporated nyseglw kerntke otto mcglone wealth management group trim position in vanguard midcap etf nysearcavo one year after trump assassination attempt in butler change at secret service but question remain axecap investment llc sell share of apple inc nasdaqaapl fifth third bancorp sell share of apple inc nasdaqaapl sagace wealth management llc sell share of microsoft corporation nasdaqmsft microsoft corporation nasdaqmsft stake lowered by tran capital management lp define financial llc buy share of microsoft corporation nasdaqmsft sapient capital llc sell share of microsoft corporation nasdaqmsft teacher retirement system of texas sell share of safety insurance group inc nasdaqsaft teacher retirement system of texas sell share of organon co nyseogn teacher retirement system of texas cut stock holding in artisan partner asset management inc nyseapam teacher retirement system of texas buy new share in a o smith corporation nyseaos rev group inc nyserevg position trimmed by teacher retirement system of texas share in lamb weston nyselw acquired by teacher retirement system of texas bridgebio pharma inc nasdaqbbio share sold by teacher retirement system of texas two west capital advisor llc trim position in apple inc nasdaqaapl teacher retirement system of texas take million position in community health system inc nysecyh teacher retirement system of texas ha million position in portland general electric company nysepor teacher retirement system of texas buy share of ugi corporation nyseugi teacher retirement system of texas ha million stake in ziff davis inc nasdaqzd teacher retirement system of texas purchase new stake in the campbell company nasdaqcpb asian heat squeeze lng flow to europe borgwarner inc nysebwa share sold by cambridge investment research advisor inc teacher retirement system of texas ha million stake in madrigal pharmaceutical inc nasdaqmdgl exclusive interview the future belongs to nocodes with deep ai integration abhinav girdhar ceo founder appy pie european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff relx nyserelx rating lowered to hold at wall street zen southside bancshares nysesbsi rating lowered to sell at wall street zen wall street zen downgrade vista energy nysevist to sell bank of america cut primo brand nyseprmb price target to silgan nyseslgn price target raised to stifel financial nysesf price target raised to ubiquitis ui buy rating reiterated at bw financial wall street zen upgrade rafael nyserfl to hold charles schwab nyseschw price target raised to sea nysese stock rating lowered by wall street zen sealed air nysesee price target raised to wall street zen upgrade te connectivity nysetel to buy telus digital nysetixt stock rating upgraded by wall street zen sealed air nysesee price target raised to telephone and data system nysetds stock rating upgraded by wall street zen synovus financial nysesnv price target raised to truist financial cut sonoco product nyseson price target to att nyset price target raised to wec energy group nysewec rating lowered to sell at wall street zen exxon mobil nysexom price target raised to at scotiabank truist financial raise webster financial nysewbs price target to top ai stock to buy this week the place report surge in company relocation driving demand for flexible office space in dubai and riyadh rockfire resource lonrock stock price up still a buy rockfire resource lonrock trading up should you buy new zealand energy cvenz trading down here what happened argentina lithium energy cvelit share down should you sell silver spruce resource cvesse share down here what happened silver spruce resource cvesse trading down time to sell new zealand energy cvenz trading down should you sell argentina lithium energy cvelit stock price down here why geomega resource cvegma stock price up whats next geomega resource cvegma trading higher still a buy geomega reso</t>
+          <t>time run out for nearly centuryold michigan clock company due to tariff other factor ap news sage rhino capital llc sell share of shell plc unsponsored adr nyseshel vanguard total stock market etf nysearcavti position increased by seamount financial group inc sage rhino capital llc acquires share of vanguard total stock market etf nysearcavti kesler norman wride llc boost stake in broadcom inc nasdaqavgo genus capital management inc invests million in ishares msci eafe etf nysearcaefa sage rhino capital llc buy share of broadcom inc nasdaqavgo vanguard total stock market etf nysearcavti is clarity wealth advisor llcs rd largest position seamount financial group inc buy share of vanguard dividend appreciation etf nysearcavig state of michigan retirement system ha million stock holding in chubb limited nysecb state of michigan retirement system ha million position in lam research corporation nasdaqlrcx clarity wealth advisor llc reduces holding in the walt disney company nysedis genus capital management inc make new investment in ishares msci eafe etf nysearcaefa kesler norman wride llc buy share of vanguard information technology etf nysearcavgt chubb limited nysecb share sold by state of michigan retirement system sage rhino capital llc purchase share of broadcom inc nasdaqavgo state of michigan retirement system decrease stake in lam research corporation nasdaqlrcx seamount financial group inc raise stock holding in vanguard dividend appreciation etf nysearcavig think quantum computing will be the next big thing these are the stock to buy today boss quietly veto devastating law that may pull the rug out on american and thousand would lose cash ford recall vehicle over fuel pump defect manufacturing layoff at pacira oak hill bios phase angelman data france launch criminal investigation into musk x over algorithm manipulation politicoeu trump million crypto mystery man reuters buy the dip win again for stock investor rockwell automation pharmasuite power sinteticas swiss drug production teledyne raymarine acquires maretron asset to boost marine automation cummins unveils new hydrogen turbocharger for european heavyduty engine dover techcon unveils new precision dispensing cartridge for key industry carrier global enhances aipowered abound app for proactive building management trane technology debut first u dynamic closed loop geothermal system in chicago school district johnson control sensormatic solution launch aipowered shopper tracking with privacyfirst reid technology goldman sachs mustbuy chip stock and a few you should forget honeywell explores sale of two division ahead of planned split raytheon from rtx demonstrates autonomous barracuda mine neutralization vehicle gmbacked energyx expands lithium holding in u smackover formation with pantera acquisition boeing win b space force contract for nextgen nuclear comms satellite penguin solution launch nextgen stratus ztc endurance for ultrahigh availability ai workload clarivate unveils enhanced g research innovation scorecard with expanded data ai insight xerox completes b lexmark acquisition support print market position globant suntory global spirit partner to deploy gen ai commercial insight agent concentrix half carbon emission target by detail progress in sustainability report dxc technology aipowered tendia solution slash bid writing time for ventia genpact launch aipowered ap suite to revolutionize account payable process kyndryl launch new aipowered service to accelerate mainframe migration to aws saic awarded m air force contract for rapid warfighting prototype development shopper can now buy a bjs membership for just a year in new deal it cheaper than rival sam club u bank set to post trading gain on trump tariff turmoil cognizant pledge to white house ai education initiative aim to train m by education department to resume interest accrual on million student loan borrower rtx corporation nysertx stake reduced by cfolife group llc fonville wealth management llc cut stake in costco wholesale corporation nasdaqcost kesler norman wride llc acquires share of invesco qqq nasdaqqqq bernardo wealth planning llc cut stock holding in alphabet inc nasdaqgoog nextera energy inc nysenee holding lifted by cerity partner llc leavell investment management inc reduces position in ishares core u aggregate bond etf nysearcaagg leavell investment management inc raise stake in uber technology inc nyseuber fonville wealth management llc sell share of southern company the nyseso cerity partner llc boost holding in invesco qqq nasdaqqqq capital insight partner llc raise stock holding in freeportmcmoran inc nysefcx kesler norman wride llc sell share of stryker corporation nysesyk costco wholesale corporation nasdaqcost share sold by alp advisor inc fonville wealth management llc increase stake in vanguard growth etf nysearcavug capital insight partner llc acquires share of freeportmcmoran inc nysefcx kesler norman wride llc increase stock holding in linde plc nasdaqlin phillips financial management llc sell share of schwab u largecap etf nysearcaschx financial gravity asset management inc purchase new position in costco wholesale corporation nasdaqcost kesler norman wride llc sell share of stryker corporation nysesyk parr mcknight wealth management group llc trim holding in spdr gold share nysearcagld cerity partner llc trim stock position in adobe inc nasdaqadbe uk business confidence plummet to threeyear low icaew walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid walmart recall water bottle after two consumer suffer vision loss from ejecting lid wall street giant issue stark message on sp walmart recall water bottle after two consumer suffer vision loss from ejecting lid ap news nikki bella discusses wwe evolution looking at ge vernovas recent unusual option activity check out what whale are doing with citigroup analyzing broadcom in comparison to competitor in semiconductor semiconductor equipment industry chief executive officer of integral ad science holdi sold k in stock italianstyle villa in south minneapolis linden hill listed for m sell alert aaron yeon ho lee cash out m in acushnet holding stock sell alert kevin chang keun yoon cash out m in acushnet holding stock allworth financial lp raise holding in pepsico inc nasdaqpep state of michigan retirement system ha million holding in philip morris international inc nysepm state of michigan retirement system sell share of intuit inc nasdaqintu cisco system inc nasdaqcsco share sold by state of michigan retirement system state of michigan retirement system sell share of pepsico inc nasdaqpep leavell investment management inc sell share of merck co inc nysemrk mjp associate inc adv increase stake in invesco sp equal weight etf nysearcarsp state of michigan retirement system cut stake in merck co inc nysemrk state of michigan retirement system reduces holding in ishares core sp midcap etf nysearcaijh merck co inc nysemrk stake reduced by leavell investment management inc insider decision gene soo yoon yoon offloads m worth of acushnet holding stock lacroix announces new partnership with the dallas wing wnba team royal caribbean take delivery of world largest cruise ship insider decision tod e carpenter exercise option at donaldson for m evaluating apple against peer in technology hardware storage peripheral industry clarity wealth advisor llc sell share of the walt disney company nysedis state of michigan retirement system reduces stock holding in cme group inc nasdaqcme state of michigan retirement system ha million stock holding in palo alto network inc nasdaqpanw sage rhino capital llc cut position in vanguard ftse allworld exus etf nysearcaveu cfc planning co llc ha million stake in the walt disney company nysedis parr mcknight wealth management group llc sell share of spdr gold share nysearcagld kesler norman wride llc ha million position in fortinet inc nasdaqftnt round rock advisor llc purchase share of verizon communication inc nysevz financial gravity asset management inc buy share of costco wholesale corporation nasdaqcost phillips financial management llc sell share of schwab u largecap etf nysearcaschx round rock advisor llc ha stock holding in salesforce inc nysecrm kesler norman wride llc buy share of linde plc nasdaqlin omb director question powell over fed hq renovation spending perfektblue bluetooth vulnerability expose million of vehicle to remote code execution trump doing all the thing he said he would bondi or bongino bongino wont remain at fbi if bondi keep job source say u is selling weapon to nato ally to give to ukraine trump say ishares core sp midcap etf nysearcaijh share sold by state of michigan retirement system kla corporation nasdaqklac share bought by mjp associate inc adv state of michigan retirement system ha million stock position in merck co inc nysemrk veteran political reporter reveals what the medium missed about trump appeal to american in back to back barrie could the antisemitism plan be used to silence dissent podcast the special envoy plan is the latest push to weaponise antisemitism a a relentless campaign pay off louise adler albanese must be careful that tackling antisemitism doesnt curb free speech tom mcilroy virginia rep john mcguire bought over k worth of meta platform stock here what you should know congressional trading report rep susie lee sold over k in full house resort stock state right to sue over medical privacy state right to sue over medical privacy state right to sue over medical privacy california rep gilbert ray cisneros sold over k worth of springworks therapeutic inc ordinary share stock here what you should know laurel libby stood strong in the face of tyranny letter beth claybourn interior trump new front in the war on drug the bank the u air force want million to double production of the aim missile new themed playground equipment officially open for use in two lake charles park steve mann more on the aftermath of magees time in san bruno new england professional planning group inc reduces holding in international business machine corporation nyseibm pfizer inc nysepfe share sold by new england professional planning group inc diversify wealth management llc buy share of cocacola company the nyseko bipartisan legislation aim to legalize adultuse cannabis in pennsylvania cerity partner llc boost holding in mcdonalds corporation nysemcd mjp associate inc adv raise stock position in mcdonalds corporation nysemcd mcdonalds corporation nysemcd share purchased by freedom day solution llc moloney security asset management llc buy share of vanguard total bond market etf nasdaqbnd benny blanco ha made so much music he ha to shazam his own tune elv deadline today rosen leading trial attorney encourages elevance health inc investor epstein conspiracy just isnt there teacher union reveals true color and more from fox news opinion stratos wealth advisor llc trim stock position in the goldman sachs group inc nysegs freedom day solution llc decrease stock holding in amgen inc nasdaqamgn lbp am sa sell share of visa inc nysev the mindful minute by jon heydenreich that martini and megaburger u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say u is selling weapon to nato ally to give to ukraine trump say greater midwest financial group llc purchase share of vanguard sp etf nysearcavoo barry investment advisor llc sell share of vanguard ftse emerging market etf nysearcavwo state department is firing over employee under trump administration plan rubio and wang stress cooperation after talk in malaysia a uschina tension simmer diversify wealth management llc buy share of ishares u treasury bond etf batsgovt cromwell holding llc decrease stake in micron technology inc nasdaqmu vanguard value etf nysearcavtv share sold by ade llc chevron corporation nysecvx share purchased by diversify wealth management llc cromwell holding llc raise stake in monolithic power system inc nasdaqmpwr church street road closure extended in brattleboro u is selling weapon to nato ally to give to ukraine trump say noqualifyjpg bill to clarify st louis sheriff duty stall in committee strategist flag very unusual trump admin loyalty test on cnn fidelis capital partner llc ha million stake in thermo fisher scientific inc nysetmo pkk fighter pile up their weapon in arm amnesty in northern iraq brazil vow retaliatory tariff against u if trump follows through on import tax new pac form to back mamdani nyc mayoral bid a business community rally to defeat him history program highlight the map and stone wall of dummerson financial gravity asset management inc buy new position in ishares tip bond etf nysearcatip phillips financial management llc increase holding in vanguard ftse developed market etf nysearcavea trump plan to hike tariff on canadian good to trump plan to tour texas flood damage a the scope of the disaster test his pledge to shutter fema trump plan to hike tariff on canadian good to ishares msci emerging market etf nysearcaeem share sold by ramsay stattman vela price inc burford brother inc raise position in the sherwinwilliams company nyseshw spdr dow jones industrial average etf trust nysearcadia position lifted by christopher j hasenberg inc genus capital management inc invests million in the sherwinwilliams company nyseshw state department to axe employee state of michigan retirement system boost stock position in prologis inc nysepld advanced micro device inc nasdaqamd share purchased by clarity wealth advisor llc seamount financial group inc sell share of vanguard total world stock etf nysearcavt share in vaneck gold miner etf nysearcagdx acquired by sage rhino capital llc vestia personal wealth advisor increase position in dimensional u marketwide value etf nysearcadfuv milwaukee remove fonzie statue amid reckoning with greaser past noqualifyingjpg exxon mobil corporation nysexom share sold by pineridge advisor llc cfolife group llc buy share of ge aerospace nysege stonebrook private inc buy share of vanguard total stock market etf nysearcavti allworth financial lp grows position in united parcel service inc nyseups cerity partner llc sell share of adobe inc nasdaqadbe adobe inc nasdaqadbe holding lowered by xponance inc honeywell international inc nasdaqhon share bought by kesler norman wride llc amphenol corporation nyseaph position boosted by cerity partner llc b t capital management dba alpha capital management make new investment in taiwan semiconductor manufacturing company ltd nysetsm vanguard midcap etf nysearcavo is beirne wealth consulting service llcs th largest position vanguard smallcap etf nysearcavb share sold by b t capital management dba alpha capital management walmart inc nysewmt position increased by fort sheridan advisor llc kathmere capital management llc buy share of vanguard smallcap etf nysearcavb kathmere capital management llc purchase share of walmart inc nysewmt ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc kathmere capital management llc purchase share of vanguard smallcap etf nysearcavb b t capital management dba alpha capital management boost position in honeywell international inc nasdaqhon fort sheridan advisor llc boost stake in walmart inc nysewmt ifc advisor llc sell share of the home depot inc nysehd ifc advisor llc ha million holding in pepsico inc nasdaqpep quest wealth builder inc sell share of eli lilly and company nyselly caterpillar inc nysecat share sold by ifc advisor llc ballentine partner llc lower position in invesco qqq nasdaqqqq quest wealth builder inc sell share of pepsico inc nasdaqpep ballentine partner llc sell share of invesco qqq nasdaqqqq caterpillar inc nysecat share sold by ifc advisor llc eureka business weather economic uncertainty ap business summarybrief at pm edt ap business summarybrief at pm edt why share of the metal company skyrocketed in the first half of why share of the metal company skyrocketed in the first half of is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store is circle internet stock a millionaire maker another large grocery chain follows kroger in closing store fulcrum equity management ha stake in broadcom inc nasdaqavgo why nvidia partner navitas semiconductor surged in the first half of why nvidia partner navitas semiconductor surged in the first half of a bitcoin matures volatility dropsso expect slower climb say expert decrypt crypto top gainer why blockdag solana pepe and render are leading in growth and utility how ai notetakers can become the black box of business the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation the low altitude market could be worth trillion by according to morgan stanley this cathie wood stock is my top pick to dominate the opportunity hint it not archer aviation iron ore price surge amid china industrial crackdown northwest capital management inc buy share of ishares core sp midcap etf nysearcaijh rational advisor inc invests million in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc buy share of lowes company inc nyselow mjp associate inc adv ha holding in blackstone inc nysebx cerity partner llc grows stock position in palantir technology inc nasdaqpltr trump to impose tariff on eu mexico starting aug trump to impose eu tariff on aug trumnp to impose eu tariff on august trump announces tariff on import from mexico eu eu say it still want u trade deal will defend interest tucker carlson reveals who he think funded jeffrey epstein crime focused wealth management inc increase stock position in merck co inc nysemrk roger wittlin investment advisory llc acquires share of vanguard sp etf nysearcavoo family firm inc ha million stock holding in ishares russell etf nysearcaiwm schwab u smallcap etf nysearcascha share sold by family firm inc roger wittlin investment advisory llc purchase share of vanguard sp etf nysearcavoo quest wealth builder inc ha stock holding in parkerhannifin corporation nyseph share in vanguard high dividend yield etf nysearcavym acquired by stillwater wealth management group ishares russell etf nysearcaiwm share sold by family firm inc well fargo company nysewfc share sold by family firm inc bank of america corporation nysebac share acquired by fortem financial group llc fortem financial group llc boost stock position in att inc nyset unitedhealth down is the dividend still safe netflix inc nasdaqnflx share acquired by martin capital advisor llp vanguard ftse developed market etf nysearcavea share purchased by bridge generation wealth management llc riversedge advisor llc grows holding in vanguard ftse emerging market etf nysearcavwo american financial advisor llc reduces stock holding in ge vernova inc nysegev crowdstrike nasdaqcrwd share acquired by american financial advisor llc riversedge advisor llc purchase share of alphabet inc nasdaqgoog vanguard value etf nysearcavtv share purchased by riversedge advisor llc vanguard value etf nysearcavtv share purchased by riversedge advisor llc crowdstrike nasdaqcrwd share bought by american financial advisor llc tesla inc nasdaqtsla share bought by riversedge advisor llc riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million position in ishares core sp etf nysearcaivv vanguard ftse developed market etf nysearcavea position decreased by riversedge advisor llc grant grossmendelsohn llc ha holding in vanguard ftse developed market etf nysearcavea dogecoins doge holder are shifting to ruvi ai ruvi passed audit and early entry bonus make it the smarter bet auour investment llc ha million stake in ishares core msci eafe etf batsiefa fort sheridan advisor llc raise stock holding in abbott laboratory nyseabt beirne wealth consulting service llc increase stock position in ishares core msci eafe etf batsiefa b t capital management dba alpha capital management buy share of schwab u largecap growth etf nysearcaschg b t capital management dba alpha capital management purchase share of schwab u largecap growth etf nysearcaschg quest wealth builder inc cut stock position in walmart inc nysewmt ifc advisor llc reduces position in vanguard midcap etf nysearcavo spdr gold share nysearcagld share purchased by acorn wealth advisor llc ballentine partner llc increase position in chevron corporation nysecvx acorn wealth advisor llc sell share of ishares core sp smallcap etf nysearcaijr acorn wealth advisor llc ha stock position in vanguard midcap etf nysearcavo acorn wealth advisor llc reduces stock position in ishares core sp smallcap etf nysearcaijr ballentine partner llc acquires share of walmart inc nysewmt history say these stock could be big winner in the second half history say these stock could be big winner in the second half alp advisor inc ha million stock position in kkr co inc nysekkr eli lilly and company nyselly share sold by wealthtrust asset management llc eli lilly and company nyselly is harmony asset management llcs th largest position the home depot inc nysehd share purchased by lane associate llc fulcrum equity management lower stock holding in eli lilly and company nyselly fulcrum equity management sell share of eli lilly and company nyselly servicenow inc nysenow share acquired by steelpeak wealth llc trump target mexico eu with tariff hartford bakery inc voluntarily recall hundred of loaf of artisanal bread sold in state cbs news reader view we can all reduce greenhouse gas shes great trump back bondi want top official to end conflict over epstein ishares core sp smallcap etf nysearcaijr share sold by forum private client group llc chevron corporation nysecvx share acquired by b t capital management dba alpha capital management forum private client group llc ha million position in vanguard midcap etf nysearcavo b t capital management dba alpha capital management increase stake in honeywell international inc nasdaqhon beirne wealth consulting service llc acquires share of vanguard smallcap etf nysearcavb ifc advisor llc boost holding in kkr co inc nysekkr ballentine partner llc grows holding in eli lilly and company nyselly young democrat have called for a rebrand theyre vying to replace the party old guard temperance in cabinetry climate change helped fuel heavy rain that led to devastating texas flood former pentagon insider could trump big beautiful bill finally unlock america longforgotten resource archaeolgists find largestever ceremony hall weapon hoard the democratic party is missing an opportunity to engage christian voter northwest capital management inc purchase share of ishares core sp midcap etf nysearcaijh rational advisor inc take position in mcdonalds corporation nysemcd superman smash box office expectation soaring towards million opening pam bondi fire doj staffer who worked on trump case amid chaos at agency nikulski financial inc acquires share of lowes company inc nyselow parkerhannifin corporation nyseph share sold by quest wealth builder inc family firm inc lower stock holding in schwab u smallcap etf nysearcascha family firm inc reduces stock holding in well fargo company nysewfc stillwater wealth management group invests in vanguard high dividend yield etf nysearcavym extrump lawyer dershowitz claim knowledge of epstein client list i know the name but im bound by confidentiality grant grossmendelsohn llc purchase share of vanguard ftse developed market etf nysearcavea riversedge advisor llc cut stake in vanguard ftse developed market etf nysearcavea piper sandler issue positive forecast for netflix nasdaqnflx stock price riversedge advisor llc ha holding in salesforce inc nysecrm american financial advisor llc ha million stake in ishares core sp etf nysearcaivv riversedge advisor llc increase stake in ishares core sp etf nysearcaivv start exploring cloud mining for free from the new winnermining app and get visible daily reward forum private client group llc trim position in vanguard growth etf nysearcavug fort sheridan advisor llc buy share of vanguard growth etf nysearcavug the big beautiful bill and mlp qualifying income acorn wealth advisor llc lower holding in chevron corporation nysecvx ballentine partner llc buy share of walmart inc nysewmt ballentine partner llc sell share of ishares core sp smallcap etf nysearcaijr lane associate llc sell share of eli lilly and company nyselly harmony asset management llc ha million holding in the home depot inc nysehd steelpeak wealth llc ha million stake in the progressive corporation nysepgr servicenow inc nysenow share acquired by steelpeak wealth llc trump threatens rosie odonnells citizenship she is a threat to humanity annual new london to new brighton antique car run to take place aug coyle financial counsel llc invests in qualcomm incorporated nasdaqqcom broadcom inc nasdaqavgo share sold by skyoak wealth llc forum private client group llc take position in elevance health inc nyseelv a major red flag for republican a trump policy threatens their future fbi director kash patel responds to controversy surrounding epstein file stillwater wealth management group grows position in amgen inc nasdaqamgn riversedge advisor llc grows stake in tesla inc nasdaqtsla fort sheridan advisor llc ha position in kla corporation nasdaqklac kathmere capital management llc grows holding in vanguard value etf nysearcavtv nycs broken election system need far more than these bandaid fix ballentine partner llc ha million position in abbott laboratory nyseabt abbott laboratory nyseabt share acquired by ifc advisor llc trump post support for embattled attorney general pam bondi ma private wealth take position in bristol myers squibb company nysebmy parkerhannifin corporation nyseph share sold by lbp am sa harmony asset management llc reduces stock position in chevron corporation nysecvx bonus editorial cartoon for july federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff lawmaker visit alligator alcatraz but some wonder how much theyll get to see man convicted of meredith kerchers murder facing trial for sexual assault federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff federal employee bracing after supreme court greenlights widespread layoff focused wealth management inc ha million stake in walmart inc nysewmt berbice capital management llc grows position in kkr co inc nysekkr coyle financial counsel llc raise holding in invesco qqq nasdaqqqq meet china man in lima who jetted over to u to collect train donated by biden admin amazon prime day delivers record sale and saving in expanded fourday shopping event how new tax legislation impact clean energy tax credit the dalai lama is planning his succession a the ultimate protest against china the u army m vulcan air defense system wa a beast in the vietnam war the us john f kennedy fordclass carrier may miss it delivery date comcast corporation nasdaqcmcsa share sold by sage rhino capital llc kesler norman wride llc sell share of comcast corporation nasdaqcmcsa exchange capital management inc sell share of servicenow inc nysenow fukoku mutual life insurance co sell share of duke energy corporation nyseduk cerity partner llc buy share of asml holding nv nasdaqasml mjp associate inc adv take position in elevance health inc nyseelv fidelis capital partner llc boost stock position in elevance health inc nyseelv reader view u must invest in our independence candidate view localgovernment focus would benefit school board stillwater wealth management group reduces position in unitedhealth group incorporated nyseunh martin capital advisor llp sell share of oracle corporation nyseorcl park square financial group llc decrease stock position in ishares core sp midcap etf nysearcaijh fortem financial group llc purchase share of blackstone inc nysebx pya waltman capital llc ha million stake in mcdonalds corporation nysemcd massachusetts police officer shot by colleague victim of campaign to criminalize her lawyer horrified by alligator alcatraz letter coyle financial counsel llc ha million stake in ishares core sp etf nysearcaivv vanguard high dividend yield etf nysearcavym stock holding decreased by auour investment llc ifc advisor llc increase position in ishares russell etf nysearcaiwm forum private client group llc purchase new stake in cummins inc nysecmi fortem financial group llc grows holding in tesla inc nasdaqtsla vanguard ftse developed market etf nysearcavea share purchased by beirne wealth consulting service llc schear investment adviser llc buy share of tmobile u inc nasdaqtmus jrmc recognized for infection control rate wall street pro drop bold price target on circle stock bitcoin hit new alltime high above k a trader eye week uptrend cointelegraph cardinal strategic wealth guidance cut position in alphabet inc nasdaqgoog bradley co private wealth management llc reduces position in costco wholesale corporation nasdaqcost pointe capital management llc grows holding in the walt disney company nysedis westmount partner llc sell share of amgen inc nasdaqamgn westmount partner llc sell share of starbucks corporation nasdaqsbux westmount partner llc trim holding in lockheed martin corporation nyselmt q asset management buy share of williams company inc the nysewmb westmount partner llc trim holding in lockheed martin corporation nyselmt westmount partner llc trim stock position in amgen inc nasdaqamgn zullo investment group inc lower stock position in alphabet inc nasdaqgoog trunorth capital management llc acquires share of vanguard sp etf nysearcavoo pointe capital management llc boost holding in linde plc nasdaqlin ishares core u aggregate bond etf nysearcaagg share acquired by pointe capital management llc nextera energy inc nysenee share sold by pointe capital management llc bristol myers squibb company nysebmy stock holding lifted by prudent man advisor llc mqs management llc buy new position in nextera energy inc nysenee prudent man advisor llc acquires new position in blackrock nyseblk zullo investment group inc buy share of eli lilly and company nyselly zullo investment group inc acquires share of eli lilly and company nyselly zullo investment group inc cut stake in m company nysemmm prudent man advisor llc make new million investment in blackrock nyseblk mqs management llc take position in nextera energy inc nysenee ai financial service llc boost holding in eli lilly and company nyselly u tomato price could jump a soon a monday xrp break out near gain yet blockdags coin unlock chance at steal market focus top altcoins still lag while bitcoin stay strong promising outdoor stock to add to your watchlist july th kathmere capital management llc sell share of kimberlyclark co nysekmb citigroup inc nysec share purchased by ballentine partner llc cigna group nyseci share bought by ballentine partner llc ballentine partner llc purchase share of the sherwinwilliams company nyseshw arizona state retirement system purchase share of kimberlyclark co nysekmb bankplus trust department grows holding in ishares core sp smallcap etf nysearcaijr berkeley inc ha million holding in schwab u largecap etf nysearcaschx arizona state retirement system increase stake in kimberlyclark co nysekmb fdx advisor inc invests in medtronic plc nysemdt how trump latest tariff threat risk deeper damage to europe economy fort sheridan advisor llc increase stock position in cocacola company the nyseko fortem financial group llc sell share of conocophillips nysecop blackstone inc nysebx share bought by louisiana state employee retirement system eaton corporation plc nyseetn share sold by stephen inc ar taiwan semiconductor manufacturing company ltd nysetsm share sold by fulton breakefield broenniman llc why broadcoms avgo ai momentum ha goldman sachs backing the stock on gps nvidia ceo on the overwhelmingly positive effect of ai isthmus partner llc sell share of thermo fisher scientific inc nysetmo whitener ca</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.176</v>
+        <v>0.149</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05</v>
+        <v>0.038</v>
       </c>
       <c r="M14" t="n">
-        <v>0.774</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.9999</v>
       </c>
       <c r="O14" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P14" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="S14" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="T14" t="n">
         <v>658</v>
       </c>
       <c r="U14" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="V14" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="W14" t="n">
+        <v>28</v>
+      </c>
+      <c r="X14" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6243.759765625</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6302.0400390625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6241.68017578125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6295.2900390625</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5133670000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.0039562982147312</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>axecap investment llc sell share of apple inc nasdaqaapl fifth third bancorp sell share of apple inc nasdaqaapl sagace wealth management llc sell share of microsoft corporation nasdaqmsft microsoft corporation nasdaqmsft stake lowered by tran capital management lp define financial llc buy share of microsoft corporation nasdaqmsft sapient capital llc sell share of microsoft corporation nasdaqmsft teacher retirement system of texas sell share of safety insurance group inc nasdaqsaft teacher retirement system of texas sell share of organon co nyseogn teacher retirement system of texas cut stock holding in artisan partner asset management inc nyseapam teacher retirement system of texas buy new share in a o smith corporation nyseaos rev group inc nyserevg position trimmed by teacher retirement system of texas share in lamb weston nyselw acquired by teacher retirement system of texas bridgebio pharma inc nasdaqbbio share sold by teacher retirement system of texas two west capital advisor llc trim position in apple inc nasdaqaapl teacher retirement system of texas take million position in community health system inc nysecyh teacher retirement system of texas ha million position in portland general electric company nysepor teacher retirement system of texas buy share of ugi corporation nyseugi teacher retirement system of texas ha million stake in ziff davis inc nasdaqzd teacher retirement system of texas purchase new stake in the campbell company nasdaqcpb asian heat squeeze lng flow to europe borgwarner inc nysebwa share sold by cambridge investment research advisor inc teacher retirement system of texas ha million stake in madrigal pharmaceutical inc nasdaqmdgl exclusive interview the future belongs to nocodes with deep ai integration abhinav girdhar ceo founder appy pie european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff relx nyserelx rating lowered to hold at wall street zen southside bancshares nysesbsi rating lowered to sell at wall street zen wall street zen downgrade vista energy nysevist to sell bank of america cut primo brand nyseprmb price target to silgan nyseslgn price target raised to stifel financial nysesf price target raised to ubiquitis ui buy rating reiterated at bw financial wall street zen upgrade rafael nyserfl to hold charles schwab nyseschw price target raised to sea nysese stock rating lowered by wall street zen sealed air nysesee price target raised to wall street zen upgrade te connectivity nysetel to buy telus digital nysetixt stock rating upgraded by wall street zen sealed air nysesee price target raised to telephone and data system nysetds stock rating upgraded by wall street zen synovus financial nysesnv price target raised to truist financial cut sonoco product nyseson price target to att nyset price target raised to wec energy group nysewec rating lowered to sell at wall street zen exxon mobil nysexom price target raised to at scotiabank truist financial raise webster financial nysewbs price target to top ai stock to buy this week the place report surge in company relocation driving demand for flexible office space in dubai and riyadh rockfire resource lonrock stock price up still a buy rockfire resource lonrock trading up should you buy new zealand energy cvenz trading down here what happened argentina lithium energy cvelit share down should you sell silver spruce resource cvesse share down here what happened silver spruce resource cvesse trading down time to sell new zealand energy cvenz trading down should you sell argentina lithium energy cvelit stock price down here why geomega resource cvegma stock price up whats next geomega resource cvegma trading higher still a buy geomega resource cvegma stock price up here what happened geomega resource cvegma share up time to buy geomega resource cvegma trading higher should you buy form eptriricardo plc advanced drainage system inc nysewms share bought by teacher retirement system of texas teacher retirement system of texas purchase share of lxp industrial trust nyselxp teacher retirement system of texas purchase new stake in exact science corporation nasdaqexas teacher retirement system of texas raise holding in advanced drainage system inc nysewms amentum holding inc nyseamtm share sold by teacher retirement system of texas teacher retirement system of texas boost stock position in sprinklr inc nysecxm teacher retirement system of texas acquires share of lxp industrial trust nyselxp ola electric share rise to r a market reacts to q update aktietilbagekbsprogram uge share buyback programme week bunge global earnings preview what to expect robinhood eu wont retaliate to trump tariff countermeasure on hold until august avis budget group car v it peer head to head analysis contrasting cps technology cpsh the competition head to head analysis better home finance betr and it peer analyzing greif bros gefb the competition head to head review better home finance betr the competition cps technology cpsh it competitor head to head survey avis budget group car it peer financial comparison how doe nvidias reaching trillion in market cap impact the sp nasdaq and dow jones marc benioff dismisses ai panic say whitecollar workforce wont be wiped out market week ahead strong bank earnings sticky inflation could jolt summer lull china exporter rush to beat trump next big tariff deadline bp nysebp stock price expected to rise scotiabank analyst say ladenburg thalmsh sh initiate coverage on kala bio nasdaqkala franklin resource nyseben given new price target at well fargo company kkrs quarterly earnings preview what you need to know wall street zen upgrade wintrust financial nasdaqwtfc to hold botswana diamond lonbod trading higher still a buy botswana diamond lonbod share up here what happened botswana diamond lonbod trading higher whats next majestic ideal holding refiled mjid plan to raise million in july th ipo tower resource cvetwr trading up here what happened tower resource cvetwr trading up here why botswana diamond lonbod share up here what happened tower resource cvetwr trading up time to buy trump envoy meet with ukraine zelenskyy a u pledge more patriot missile for kyiv trump threatens russia with tariff and boost u weapon for ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump threatens russia with tariff and boost u weapon for ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump threatens russia with tariff and boost u weapon for ukraine trump threatens russia with tariff if war on ukraine isnt resolved within day trump envoy meet with ukraine zelenskyy a u weighs next step on russia invasion trump envoy meet with ukraine zelenskyy a u weighs next step on russia invasion trump threatens russia with tariff if war on ukraine isnt resolved within day trump threatens russia with tariff if war on ukraine isnt resolved within day spin cycle theyre throwing spaghetti at the wall bbc dump masterchef host over sex misconduct report eu want no trade war a trade minister mull new u tariff threat new review ordered into nh murdersuicide case amid criticism of shooter bail morning brief the epstein firestorm ice raid riot california v trump aquestive therapeutic inc nasdaqaqst given consensus recommendation of buy by analyst astera lab inc nasdaqalab receives consensus target price from analyst mplx lp nysemplx receives consensus recommendation of moderate buy from analyst brokerage set altria group inc nysemo price target at kornit digital ltd nasdaqkrnt receives average price target from brokerage exwhite house aide reveals why trump panicking right now brokerage set triple flag precious metal corp nysetfpm price target at lionsgate studio corp nyselion receives average price target from brokerage agnico eagle mine limited tseaem receives c consensus pt from analyst democrat already lining up for presidential race in early voting state these state are america best for quality of life in letter for monday july a bitcoin rush past k whats next for ether xrp dogecoin elkem asa elkef to release earnings on tuesday america movil amx expected to announce quarterly earnings on tuesday nikki wegner understanding big beautiful bill impact on long term care in nd why not hold gun manufacturer accountable for mass shooting boston herald will democrat reembrace musk now that he feuding with trump guest view bipartisan push to strengthen pa disability care system must succeed house debate pentagon spending crypto a rescission head to senate hancock whitney hwc projected to post quarterly earnings on tuesday omnicom group omc expected to announce quarterly earnings on tuesday what is bastille day what to know about the french holiday and why it is celebrated insider buying schroders plc lonsdr insider purchase share of stock cv group plc loncvsg insider buy in stock crest nicholson holding plc loncrst insider acquires in stock nextdecade nasdaqnext hit new month high on analyst upgrade trump mark anniversary of assassination attempt at the fifa club world cup final historic grand canyon lodge destroyed a wildfire force evacuation in northern arizona today in history july the storming of the bastille invisible rural homelessness grows in the shadow of a maine tourism mecca education notebook bond result child nutrition change and federal consultation orrington trash plant at risk of permanent closure if judge freeze funding susan collins start lining up money for maine that may not actually arrive hungary oldest library is fighting to save book from a beetle infestation trump to meet nato secretarygeneral a plan take shape for ukraine weapon sale chris christie say trump not pam bondi pulled the plug on epstein memo when you start the fire sometimes you cant put it out iyo sue former engineer after io founder tang yew tan admits to receiving trade secret from him poll show support for immigration is rising in u amid president trump crackdown trial will be very difficult for sen nicole mitchell to win minneapolis attorney say who got next democrat already lining up for presidential race in early voting state who got next democrat already lining up for presidential race in early voting state who got next democrat already lining up for presidential race in early voting state a nicotine pouch popularity soar theyre also responsible for more poisoning in young kid study find the biden doj tried to imprison a trump supporter over meme now he fighting back gop infighting over trump doge cut to take center stage a deadline loom how much trump big beautiful bill could raise electricity cost in every u state over the next year claudia istel ken barnes budget ayotte signed is designed to perpetuate inequality letter to the editor response to a response william hinkle eversource customer deserve more stable electric bill letter to the editor resident deserve more information about data center a look at a new poll showing support for immigration is rising in the u bitcoin top for the first time peter schiff give trump tariff threat on mexico eu a reality check america relies on deficit to make up for excess debt and consumption trump say he spoke to bongino amid report of infighting over epstein file trump reflects on surviving pennsylvania rally shooting year on god alone saved me one year after trump assassination attempt change at secret service but question remain jim chalmers insists labor can meet target of m new home despite department warning trump to meet nato secretary general a plan take shape for ukraine weapon sale tragedy in fall river read the full press release on sunday deadly fire amd warns of new transient scheduler attack impacting a wide range of cpu cambodia khmer rouge torture site added to unesco heritage list cant contain debris then forget about starbase dont allow hidden tax on energy producer hydrogen is a pipe dream dont be fooled the epstein list still remain relevant immigrant in overcapacity ice detention say theyre hungry raise food quality concern miranda devine shocking new poll reveals majority of deluded dems still believe the russia collusion hoax wa real live update trump threatens russia with tariff if war on ukraine isnt resolved dhs secretary kristi noem say trump want fema remade not dismantled homicide investigation underway after stabbing in southeast portland trump to announce aggressive ukraine weapon plan houston astros select lsus ethan frey in the third round of the mlb draft here when trump say american spirit triumph over force of evil on anniversary of butler assassination attempt trump brazil tariff imposed because they jail insurrectionist say economist your next coffee come with an insurrection infusion fee christie say trump benefited from epstein conspiracy theory boston red sox select lsus anthony eyanson in third round of mlb draft here when biden say he had to use autopen because he simply granted too many pardon company cast party biden defends frequent autopen use at end of term alex jose padilla say trump is to blame for violence against ice carried out by dems foot soldier fulltime mayor is unnecessary appendage an lsu baseball signee ha been picked by the tampa bay ray in the mlb draft here who portland police seize pound of cannabis in traffic stop florida financial advisor llc grows position in spdr sp small cap value etf nysearcaslyv share in united therapeutic corporation nasdaquthr bought by aurora investment counsel aurora investment counsel take million position in globe life inc nysegl florida financial advisor llc acquires share of spdr sp mid cap growth etf nysearcamdyg bhk investment advisor llc ha stake in eli lilly and company nyselly bleakley financial group llc boost stock position in bank of america corporation nysebac bleakley financial group llc sell share of ishares silver trust nysearcaslv rice hall james associate llc boost holding in green brick partner inc nasdaqgrbk jpmorgan betabuilders u equity etf batsbbus is florida financial advisor llcs rd largest position securian asset management inc sell share of servicenow inc nysenow florida financial advisor llc acquires new holding in ishares core high dividend etf nysearcahdv bleakley financial group llc sell share of ishares year treasury bond etf nasdaqshy securian asset management inc ha million stock holding in merck co inc nysemrk florida financial advisor llc buy share of ishares core high dividend etf nysearcahdv focused investor llc decrease stock holding in the home depot inc nysehd the pnc financial service group inc nysepnc share sold by bhk investment advisor llc rice hall james associate llc sell share of griffon corporation nysegff florida financial advisor llc sell share of fidelity msci information technology index etf nysearcaftec bleakley financial group llc buy share of vanguard total world stock etf nysearcavt charity fraud alert how to donate safely to texas flood victim charity fraud alert how to donate safely to texas flood victim tight oil market shrug off supply surge heartland advisor value plus fund q investor letter boy girl club program threatened by trump grant freeze serve thousand of family sun pharma announces launch of leqselvitm deuruxolitinib in the united state for the treatment of severe alopecia areata texas roadhouse inc nasdaqtxrh given consensus recommendation of moderate buy by analyst mqs management llc make new investment in rli corp nyserli stephen investment management group llc buy share of autodesk inc nasdaqadsk lri investment llc acquires share of newmont corporation nysenem lri investment llc sell share of teledyne technology incorporated nysetdy lri investment llc take position in spdr portfolio sp growth etf nysearcaspyg mqs management llc invests in centene corporation nysecnc eaton corporation plc nyseetn stock position lowered by lri investment llc stephen investment management group llc increase position in roper technology inc nyserop mtm investment management llc ha holding in ishares russell midcap etf nysearcaiwr lri investment llc acquires share of union pacific corporation nyseunp lri investment llc sell share of ameriprise financial inc nyseamp mtm investment management llc sell share of kinder morgan inc nysekmi mtm investment management llc buy share of vanguard sp etf nysearcavoo stephen inc ar boost stock position in hp inc nysehpq church dwight co inc nysechd share acquired by key financial inc lri investment llc reduces holding in kenvue inc nysekvue lri investment llc reduces position in ferrari nv nyserace lri investment llc buy share of spdr portfolio sp growth etf nysearcaspyg prudent man advisor llc sell share of vanguard intermediateterm bond etf nysearcabiv cme group inc nasdaqcme share purchased by key financial inc eaton corporation plc nyseetn share sold by lri investment llc mqs management llc buy new position in astrazeneca plc nasdaqazn kinder morgan inc nysekmi is mtm investment management llcs th largest position analyst set regeneron pharmaceutical inc nasdaqregn pt at catalyst financial partner llc grows stock position in linde plc nasdaqlin evergreen private wealth llc boost stock position in zoetis inc nysezts schwab u largecap etf nysearcaschx share sold by slow capital inc catalyst financial partner llc buy share of att inc nyset catalyst financial partner llc raise position in lowes company inc nyselow shore capital reiterates house stock rating for touchstone exploration lontxp cohen capital management inc sell share of ishares europe etf nysearcaiev vanguard ftse allworld exus etf nysearcaveu share sold by slow capital inc signaturefd llc reduces holding in rollins inc nyserol braime group lonbmt announces quarterly earnings result catalyst financial partner llc ha stock holding in sp global inc nysespgi beeks financial cloud group lonbks receives buy rating from canaccord genuity group catalyst financial partner llc increase holding in att inc nyset slow capital inc sell share of jpmorgan ultrashort municipal etf batsjmst catalyst financial partner llc ha stock position in intuitive surgical inc nasdaqisrg creightons loncrl trading higher still a buy dewhurst group londwha announces earnings result signaturefd llc boost stake in cisco system inc nasdaqcsco beeks financial cloud group lonbks receives buy rating from canaccord genuity group dunelm group londnlm receives buy rating from deutsche bank aktiengesellschaft catalyst financial partner llc ha position in capital group global growth equity etf nysearcacggo ariana resource lonaau trading up whats next simec atlantis energy lonsae trading down time to sell creightons loncrl trading higher still a buy what make uber technology uber a great business to invest in nearly half of u child are without summer learning program a cost rise study say world chess lonchss stock price down time to sell catalyst financial partner llc ha holding in the tjx company inc nysetjx a tariff on europe would effectively knock out transatlantic trade say eu trade chief promising cybersecurity stock to keep an eye on july th stratos wealth partner ltd sell share of universal display corporation nasdaqoled ge vernova inc nysegev share sold by mutual of america capital management llc bleakley financial group llc acquires share of marsh mclennan company inc nysemmc owen corning inc nyseoc given average recommendation of moderate buy by brokerage schechter investment advisor llc sell share of morgan stanley nysems corrado advisor llc raise stock position in vici property inc nysevici new york state common retirement fund trim position in ansys inc nasdaqanss arizona state retirement system sell share of raymond james financial inc nyserjf new york state common retirement fund sell share of mondelez international inc nasdaqmdlz diversify wealth management llc raise stock position in appfolio inc nasdaqappf emerald adviser llc decrease stock position in lharris technology inc nyselhx stephen inc ar boost stock position in automatic data processing inc nasdaqadp m mmm hold c rating reaffirmed at weiss rating weatherly asset management l p take position in chubb limited nysecb emerald adviser llc ha stock position in msci inc nysemsci bleakley financial group llc acquires share of marsh mclennan company inc nysemmc arizona state retirement system reduces stock position in ansys inc nasdaqanss fortinet inc nasdaqftnt share sold by new york state common retirement fund new york state common retirement fund sell share of cognizant technology solution corporation nasdaqctsh key financial inc increase stock position in kinsale capital group inc nyseknsl focused investor llc sell share of the home depot inc nysehd aurora investment counsel take position in elf beauty nyseelf bleakley financial group llc purchase share of vanguard total world stock etf nysearcavt trump adviser say this is how the president could certainly fire powell regeneron pharmaceutical inc nasdaqregn given average recommendation of moderate buy by brokerage mtm investment management llc acquires new position in american electric power company inc nasdaqaep lri investment llc trim stock position in kenvue inc nysekvue key financial inc purchase share of kla corporation nasdaqklac alp advisor inc purchase share of global payment inc nysegpn lri investment llc reduces stock position in ferrari nv nyserace cme group inc nasdaqcme share purchased by key financial inc mtm investment management llc ha position in hershey company the nysehsy signaturefd llc raise stock position in ishares msci usa value factor etf batsvlue slow capital inc sell share of jpmorgan ultrashort municipal etf batsjmst catalyst financial partner llc boost stock position in intuitive surgical inc nasdaqisrg pulsar group lonpuls post quarterly earnings result evergreen private wealth llc ha million position in vaneck long muni etf batsmln world chess lonchss stock price down time to sell rockfire resource lonrock trading up still a buy catalyst financial partner llc ha holding in capital group global growth equity etf nysearcacggo catalyst financial partner llc purchase share of deere company nysede dunelm group londnlm receives buy rating from deutsche bank aktiengesellschaft a tariff on europe would effectively knock out transatlantic trade say eu trade chief kathmere capital management llc cut stake in ge vernova inc nysegev arthur j gallagher co nyseajg share purchased by new york state common retirement fund analyst set wex inc nysewex target price at corrado advisor llc sell share of corning incorporated nyseglw dominion energy inc nysed share acquired by new york state common retirement fund kathmere capital management llc trim holding in dell technology inc nysedell new york state common retirement fund sell share of nike inc nysenke new york state common retirement fund sell share of marvell technology inc nasdaqmrvl kinsale capital group inc nyseknsl given consensus rating of hold by brokerage emerald adviser llc sell share of xpo inc nysexpo emerald adviser llc ha stake in burlington store inc nyseburl invmun incom oia to go exdividend on july th doubleline yield opportunity fund plan monthly dividend of nysedly inv vk invt ny announces monthly dividend of nysevtn gladstone land co announces monthly dividend of nasdaqlandp regency center co declares quarterly dividend of nasdaqregcp thor exploration lonthx given buy rating at canaccord genuity group berenberg bank issue positive forecast for volex lonvlx stock price gladstone commercial co nasdaqgoodn plan monthly dividend trump give russia a day deadline on ukraine signaturefd llc ha million stock position in ishares msci acwi ex u etf nasdaqacwx signaturefd llc buy share of toyota motor corporation nysetm cheems cheemspet cheems price hit on exchange reviewing cyclo therapeutic nasdaqcyth sorrento therapeutic nasdaqsrne financial contrast cemtrex nasdaqcetx versus omron otcmktsomrny empower self reported market capitalization top thousand mpwr animecoin anime hit day volume of million dignity gold digau trading higher over last day share in howmet aerospace inc nysehwm bought by florida financial advisor llc florida financial advisor llc sell share of unitedhealth group incorporated nyseunh aercap holding nv nyseaer stake cut by check capital management inc ca headtohead contrast insight enterprise nasdaqnsit v flowerscom nasdaqflws slow capital inc sell share of ishares global consumer staple etf nysearcakxi fidelity national information service inc nysefis position boosted by isthmus partner llc gould asset management llc ca reduces stock holding in ishares select dividend etf nasdaqdvy abbvie inc nyseabbv share sold by florida financial advisor llc slow capital inc cut stake in ishares global comm service etf nysearcaixp top renewable energy stock to research july th gould asset management llc ca lower position in ishares msci acwi low carbon target etf nysearcacrbn alta foundation donates k toward texas flood relief trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine rice hall james associate llc lower stock position in lantheus holding inc nasdaqlnth aurora investment counsel buy share of euronet worldwide inc nasdaqeeft slow capital inc raise stock position in cadence design system inc nasdaqcdns moody corporation nysemco share purchased by slow capital inc corteva inc nysectva share sold by lri investment llc top fintech stock to keep an eye on july th first bancorp nysefbp share bought by edgestream partner lp revolution medicine inc nasdaqrvmd share acquired by edgestream partner lp rithm capital corp nyseritm share bought by edgestream partner lp edgestream partner lp raise holding in ncino inc nasdaqncno antisemitic post appear on elmos x account after hack bleakley financial group llc purchase share of schwab u smallcap etf nysearcascha bleakley financial group llc boost stock holding in dimensional u small cap etf nysearcadfas edgestream partner lp acquires share of simpson manufacturing company inc nysessd edgestream partner lp ha million stake in nmi holding inc nasdaqnmih edgestream partner lp make new investment in exlservice holding inc nasdaqexls hartford schroders taxaware bond etf nysearcahtab share acquired by leelyn smith llc edgestream partner lp increase stock holding in cno financial group inc nysecno invesco sp high dividend low volatility etf nysearcasphd share sold by leelyn smith llc edgestream partner lp buy new position in bentley system incorporated nasdaqbsy fortress financial solution llc decrease holding in avantis emerging market equity etf nysearcaavem share in ishares future ai tech etf nysearcaarty acquired by mitchell mcleod pugh williams inc eu trade minister meet in brussels after u announces percent tariff private capital advisor inc take position in relay therapeutic inc nasdaqrlay mutual of america capital management llc ha million holding in ametek inc nyseame mitchell mcleod pugh williams inc purchase share of becton dickinson and company nysebdx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>axecap investment llc sell share of apple inc nasdaqaapl fifth third bancorp sell share of apple inc nasdaqaapl sagace wealth management llc sell share of microsoft corporation nasdaqmsft microsoft corporation nasdaqmsft stake lowered by tran capital management lp define financial llc buy share of microsoft corporation nasdaqmsft sapient capital llc sell share of microsoft corporation nasdaqmsft teacher retirement system of texas sell share of safety insurance group inc nasdaqsaft teacher retirement system of texas sell share of organon co nyseogn teacher retirement system of texas cut stock holding in artisan partner asset management inc nyseapam teacher retirement system of texas buy new share in a o smith corporation nyseaos rev group inc nyserevg position trimmed by teacher retirement system of texas share in lamb weston nyselw acquired by teacher retirement system of texas bridgebio pharma inc nasdaqbbio share sold by teacher retirement system of texas two west capital advisor llc trim position in apple inc nasdaqaapl teacher retirement system of texas take million position in community health system inc nysecyh teacher retirement system of texas ha million position in portland general electric company nysepor teacher retirement system of texas buy share of ugi corporation nyseugi teacher retirement system of texas ha million stake in ziff davis inc nasdaqzd teacher retirement system of texas purchase new stake in the campbell company nasdaqcpb asian heat squeeze lng flow to europe borgwarner inc nysebwa share sold by cambridge investment research advisor inc teacher retirement system of texas ha million stake in madrigal pharmaceutical inc nasdaqmdgl exclusive interview the future belongs to nocodes with deep ai integration abhinav girdhar ceo founder appy pie european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff european trade minister meet to forge strategy after trump surprise tariff relx nyserelx rating lowered to hold at wall street zen southside bancshares nysesbsi rating lowered to sell at wall street zen wall street zen downgrade vista energy nysevist to sell bank of america cut primo brand nyseprmb price target to silgan nyseslgn price target raised to stifel financial nysesf price target raised to ubiquitis ui buy rating reiterated at bw financial wall street zen upgrade rafael nyserfl to hold charles schwab nyseschw price target raised to sea nysese stock rating lowered by wall street zen sealed air nysesee price target raised to wall street zen upgrade te connectivity nysetel to buy telus digital nysetixt stock rating upgraded by wall street zen sealed air nysesee price target raised to telephone and data system nysetds stock rating upgraded by wall street zen synovus financial nysesnv price target raised to truist financial cut sonoco product nyseson price target to att nyset price target raised to wec energy group nysewec rating lowered to sell at wall street zen exxon mobil nysexom price target raised to at scotiabank truist financial raise webster financial nysewbs price target to top ai stock to buy this week the place report surge in company relocation driving demand for flexible office space in dubai and riyadh rockfire resource lonrock stock price up still a buy rockfire resource lonrock trading up should you buy new zealand energy cvenz trading down here what happened argentina lithium energy cvelit share down should you sell silver spruce resource cvesse share down here what happened silver spruce resource cvesse trading down time to sell new zealand energy cvenz trading down should you sell argentina lithium energy cvelit stock price down here why geomega resource cvegma stock price up whats next geomega resource cvegma trading higher still a buy geomega resource cvegma stock price up here what happened geomega resource cvegma share up time to buy geomega resource cvegma trading higher should you buy form eptriricardo plc advanced drainage system inc nysewms share bought by teacher retirement system of texas teacher retirement system of texas purchase share of lxp industrial trust nyselxp teacher retirement system of texas purchase new stake in exact science corporation nasdaqexas teacher retirement system of texas raise holding in advanced drainage system inc nysewms amentum holding inc nyseamtm share sold by teacher retirement system of texas teacher retirement system of texas boost stock position in sprinklr inc nysecxm teacher retirement system of texas acquires share of lxp industrial trust nyselxp ola electric share rise to r a market reacts to q update aktietilbagekbsprogram uge share buyback programme week bunge global earnings preview what to expect robinhood eu wont retaliate to trump tariff countermeasure on hold until august avis budget group car v it peer head to head analysis contrasting cps technology cpsh the competition head to head analysis better home finance betr and it peer analyzing greif bros gefb the competition head to head review better home finance betr the competition cps technology cpsh it competitor head to head survey avis budget group car it peer financial comparison how doe nvidias reaching trillion in market cap impact the sp nasdaq and dow jones marc benioff dismisses ai panic say whitecollar workforce wont be wiped out market week ahead strong bank earnings sticky inflation could jolt summer lull china exporter rush to beat trump next big tariff deadline bp nysebp stock price expected to rise scotiabank analyst say ladenburg thalmsh sh initiate coverage on kala bio nasdaqkala franklin resource nyseben given new price target at well fargo company kkrs quarterly earnings preview what you need to know wall street zen upgrade wintrust financial nasdaqwtfc to hold botswana diamond lonbod trading higher still a buy botswana diamond lonbod share up here what happened botswana diamond lonbod trading higher whats next majestic ideal holding refiled mjid plan to raise million in july th ipo tower resource cvetwr trading up here what happened tower resource cvetwr trading up here why botswana diamond lonbod share up here what happened tower resource cvetwr trading up time to buy trump envoy meet with ukraine zelenskyy a u pledge more patriot missile for kyiv trump threatens russia with tariff and boost u weapon for ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump threatens russia with tariff and boost u weapon for ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump threatens russia with tariff and boost u weapon for ukraine trump threatens russia with tariff if war on ukraine isnt resolved within day trump envoy meet with ukraine zelenskyy a u weighs next step on russia invasion trump envoy meet with ukraine zelenskyy a u weighs next step on russia invasion trump threatens russia with tariff if war on ukraine isnt resolved within day trump threatens russia with tariff if war on ukraine isnt resolved within day spin cycle theyre throwing spaghetti at the wall bbc dump masterchef host over sex misconduct report eu want no trade war a trade minister mull new u tariff threat new review ordered into nh murdersuicide case amid criticism of shooter bail morning brief the epstein firestorm ice raid riot california v trump aquestive therapeutic inc nasdaqaqst given consensus recommendation of buy by analyst astera lab inc nasdaqalab receives consensus target price from analyst mplx lp nysemplx receives consensus recommendation of moderate buy from analyst brokerage set altria group inc nysemo price target at kornit digital ltd nasdaqkrnt receives average price target from brokerage exwhite house aide reveals why trump panicking right now brokerage set triple flag precious metal corp nysetfpm price target at lionsgate studio corp nyselion receives average price target from brokerage agnico eagle mine limited tseaem receives c consensus pt from analyst democrat already lining up for presidential race in early voting state these state are america best for quality of life in letter for monday july a bitcoin rush past k whats next for ether xrp dogecoin elkem asa elkef to release earnings on tuesday america movil amx expected to announce quarterly earnings on tuesday nikki wegner understanding big beautiful bill impact on long term care in nd why not hold gun manufacturer accountable for mass shooting boston herald will democrat reembrace musk now that he feuding with trump guest view bipartisan push to strengthen pa disability care system must succeed house debate pentagon spending crypto a rescission head to senate hancock whitney hwc projected to post quarterly earnings on tuesday omnicom group omc expected to announce quarterly earnings on tuesday what is bastille day what to know about the french holiday and why it is celebrated insider buying schroders plc lonsdr insider purchase share of stock cv group plc loncvsg insider buy in stock crest nicholson holding plc loncrst insider acquires in stock nextdecade nasdaqnext hit new month high on analyst upgrade trump mark anniversary of assassination attempt at the fifa club world cup final historic grand canyon lodge destroyed a wildfire force evacuation in northern arizona today in history july the storming of the bastille invisible rural homelessness grows in the shadow of a maine tourism mecca education notebook bond result child nutrition change and federal consultation orrington trash plant at risk of permanent closure if judge freeze funding susan collins start lining up money for maine that may not actually arrive hungary oldest library is fighting to save book from a beetle infestation trump to meet nato secretarygeneral a plan take shape for ukraine weapon sale chris christie say trump not pam bondi pulled the plug on epstein memo when you start the fire sometimes you cant put it out iyo sue former engineer after io founder tang yew tan admits to receiving trade secret from him poll show support for immigration is rising in u amid president trump crackdown trial will be very difficult for sen nicole mitchell to win minneapolis attorney say who got next democrat already lining up for presidential race in early voting state who got next democrat already lining up for presidential race in early voting state who got next democrat already lining up for presidential race in early voting state a nicotine pouch popularity soar theyre also responsible for more poisoning in young kid study find the biden doj tried to imprison a trump supporter over meme now he fighting back gop infighting over trump doge cut to take center stage a deadline loom how much trump big beautiful bill could raise electricity cost in every u state over the next year claudia istel ken barnes budget ayotte signed is designed to perpetuate inequality letter to the editor response to a response william hinkle eversource customer deserve more stable electric bill letter to the editor resident deserve more information about data center a look at a new poll showing support for immigration is rising in the u bitcoin top for the first time peter schiff give trump tariff threat on mexico eu a reality check america relies on deficit to make up for excess debt and consumption trump say he spoke to bongino amid report of infighting over epstein file trump reflects on surviving pennsylvania rally shooting year on god alone saved me one year after trump assassination attempt change at secret service but question remain jim chalmers insists labor can meet target of m new home despite department warning trump to meet nato secretary general a plan take shape for ukraine weapon sale tragedy in fall river read the full press release on sunday deadly fire amd warns of new transient scheduler attack impacting a wide range of cpu cambodia khmer rouge torture site added to unesco heritage list cant contain debris then forget about starbase dont allow hidden tax on energy producer hydrogen is a pipe dream dont be fooled the epstein list still remain relevant immigrant in overcapacity ice detention say theyre hungry raise food quality concern miranda devine shocking new poll reveals majority of deluded dems still believe the russia collusion hoax wa real live update trump threatens russia with tariff if war on ukraine isnt resolved dhs secretary kristi noem say trump want fema remade not dismantled homicide investigation underway after stabbing in southeast portland trump to announce aggressive ukraine weapon plan houston astros select lsus ethan frey in the third round of the mlb draft here when trump say american spirit triumph over force of evil on anniversary of butler assassination attempt trump brazil tariff imposed because they jail insurrectionist say economist your next coffee come with an insurrection infusion fee christie say trump benefited from epstein conspiracy theory boston red sox select lsus anthony eyanson in third round of mlb draft here when biden say he had to use autopen because he simply granted too many pardon company cast party biden defends frequent autopen use at end of term alex jose padilla say trump is to blame for violence against ice carried out by dems foot soldier fulltime mayor is unnecessary appendage an lsu baseball signee ha been picked by the tampa bay ray in the mlb draft here who portland police seize pound of cannabis in traffic stop florida financial advisor llc grows position in spdr sp small cap value etf nysearcaslyv share in united therapeutic corporation nasdaquthr bought by aurora investment counsel aurora investment counsel take million position in globe life inc nysegl florida financial advisor llc acquires share of spdr sp mid cap growth etf nysearcamdyg bhk investment advisor llc ha stake in eli lilly and company nyselly bleakley financial group llc boost stock position in bank of america corporation nysebac bleakley financial group llc sell share of ishares silver trust nysearcaslv rice hall james associate llc boost holding in green brick partner inc nasdaqgrbk jpmorgan betabuilders u equity etf batsbbus is florida financial advisor llcs rd largest position securian asset management inc sell share of servicenow inc nysenow florida financial advisor llc acquires new holding in ishares core high dividend etf nysearcahdv bleakley financial group llc sell share of ishares year treasury bond etf nasdaqshy securian asset management inc ha million stock holding in merck co inc nysemrk florida financial advisor llc buy share of ishares core high dividend etf nysearcahdv focused investor llc decrease stock holding in the home depot inc nysehd the pnc financial service group inc nysepnc share sold by bhk investment advisor llc rice hall james associate llc sell share of griffon corporation nysegff florida financial advisor llc sell share of fidelity msci information technology index etf nysearcaftec bleakley financial group llc buy share of vanguard total world stock etf nysearcavt charity fraud alert how to donate safely to texas flood victim charity fraud alert how to donate safely to texas flood victim tight oil market shrug off supply surge heartland advisor value plus fund q investor letter boy girl club program threatened by trump grant freeze serve thousand of family sun pharma announces launch of leqselvitm deuruxolitinib in the united state for the treatment of severe alopecia areata texas roadhouse inc nasdaqtxrh given consensus recommendation of moderate buy by analyst mqs management llc make new investment in rli corp nyserli stephen investment management group llc buy share of autodesk inc nasdaqadsk lri investment llc acquires share of newmont corporation nysenem lri investment llc sell share of teledyne technology incorporated nysetdy lri investment llc take position in spdr portfolio sp growth etf nysearcaspyg mqs management llc invests in centene corporation nysecnc eaton corporation plc nyseetn stock position lowered by lri investment llc stephen investment management group llc increase position in roper technology inc nyserop mtm investment management llc ha holding in ishares russell midcap etf nysearcaiwr lri investment llc acquires share of union pacific corporation nyseunp lri investment llc sell share of ameriprise financial inc nyseamp mtm investment management llc sell share of kinder morgan inc nysekmi mtm investment management llc buy share of vanguard sp etf nysearcavoo stephen inc ar boost stock position in hp inc nysehpq church dwight co inc nysechd share acquired by key financial inc lri investment llc reduces holding in kenvue inc nysekvue lri investment llc reduces position in ferrari nv nyserace lri investment llc buy share of spdr portfolio sp growth etf nysearcaspyg prudent man advisor llc sell share of vanguard intermediateterm bond etf nysearcabiv cme group inc nasdaqcme share purchased by key financial inc eaton corporation plc nyseetn share sold by lri investment llc mqs management llc buy new position in astrazeneca plc nasdaqazn kinder morgan inc nysekmi is mtm investment management llcs th largest position analyst set regeneron pharmaceutical inc nasdaqregn pt at catalyst financial partner llc grows stock position in linde plc nasdaqlin evergreen private wealth llc boost stock position in zoetis inc nysezts schwab u largecap etf nysearcaschx share sold by slow capital inc catalyst financial partner llc buy share of att inc nyset catalyst financial partner llc raise position in lowes company inc nyselow shore capital reiterates house stock rating for touchstone exploration lontxp cohen capital management inc sell share of ishares europe etf nysearcaiev vanguard ftse allworld exus etf nysearcaveu share sold by slow capital inc signaturefd llc reduces holding in rollins inc nyserol braime group lonbmt announces quarterly earnings result catalyst financial partner llc ha stock holding in sp global inc nysespgi beeks financial cloud group lonbks receives buy rating from canaccord genuity group catalyst financial partner llc increase holding in att inc nyset slow capital inc sell share of jpmorgan ultrashort municipal etf batsjmst catalyst financial partner llc ha stock position in intuitive surgical inc nasdaqisrg creightons loncrl trading higher still a buy dewhurst group londwha announces earnings result signaturefd llc boost stake in cisco system inc nasdaqcsco beeks financial cloud group lonbks receives buy rating from canaccord genuity group dunelm group londnlm receives buy rating from deutsche bank aktiengesellschaft catalyst financial partner llc ha position in capital group global growth equity etf nysearcacggo ariana resource lonaau trading up whats next simec atlantis energy lonsae trading down time to sell creightons loncrl trading higher still a buy what make uber technology uber a great business to invest in nearly half of u child are without summer learning program a cost rise study say world chess lonchss stock price down time to sell catalyst financial partner llc ha holding in the tjx company inc nysetjx a tariff on europe would effectively knock out transatlantic trade say eu trade chief promising cybersecurity stock to keep an eye on july th stratos wealth partner ltd sell share of universal display corporation nasdaqoled ge vernova inc nysegev share sold by mutual of america capital management llc bleakley financial group llc acquires share of marsh mclennan company inc nysemmc owen corning inc nyseoc given average recommendation of moderate buy by brokerage schechter investment advisor llc sell share of morgan stanley nysems corrado advisor llc raise stock position in vici property inc nysevici new york state common retirement fund trim position in ansys inc nasdaqanss arizona state retirement system sell share of raymond james financial inc nyserjf new york state common retirement fund sell share of mondelez international inc nasdaqmdlz diversify wealth management llc raise stock position in appfolio inc nasdaqappf emerald adviser llc decrease stock position in lharris technology inc nyselhx stephen inc ar boost stock position in automatic data processing inc nasdaqadp m mmm hold c rating reaffirmed at weiss rating weatherly asset management l p take position in chubb limited nysecb emerald adviser llc ha stock position in msci inc nysemsci bleakley financial group llc acquires share of marsh mclennan company inc nysemmc arizona state retirement system reduces stock position in ansys inc nasdaqanss fortinet inc nasdaqftnt share sold by new york state common retirement fund new york state common retirement fund sell share of cognizant technology solution corporation nasdaqctsh key financial inc increase stock position in kinsale capital group inc nyseknsl focused investor llc sell share of the home depot inc nysehd aurora investment counsel take position in elf beauty nyseelf bleakley financial group llc purchase share of vanguard total world stock etf nysearcavt trump adviser say this is how the president could certainly fire powell regeneron pharmaceutical inc nasdaqregn given average recommendation of moderate buy by brokerage mtm investment management llc acquires new position in american electric power company inc nasdaqaep lri investment llc trim stock position in kenvue inc nysekvue key financial inc purchase share of kla corporation nasdaqklac alp advisor inc purchase share of global payment inc nysegpn lri investment llc reduces stock position in ferrari nv nyserace cme group inc nasdaqcme share purchased by key financial inc mtm investment management llc ha position in hershey company the nysehsy signaturefd llc raise stock position in ishares msci usa value factor etf batsvlue slow capital inc sell share of jpmorgan ultrashort municipal etf batsjmst catalyst financial partner llc boost stock position in intuitive surgical inc nasdaqisrg pulsar group lonpuls post quarterly earnings result evergreen private wealth llc ha million position in vaneck long muni etf batsmln world chess lonchss stock price down time to sell rockfire resource lonrock trading up still a buy catalyst financial partner llc ha holding in capital group global growth equity etf nysearcacggo catalyst financial partner llc purchase share of deere company nysede dunelm group londnlm receives buy rating from deutsche bank aktiengesellschaft a tariff on europe would effectively knock out transatlantic trade say eu trade chief kathmere capital management llc cut stake in ge vernova inc nysegev arthur j gallagher co nyseajg share purchased by new york state common retirement fund analyst set wex inc nysewex target price at corrado advisor llc sell share of corning incorporated nyseglw dominion energy inc nysed share acquired by new york state common retirement fund kathmere capital management llc trim holding in dell technology inc nysedell new york state common retirement fund sell share of nike inc nysenke new york state common retirement fund sell share of marvell technology inc nasdaqmrvl kinsale capital group inc nyseknsl given consensus rating of hold by brokerage emerald adviser llc sell share of xpo inc nysexpo emerald adviser llc ha stake in burlington store inc nyseburl invmun incom oia to go exdividend on july th doubleline yield opportunity fund plan monthly dividend of nysedly inv vk invt ny announces monthly dividend of nysevtn gladstone land co announces monthly dividend of nasdaqlandp regency center co declares quarterly dividend of nasdaqregcp thor exploration lonthx given buy rating at canaccord genuity group berenberg bank issue positive forecast for volex lonvlx stock price gladstone commercial co nasdaqgoodn plan monthly dividend trump give russia a day deadline on ukraine signaturefd llc ha million stock position in ishares msci acwi ex u etf nasdaqacwx signaturefd llc buy share of toyota motor corporation nysetm cheems cheemspet cheems price hit on exchange reviewing cyclo therapeutic nasdaqcyth sorrento therapeutic nasdaqsrne financial contrast cemtrex nasdaqcetx versus omron otcmktsomrny empower self reported market capitalization top thousand mpwr animecoin anime hit day volume of million dignity gold digau trading higher over last day share in howmet aerospace inc nysehwm bought by florida financial advisor llc florida financial advisor llc sell share of unitedhealth group incorporated nyseunh aercap holding nv nyseaer stake cut by check capital management inc ca headtohead contrast insight enterprise nasdaqnsit v flowerscom nasdaqflws slow capital inc sell share of ishares global consumer staple etf nysearcakxi fidelity national information service inc nysefis position boosted by isthmus partner llc gould asset management llc ca reduces stock holding in ishares select dividend etf nasdaqdvy abbvie inc nyseabbv share sold by florida financial advisor llc slow capital inc cut stake in ishares global comm service etf nysearcaixp top renewable energy stock to research july th gould asset management llc ca lower position in ishares msci acwi low carbon target etf nysearcacrbn alta foundation donates k toward texas flood relief trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine trump envoy arrives in kyiv a u pledge more patriot missile to ukraine rice hall james associate llc lower stock position in lantheus holding inc nasdaqlnth aurora investment counsel buy share of euronet worldwide inc nasdaqeeft slow capital inc raise stock position in cadence design system inc nasdaqcdns moody corporation nysemco share purchased by slow capital inc corteva inc nysectva share sold by lri investment llc top fintech stock to keep an eye on july th first bancorp nysefbp share bought by edgestream partner lp revolution medicine inc nasdaqrvmd share acquired by edgestream partner lp rithm capital corp nyseritm share bought by edgestream partner lp edgestream partner lp raise holding in ncino inc nasdaqncno antisemitic post appear on elmos x account after hack bleakley financial group llc purchase share of schwab u smallcap etf nysearcascha bleakley financial group llc boost stock holding in dimensional u small cap etf nysearcadfas edgestream partner lp acquires share of simpson manufacturing company inc nysessd edgestream partner lp ha million stake in nmi holding inc nasdaqnmih edgestream partner lp make new investment in exlservice holding inc nasdaqexls hartford schroders taxaware bond etf nysearcahtab share acquired by leelyn smith llc edgestream partner lp increase stock holding in cno financial group inc nysecno invesco sp high dividend low volatility etf nysearcasphd share sold by leelyn smith llc edgestream partner lp buy new position in bentley system incorporated nasdaqbsy fortress financial solution llc decrease holding in avantis emerging market equity etf nysearcaavem share in ishares future ai tech etf nysearcaarty acquired by mitchell mcleod pugh williams inc eu trade minister meet in brussels after u announces percent tariff private capital advisor inc take position in relay therapeutic inc nasdaqrlay mutual of america capital management llc ha million holding in ametek inc nyseame mitchell mcleod pugh williams inc purchase share of becton dickinson and company nysebdx</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>123</v>
+      </c>
+      <c r="P15" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>355</v>
+      </c>
+      <c r="S15" t="n">
+        <v>76</v>
+      </c>
+      <c r="T15" t="n">
+        <v>427</v>
+      </c>
+      <c r="U15" t="n">
+        <v>161</v>
+      </c>
+      <c r="V15" t="n">
+        <v>81</v>
+      </c>
+      <c r="W15" t="n">
+        <v>34</v>
+      </c>
+      <c r="X15" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6263.7001953125</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6268.1201171875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6201.58984375</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6254.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5177460000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0031936574173276</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>modelop appoints exstrategy executive alex rice a director of partnership modelop appoints exstrategy executive alex rice a director of partnership precision scissors five type designed for specific task first mining announces upsized million public offering for a total offering of up to million massachusetts financial service co ma acquires share of cdw corporation nasdaqcdw leo wealth llc sell share of bank of america corporation nysebac dakota wealth management buy share of spdr sp midcap etf trust nysearcamdy stratum wealth advisor llc sell share of costco wholesale corporation nasdaqcost dominion energy inc nysed stock position cut by dakota wealth management dakota wealth management acquires share of intercontinental exchange inc nyseice oversea chinese banking corp ltd cut stock holding in essential property realty trust inc nyseeprt dakota wealth management sell share of schwab u largecap growth etf nysearcaschg massachusetts financial service co ma reduces stock position in veeva system inc nyseveev sumitomo life insurance co sell share of shopify inc nyseshop dakota wealth management reduces holding in hershey company the nysehsy dakota wealth management take position in incyte corporation nasdaqincy newmont corporation nysenem stock position raised by dakota wealth management top tech news today oneplus ai assistant samsung f launch gta v p in saudi trump cyber plan grok ai companion intel corporation nasdaqintc position reduced by dakota wealth management timessquare capital management llc cut stock holding in synaptics incorporated nasdaqsyna sumitomo life insurance co lower stock holding in costar group inc nasdaqcsgp dakota wealth management raise stake in resmed inc nysermd oversea chinese banking corp ltd raise stock position in shopify inc nyseshop timessquare capital management llc boost stock position in clean harbor inc nyseclh dakota wealth management buy share of rollins inc nyserol leo wealth llc acquires share of shopify inc nyseshop gartner inc nyseit share sold by sumitomo life insurance co leo wealth llc trim stock holding in grayscale bitcoin trust etf nysearcagbtc coterra energy inc nysectra share sold by cornercap investment counsel inc massachusetts financial service co ma sell share of nike inc nysenke port of long beach break ground on million terminal expansion project bitcoin whale move btc is a billion dump coming crea cut forecast again but say home sale are rebounding from chaotic start fiserv fi fell on concern over declining payment volume fiserv fi fell on concern over declining payment volume jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk popular yogurt recalled could contain sharp plastic piece apple invests m in pentagonbacked mp material dolores catania team up with advanced herbal from the maker of dramamine to launch the dish on glps content series and tackle one of the most common complaint from glp user nausea tiktok denies viral rumor about new u app head to head contrast china bak battery nasdaqcbat v alaska power telephone otcmktsaptl made scientific and sentinel biotherapeutics announce strategic manufacturing partnership to advance ph iii allogeneic epp encapsulated cell therapy program techprecision tpcs v it rival head to head survey head to head analysis ucloudlink group nasdaqucl and intertek gp otcmktsiktsy analyzing irobot nasdaqirbt and fanuc otcmktsfanuy bridgewater advisor inc purchase share of marriott international inc nasdaqmar bridgewater advisor inc take position in sp global inc nysespgi bryn mawr capital management llc grows position in ssc technology holding inc nasdaqssnc xcel energy inc nasdaqxel stake boosted by midwest professional planner ltd insig ai loninsg stock price up still a buy iconic mineral cveicm trading up here why ocean power technology nasdaqoptt v spine injury solution otcmktsspin financial analysis sonoro energy cvesnv trading down whats next andretti acquisition corp ii nasdaqpole share sold by wealthspring capital llc champion bear resource cvecba trading down should you sell montauk renewables mntk it competitor financial contrast sonoro energy cvesnv stock price down should you sell bryn mawr capital management llc decrease stock position in vanguard sp etf nysearcavoo bridgewater advisor inc purchase new share in thermo fisher scientific inc nysetmo dogwood therapeutic dwtx versus the competition head to head comparison reviewing oriental land otcmktsolcly h world group nasdaqhtht qep otcmktsqepc issue quarterly earnings result sonoro energy cvesnv trading down whats next paul mueller muel and the competition critical survey contrasting montauk renewables mntk and it rival wealthspring capital llc trim stock position in andretti acquisition corp ii nasdaqpole clearsign technology nasdaqclir ashtead group otcmktsashty head to head analysis linkedins city on the rise see location to grow your career here what to expect from idexx laboratory next earnings report do you believe in the upside potential of icon plc iclr here what to expect from idexx laboratory next earnings report china economy grows steadily despite trump tariff the new york time u banking giant reap gain from dealmaking rebound june cpi signal tariff impact what the expert say plug named exclusive wholesale partner for recurrents ev selling platform bryn mawr capital management llc trim holding in oracle corporation nyseorcl hager investment management service llc sell share of waste management inc nysewm apollon wealth management llc acquires share of apollo global management inc nyseapo schrum private wealth management llc take position in roper technology inc nyserop sbi security co ltd sell share of cintas corporation nasdaqctas hager investment management service llc ha holding in canadian pacific kansa city limited nysecp massachusetts financial service co ma buy share of atlassian corporation plc nasdaqteam share in ryman hospitality property inc nyserhp purchased by oversea chinese banking corp ltd poehling capital management inc invests in howard hughes holding inc nysehhh massachusetts financial service co ma decrease holding in nike inc nysenke share in veeva system inc nyseveev bought by sumitomo life insurance co dakota wealth management sell share of global payment inc nysegpn dakota wealth management purchase share of rollins inc nyserol clearsign technology nasdaqclir and ashtead group otcmktsashty critical analysis headtohead analysis paul mueller muel v the competition oriental land otcmktsolcly v h world group nasdaqhtht headtohead survey kane biotech cvekne share down here what happened midwest professional planner ltd acquires share of torm plc nasdaqtrmd qep otcmktsqepc issue quarterly earnings result mesa royalty trust mtr v it rival financial review hegseth yank u military participant from globalist security forum gcm resource longcm share up still a buy schrum private wealth management llc ha position in cisco system inc nasdaqcsco accenture plc nyseacn share sold by schrum private wealth management llc poehling capital management inc ha million stock holding in marathon petroleum corporation nysempc poehling capital management inc increase stock position in british american tobacco plc nysebti the home depot inc nysehd share sold by provident trust co gcm resource longcm stock price up here what happened hager investment management service llc decrease stock holding in chipotle mexican grill inc nysecmg hager investment management service llc decrease stock holding in toll brother inc nysetol schrum private wealth management llc take position in cigna group nyseci what on earth are elon musk and greg abbott emailing about proposed cut to nasa science would be disastrous bridgewater advisor inc make new investment in coinbase global inc nasdaqcoin amcor plc nyseamcr share sold by oversea chinese banking corp ltd sim acquisition corp i nasdaqsima is wealthspring capital llcs th largest position silverbox corp iv nysesbxd share bought by wealthspring capital llc bridgewater advisor inc make new million investment in netflix inc nasdaqnflx wealthspring capital llc invests in newbury street ii acquisition corp class a ordinary share nasdaqntwo illinois tool work inc nyseitw share acquired by apollon wealth management llc a year later many rome resident still grapple with tornado impact bridgewater advisor inc purchase new stake in eli lilly and company nyselly bogart wealth llc increase holding in well fargo company nysewfc the walt disney company nysedis stock holding increased by apollon wealth management llc signaturefd llc acquires share of kimberlyclark co nysekmb hohimer wealth management llc ha stock holding in mueller industry inc nysemli catalyst financial partner llc invests in schlumberger limited nyseslb midwest professional planner ltd purchase share of nxp semiconductor nv nasdaqnxpi uc berkeley marketing professor killed by gunman in greece in broad daylight in wake of crash india order look at boeings fuel switch scam artist trump demand justice after doj criminal referral target adam schiff ice cream giant commit to nix artificial dye by federal health official say u ice cream maker say theyll stop using artificial dye by u ice cream maker say theyll stop using artificial dye by grant street asset management inc cut stock position in ft vest u equity enhance moderate buffer etf december batsxdec midwest professional planner ltd ha million holding in arista network inc nyseanet albertsons company nyseaci post quarterly earnings result beat expectation by eps tectonic advisor llc decrease stock holding in loews corporation nysel tectonic advisor llc cut holding in cbre group inc nysecbre parthenon llc ha million stock position in water corporation nysewat tectonic advisor llc acquires share of sunopta inc nasdaqstkl northern oil and gas inc nysenog share purchased by midwest professional planner ltd parthenon llc ha million position in turning point brand inc nysetpb mitchell mcleod pugh williams inc make new investment in tractor supply company nasdaqtsco florida financial advisor llc grows stake in royal caribbean cruise ltd nysercl securian asset management inc ha million stock position in exxon mobil corporation nysexom bleakley financial group llc purchase share of exxon mobil corporation nysexom bleakley financial group llc sell share of cadence design system inc nasdaqcdns tectonic advisor llc sell share of goldman sachs access treasury year etf nysearcagbil securian asset management inc sell share of the allstate corporation nyseall bleakley financial group llc sell share of danaher corporation nysedhr vanguard ftse allworld exus smallcap etf nysearcavss share purchased by tectonic advisor llc mitchell mcleod pugh williams inc raise stake in johnson johnson nysejnj securian asset management inc cut position in cadence design system inc nasdaqcdns gould asset management llc ca buy share of exxon mobil corporation nysexom reflecting on the new format of the expanded fifa club world cup tectonic advisor llc ha million holding in western midstream partner lp nysewes hr block inc nysehrb share bought by tectonic advisor llc lri investment llc reduces stock holding in ansys inc nasdaqanss stack financial management inc decrease holding in stryker corporation nysesyk tectonic advisor llc sell share of lkq corporation nasdaqlkq tectonic advisor llc increase stake in enbridge inc nyseenb exclusive state department roll out profamily exemption to hiring freeze west family investment inc boost position in chubb limited nysecb whittier trust co purchase share of topbuild corp nysebld landaas co wi adv purchase share of capital group international focus equity etf nysearcacgxu grant street asset management inc sell share of ft vest u equity buffer etf february batsffeb stack financial management inc sell share of centerpoint energy inc nysecnp corteva inc nysectva stock position raised by first business financial service inc txo partner nysetxo hess midstream partner nysehesm headtohead comparison rtx corporation nysertx share bought by mosaic family wealth partner llc fortress wealth management inc cut holding in proshares investment grade interest rate hedged batsighg kornitzer capital management inc k decrease stake in chart industry inc nysegtls saba closedend fund etf batscefs share sold by fortress wealth management inc fortress wealth management inc invests in bondbloxx private credit clo etf nasdaqpcmm stack financial management inc ha million position in conocophillips nysecop fortress wealth management inc sell share of principal active high yield etf nysearcayld fortress wealth management inc purchase share of cohen steer quality income realty fund inc nyserqi kaye capital management ha million position in ishares global etf nysearcaioo mizuho financial group inc nysemfg share sold by west family investment inc mine arao wealth creation management llc sell share of caterpillar inc nysecat doubleline opportunistic bond etf nysearcadbnd share sold by landmark wealth management llc landmark wealth management llc raise position in western asset bond etf nasdaqwabf pinkerton retirement specialist llc invests in franconevada corporation nysefnv landmark wealth management llc increase stock position in vanguard russell etf nasdaqvone ishares core u reit etf nysearcausrt share acquired by landmark wealth management llc</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>modelop appoints exstrategy executive alex rice a director of partnership modelop appoints exstrategy executive alex rice a director of partnership precision scissors five type designed for specific task first mining announces upsized million public offering for a total offering of up to million massachusetts financial service co ma acquires share of cdw corporation nasdaqcdw leo wealth llc sell share of bank of america corporation nysebac dakota wealth management buy share of spdr sp midcap etf trust nysearcamdy stratum wealth advisor llc sell share of costco wholesale corporation nasdaqcost dominion energy inc nysed stock position cut by dakota wealth management dakota wealth management acquires share of intercontinental exchange inc nyseice oversea chinese banking corp ltd cut stock holding in essential property realty trust inc nyseeprt dakota wealth management sell share of schwab u largecap growth etf nysearcaschg massachusetts financial service co ma reduces stock position in veeva system inc nyseveev sumitomo life insurance co sell share of shopify inc nyseshop dakota wealth management reduces holding in hershey company the nysehsy dakota wealth management take position in incyte corporation nasdaqincy newmont corporation nysenem stock position raised by dakota wealth management top tech news today oneplus ai assistant samsung f launch gta v p in saudi trump cyber plan grok ai companion intel corporation nasdaqintc position reduced by dakota wealth management timessquare capital management llc cut stock holding in synaptics incorporated nasdaqsyna sumitomo life insurance co lower stock holding in costar group inc nasdaqcsgp dakota wealth management raise stake in resmed inc nysermd oversea chinese banking corp ltd raise stock position in shopify inc nyseshop timessquare capital management llc boost stock position in clean harbor inc nyseclh dakota wealth management buy share of rollins inc nyserol leo wealth llc acquires share of shopify inc nyseshop gartner inc nyseit share sold by sumitomo life insurance co leo wealth llc trim stock holding in grayscale bitcoin trust etf nysearcagbtc coterra energy inc nysectra share sold by cornercap investment counsel inc massachusetts financial service co ma sell share of nike inc nysenke port of long beach break ground on million terminal expansion project bitcoin whale move btc is a billion dump coming crea cut forecast again but say home sale are rebounding from chaotic start fiserv fi fell on concern over declining payment volume fiserv fi fell on concern over declining payment volume jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk jpmorgan post strong second quarter number though dimon warns of tariff geopolitical risk popular yogurt recalled could contain sharp plastic piece apple invests m in pentagonbacked mp material dolores catania team up with advanced herbal from the maker of dramamine to launch the dish on glps content series and tackle one of the most common complaint from glp user nausea tiktok denies viral rumor about new u app head to head contrast china bak battery nasdaqcbat v alaska power telephone otcmktsaptl made scientific and sentinel biotherapeutics announce strategic manufacturing partnership to advance ph iii allogeneic epp encapsulated cell therapy program techprecision tpcs v it rival head to head survey head to head analysis ucloudlink group nasdaqucl and intertek gp otcmktsiktsy analyzing irobot nasdaqirbt and fanuc otcmktsfanuy bridgewater advisor inc purchase share of marriott international inc nasdaqmar bridgewater advisor inc take position in sp global inc nysespgi bryn mawr capital management llc grows position in ssc technology holding inc nasdaqssnc xcel energy inc nasdaqxel stake boosted by midwest professional planner ltd insig ai loninsg stock price up still a buy iconic mineral cveicm trading up here why ocean power technology nasdaqoptt v spine injury solution otcmktsspin financial analysis sonoro energy cvesnv trading down whats next andretti acquisition corp ii nasdaqpole share sold by wealthspring capital llc champion bear resource cvecba trading down should you sell montauk renewables mntk it competitor financial contrast sonoro energy cvesnv stock price down should you sell bryn mawr capital management llc decrease stock position in vanguard sp etf nysearcavoo bridgewater advisor inc purchase new share in thermo fisher scientific inc nysetmo dogwood therapeutic dwtx versus the competition head to head comparison reviewing oriental land otcmktsolcly h world group nasdaqhtht qep otcmktsqepc issue quarterly earnings result sonoro energy cvesnv trading down whats next paul mueller muel and the competition critical survey contrasting montauk renewables mntk and it rival wealthspring capital llc trim stock position in andretti acquisition corp ii nasdaqpole clearsign technology nasdaqclir ashtead group otcmktsashty head to head analysis linkedins city on the rise see location to grow your career here what to expect from idexx laboratory next earnings report do you believe in the upside potential of icon plc iclr here what to expect from idexx laboratory next earnings report china economy grows steadily despite trump tariff the new york time u banking giant reap gain from dealmaking rebound june cpi signal tariff impact what the expert say plug named exclusive wholesale partner for recurrents ev selling platform bryn mawr capital management llc trim holding in oracle corporation nyseorcl hager investment management service llc sell share of waste management inc nysewm apollon wealth management llc acquires share of apollo global management inc nyseapo schrum private wealth management llc take position in roper technology inc nyserop sbi security co ltd sell share of cintas corporation nasdaqctas hager investment management service llc ha holding in canadian pacific kansa city limited nysecp massachusetts financial service co ma buy share of atlassian corporation plc nasdaqteam share in ryman hospitality property inc nyserhp purchased by oversea chinese banking corp ltd poehling capital management inc invests in howard hughes holding inc nysehhh massachusetts financial service co ma decrease holding in nike inc nysenke share in veeva system inc nyseveev bought by sumitomo life insurance co dakota wealth management sell share of global payment inc nysegpn dakota wealth management purchase share of rollins inc nyserol clearsign technology nasdaqclir and ashtead group otcmktsashty critical analysis headtohead analysis paul mueller muel v the competition oriental land otcmktsolcly v h world group nasdaqhtht headtohead survey kane biotech cvekne share down here what happened midwest professional planner ltd acquires share of torm plc nasdaqtrmd qep otcmktsqepc issue quarterly earnings result mesa royalty trust mtr v it rival financial review hegseth yank u military participant from globalist security forum gcm resource longcm share up still a buy schrum private wealth management llc ha position in cisco system inc nasdaqcsco accenture plc nyseacn share sold by schrum private wealth management llc poehling capital management inc ha million stock holding in marathon petroleum corporation nysempc poehling capital management inc increase stock position in british american tobacco plc nysebti the home depot inc nysehd share sold by provident trust co gcm resource longcm stock price up here what happened hager investment management service llc decrease stock holding in chipotle mexican grill inc nysecmg hager investment management service llc decrease stock holding in toll brother inc nysetol schrum private wealth management llc take position in cigna group nyseci what on earth are elon musk and greg abbott emailing about proposed cut to nasa science would be disastrous bridgewater advisor inc make new investment in coinbase global inc nasdaqcoin amcor plc nyseamcr share sold by oversea chinese banking corp ltd sim acquisition corp i nasdaqsima is wealthspring capital llcs th largest position silverbox corp iv nysesbxd share bought by wealthspring capital llc bridgewater advisor inc make new million investment in netflix inc nasdaqnflx wealthspring capital llc invests in newbury street ii acquisition corp class a ordinary share nasdaqntwo illinois tool work inc nyseitw share acquired by apollon wealth management llc a year later many rome resident still grapple with tornado impact bridgewater advisor inc purchase new stake in eli lilly and company nyselly bogart wealth llc increase holding in well fargo company nysewfc the walt disney company nysedis stock holding increased by apollon wealth management llc signaturefd llc acquires share of kimberlyclark co nysekmb hohimer wealth management llc ha stock holding in mueller industry inc nysemli catalyst financial partner llc invests in schlumberger limited nyseslb midwest professional planner ltd purchase share of nxp semiconductor nv nasdaqnxpi uc berkeley marketing professor killed by gunman in greece in broad daylight in wake of crash india order look at boeings fuel switch scam artist trump demand justice after doj criminal referral target adam schiff ice cream giant commit to nix artificial dye by federal health official say u ice cream maker say theyll stop using artificial dye by u ice cream maker say theyll stop using artificial dye by grant street asset management inc cut stock position in ft vest u equity enhance moderate buffer etf december batsxdec midwest professional planner ltd ha million holding in arista network inc nyseanet albertsons company nyseaci post quarterly earnings result beat expectation by eps tectonic advisor llc decrease stock holding in loews corporation nysel tectonic advisor llc cut holding in cbre group inc nysecbre parthenon llc ha million stock position in water corporation nysewat tectonic advisor llc acquires share of sunopta inc nasdaqstkl northern oil and gas inc nysenog share purchased by midwest professional planner ltd parthenon llc ha million position in turning point brand inc nysetpb mitchell mcleod pugh williams inc make new investment in tractor supply company nasdaqtsco florida financial advisor llc grows stake in royal caribbean cruise ltd nysercl securian asset management inc ha million stock position in exxon mobil corporation nysexom bleakley financial group llc purchase share of exxon mobil corporation nysexom bleakley financial group llc sell share of cadence design system inc nasdaqcdns tectonic advisor llc sell share of goldman sachs access treasury year etf nysearcagbil securian asset management inc sell share of the allstate corporation nyseall bleakley financial group llc sell share of danaher corporation nysedhr vanguard ftse allworld exus smallcap etf nysearcavss share purchased by tectonic advisor llc mitchell mcleod pugh williams inc raise stake in johnson johnson nysejnj securian asset management inc cut position in cadence design system inc nasdaqcdns gould asset management llc ca buy share of exxon mobil corporation nysexom reflecting on the new format of the expanded fifa club world cup tectonic advisor llc ha million holding in western midstream partner lp nysewes hr block inc nysehrb share bought by tectonic advisor llc lri investment llc reduces stock holding in ansys inc nasdaqanss stack financial management inc decrease holding in stryker corporation nysesyk tectonic advisor llc sell share of lkq corporation nasdaqlkq tectonic advisor llc increase stake in enbridge inc nyseenb exclusive state department roll out profamily exemption to hiring freeze west family investment inc boost position in chubb limited nysecb whittier trust co purchase share of topbuild corp nysebld landaas co wi adv purchase share of capital group international focus equity etf nysearcacgxu grant street asset management inc sell share of ft vest u equity buffer etf february batsffeb stack financial management inc sell share of centerpoint energy inc nysecnp corteva inc nysectva stock position raised by first business financial service inc txo partner nysetxo hess midstream partner nysehesm headtohead comparison rtx corporation nysertx share bought by mosaic family wealth partner llc fortress wealth management inc cut holding in proshares investment grade interest rate hedged batsighg kornitzer capital management inc k decrease stake in chart industry inc nysegtls saba closedend fund etf batscefs share sold by fortress wealth management inc fortress wealth management inc invests in bondbloxx private credit clo etf nasdaqpcmm stack financial management inc ha million position in conocophillips nysecop fortress wealth management inc sell share of principal active high yield etf nysearcayld fortress wealth management inc purchase share of cohen steer quality income realty fund inc nyserqi kaye capital management ha million position in ishares global etf nysearcaioo mizuho financial group inc nysemfg share sold by west family investment inc mine arao wealth creation management llc sell share of caterpillar inc nysecat doubleline opportunistic bond etf nysearcadbnd share sold by landmark wealth management llc landmark wealth management llc raise position in western asset bond etf nasdaqwabf pinkerton retirement specialist llc invests in franconevada corporation nysefnv landmark wealth management llc increase stock position in vanguard russell etf nasdaqvone ishares core u reit etf nysearcausrt share acquired by landmark wealth management llc</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>237</v>
+      </c>
+      <c r="S16" t="n">
+        <v>12</v>
+      </c>
+      <c r="T16" t="n">
+        <v>263</v>
+      </c>
+      <c r="U16" t="n">
+        <v>81</v>
+      </c>
+      <c r="V16" t="n">
+        <v>18</v>
+      </c>
+      <c r="W16" t="n">
         <v>26</v>
       </c>
-      <c r="X14" t="n">
-        <v>251</v>
+      <c r="X16" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6297.35986328125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6304.68994140625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6262.27001953125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6263.39990234375</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5512290000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0053737674089093</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>american trust investment service serf a sole underwriter for ktech solution co ltd ipo american trust investment service serf a sole underwriter for ktech solution co ltd ipo henry samuel son of heidi klum and seal sign with next management get a head start on back to school shopping at amazon and save up to macomb county manufacturer urged to register for mfg day week to connect with local student deadline alert faruqi faruqi llp investigates claim on behalf of investor of doubleverify stifel rank no in jd power study for third straight year investor deadline next week robbins geller rudman dowd llp announces that red cat holding inc investor with substantial loss have opportunity to lead class action lawsuit rcat stevens capital partner trim position in ishares core msci eafe etf batsiefa wealthgarden f llc lower stock position in ishares russell etf nysearcaiwm vanguard smallcap value etf nysearcavbr share sold by theory financial llc donald trump slam backer who continue to talk about jeffrey epstein hoax i dont want their support anymore what happens if trump fire fed chair powell this would be a mess analyst warn newmont net m from selling greatland discovery silver stake deadline alert faruqi faruqi llp investigates claim on behalf of investor of petco video firsttime home buyer workshop u stock mixed bank of america earnings top view humankind list announced mechanic financial corp boost holding in altria group inc nysemo seabridge investment advisor llc sell share of deere company nysede qep co inc unveils stateoftheart robert adhesive manufacturing plant in dalton georgia mechanic financial corp buy new share in booking holding inc nasdaqbkng signaturefd llc sell share of ishares gold trust nysearcaiau the tjx company inc nysetjx stake boosted by mechanic financial corp share in booking holding inc nasdaqbkng bought by mechanic financial corp seabridge investment advisor llc grows stock holding in amgen inc nasdaqamgn altman advisor inc reduces position in the goldman sachs group inc nysegs danaher corporation nysedhr share acquired by sigma planning corp cable hill partner llc acquires share of accenture plc nyseacn caterpillar inc nysecat share acquired by cable hill partner llc equity investment corp sell share of cisco system inc nasdaqcsco seabridge investment advisor llc buy share of bank of america corporation nysebac pax financial group llc make new investment in the goldman sachs group inc nysegs sage mountain advisor llc raise stock holding in automatic data processing inc nasdaqadp automatic data processing inc nasdaqadp share bought by cable hill partner llc broadcom inc nasdaqavgo share sold by seabridge investment advisor llc altman advisor inc trim stake in the goldman sachs group inc nysegs sage mountain advisor llc buy new position in duke energy corporation nyseduk signaturefd llc purchase share of motorola solution inc nysemsi sage mountain advisor llc purchase share of gilead science inc nasdaqgild danaher corporation nysedhr share acquired by sage mountain advisor llc equity investment corp sell share of cisco system inc nasdaqcsco vanguard shortterm bond etf nysearcabsv share sold by stephen inc ar caterpillar inc nysecat share purchased by cable hill partner llc danaher corporation nysedhr share purchased by sigma planning corp pax financial group llc sell share of salesforce inc nysecrm share in verizon communication inc nysevz acquired by pax financial group llc barclays fined million for moneylaundering failure barclays fined million for moneylaundering failure the wall street journal seb collaborates with sp global market intelligence off the la vega strip restaurant close for bizarre reason great northern energy metal announces closing of private placement for gross proceeds of m why dogecoin is rising today analysisfrances plan to cull public holiday may not help the economy big buck for better bark gallant land m to bring gamechanging stem cell therapy to pet desantis tap state senator for florida highprofile cfo post gimme credit report warns of mounting headwind for u health insurer amid regulatory scrutiny and funding challenge deadline alert faruqi faruqi llp investigates claim on behalf of investor of fortrea holding duke football and basketball game security help needed investor deadline next week robbins geller rudman dowd llp announces that organon co investor with substantial loss have opportunity to lead class action lawsuit ogn congruence therapeutic announces oral presentation on mcr corrector development candidate cgx for earlyonset obesity at the rd annual obesity weight loss drug development summit invested in argenx year ago would be worth this much today power quality equipment market size expected to reach u billion by cagr of exclusive report by the insight partner life science lab signal shifting strategy amid new economic pressure according to survey of researcher power quality equipment market size expected to reach u billion by cagr of exclusive report by the insight partner welch forbes llc lower holding in cocacola company the nyseko summit x llc ha million stake in united parcel service inc nyseups shayne jacob llc take position in constellation brand inc nysestz welch forbes llc cut position in qualcomm incorporated nasdaqqcom altman advisor inc boost holding in lam research corporation nasdaqlrcx ine networking expertise essential a enterprise struggle with ai infrastructure ine networking expertise essential a enterprise struggle with ai infrastructure free flow inc fflo announces subsidiary contract to purchase real estate investment property finn partner introduces new aipowered crisis training platform to counter narrative manipulation and coordinated reputational attack in realtime ford share in decline a cost of largescale suv recall is disclosed olympus eume ultrasound processor for gi and pulmonary disease detection and diagnosis launch in u market summit x llc ha million position in invesco qqq nasdaqqqq parcion private wealth llc ha stake in ge aerospace nysege costco wholesale corporation nasdaqcost stock position raised by parcion private wealth llc cullen frost banker inc ha million position in costco wholesale corporation nasdaqcost cullen frost banker inc sell share of union pacific corporation nyseunp whittier trust co sell share of nike inc nysenke whittier trust co of nevada inc ha million holding in union pacific corporation nyseunp cullen frost banker inc ha million stake in walmart inc nysewmt costco wholesale corporation nasdaqcost share sold by cullen frost banker inc triasima portfolio management inc raise stock holding in arthur j gallagher co nyseajg vanguard ftse developed market etf nysearcavea stock holding lifted by seaside wealth management inc cullen frost banker inc sell share of alphabet inc nasdaqgoog parcion private wealth llc boost stock holding in eli lilly and company nyselly cullen frost banker inc sell share of the sherwinwilliams company nyseshw guardian wealth advisor llc sell share of vanguard sp etf nysearcavoo ishares sp growth etf nysearcaivw position decreased by guardian wealth advisor llc summit x llc ha million position in walmart inc nysewmt walmart inc nysewmt stock position lessened by summit x llc european commission will investigate umgs plan to buy downtown report sharplink gaming sbet share soar after becoming largest corporate ethereum holder nigeria inflation fall for third month in june chasing the potential of intelligent automation deadline alert faruqi faruqi llp investigates claim on behalf of investor of red cat holding fbs analyzes cryptocurrency market trend in h and outline key driver for h maine gop allegation of voter fraud arent true shenna bellow say rfk jr ousts two trump loyalist from hhs top rank ishares national muni bond etf nysearcamub share sold by wealthgarden f llc trump compare jeffrey epstein hoax to russiagate blast past supporter what is the annabelle doll and why are people so convinced it haunted mechanic financial corp take position in servicenow inc nysenow blue circle health expands type diabetes care program to louisiana grandfield dodd llc cut holding in booking holding inc nasdaqbkng altman advisor inc raise stock holding in att inc nyset sage mountain advisor llc invests in duke energy corporation nyseduk sigma planning corp buy share of cisco system inc nasdaqcsco pax financial group llc purchase share of republic service inc nysersg first command advisory service inc ha stock holding in danaher corporation nysedhr share in verizon communication inc nysevz purchased by pax financial group llc doj fire maurene comey daughter of exfbi director james comey live now trump participates in an official working visit with the crown prince of the kingdom of bahrain altman advisor inc increase stock position in lam research corporation nasdaqlrcx welch forbes llc decrease stake in qualcomm incorporated nasdaqqcom taiwan semiconductor manufacturing company ltd nysetsm position boosted by triasima portfolio management inc senate vote to move ahead with trump request for b in spending cut cullen frost banker inc acquires share of walmart inc nysewmt parcion private wealth llc boost position in abbott laboratory nyseabt cullen frost banker inc sell share of the sherwinwilliams company nyseshw guardian wealth advisor llc reduces position in vanguard sp etf nysearcavoo triasima portfolio management inc ha million position in arthur j gallagher co nyseajg parcion private wealth llc boost stock holding in blackrock nyseblk steve scalise recall near assassination on butler anniversary the left is getting more radical biden aide bernal is second witness to plead the fifth in probe of expresidents mental decline equity investment corp sell share of medtronic plc nysemdt share in southern company the nyseso bought by altman advisor inc welch forbes llc sell share of ishares core sp etf nysearcaivv shayne jacob llc ha million stake in kimberlyclark co nysekmb lmg wealth partner llc ha million stock holding in ishares russell midcap growth etf nysearcaiwp shayne jacob llc ha million stock position in philip morris international inc nysepm ishares core sp etf nysearcaivv share sold by shayne jacob llc trump blasted after admitting he used autopen day after attacking biden for same thing gov katie hobbs announces erasure of m in medical debt for arizonan armed service panel approves defense bill after marathon markup trump asked gop lawmaker if he should fire fed chair jerome powell source say colorado park and wildlife confirms new wolf pack ahead of commission meeting wishbone gold lonwsbn trading down whats next the latest trump welcome bahrain crown prince after signing nuclear energy deal summit x llc boost stock position in palo alto network inc nasdaqpanw first on fox red state investigating mm and skittle manufacturer for deceptive practice syrian anchor take cover from airstrike live on tv federal housing official submitted schiff criminal referral to doj over mortgage document trump slam his own supporter who are angered over how his team ha handled the epstein case trump slam his own supporter who are angered over how his team ha handled the epstein case trump slam his own supporter a weakling for falling for what he now call the epstein hoax rnc chair say big beautiful bill key part of gop strategy to win seat in midterm election in the shadow of the hiroshima blast the secret romance that bloomed in defiance of the white australia policy torres strait leader lost their landmark case how can government be held to account on climate rep rick allen ha bought up to k worth of intuit stock here what you should know push to end antisemitism is welcome but envoy plan raise concern australia race commissioner warns albaneses warm welcome in beijing show icy tension are a thing of the past at least for now tom mcilroy america b are in guam for resolute force pacific exercise north dakota tribe ask u supreme court to keep legislative district intact amid lawsuit state sue trump administration for cutting disaster prevention grant breaking news speaker raise a lot of money clergy view love is the answer vanguard intermediateterm treasury etf nasdaqvgit holding raised by private wealth management group llc welch forbes llc reduces stake in rtx corporation nysertx sage mountain advisor llc ha stock holding in chubb limited nysecb kornitzer capital management inc k sell share of corning incorporated nyseglw violich capital management inc purchase share of johnson johnson nysejnj kornitzer capital management inc k raise holding in citigroup inc nysec ishares esg aware msci usa etf nasdaqesgu stock position reduced by shared vision wealth group llc kinder morgan inc nysekmi share purchased by tectonic advisor llc kornitzer capital management inc k buy share of johnson johnson nysejnj lmg wealth partner llc ha million position in bristol myers squibb company nysebmy sky mountain capital management inc take position in marathon petroleum corporation nysempc israel bomb syrian capital despite u pressure to stand down rfk jr fire top aide appoints new acting chief of staff zohran mamdani brief house democrat on lesson from his campaign doctor responds to fresh donald trump picture and hint at significant health issue bogart wealth llc ha position in freeportmcmoran inc nysefcx pax financial group llc acquires share of conocophillips nysecop whittier trust co of nevada inc ha million holding in check point software technology ltd nasdaqchkp sage mountain advisor llc purchase share of boston scientific corporation nysebsx pax financial group llc take position in tmobile u inc nasdaqtmus pax financial group llc acquires share of borgwarner inc nysebwa seabridge investment advisor llc lower position in tmobile u inc nasdaqtmus supporter arrive early for vp vances visit to west pittston supporter arrive early for vp vances visit to west pittston cable hill partner llc acquires share of verizon communication inc nysevz vanguard shortterm bond etf nysearcabsv share bought by richmond brother inc altman advisor inc ha million stock position in gilead science inc nasdaqgild by the number wisconsin race for governor nyc mayor race mamdani camp say he had constructive meeting with big apple ceo ishares gold trust nysearcaiau share sold by altman advisor inc triasima portfolio management inc cut position in att inc nyset oreilly automotive inc nasdaqorly share acquired by summit x llc triasima portfolio management inc boost stake in shopify inc nyseshop live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit summit x llc ha million stake in ishares core sp smallcap etf nysearcaijr</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>american trust investment service serf a sole underwriter for ktech solution co ltd ipo american trust investment service serf a sole underwriter for ktech solution co ltd ipo henry samuel son of heidi klum and seal sign with next management get a head start on back to school shopping at amazon and save up to macomb county manufacturer urged to register for mfg day week to connect with local student deadline alert faruqi faruqi llp investigates claim on behalf of investor of doubleverify stifel rank no in jd power study for third straight year investor deadline next week robbins geller rudman dowd llp announces that red cat holding inc investor with substantial loss have opportunity to lead class action lawsuit rcat stevens capital partner trim position in ishares core msci eafe etf batsiefa wealthgarden f llc lower stock position in ishares russell etf nysearcaiwm vanguard smallcap value etf nysearcavbr share sold by theory financial llc donald trump slam backer who continue to talk about jeffrey epstein hoax i dont want their support anymore what happens if trump fire fed chair powell this would be a mess analyst warn newmont net m from selling greatland discovery silver stake deadline alert faruqi faruqi llp investigates claim on behalf of investor of petco video firsttime home buyer workshop u stock mixed bank of america earnings top view humankind list announced mechanic financial corp boost holding in altria group inc nysemo seabridge investment advisor llc sell share of deere company nysede qep co inc unveils stateoftheart robert adhesive manufacturing plant in dalton georgia mechanic financial corp buy new share in booking holding inc nasdaqbkng signaturefd llc sell share of ishares gold trust nysearcaiau the tjx company inc nysetjx stake boosted by mechanic financial corp share in booking holding inc nasdaqbkng bought by mechanic financial corp seabridge investment advisor llc grows stock holding in amgen inc nasdaqamgn altman advisor inc reduces position in the goldman sachs group inc nysegs danaher corporation nysedhr share acquired by sigma planning corp cable hill partner llc acquires share of accenture plc nyseacn caterpillar inc nysecat share acquired by cable hill partner llc equity investment corp sell share of cisco system inc nasdaqcsco seabridge investment advisor llc buy share of bank of america corporation nysebac pax financial group llc make new investment in the goldman sachs group inc nysegs sage mountain advisor llc raise stock holding in automatic data processing inc nasdaqadp automatic data processing inc nasdaqadp share bought by cable hill partner llc broadcom inc nasdaqavgo share sold by seabridge investment advisor llc altman advisor inc trim stake in the goldman sachs group inc nysegs sage mountain advisor llc buy new position in duke energy corporation nyseduk signaturefd llc purchase share of motorola solution inc nysemsi sage mountain advisor llc purchase share of gilead science inc nasdaqgild danaher corporation nysedhr share acquired by sage mountain advisor llc equity investment corp sell share of cisco system inc nasdaqcsco vanguard shortterm bond etf nysearcabsv share sold by stephen inc ar caterpillar inc nysecat share purchased by cable hill partner llc danaher corporation nysedhr share purchased by sigma planning corp pax financial group llc sell share of salesforce inc nysecrm share in verizon communication inc nysevz acquired by pax financial group llc barclays fined million for moneylaundering failure barclays fined million for moneylaundering failure the wall street journal seb collaborates with sp global market intelligence off the la vega strip restaurant close for bizarre reason great northern energy metal announces closing of private placement for gross proceeds of m why dogecoin is rising today analysisfrances plan to cull public holiday may not help the economy big buck for better bark gallant land m to bring gamechanging stem cell therapy to pet desantis tap state senator for florida highprofile cfo post gimme credit report warns of mounting headwind for u health insurer amid regulatory scrutiny and funding challenge deadline alert faruqi faruqi llp investigates claim on behalf of investor of fortrea holding duke football and basketball game security help needed investor deadline next week robbins geller rudman dowd llp announces that organon co investor with substantial loss have opportunity to lead class action lawsuit ogn congruence therapeutic announces oral presentation on mcr corrector development candidate cgx for earlyonset obesity at the rd annual obesity weight loss drug development summit invested in argenx year ago would be worth this much today power quality equipment market size expected to reach u billion by cagr of exclusive report by the insight partner life science lab signal shifting strategy amid new economic pressure according to survey of researcher power quality equipment market size expected to reach u billion by cagr of exclusive report by the insight partner welch forbes llc lower holding in cocacola company the nyseko summit x llc ha million stake in united parcel service inc nyseups shayne jacob llc take position in constellation brand inc nysestz welch forbes llc cut position in qualcomm incorporated nasdaqqcom altman advisor inc boost holding in lam research corporation nasdaqlrcx ine networking expertise essential a enterprise struggle with ai infrastructure ine networking expertise essential a enterprise struggle with ai infrastructure free flow inc fflo announces subsidiary contract to purchase real estate investment property finn partner introduces new aipowered crisis training platform to counter narrative manipulation and coordinated reputational attack in realtime ford share in decline a cost of largescale suv recall is disclosed olympus eume ultrasound processor for gi and pulmonary disease detection and diagnosis launch in u market summit x llc ha million position in invesco qqq nasdaqqqq parcion private wealth llc ha stake in ge aerospace nysege costco wholesale corporation nasdaqcost stock position raised by parcion private wealth llc cullen frost banker inc ha million position in costco wholesale corporation nasdaqcost cullen frost banker inc sell share of union pacific corporation nyseunp whittier trust co sell share of nike inc nysenke whittier trust co of nevada inc ha million holding in union pacific corporation nyseunp cullen frost banker inc ha million stake in walmart inc nysewmt costco wholesale corporation nasdaqcost share sold by cullen frost banker inc triasima portfolio management inc raise stock holding in arthur j gallagher co nyseajg vanguard ftse developed market etf nysearcavea stock holding lifted by seaside wealth management inc cullen frost banker inc sell share of alphabet inc nasdaqgoog parcion private wealth llc boost stock holding in eli lilly and company nyselly cullen frost banker inc sell share of the sherwinwilliams company nyseshw guardian wealth advisor llc sell share of vanguard sp etf nysearcavoo ishares sp growth etf nysearcaivw position decreased by guardian wealth advisor llc summit x llc ha million position in walmart inc nysewmt walmart inc nysewmt stock position lessened by summit x llc european commission will investigate umgs plan to buy downtown report sharplink gaming sbet share soar after becoming largest corporate ethereum holder nigeria inflation fall for third month in june chasing the potential of intelligent automation deadline alert faruqi faruqi llp investigates claim on behalf of investor of red cat holding fbs analyzes cryptocurrency market trend in h and outline key driver for h maine gop allegation of voter fraud arent true shenna bellow say rfk jr ousts two trump loyalist from hhs top rank ishares national muni bond etf nysearcamub share sold by wealthgarden f llc trump compare jeffrey epstein hoax to russiagate blast past supporter what is the annabelle doll and why are people so convinced it haunted mechanic financial corp take position in servicenow inc nysenow blue circle health expands type diabetes care program to louisiana grandfield dodd llc cut holding in booking holding inc nasdaqbkng altman advisor inc raise stock holding in att inc nyset sage mountain advisor llc invests in duke energy corporation nyseduk sigma planning corp buy share of cisco system inc nasdaqcsco pax financial group llc purchase share of republic service inc nysersg first command advisory service inc ha stock holding in danaher corporation nysedhr share in verizon communication inc nysevz purchased by pax financial group llc doj fire maurene comey daughter of exfbi director james comey live now trump participates in an official working visit with the crown prince of the kingdom of bahrain altman advisor inc increase stock position in lam research corporation nasdaqlrcx welch forbes llc decrease stake in qualcomm incorporated nasdaqqcom taiwan semiconductor manufacturing company ltd nysetsm position boosted by triasima portfolio management inc senate vote to move ahead with trump request for b in spending cut cullen frost banker inc acquires share of walmart inc nysewmt parcion private wealth llc boost position in abbott laboratory nyseabt cullen frost banker inc sell share of the sherwinwilliams company nyseshw guardian wealth advisor llc reduces position in vanguard sp etf nysearcavoo triasima portfolio management inc ha million position in arthur j gallagher co nyseajg parcion private wealth llc boost stock holding in blackrock nyseblk steve scalise recall near assassination on butler anniversary the left is getting more radical biden aide bernal is second witness to plead the fifth in probe of expresidents mental decline equity investment corp sell share of medtronic plc nysemdt share in southern company the nyseso bought by altman advisor inc welch forbes llc sell share of ishares core sp etf nysearcaivv shayne jacob llc ha million stake in kimberlyclark co nysekmb lmg wealth partner llc ha million stock holding in ishares russell midcap growth etf nysearcaiwp shayne jacob llc ha million stock position in philip morris international inc nysepm ishares core sp etf nysearcaivv share sold by shayne jacob llc trump blasted after admitting he used autopen day after attacking biden for same thing gov katie hobbs announces erasure of m in medical debt for arizonan armed service panel approves defense bill after marathon markup trump asked gop lawmaker if he should fire fed chair jerome powell source say colorado park and wildlife confirms new wolf pack ahead of commission meeting wishbone gold lonwsbn trading down whats next the latest trump welcome bahrain crown prince after signing nuclear energy deal summit x llc boost stock position in palo alto network inc nasdaqpanw first on fox red state investigating mm and skittle manufacturer for deceptive practice syrian anchor take cover from airstrike live on tv federal housing official submitted schiff criminal referral to doj over mortgage document trump slam his own supporter who are angered over how his team ha handled the epstein case trump slam his own supporter who are angered over how his team ha handled the epstein case trump slam his own supporter a weakling for falling for what he now call the epstein hoax rnc chair say big beautiful bill key part of gop strategy to win seat in midterm election in the shadow of the hiroshima blast the secret romance that bloomed in defiance of the white australia policy torres strait leader lost their landmark case how can government be held to account on climate rep rick allen ha bought up to k worth of intuit stock here what you should know push to end antisemitism is welcome but envoy plan raise concern australia race commissioner warns albaneses warm welcome in beijing show icy tension are a thing of the past at least for now tom mcilroy america b are in guam for resolute force pacific exercise north dakota tribe ask u supreme court to keep legislative district intact amid lawsuit state sue trump administration for cutting disaster prevention grant breaking news speaker raise a lot of money clergy view love is the answer vanguard intermediateterm treasury etf nasdaqvgit holding raised by private wealth management group llc welch forbes llc reduces stake in rtx corporation nysertx sage mountain advisor llc ha stock holding in chubb limited nysecb kornitzer capital management inc k sell share of corning incorporated nyseglw violich capital management inc purchase share of johnson johnson nysejnj kornitzer capital management inc k raise holding in citigroup inc nysec ishares esg aware msci usa etf nasdaqesgu stock position reduced by shared vision wealth group llc kinder morgan inc nysekmi share purchased by tectonic advisor llc kornitzer capital management inc k buy share of johnson johnson nysejnj lmg wealth partner llc ha million position in bristol myers squibb company nysebmy sky mountain capital management inc take position in marathon petroleum corporation nysempc israel bomb syrian capital despite u pressure to stand down rfk jr fire top aide appoints new acting chief of staff zohran mamdani brief house democrat on lesson from his campaign doctor responds to fresh donald trump picture and hint at significant health issue bogart wealth llc ha position in freeportmcmoran inc nysefcx pax financial group llc acquires share of conocophillips nysecop whittier trust co of nevada inc ha million holding in check point software technology ltd nasdaqchkp sage mountain advisor llc purchase share of boston scientific corporation nysebsx pax financial group llc take position in tmobile u inc nasdaqtmus pax financial group llc acquires share of borgwarner inc nysebwa seabridge investment advisor llc lower position in tmobile u inc nasdaqtmus supporter arrive early for vp vances visit to west pittston supporter arrive early for vp vances visit to west pittston cable hill partner llc acquires share of verizon communication inc nysevz vanguard shortterm bond etf nysearcabsv share bought by richmond brother inc altman advisor inc ha million stock position in gilead science inc nasdaqgild by the number wisconsin race for governor nyc mayor race mamdani camp say he had constructive meeting with big apple ceo ishares gold trust nysearcaiau share sold by altman advisor inc triasima portfolio management inc cut position in att inc nyset oreilly automotive inc nasdaqorly share acquired by summit x llc triasima portfolio management inc boost stake in shopify inc nyseshop live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit live coverage noem say u electrical grid is vulnerable at hill nation summit summit x llc ha million stake in ishares core sp smallcap etf nysearcaijr</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>50</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>203</v>
+      </c>
+      <c r="S17" t="n">
+        <v>43</v>
+      </c>
+      <c r="T17" t="n">
+        <v>239</v>
+      </c>
+      <c r="U17" t="n">
+        <v>74</v>
+      </c>
+      <c r="V17" t="n">
+        <v>39</v>
+      </c>
+      <c r="W17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6296.7900390625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6315.60986328125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6285.27001953125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6312.9501953125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5184700000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9.048620868445932e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,6 +1875,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6305.60009765625</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6336.080078125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6303.7900390625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6304.740234375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5010840000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0013991348828683</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1949,6 +1949,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6309.6201171875</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6316.1201171875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6281.7099609375</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6306.60009765625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5662040000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0006375316336257</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>promising biotech stock to consider july th best travel stock worth watching july th top small cap stock to follow now july th bailard inc buy share of axon enterprise inc nasdaqaxon airline stock to follow now july th how trump tax law will reshape benefit qa is this the end of the magnificent seven boss stop trying to flatter your worker say leadership expertit doesnt make them like you verkkokauppacom oyj manager transaction nina anttila what separate successful manager from the pack come down to their oneonones here how to do it right today quordle hint and answer for july verkkokauppacom oyj manager transaction pekka litmanen sp signal the u stock rally momentum is waning bloomberg what would you like to leave behind a financial planner guide to family wealth discussion prediction stock that will be worth more than annaly capital year from now top budget gaming phone built for speed top pick under r autohome inc to announce second quarter and interim financial result on july massachusetts financial service co ma sell share of quidelortho corporation nasdaqqdel sbi security co ltd purchase share of fabrinet nysefn apollon wealth management llc acquires share of franklin bsp realty trust inc nysefbrt massachusetts financial service co ma ha million position in royal gold inc nasdaqrgld bitcoin miner iren could surge a sotp valuation peg target hedge fund manager eric jackson say were cooking with gas stock to watch monday verizon bp stellantis block she got the last seat on a flight next to a stranger theyve been married for year zwsoft launch zwcad flex in the u and canada powerful cad performance meet purchasing flexibility cwm llc grows position in lamar advertising company nasdaqlamr top chinese stock to add to your watchlist july th bailard inc sell share of mineral technology inc nysemtx ranger energy service rngr to release earnings on monday hacker exploit microsoft software vulnerability to reportedly target government and businesseswhat to know cwm llc take position in millrose property inc nysemrp acuity inc nyseayi share purchased by cwm llc massachusetts financial service co ma decrease position in select water solution inc nysewttr louisiana state employee retirement system ha stock position in apogee enterprise inc nasdaqapog signaturefd llc lower stock holding in interpublic group of company inc the nyseipg envestnet asset management inc grows holding in yeti holding inc nyseyeti protagonist therapeutic inc nasdaqptgx share sold by massachusetts financial service co ma sbi security co ltd lower position in immunitybio inc nasdaqibrx massachusetts financial service co ma sell share of zurn elkay water solution cor nysezws reynolds consumer product inc nasdaqreyn share sold by massachusetts financial service co ma cwm llc acquires share of spdr sp biotech etf nysearcaxbi edgestream partner lp sell share of the traveler company inc nysetrv sbi security co ltd purchase share of fluor corporation nyseflr st bancorp nasdaqstba rating increased to hold at wall street zen sbi security co ltd ha holding in first trust buywrite income etf nasdaqfthi copa holding sa nysecpa position boosted by massachusetts financial service co ma cemex nysecx cut to hold at wall street zen american asset trust nyseaat upgraded by wall street zen to buy rating massachusetts financial service co ma sell share of kiniksa pharmaceutical international plc nasdaqknsa fg annuity life nysefg upgraded by wall street zen to hold rating brookdale senior living nysebkd downgraded by wall street zen to sell westlake corp nysewlk given consensus rating of moderate buy by brokerage upland software nasdaqupld stock rating upgraded by wall street zen envestnet asset management inc raise stock position in yeti holding inc nyseyeti upland software nasdaqupld rating increased to strongbuy at wall street zen dxc technology nysedxc upgraded by wall street zen to buy rating coupang nysecpng lowered to hold rating by wall street zen dxc technology nysedxc upgraded by wall street zen to buy rating ap business summarybrief at am edt rincon broadcasting buy seven local station from imagicomm rep jonathan l jackson buy international business machine corporation nyseibm share grupo aeroportuario del pacifico nysepac upgraded to buy at wall street zen infineon technology otcmktsifnny stock rating upgraded by wall street zen kennedywilson nysekw upgraded to hold at wall street zen neumora therapeutic inc nasdaqnmra receives consensus rating of hold from analyst insteel industry nyseiiin rating increased to strongbuy at wall street zen world share mostly gain after wall street log a rd straight winning week world share mostly gain after wall street log a rd straight winning week telus digital nysetixt rating lowered to hold at wall street zen nuveen churchill direct lending nysencdl upgraded at wall street zen world share mostly gain after wall street log a rd straight winning week orange otcmktsorany lowered to hold rating by wall street zen wall street zen downgrade irsa inversiones y representaciones nyseirs to buy vista energy nysevist upgraded by wall street zen to hold rating nuveen churchill direct lending nysencdl rating increased to hold at wall street zen telus digital nysetixt downgraded by wall street zen to hold orange otcmktsorany lowered to hold rating by wall street zen gold start the week on the upside a investor weigh trump tariff threat sl green realty nyseslg price target raised to karen kwan sell share of aritzia inc tseatz stock nexxen international nasdaqnexn downgraded by wall street zen to buy nexxen international nasdaqnexn downgraded to buy rating by wall street zen david o watson sell share of apellis pharmaceutical inc nasdaqapls stock victory capital management inc purchase share of sally beauty holding inc nysesbh larson financial group llc acquires share of centerpoint energy inc nysecnp victory capital management inc ha million holding in reddit inc nyserddt larson financial group llc buy share of centerpoint energy inc nysecnp victory capital management inc ha million stock position in highwoods property inc nysehiw microsoft hit with sharepoint attack one version still vulnerable apollon wealth management llc sell share of vaneck oil service etf nysearcaoih apollon wealth management llc grows position in netapp inc nasdaqntap biotechne nasdaqtech and neurogene nasdaqngne financial survey hormel food nysehrl versus china marine food group otcmktscmfo head to head survey sentinelone inc nyse share bought by signaturefd llc sigma planning corp ha million holding in jpmorgan chase co nysejpm cohen capital management inc sell share of jpmorgan chase co nysejpm sigma planning corp ha position in invesco rafi u smallmid etf nasdaqprfz apollon wealth management llc ha position in ppl corporation nyseppl signaturefd llc sell share of illumina inc nasdaqilmn visa inc nysev share sold by edgestream partner lp altman plan dc push to democratize ai economic benefit airline stock to follow now july th blue chip stock worth watching july th doj request for voter data from pa other swing state raise concern among election law expert malcolmjamal warner former cosby show star dy at in costa rica drowning there one thing no one know about trump vladimir tenev sell share of robinhood market inc nasdaqhood stock she got the last seat on a flight next to a stranger theyve been married for year insider selling garrett motion inc nysegtx major shareholder sell share of stock top chinese stock to add to your watchlist july th keith a goldan sell share of syndax pharmaceutical inc nasdaqsndx stock insider selling sintana energy inc cvesei director sell share of stock mineral technology inc nysemtx share sold by bailard inc ford motor nysef upgraded by wall street zen to hold rating performance food group company nysepfgc holding cut by massachusetts financial service co ma echostar corporation nasdaqsats receives consensus recommendation of hold from brokerage the tjx company inc nysetjx receives average pt from brokerage zevra therapeutic nasdaqzvra rating lowered to buy at wall street zen coupang nysecpng downgraded to hold rating by wall street zen irsa inversiones y representaciones nyseirs lowered to buy rating by wall street zen internet initiative japan otcmktsiijiy downgraded to hold rating by wall street zen ofg bancorp nyseofg upgraded by wall street zen to hold rating vista energy nysevist rating increased to hold at wall street zen syrian government start evacuating bedouin family from sweida getting antivaxxers to roll up their sleeve akamai technology nasdaqakam downgraded to hold rating by wall street zen victory capital management inc ha million stock position in yum brand inc nyseyum highwoods property inc nysehiw holding raised by victory capital management inc reviewing hormel food nysehrl and china marine food group otcmktscmfo u envoy double down on support for syria government and criticizes israel intervention larson financial group llc acquires share of ct corporation nysects new parliament seating chart show how labor election win shifted the tectonic plate of federal politics data show more than mbta employee made over k in overtime in cullen frost banker inc invests in sea limited sponsored adr nysese cullen frost banker inc ha holding in howmet aerospace inc nysehwm safehold inc nysesafe given consensus rating of hold by brokerage thomson reuters co nysetri stock position raised by cullen frost banker inc ishares core year usd bond etf nasdaqistb share acquired by cullen frost banker inc apollo global management inc nyseapo share acquired by cullen frost banker inc share in fortis nysefts purchased by cullen frost banker inc costar group inc nasdaqcsgp share acquired by cullen frost banker inc verdence capital advisor llc boost stock position in ishares russell midcap value etf nysearcaiws verdence capital advisor llc ha stake in schwab u midcap etf nysearcaschm verdence capital advisor llc ha stake in medpace holding inc nasdaqmedp verdence capital advisor llc sell share of teck resource ltd nyseteck hillenbrand inc nysehi share acquired by verdence capital advisor llc goldman sachs bdc inc nysegsbd share sold by verdence capital advisor llc verdence capital advisor llc buy new stake in ishares sp value etf nysearcaive tetra tech inc nasdaqttek share acquired by verdence capital advisor llc you can walk between the louvre and the guggenheim in this new art district councilor boston mass and cass drug crisis is worsening the city rat infestation verdence capital advisor llc sell share of target corporation nysetgt bailard inc take position in universal insurance holding inc nyseuve bailard inc ha position in agilent technology inc nysea verdence capital advisor llc buy share of axos financial inc nyseax verdence capital advisor llc purchase new holding in dutch bros inc nysebros verdence capital advisor llc ha holding in millerknoll inc nasdaqmlkn bailard inc grows position in umh property inc nyseumh share in mach natural resource lp nysemnr bought by verdence capital advisor llc victory capital management inc boost stock position in dollar tree inc nasdaqdltr victory capital management inc decrease position in charter communication inc nasdaqchtr larson financial group llc increase position in electronic art inc nasdaqea larson financial group llc raise stock position in airbnb inc nasdaqabnb larson financial group llc sell share of rockwell automation inc nyserok oi glass inc nyseoi receives average recommendation of moderate buy from analyst regret thy name is hawley and murkowski and musk sirius xm holding inc nasdaqsiri share sold by cullen frost banker inc wealthfront adviser llc sell share of ishares russell etf nysearcaiwm wealthfront adviser llc purchase share of the chemours company nysecc wealthfront adviser llc ha holding in first trust senior loan etf nasdaqftsl ast spacemobile inc nasdaqasts share acquired by wealthfront adviser llc pvh corp nysepvh share sold by wealthfront adviser llc emerging market internet etf nysearcaemqq share acquired by wealthfront adviser llc wealthfront adviser llc buy share of f inc nasdaqffiv wealthfront adviser llc boost position in invitation home nyseinvh avantis emerging market equity etf nysearcaavem share purchased by wealthfront adviser llc texas republican want to redraw congressional district in special session inside idaho only maximum security prison where bryan kohberger may spend the rest of his life what to expect a harvard take on the trump administration in federal court vances and marco rubios senate successor avoid gop primary drama independent voter in nyc must count is pakistan moving to join the abraham accord wary democratic establishment keeping new york mamdani at arm length how trump gameplanning for the midterm ai chatbots cocreating a matrix of unreality what i won in a staring contest with a lava heron on san cristobal island vances and marco rubios senate successor avoid gop primary drama bailard inc make new investment in pagaya technology ltd nasdaqpgy share in ge vernova inc nysegev acquired by bailard inc bailard inc sell share of philip morris international inc nysepm promising home improvement stock to research july th bailard inc make new investment in angiodynamics inc nasdaqango best ecommerce stock to watch now july th battery technology stock to research july th nanotechnology stock to consider july th value stock to follow today july th syros pharmaceutical inc nasdaqsyrs receives consensus rating of hold from brokerage massachusetts financial service co ma ha holding in vanguard value etf nysearcavtv arcus bioscience inc nysercus share sold by massachusetts financial service co ma massachusetts financial service co ma sell share of anika therapeutic inc nasdaqanik matson suspends electric vehicle shipment over battery fire concern inside pure fuel partnershipsoverretail strategy sleeper dividend stock to buy for massive upside builder mortgage aid contributing to higher home price morgan stanley say notice on the general meeting of shareholder of the auga group ab entity under restructuring on august to approve the company draft restructuring plan gries financial llc ha million position in procter gamble company the nysepg vanguard growth etf nysearcavug set new year high here why vanguard sp etf nysearcavoo is arrow financial corp largest position gries financial llc ha million stake in bristol myers squibb company nysebmy global bond yield come under pressure obama foundation add outgoing ford foundation president to board of director why opendoor stock is skyrocketing today investopedia jpm high crowding lends risk to stock not involved in ai nucleus security steve carter named a security business innovator hydrograph launch compounding partner program to expand grapheneenhanced thermoplastic klp official deny claim made in civil right lawsuit filed against them lighting precinct reject claim made in civil right lawsuit cornerstone bancorp inc quarterly report june deutsche bank aktiengesellschaft raise american express nyseaxp price target to treasure coast financial planning invests in costco wholesale corporation nasdaqcost share in costco wholesale corporation nasdaqcost purchased by tabor asset management lp costco wholesale corporation nasdaqcost holding trimmed by crestwood advisor group llc im able foundation get donation from firstenergy im able foundation get donation from firstenergy im able foundation get donation from firstenergy rosen law firm encourages vera bradley inc investor to inquire about security class action investigation vra ripple xrp trader who made m earlier this year buy again after month but it not xrp hii summer intern research top use case for ai present finding to company leadership samsung galaxy watch why it the best ai wearable wnba allstar player pay move began well before shirt and sign the pulse business new research suggests rising pr ethic problem with organizational gaslighting best samsung smart tv under r in cnbc daily open investor dismiss trump administration beef with the fed sp hit new high ap technology summarybrief at pm edt delta plane from minneapolis avoids near collision with b bomber iran sends a rocket designed to carry satellite into a suborbital test flight iran sends a rocket designed to carry satellite into a suborbital test flight wex tap ai for faster fsa reimbursement ap business summarybrief at pm edt biogen bet big on billion expansion to boost u drug manufacturing retail speculation is back with a vengeance heat pump industry on the rise global market to expand significantly by senior connection receives innovative achievement award for care express weekly analyst rating update for metlife met hazlett burt watson inc boost stock position in schwab u dividend equity etf nysearcaschd hazlett burt watson inc grows holding in salesforce inc nysecrm verus financial partner inc raise stock position in schwab u dividend equity etf nysearcaschd western montana mental health center wmmhc data breach expose personal information murphy law firm investigates legal claim appeal court order new trial for man convicted in etan patz case animal science expertise honored at international conference it end with u insurer file lawsuit say it doesnt have to pay justin baldonis legal fee jonas brother sell portion of music catalog to dad company i dont know that anybody can love your music more silicon lab announces second quarter earnings webcast head to head review ge aerospace nysege v northrop grumman nysenoc van strum towne inc boost holding in mcdonalds corporation nysemcd analyzing storage computer otcmktssoso teradata nysetdc financial review crh crh v it rival gauzy nasdaqgauz versus kla nasdaqklac head to head comparison netflix inc nasdaqnflx share sold by lewis asset management llc replimune group nasdaqrepl see large volume increase should you buy pacific wealth management sell share of abbott laboratory nyseabt walker dunlop nysewd v rocket company nyserkt headtohead survey zegona communication lonzeg hit new year high following analyst upgrade dwave quantum stock is trading higher monday whats going on rogers returning to bargaining table tomorrow usw local member call for real action toward a fair deal southwest airline announces start date for assigned seating cnn democrat try to dissect themselves with autopsy show theyre riddled with disease vista capital partner inc trim stock position in nike inc nysenke van strum towne inc ha million position in pepsico inc nasdaqpep van strum towne inc sell share of ishares core sp etf nysearcaivv integrity investment advisor llc acquires share of ishares core sp etf nysearcaivv unit apartment project proposed for virginia ave in hollywood integrity investment advisor llc buy new stake in ishares core sp etf nysearcaivv astronomer ceo kiss cam controversy sparked over million in prediction market bet on his ouster whataburger saddle up with the new bacon wrangler double a burger a big and bold a the lone star state rosen a ranked and leading law firm encourages petco health and wellness company inc investor to secure counsel before important deadline in security class action woof critical comparison finwise bancorp nasdaqfinw and texas capital bancshares nasdaqtcbi analyzing kuehne nagel international khngy it competitor rd lewis holding inc acquires share of walmart inc nysewmt comparing rayonier advanced material nyseryam and suzano nysesuz comparing osisko mining otcmktsobnnf aris mining nysearmn analyzing elme community nyseelme sun community nysesui marinemax hzo v it competitor headtohead analysis contrasting williamssonoma wsm and it competitor oneascent wealth management llc increase stake in walmart inc nysewmt reviewing ivanhoe mine ivpaf and it competitor contrasting senstar technology nasdaqsnt applied dna science nasdaqapdn ivanhoe mine ivpaf and it competitor financial comparison headtohead analysis suzano nysesuz versus rayonier advanced material nyseryam lewis asset management llc increase stake in cisco system inc nasdaqcsco unifirst nyseunf and vestis nysevsts financial analysis virgin galactic nysespce v safran otcmktssafry critical contrast amazon ups quantum game with new qubit qpu eye commercial future perception that tariff will be pulled back if market react is alive and well say cfrs patterson skip brittenham hollywood lawyer to the star dy at rogers announces pricing of cash tender offer for canadian dollar debt security rep gilbert ray cisneros jr buy northrop grumman corporation nysenoc stock rep gilbert ray cisneros jr sell prologis inc nysepld stock rep robert bresnahan jr sell off share of arista network inc nyseanet rep gilbert ray cisneros jr purchase share of okta inc nasdaqokta aire advisor llc cut stock position in abbvie inc nyseabbv lauterbach financial advisor llc invests in vanguard sp etf nysearcavoo minnesota lawmaker to resign after being convicted of felony burglary research offer link between burn pit smoke and serious brain injury gop megabills final score t in red ink and million kicked off health insurance cbo say gop megabills final score t in red ink and million kicked off health insurance cbo say trump wade into bryan kohberger murder case demand answer on why he did it there are no explanation sentencing hearing set for exkentucky officer convicted in breonna taylor raid treasure coast financial planning purchase share of costco wholesale corporation nasdaqcost ge vernova gev versus it peer critical contrast tabor asset management lp make new investment in costco wholesale corporation nasdaqcost wealth dimension group ltd ha stake in cocacola company the nyseko trump team throw nyc mayor eric adam under the bus the public deserves to know dcfs withholds detail in illinois girl death miller financial service llc sell share of vanguard value etf nysearcavtv maine need to brace for natural disaster opinion maine need to brace for natural disaster opinion maine need to brace for natural disaster opinion appeal court order new trial for man convicted in etan patz case hunter biden go off on george clooney f him and everybody around him activeduty marine will be leaving los angeles pentagon confirms encountering a bear on the trail yieldmax ultra option income strategy etf nysearcaulty see strong trading volume still a buy contrasting cosan csan it rival rollins nyserol versus limbach nasdaqlmb critical comparison southwest airline announces start date for assigned seating rogers returning to bargaining table tomorrow usw local member call for real action toward a fair deal bruker nasdaqbrkr share gap down whats next irobot nasdaqirbt v robogroup tek otcmktsrobof head to head analysis headtohead contrast kuehne nagel international khngy and it peer srh advisor llc cut holding in the charles schwab corporation nyseschw lewis asset management llc sell share of pfizer inc nysepfe limoneira nasdaqlmnr and forafric global nasdaqafri headtohead review analyzing samsonite group smsey it competitor senstar technology nasdaqsnt and applied dna science nasdaqapdn head to head survey malcolmjamal warner cosby show star dy of drowning at okta nasdaqokta stock unloaded rep robert bresnahan jr travis county commissioner margaret gomez to retire after more than year of service resecurity and braly insurance group announce strategic partnership to drive innovation in cybersecurity and insurance risk management pb and npr are generally unbiased independent of government propaganda and provide key benefit to u democracy this analyst just returned from ukraine frontlines here what he saw judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end top metaverse stock to follow today july st judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end lowering the voting age is a call to trust young people with democracy likely new owner of paramount pledge to snuff out bias at cbs lawyer tell fcc that cbs news will practice unbiased journalism judge weighs reality of trump ideological deportation policy a activist crackdown trial end no fk you hunter julio rosa wallop hunter biden for whining about illegals not cleaning his toilet the day niagara fall ran dry here what it looked like highpoint advisor group llc boost stock holding in johnson johnson nysejnj highpoint advisor group llc purchase share of uber technology inc nyseuber hotel stock to add to your watchlist july st highpoint advisor group llc ha million stake in bank of america corporation nysebac promising g stock to add to your watchlist july st peterson wealth service purchase share of johnson johnson nysejnj promising digital medium stock to follow today july st best gold stock to watch today july st verizon communication nysevz release quarterly earnings result beat expectation by eps exxon mobil nysexom braskem nysebak headtohead contrast financial stock to keep an eye on july st johnson johnson nysejnj stock holding decreased by peregrine asset adviser inc this pb station in boston sign is going viral after trump defunded them mark herr communication issue statement regarding the sentencing of anne pramaggiore mastercard incorporated nysema share sold by gries financial llc trump say make indian great again year ago he tried to buy and move the cleveland indian hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance visa inc nysev stock position lowered by miller financial service llc arrow financial corp reduces stock holding in the home depot inc nysehd peterson wealth service purchase share of visa inc nysev jw cole advisor inc purchase share of oracle corporation nyseorcl harvard argues against trump admins funding freeze in court hearing future generation global limited asxfgg insider geoff wilson purchase share d boral capital reiterates buy rating for biomea fusion nasdaqbmea pepsi is betting a popular health trend can get more people to drink it soda america golden age is over letter epstein ghost is haunting trump and america enemy could summon more how did being a sport fan get so expensive wealth dimension group ltd boost position in well fargo company nysewfc environmentalist lawsuit to halt alligator alcatraz filed in wrong court florida official say trump official who hold more than one job malcolmjamal warner actor who starred a theo in the cosby show dead at young kim draw another democratic challenger in california hazlett burt watson inc acquires share of caterpillar inc nysecat hazlett burt watson inc ha million stock holding in lockheed martin corporation nyselmt gop house majority shrink after big beautiful victory dhs release video showing attempted robbery of offduty federal officer in nyc update dare bioscience to host august webinar the dare to playtm difference the winch advisory service llc ha million holding in salesforce inc nysecrm clinton email investigation omitted crucial piece of evidence declassified report find sei select international equity etf nasdaqseie see strong trading volume should you buy head to head comparison hydrofarm holding group nasdaqhyfm one bio otcmktsonbi concord medical service nyseccm versus brookdale senior living nysebkd critical contrast</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>promising biotech stock to consider july th best travel stock worth watching july th top small cap stock to follow now july th bailard inc buy share of axon enterprise inc nasdaqaxon airline stock to follow now july th how trump tax law will reshape benefit qa is this the end of the magnificent seven boss stop trying to flatter your worker say leadership expertit doesnt make them like you verkkokauppacom oyj manager transaction nina anttila what separate successful manager from the pack come down to their oneonones here how to do it right today quordle hint and answer for july verkkokauppacom oyj manager transaction pekka litmanen sp signal the u stock rally momentum is waning bloomberg what would you like to leave behind a financial planner guide to family wealth discussion prediction stock that will be worth more than annaly capital year from now top budget gaming phone built for speed top pick under r autohome inc to announce second quarter and interim financial result on july massachusetts financial service co ma sell share of quidelortho corporation nasdaqqdel sbi security co ltd purchase share of fabrinet nysefn apollon wealth management llc acquires share of franklin bsp realty trust inc nysefbrt massachusetts financial service co ma ha million position in royal gold inc nasdaqrgld bitcoin miner iren could surge a sotp valuation peg target hedge fund manager eric jackson say were cooking with gas stock to watch monday verizon bp stellantis block she got the last seat on a flight next to a stranger theyve been married for year zwsoft launch zwcad flex in the u and canada powerful cad performance meet purchasing flexibility cwm llc grows position in lamar advertising company nasdaqlamr top chinese stock to add to your watchlist july th bailard inc sell share of mineral technology inc nysemtx ranger energy service rngr to release earnings on monday hacker exploit microsoft software vulnerability to reportedly target government and businesseswhat to know cwm llc take position in millrose property inc nysemrp acuity inc nyseayi share purchased by cwm llc massachusetts financial service co ma decrease position in select water solution inc nysewttr louisiana state employee retirement system ha stock position in apogee enterprise inc nasdaqapog signaturefd llc lower stock holding in interpublic group of company inc the nyseipg envestnet asset management inc grows holding in yeti holding inc nyseyeti protagonist therapeutic inc nasdaqptgx share sold by massachusetts financial service co ma sbi security co ltd lower position in immunitybio inc nasdaqibrx massachusetts financial service co ma sell share of zurn elkay water solution cor nysezws reynolds consumer product inc nasdaqreyn share sold by massachusetts financial service co ma cwm llc acquires share of spdr sp biotech etf nysearcaxbi edgestream partner lp sell share of the traveler company inc nysetrv sbi security co ltd purchase share of fluor corporation nyseflr st bancorp nasdaqstba rating increased to hold at wall street zen sbi security co ltd ha holding in first trust buywrite income etf nasdaqfthi copa holding sa nysecpa position boosted by massachusetts financial service co ma cemex nysecx cut to hold at wall street zen american asset trust nyseaat upgraded by wall street zen to buy rating massachusetts financial service co ma sell share of kiniksa pharmaceutical international plc nasdaqknsa fg annuity life nysefg upgraded by wall street zen to hold rating brookdale senior living nysebkd downgraded by wall street zen to sell westlake corp nysewlk given consensus rating of moderate buy by brokerage upland software nasdaqupld stock rating upgraded by wall street zen envestnet asset management inc raise stock position in yeti holding inc nyseyeti upland software nasdaqupld rating increased to strongbuy at wall street zen dxc technology nysedxc upgraded by wall street zen to buy rating coupang nysecpng lowered to hold rating by wall street zen dxc technology nysedxc upgraded by wall street zen to buy rating ap business summarybrief at am edt rincon broadcasting buy seven local station from imagicomm rep jonathan l jackson buy international business machine corporation nyseibm share grupo aeroportuario del pacifico nysepac upgraded to buy at wall street zen infineon technology otcmktsifnny stock rating upgraded by wall street zen kennedywilson nysekw upgraded to hold at wall street zen neumora therapeutic inc nasdaqnmra receives consensus rating of hold from analyst insteel industry nyseiiin rating increased to strongbuy at wall street zen world share mostly gain after wall street log a rd straight winning week world share mostly gain after wall street log a rd straight winning week telus digital nysetixt rating lowered to hold at wall street zen nuveen churchill direct lending nysencdl upgraded at wall street zen world share mostly gain after wall street log a rd straight winning week orange otcmktsorany lowered to hold rating by wall street zen wall street zen downgrade irsa inversiones y representaciones nyseirs to buy vista energy nysevist upgraded by wall street zen to hold rating nuveen churchill direct lending nysencdl rating increased to hold at wall street zen telus digital nysetixt downgraded by wall street zen to hold orange otcmktsorany lowered to hold rating by wall street zen gold start the week on the upside a investor weigh trump tariff threat sl green realty nyseslg price target raised to karen kwan sell share of aritzia inc tseatz stock nexxen international nasdaqnexn downgraded by wall street zen to buy nexxen international nasdaqnexn downgraded to buy rating by wall street zen david o watson sell share of apellis pharmaceutical inc nasdaqapls stock victory capital management inc purchase share of sally beauty holding inc nysesbh larson financial group llc acquires share of centerpoint energy inc nysecnp victory capital management inc ha million holding in reddit inc nyserddt larson financial group llc buy share of centerpoint energy inc nysecnp victory capital management inc ha million stock position in highwoods property inc nysehiw microsoft hit with sharepoint attack one version still vulnerable apollon wealth management llc sell share of vaneck oil service etf nysearcaoih apollon wealth management llc grows position in netapp inc nasdaqntap biotechne nasdaqtech and neurogene nasdaqngne financial survey hormel food nysehrl versus china marine food group otcmktscmfo head to head survey sentinelone inc nyse share bought by signaturefd llc sigma planning corp ha million holding in jpmorgan chase co nysejpm cohen capital management inc sell share of jpmorgan chase co nysejpm sigma planning corp ha position in invesco rafi u smallmid etf nasdaqprfz apollon wealth management llc ha position in ppl corporation nyseppl signaturefd llc sell share of illumina inc nasdaqilmn visa inc nysev share sold by edgestream partner lp altman plan dc push to democratize ai economic benefit airline stock to follow now july th blue chip stock worth watching july th doj request for voter data from pa other swing state raise concern among election law expert malcolmjamal warner former cosby show star dy at in costa rica drowning there one thing no one know about trump vladimir tenev sell share of robinhood market inc nasdaqhood stock she got the last seat on a flight next to a stranger theyve been married for year insider selling garrett motion inc nysegtx major shareholder sell share of stock top chinese stock to add to your watchlist july th keith a goldan sell share of syndax pharmaceutical inc nasdaqsndx stock insider selling sintana energy inc cvesei director sell share of stock mineral technology inc nysemtx share sold by bailard inc ford motor nysef upgraded by wall street zen to hold rating performance food group company nysepfgc holding cut by massachusetts financial service co ma echostar corporation nasdaqsats receives consensus recommendation of hold from brokerage the tjx company inc nysetjx receives average pt from brokerage zevra therapeutic nasdaqzvra rating lowered to buy at wall street zen coupang nysecpng downgraded to hold rating by wall street zen irsa inversiones y representaciones nyseirs lowered to buy rating by wall street zen internet initiative japan otcmktsiijiy downgraded to hold rating by wall street zen ofg bancorp nyseofg upgraded by wall street zen to hold rating vista energy nysevist rating increased to hold at wall street zen syrian government start evacuating bedouin family from sweida getting antivaxxers to roll up their sleeve akamai technology nasdaqakam downgraded to hold rating by wall street zen victory capital management inc ha million stock position in yum brand inc nyseyum highwoods property inc nysehiw holding raised by victory capital management inc reviewing hormel food nysehrl and china marine food group otcmktscmfo u envoy double down on support for syria government and criticizes israel intervention larson financial group llc acquires share of ct corporation nysects new parliament seating chart show how labor election win shifted the tectonic plate of federal politics data show more than mbta employee made over k in overtime in cullen frost banker inc invests in sea limited sponsored adr nysese cullen frost banker inc ha holding in howmet aerospace inc nysehwm safehold inc nysesafe given consensus rating of hold by brokerage thomson reuters co nysetri stock position raised by cullen frost banker inc ishares core year usd bond etf nasdaqistb share acquired by cullen frost banker inc apollo global management inc nyseapo share acquired by cullen frost banker inc share in fortis nysefts purchased by cullen frost banker inc costar group inc nasdaqcsgp share acquired by cullen frost banker inc verdence capital advisor llc boost stock position in ishares russell midcap value etf nysearcaiws verdence capital advisor llc ha stake in schwab u midcap etf nysearcaschm verdence capital advisor llc ha stake in medpace holding inc nasdaqmedp verdence capital advisor llc sell share of teck resource ltd nyseteck hillenbrand inc nysehi share acquired by verdence capital advisor llc goldman sachs bdc inc nysegsbd share sold by verdence capital advisor llc verdence capital advisor llc buy new stake in ishares sp value etf nysearcaive tetra tech inc nasdaqttek share acquired by verdence capital advisor llc you can walk between the louvre and the guggenheim in this new art district councilor boston mass and cass drug crisis is worsening the city rat infestation verdence capital advisor llc sell share of target corporation nysetgt bailard inc take position in universal insurance holding inc nyseuve bailard inc ha position in agilent technology inc nysea verdence capital advisor llc buy share of axos financial inc nyseax verdence capital advisor llc purchase new holding in dutch bros inc nysebros verdence capital advisor llc ha holding in millerknoll inc nasdaqmlkn bailard inc grows position in umh property inc nyseumh share in mach natural resource lp nysemnr bought by verdence capital advisor llc victory capital management inc boost stock position in dollar tree inc nasdaqdltr victory capital management inc decrease position in charter communication inc nasdaqchtr larson financial group llc increase position in electronic art inc nasdaqea larson financial group llc raise stock position in airbnb inc nasdaqabnb larson financial group llc sell share of rockwell automation inc nyserok oi glass inc nyseoi receives average recommendation of moderate buy from analyst regret thy name is hawley and murkowski and musk sirius xm holding inc nasdaqsiri share sold by cullen frost banker inc wealthfront adviser llc sell share of ishares russell etf nysearcaiwm wealthfront adviser llc purchase share of the chemours company nysecc wealthfront adviser llc ha holding in first trust senior loan etf nasdaqftsl ast spacemobile inc nasdaqasts share acquired by wealthfront adviser llc pvh corp nysepvh share sold by wealthfront adviser llc emerging market internet etf nysearcaemqq share acquired by wealthfront adviser llc wealthfront adviser llc buy share of f inc nasdaqffiv wealthfront adviser llc boost position in invitation home nyseinvh avantis emerging market equity etf nysearcaavem share purchased by wealthfront adviser llc texas republican want to redraw congressional district in special session inside idaho only maximum security prison where bryan kohberger may spend the rest of his life what to expect a harvard take on the trump administration in federal court vances and marco rubios senate successor avoid gop primary drama independent voter in nyc must count is pakistan moving to join the abraham accord wary democratic establishment keeping new york mamdani at arm length how trump gameplanning for the midterm ai chatbots cocreating a matrix of unreality what i won in a staring contest with a lava heron on san cristobal island vances and marco rubios senate successor avoid gop primary drama bailard inc make new investment in pagaya technology ltd nasdaqpgy share in ge vernova inc nysegev acquired by bailard inc bailard inc sell share of philip morris international inc nysepm promising home improvement stock to research july th bailard inc make new investment in angiodynamics inc nasdaqango best ecommerce stock to watch now july th battery technology stock to research july th nanotechnology stock to consider july th value stock to follow today july th syros pharmaceutical inc nasdaqsyrs receives consensus rating of hold from brokerage massachusetts financial service co ma ha holding in vanguard value etf nysearcavtv arcus bioscience inc nysercus share sold by massachusetts financial service co ma massachusetts financial service co ma sell share of anika therapeutic inc nasdaqanik matson suspends electric vehicle shipment over battery fire concern inside pure fuel partnershipsoverretail strategy sleeper dividend stock to buy for massive upside builder mortgage aid contributing to higher home price morgan stanley say notice on the general meeting of shareholder of the auga group ab entity under restructuring on august to approve the company draft restructuring plan gries financial llc ha million position in procter gamble company the nysepg vanguard growth etf nysearcavug set new year high here why vanguard sp etf nysearcavoo is arrow financial corp largest position gries financial llc ha million stake in bristol myers squibb company nysebmy global bond yield come under pressure obama foundation add outgoing ford foundation president to board of director why opendoor stock is skyrocketing today investopedia jpm high crowding lends risk to stock not involved in ai nucleus security steve carter named a security business innovator hydrograph launch compounding partner program to expand grapheneenhanced thermoplastic klp official deny claim made in civil right lawsuit filed against them lighting precinct reject claim made in civil right lawsuit cornerstone bancorp inc quarterly report june deutsche bank aktiengesellschaft raise american express nyseaxp price target to treasure coast financial planning invests in costco wholesale corporation nasdaqcost share in costco wholesale corporation nasdaqcost purchased by tabor asset management lp costco wholesale corporation nasdaqcost holding trimmed by crestwood advisor group llc im able foundation get donation from firstenergy im able foundation get donation from firstenergy im able foundation get donation from firstenergy rosen law firm encourages vera bradley inc investor to inquire about security class action investigation vra ripple xrp trader who made m earlier this year buy again after month but it not xrp hii summer intern research top use case for ai present finding to company leadership samsung galaxy watch why it the best ai wearable wnba allstar player pay move began well before shirt and sign the pulse business new research suggests rising pr ethic problem with organizational gaslighting best samsung smart tv under r in cnbc daily open investor dismiss trump administration beef with the fed sp hit new high ap technology summarybrief at pm edt delta plane from minneapolis avoids near collision with b bomber iran sends a rocket designed to carry satellite into a suborbital test flight iran sends a rocket designed to carry satellite into a suborbital test flight wex tap ai for faster fsa reimbursement ap business summarybrief at pm edt biogen bet big on billion expansion to boost u drug manufacturing retail speculation is back with a vengeance heat pump industry on the rise global market to expand significantly by senior connection receives innovative achievement award for care express weekly analyst rating update for metlife met hazlett burt watson inc boost stock position in schwab u dividend equity etf nysearcaschd hazlett burt watson inc grows holding in salesforce inc nysecrm verus financial partner inc raise stock position in schwab u dividend equity etf nysearcaschd western montana mental health center wmmhc data breach expose personal information murphy law firm investigates legal claim appeal court order new trial for man convicted in etan patz case animal science expertise honored at international conference it end with u insurer file lawsuit say it doesnt have to pay justin baldonis legal fee jonas brother sell portion of music catalog to dad company i dont know that anybody can love your music more silicon lab announces second quarter earnings webcast head to head review ge aerospace nysege v northrop grumman nysenoc van strum towne inc boost holding in mcdonalds corporation nysemcd analyzing storage computer otcmktssoso teradata nysetdc financial review crh crh v it rival gauzy nasdaqgauz versus kla nasdaqklac head to head comparison netflix inc nasdaqnflx share sold by lewis asset management llc replimune group nasdaqrepl see large volume increase should you buy pacific wealth management sell share of abbott laboratory nyseabt walker dunlop nysewd v rocket company nyserkt headtohead survey zegona communication lonzeg hit new year high following analyst upgrade dwave quantum stock is trading higher monday whats going on rogers returning to bargaining table tomorrow usw local member call for real action toward a fair deal southwest airline announces start date for assigned seating cnn democrat try to dissect themselves with autopsy show theyre riddled with disease vista capital partner inc trim stock position in nike inc nysenke van strum towne inc ha million position in pepsico inc nasdaqpep van strum towne inc sell share of ishares core sp etf nysearcaivv integrity investment advisor llc acquires share of ishares core sp etf nysearcaivv unit apartment project proposed for virginia ave in hollywood integrity investment advisor llc buy new stake in ishares core sp etf nysearcaivv astronomer ceo kiss cam controversy sparked over million in prediction market bet on his ouster whataburger saddle up with the new bacon wrangler double a burger a big and bold a the lone star state rosen a ranked and leading law firm encourages petco health and wellness company inc investor to secure counsel before important deadline in security class action woof critical comparison finwise bancorp nasdaqfinw and texas capital bancshares nasdaqtcbi analyzing kuehne nagel international khngy it competitor rd lewis holding inc acquires share of walmart inc nysewmt comparing rayonier advanced material nyseryam and suzano nysesuz comparing osisko mining otcmktsobnnf aris mining nysearmn analyzing elme community nyseelme sun community nysesui marinemax hzo v it competitor headtohead analysis contrasting williamssonoma wsm and it competitor oneascent wealth management llc increase stake in walmart inc nysewmt reviewing ivanhoe mine ivpaf and it competitor contrasting senstar technology nasdaqsnt applied dna science nasdaqapdn ivanhoe mine ivpaf and it competitor financial comparison headtohead analysis suzano nysesuz versus rayonier advanced material nyseryam lewis asset management llc increase stake in cisco system inc nasdaqcsco unifirst nyseunf and vestis nysevsts financial analysis virgin galactic nysespce v safran otcmktssafry critical contrast amazon ups quantum game with new qubit qpu eye commercial future perception that tariff will be pulled back if market react is alive and well say cfrs patterson skip brittenham hollywood lawyer to the star dy at rogers announces pricing of cash tender offer for canadian dollar debt security rep gilbert ray cisneros jr buy northrop grumman corporation nysenoc stock rep gilbert ray cisneros jr sell prologis inc nysepld stock rep robert bresnahan jr sell off share of arista network inc nyseanet rep gilbert ray cisneros jr purchase share of okta inc nasdaqokta aire advisor llc cut stock position in abbvie inc nyseabbv lauterbach financial advisor llc invests in vanguard sp etf nysearcavoo minnesota lawmaker to resign after being convicted of felony burglary research offer link between burn pit smoke and serious brain injury gop megabills final score t in red ink and million kicked off health insurance cbo say gop megabills final score t in red ink and million kicked off health insurance cbo say trump wade into bryan kohberger murder case demand answer on why he did it there are no explanation sentencing hearing set for exkentucky officer convicted in breonna taylor raid treasure coast financial planning purchase share of costco wholesale corporation nasdaqcost ge vernova gev versus it peer critical contrast tabor asset management lp make new investment in costco wholesale corporation nasdaqcost wealth dimension group ltd ha stake in cocacola company the nyseko trump team throw nyc mayor eric adam under the bus the public deserves to know dcfs withholds detail in illinois girl death miller financial service llc sell share of vanguard value etf nysearcavtv maine need to brace for natural disaster opinion maine need to brace for natural disaster opinion maine need to brace for natural disaster opinion appeal court order new trial for man convicted in etan patz case hunter biden go off on george clooney f him and everybody around him activeduty marine will be leaving los angeles pentagon confirms encountering a bear on the trail yieldmax ultra option income strategy etf nysearcaulty see strong trading volume still a buy contrasting cosan csan it rival rollins nyserol versus limbach nasdaqlmb critical comparison southwest airline announces start date for assigned seating rogers returning to bargaining table tomorrow usw local member call for real action toward a fair deal bruker nasdaqbrkr share gap down whats next irobot nasdaqirbt v robogroup tek otcmktsrobof head to head analysis headtohead contrast kuehne nagel international khngy and it peer srh advisor llc cut holding in the charles schwab corporation nyseschw lewis asset management llc sell share of pfizer inc nysepfe limoneira nasdaqlmnr and forafric global nasdaqafri headtohead review analyzing samsonite group smsey it competitor senstar technology nasdaqsnt and applied dna science nasdaqapdn head to head survey malcolmjamal warner cosby show star dy of drowning at okta nasdaqokta stock unloaded rep robert bresnahan jr travis county commissioner margaret gomez to retire after more than year of service resecurity and braly insurance group announce strategic partnership to drive innovation in cybersecurity and insurance risk management pb and npr are generally unbiased independent of government propaganda and provide key benefit to u democracy this analyst just returned from ukraine frontlines here what he saw judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end top metaverse stock to follow today july st judge weighs reality of trump ideological deportation policy a activist crackdown trial end judge weighs reality of trump ideological deportation policy a activist crackdown trial end lowering the voting age is a call to trust young people with democracy likely new owner of paramount pledge to snuff out bias at cbs lawyer tell fcc that cbs news will practice unbiased journalism judge weighs reality of trump ideological deportation policy a activist crackdown trial end no fk you hunter julio rosa wallop hunter biden for whining about illegals not cleaning his toilet the day niagara fall ran dry here what it looked like highpoint advisor group llc boost stock holding in johnson johnson nysejnj highpoint advisor group llc purchase share of uber technology inc nyseuber hotel stock to add to your watchlist july st highpoint advisor group llc ha million stake in bank of america corporation nysebac promising g stock to add to your watchlist july st peterson wealth service purchase share of johnson johnson nysejnj promising digital medium stock to follow today july st best gold stock to watch today july st verizon communication nysevz release quarterly earnings result beat expectation by eps exxon mobil nysexom braskem nysebak headtohead contrast financial stock to keep an eye on july st johnson johnson nysejnj stock holding decreased by peregrine asset adviser inc this pb station in boston sign is going viral after trump defunded them mark herr communication issue statement regarding the sentencing of anne pramaggiore mastercard incorporated nysema share sold by gries financial llc trump say make indian great again year ago he tried to buy and move the cleveland indian hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance hunter biden suggests ambien contributed to joe bidens poor debate performance visa inc nysev stock position lowered by miller financial service llc arrow financial corp reduces stock holding in the home depot inc nysehd peterson wealth service purchase share of visa inc nysev jw cole advisor inc purchase share of oracle corporation nyseorcl harvard argues against trump admins funding freeze in court hearing future generation global limited asxfgg insider geoff wilson purchase share d boral capital reiterates buy rating for biomea fusion nasdaqbmea pepsi is betting a popular health trend can get more people to drink it soda america golden age is over letter epstein ghost is haunting trump and america enemy could summon more how did being a sport fan get so expensive wealth dimension group ltd boost position in well fargo company nysewfc environmentalist lawsuit to halt alligator alcatraz filed in wrong court florida official say trump official who hold more than one job malcolmjamal warner actor who starred a theo in the cosby show dead at young kim draw another democratic challenger in california hazlett burt watson inc acquires share of caterpillar inc nysecat hazlett burt watson inc ha million stock holding in lockheed martin corporation nyselmt gop house majority shrink after big beautiful victory dhs release video showing attempted robbery of offduty federal officer in nyc update dare bioscience to host august webinar the dare to playtm difference the winch advisory service llc ha million holding in salesforce inc nysecrm clinton email investigation omitted crucial piece of evidence declassified report find sei select international equity etf nasdaqseie see strong trading volume should you buy head to head comparison hydrofarm holding group nasdaqhyfm one bio otcmktsonbi concord medical service nyseccm versus brookdale senior living nysebkd critical contrast</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="O20" t="n">
+        <v>111</v>
+      </c>
+      <c r="P20" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>297</v>
+      </c>
+      <c r="S20" t="n">
+        <v>52</v>
+      </c>
+      <c r="T20" t="n">
+        <v>379</v>
+      </c>
+      <c r="U20" t="n">
+        <v>146</v>
+      </c>
+      <c r="V20" t="n">
+        <v>93</v>
+      </c>
+      <c r="W20" t="n">
+        <v>28</v>
+      </c>
+      <c r="X20" t="n">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,6 +2027,162 @@
         <v>155</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6358.91015625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6360.64013671875</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6317.490234375</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6326.89990234375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5642510000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0078118869515191</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>dynex capital dx a monthly dividend stock under with big yield dividend stock in the retail sector under guess ge stand out in trump medium stock surge on bitcoin stockpile los angeles time owner reveals he taking newspaper public flower food flo a reliable dividend stock still trading under top meme coin list flipped balloon cat presale blast past k at stage universal music group file for u public offering los angeles time to become publicly traded company variety energy transfer et a rare dividend stock trading below keycorps key dividend history what make it stand out under how europe trade bazooka could be a last resort against trump tariff best ai accounting software quickbooks recognized a top ai accounting solution in report by better business advice break the link between speed and success on your team general motor is set to report earnings before the bell here what wall street expects cnbc tripadvisor reveals this year toprated travel experience worldwide with traveler choice award best of the best thing to do gabbards russian interference claim directly contradict what other trump official have said jpmorgan explores lending against client cryptocurrency financial time china problem with competition there too much of it the new york time top underrated apps to download for k smart tv hay testing more important this year baptist health announces new name for medical group ai adoption is growing but why secure scaling is lagging is exxons xom dividend safe and worth it for halal investor ev share in china june sale report hyundai motor robotics lab triumph at red dot award design concept with visionary innovation clout war jensen huang eclipse elon musk and tim cook in washington kia design triumph at red dot award design concept with award top honor for pv wkndr cocacolas ko global brand and dividend reliability for ethical investor france increase in nuclear hydropower in led to more electricity export is chevron cvx a good longterm stock for halal portfolio report goldman sachs advising bnsf on potential merger what halal investor should know about pepsico pep china begin construction of world largest hydropower dam is texas instrument txn a halal dividend stock for techsavvy investor philippine buyer unsure whether they can absorb tariff cost say trade association it wa not justice breonna taylor mother speaks out on officer sentencing opendoor verizon gamestop alphabet and trump medium why these stock are on investor radar today medtronics mdt role in medical device a unique fit for halal portfolio why target tgt appeal to shariahconscious dividend investor is kenvue kvue a halal dividend stock worth adding to your portfolio treasury yield creep higher a investor await fed chair powell speech over million pool sold across the u canada under recall after report of nine death cnn evaluating syscos syy financial health for halal dividend investing why kimberlyclarks kmb dividend stability appeal to halal investor taiwan hold unprecedented military drill cocacola is about to report earnings here what to expect over million pool sold across the u canada under recall after report of nine death shareholder investigation halper sadeh llc investigates sptn turn strm on behalf of shareholder why archerdanielsmidland is a strong halal dividend stock choice gen z is returning to religion why shareholder investigation halper sadeh llc investigates vbtx hmst vrna str on behalf of shareholder regal rexnord corporation declares quarterly dividend of per share regal rexnord corporation declares quarterly dividend of per share ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt ap technology summarybrief at pm edt kevin oleary epstein focus is poop on a stick looming over two case threatening musk car company is a single question can he be trusted ap news mindblowing milky way image captured by nasa telescope astrazeneca to invest billion in the u a pharma tariff weigh aca marketplace health plan enrollee could face subsidy cliff in here how to avoid it the real reason why innout is leaving california deseret news report that american man his family slaughtered by usbacked syrian regime gta member claim your free bravado buffalo evx today natural wine bar coming to schenectady pintsized ja solar and masdar deepen partnership with landmark gw pv project in azerbaijan mckinney to vote on funding for m jw marriott resort at craig ranch alaska airline resume flight after equipment failure at a data center ground all it plane new saratoga spring cannabis dispensary proposed for west side asia stock muted japan whipsaw after pm ishiba loses upper house investingcom judge partially block trump administration from enforcing funding ban against planned parenthood faraday future partner with habittrade to accelerate it entry into the web financial ecosystem denver mayor mike johnston call for learned hopefulness on homelessness housing other challenge bethel appoints dean for new unified business school peter thiel effect cathie wood pours million into bitmine immersion stock a founder fund backing ethereum spike fuel buzz fda approved moderna covid shot for kid behind kennedy back two hhs aide fired cnbc daily open investor look away from the trump administration call to relook the fed kate spade outlet shopper love this sleek and stylish tote bag thats on sale for only tesla retrofuturistic diner officially open a elon musk hint at more location techcrunch china affluent are a pessimistic about the economy a they were during the covid pandemic bird and segway partner to launch nextgen shared micromobility fleet across north america extrump advisor judy shelton slam federal reserve billion loss say violates the norm to have a fed chair who cant be fired hanwha philly shipyard land first u lng carrier order in decade from hanwha affiliate the decline of u housing affordability oil price dip a useu trade war loom ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt chinabacked hacker used microsoft flaw in attack defender say the washington post how europe trade bazooka could be a last resort against trump tariff astrazeneca to invest billion in the u a pharma tariff weigh kioxia announces industry first tb nvme ssd built for the demand of generative ai environment clout war jensen huang eclipse elon musk and tim cook in washington ted lasso return from across the pond for season with production now underway lutnick say trump will renegotiate trade pact with canada mexico next year farmer market moving out of downtown gilbert forget egg beef price are soaring u and uk aircraft carrier team up in the pacific cal thomas latenight tv not like it used to be the f jpo ha a new chief the u air force is saying goodbye to the a warthog trump and philippine leader plan to talk tariff and china at the white house russia is facing challenge with it fifthgeneration fighter letter new list same ol story dear neighbor living under a false mandate gabbards russian interference claim directly contradict what other trump official have said bryce fiedler it time to power down the chromebook experiment letter just say no regina dancy what will you choose chaos or community letter biking is a winwin for health and livability letter there are better way to spend billion than on a sport arena letter pension help nh retain the best police officer letter let our library be neutral the uk f stealth jet is finally flying back to britain there are many illegal marijuana farm but federal agent targeted california biggest legal one there are many illegal marijuana farm but federal agent targeted california biggest legal one npr got what it deserved public radio ceo denounced for defiant remark about nonwhite voice after congress killed federal funding septum urge philadelphia student to plan ahead due to possible service cut it wa not justice breonna taylor mother speaks out on officer sentencing iowa new summer food program a heavy lift for food pantry grand fork city council move forward with county district negotiation on apartment tax incentive go fk yourself colbert responds to trump post steering committee tap garbarino to serve a homeland security chair taiwan hold unprecedented military drill activist judge let mexican who allegedly decapitated a woman walk free jonah goldberg yes mr president theyre still talking about jeffrey epstein ted talley pro mundo an overreach a definition of baylor education over million pool sold across the u canada under recall after report of nine death sen john hoffman talk recovery in first interview since lawmaker attack dump truck roll over during crash on i in chelmsford can the coalition start parliament on a positive note fiona katauskas kevin oleary epstein focus is poop on a stick house speaker say there will be no vote on releasing epstein file before august recess preliminary finding to be announced tuesday from probe into fall river assisted living fire letter dont be late to a bok center show los angeles should follow new york lead and toll entry into the downtown area los angeles should follow new york lead and toll entry into the downtown area rep andrew garbarino to chair homeland security panel spearheading gop immigration agenda hunter biden claim father joe wa on ambien during disastrous debate against trump judge partially block trump administration from enforcing funding ban against planned parenthood schenectady police to place drone central park middle school roof day one of special session reveals rift over priority phillies get walkoff win over boston on catcher interference call with base loaded in th beach reopens after aggressive shark sighting near the redondo pier rep andrew garbarino win key vote in race for homeland security committee chair in cringe video zohran mamdani say he returning to africa but unfortunately coming back labor department proposes more than rule change in a push to deregulate workplace california ag bonta head coalition opposing usda plan to share snap participant data texas democrat vow not to make it easy for republican redistricting effort before midterm burdoin fire update july how to revitalize the abraham accord angel give up late run lead in loss to mets william harrys cousin found dead with gun nearby medicaid take center stage at fedorchaks first virtual town hall since big beautiful bill passage ted lasso return from across the pond for season with production now underway ice raid are hurting critical economic sector north orange county official gather to say one dead in jet crash near granite fall minnesota prosecutor want former oc supervisor to pay in restitution far below what county is seeking california pass major ceqa reform key takeaway for the regulated community jim vandehei rise of super journalist county commissioner eye nevada governor run in government asks disgraced former orange county supervisor to pay back nearly aocs campaign office vandalized with antiisrael message attorney general kwame raoul fight to preserve tps for immigrant joining coalition in legal battle against dhs plan house grind to a halt a gop try to shut down epstein vote hennepin county sheriff office boost community engagement through charitable educational and cultural initiative hhs say it will begin reform of organ donation system after federal investigation find horrifying problem federal judge block trump administration from defunding planned parenthood letter state park should have restaurant letter broken system leaf some tough choice letter pb is national treasure that deserves funding trump nominates former fox news contributor sara carter a drug czar cbss longawaited colbert cancellation letter to the editor july president trump letter to grieving mother of slain intern showcase his deep compassion and humanity tulsi gabbards file release raise question about claim from obama deputy national security advisor hundred of criminal case could soon be dismissed amid public defender work stoppage pentagon withdraws marine from los angeles day of texas special session start with democrat signaling they could flee over redistricting broken promise fractured friendship force a multimillion dollar lawsuit involving mlb superstar vladimir guerrero jr and singer marc anthony company florida law firm lesser landy smith siegel representing plaintiff jesse guerrero lawsuit challenge restriction on head start for kid in the u illegally fda name former pharmaceutical company executive to oversee u drug program martin luther king jr fbi record released by trump administration al sharpton say desperate attempt to distract people from epstein firestorm shareholder investigation halper sadeh llc investigates itos and zimv on behalf of shareholder cpr training eyed a high school grad requirement lawmaker hear gender notification bill trump labor department seek to deregulate workplace dismantling key protection for worker the golden dome ha a new czar epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row tuesday brings more comfortable air but a big warm up is ahead justin baldonis insurer sue him wayfarer saying it policy dont cover blake lively harassment suit republican minnesota sen bruce anderson dy unexpectedly at age trump administration release record on martin luther king jr assassination danaher announces transition plan for chief financial officer we check on our favorite bond fund amid tariff volatility earnings preview what to expect from consolidated edison report westlake announces second quarter earnings conference call oscar health announces preliminary financial result for second quarter and revise guidance target is ending a beloved perk that shopper have relied on for year njcom global defense contractor burke product selects datavault ai for enhanced national defense and quavo fraud dispute secures million growth investment from spectrum equity highyield saving account rate today july rate are steady humana accelerates effort to eliminate prior authorization requirement to ensure a faster more seamless process standard chartered and village capital celebrate startup of inaugural woman in tech accelerator trump ai vision take shape a oracle and openai expand massive stargate infrastructure project clear to announce second quarter financial result on august heloc rate today july the home equity line of credit rate hang steady canada tariff could add to the cost of building a home by report warns it just wildly misleading why the administration latest allegation about the russia investigation dont add up the trump administration claim no one ha died due to u aid cut our trip to afghanistan suggests otherwise palm beach real estate mystery unfolds a buyer acquires property worth m near trump private student loan rate july loan rate decrease mortgage rate today july rate hold firm this week personal loan rate july rate move down today mortgage refinance rate july rate decrease aca marketplace health plan enrollee could face subsidy cliff in here how to avoid it synchrony report second quarter result company also announces quarterly common stock dividend of per share top breakout altcoins poised for explosive growth sui ofnt and kaspa danaher report second quarter result quavo fraud dispute secures million growth investment from spectrum equity truman warns scare buyer ngex mineral to spinout royalty to shareholder huya inc to report second quarter financial result on tuesday august city move towards major commercial development on city southside exyte receives facility diamond partner award for catl battery cell gigafactory in germany openai exec fidji simo on how ai can turn idea into income apple iphone series major display upgrade teased ahead of september launch synchrony report second quarter result company also announces quarterly common stock dividend of per share people bancorp inc announces second quarter result liquid death and sheetz add a side of mayhem to lunch r e p e a t medium advisory minister dabrusin to make an announcement in vancouver to highlight the importance of empowering young canadian to address climate change and support a healthy environment minimus announces availability of secure container image on iron bank accelerating fedramp and government compliance nano lab expands bnb strategic reserve to u million and announces plan to upgrade bnb reserve strategy best samsung smartphones under r for vloggers osisko metal gaspe copper project intersects metre averaging cu the vistria group promotes max vielmetti shane maloney michael shaid and steve upham to principal amplify energy announces strategic update and ceo transition avoid penalty submit your q tax form before the looming deadline with ezpaycheck unlocking federal land offer limited relief in nation housing shortage realtorcom find titan mining close landmark usm credit agreement with u exim camtek to report second quarter financial result on tuesday august progress software announces amended credit facility kucoin resume brl fiat balance transaction strengthening commitment to brazilian trader unlocking federal land offer limited relief in nation housing shortage realtorcom find massachusetts public college and university and ecampuscom announce online bookstore partnership clear to announce second quarter financial result on august airline face climate reality check with green jet fuel hunt scanlon venture serf a buyside ma advisor to egon zehnder in acquisition of the prince houston group liberty gold strengthens development team to advance black pine through feasibility and permitting titan mining close landmark usm credit agreement with u exim simmons first national corporation announces pricing of offering of common stock exyte receives facility diamond partner award for catl battery cell gigafactory in germany severe obesity in u child ha more than tripled since desjardins investment make change to it mutual fund lineup people bancorp inc announces second quarter result danaher report second quarter result rokmaster provides update for fieldwork on nechako project simmons first national corporation announces pricing of offering of common stock qinetiq u appoints scott mcgleish a chief growth officer how to grow your business by constantly raising the bar eshallgo inc nasdaq ehgo expands into enterpriselevel ai solution targeting china rapidly growing intelligent office market toncoin price prediction toncoin price could reach this year but so could this altcoin what should you buy global defense contractor burke product selects datavault ai for enhanced national defense and aerospace technology contract the vistria group promotes max vielmetti shane maloney michael shaid and steve upham to principal progress software announces amended credit facility clear to announce second quarter financial result on august money market interest rate today july earn up to ai is spreading on main street and transforming the american small business bloom energy nysebe given new price target at susquehanna csw industrials inc nysecsw share sold by mutual of america capital management llc jpmorgan chase co issue positive forecast for ford motor nysef stock price cohen steer nysecns price target lowered to at bank of america mutual of america capital management llc ha stake in huntington ingalls industry inc nysehii decker outdoor nysedeck price target cut to by analyst at well fargo company under armour inc nyseuaa stock position lessened by mutual of america capital management llc mutual of america capital management llc lower position in badger meter inc nysebmi mutual of america capital management llc acquires new share in element solution inc nyseesi mutual of america capital management llc sell share of sps commerce inc nasdaqspsc the arena group nysearen now covered by lake street capital gate industrial corporation plc nysegtes stake reduced by mutual of america capital management llc compass group loncpg receives buy rating from shore capital capricorn energy cne buy rating reaffirmed at shore capital hvivo lonhvo given buy rating at shore capital fiserv nysefi rating increased to neutral at monness crespi hardt magnolia oil gas corp nysemgy share sold by mutual of america capital management llc comerica nysecma given a price target at da davidson dana nysedan price target cut to by analyst at jpmorgan chase co stifel nicolaus issue positive forecast for flowserve nysefls stock price fiserv nysefi price target lowered to at morgan stanley cushman wakefield nysecwk now covered by citizen jmp arbuthnot banking group arbb house stock rating reaffirmed at shore capital mutual of america capital management llc sell share of franklin resource inc nyseben cummins nysecmi price target raised to at barclays trump blast massie a the worst republican congressman and say he seeking a challenger to support canada tariff could add to the cost of building a home by report warns it just wildly misleading why the administration latest allegation about the russia investigation dont add up chris spear america trucker need a place to park before it too late the trump administration claim no one ha died due to u aid cut our trip to afghanistan suggests otherwise editorial a new cta day for edgewater and uptown but what about broadway sheldon h jacobson oldschool manufacturing is gone and is not coming back editorial cook county democrat got it right by staying neutral daniel depetris donald trump and benjamin netanyahu dont have the same goal pod of war like a zombie apocalypse trump budget cut stir fear of frightening pipeline mishap what to do if your bos is playing favoritesand youre not the favorite my view pie define connection in this extended family state cop quietly tag thousand a gang member and feed their name to ice federal government to take over atlantic city housing authority van drew announces some virginian worry about whether theyll lose health coverage tulsi gabbards dangerous disinformation campaign against america the latest from the middle east a israel ramp up gaza offensive and starvation crisis spiral what is the slang term for the final card turned over in texas hold em venus williams make winning return to tennis aged the man who brought you trump bible in school is truly back at it again kellanova nysek receives average recommendation of hold from analyst juror in the james craig trial can ask witness question how it work and what theyve asked raising a family is not easy here innout owner fleeing california moving east realty income corporation nyseo given consensus rating of hold by analyst analyst set bellring brand inc nysebrbr pt at cohu inc nasdaqcohu given average recommendation of moderate buy by analyst in a group of spy had a targetand a plan it turned into one of the most sensationally botched crime of the century facility where greensboro man went missing is unlicensed state regulator say analyst set salesforce inc nysecrm price target at trump commerce secretary dish on president bizarre bedtime call trump admin ditch unesco say it a hotbed of woke and antiisrael propaganda phonics and reading skill take a big step forward other view phonics and reading skill take a big step forward other view epic city replacing old glory with the crescent moon garbarino poised to lead house homeland security panel after green exit going to the beach look very different in britain ct bottle bill now tackle redemption fraud but is it happening only one scandal could really hurt trump and make him more dangerous than ever there no safe place for legal immigrant in trump america burke county get grant for trail including morganton greenway fonta flora trail justice dept anticipates ghislaine maxwell meeting in coming day amid epstein fallout are trump supporter showing sign of moving on from the jeffrey epstein story letter hero too can come from somewhere else letter hero too can come from somewhere else ssc technology ssnc to release quarterly earnings on wednesday heavy metal legend ozzy osbourne dy at on epstein democrat go low from grassroots competition to global industry the evolution of esports brokerage set nvidia corporation nasdaqnvda target price at saia inc nasdaqsaia given average rating of moderate buy by brokerage brokerage set definitive healthcare corp nasdaqdh target price at student protest after military jet crash kill mostly child tennessee titan qb will levi will have seasonending shoulder surgery coldplay fan reveals if shes made money from that astronomer ceo viral concert video battenfeld where is josh kraft path to victory letter thankful for decision blocking stonegate project letter thankful for decision blocking stonegate project how many shark attack in florida what to do to reduce chance of being bitten by shark trump labor department proposes more than rule change in a push to deregulate workplace boston pushing for more everett stadium mitigation heightening tension with kraft who will succeed fed chair jerome powell here are the top contender opposite of reality critic torch karoline leavitts bold new claim about trump faq here what would happen if trump actually try to fire powell trump a foil disappears from andrew cuomos rebooted new york mayoral bid liz peek trump could secure his place in american history with this bold immigration reform strategy opinion celebrating year of aviation innovation and investing in connecticut future fifth ave from boulevard to driveway and back mamdani must back yeshiva standard stripping npr funding shuts down voice of dissent dont withhold promised adult education fund there a growing sentiment gap between rich and poor american scoop the overlooked data trump economist see predicting a boom ahead trump forever grudge tie epstein file to russia hoax it crucial for u to become energy independent spartanburg county council district gop race to succeed britt defined by county rapid growth mini tds is psychosis defined a an irrational fear search for missing yearold greensboro man continues family offer reward criticizes police option to pay for college just got worse stryker corporation nysesyk receives average recommendation of moderate buy from analyst how schumer is preparing for the fall funding showdown commentary trump problem determining putin desire for peace commentary supreme court silent opinion undermine it legitimacy recording dream is exhausting why male corporate leader and billionaire need financial therapy ai grows up without rule san francisco to ban homeless people from living in rv with new parking limit editorial stephen colbert roasted boss and took risk bravo editorial bondis mishandling of epstein case is her mo letter will biomass be our dirty little secret letter will biomass be our dirty little secret bryan kohberger ha another chance to explain why he killed idaho college student but expert say he unlikely to speak judge partially block trump admin push to slash planned parenthood funding concern grow over australia toxic algae bloom commentary why neophyte mayor need steady hand on the wheel commentary if haiti ha become more violent why end haitian temporary protected status in the u editorial make it clear that floridian hate the idea of a blackbear massacre commentary kid in camp nope got a summer schedule nope cue the mom guilt maine transgender student deserve better letter out to get golden republican ensnare collins steve collins broadway box office sunset blvd end run on million high umgs downtown deal european commission launch indepth second phase of investigation accenture expands in malaysia with aristal purchase ap business summarybrief at pm edt the government wa once a steady partner for nonprofit thats changing the government wa once a steady partner for nonprofit thats changing one transporter two critial job align production system delivers dualuse sav verizons plan to make switching harder for customer hit a snag why this analog semiconductor stock is a top undervalued pick abbvie inc nyseabbv share acquired by obermeyer wealth partner vsm wealth advisory llc increase holding in vanguard value etf nysearcavtv american exceptionalism isnt dead foreign investor flow into u show obermeyer wealth partner trim stake in lowes company inc nyselow full circle benchmark retail diesel price is about where it wa a year ago flashback bill maher admitted stephen colbert feed machine bank julius baer co ltd zurich trim stock position in accenture plc nyseacn bank julius baer co ltd zurich sell share of exxon mobil corporation nysexom united bank sell share of eli lilly and company nyselly procter gamble company the nysepg holding raised by united bank alecta tjanstepension omsesidigt ha million holding in bank of america corporation nysebac exxon mobil corporation nysexom share acquired by flynn zito capital management llc nelson capital management llc increase holding in verizon communication inc nysevz alphabet inc nasdaqgoog share sold by flynn zito capital management llc vsm wealth advisory llc acquires new position in alphabet inc nasdaqgoog highlander partner lp invests million in invesco sp equal weight etf nysearcarsp bank julius baer co ltd zurich raise holding in procter gamble company the nysepg highlander partner lp make new million investment in invesco sp equal weight etf nysearcarsp caterpillar inc nysecat share sold by bank julius baer co ltd zurich flynn zito capital management llc trim position in alphabet inc nasdaqgoog amazon is selling a spacious drawer dresser for only and it the perfect storage solution how to use deepseek for stock market analysis keycorp raise nii and loan outlook after solid quarter ignite planner llc acquires share of walmart inc nysewmt hartford fund management co llc acquires share of american express company nyseaxp ignite planner llc ha million stake in walmart inc nysewmt ifp advisor inc increase stake in amgen inc nasdaqamgn ifp advisor inc raise stock position in general dynamic corporation nysegd hartford fund management co llc sell share of general dynamic corporation nysegd rideup trailrush a fullsuspension middrive emtb built for the trail columbia issue expulsion pull degree over propalestinian protest a pressure from trump administration mount dr horton pulte group share move higher after strong earnings independent bank corporation announces quarterly cash dividend on common stock independent bank corporation announces quarterly cash dividend on common stock att inc nyset share purchased by proficio capital partner llc financial sense advisor inc reduces stock position in att inc nyset yield ease ahead of federal reserve meeting should you buy the postearnings dip in lockheed martin stock former sandoz inc ceo don degolyer lead pharmatech startup ategenos a company prepares public launch lori calvasina theory that tariff wouldnt have an impact are not true guidance capital inc ha million stock holding in freeportmcmoran inc nysefcx klp kapitalforvaltning a lower holding in m company nysemmm klp kapitalforvaltning a ha million position in the sherwinwilliams company nyseshw klp kapitalforvaltning a grows stock holding in analog device inc nasdaqadi lockheed record b in loss mostly linked to continued strife on classified aero program breaking defense u the philippine struck trade military deal trump say openai seek additional capital from investor a part of it billion round wired pier investment partner llc make new investment in salesforce inc nysecrm klp kapitalforvaltning a raise holding in cme group inc nasdaqcme bristol myers squibb company nysebmy share purchased by klp kapitalforvaltning a klp kapitalforvaltning a acquires share of salesforce inc nysecrm salesforce inc nysecrm share purchased by klp kapitalforvaltning a klp kapitalforvaltning a buy share of cme group inc nasdaqcme klp kapitalforvaltning a ha million stock holding in bristol myers squibb company nysebmy klp kapitalforvaltning a purchase share of automatic data processing inc nasdaqadp gm say ev are it north star a legacy automaker chase tesla cnbc indonesia to cut tariff ontariff barrier in u trade deal trump official say amy g injury firm welcome multilingual legal expert to support serbianspeaking client jpmorgan chase co issue positive forecast for quantum service nysepwr stock price universal beteiligungs und servicegesellschaft mbh buy share of intuit in</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>dynex capital dx a monthly dividend stock under with big yield dividend stock in the retail sector under guess ge stand out in trump medium stock surge on bitcoin stockpile los angeles time owner reveals he taking newspaper public flower food flo a reliable dividend stock still trading under top meme coin list flipped balloon cat presale blast past k at stage universal music group file for u public offering los angeles time to become publicly traded company variety energy transfer et a rare dividend stock trading below keycorps key dividend history what make it stand out under how europe trade bazooka could be a last resort against trump tariff best ai accounting software quickbooks recognized a top ai accounting solution in report by better business advice break the link between speed and success on your team general motor is set to report earnings before the bell here what wall street expects cnbc tripadvisor reveals this year toprated travel experience worldwide with traveler choice award best of the best thing to do gabbards russian interference claim directly contradict what other trump official have said jpmorgan explores lending against client cryptocurrency financial time china problem with competition there too much of it the new york time top underrated apps to download for k smart tv hay testing more important this year baptist health announces new name for medical group ai adoption is growing but why secure scaling is lagging is exxons xom dividend safe and worth it for halal investor ev share in china june sale report hyundai motor robotics lab triumph at red dot award design concept with visionary innovation clout war jensen huang eclipse elon musk and tim cook in washington kia design triumph at red dot award design concept with award top honor for pv wkndr cocacolas ko global brand and dividend reliability for ethical investor france increase in nuclear hydropower in led to more electricity export is chevron cvx a good longterm stock for halal portfolio report goldman sachs advising bnsf on potential merger what halal investor should know about pepsico pep china begin construction of world largest hydropower dam is texas instrument txn a halal dividend stock for techsavvy investor philippine buyer unsure whether they can absorb tariff cost say trade association it wa not justice breonna taylor mother speaks out on officer sentencing opendoor verizon gamestop alphabet and trump medium why these stock are on investor radar today medtronics mdt role in medical device a unique fit for halal portfolio why target tgt appeal to shariahconscious dividend investor is kenvue kvue a halal dividend stock worth adding to your portfolio treasury yield creep higher a investor await fed chair powell speech over million pool sold across the u canada under recall after report of nine death cnn evaluating syscos syy financial health for halal dividend investing why kimberlyclarks kmb dividend stability appeal to halal investor taiwan hold unprecedented military drill cocacola is about to report earnings here what to expect over million pool sold across the u canada under recall after report of nine death shareholder investigation halper sadeh llc investigates sptn turn strm on behalf of shareholder why archerdanielsmidland is a strong halal dividend stock choice gen z is returning to religion why shareholder investigation halper sadeh llc investigates vbtx hmst vrna str on behalf of shareholder regal rexnord corporation declares quarterly dividend of per share regal rexnord corporation declares quarterly dividend of per share ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt ap technology summarybrief at pm edt ap technology summarybrief at pm edt kevin oleary epstein focus is poop on a stick looming over two case threatening musk car company is a single question can he be trusted ap news mindblowing milky way image captured by nasa telescope astrazeneca to invest billion in the u a pharma tariff weigh aca marketplace health plan enrollee could face subsidy cliff in here how to avoid it the real reason why innout is leaving california deseret news report that american man his family slaughtered by usbacked syrian regime gta member claim your free bravado buffalo evx today natural wine bar coming to schenectady pintsized ja solar and masdar deepen partnership with landmark gw pv project in azerbaijan mckinney to vote on funding for m jw marriott resort at craig ranch alaska airline resume flight after equipment failure at a data center ground all it plane new saratoga spring cannabis dispensary proposed for west side asia stock muted japan whipsaw after pm ishiba loses upper house investingcom judge partially block trump administration from enforcing funding ban against planned parenthood faraday future partner with habittrade to accelerate it entry into the web financial ecosystem denver mayor mike johnston call for learned hopefulness on homelessness housing other challenge bethel appoints dean for new unified business school peter thiel effect cathie wood pours million into bitmine immersion stock a founder fund backing ethereum spike fuel buzz fda approved moderna covid shot for kid behind kennedy back two hhs aide fired cnbc daily open investor look away from the trump administration call to relook the fed kate spade outlet shopper love this sleek and stylish tote bag thats on sale for only tesla retrofuturistic diner officially open a elon musk hint at more location techcrunch china affluent are a pessimistic about the economy a they were during the covid pandemic bird and segway partner to launch nextgen shared micromobility fleet across north america extrump advisor judy shelton slam federal reserve billion loss say violates the norm to have a fed chair who cant be fired hanwha philly shipyard land first u lng carrier order in decade from hanwha affiliate the decline of u housing affordability oil price dip a useu trade war loom ap business summarybrief at pm edt ap business summarybrief at pm edt ap business summarybrief at pm edt chinabacked hacker used microsoft flaw in attack defender say the washington post how europe trade bazooka could be a last resort against trump tariff astrazeneca to invest billion in the u a pharma tariff weigh kioxia announces industry first tb nvme ssd built for the demand of generative ai environment clout war jensen huang eclipse elon musk and tim cook in washington ted lasso return from across the pond for season with production now underway lutnick say trump will renegotiate trade pact with canada mexico next year farmer market moving out of downtown gilbert forget egg beef price are soaring u and uk aircraft carrier team up in the pacific cal thomas latenight tv not like it used to be the f jpo ha a new chief the u air force is saying goodbye to the a warthog trump and philippine leader plan to talk tariff and china at the white house russia is facing challenge with it fifthgeneration fighter letter new list same ol story dear neighbor living under a false mandate gabbards russian interference claim directly contradict what other trump official have said bryce fiedler it time to power down the chromebook experiment letter just say no regina dancy what will you choose chaos or community letter biking is a winwin for health and livability letter there are better way to spend billion than on a sport arena letter pension help nh retain the best police officer letter let our library be neutral the uk f stealth jet is finally flying back to britain there are many illegal marijuana farm but federal agent targeted california biggest legal one there are many illegal marijuana farm but federal agent targeted california biggest legal one npr got what it deserved public radio ceo denounced for defiant remark about nonwhite voice after congress killed federal funding septum urge philadelphia student to plan ahead due to possible service cut it wa not justice breonna taylor mother speaks out on officer sentencing iowa new summer food program a heavy lift for food pantry grand fork city council move forward with county district negotiation on apartment tax incentive go fk yourself colbert responds to trump post steering committee tap garbarino to serve a homeland security chair taiwan hold unprecedented military drill activist judge let mexican who allegedly decapitated a woman walk free jonah goldberg yes mr president theyre still talking about jeffrey epstein ted talley pro mundo an overreach a definition of baylor education over million pool sold across the u canada under recall after report of nine death sen john hoffman talk recovery in first interview since lawmaker attack dump truck roll over during crash on i in chelmsford can the coalition start parliament on a positive note fiona katauskas kevin oleary epstein focus is poop on a stick house speaker say there will be no vote on releasing epstein file before august recess preliminary finding to be announced tuesday from probe into fall river assisted living fire letter dont be late to a bok center show los angeles should follow new york lead and toll entry into the downtown area los angeles should follow new york lead and toll entry into the downtown area rep andrew garbarino to chair homeland security panel spearheading gop immigration agenda hunter biden claim father joe wa on ambien during disastrous debate against trump judge partially block trump administration from enforcing funding ban against planned parenthood schenectady police to place drone central park middle school roof day one of special session reveals rift over priority phillies get walkoff win over boston on catcher interference call with base loaded in th beach reopens after aggressive shark sighting near the redondo pier rep andrew garbarino win key vote in race for homeland security committee chair in cringe video zohran mamdani say he returning to africa but unfortunately coming back labor department proposes more than rule change in a push to deregulate workplace california ag bonta head coalition opposing usda plan to share snap participant data texas democrat vow not to make it easy for republican redistricting effort before midterm burdoin fire update july how to revitalize the abraham accord angel give up late run lead in loss to mets william harrys cousin found dead with gun nearby medicaid take center stage at fedorchaks first virtual town hall since big beautiful bill passage ted lasso return from across the pond for season with production now underway ice raid are hurting critical economic sector north orange county official gather to say one dead in jet crash near granite fall minnesota prosecutor want former oc supervisor to pay in restitution far below what county is seeking california pass major ceqa reform key takeaway for the regulated community jim vandehei rise of super journalist county commissioner eye nevada governor run in government asks disgraced former orange county supervisor to pay back nearly aocs campaign office vandalized with antiisrael message attorney general kwame raoul fight to preserve tps for immigrant joining coalition in legal battle against dhs plan house grind to a halt a gop try to shut down epstein vote hennepin county sheriff office boost community engagement through charitable educational and cultural initiative hhs say it will begin reform of organ donation system after federal investigation find horrifying problem federal judge block trump administration from defunding planned parenthood letter state park should have restaurant letter broken system leaf some tough choice letter pb is national treasure that deserves funding trump nominates former fox news contributor sara carter a drug czar cbss longawaited colbert cancellation letter to the editor july president trump letter to grieving mother of slain intern showcase his deep compassion and humanity tulsi gabbards file release raise question about claim from obama deputy national security advisor hundred of criminal case could soon be dismissed amid public defender work stoppage pentagon withdraws marine from los angeles day of texas special session start with democrat signaling they could flee over redistricting broken promise fractured friendship force a multimillion dollar lawsuit involving mlb superstar vladimir guerrero jr and singer marc anthony company florida law firm lesser landy smith siegel representing plaintiff jesse guerrero lawsuit challenge restriction on head start for kid in the u illegally fda name former pharmaceutical company executive to oversee u drug program martin luther king jr fbi record released by trump administration al sharpton say desperate attempt to distract people from epstein firestorm shareholder investigation halper sadeh llc investigates itos and zimv on behalf of shareholder cpr training eyed a high school grad requirement lawmaker hear gender notification bill trump labor department seek to deregulate workplace dismantling key protection for worker the golden dome ha a new czar epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row epstein furor upends house for second week in row tuesday brings more comfortable air but a big warm up is ahead justin baldonis insurer sue him wayfarer saying it policy dont cover blake lively harassment suit republican minnesota sen bruce anderson dy unexpectedly at age trump administration release record on martin luther king jr assassination danaher announces transition plan for chief financial officer we check on our favorite bond fund amid tariff volatility earnings preview what to expect from consolidated edison report westlake announces second quarter earnings conference call oscar health announces preliminary financial result for second quarter and revise guidance target is ending a beloved perk that shopper have relied on for year njcom global defense contractor burke product selects datavault ai for enhanced national defense and quavo fraud dispute secures million growth investment from spectrum equity highyield saving account rate today july rate are steady humana accelerates effort to eliminate prior authorization requirement to ensure a faster more seamless process standard chartered and village capital celebrate startup of inaugural woman in tech accelerator trump ai vision take shape a oracle and openai expand massive stargate infrastructure project clear to announce second quarter financial result on august heloc rate today july the home equity line of credit rate hang steady canada tariff could add to the cost of building a home by report warns it just wildly misleading why the administration latest allegation about the russia investigation dont add up the trump administration claim no one ha died due to u aid cut our trip to afghanistan suggests otherwise palm beach real estate mystery unfolds a buyer acquires property worth m near trump private student loan rate july loan rate decrease mortgage rate today july rate hold firm this week personal loan rate july rate move down today mortgage refinance rate july rate decrease aca marketplace health plan enrollee could face subsidy cliff in here how to avoid it synchrony report second quarter result company also announces quarterly common stock dividend of per share top breakout altcoins poised for explosive growth sui ofnt and kaspa danaher report second quarter result quavo fraud dispute secures million growth investment from spectrum equity truman warns scare buyer ngex mineral to spinout royalty to shareholder huya inc to report second quarter financial result on tuesday august city move towards major commercial development on city southside exyte receives facility diamond partner award for catl battery cell gigafactory in germany openai exec fidji simo on how ai can turn idea into income apple iphone series major display upgrade teased ahead of september launch synchrony report second quarter result company also announces quarterly common stock dividend of per share people bancorp inc announces second quarter result liquid death and sheetz add a side of mayhem to lunch r e p e a t medium advisory minister dabrusin to make an announcement in vancouver to highlight the importance of empowering young canadian to address climate change and support a healthy environment minimus announces availability of secure container image on iron bank accelerating fedramp and government compliance nano lab expands bnb strategic reserve to u million and announces plan to upgrade bnb reserve strategy best samsung smartphones under r for vloggers osisko metal gaspe copper project intersects metre averaging cu the vistria group promotes max vielmetti shane maloney michael shaid and steve upham to principal amplify energy announces strategic update and ceo transition avoid penalty submit your q tax form before the looming deadline with ezpaycheck unlocking federal land offer limited relief in nation housing shortage realtorcom find titan mining close landmark usm credit agreement with u exim camtek to report second quarter financial result on tuesday august progress software announces amended credit facility kucoin resume brl fiat balance transaction strengthening commitment to brazilian trader unlocking federal land offer limited relief in nation housing shortage realtorcom find massachusetts public college and university and ecampuscom announce online bookstore partnership clear to announce second quarter financial result on august airline face climate reality check with green jet fuel hunt scanlon venture serf a buyside ma advisor to egon zehnder in acquisition of the prince houston group liberty gold strengthens development team to advance black pine through feasibility and permitting titan mining close landmark usm credit agreement with u exim simmons first national corporation announces pricing of offering of common stock exyte receives facility diamond partner award for catl battery cell gigafactory in germany severe obesity in u child ha more than tripled since desjardins investment make change to it mutual fund lineup people bancorp inc announces second quarter result danaher report second quarter result rokmaster provides update for fieldwork on nechako project simmons first national corporation announces pricing of offering of common stock qinetiq u appoints scott mcgleish a chief growth officer how to grow your business by constantly raising the bar eshallgo inc nasdaq ehgo expands into enterpriselevel ai solution targeting china rapidly growing intelligent office market toncoin price prediction toncoin price could reach this year but so could this altcoin what should you buy global defense contractor burke product selects datavault ai for enhanced national defense and aerospace technology contract the vistria group promotes max vielmetti shane maloney michael shaid and steve upham to principal progress software announces amended credit facility clear to announce second quarter financial result on august money market interest rate today july earn up to ai is spreading on main street and transforming the american small business bloom energy nysebe given new price target at susquehanna csw industrials inc nysecsw share sold by mutual of america capital management llc jpmorgan chase co issue positive forecast for ford motor nysef stock price cohen steer nysecns price target lowered to at bank of america mutual of america capital management llc ha stake in huntington ingalls industry inc nysehii decker outdoor nysedeck price target cut to by analyst at well fargo company under armour inc nyseuaa stock position lessened by mutual of america capital management llc mutual of america capital management llc lower position in badger meter inc nysebmi mutual of america capital management llc acquires new share in element solution inc nyseesi mutual of america capital management llc sell share of sps commerce inc nasdaqspsc the arena group nysearen now covered by lake street capital gate industrial corporation plc nysegtes stake reduced by mutual of america capital management llc compass group loncpg receives buy rating from shore capital capricorn energy cne buy rating reaffirmed at shore capital hvivo lonhvo given buy rating at shore capital fiserv nysefi rating increased to neutral at monness crespi hardt magnolia oil gas corp nysemgy share sold by mutual of america capital management llc comerica nysecma given a price target at da davidson dana nysedan price target cut to by analyst at jpmorgan chase co stifel nicolaus issue positive forecast for flowserve nysefls stock price fiserv nysefi price target lowered to at morgan stanley cushman wakefield nysecwk now covered by citizen jmp arbuthnot banking group arbb house stock rating reaffirmed at shore capital mutual of america capital management llc sell share of franklin resource inc nyseben cummins nysecmi price target raised to at barclays trump blast massie a the worst republican congressman and say he seeking a challenger to support canada tariff could add to the cost of building a home by report warns it just wildly misleading why the administration latest allegation about the russia investigation dont add up chris spear america trucker need a place to park before it too late the trump administration claim no one ha died due to u aid cut our trip to afghanistan suggests otherwise editorial a new cta day for edgewater and uptown but what about broadway sheldon h jacobson oldschool manufacturing is gone and is not coming back editorial cook county democrat got it right by staying neutral daniel depetris donald trump and benjamin netanyahu dont have the same goal pod of war like a zombie apocalypse trump budget cut stir fear of frightening pipeline mishap what to do if your bos is playing favoritesand youre not the favorite my view pie define connection in this extended family state cop quietly tag thousand a gang member and feed their name to ice federal government to take over atlantic city housing authority van drew announces some virginian worry about whether theyll lose health coverage tulsi gabbards dangerous disinformation campaign against america the latest from the middle east a israel ramp up gaza offensive and starvation crisis spiral what is the slang term for the final card turned over in texas hold em venus williams make winning return to tennis aged the man who brought you trump bible in school is truly back at it again kellanova nysek receives average recommendation of hold from analyst juror in the james craig trial can ask witness question how it work and what theyve asked raising a family is not easy here innout owner fleeing california moving east realty income corporation nyseo given consensus rating of hold by analyst analyst set bellring brand inc nysebrbr pt at cohu inc nasdaqcohu given average recommendation of moderate buy by analyst in a group of spy had a targetand a plan it turned into one of the most sensationally botched crime of the century facility where greensboro man went missing is unlicensed state regulator say analyst set salesforce inc nysecrm price target at trump commerce secretary dish on president bizarre bedtime call trump admin ditch unesco say it a hotbed of woke and antiisrael propaganda phonics and reading skill take a big step forward other view phonics and reading skill take a big step forward other view epic city replacing old glory with the crescent moon garbarino poised to lead house homeland security panel after green exit going to the beach look very different in britain ct bottle bill now tackle redemption fraud but is it happening only one scandal could really hurt trump and make him more dangerous than ever there no safe place for legal immigrant in trump america burke county get grant for trail including morganton greenway fonta flora trail justice dept anticipates ghislaine maxwell meeting in coming day amid epstein fallout are trump supporter showing sign of moving on from the jeffrey epstein story letter hero too can come from somewhere else letter hero too can come from somewhere else ssc technology ssnc to release quarterly earnings on wednesday heavy metal legend ozzy osbourne dy at on epstein democrat go low from grassroots competition to global industry the evolution of esports brokerage set nvidia corporation nasdaqnvda target price at saia inc nasdaqsaia given average rating of moderate buy by brokerage brokerage set definitive healthcare corp nasdaqdh target price at student protest after military jet crash kill mostly child tennessee titan qb will levi will have seasonending shoulder surgery coldplay fan reveals if shes made money from that astronomer ceo viral concert video battenfeld where is josh kraft path to victory letter thankful for decision blocking stonegate project letter thankful for decision blocking stonegate project how many shark attack in florida what to do to reduce chance of being bitten by shark trump labor department proposes more than rule change in a push to deregulate workplace boston pushing for more everett stadium mitigation heightening tension with kraft who will succeed fed chair jerome powell here are the top contender opposite of reality critic torch karoline leavitts bold new claim about trump faq here what would happen if trump actually try to fire powell trump a foil disappears from andrew cuomos rebooted new york mayoral bid liz peek trump could secure his place in american history with this bold immigration reform strategy opinion celebrating year of aviation innovation and investing in connecticut future fifth ave from boulevard to driveway and back mamdani must back yeshiva standard stripping npr funding shuts down voice of dissent dont withhold promised adult education fund there a growing sentiment gap between rich and poor american scoop the overlooked data trump economist see predicting a boom ahead trump forever grudge tie epstein file to russia hoax it crucial for u to become energy independent spartanburg county council district gop race to succeed britt defined by county rapid growth mini tds is psychosis defined a an irrational fear search for missing yearold greensboro man continues family offer reward criticizes police option to pay for college just got worse stryker corporation nysesyk receives average recommendation of moderate buy from analyst how schumer is preparing for the fall funding showdown commentary trump problem determining putin desire for peace commentary supreme court silent opinion undermine it legitimacy recording dream is exhausting why male corporate leader and billionaire need financial therapy ai grows up without rule san francisco to ban homeless people from living in rv with new parking limit editorial stephen colbert roasted boss and took risk bravo editorial bondis mishandling of epstein case is her mo letter will biomass be our dirty little secret letter will biomass be our dirty little secret bryan kohberger ha another chance to explain why he killed idaho college student but expert say he unlikely to speak judge partially block trump admin push to slash planned parenthood funding concern grow over australia toxic algae bloom commentary why neophyte mayor need steady hand on the wheel commentary if haiti ha become more violent why end haitian temporary protected status in the u editorial make it clear that floridian hate the idea of a blackbear massacre commentary kid in camp nope got a summer schedule nope cue the mom guilt maine transgender student deserve better letter out to get golden republican ensnare collins steve collins broadway box office sunset blvd end run on million high umgs downtown deal european commission launch indepth second phase of investigation accenture expands in malaysia with aristal purchase ap business summarybrief at pm edt the government wa once a steady partner for nonprofit thats changing the government wa once a steady partner for nonprofit thats changing one transporter two critial job align production system delivers dualuse sav verizons plan to make switching harder for customer hit a snag why this analog semiconductor stock is a top undervalued pick abbvie inc nyseabbv share acquired by obermeyer wealth partner vsm wealth advisory llc increase holding in vanguard value etf nysearcavtv american exceptionalism isnt dead foreign investor flow into u show obermeyer wealth partner trim stake in lowes company inc nyselow full circle benchmark retail diesel price is about where it wa a year ago flashback bill maher admitted stephen colbert feed machine bank julius baer co ltd zurich trim stock position in accenture plc nyseacn bank julius baer co ltd zurich sell share of exxon mobil corporation nysexom united bank sell share of eli lilly and company nyselly procter gamble company the nysepg holding raised by united bank alecta tjanstepension omsesidigt ha million holding in bank of america corporation nysebac exxon mobil corporation nysexom share acquired by flynn zito capital management llc nelson capital management llc increase holding in verizon communication inc nysevz alphabet inc nasdaqgoog share sold by flynn zito capital management llc vsm wealth advisory llc acquires new position in alphabet inc nasdaqgoog highlander partner lp invests million in invesco sp equal weight etf nysearcarsp bank julius baer co ltd zurich raise holding in procter gamble company the nysepg highlander partner lp make new million investment in invesco sp equal weight etf nysearcarsp caterpillar inc nysecat share sold by bank julius baer co ltd zurich flynn zito capital management llc trim position in alphabet inc nasdaqgoog amazon is selling a spacious drawer dresser for only and it the perfect storage solution how to use deepseek for stock market analysis keycorp raise nii and loan outlook after solid quarter ignite planner llc acquires share of walmart inc nysewmt hartford fund management co llc acquires share of american express company nyseaxp ignite planner llc ha million stake in walmart inc nysewmt ifp advisor inc increase stake in amgen inc nasdaqamgn ifp advisor inc raise stock position in general dynamic corporation nysegd hartford fund management co llc sell share of general dynamic corporation nysegd rideup trailrush a fullsuspension middrive emtb built for the trail columbia issue expulsion pull degree over propalestinian protest a pressure from trump administration mount dr horton pulte group share move higher after strong earnings independent bank corporation announces quarterly cash dividend on common stock independent bank corporation announces quarterly cash dividend on common stock att inc nyset share purchased by proficio capital partner llc financial sense advisor inc reduces stock position in att inc nyset yield ease ahead of federal reserve meeting should you buy the postearnings dip in lockheed martin stock former sandoz inc ceo don degolyer lead pharmatech startup ategenos a company prepares public launch lori calvasina theory that tariff wouldnt have an impact are not true guidance capital inc ha million stock holding in freeportmcmoran inc nysefcx klp kapitalforvaltning a lower holding in m company nysemmm klp kapitalforvaltning a ha million position in the sherwinwilliams company nyseshw klp kapitalforvaltning a grows stock holding in analog device inc nasdaqadi lockheed record b in loss mostly linked to continued strife on classified aero program breaking defense u the philippine struck trade military deal trump say openai seek additional capital from investor a part of it billion round wired pier investment partner llc make new investment in salesforce inc nysecrm klp kapitalforvaltning a raise holding in cme group inc nasdaqcme bristol myers squibb company nysebmy share purchased by klp kapitalforvaltning a klp kapitalforvaltning a acquires share of salesforce inc nysecrm salesforce inc nysecrm share purchased by klp kapitalforvaltning a klp kapitalforvaltning a buy share of cme group inc nasdaqcme klp kapitalforvaltning a ha million stock holding in bristol myers squibb company nysebmy klp kapitalforvaltning a purchase share of automatic data processing inc nasdaqadp gm say ev are it north star a legacy automaker chase tesla cnbc indonesia to cut tariff ontariff barrier in u trade deal trump official say amy g injury firm welcome multilingual legal expert to support serbianspeaking client jpmorgan chase co issue positive forecast for quantum service nysepwr stock price universal beteiligungs und servicegesellschaft mbh buy share of intuit in</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9996</v>
+      </c>
+      <c r="O21" t="n">
+        <v>149</v>
+      </c>
+      <c r="P21" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>341</v>
+      </c>
+      <c r="S21" t="n">
+        <v>124</v>
+      </c>
+      <c r="T21" t="n">
+        <v>445</v>
+      </c>
+      <c r="U21" t="n">
+        <v>232</v>
+      </c>
+      <c r="V21" t="n">
+        <v>97</v>
+      </c>
+      <c r="W21" t="n">
+        <v>55</v>
+      </c>
+      <c r="X21" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6363.35009765625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6381.31005859375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6360.56982421875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6368.60009765625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3364122000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0006982236416543</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>new commerce split financial result to may prospect of higher indian sugar export weigh on price meta launch new teen safety feature remove account that sexualize child meta launch new teen safety feature remove account that sexualize child new commerce split financial result to may skydance pledge to trump fcc itll eliminate dei install ombudsman to root out bias at cbs news how trump ai plan would cut regulation and speed up adoption stock jump on trump trade deal deluge ahead of big tech earnings whats moving market wednesday cocoa price jump on fear of tighter supply qfscoin launch the most profitable platform for yielding crypto in designed for global investor to earn btc ltc and doge coin united airline cancel all flight to sunny destination offer refund coffee price underpinned by frost concern in brazil procter gamble company the nysepg share bought by j w coon advisor llc poplar forest capital llc sell share of international business machine corporation nyseibm international business machine corporation nyseibm position increased by j w coon advisor llc j w coon advisor llc cut stake in oracle corporation nyseorcl burney co reduces stock position in procter gamble company the nysepg poplar forest capital llc lower position in international business machine corporation nyseibm j w coon advisor llc raise position in international business machine corporation nyseibm hasbro relies on magic to offset impact of tariff prime dividend corp financial result to may best biotech stock to buy according to billionaire steve cohen prime dividend corp financial result to may u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage summit wealth partner llc ha holding in the home depot inc nysehd summit wealth partner llc grows holding in tesla inc nasdaqtsla wedbush security inc purchase share of the home depot inc nysehd wedbush security inc ha million stock position in the home depot inc nysehd egerton capital uk llp raise stock position in eli lilly and company nyselly republican skittish over epstein vote close u house early trump ai action plan call for deregulation chatbot free speech merz macron huddle over nato and euus trade row firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close first student awarded nstas go yellow go green award for leadership in advancing zeroemission school transportation best ai phone under r in historic order for usbuilt lng carrier could test new rule iran hit by power protest a oil export surge to million bpd first student awarded nstas go yellow go green award for leadership in advancing zeroemission school transportation forget old meme coin this newcomer below will skyrocket and outperform dogecoin doge walmart is selling a soft summer dress for that flow well is the trump account enough how to maximize your child financial future canadian banc corp financial result to may desktop search traffic see surge in ai chatbot usage north american financial split corp financial result to may fhlbank chicago announces q financial highlight food price follow inflation uptick beef hit record high north american financial split corp financial result to may canadian banc corp financial result to may grant cardone slam california plan to buy fireravaged palisade for lowincome housing say it not just a conspiracy year bond auction see robust demand best logistics stock to buy according to hedge fund delta is using ai for flight pricingheres how to save with credit card landmark wealth management inc acquires share of vanguard sp etf nysearcavoo vanguard sp etf nysearcavoo share acquired by wakefield asset management lllp ames national corp boost stake in vanguard sp etf nysearcavoo canadian life company split corp financial result to may canadian life company split corp financial result to may how leader undermine their own authority macron sue candace owen for defamation for claiming his wife is a man u financial split corp financial result to may jim cramer describes positive and negative force that are shaping market action judge denies trump admin bid to unseal jeffrey epstein grand jury transcript in florida david letterman had something to say after the stephen colbert cancellation iqvia holding iqv snap day loss on higherthanexpected earnings dr horton dhi jump after earnings beat new doubleday diner opening in ballston spa in old route diner spot webull bull soar on a stronger crypto adoption bolster business were raising our price target on ge vernova by after blowout earnings report cnbc were raising our price target on ge vernova by after blowout earnings report pultegroup phm snap day loss on buy reco higher price target hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high cipher mining cifr jump alongside bitcoin ahead of q result trend of equity market is still higher but investor are fighting it piper sandlers craig johnson the gsa just proposed big change that could affect small business contractor dividend split corp financial result to may lucid group lcid soar a vehicle gain access to tesla charger nio nio jump on new vehicle launch quantumscape q gain ground after loss up ahead of q earnings scalise house will deal with epstein issue after august recess if needed skydance pledge to trump fcc itll eliminate dei install ombudsman to root out bias at cbs news candace owen sued by french president over trans claim about wife bryan kohberger speaks just three word when given chance to explain why he killed four idaho college student roy cooper to jump into north carolina senate race monday j w coon advisor llc sell share of johnson johnson nysejnj boyd watterson asset management llc oh buy share of johnson johnson nysejnj the mindful minute by jon heydenreich pick me ups u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage egerton capital uk llp raise holding in eli lilly and company nyselly release the damn file outgoing gop senator slam trump over epstein how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast trump administration violated the law by withholding some head start fund congressional watchdog find live now senate committee examines u diplomatic strategy in the middle east thailand close border crossing with cambodia and recall ambassador a tension flare notis mcconarty edward acquires share of amgen inc nasdaqamgn wakefield asset management lllp acquires share of vanguard sp etf nysearcavoo ames national corp buy share of visa inc nysev spdr gold share nysearcagld share sold by landmark wealth management inc speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released david letterman had something to say after the stephen colbert cancellation speaker johnson vow appropriate action in house if epstein file arent released update trump wa told he is in epstein file wall street journal report update trump wa told he is in epstein file wall street journal report speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released live now senate committee hold hearing on innovation and china industrial espionage u agency warn of surging interlock ransomware attack targeting healthcare business white house blast wall street journal report that trump is in epstein file trump wa told he is in epstein file wall street journal report wespac advisor socal llc grows position in crowdstrike nasdaqcrwd wespac advisor socal llc invests in costco wholesale corporation nasdaqcost replay house armed service committee hold hearing on reforming defense acquisition forbes j m co llp buy share of pepsico inc nasdaqpep gabbard leaving obama admin criminal implication to doj fbi in russia hoax contrived narrative pa gov josh shapiro call supporter of ban on transgender athlete extremist legislator decline to say if hed veto trygve olson cartoon state fair ride susan collins will oppose making trump former lawyer a federal judge jpl wealth management llc ha million stock holding in caterpillar inc nysecat caterpillar inc nysecat share sold by close asset management ltd jpl wealth management llc take position in ishares core sp smallcap etf nysearcaijr youre not imagining it there ha been a bumper crop of special election in minnesota legislature youre not imagining it there ha been a bumper crop of special election in minnesota legislature what trump and pam bondi are doing in new jersey is a bigger deal than you think live now senate judiciary committee hold hearing on ending discrimination and preference steel plant in vances hometown trade clean future for more coal share in palantir technology inc nasdaqpltr purchased by garrison bradford associate inc live now house oversight committee hold hearing on mail theft and crime no there is not a tea bag killer in detroit police say hareholder alert the ma class action firm announces an investigation of susquehanna community financial inc otcmkts sqcf merck co inc nysemrk stock holding decreased by poplar forest capital llc rep robert bresnahan jr purchase share of abbvie inc nyseabbv boyd watterson asset management llc oh acquires share of abbvie inc nyseabbv trump ally lindell win appeal in lawsuit over million election contest mike lawler pass on ny governor run seek reelection in swing seat summit wealth partner llc lower stock position in johnson johnson nysejnj should college athlete be employee house panel say no grand fork to host it firstever pride parade in september bryan kohberger sentenced to life for idaho student killing open retribution alleged a san diegos doj office hit by resignation demotion letter putting tariff on brazil a bad move what we know about the epstein file nebraska sen pete ricketts set to introduce bill streamlining veteran health care famed south african activist get back into fight for hiv med after usaid cut live now house oversight and government reform hearing addressing the crisis of unaccompanied alien childrenpart i doctor pleads guilty to distributing ketamine tied to matthew perry death pelham nh man charged after cat found abandoned in crate outside pet center one year reopening timeline for veteran home in enterprise scoop cooper plan to enter north carolina senate race next week roundview capital llc increase stock position in netflix inc nasdaqnflx salesforce inc nysecrm share sold by ima advisory service inc idaho student murderer bryan kohberger in court to be sentenced alphabet inc nasdaqgoog share sold by close asset management ltd city national bank of florida msd purchase share of alphabet inc nasdaqgoog crowdstrike nasdaqcrwd share purchased by legato capital management llc supreme court permit firing at consumer product safety agency judge sentence bryan kohberger to life in prison in idaho quadruplemurder case rebuilding syria opportunity and challenge of postwar reconstruction new round of russiaukraine talk start in turkey day after trump gave moscow deadline to make peace</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>new commerce split financial result to may prospect of higher indian sugar export weigh on price meta launch new teen safety feature remove account that sexualize child meta launch new teen safety feature remove account that sexualize child new commerce split financial result to may skydance pledge to trump fcc itll eliminate dei install ombudsman to root out bias at cbs news how trump ai plan would cut regulation and speed up adoption stock jump on trump trade deal deluge ahead of big tech earnings whats moving market wednesday cocoa price jump on fear of tighter supply qfscoin launch the most profitable platform for yielding crypto in designed for global investor to earn btc ltc and doge coin united airline cancel all flight to sunny destination offer refund coffee price underpinned by frost concern in brazil procter gamble company the nysepg share bought by j w coon advisor llc poplar forest capital llc sell share of international business machine corporation nyseibm international business machine corporation nyseibm position increased by j w coon advisor llc j w coon advisor llc cut stake in oracle corporation nyseorcl burney co reduces stock position in procter gamble company the nysepg poplar forest capital llc lower position in international business machine corporation nyseibm j w coon advisor llc raise position in international business machine corporation nyseibm hasbro relies on magic to offset impact of tariff prime dividend corp financial result to may best biotech stock to buy according to billionaire steve cohen prime dividend corp financial result to may u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage summit wealth partner llc ha holding in the home depot inc nysehd summit wealth partner llc grows holding in tesla inc nasdaqtsla wedbush security inc purchase share of the home depot inc nysehd wedbush security inc ha million stock position in the home depot inc nysehd egerton capital uk llp raise stock position in eli lilly and company nyselly republican skittish over epstein vote close u house early trump ai action plan call for deregulation chatbot free speech merz macron huddle over nato and euus trade row firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close firsttime homebuyer guide every step detailed from budgeting to close first student awarded nstas go yellow go green award for leadership in advancing zeroemission school transportation best ai phone under r in historic order for usbuilt lng carrier could test new rule iran hit by power protest a oil export surge to million bpd first student awarded nstas go yellow go green award for leadership in advancing zeroemission school transportation forget old meme coin this newcomer below will skyrocket and outperform dogecoin doge walmart is selling a soft summer dress for that flow well is the trump account enough how to maximize your child financial future canadian banc corp financial result to may desktop search traffic see surge in ai chatbot usage north american financial split corp financial result to may fhlbank chicago announces q financial highlight food price follow inflation uptick beef hit record high north american financial split corp financial result to may canadian banc corp financial result to may grant cardone slam california plan to buy fireravaged palisade for lowincome housing say it not just a conspiracy year bond auction see robust demand best logistics stock to buy according to hedge fund delta is using ai for flight pricingheres how to save with credit card landmark wealth management inc acquires share of vanguard sp etf nysearcavoo vanguard sp etf nysearcavoo share acquired by wakefield asset management lllp ames national corp boost stake in vanguard sp etf nysearcavoo canadian life company split corp financial result to may canadian life company split corp financial result to may how leader undermine their own authority macron sue candace owen for defamation for claiming his wife is a man u financial split corp financial result to may jim cramer describes positive and negative force that are shaping market action judge denies trump admin bid to unseal jeffrey epstein grand jury transcript in florida david letterman had something to say after the stephen colbert cancellation iqvia holding iqv snap day loss on higherthanexpected earnings dr horton dhi jump after earnings beat new doubleday diner opening in ballston spa in old route diner spot webull bull soar on a stronger crypto adoption bolster business were raising our price target on ge vernova by after blowout earnings report cnbc were raising our price target on ge vernova by after blowout earnings report pultegroup phm snap day loss on buy reco higher price target hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high hershey and other chocolate maker hike price a cocoa remains near record high cipher mining cifr jump alongside bitcoin ahead of q result trend of equity market is still higher but investor are fighting it piper sandlers craig johnson the gsa just proposed big change that could affect small business contractor dividend split corp financial result to may lucid group lcid soar a vehicle gain access to tesla charger nio nio jump on new vehicle launch quantumscape q gain ground after loss up ahead of q earnings scalise house will deal with epstein issue after august recess if needed skydance pledge to trump fcc itll eliminate dei install ombudsman to root out bias at cbs news candace owen sued by french president over trans claim about wife bryan kohberger speaks just three word when given chance to explain why he killed four idaho college student roy cooper to jump into north carolina senate race monday j w coon advisor llc sell share of johnson johnson nysejnj boyd watterson asset management llc oh buy share of johnson johnson nysejnj the mindful minute by jon heydenreich pick me ups u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage u automaker say trump tariff deal with japan put them at a disadvantage egerton capital uk llp raise holding in eli lilly and company nyselly release the damn file outgoing gop senator slam trump over epstein how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast how can we give feedback that people actually use the ethical life podcast trump administration violated the law by withholding some head start fund congressional watchdog find live now senate committee examines u diplomatic strategy in the middle east thailand close border crossing with cambodia and recall ambassador a tension flare notis mcconarty edward acquires share of amgen inc nasdaqamgn wakefield asset management lllp acquires share of vanguard sp etf nysearcavoo ames national corp buy share of visa inc nysev spdr gold share nysearcagld share sold by landmark wealth management inc speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released david letterman had something to say after the stephen colbert cancellation speaker johnson vow appropriate action in house if epstein file arent released update trump wa told he is in epstein file wall street journal report update trump wa told he is in epstein file wall street journal report speaker johnson vow appropriate action in house if epstein file arent released speaker johnson vow appropriate action in house if epstein file arent released live now senate committee hold hearing on innovation and china industrial espionage u agency warn of surging interlock ransomware attack targeting healthcare business white house blast wall street journal report that trump is in epstein file trump wa told he is in epstein file wall street journal report wespac advisor socal llc grows position in crowdstrike nasdaqcrwd wespac advisor socal llc invests in costco wholesale corporation nasdaqcost replay house armed service committee hold hearing on reforming defense acquisition forbes j m co llp buy share of pepsico inc nasdaqpep gabbard leaving obama admin criminal implication to doj fbi in russia hoax contrived narrative pa gov josh shapiro call supporter of ban on transgender athlete extremist legislator decline to say if hed veto trygve olson cartoon state fair ride susan collins will oppose making trump former lawyer a federal judge jpl wealth management llc ha million stock holding in caterpillar inc nysecat caterpillar inc nysecat share sold by close asset management ltd jpl wealth management llc take position in ishares core sp smallcap etf nysearcaijr youre not imagining it there ha been a bumper crop of special election in minnesota legislature youre not imagining it there ha been a bumper crop of special election in minnesota legislature what trump and pam bondi are doing in new jersey is a bigger deal than you think live now senate judiciary committee hold hearing on ending discrimination and preference steel plant in vances hometown trade clean future for more coal share in palantir technology inc nasdaqpltr purchased by garrison bradford associate inc live now house oversight committee hold hearing on mail theft and crime no there is not a tea bag killer in detroit police say hareholder alert the ma class action firm announces an investigation of susquehanna community financial inc otcmkts sqcf merck co inc nysemrk stock holding decreased by poplar forest capital llc rep robert bresnahan jr purchase share of abbvie inc nyseabbv boyd watterson asset management llc oh acquires share of abbvie inc nyseabbv trump ally lindell win appeal in lawsuit over million election contest mike lawler pass on ny governor run seek reelection in swing seat summit wealth partner llc lower stock position in johnson johnson nysejnj should college athlete be employee house panel say no grand fork to host it firstever pride parade in september bryan kohberger sentenced to life for idaho student killing open retribution alleged a san diegos doj office hit by resignation demotion letter putting tariff on brazil a bad move what we know about the epstein file nebraska sen pete ricketts set to introduce bill streamlining veteran health care famed south african activist get back into fight for hiv med after usaid cut live now house oversight and government reform hearing addressing the crisis of unaccompanied alien childrenpart i doctor pleads guilty to distributing ketamine tied to matthew perry death pelham nh man charged after cat found abandoned in crate outside pet center one year reopening timeline for veteran home in enterprise scoop cooper plan to enter north carolina senate race next week roundview capital llc increase stock position in netflix inc nasdaqnflx salesforce inc nysecrm share sold by ima advisory service inc idaho student murderer bryan kohberger in court to be sentenced alphabet inc nasdaqgoog share sold by close asset management ltd city national bank of florida msd purchase share of alphabet inc nasdaqgoog crowdstrike nasdaqcrwd share purchased by legato capital management llc supreme court permit firing at consumer product safety agency judge sentence bryan kohberger to life in prison in idaho quadruplemurder case rebuilding syria opportunity and challenge of postwar reconstruction new round of russiaukraine talk start in turkey day after trump gave moscow deadline to make peace</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9974</v>
+      </c>
+      <c r="O22" t="n">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>168</v>
+      </c>
+      <c r="S22" t="n">
+        <v>94</v>
+      </c>
+      <c r="T22" t="n">
+        <v>215</v>
+      </c>
+      <c r="U22" t="n">
+        <v>115</v>
+      </c>
+      <c r="V22" t="n">
+        <v>28</v>
+      </c>
+      <c r="W22" t="n">
+        <v>46</v>
+      </c>
+      <c r="X22" t="n">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -2122,7 +2122,7 @@
         <v>6368.60009765625</v>
       </c>
       <c r="F22" t="n">
-        <v>3364122000</v>
+        <v>5282720000</v>
       </c>
       <c r="G22" t="n">
         <v>0.0006982236416543</v>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,6 +2183,84 @@
         <v>101</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6388.64013671875</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6395.81982421875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6368.52978515625</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6370.009765625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4470720000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0039743277792958</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>mueller industry inc nysemli share sold by convergence investment partner llc convergence investment partner llc sell share of commvault system inc nasdaqcvlt kimberly s greene sell share of southern company the nyseso stock kellanova k to release earnings on thursday oak thistle llc ha million stake in booking holding inc nasdaqbkng venturi wealth management llc ha million stake in ishares core sp midcap etf nysearcaijh share in quidelortho corporation nasdaqqdel purchased by sym financial corp ishares msci eafe growth etf batsefg stake lowered by venturi wealth management llc venturi wealth management llc increase stock position in spotify technology nysespot venturi wealth management llc buy share of cullenfrost banker inc nysecfr arista network inc nyseanet share sold by venturi wealth management llc y intercept hong kong ltd lower stock holding in the traveler company inc nysetrv y intercept hong kong ltd invests million in moody corporation nysemco venturi wealth management llc buy share of valmont industry inc nysevmi globe life inc nysegl position lifted by venturi wealth management llc venturi wealth management llc sell share of ishares mb etf nasdaqmbb venturi wealth management llc purchase share of brookfield corporation nysebn sym financial corp make new investment in cv health corporation nysecvs share in ugi corporation nyseugi purchased by sym financial corp venturi wealth management llc purchase share of armstrong world industry inc nyseawi universal beteiligungs und servicegesellschaft mbh purchase share of biogen inc nasdaqbiib universal beteiligungs und servicegesellschaft mbh sell share of cognizant technology solution corporation nasdaqctsh venturi wealth management llc ha million stock position in reliance inc nysers universal beteiligungs und servicegesellschaft mbh ha million stock position in biogen inc nasdaqbiib venturi wealth management llc raise holding in lharris technology inc nyselhx venturi wealth management llc trim stake in ishares u technology etf nysearcaiyw sym financial corp purchase share of ugi corporation nyseugi venturi wealth management llc raise stock position in valmont industry inc nysevmi y intercept hong kong ltd sell share of synopsys inc nasdaqsnps intel corporation nasdaqintc share sold by sym financial corp brookfield corporation nysebn stock holding lifted by venturi wealth management llc y intercept hong kong ltd purchase share of vanguard mega cap growth etf nysearcamgk sym financial corp ha stock holding in philip morris international inc nysepm lincoln national corporation nyselnc share acquired by sym financial corp venturi wealth management llc ha position in armstrong world industry inc nyseawi sym financial corp ha stock position in steel dynamic inc nasdaqstld venturi wealth management llc lower stake in morgan stanley nysems cognizant technology solution corporation nasdaqctsh share sold by universal beteiligungs und servicegesellschaft mbh cullenfrost banker inc nysecfr share acquired by venturi wealth management llc mcdonalds to test cosmcsinspired drink at more than restaurant pfg advisor ha million stake in altshares merger arbitrage etf nysearcaarb choreo llc reduces stock position in first financial bancorp nasdaqffbc pfg advisor buy share of ishares year treasury bond etf nasdaqshy choreo llc sell share of brown brown inc nysebro t rowe price u high yield etf nysearcathyf stake raised by pfg advisor american international group inc nyseaig holding lowered by choreo llc choreo llc decrease stake in ishares year tip bond etf nysearcastip danaher corporation nysedhr share sold by choreo llc y intercept hong kong ltd acquires share of tetra tech inc nasdaqttek schwab u midcap etf nysearcaschm stock position lowered by choreo llc choreo llc ha million stock position in spdr dow jones industrial average etf trust nysearcadia the pnc financial service group inc nysepnc share sold by choreo llc choreo llc cut stake in autozone inc nyseazo equinix inc nasdaqeqix share purchased by pfg advisor y intercept hong kong ltd take million position in tyson food inc nysetsn choreo llc sell share of dr horton inc nysedhi y intercept hong kong ltd cut stake in nrg energy inc nysenrg ishares esg aware msci eafe etf nasdaqesgd share sold by choreo llc choreo llc ha million position in darden restaurant inc nysedri highpoint advisor group llc lower stake in tetra tech inc nasdaqttek choreo llc ha million stock holding in vanguard dividend appreciation etf nysearcavig choreo llc sell share of parkerhannifin corporation nyseph y intercept hong kong ltd acquires share of axon enterprise inc nasdaqaxon choreo llc sell share of occidental petroleum corporation nyseoxy choreo llc grows stake in micron technology inc nasdaqmu y intercept hong kong ltd boost stake in eastman chemical company nyseemn share in eagle bancorp inc nasdaqegbn purchased by readystate asset management lp readystate asset management lp take position in cnx resource corporation nysecnx readystate asset management lp purchase share of cnx resource corporation nysecnx y intercept hong kong ltd sell share of illumina inc nasdaqilmn best ai video generation tool keysight technology q earnings what to expect nvidia address ai chip smuggling say bootleg datacenters are a losing proposition want to sound more assertive ditch this word phrase say trial lawyer and communication expert readystate asset management lp take position in western asset high yield defined opportunity fund inc nysehyi ishares tip bond etf nysearcatip share purchased by proficio capital partner llc readystate asset management lp increase stock holding in american axle manufacturing holding inc nyseaxl readystate asset management lp ha position in nov inc nysenov proficio capital partner llc decrease holding in novartis ag nysenvs proficio capital partner llc sell share of kimberlyclark co nysekmb share in franklin limited duration income trust nyseamericanftf purchased by readystate asset management lp klp kapitalforvaltning a increase stock position in old dominion freight line inc nasdaqodfl proficio capital partner llc ha stock holding in otis worldwide corporation nyseotis readystate asset management lp grows position in halliburton company nysehal united parcel service inc nyseups share bought by proficio capital partner llc proficio capital partner llc sell share of unum group nyseunm share in rogers communication inc nyserci bought by proficio capital partner llc proficio capital partner llc ha stake in under armour inc nyseuaa readystate asset management lp acquires share of halliburton company nysehal readystate asset management lp take position in columbia banking system inc nasdaqcolb proficio capital partner llc increase stake in united parcel service inc nyseups proficio capital partner llc purchase share of rogers communication inc nyserci proficio capital partner llc sell share of exlservice holding inc nasdaqexls proficio capital partner llc ha position in mondelez international inc nasdaqmdlz medpace holding inc nasdaqmedp share purchased by proficio capital partner llc readystate asset management lp take position in virtu total return fund inc nyseztr proficio capital partner llc sell share of mondelez international inc nasdaqmdlz proficio capital partner llc purchase share of norfolk southern corporation nysensc proficio capital partner llc sell share of nisource inc nyseni proficio capital partner llc ha stake in norfolk southern corporation nysensc which fabric name is used for the tissue that grows on deer antler k street rake in record cash thanks to trump rnc chair michael whatley to run for senate in north carolina with trump support politico lowell city council move toward a green energy future venturi wealth management llc reduces stock position in ishares u technology etf nysearcaiyw sym financial corp purchase new share in draftkings inc nasdaqdkng venturi wealth management llc grows position in amdocs limited nasdaqdox venturi wealth management llc ha holding in lyft inc nasdaqlyft sym financial corp ha stake in steel dynamic inc nasdaqstld venturi wealth management llc ha stock holding in lharris technology inc nyselhx sym financial corp make new investment in axis capital holding limited nyseaxs sym financial corp reduces stake in intel corporation nasdaqintc sym financial corp acquires share of lincoln national corporation nyselnc y intercept hong kong ltd increase position in raymond james financial inc nyserjf universal beteiligungs und servicegesellschaft mbh cut stock holding in dell technology inc nysedell venturi wealth management llc sell share of morgan stanley nysems philip morris international inc nysepm share sold by sym financial corp universal beteiligungs und servicegesellschaft mbh ha million stock holding in royal caribbean cruise ltd nysercl y intercept hong kong ltd sell share of synopsys inc nasdaqsnps readystate asset management lp invests in fulton financial corporation nasdaqfult y intercept hong kong ltd ha million stock holding in illumina inc nasdaqilmn trump set to head to fed keeping heat on chair jerome powell letter democracy alive and well under trump readystate asset management lp invests in columbia banking system inc nasdaqcolb proficio capital partner llc sell share of genuine part company nysegpc klp kapitalforvaltning a cut position in electronic art inc nasdaqea readystate asset management lp purchase new holding in virtu total return fund inc nyseztr proficio capital partner llc ha stock position in seritage growth property nysesrg proficio capital partner llc purchase share of medpace holding inc nasdaqmedp exlservice holding inc nasdaqexls share sold by proficio capital partner llc proficio capital partner llc ha holding in crowdstrike nasdaqcrwd klp kapitalforvaltning a ha million stock position in lennar corporation nyselen jeffrey p kenefick purchase share of chemung financial corp nasdaqchmg stock klp kapitalforvaltning a acquires share of coinbase global inc nasdaqcoin insider buying ioneer ltd asxinr insider purchase a in stock klp kapitalforvaltning a boost holding in sea limited sponsored adr nysese klp kapitalforvaltning a increase stock position in t rowe price group inc nasdaqtrow nxt energy solution inc tsesfd insider sell c in stock insider buying innovator u equity ultra buffer etf november batsunov ceo buy in stock moishe gubin buy share of strawberry field reit inc nasdaqstrw stock netapp inc nasdaqntap share sold by klp kapitalforvaltning a letter duty to care for the poor contrasting paysign nasdaqpays and evertec nyseevtc kinross gold fy eps forecast boosted by stifel canada viking nysevik price target raised to ross store nasdaqrost stock unloaded rep jefferson shreve brokerage set prologis inc nysepld price target at ge aerospace nysege stock unloaded rep jefferson shreve akamai technology nasdaqakam stock unloaded rep jefferson shreve brokerage set juniper network inc nysejnpr price target at q eps estimate for formation mnrls lowered by analyst wixcom ltd nasdaqwix stock holding lessened by legato capital management llc jpmorgan betabuilders japan etf batsbbjp stock holding decreased by madison asset management llc madison asset management llc ha million stock holding in canadian pacific kansa city limited nysecp richardson financial service inc buy new stake in vaneck clo etf nysearcacloi richardson financial service inc cut position in fiserv inc nysefi blackline nasdaqbl stock rating upgraded by da davidson advisor preferred llc take position in the sherwinwilliams company nyseshw legato capital management llc increase stake in spartannash company nasdaqsptn fortis nysefts raised to moderate buy at raymond james financial ralliant nyseral stock rating upgraded by melius research krispy kreme nasdaqdnut upgraded at bnp paribas shake shack shak projected to post quarterly earnings on thursday comparing sma solar technology smtgf and it rival intercontinental hotel group plc lonihg receives consensus recommendation of reduce from analyst contrasting international consolidated airline group otcmktsicagy joby aviation nysejoby hercules capital htgc expected to announce earnings on thursday vericel vcel expected to announce quarterly earnings on thursday fubotv nysefubo and fox nasdaqfox head to head contrast leggett platt leg projected to post earnings on thursday teleflex tfx projected to post quarterly earnings on thursday bayerische motoren werke otcmktsbamxf and nio nysenio financial analysis patrick industry patk projected to post quarterly earnings on thursday dcf claim protocol followed in case of ct boy allegedly held captive gop condemns wait for answer ukraine zelenskyy promise safeguard after street protest over a new anticorruption law ukraine zelenskyy promise safeguard after street protest over a new anticorruption law ukraine zelenskyy promise safeguard after street protest over a new anticorruption law sylogist tsesyz trading up whats next heatwurx nasdaqpcsa share down here what happened proshares ultra vix shortterm future etf batsuvxy trading down here why fundamental global nasdaqfgf stock price down should you sell ct eventim ag co kgaa otcmktscevmf trading higher whats next bosideng international otcmktsbsdgy share down time to sell health science acquisition co nasdaqhsaq stock price up time to buy turk hava yollari anonim ortakligi otcmktstkhvy stock price up should you buy letter another blow dealt against common sense share in hilton grand vacation inc nysehgv purchased by readystate asset management lp share in docusign inc nasdaqdocu bought by efficient advisor llc oak thistle llc ha million stock holding in motorola solution inc nysemsi oak thistle llc buy new position in dynatrace inc nysedt efficient advisor llc buy share of vanguard information technology etf nysearcavgt readystate asset management lp cut stock holding in blackrock capital allocation term trust nysebcat oak thistle llc acquires share of texas roadhouse inc nasdaqtxrh oak thistle llc take position in state street corporation nysestt share in packaging corporation of america nysepkg bought by oak thistle llc oak thistle llc invests million in simpson manufacturing company inc nysessd sym financial corp purchase share of marathon petroleum corporation nysempc oak thistle llc purchase new share in slm corporation nasdaqslm oak thistle llc grows position in viper energy inc nasdaqvnom readystate asset management lp invests in dime community bancshares inc nasdaqdcom south park inadvertently sends liberal conspiracy theory crashing to earth lawyer call fraud on bellring brand but one analyst is optimistic blackstone griddle are up to off during wayfairs black friday in july sale this major retailer is moving into staten island mall empty forever space nuvei debut tool to boost merchant authorization rate irs considers eliminating nonenglish language tax service oxford gray north america corp oxford gray recently filed breach of contract lawsuit for over million against austin texasbased company fintiv also known a mozido owned and led by michael liberty liberty cnbc daily open tesla bad thing come in three brompton fund declares increased etf distribution high dividend bdcs with yield over deltec home launch tranquility a new round hurricaneready home designed for resilience and inspired living bankrupt mexican restaurant chain reopens location after mass closure deltec home launch tranquility a new round hurricaneready home designed for resilience and inspired living bankrupt mexican restaurant chain reopens location after mass closure brookwood investment group llc buy new share in bank of america corporation nysebac brookwood investment group llc invests million in bank of america corporation nysebac nvidia ceo say trump ai plan will fundamentally change u position in year to come mike johnson perfectly explains the flaw in the gop ghislaine maxwell gambit how hulk hogan helped transform pro wrestling from a sideshow to the main event blue ribbon income fund announces monthly distribution federal reserve give journalist a rare tour of building renovation ahead of trump visit federal reserve give journalist a rare tour of building renovation ahead of trump visit unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating blue ribbon income fund announces monthly distribution unitedhealth say it is under a federal investigation and cooperating brompton wellington square aaa clo etf declares distribution wesbanco inc expands presence in northern virginia with commercial loan production office invent inventor develops newly designed head covering plb brompton wellington square aaa clo etf declares distribution construction advance at future johnson city postal center featured to try on your new perplexity pro subscription lake babine nation and west fraser partnership strengthens bcs forest sector inventhelp inventor develops new accessory for roulette player lgt union pacific and norfolk southern confirm merger talk to create coast to coast railroad shenandoah county winery feel squeeze of tariff amplifys ongoing commitment to the pennsylvania association for justice a a justice business partner wesbanco inc expands presence in northern virginia with commercial loan production office construction advance at future johnson city postal center onalaska applebees pair with ihop steve cahalan this health care stock forming a big base breakout is ready to separate from the pack chart indicate why the u fertility rate ha hit an alltime low ibd live qa recap and key stock list for july tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record feel trapped in a subscription here are your legal right morling financial advisor llc ha million holding in spdr portfolio sp etf nysearcasplg vanguard total stock market etf nysearcavti stock position boosted by morling financial advisor llc america going to win ai race against china trump declares a meta executive applauds strategy how the fed is managing payment new gps kansa city radio station reeling from federal funding cut slash and burn microsoft ceo satya nadella finally address the elephant in the room kind of why is the fed renovation so expensive staff cite tariff and inflation demand optimism lift sugar price pegasystems affirms outlook a cloud strategy power momentum call it the sydney sweeney effect american eagle latest campaign take flight pilgrim to build food plant in northwest georgia ai infrastructure engineer cisco journey strategic wealth llc raise stake in eli lilly and company nyselly eli lilly and company nyselly share bought by sfe investment counsel atrium investment inc buy share of tesla inc nasdaqtsla rtx nysertx post quarterly earnings result beat estimate by eps bg investment service inc acquires share of tesla inc nasdaqtsla ishares msci usa quality factor etf batsqual share sold by benningfield financial advisor llc ninepoint partner lp ha stock holding in eli lilly and company nyselly rtx nysertx update fy earnings guidance northern financial advisor inc increase stake in rtx corporation nysertx northern financial advisor inc sell share of lockheed martin corporation nyselmt birchcreek wealth management llc decrease stock position in invesco qqq nasdaqqqq energy stock worth watching july nd principle wealth partner llc sell share of caterpillar inc nysecat journey strategic wealth llc raise holding in tesla inc nasdaqtsla promising solar stock to follow today july nd diamond hill capital management inc acquires new share in salesforce inc nysecrm share in eli lilly and company nyselly purchased by bg investment service inc invesco qqq nasdaqqqq share sold by journey strategic wealth llc northern financial advisor inc acquires share of rtx corporation nysertx best electric vehicle stock to consider july nd collier list former rite aid location poppi settle class action lawsuit for million poppi settle class action lawsuit for million poppi settle class action lawsuit for million poppi settle class action lawsuit for million cocoa price finish sharply lower a chocolate demand wane unemployment claim in indiana increased last week why your childhood snack are back on shelf cortez community now accepts cryptocurrency from home buyer the latest u cut short gaza ceasefire talk blaming hamas the latest u cut short gaza ceasefire talk blaming hamas the latest u cut short gaza ceasefire talk blaming hamas chicharito face backlash in mexico for very sexist remark on gender role porn racist video force nj election meeting to end a hacker take over gov tony evers announces we wont seek a third term live now texas house hold hearing on congressional redistricting trouble buying it expert warns trump close to triggering second schism with maga base street bordering civic center park to close for red rally activity trump visiting federal reserve amid pressure on powell to cut interest rate humboldt county making progress on ada improvement trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank mike johnson perfectly explains the flaw in the gop ghislaine maxwell gambit poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling ap news summary at pm edt ap news summary at pm edt u cut short it gaza ceasefire talk and accuses hamas of lacking good faith ghislaine maxwell leaf maximum security florida jail ahead of productive doj meeting federal reserve give journalist a rare tour of building renovation ahead of trump visit eye wide shut hulk hogan became one of trump biggest supporter at rnc after dumping the democrat over a petty slight bar nunn city council hears opposition support for radiant project million of dollar in education funding for minnesota school remain in limbo ahead of school year million of dollar in education funding for minnesota school remain in limbo ahead of school year million of dollar in education funding for minnesota school remain in limbo ahead of school year trump to sign order pushing city and state to remove homeless people from street a list of sport organization that have begun transgender competition ban honor the miracle on ice u olympic team with congressional gold medal a list of sport organization that have begun transgender competition ban zelenskyy move to restore independence of antigraft agency after public anger and eu criticism exbiden chief of staff ron klain cooperative with house gop probe of prezs mental decline national night out returning oct neighborhood invited to register video showing migrant worker moved by forklift prompt action from south korea president pathetic dem rep charged with interfering with ice resort to the only card she ha left top gop lawmaker demand soulsearching from dems amid antiice riot targeting law enforcement alabamian ask prison committee for change in living condition safety standard around the region july best electric vehicle stock to consider july nd oped we support plan for oneway street bus service bike lane and infrastructure why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find ap news summary at pm edt ap news summary at pm edt u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith california law requiring background check for ammo is unconstitutional appeal court rule u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith why havent epstein file been released most american agree on answer poll find declassified intel bombshell cia officer fought brennan on russia collusion doc but he overruled them hindsight is ethic commission investigates oregon housing adviser the dangerous illusion of friendship with qatar and other hostile ally wisconsin dem gov tony evers wont seek third term prediction market forecast socialist landslide for nyc mayor race trump mourns death of hulk hogan he wa maga all the way trump mourns death of hulk hogan he wa maga all the way u recall negotiating team a prospect for a gaza ceasefire dim and humanitarian situation get worse mid america steel employee dy after workplace incident</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mueller industry inc nysemli share sold by convergence investment partner llc convergence investment partner llc sell share of commvault system inc nasdaqcvlt kimberly s greene sell share of southern company the nyseso stock kellanova k to release earnings on thursday oak thistle llc ha million stake in booking holding inc nasdaqbkng venturi wealth management llc ha million stake in ishares core sp midcap etf nysearcaijh share in quidelortho corporation nasdaqqdel purchased by sym financial corp ishares msci eafe growth etf batsefg stake lowered by venturi wealth management llc venturi wealth management llc increase stock position in spotify technology nysespot venturi wealth management llc buy share of cullenfrost banker inc nysecfr arista network inc nyseanet share sold by venturi wealth management llc y intercept hong kong ltd lower stock holding in the traveler company inc nysetrv y intercept hong kong ltd invests million in moody corporation nysemco venturi wealth management llc buy share of valmont industry inc nysevmi globe life inc nysegl position lifted by venturi wealth management llc venturi wealth management llc sell share of ishares mb etf nasdaqmbb venturi wealth management llc purchase share of brookfield corporation nysebn sym financial corp make new investment in cv health corporation nysecvs share in ugi corporation nyseugi purchased by sym financial corp venturi wealth management llc purchase share of armstrong world industry inc nyseawi universal beteiligungs und servicegesellschaft mbh purchase share of biogen inc nasdaqbiib universal beteiligungs und servicegesellschaft mbh sell share of cognizant technology solution corporation nasdaqctsh venturi wealth management llc ha million stock position in reliance inc nysers universal beteiligungs und servicegesellschaft mbh ha million stock position in biogen inc nasdaqbiib venturi wealth management llc raise holding in lharris technology inc nyselhx venturi wealth management llc trim stake in ishares u technology etf nysearcaiyw sym financial corp purchase share of ugi corporation nyseugi venturi wealth management llc raise stock position in valmont industry inc nysevmi y intercept hong kong ltd sell share of synopsys inc nasdaqsnps intel corporation nasdaqintc share sold by sym financial corp brookfield corporation nysebn stock holding lifted by venturi wealth management llc y intercept hong kong ltd purchase share of vanguard mega cap growth etf nysearcamgk sym financial corp ha stock holding in philip morris international inc nysepm lincoln national corporation nyselnc share acquired by sym financial corp venturi wealth management llc ha position in armstrong world industry inc nyseawi sym financial corp ha stock position in steel dynamic inc nasdaqstld venturi wealth management llc lower stake in morgan stanley nysems cognizant technology solution corporation nasdaqctsh share sold by universal beteiligungs und servicegesellschaft mbh cullenfrost banker inc nysecfr share acquired by venturi wealth management llc mcdonalds to test cosmcsinspired drink at more than restaurant pfg advisor ha million stake in altshares merger arbitrage etf nysearcaarb choreo llc reduces stock position in first financial bancorp nasdaqffbc pfg advisor buy share of ishares year treasury bond etf nasdaqshy choreo llc sell share of brown brown inc nysebro t rowe price u high yield etf nysearcathyf stake raised by pfg advisor american international group inc nyseaig holding lowered by choreo llc choreo llc decrease stake in ishares year tip bond etf nysearcastip danaher corporation nysedhr share sold by choreo llc y intercept hong kong ltd acquires share of tetra tech inc nasdaqttek schwab u midcap etf nysearcaschm stock position lowered by choreo llc choreo llc ha million stock position in spdr dow jones industrial average etf trust nysearcadia the pnc financial service group inc nysepnc share sold by choreo llc choreo llc cut stake in autozone inc nyseazo equinix inc nasdaqeqix share purchased by pfg advisor y intercept hong kong ltd take million position in tyson food inc nysetsn choreo llc sell share of dr horton inc nysedhi y intercept hong kong ltd cut stake in nrg energy inc nysenrg ishares esg aware msci eafe etf nasdaqesgd share sold by choreo llc choreo llc ha million position in darden restaurant inc nysedri highpoint advisor group llc lower stake in tetra tech inc nasdaqttek choreo llc ha million stock holding in vanguard dividend appreciation etf nysearcavig choreo llc sell share of parkerhannifin corporation nyseph y intercept hong kong ltd acquires share of axon enterprise inc nasdaqaxon choreo llc sell share of occidental petroleum corporation nyseoxy choreo llc grows stake in micron technology inc nasdaqmu y intercept hong kong ltd boost stake in eastman chemical company nyseemn share in eagle bancorp inc nasdaqegbn purchased by readystate asset management lp readystate asset management lp take position in cnx resource corporation nysecnx readystate asset management lp purchase share of cnx resource corporation nysecnx y intercept hong kong ltd sell share of illumina inc nasdaqilmn best ai video generation tool keysight technology q earnings what to expect nvidia address ai chip smuggling say bootleg datacenters are a losing proposition want to sound more assertive ditch this word phrase say trial lawyer and communication expert readystate asset management lp take position in western asset high yield defined opportunity fund inc nysehyi ishares tip bond etf nysearcatip share purchased by proficio capital partner llc readystate asset management lp increase stock holding in american axle manufacturing holding inc nyseaxl readystate asset management lp ha position in nov inc nysenov proficio capital partner llc decrease holding in novartis ag nysenvs proficio capital partner llc sell share of kimberlyclark co nysekmb share in franklin limited duration income trust nyseamericanftf purchased by readystate asset management lp klp kapitalforvaltning a increase stock position in old dominion freight line inc nasdaqodfl proficio capital partner llc ha stock holding in otis worldwide corporation nyseotis readystate asset management lp grows position in halliburton company nysehal united parcel service inc nyseups share bought by proficio capital partner llc proficio capital partner llc sell share of unum group nyseunm share in rogers communication inc nyserci bought by proficio capital partner llc proficio capital partner llc ha stake in under armour inc nyseuaa readystate asset management lp acquires share of halliburton company nysehal readystate asset management lp take position in columbia banking system inc nasdaqcolb proficio capital partner llc increase stake in united parcel service inc nyseups proficio capital partner llc purchase share of rogers communication inc nyserci proficio capital partner llc sell share of exlservice holding inc nasdaqexls proficio capital partner llc ha position in mondelez international inc nasdaqmdlz medpace holding inc nasdaqmedp share purchased by proficio capital partner llc readystate asset management lp take position in virtu total return fund inc nyseztr proficio capital partner llc sell share of mondelez international inc nasdaqmdlz proficio capital partner llc purchase share of norfolk southern corporation nysensc proficio capital partner llc sell share of nisource inc nyseni proficio capital partner llc ha stake in norfolk southern corporation nysensc which fabric name is used for the tissue that grows on deer antler k street rake in record cash thanks to trump rnc chair michael whatley to run for senate in north carolina with trump support politico lowell city council move toward a green energy future venturi wealth management llc reduces stock position in ishares u technology etf nysearcaiyw sym financial corp purchase new share in draftkings inc nasdaqdkng venturi wealth management llc grows position in amdocs limited nasdaqdox venturi wealth management llc ha holding in lyft inc nasdaqlyft sym financial corp ha stake in steel dynamic inc nasdaqstld venturi wealth management llc ha stock holding in lharris technology inc nyselhx sym financial corp make new investment in axis capital holding limited nyseaxs sym financial corp reduces stake in intel corporation nasdaqintc sym financial corp acquires share of lincoln national corporation nyselnc y intercept hong kong ltd increase position in raymond james financial inc nyserjf universal beteiligungs und servicegesellschaft mbh cut stock holding in dell technology inc nysedell venturi wealth management llc sell share of morgan stanley nysems philip morris international inc nysepm share sold by sym financial corp universal beteiligungs und servicegesellschaft mbh ha million stock holding in royal caribbean cruise ltd nysercl y intercept hong kong ltd sell share of synopsys inc nasdaqsnps readystate asset management lp invests in fulton financial corporation nasdaqfult y intercept hong kong ltd ha million stock holding in illumina inc nasdaqilmn trump set to head to fed keeping heat on chair jerome powell letter democracy alive and well under trump readystate asset management lp invests in columbia banking system inc nasdaqcolb proficio capital partner llc sell share of genuine part company nysegpc klp kapitalforvaltning a cut position in electronic art inc nasdaqea readystate asset management lp purchase new holding in virtu total return fund inc nyseztr proficio capital partner llc ha stock position in seritage growth property nysesrg proficio capital partner llc purchase share of medpace holding inc nasdaqmedp exlservice holding inc nasdaqexls share sold by proficio capital partner llc proficio capital partner llc ha holding in crowdstrike nasdaqcrwd klp kapitalforvaltning a ha million stock position in lennar corporation nyselen jeffrey p kenefick purchase share of chemung financial corp nasdaqchmg stock klp kapitalforvaltning a acquires share of coinbase global inc nasdaqcoin insider buying ioneer ltd asxinr insider purchase a in stock klp kapitalforvaltning a boost holding in sea limited sponsored adr nysese klp kapitalforvaltning a increase stock position in t rowe price group inc nasdaqtrow nxt energy solution inc tsesfd insider sell c in stock insider buying innovator u equity ultra buffer etf november batsunov ceo buy in stock moishe gubin buy share of strawberry field reit inc nasdaqstrw stock netapp inc nasdaqntap share sold by klp kapitalforvaltning a letter duty to care for the poor contrasting paysign nasdaqpays and evertec nyseevtc kinross gold fy eps forecast boosted by stifel canada viking nysevik price target raised to ross store nasdaqrost stock unloaded rep jefferson shreve brokerage set prologis inc nysepld price target at ge aerospace nysege stock unloaded rep jefferson shreve akamai technology nasdaqakam stock unloaded rep jefferson shreve brokerage set juniper network inc nysejnpr price target at q eps estimate for formation mnrls lowered by analyst wixcom ltd nasdaqwix stock holding lessened by legato capital management llc jpmorgan betabuilders japan etf batsbbjp stock holding decreased by madison asset management llc madison asset management llc ha million stock holding in canadian pacific kansa city limited nysecp richardson financial service inc buy new stake in vaneck clo etf nysearcacloi richardson financial service inc cut position in fiserv inc nysefi blackline nasdaqbl stock rating upgraded by da davidson advisor preferred llc take position in the sherwinwilliams company nyseshw legato capital management llc increase stake in spartannash company nasdaqsptn fortis nysefts raised to moderate buy at raymond james financial ralliant nyseral stock rating upgraded by melius research krispy kreme nasdaqdnut upgraded at bnp paribas shake shack shak projected to post quarterly earnings on thursday comparing sma solar technology smtgf and it rival intercontinental hotel group plc lonihg receives consensus recommendation of reduce from analyst contrasting international consolidated airline group otcmktsicagy joby aviation nysejoby hercules capital htgc expected to announce earnings on thursday vericel vcel expected to announce quarterly earnings on thursday fubotv nysefubo and fox nasdaqfox head to head contrast leggett platt leg projected to post earnings on thursday teleflex tfx projected to post quarterly earnings on thursday bayerische motoren werke otcmktsbamxf and nio nysenio financial analysis patrick industry patk projected to post quarterly earnings on thursday dcf claim protocol followed in case of ct boy allegedly held captive gop condemns wait for answer ukraine zelenskyy promise safeguard after street protest over a new anticorruption law ukraine zelenskyy promise safeguard after street protest over a new anticorruption law ukraine zelenskyy promise safeguard after street protest over a new anticorruption law sylogist tsesyz trading up whats next heatwurx nasdaqpcsa share down here what happened proshares ultra vix shortterm future etf batsuvxy trading down here why fundamental global nasdaqfgf stock price down should you sell ct eventim ag co kgaa otcmktscevmf trading higher whats next bosideng international otcmktsbsdgy share down time to sell health science acquisition co nasdaqhsaq stock price up time to buy turk hava yollari anonim ortakligi otcmktstkhvy stock price up should you buy letter another blow dealt against common sense share in hilton grand vacation inc nysehgv purchased by readystate asset management lp share in docusign inc nasdaqdocu bought by efficient advisor llc oak thistle llc ha million stock holding in motorola solution inc nysemsi oak thistle llc buy new position in dynatrace inc nysedt efficient advisor llc buy share of vanguard information technology etf nysearcavgt readystate asset management lp cut stock holding in blackrock capital allocation term trust nysebcat oak thistle llc acquires share of texas roadhouse inc nasdaqtxrh oak thistle llc take position in state street corporation nysestt share in packaging corporation of america nysepkg bought by oak thistle llc oak thistle llc invests million in simpson manufacturing company inc nysessd sym financial corp purchase share of marathon petroleum corporation nysempc oak thistle llc purchase new share in slm corporation nasdaqslm oak thistle llc grows position in viper energy inc nasdaqvnom readystate asset management lp invests in dime community bancshares inc nasdaqdcom south park inadvertently sends liberal conspiracy theory crashing to earth lawyer call fraud on bellring brand but one analyst is optimistic blackstone griddle are up to off during wayfairs black friday in july sale this major retailer is moving into staten island mall empty forever space nuvei debut tool to boost merchant authorization rate irs considers eliminating nonenglish language tax service oxford gray north america corp oxford gray recently filed breach of contract lawsuit for over million against austin texasbased company fintiv also known a mozido owned and led by michael liberty liberty cnbc daily open tesla bad thing come in three brompton fund declares increased etf distribution high dividend bdcs with yield over deltec home launch tranquility a new round hurricaneready home designed for resilience and inspired living bankrupt mexican restaurant chain reopens location after mass closure deltec home launch tranquility a new round hurricaneready home designed for resilience and inspired living bankrupt mexican restaurant chain reopens location after mass closure brookwood investment group llc buy new share in bank of america corporation nysebac brookwood investment group llc invests million in bank of america corporation nysebac nvidia ceo say trump ai plan will fundamentally change u position in year to come mike johnson perfectly explains the flaw in the gop ghislaine maxwell gambit how hulk hogan helped transform pro wrestling from a sideshow to the main event blue ribbon income fund announces monthly distribution federal reserve give journalist a rare tour of building renovation ahead of trump visit federal reserve give journalist a rare tour of building renovation ahead of trump visit unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating unitedhealth say it is under a federal investigation and cooperating blue ribbon income fund announces monthly distribution unitedhealth say it is under a federal investigation and cooperating brompton wellington square aaa clo etf declares distribution wesbanco inc expands presence in northern virginia with commercial loan production office invent inventor develops newly designed head covering plb brompton wellington square aaa clo etf declares distribution construction advance at future johnson city postal center featured to try on your new perplexity pro subscription lake babine nation and west fraser partnership strengthens bcs forest sector inventhelp inventor develops new accessory for roulette player lgt union pacific and norfolk southern confirm merger talk to create coast to coast railroad shenandoah county winery feel squeeze of tariff amplifys ongoing commitment to the pennsylvania association for justice a a justice business partner wesbanco inc expands presence in northern virginia with commercial loan production office construction advance at future johnson city postal center onalaska applebees pair with ihop steve cahalan this health care stock forming a big base breakout is ready to separate from the pack chart indicate why the u fertility rate ha hit an alltime low ibd live qa recap and key stock list for july tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record tesla tumble and alphabet rise to keep wall street near it record feel trapped in a subscription here are your legal right morling financial advisor llc ha million holding in spdr portfolio sp etf nysearcasplg vanguard total stock market etf nysearcavti stock position boosted by morling financial advisor llc america going to win ai race against china trump declares a meta executive applauds strategy how the fed is managing payment new gps kansa city radio station reeling from federal funding cut slash and burn microsoft ceo satya nadella finally address the elephant in the room kind of why is the fed renovation so expensive staff cite tariff and inflation demand optimism lift sugar price pegasystems affirms outlook a cloud strategy power momentum call it the sydney sweeney effect american eagle latest campaign take flight pilgrim to build food plant in northwest georgia ai infrastructure engineer cisco journey strategic wealth llc raise stake in eli lilly and company nyselly eli lilly and company nyselly share bought by sfe investment counsel atrium investment inc buy share of tesla inc nasdaqtsla rtx nysertx post quarterly earnings result beat estimate by eps bg investment service inc acquires share of tesla inc nasdaqtsla ishares msci usa quality factor etf batsqual share sold by benningfield financial advisor llc ninepoint partner lp ha stock holding in eli lilly and company nyselly rtx nysertx update fy earnings guidance northern financial advisor inc increase stake in rtx corporation nysertx northern financial advisor inc sell share of lockheed martin corporation nyselmt birchcreek wealth management llc decrease stock position in invesco qqq nasdaqqqq energy stock worth watching july nd principle wealth partner llc sell share of caterpillar inc nysecat journey strategic wealth llc raise holding in tesla inc nasdaqtsla promising solar stock to follow today july nd diamond hill capital management inc acquires new share in salesforce inc nysecrm share in eli lilly and company nyselly purchased by bg investment service inc invesco qqq nasdaqqqq share sold by journey strategic wealth llc northern financial advisor inc acquires share of rtx corporation nysertx best electric vehicle stock to consider july nd collier list former rite aid location poppi settle class action lawsuit for million poppi settle class action lawsuit for million poppi settle class action lawsuit for million poppi settle class action lawsuit for million cocoa price finish sharply lower a chocolate demand wane unemployment claim in indiana increased last week why your childhood snack are back on shelf cortez community now accepts cryptocurrency from home buyer the latest u cut short gaza ceasefire talk blaming hamas the latest u cut short gaza ceasefire talk blaming hamas the latest u cut short gaza ceasefire talk blaming hamas chicharito face backlash in mexico for very sexist remark on gender role porn racist video force nj election meeting to end a hacker take over gov tony evers announces we wont seek a third term live now texas house hold hearing on congressional redistricting trouble buying it expert warns trump close to triggering second schism with maga base street bordering civic center park to close for red rally activity trump visiting federal reserve amid pressure on powell to cut interest rate humboldt county making progress on ada improvement trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank trump to tour fed ramping up war on central bank mike johnson perfectly explains the flaw in the gop ghislaine maxwell gambit poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling poll most american approve of recent u supreme court ruling ap news summary at pm edt ap news summary at pm edt u cut short it gaza ceasefire talk and accuses hamas of lacking good faith ghislaine maxwell leaf maximum security florida jail ahead of productive doj meeting federal reserve give journalist a rare tour of building renovation ahead of trump visit eye wide shut hulk hogan became one of trump biggest supporter at rnc after dumping the democrat over a petty slight bar nunn city council hears opposition support for radiant project million of dollar in education funding for minnesota school remain in limbo ahead of school year million of dollar in education funding for minnesota school remain in limbo ahead of school year million of dollar in education funding for minnesota school remain in limbo ahead of school year trump to sign order pushing city and state to remove homeless people from street a list of sport organization that have begun transgender competition ban honor the miracle on ice u olympic team with congressional gold medal a list of sport organization that have begun transgender competition ban zelenskyy move to restore independence of antigraft agency after public anger and eu criticism exbiden chief of staff ron klain cooperative with house gop probe of prezs mental decline national night out returning oct neighborhood invited to register video showing migrant worker moved by forklift prompt action from south korea president pathetic dem rep charged with interfering with ice resort to the only card she ha left top gop lawmaker demand soulsearching from dems amid antiice riot targeting law enforcement alabamian ask prison committee for change in living condition safety standard around the region july best electric vehicle stock to consider july nd oped we support plan for oneway street bus service bike lane and infrastructure why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find why havent epstein file been released most american agree on answer poll find ap news summary at pm edt ap news summary at pm edt u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith california law requiring background check for ammo is unconstitutional appeal court rule u cut short it gaza ceasefire talk and accuses hamas of lacking good faith u cut short it gaza ceasefire talk and accuses hamas of lacking good faith why havent epstein file been released most american agree on answer poll find declassified intel bombshell cia officer fought brennan on russia collusion doc but he overruled them hindsight is ethic commission investigates oregon housing adviser the dangerous illusion of friendship with qatar and other hostile ally wisconsin dem gov tony evers wont seek third term prediction market forecast socialist landslide for nyc mayor race trump mourns death of hulk hogan he wa maga all the way trump mourns death of hulk hogan he wa maga all the way u recall negotiating team a prospect for a gaza ceasefire dim and humanitarian situation get worse mid america steel employee dy after workplace incident</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>81</v>
+      </c>
+      <c r="P23" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>397</v>
+      </c>
+      <c r="S23" t="n">
+        <v>62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>514</v>
+      </c>
+      <c r="U23" t="n">
+        <v>110</v>
+      </c>
+      <c r="V23" t="n">
+        <v>52</v>
+      </c>
+      <c r="W23" t="n">
+        <v>29</v>
+      </c>
+      <c r="X23" t="n">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,6 +2261,84 @@
         <v>201</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6389.77001953125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6401.06982421875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6375.7900390625</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6397.68994140625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4565620000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001768581088181</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>neon bloom inc announces successful launch of aidriven backend software facebook parent meta to halt political ad in eu citing unworkable new regulation education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school rd place at southbridge celebrates retail anchor with grand opening ribboncutting tempus wealth planning llc ha position in alphabet inc nasdaqgoog neo ivy capital management cut stock holding in johnson johnson nysejnj nicholas wealth llc trim position in alphabet inc nasdaqgoog aldi trader joes adding store in pennsylvania here where when cocoa price sharply higher on belownormal rain in west africa everything you need to know about relocating part everything you need to know about relocating part everything you need to know about relocating part everything you need to know about relocating part palantir join list of most valuable u company with stock more than doubling in coffee price slump a brazil coffee harvest accelerates chicago police blew past dnc overtime budget foreign investor in charlotte eagle lake jf project obtain conditional green card approval it will be a tidal wave of earning and data next week ap sport summarybrief at pm edt ap sport summarybrief at pm edt nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in kpn completes m share buyback walmart is selling a dresser for only and it stackable design is so versatile bill creating new wheatfield pendleton zip code pass house walmart is selling a dresser for only and it stackable design is so versatile planner approve latest section of tracy hill kpn completes m share buyback how to send bulk email in gmail easily and quickly integrate reward into the saas customer journey luxury yacht company continues to sail smoothly despite trump trade tariff partner with palm beach hotel nfl fining more than player for selling super bowl ticket above face value visa inc nysev share sold by panoramic investment advisor llc foreign investor in charlotte eagle lake jf project obtain conditional green card approval remy cointreau invests in nonalc spirit brand jnpr elbow to the face what canada risk by embracing economic nationalism special council meeting tuesday on capital improvement priority when to apply for social security jeff bezos is considering major cable channel purchase report trump float rebate for american thanks to tariff revenue berger montague pc investigates security claim against rxsight inc nasdaq rxst trump say he considering rebate check for american based on tariff expert discus state of american manufacturing at daily caller live event apple share edge higher ahead of q earnings release from epstein to exponential debt sign of a system unraveling openais gpt expected next month could steal the vibecoding crown from anthropic are healthcare customer service job at risk in ai automation era can you close on a heloc in less than two week here what to know now education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school trump administration approves controversial acquisition of paramount by skydance medium discovery announces detail of second quarter conference call and webcast discovery announces detail of second quarter conference call and webcast behind trump war with powell a battering ram with million follower mcdonalds to test drink from shuttering cosmcs spinoff at some restaurant longbow finance sa acquires share of abbvie inc nyseabbv prospect financial group llc acquires share of abbvie inc nyseabbv hedeker wealth llc trim stake in vanguard sp etf nysearcavoo longbow finance sa buy share of abbvie inc nyseabbv longbow finance sa boost stock holding in intuitive surgical inc nasdaqisrg curb the splurge prominent chiropractor accused of sending indecent material cbnnws plan carbondale cheapening genocide strip the nea of it charter and other commentary uk germany france call for immediate ceasefire in gaza yurachek alphabet inc nasdaqgoog share sold by elefante mark b nicholas wealth llc trim stock position in alphabet inc nasdaqgoog ice begin deportation flight from florida alligator alcatraz detention facility elon musk hit back at trump after president said he didnt want to strip tesla bos of subsidy ap news summary at pm edt sylacauga voter can hear their candidate idea aug trump official hit with fascist accusation over stephen colbert ouster pharaoh maharaja and the making of a multipolar world house ethic committee order aoc to pay additional for met gala showing countryrap star gain upper hand in custody battle over daughter trump team want to rewrite history by axing book on slavery letter to the editor wallis for black peterson nichols in longview race dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge park county man allegedly plotted mass shooting at chico hot spring dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge woodsonia ready to proceed with grand island good life application president say illinois state fair upping security measure this year dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge illinois state fair upping security measure this year dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge gordon melville mackenzie dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge central florida daca recipient released from alligator alcatraz attorney say he still jailed trump sign executive order clamping down on homeless trump sign executive order clamping down on homeless nfl fining more than player for selling super bowl ticket above face value caterpillar inc nysecat share sold by ae wealth management llc hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice house ethic panel tell aoc to pay another for met gala dress ucsf worker on strike over layoff in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked ae wealth management llc raise holding in vanguard midcap etf nysearcavo ae wealth management llc sell share of general mill inc nysegis ae wealth management llc acquires share of the charles schwab corporation nyseschw burney co sell share of zoetis inc nysezts two longterm dividend stock to secure your financial future molina healthcare inc nysemoh share purchased by tempus wealth planning llc dimensional emerging core equity market etf nysearcadfae share acquired by avantax advisory service inc tempus wealth planning llc buy share of vanguard information technology etf nysearcavgt gilbert cook inc acquires new holding in ovintiv inc nyseovv ishares year treasury bond etf nasdaqtlt stake cut by avantax advisory service inc royce associate lp buy share of pattersonuti energy inc nasdaqpten first trust managed municipal etf nasdaqfmb share sold by tempus wealth planning llc royce associate lp trim stake in silvercrest asset management group inc nasdaqsamg tempus wealth planning llc ha stock holding in vanguard information technology etf nysearcavgt avantax advisory service inc grows position in oracle corporation nyseorcl avantax advisory service inc trim holding in ishares year treasury bond etf nasdaqtlt gilbert cook inc buy new stake in ovintiv inc nyseovv amazon is selling a slender smartwatch for and shopper love it accurate fitness tracking channel rewind traffic chaos growth safety upgrade video vault future file consumer not beefing about these price brookwood investment group llc make new investment in kinder morgan inc nysekmi brookwood investment group llc buy share of first trust short duration managed municipal etf nysearcafsmb brookwood investment group llc take position in cigna group nyseci brookwood investment group llc acquires share of ishares core sp smallcap etf nysearcaijr organon co nyseogn share sold by royce associate lp royce associate lp lower stake in powell industry inc nasdaqpowl brookwood investment group llc buy share of southern company the nyseso organon co nyseogn share sold by royce associate lp brookwood investment group llc invests in kinder morgan inc nysekmi royce associate lp ha million stock position in ishares russell value etf nysearcaiwn brookwood investment group llc acquires share of crown castle inc nysecci brookwood investment group llc acquires share of vanguard consumer discretionary etf nysearcavcr usjapan trade deal give trump control over billion it could be vapor ware fortune globalt investment llc ga cut stock holding in uber technology inc nyseuber nikko asset management america inc sell share of alphabet inc nasdaqgoog marietta investment partner llc invests in costco wholesale corporation nasdaqcost journey strategic wealth llc sell share of chipotle mexican grill inc nysecmg journey strategic wealth llc ha position in morgan stanley nysems share in gsk plc sponsored adr nysegsk purchased by lifework advisor llc freeportmcmoran inc nysefcx share sold by journey strategic wealth llc journey strategic wealth llc ha stock position in msci inc nysemsci brookwood investment group llc purchase share of philip morris international inc nysepm journey strategic wealth llc ha stake in vanguard smallcap value etf nysearcavbr mgm resort international nysemgm share acquired by journey strategic wealth llc advisor o llc raise position in morgan stanley nysems lifework advisor llc make new investment in steel dynamic inc nasdaqstld advisor o llc purchase share of broadridge financial solution inc nysebr lifework advisor llc sell share of spdr portfolio long term treasury etf nysearcasptl one wealth advisor llc grows position in emerson electric co nyseemr journey strategic wealth llc purchase share of msci inc nysemsci advisor o llc ha stock position in trane technology plc nysett advisor o llc sell share of charles river laboratory international inc nysecrl brookwood investment group llc buy share of philip morris international inc nysepm dimensional international value etf nysearcadfiv share sold by journey strategic wealth llc advanced micro device inc nasdaqamd stock position lifted by lifework advisor llc freeportmcmoran inc nysefcx share sold by journey strategic wealth llc journey strategic wealth llc ha position in ford motor company nysef brandywine oak private wealth llc decrease stake in international business machine corporation nyseibm hb wealth management llc grows stock position in johnson johnson nysejnj washington gas customer in virginia to see a surcharge this summer aurora facing significant hole in budget mayor say advisor o llc increase stock position in bristol myers squibb company nysebmy wec energy group inc nysewec share acquired by carnegie investment counsel advisor o llc decrease stock holding in teledyne technology incorporated nysetdy carnegie investment counsel cut stock position in invesco bulletshares high yield corporate bond etf nasdaqbsjq advisor o llc lower stock holding in becton dickinson and company nysebdx advisor o llc ha stock position in ishares msci usa quality factor etf batsqual advisor o llc buy share of arista network inc nyseanet archer daniel midland company nyseadm share purchased by advisor o llc intuit inc nasdaqintu share purchased by carnegie investment counsel adobe inc nasdaqadbe share bought by advisor o llc advisor o llc sell share of equifax inc nyseefx kovack advisor inc buy share of invesco aerospace defense etf nysearcappa fair isaac corporation nysefico share sold by advisor o llc advisor o llc ha stock position in ge vernova inc nysegev eversource energy nysees share bought by advisor o llc honeywell international inc nasdaqhon share acquired by advisor o llc advisor o llc acquires share of arista network inc nyseanet carnegie investment counsel invests in equifax inc nyseefx advisor o llc ha position in sei investment company nasdaqseic carnegie investment counsel ha million holding in fiserv inc nysefi advisor o llc sell share of ishares msci usa quality factor etf batsqual wedbush security inc decrease position in capital group u multisector income etf nysearcacgms phoenix financial ltd increase stock holding in barrick mining corporation nyseb carnegie investment counsel invests million in bank of montreal nysebmo machina capital sa make new investment in marvell technology inc nasdaqmrvl phoenix financial ltd invests in tmobile u inc nasdaqtmus carnegie investment counsel ha million stock position in ishares global tech etf nysearcaixn carnegie investment counsel sell share of ishares msci eafe etf nysearcaefa schwab u largecap etf nysearcaschx share acquired by carnegie investment counsel carnegie investment counsel acquires share of the walt disney company nysedis machina capital sa cut stock position in workday inc nasdaqwday carnegie investment counsel purchase share of dover corporation nysedov carnegie investment counsel sell share of comcast corporation nasdaqcmcsa phoenix financial ltd invests in tmobile u inc nasdaqtmus carnegie investment counsel acquires share of american express company nyseaxp phoenix financial ltd cut stake in synopsys inc nasdaqsnps ishares russell growth etf nysearcaiwf share bought by carnegie investment counsel carnegie investment counsel raise stock position in american electric power company inc nasdaqaep carnegie investment counsel purchase share of vanguard smallcap growth etf nysearcavbk letter bzdok pinnacle associate ltd acquires share of ishares russell midcap growth etf nysearcaiwp tempus wealth planning llc decrease stock position in first trust managed municipal etf nasdaqfmb avantax advisory service inc raise position in oracle corporation nyseorcl house democrat look to get copy of late sex offender jeffrey epstein birthday book astronomer hire gwyneth paltrow to be temporary spokesperson after kiss cam drama child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born watch a the company that employed the coldplay cheater run an absolute clinic on damage control child who starved to death in gaza weighed less than when she wa born youth delegate represent polk county at th tennessee h congress child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born share in the kroger co nysekr acquired by brookwood investment group llc royce associate lp ha million stock holding in ishares russell value etf nysearcaiwn brookwood investment group llc make new investment in crown castle inc nysecci clash over a promotion put hegseth at odds with his general horror upon horror how u congress responded to mass hunger in gaza lifework advisor llc boost stake in advanced micro device inc nasdaqamd journey strategic wealth llc ha stock position in ford motor company nysef drugpanel member who resigned lament ignoring of expert advice role of politics bc eaton corporation plc nyseetn share sold by advisor o llc carnegie investment counsel boost holding in cdw corporation nasdaqcdw sei investment company nasdaqseic stock position boosted by advisor o llc carnegie investment counsel ha million position in fiserv inc nysefi advisor o llc purchase share of eog resource inc nyseeog ap news summary at pm edt ap news summary at pm edt woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity president donald trump say japan will invest billion in u at his direction it may not be a sure thing forum epstein case dont look away from this controversy letter president trump vision for america will have calamitous consequence woman in legislature across the u fight for potty parity quentin and carnell lake team up to tackle heart valve disease ishares russell growth etf nysearcaiwf share acquired by carnegie investment counsel phoenix financial ltd sell share of synopsys inc nasdaqsnps carnegie investment counsel trim stock position in booking holding inc nasdaqbkng carnegie investment counsel purchase share of american express company nyseaxp carnegie investment counsel increase stake in american electric power company inc nasdaqaep omnicom group inc nyseomc share sold by carnegie investment counsel analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal amazon backtoschool apple sale is live airpods ipads and macbooks from your source for insightful business news and analysis bedel financial consulting inc sell share of vanguard total stock market etf nysearcavti nisource inc nyseni share sold by spectrum wealth counsel llc kapitalo investimentos ltda purchase share of flower food inc nyseflo spectrum wealth counsel llc buy share of verizon communication inc nysevz spectrum wealth counsel llc purchase new share in ishares russell value etf nysearcaiwd spectrum wealth counsel llc trim position in ishares msci eafe growth etf batsefg kapitalo investimentos ltda acquires share of hess corporation nysehes exelon corporation nasdaqexc share sold by kapitalo investimentos ltda kapitalo investimentos ltda lower position in fox corporation nasdaqfoxa kapitalo investimentos ltda raise stock position in nrg energy inc nysenrg bedel financial consulting inc increase stock holding in pacer u cash cow etf batscowz kapitalo investimentos ltda buy share of taiwan semiconductor manufacturing company ltd nysetsm spectrum wealth counsel llc ha million stake in illinois tool work inc nyseitw kapitalo investimentos ltda purchase share of regency center corporation nasdaqreg trump announces trade agreement with eu to set tariff at ask eartha how can home energy assessment help save money charge because i unplugged a cord paris la vega hotel tiny print fee sum up why visitor are fleeing the city view from the wing nextera energy inc nysenee share bought by mrp capital investment llc advantage trust co decrease stake in first trust smid cap rising dividend achiever etf nasdaqsdvy customer data stolen at u branch of german insurer allianz carmax inc nysekmx share bought by assetmark inc ap news summary at pm edt ap news summary at pm edt ap news summary at pm edt urgent recall of popular cheeseburger that can trigger lifethreatening allergic reaction daily mail bay bank of virginia otcmktsbayk and renasant nasdaqrnst critical contrast intellus advisor llc reduces stock position in raymond james financial inc nyserjf intellus advisor llc ha million holding in alphabet inc nasdaqgoog applied finance capital management llc grows stock position in cardinal health inc nysecah otis worldwide corporation nyseotis share acquired by empirical finance llc intellus advisor llc acquires share of tesla inc nasdaqtsla paccar inc nasdaqpcar receives average recommendation of moderate buy from brokerage ishares silver trust nysearcaslv share bought by intellus advisor llc avantax advisory service inc buy share of servicenow inc nysenow what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke walmart is selling a weatherresistant deck box for and shopper say it storage space is impressive what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke accretive wealth partner llc take position in shell plc unsponsored adr nyseshel ark investment management llc ha million holding in ptc inc nasdaqptc delta air line inc nysedal share acquired by empirical finance llc ark investment management llc sell share of faro technology inc nasdaqfaro ark investment management llc ha million holding in</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>neon bloom inc announces successful launch of aidriven backend software facebook parent meta to halt political ad in eu citing unworkable new regulation education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school rd place at southbridge celebrates retail anchor with grand opening ribboncutting tempus wealth planning llc ha position in alphabet inc nasdaqgoog neo ivy capital management cut stock holding in johnson johnson nysejnj nicholas wealth llc trim position in alphabet inc nasdaqgoog aldi trader joes adding store in pennsylvania here where when cocoa price sharply higher on belownormal rain in west africa everything you need to know about relocating part everything you need to know about relocating part everything you need to know about relocating part everything you need to know about relocating part palantir join list of most valuable u company with stock more than doubling in coffee price slump a brazil coffee harvest accelerates chicago police blew past dnc overtime budget foreign investor in charlotte eagle lake jf project obtain conditional green card approval it will be a tidal wave of earning and data next week ap sport summarybrief at pm edt ap sport summarybrief at pm edt nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in nearshoring a smart way to cut cost and scale your business in kpn completes m share buyback walmart is selling a dresser for only and it stackable design is so versatile bill creating new wheatfield pendleton zip code pass house walmart is selling a dresser for only and it stackable design is so versatile planner approve latest section of tracy hill kpn completes m share buyback how to send bulk email in gmail easily and quickly integrate reward into the saas customer journey luxury yacht company continues to sail smoothly despite trump trade tariff partner with palm beach hotel nfl fining more than player for selling super bowl ticket above face value visa inc nysev share sold by panoramic investment advisor llc foreign investor in charlotte eagle lake jf project obtain conditional green card approval remy cointreau invests in nonalc spirit brand jnpr elbow to the face what canada risk by embracing economic nationalism special council meeting tuesday on capital improvement priority when to apply for social security jeff bezos is considering major cable channel purchase report trump float rebate for american thanks to tariff revenue berger montague pc investigates security claim against rxsight inc nasdaq rxst trump say he considering rebate check for american based on tariff expert discus state of american manufacturing at daily caller live event apple share edge higher ahead of q earnings release from epstein to exponential debt sign of a system unraveling openais gpt expected next month could steal the vibecoding crown from anthropic are healthcare customer service job at risk in ai automation era can you close on a heloc in less than two week here what to know now education department say it will release billion in remaining withheld grant money for school education department say it will release billion in remaining withheld grant money for school trump administration approves controversial acquisition of paramount by skydance medium discovery announces detail of second quarter conference call and webcast discovery announces detail of second quarter conference call and webcast behind trump war with powell a battering ram with million follower mcdonalds to test drink from shuttering cosmcs spinoff at some restaurant longbow finance sa acquires share of abbvie inc nyseabbv prospect financial group llc acquires share of abbvie inc nyseabbv hedeker wealth llc trim stake in vanguard sp etf nysearcavoo longbow finance sa buy share of abbvie inc nyseabbv longbow finance sa boost stock holding in intuitive surgical inc nasdaqisrg curb the splurge prominent chiropractor accused of sending indecent material cbnnws plan carbondale cheapening genocide strip the nea of it charter and other commentary uk germany france call for immediate ceasefire in gaza yurachek alphabet inc nasdaqgoog share sold by elefante mark b nicholas wealth llc trim stock position in alphabet inc nasdaqgoog ice begin deportation flight from florida alligator alcatraz detention facility elon musk hit back at trump after president said he didnt want to strip tesla bos of subsidy ap news summary at pm edt sylacauga voter can hear their candidate idea aug trump official hit with fascist accusation over stephen colbert ouster pharaoh maharaja and the making of a multipolar world house ethic committee order aoc to pay additional for met gala showing countryrap star gain upper hand in custody battle over daughter trump team want to rewrite history by axing book on slavery letter to the editor wallis for black peterson nichols in longview race dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge park county man allegedly plotted mass shooting at chico hot spring dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge woodsonia ready to proceed with grand island good life application president say illinois state fair upping security measure this year dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge illinois state fair upping security measure this year dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge gordon melville mackenzie dozen of kid and adult in gaza have starved to death in july a hunger surge dozen of kid and adult in gaza have starved to death in july a hunger surge central florida daca recipient released from alligator alcatraz attorney say he still jailed trump sign executive order clamping down on homeless trump sign executive order clamping down on homeless nfl fining more than player for selling super bowl ticket above face value caterpillar inc nysecat share sold by ae wealth management llc hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice hospital chaplain fired after supporting former coworker detained by ice house ethic panel tell aoc to pay another for met gala dress ucsf worker on strike over layoff in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked in epstein furor trump struggle to shake off a controversy his ally once stoked ae wealth management llc raise holding in vanguard midcap etf nysearcavo ae wealth management llc sell share of general mill inc nysegis ae wealth management llc acquires share of the charles schwab corporation nyseschw burney co sell share of zoetis inc nysezts two longterm dividend stock to secure your financial future molina healthcare inc nysemoh share purchased by tempus wealth planning llc dimensional emerging core equity market etf nysearcadfae share acquired by avantax advisory service inc tempus wealth planning llc buy share of vanguard information technology etf nysearcavgt gilbert cook inc acquires new holding in ovintiv inc nyseovv ishares year treasury bond etf nasdaqtlt stake cut by avantax advisory service inc royce associate lp buy share of pattersonuti energy inc nasdaqpten first trust managed municipal etf nasdaqfmb share sold by tempus wealth planning llc royce associate lp trim stake in silvercrest asset management group inc nasdaqsamg tempus wealth planning llc ha stock holding in vanguard information technology etf nysearcavgt avantax advisory service inc grows position in oracle corporation nyseorcl avantax advisory service inc trim holding in ishares year treasury bond etf nasdaqtlt gilbert cook inc buy new stake in ovintiv inc nyseovv amazon is selling a slender smartwatch for and shopper love it accurate fitness tracking channel rewind traffic chaos growth safety upgrade video vault future file consumer not beefing about these price brookwood investment group llc make new investment in kinder morgan inc nysekmi brookwood investment group llc buy share of first trust short duration managed municipal etf nysearcafsmb brookwood investment group llc take position in cigna group nyseci brookwood investment group llc acquires share of ishares core sp smallcap etf nysearcaijr organon co nyseogn share sold by royce associate lp royce associate lp lower stake in powell industry inc nasdaqpowl brookwood investment group llc buy share of southern company the nyseso organon co nyseogn share sold by royce associate lp brookwood investment group llc invests in kinder morgan inc nysekmi royce associate lp ha million stock position in ishares russell value etf nysearcaiwn brookwood investment group llc acquires share of crown castle inc nysecci brookwood investment group llc acquires share of vanguard consumer discretionary etf nysearcavcr usjapan trade deal give trump control over billion it could be vapor ware fortune globalt investment llc ga cut stock holding in uber technology inc nyseuber nikko asset management america inc sell share of alphabet inc nasdaqgoog marietta investment partner llc invests in costco wholesale corporation nasdaqcost journey strategic wealth llc sell share of chipotle mexican grill inc nysecmg journey strategic wealth llc ha position in morgan stanley nysems share in gsk plc sponsored adr nysegsk purchased by lifework advisor llc freeportmcmoran inc nysefcx share sold by journey strategic wealth llc journey strategic wealth llc ha stock position in msci inc nysemsci brookwood investment group llc purchase share of philip morris international inc nysepm journey strategic wealth llc ha stake in vanguard smallcap value etf nysearcavbr mgm resort international nysemgm share acquired by journey strategic wealth llc advisor o llc raise position in morgan stanley nysems lifework advisor llc make new investment in steel dynamic inc nasdaqstld advisor o llc purchase share of broadridge financial solution inc nysebr lifework advisor llc sell share of spdr portfolio long term treasury etf nysearcasptl one wealth advisor llc grows position in emerson electric co nyseemr journey strategic wealth llc purchase share of msci inc nysemsci advisor o llc ha stock position in trane technology plc nysett advisor o llc sell share of charles river laboratory international inc nysecrl brookwood investment group llc buy share of philip morris international inc nysepm dimensional international value etf nysearcadfiv share sold by journey strategic wealth llc advanced micro device inc nasdaqamd stock position lifted by lifework advisor llc freeportmcmoran inc nysefcx share sold by journey strategic wealth llc journey strategic wealth llc ha position in ford motor company nysef brandywine oak private wealth llc decrease stake in international business machine corporation nyseibm hb wealth management llc grows stock position in johnson johnson nysejnj washington gas customer in virginia to see a surcharge this summer aurora facing significant hole in budget mayor say advisor o llc increase stock position in bristol myers squibb company nysebmy wec energy group inc nysewec share acquired by carnegie investment counsel advisor o llc decrease stock holding in teledyne technology incorporated nysetdy carnegie investment counsel cut stock position in invesco bulletshares high yield corporate bond etf nasdaqbsjq advisor o llc lower stock holding in becton dickinson and company nysebdx advisor o llc ha stock position in ishares msci usa quality factor etf batsqual advisor o llc buy share of arista network inc nyseanet archer daniel midland company nyseadm share purchased by advisor o llc intuit inc nasdaqintu share purchased by carnegie investment counsel adobe inc nasdaqadbe share bought by advisor o llc advisor o llc sell share of equifax inc nyseefx kovack advisor inc buy share of invesco aerospace defense etf nysearcappa fair isaac corporation nysefico share sold by advisor o llc advisor o llc ha stock position in ge vernova inc nysegev eversource energy nysees share bought by advisor o llc honeywell international inc nasdaqhon share acquired by advisor o llc advisor o llc acquires share of arista network inc nyseanet carnegie investment counsel invests in equifax inc nyseefx advisor o llc ha position in sei investment company nasdaqseic carnegie investment counsel ha million holding in fiserv inc nysefi advisor o llc sell share of ishares msci usa quality factor etf batsqual wedbush security inc decrease position in capital group u multisector income etf nysearcacgms phoenix financial ltd increase stock holding in barrick mining corporation nyseb carnegie investment counsel invests million in bank of montreal nysebmo machina capital sa make new investment in marvell technology inc nasdaqmrvl phoenix financial ltd invests in tmobile u inc nasdaqtmus carnegie investment counsel ha million stock position in ishares global tech etf nysearcaixn carnegie investment counsel sell share of ishares msci eafe etf nysearcaefa schwab u largecap etf nysearcaschx share acquired by carnegie investment counsel carnegie investment counsel acquires share of the walt disney company nysedis machina capital sa cut stock position in workday inc nasdaqwday carnegie investment counsel purchase share of dover corporation nysedov carnegie investment counsel sell share of comcast corporation nasdaqcmcsa phoenix financial ltd invests in tmobile u inc nasdaqtmus carnegie investment counsel acquires share of american express company nyseaxp phoenix financial ltd cut stake in synopsys inc nasdaqsnps ishares russell growth etf nysearcaiwf share bought by carnegie investment counsel carnegie investment counsel raise stock position in american electric power company inc nasdaqaep carnegie investment counsel purchase share of vanguard smallcap growth etf nysearcavbk letter bzdok pinnacle associate ltd acquires share of ishares russell midcap growth etf nysearcaiwp tempus wealth planning llc decrease stock position in first trust managed municipal etf nasdaqfmb avantax advisory service inc raise position in oracle corporation nyseorcl house democrat look to get copy of late sex offender jeffrey epstein birthday book astronomer hire gwyneth paltrow to be temporary spokesperson after kiss cam drama child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born watch a the company that employed the coldplay cheater run an absolute clinic on damage control child who starved to death in gaza weighed less than when she wa born youth delegate represent polk county at th tennessee h congress child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born child who starved to death in gaza weighed less than when she wa born share in the kroger co nysekr acquired by brookwood investment group llc royce associate lp ha million stock holding in ishares russell value etf nysearcaiwn brookwood investment group llc make new investment in crown castle inc nysecci clash over a promotion put hegseth at odds with his general horror upon horror how u congress responded to mass hunger in gaza lifework advisor llc boost stake in advanced micro device inc nasdaqamd journey strategic wealth llc ha stock position in ford motor company nysef drugpanel member who resigned lament ignoring of expert advice role of politics bc eaton corporation plc nyseetn share sold by advisor o llc carnegie investment counsel boost holding in cdw corporation nasdaqcdw sei investment company nasdaqseic stock position boosted by advisor o llc carnegie investment counsel ha million position in fiserv inc nysefi advisor o llc purchase share of eog resource inc nyseeog ap news summary at pm edt ap news summary at pm edt woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity woman in legislature across the u fight for potty parity president donald trump say japan will invest billion in u at his direction it may not be a sure thing forum epstein case dont look away from this controversy letter president trump vision for america will have calamitous consequence woman in legislature across the u fight for potty parity quentin and carnell lake team up to tackle heart valve disease ishares russell growth etf nysearcaiwf share acquired by carnegie investment counsel phoenix financial ltd sell share of synopsys inc nasdaqsnps carnegie investment counsel trim stock position in booking holding inc nasdaqbkng carnegie investment counsel purchase share of american express company nyseaxp carnegie investment counsel increase stake in american electric power company inc nasdaqaep omnicom group inc nyseomc share sold by carnegie investment counsel analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal analyst ending digital service tax strict regulation must be part of eu trade deal amazon backtoschool apple sale is live airpods ipads and macbooks from your source for insightful business news and analysis bedel financial consulting inc sell share of vanguard total stock market etf nysearcavti nisource inc nyseni share sold by spectrum wealth counsel llc kapitalo investimentos ltda purchase share of flower food inc nyseflo spectrum wealth counsel llc buy share of verizon communication inc nysevz spectrum wealth counsel llc purchase new share in ishares russell value etf nysearcaiwd spectrum wealth counsel llc trim position in ishares msci eafe growth etf batsefg kapitalo investimentos ltda acquires share of hess corporation nysehes exelon corporation nasdaqexc share sold by kapitalo investimentos ltda kapitalo investimentos ltda lower position in fox corporation nasdaqfoxa kapitalo investimentos ltda raise stock position in nrg energy inc nysenrg bedel financial consulting inc increase stock holding in pacer u cash cow etf batscowz kapitalo investimentos ltda buy share of taiwan semiconductor manufacturing company ltd nysetsm spectrum wealth counsel llc ha million stake in illinois tool work inc nyseitw kapitalo investimentos ltda purchase share of regency center corporation nasdaqreg trump announces trade agreement with eu to set tariff at ask eartha how can home energy assessment help save money charge because i unplugged a cord paris la vega hotel tiny print fee sum up why visitor are fleeing the city view from the wing nextera energy inc nysenee share bought by mrp capital investment llc advantage trust co decrease stake in first trust smid cap rising dividend achiever etf nasdaqsdvy customer data stolen at u branch of german insurer allianz carmax inc nysekmx share bought by assetmark inc ap news summary at pm edt ap news summary at pm edt ap news summary at pm edt urgent recall of popular cheeseburger that can trigger lifethreatening allergic reaction daily mail bay bank of virginia otcmktsbayk and renasant nasdaqrnst critical contrast intellus advisor llc reduces stock position in raymond james financial inc nyserjf intellus advisor llc ha million holding in alphabet inc nasdaqgoog applied finance capital management llc grows stock position in cardinal health inc nysecah otis worldwide corporation nyseotis share acquired by empirical finance llc intellus advisor llc acquires share of tesla inc nasdaqtsla paccar inc nasdaqpcar receives average recommendation of moderate buy from brokerage ishares silver trust nysearcaslv share bought by intellus advisor llc avantax advisory service inc buy share of servicenow inc nysenow what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke walmart is selling a weatherresistant deck box for and shopper say it storage space is impressive what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke what to know about soda sweetener a sugar return to american coke accretive wealth partner llc take position in shell plc unsponsored adr nyseshel ark investment management llc ha million holding in ptc inc nasdaqptc delta air line inc nysedal share acquired by empirical finance llc ark investment management llc sell share of faro technology inc nasdaqfaro ark investment management llc ha million holding in</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.9998</v>
+      </c>
+      <c r="O24" t="n">
+        <v>164</v>
+      </c>
+      <c r="P24" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>379</v>
+      </c>
+      <c r="S24" t="n">
+        <v>183</v>
+      </c>
+      <c r="T24" t="n">
+        <v>495</v>
+      </c>
+      <c r="U24" t="n">
+        <v>353</v>
+      </c>
+      <c r="V24" t="n">
+        <v>155</v>
+      </c>
+      <c r="W24" t="n">
+        <v>84</v>
+      </c>
+      <c r="X24" t="n">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,6 +2339,84 @@
         <v>232</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6370.85986328125</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6409.259765625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6363.919921875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6405.6201171875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5076120000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0029594423887242</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>kfa private wealth group llc ha million stake in vanguard sp etf nysearcavoo werba rubin papier wealth management ha million stock position in avantis international equity etf nysearcaavde werba rubin papier wealth management sell share of dimensional u targeted value etf nysearcadfat werba rubin papier wealth management cut stock holding in vanguard sp etf nysearcavoo mackenzie financial corp ha million stock holding in marsh mclennan company inc nysemmc foundation investment advisor llc acquires share of the goldman sachs group inc nysegs kfa private wealth group llc purchase share of the goldman sachs group inc nysegs werba rubin papier wealth management ha million position in vanguard value etf nysearcavtv mackenzie financial corp sell share of marsh mclennan company inc nysemmc werba rubin papier wealth management raise holding in exxon mobil corporation nysexom vanguard growth etf nysearcavug share acquired by werba rubin papier wealth management werba rubin papier wealth management buy share of vanguard growth etf nysearcavug tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u how gas price have changed in nebraska in the last week how gas price have changed in alabama in the last week the jefferson to debut august th on fetv wall street coasting ahead of a week packed with potential flashpoint wall street coasting ahead of a week packed with potential flashpoint wall street coasting ahead of a week packed with potential flashpoint google launch free ai app builder opal that embrace vibe coding jim cramer explains why trump trade deal didnt bring on a market rally amphenol corporation nyseaph share purchased by fourthought financial partner llc td asset management inc lower holding in pool corporation nasdaqpool milton hydro power up outage notification with sm alert pilot dear microsoft stock fan mark your calendar for aug alibaba group holding limited nysebaba share sold by norden group llc norden group llc buy share of transdigm group incorporated nysetdg werba rubin papier wealth management ha stake in ishares california muni bond etf nysearcacmf contrasting quantum service nysepwr and mayville engineering nysemec law taking effect this week empowers minnesotan to request delete personal consumer data chinese export to u could decrease by billion by tariff simulator hedge fund and insider trading news ray dalio ken griffin michael gelband warren buffett de shaw lhc capital rli corp rli and more ethereum news today crypto market cap nears trillion a eth lead etp inflow nosaintstrainingcampjpg nosaintstrainingcampjpg nosaintstrainingcampjpg nosaintstrainingcampjpg noartgretnaadv copyjpg noartgretnaadv copyjpg tradebe environmental service partner with boy girl club of east chicago to support youth development and scholarship program noartgretnaadv copyjpg noartgretnaadv copyjpg noartgretnaadv copyjpg noartgretnaadv copyjpg mediolanum international fund ltd sell share of marriott international inc nasdaqmar mediolanum international fund ltd cut stock holding in edward lifesciences corporation nyseew joe rogan isnt letting go of epstein thats a problem for trump top sign your startup is built to die and how to fix it fast best ai tool to generate marketing content amazon is selling a convenient portable in steamer and iron for and shopper call it amazing how robot like robotic dog and magnetic slime are changing life ap business summarybrief at pm edt liven up your home this summer with up to off at kohl senator introduce bill to tighten aml regulation on u art market full pour magazine win best cocktail and spirit publication at tale of the cocktail annual spirited award purkiss capital advisor llc raise stock holding in analog device inc nasdaqadi baldwin investment management llc buy share of lowes company inc nyselow nyl investor llc ha million stake in vanguard total bond market etf nasdaqbnd morgan stanley nysems share sold by baldwin investment management llc purkiss capital advisor llc raise stock holding in philip morris international inc nysepm baldwin investment management llc increase stock holding in intercontinental exchange inc nyseice airbnb inc nasdaqabnb position reduced by norden group llc awm capital llc acquires share of vanguard real estate etf nysearcavnq baldwin investment management llc ha million stock holding in enterprise product partner lp nyseepd baldwin investment management llc grows position in intercontinental exchange inc nyseice uschina trade talk are showing sign of detente say mcc globals michelle carusocabrera candidate view duluth need to embrace growth in order to survive lazard freres gestion sa sell share of tmobile u inc nasdaqtmus solidarity wealth llc sell share of rtx corporation nysertx lazard freres gestion sa reduces stock position in procter gamble company the nysepg ishares tip bond etf nysearcatip share sold by awm capital llc xrp news today xrp price hold above a weekly close nears historic high lazard freres gestion sa ha million holding in becton dickinson and company nysebdx wincap financial llc ha position in qualcomm incorporated nasdaqqcom solidarity wealth llc decrease holding in nextera energy inc nysenee solidarity wealth llc cut stake in asml holding nv nasdaqasml lazard freres gestion sa cut stock position in parkerhannifin corporation nyseph avalon capital management ha million stock holding in spdr gold share nysearcagld avalon capital management boost stock position in spdr gold share nysearcagld solidarity wealth llc sell share of asml holding nv nasdaqasml samsungs huge gaming monitor is off for a limited time fiserv stock get pummeled after earnings look cheap here rayban maker essilorluxottica sale top estimate bloombergcom avalon capital management make new million investment in vanguard ftse europe etf nysearcavgk oxler private wealth llc make new investment in invesco nasdaq etf nasdaqqqqm invesco qqq nasdaqqqq stake increased by oxler private wealth llc oxler private wealth llc cut position in salesforce inc nysecrm evermay wealth management llc ha stake in oracle corporation nyseorcl solidarity wealth llc take position in novo nordisk a nysenvo oxler private wealth llc sell share of vanguard dividend appreciation etf nysearcavig church dwight co inc nysechd share sold by oxler private wealth llc evermay wealth management llc ha holding in cocacola company the nyseko share in vanguard intermediateterm treasury etf nasdaqvgit purchased by avalon capital management agp franklin llc increase stock position in the tjx company inc nysetjx att inc nyset share acquired by wincap financial llc yearold retail chain to close major location after historic downfall exxon mobil corporation nysexom share purchased by werba rubin papier wealth management kfa private wealth group llc ha stake in the goldman sachs group inc nysegs werba rubin papier wealth management ha million position in vanguard value etf nysearcavtv mackenzie financial corp ha million position in msci inc nysemsci pool corporation nasdaqpool share sold by td asset management inc td asset management inc grows stock position in martin marietta material inc nysemlm the jas gripen fighter jet engages in combat in thailand norden group llc acquires share of johnson johnson nysejnj caesar palace time square to fund hightech em ambucycletm program innovative lifesaving response model to dramatically reduce emergency response time set to come to hell kitchen and west midtown tradebe environmental service partner with boy girl club of east chicago to support youth development and scholarship program federal judge block big beautiful bill medicaid cut to planned parenthood ge vernova inc nysegev share acquired by hb wealth management llc joe rogan isnt letting go of epstein thats a problem for trump city of owasso investigating inappropriate police facebook post lexington police make second arrest in federal street homicide josh hawley team with democrat on legislation targeting ai and drug cost dimensional international core equity etf batsdfic is awm capital llcs th largest position ishares gold trust nysearcaiau stock position increased by purkiss capital advisor llc awm capital llc reduces holding in vanguard total bond market etf nasdaqbnd baldwin investment management llc buy share of enterprise product partner lp nyseepd baldwin investment management llc acquires share of intuitive surgical inc nasdaqisrg lindsey graham get republican challenger project author to announce senate bid will the boeing strike delay the f fighter jet lazard freres gestion sa sell share of parkerhannifin corporation nyseph wincap financial llc acquires share of qualcomm incorporated nasdaqqcom ishares core u aggregate bond etf nysearcaagg share acquired by foundation investment advisor llc live pm et unleash prosperity project hold panel on finding of it vote with your foot project bob gallagher littmann show he the right choice to lead annapolis commentary comparing taylor morrison home nysetmhc taylor wimpey otcmktstwody avalon capital management sell share of invesco qqq nasdaqqqq obama called out for shady gaza post failing to mention why innocent people are dying of starvation why scotland protest about trump should concern every american opinion obamaappointed judge order trump to continue funding planned parenthood congress eye shortterm govt funding stopgap a appropriation bill stall meridian management co sell share of visa inc nysev sunpointe llc decrease stake in accenture plc nyseacn eqt and cpp investment to acquire neogov a provider of hr and compliance software for u public sector agency from warburg pincus and carlyle agp franklin llc boost stock holding in palantir technology inc nasdaqpltr physician financial service inc boost stock holding in chevron corporation nysecvx schubert co take position in ge aerospace nysege share in ishares msci emerging market etf nysearcaeem purchased by avalon capital management schubert co sell share of cigna group nyseci trump call for more gaza food aid and talk up his golf course in meeting with uk prime minister empirical finance llc grows stake in ametek inc nyseame durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk prosperity consulting group llc trim holding in oneok inc nyseoke jpmorgan ultrashort income etf nysearcajpst share sold by prosperity consulting group llc trump give russia day deadline to end ukraine democraticled state sue over trump administration effort to obtain personal information of snap recipient we are not dog palestinian condemn humiliation of chasing after airdropped aid in gaza ginnie graham dont let ryan walter pornogate scandal deflect from his other failing vantage financial partner llc purchase share of ishares u treasury bond etf batsgovt vantage financial partner llc sell share of ishares core sp u value etf nasdaqiusv rosen a leading investor right law firm encourages replimune group inc investor to secure counsel before important deadline in security class action first filed by the firm repl in supreme court appeal ghislaine maxwell fight justice department view of epstein plea deal cnn confronts dem senator with party dismal favorability and here what his response really mean sheaff brock investment advisor llc ha million holding in cummins inc nysecmi meridian management co decrease stock position in ishares russell etf nysearcaiwm ishares russell etf nysearcaiwm share purchased by portland global advisor llc pharmaceutical stock worth watching july th share in vanguard information technology etf nysearcavgt acquired by passive capital management llc space stock to watch today july th thailand and cambodia truce agreement come into effect paradigm strategy in wealth management llc buy share of jpmorgan nasdaq equity premium income etf nasdaqjepq new republic capital llc ha stock holding in tesla inc nasdaqtsla commissioner celebrate joe hewgleys legacy of resilience and impact over last year a nonexhaustive timeline of robert f kennedy jr war on vaccine ap business summarybrief at pm edt maine police chief want to unseat chellie pingree nkcfo llc ha million stake in expedia group inc nasdaqexpe nkcfo llc cut stock holding in agnico eagle mine limited nyseaem nkcfo llc purchase new stake in range resource corporation nyserrc trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story dead target u terrorgram leader linked to white supremacist attack to plead guilty letter is america backsliding on liberty equality letter is america backsliding on liberty equality ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell asks supreme court to toss out sextrafficking conviction ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell pleads with supreme court trump to intervene in criminal case</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>kfa private wealth group llc ha million stake in vanguard sp etf nysearcavoo werba rubin papier wealth management ha million stock position in avantis international equity etf nysearcaavde werba rubin papier wealth management sell share of dimensional u targeted value etf nysearcadfat werba rubin papier wealth management cut stock holding in vanguard sp etf nysearcavoo mackenzie financial corp ha million stock holding in marsh mclennan company inc nysemmc foundation investment advisor llc acquires share of the goldman sachs group inc nysegs kfa private wealth group llc purchase share of the goldman sachs group inc nysegs werba rubin papier wealth management ha million position in vanguard value etf nysearcavtv mackenzie financial corp sell share of marsh mclennan company inc nysemmc werba rubin papier wealth management raise holding in exxon mobil corporation nysexom vanguard growth etf nysearcavug share acquired by werba rubin papier wealth management werba rubin papier wealth management buy share of vanguard growth etf nysearcavug tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u tariff on south korea product threaten the kbeauty boom in the u how gas price have changed in nebraska in the last week how gas price have changed in alabama in the last week the jefferson to debut august th on fetv wall street coasting ahead of a week packed with potential flashpoint wall street coasting ahead of a week packed with potential flashpoint wall street coasting ahead of a week packed with potential flashpoint google launch free ai app builder opal that embrace vibe coding jim cramer explains why trump trade deal didnt bring on a market rally amphenol corporation nyseaph share purchased by fourthought financial partner llc td asset management inc lower holding in pool corporation nasdaqpool milton hydro power up outage notification with sm alert pilot dear microsoft stock fan mark your calendar for aug alibaba group holding limited nysebaba share sold by norden group llc norden group llc buy share of transdigm group incorporated nysetdg werba rubin papier wealth management ha stake in ishares california muni bond etf nysearcacmf contrasting quantum service nysepwr and mayville engineering nysemec law taking effect this week empowers minnesotan to request delete personal consumer data chinese export to u could decrease by billion by tariff simulator hedge fund and insider trading news ray dalio ken griffin michael gelband warren buffett de shaw lhc capital rli corp rli and more ethereum news today crypto market cap nears trillion a eth lead etp inflow nosaintstrainingcampjpg nosaintstrainingcampjpg nosaintstrainingcampjpg nosaintstrainingcampjpg noartgretnaadv copyjpg noartgretnaadv copyjpg tradebe environmental service partner with boy girl club of east chicago to support youth development and scholarship program noartgretnaadv copyjpg noartgretnaadv copyjpg noartgretnaadv copyjpg noartgretnaadv copyjpg mediolanum international fund ltd sell share of marriott international inc nasdaqmar mediolanum international fund ltd cut stock holding in edward lifesciences corporation nyseew joe rogan isnt letting go of epstein thats a problem for trump top sign your startup is built to die and how to fix it fast best ai tool to generate marketing content amazon is selling a convenient portable in steamer and iron for and shopper call it amazing how robot like robotic dog and magnetic slime are changing life ap business summarybrief at pm edt liven up your home this summer with up to off at kohl senator introduce bill to tighten aml regulation on u art market full pour magazine win best cocktail and spirit publication at tale of the cocktail annual spirited award purkiss capital advisor llc raise stock holding in analog device inc nasdaqadi baldwin investment management llc buy share of lowes company inc nyselow nyl investor llc ha million stake in vanguard total bond market etf nasdaqbnd morgan stanley nysems share sold by baldwin investment management llc purkiss capital advisor llc raise stock holding in philip morris international inc nysepm baldwin investment management llc increase stock holding in intercontinental exchange inc nyseice airbnb inc nasdaqabnb position reduced by norden group llc awm capital llc acquires share of vanguard real estate etf nysearcavnq baldwin investment management llc ha million stock holding in enterprise product partner lp nyseepd baldwin investment management llc grows position in intercontinental exchange inc nyseice uschina trade talk are showing sign of detente say mcc globals michelle carusocabrera candidate view duluth need to embrace growth in order to survive lazard freres gestion sa sell share of tmobile u inc nasdaqtmus solidarity wealth llc sell share of rtx corporation nysertx lazard freres gestion sa reduces stock position in procter gamble company the nysepg ishares tip bond etf nysearcatip share sold by awm capital llc xrp news today xrp price hold above a weekly close nears historic high lazard freres gestion sa ha million holding in becton dickinson and company nysebdx wincap financial llc ha position in qualcomm incorporated nasdaqqcom solidarity wealth llc decrease holding in nextera energy inc nysenee solidarity wealth llc cut stake in asml holding nv nasdaqasml lazard freres gestion sa cut stock position in parkerhannifin corporation nyseph avalon capital management ha million stock holding in spdr gold share nysearcagld avalon capital management boost stock position in spdr gold share nysearcagld solidarity wealth llc sell share of asml holding nv nasdaqasml samsungs huge gaming monitor is off for a limited time fiserv stock get pummeled after earnings look cheap here rayban maker essilorluxottica sale top estimate bloombergcom avalon capital management make new million investment in vanguard ftse europe etf nysearcavgk oxler private wealth llc make new investment in invesco nasdaq etf nasdaqqqqm invesco qqq nasdaqqqq stake increased by oxler private wealth llc oxler private wealth llc cut position in salesforce inc nysecrm evermay wealth management llc ha stake in oracle corporation nyseorcl solidarity wealth llc take position in novo nordisk a nysenvo oxler private wealth llc sell share of vanguard dividend appreciation etf nysearcavig church dwight co inc nysechd share sold by oxler private wealth llc evermay wealth management llc ha holding in cocacola company the nyseko share in vanguard intermediateterm treasury etf nasdaqvgit purchased by avalon capital management agp franklin llc increase stock position in the tjx company inc nysetjx att inc nyset share acquired by wincap financial llc yearold retail chain to close major location after historic downfall exxon mobil corporation nysexom share purchased by werba rubin papier wealth management kfa private wealth group llc ha stake in the goldman sachs group inc nysegs werba rubin papier wealth management ha million position in vanguard value etf nysearcavtv mackenzie financial corp ha million position in msci inc nysemsci pool corporation nasdaqpool share sold by td asset management inc td asset management inc grows stock position in martin marietta material inc nysemlm the jas gripen fighter jet engages in combat in thailand norden group llc acquires share of johnson johnson nysejnj caesar palace time square to fund hightech em ambucycletm program innovative lifesaving response model to dramatically reduce emergency response time set to come to hell kitchen and west midtown tradebe environmental service partner with boy girl club of east chicago to support youth development and scholarship program federal judge block big beautiful bill medicaid cut to planned parenthood ge vernova inc nysegev share acquired by hb wealth management llc joe rogan isnt letting go of epstein thats a problem for trump city of owasso investigating inappropriate police facebook post lexington police make second arrest in federal street homicide josh hawley team with democrat on legislation targeting ai and drug cost dimensional international core equity etf batsdfic is awm capital llcs th largest position ishares gold trust nysearcaiau stock position increased by purkiss capital advisor llc awm capital llc reduces holding in vanguard total bond market etf nasdaqbnd baldwin investment management llc buy share of enterprise product partner lp nyseepd baldwin investment management llc acquires share of intuitive surgical inc nasdaqisrg lindsey graham get republican challenger project author to announce senate bid will the boeing strike delay the f fighter jet lazard freres gestion sa sell share of parkerhannifin corporation nyseph wincap financial llc acquires share of qualcomm incorporated nasdaqqcom ishares core u aggregate bond etf nysearcaagg share acquired by foundation investment advisor llc live pm et unleash prosperity project hold panel on finding of it vote with your foot project bob gallagher littmann show he the right choice to lead annapolis commentary comparing taylor morrison home nysetmhc taylor wimpey otcmktstwody avalon capital management sell share of invesco qqq nasdaqqqq obama called out for shady gaza post failing to mention why innocent people are dying of starvation why scotland protest about trump should concern every american opinion obamaappointed judge order trump to continue funding planned parenthood congress eye shortterm govt funding stopgap a appropriation bill stall meridian management co sell share of visa inc nysev sunpointe llc decrease stake in accenture plc nyseacn eqt and cpp investment to acquire neogov a provider of hr and compliance software for u public sector agency from warburg pincus and carlyle agp franklin llc boost stock holding in palantir technology inc nasdaqpltr physician financial service inc boost stock holding in chevron corporation nysecvx schubert co take position in ge aerospace nysege share in ishares msci emerging market etf nysearcaeem purchased by avalon capital management schubert co sell share of cigna group nyseci trump call for more gaza food aid and talk up his golf course in meeting with uk prime minister empirical finance llc grows stake in ametek inc nyseame durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk durbin demand recording of ghislaine maxwelldepartment of justice talk prosperity consulting group llc trim holding in oneok inc nyseoke jpmorgan ultrashort income etf nysearcajpst share sold by prosperity consulting group llc trump give russia day deadline to end ukraine democraticled state sue over trump administration effort to obtain personal information of snap recipient we are not dog palestinian condemn humiliation of chasing after airdropped aid in gaza ginnie graham dont let ryan walter pornogate scandal deflect from his other failing vantage financial partner llc purchase share of ishares u treasury bond etf batsgovt vantage financial partner llc sell share of ishares core sp u value etf nasdaqiusv rosen a leading investor right law firm encourages replimune group inc investor to secure counsel before important deadline in security class action first filed by the firm repl in supreme court appeal ghislaine maxwell fight justice department view of epstein plea deal cnn confronts dem senator with party dismal favorability and here what his response really mean sheaff brock investment advisor llc ha million holding in cummins inc nysecmi meridian management co decrease stock position in ishares russell etf nysearcaiwm ishares russell etf nysearcaiwm share purchased by portland global advisor llc pharmaceutical stock worth watching july th share in vanguard information technology etf nysearcavgt acquired by passive capital management llc space stock to watch today july th thailand and cambodia truce agreement come into effect paradigm strategy in wealth management llc buy share of jpmorgan nasdaq equity premium income etf nasdaqjepq new republic capital llc ha stock holding in tesla inc nasdaqtsla commissioner celebrate joe hewgleys legacy of resilience and impact over last year a nonexhaustive timeline of robert f kennedy jr war on vaccine ap business summarybrief at pm edt maine police chief want to unseat chellie pingree nkcfo llc ha million stake in expedia group inc nasdaqexpe nkcfo llc cut stock holding in agnico eagle mine limited nyseaem nkcfo llc purchase new stake in range resource corporation nyserrc trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story trump seek quick murdoch deposition in wall street journal lawsuit over epstein story dead target u terrorgram leader linked to white supremacist attack to plead guilty letter is america backsliding on liberty equality letter is america backsliding on liberty equality ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell asks supreme court to toss out sextrafficking conviction ghislaine maxwell pleads with supreme court trump to intervene in criminal case ghislaine maxwell pleads with supreme court trump to intervene in criminal case</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9998</v>
+      </c>
+      <c r="O25" t="n">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>178</v>
+      </c>
+      <c r="S25" t="n">
+        <v>54</v>
+      </c>
+      <c r="T25" t="n">
+        <v>254</v>
+      </c>
+      <c r="U25" t="n">
+        <v>86</v>
+      </c>
+      <c r="V25" t="n">
+        <v>46</v>
+      </c>
+      <c r="W25" t="n">
+        <v>37</v>
+      </c>
+      <c r="X25" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,6 +2417,162 @@
         <v>93</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6362.89990234375</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6396.5400390625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6336.3798828125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6381.22998046875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5375070000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0012494327466496</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>pop on smile lead the way with firstever probiotic whitening strip for a healthier brighter smile honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight why palo alto network stock is sinking today here is why exxon mobil xom is a favorite among hedge fund investor is palo alto joining the ma party plus the sp hit an earnings bump eog resource eog a top crude oil stock for passive income dr youzhi tang appointed to the cwti board of director australia secondquarter inflation drop to lowest since march supporting case for rate cut gentherm beat q revenue estimate why occidental petroleum oxy is a top choice for investment in crude oil elon musk grok ai to launch texttovideo generator this october fifth third launch private credit pact with asset manager eldridge okta inc gain amid takeover speculation oktanasdaq seeking alpha unifirst declares regular cash dividend unifirst declares regular cash dividend dr youzhi tang appointed to the cwti board of director devon energy dvn a top crude oil stock among hedge fund investor harvest fund management co ltd sell share of broadcom inc nasdaqavgo marathon petroleum mpc one of the best crude oil stock according to hedge fund kinder morgan kmi a top energy stock for passive income investor price are down but buying a home is still out of reach permian resource pr among the best crude oil stock to buy now is shell plc shel a good option for investor looking to invest in crude oil stock jpmorgan chase want to make it harder for you to use venmo toll on delaware river bridge could go up in valero energy vlo remains a top choice for hedge fund investor warren buffetts berkshire hathaway now earns every second from dividend jpmorgan reaffirms nvidia nvda a a top ai networking play capstone strategic guide janusea toward purposedriven growth through acquisition by kinective chatgpt agent pass captcha test expose flaw in bot detection system rudolph libbe group continues it steady growth ai is taking google search to new height not killing it nike is selling the most comfortable running shoe for and shopper walk in them for mile daily csp associate acquires majority stake in tamarack defense leader in market data and analytics change to federal student loan leave aspiring medical student scrambling to cover cost inventhelp inventor develops backpackstyle window cleaning device tro capital hilton to host fifth annual dc festival of magic labor day weekend the best ai crypto buy before the next bull run behavioral segment concern overshadow universal health q earnings beat alphabet googl ai strategy drive growth but analyst still see breakup potential karrueche tran stayed by deion sander side during lifesaving surgery here more about her soaring crude oil price support gain in sugar gold is this the final dip before a generational mining stock boom analyst think this former pandemic winner could surge this year cocoa price slump a the dollar rally pecheles automotive group mark year quince a bright spot in struggling dc fashion space more than double valuation to b with second raise in month trump urge the uk to drill more oil criticizing it energy policy global startup accelerator techstars officially land in tampa bay bar k bar and dog park combo close door amid financial challenge hospital in region ranked among top in florida north korea demand u recognize it a irreversible nuclear power microsofts msft ai revolution could spark a trilliondollar surge say wedbush mena renewable energy market to reach billion by driving a regional green energy boom bcc research llc mena renewable energy market to reach billion by driving a regional green energy boom bcc research llc stock market today dow fall point sp and nasdaq edge lower ahead of fed meeting and big tech earnings u and china close to extending tariff truce marketwatch brazil harvest pressure and easing tariff fear undercut coffee price google exec say employee have to be more aisavvy a competition ramp up animal shelter are closing their door to surrender a pet care cost rise how owner can afford emergency disney sued for defamation over fx series say nothing yesteryear johnson johnson nysejnj holding lowered by new advisory service llc canopy partner llc ha holding in netflix inc nasdaqnflx top lithium stock to add to your watchlist july th meeder asset management inc grows stock holding in johnson johnson nysejnj warner record name new marketing head lay off in exec realignment visualizing how mass shooting in compare with past year ivory coast president will seek a fourth term after the disqualification of rival why tapestry stock is cooling off despite coach hot streak amazon amzn price target raised to here whats driving it rosen a leading law firm encourages reddit inc investor to secure counsel before important anthropic in talk to raise fresh capital at billion valuation thermo fisher post q rise boeing report smaller loss a ceo see progress in turnaround boeing report smaller loss a ceo see progress in turnaround tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american boeing share sink despite upbeat ndquarter earnings nick the greek to join burbank business landscape median home price by state how much do house cost rosen a leading law firm encourages reddit inc investor to secure counsel before important deadline in security class action rddt why krispy kreme stock is plummeting today inspector visit lancashire business here how each one scored for food hygiene florida struggle to keep younger worker creating headache for employer lafayette county property transfer honolulu lawsuit against fossil fuel company lead climate change legal fight utah husband wife accused of selling narcotic out of home with child letter local impact pennsylvania legislation aim to protect homebuyers in floodprone neighborhood a qa with historian marco antonio samaniego on the new binational tijuana river agreement dc council launch public hearing on billion rfk stadium proposal letter revelation show treason of those involved in russia hoax nyc subway mystery power outage ha rush hour rider vowing to steal ride a payback bipartisan bill call for annual treasury stress test pete buttigieg say gop epstein scandal reveals breakdown in societal trust trump reacts to starmer plan to recognize palestine could make the case that youre rewarding hamas from the grca can you or your organization afford to ignore professional development gop senator float broken plan to buy off american mad about tariff walking school bus and teaching student their right how educator are preparing for back to school after ice raid riverside revisits nuisance ordinance karrueche tran stayed by deion sander side during lifesaving surgery here more about her trump admin seizes judicial thorn in their side letter decriminalize possessing small amount of cannabis lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity netanyahu is reportedly planning to annex gaza strip with trump admins backing letter america need return to tradition law and order meeder asset management inc grows stake in exxon mobil corporation nysexom top lithium stock to add to your watchlist july th visualizing how mass shooting in compare with past year maxwell lawyer issue list of demand for congressional testimony lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll wire fire cause power outage in charlestown and dedham rosen a leading law firm encourages reddit inc investor to secure counsel before important deadline in security class action rddt sydney sweeneys ad spark absurd nazi claim on good morning america legacy medias latest meltdown berger montague pc investigating claim on behalf of sable offshore corp nyse soc investor after class action filing minnesota pause payment to housing stability provider amid fraud investigation what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll israeli ambassador push back on claim that israel is preventing aid distribution in gaza trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public la county move ahead with law requiring ice agent show face badge and agency affiliation but legal hurdle loom house oversight committee reject ghislaine maxwell bid for immunity in exchange for testimony house oversight committee reject ghislaine maxwell request for immunity in exchange for her testimony biggest source of immigrant to new hampshire biggest source of immigrant to kansa biggest source of immigrant to kansa harvest fund management co ltd raise stake in alphabet inc nasdaqgoog biggest source of immigrant to alabama biggest source of immigrant to maine ucla to pay million to settle complaint of discrimination against jewish student ucla to pay million to settle complaint of discrimination against jewish student dont question my integrity spartacus return in dramatic senate floor showdown for jersey a daca recipient accidentally drove into mexico now he being fasttracked for deportation cashflow underwriting would bring fairness to mortgage lending the independent view big beautiful bill a former cdc vaccine adviser ha word for rfk jr segwayriding pest control salesperson described a pest themselves in upper township elsewhere gov walz activates minnesota national guard over st paul cyberattack gov walz activates minnesota national guard over st paul cyberattack nantucket official accuse offshore wind developer of going into hiding since trump election nantucket official accuse offshore wind developer of going into hiding since trump election nantucket official accuse offshore wind developer of going into hiding since trump election nc u senate race set to be one of nation biggest wrong way tom zirpoli big government is back commentary guest columnist an opportunity for much needed clarification together review the only one for me is you and you for me here how to see this week double meteor shower man run for mayor with really really really unfortunate name justice department fire two senior antitrust attorney alleging insubordination democraticled state sue trump admin over law that defunds planned parenthood uk will recognize palestine a a state if ceasefire not agreed on pm say mackenzie financial corp sell share of intuitive surgical inc nasdaqisrg trump say india will likely face a to tariff yearold girl reported missing in worcester</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>pop on smile lead the way with firstever probiotic whitening strip for a healthier brighter smile honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight honolulu lawsuit against fossil fuel company lead climate change legal fight why palo alto network stock is sinking today here is why exxon mobil xom is a favorite among hedge fund investor is palo alto joining the ma party plus the sp hit an earnings bump eog resource eog a top crude oil stock for passive income dr youzhi tang appointed to the cwti board of director australia secondquarter inflation drop to lowest since march supporting case for rate cut gentherm beat q revenue estimate why occidental petroleum oxy is a top choice for investment in crude oil elon musk grok ai to launch texttovideo generator this october fifth third launch private credit pact with asset manager eldridge okta inc gain amid takeover speculation oktanasdaq seeking alpha unifirst declares regular cash dividend unifirst declares regular cash dividend dr youzhi tang appointed to the cwti board of director devon energy dvn a top crude oil stock among hedge fund investor harvest fund management co ltd sell share of broadcom inc nasdaqavgo marathon petroleum mpc one of the best crude oil stock according to hedge fund kinder morgan kmi a top energy stock for passive income investor price are down but buying a home is still out of reach permian resource pr among the best crude oil stock to buy now is shell plc shel a good option for investor looking to invest in crude oil stock jpmorgan chase want to make it harder for you to use venmo toll on delaware river bridge could go up in valero energy vlo remains a top choice for hedge fund investor warren buffetts berkshire hathaway now earns every second from dividend jpmorgan reaffirms nvidia nvda a a top ai networking play capstone strategic guide janusea toward purposedriven growth through acquisition by kinective chatgpt agent pass captcha test expose flaw in bot detection system rudolph libbe group continues it steady growth ai is taking google search to new height not killing it nike is selling the most comfortable running shoe for and shopper walk in them for mile daily csp associate acquires majority stake in tamarack defense leader in market data and analytics change to federal student loan leave aspiring medical student scrambling to cover cost inventhelp inventor develops backpackstyle window cleaning device tro capital hilton to host fifth annual dc festival of magic labor day weekend the best ai crypto buy before the next bull run behavioral segment concern overshadow universal health q earnings beat alphabet googl ai strategy drive growth but analyst still see breakup potential karrueche tran stayed by deion sander side during lifesaving surgery here more about her soaring crude oil price support gain in sugar gold is this the final dip before a generational mining stock boom analyst think this former pandemic winner could surge this year cocoa price slump a the dollar rally pecheles automotive group mark year quince a bright spot in struggling dc fashion space more than double valuation to b with second raise in month trump urge the uk to drill more oil criticizing it energy policy global startup accelerator techstars officially land in tampa bay bar k bar and dog park combo close door amid financial challenge hospital in region ranked among top in florida north korea demand u recognize it a irreversible nuclear power microsofts msft ai revolution could spark a trilliondollar surge say wedbush mena renewable energy market to reach billion by driving a regional green energy boom bcc research llc mena renewable energy market to reach billion by driving a regional green energy boom bcc research llc stock market today dow fall point sp and nasdaq edge lower ahead of fed meeting and big tech earnings u and china close to extending tariff truce marketwatch brazil harvest pressure and easing tariff fear undercut coffee price google exec say employee have to be more aisavvy a competition ramp up animal shelter are closing their door to surrender a pet care cost rise how owner can afford emergency disney sued for defamation over fx series say nothing yesteryear johnson johnson nysejnj holding lowered by new advisory service llc canopy partner llc ha holding in netflix inc nasdaqnflx top lithium stock to add to your watchlist july th meeder asset management inc grows stock holding in johnson johnson nysejnj warner record name new marketing head lay off in exec realignment visualizing how mass shooting in compare with past year ivory coast president will seek a fourth term after the disqualification of rival why tapestry stock is cooling off despite coach hot streak amazon amzn price target raised to here whats driving it rosen a leading law firm encourages reddit inc investor to secure counsel before important anthropic in talk to raise fresh capital at billion valuation thermo fisher post q rise boeing report smaller loss a ceo see progress in turnaround boeing report smaller loss a ceo see progress in turnaround tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american tax break for charitable contribution are returning for million american boeing share sink despite upbeat ndquarter earnings nick the greek to join burbank business landscape median home price by state how much do house cost rosen a leading law firm encourages reddit inc investor to secure counsel before important deadline in security class action rddt why krispy kreme stock is plummeting today inspector visit lancashire business here how each one scored for food hygiene florida struggle to keep younger worker creating headache for employer lafayette county property transfer honolulu lawsuit against fossil fuel company lead climate change legal fight utah husband wife accused of selling narcotic out of home with child letter local impact pennsylvania legislation aim to protect homebuyers in floodprone neighborhood a qa with historian marco antonio samaniego on the new binational tijuana river agreement dc council launch public hearing on billion rfk stadium proposal letter revelation show treason of those involved in russia hoax nyc subway mystery power outage ha rush hour rider vowing to steal ride a payback bipartisan bill call for annual treasury stress test pete buttigieg say gop epstein scandal reveals breakdown in societal trust trump reacts to starmer plan to recognize palestine could make the case that youre rewarding hamas from the grca can you or your organization afford to ignore professional development gop senator float broken plan to buy off american mad about tariff walking school bus and teaching student their right how educator are preparing for back to school after ice raid riverside revisits nuisance ordinance karrueche tran stayed by deion sander side during lifesaving surgery here more about her trump admin seizes judicial thorn in their side letter decriminalize possessing small amount of cannabis lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity netanyahu is reportedly planning to annex gaza strip with trump admins backing letter america need return to tradition law and order meeder asset management inc grows stake in exxon mobil corporation nysexom top lithium stock to add to your watchlist july th visualizing how mass shooting in compare with past year maxwell lawyer issue list of demand for congressional testimony lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity lawyer for epstein former girlfriend say shes open to interview with congress if given immunity what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll wire fire cause power outage in charlestown and dedham rosen a leading law firm encourages reddit inc investor to secure counsel before important deadline in security class action rddt sydney sweeneys ad spark absurd nazi claim on good morning america legacy medias latest meltdown berger montague pc investigating claim on behalf of sable offshore corp nyse soc investor after class action filing minnesota pause payment to housing stability provider amid fraud investigation what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll what american think about israel military action in gaza according to a new gallup poll israeli ambassador push back on claim that israel is preventing aid distribution in gaza trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public trump proposes to repeal landmark finding that greenhouse gas harm the public la county move ahead with law requiring ice agent show face badge and agency affiliation but legal hurdle loom house oversight committee reject ghislaine maxwell bid for immunity in exchange for testimony house oversight committee reject ghislaine maxwell request for immunity in exchange for her testimony biggest source of immigrant to new hampshire biggest source of immigrant to kansa biggest source of immigrant to kansa harvest fund management co ltd raise stake in alphabet inc nasdaqgoog biggest source of immigrant to alabama biggest source of immigrant to maine ucla to pay million to settle complaint of discrimination against jewish student ucla to pay million to settle complaint of discrimination against jewish student dont question my integrity spartacus return in dramatic senate floor showdown for jersey a daca recipient accidentally drove into mexico now he being fasttracked for deportation cashflow underwriting would bring fairness to mortgage lending the independent view big beautiful bill a former cdc vaccine adviser ha word for rfk jr segwayriding pest control salesperson described a pest themselves in upper township elsewhere gov walz activates minnesota national guard over st paul cyberattack gov walz activates minnesota national guard over st paul cyberattack nantucket official accuse offshore wind developer of going into hiding since trump election nantucket official accuse offshore wind developer of going into hiding since trump election nantucket official accuse offshore wind developer of going into hiding since trump election nc u senate race set to be one of nation biggest wrong way tom zirpoli big government is back commentary guest columnist an opportunity for much needed clarification together review the only one for me is you and you for me here how to see this week double meteor shower man run for mayor with really really really unfortunate name justice department fire two senior antitrust attorney alleging insubordination democraticled state sue trump admin over law that defunds planned parenthood uk will recognize palestine a a state if ceasefire not agreed on pm say mackenzie financial corp sell share of intuitive surgical inc nasdaqisrg trump say india will likely face a to tariff yearold girl reported missing in worcester</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="O26" t="n">
+        <v>141</v>
+      </c>
+      <c r="P26" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>163</v>
+      </c>
+      <c r="S26" t="n">
+        <v>55</v>
+      </c>
+      <c r="T26" t="n">
+        <v>175</v>
+      </c>
+      <c r="U26" t="n">
+        <v>157</v>
+      </c>
+      <c r="V26" t="n">
+        <v>58</v>
+      </c>
+      <c r="W26" t="n">
+        <v>82</v>
+      </c>
+      <c r="X26" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6339.39013671875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6427.02001953125</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6327.64013671875</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6427.02001953125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4035281000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.003694819341153</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>boeing narrow loss ahead of new cfo arrival how cadiz plan to deliver water relief to droughtprone community nvidias nvda ai chip in high demand despite export limit jefferies weighs in gaza reaching tipping point with clinic full of malnourished child say save the child worker we are doing it with a heavy heart israeli right group accuse government of genocide ap news summary at pm edt hoffa legend endures year after exdetroit union leader disappearance shiba inu news today shib price face key resistance a trader await august breakout chatgpt ceo sends a stern warning on this alarming practice meta q earnings update wall street is bullish eyeing ai opportunity with stock up this year business insider executive contract whats common and what to look for man in custody after a virginia council member wa set on fire ncdhhs partner with talkspace to provide free virtual mental health therapy to teen involved in or impacted by the justice system wall street stick with apple aapl a earnings and ai question loom ap technology summarybrief at pm edt edge fall protection expands headquarters and team to support continued growth fed hold main rate steady overriding two dissenting vote see the global impact of the sixthlargest earthquake ever ruvi ai ruvi just caught whale attention coinmarketcap listing spark frenzy could turn into figure unlike cardano ada inventhelp inventor develops new warming cooling vest ctk best coin under ozak ai could jump in one month new mexicobased wesst to close office cut staff amid federal funding uncertainty amazon sleek and stylish vintage laptop backpack is on sale for and shopper say it fit everything best portable bluetooth speaker of cpkc see profit and revenue jump on stronger volume barclays warns trader against chasing high oil price providence st mary foundation golf tournament raise adcolor announces nominee for th annual adcolor award fm to conclude with expertled ask anything closing session what are the advantage and disadvantage of artificial intelligence rebuilding america how skilled trade can revive community and career alibaba baba enters the ai wearable race with new smart glass divided fed hold key interest rate steady defying trump demand for aggressive cut whats going on with meta stock wednesday stronger sugar output in brazil pressure sugar price elon musk plan to build boring co tunnel in nashville spark partisan feud gemini cli hack expose critical security flaw in coding tool oklo stock is surging wednesday whats driving the action your labor day shopping guide to the best endofsummer deal high noon say some vodka seltzer were mislabeled a celsius energy drink issue recall high noon recall vodka seltzer pack mislabeled a celsius energy drink cbs news guest column minimum wage falling further behind cost of living solid july job gain reinforce fed wait and see rate stance how deeb ghezlan is expanding capital access for america real estate operator ap business summarybrief at pm edt dollar strength undercut ny cocoa price dont steal that hotel pillow buy it here for off watch live too late powell explains why ratecuts remain off the table despite dissent growth doubt federal reserve leaf interest rate unchanged even a trump demand cut how stablecoins are transforming enterprise financial strategy the fed keep borrowing cost high despite trump push for cutsheres why amazon to rally more than here are top analyst forecast for wednesday nba veteran charged with defrauding over k from strip casino ge vernova gev get mixed analyst call downgrade with a higher price target fed skip rate cut againbut reveals something we havent seen since reduced tariff risk weigh on arabica coffee white house trump suspends de minimis exemption for commercial shipment globally construction pro react to interest rate decision trump announces tariff on india and unspecified penalty for buying russian oil cnbc host mercilessly mock elizabeth warren and dems economic fearmongering v reality whats going on with coinbase stock today clean energy tax credit are going away here how to get them before it too late automaker are eating the cost of tariff for now npr what is a home equity agreement what is a home equity agreement what is a home equity agreement aw shuck national oyster day is tuesday aug who owns authorized user reward sometimes it complicated u senator raise alarm over delta air line testing of personalized pricing servicenow now downgraded due to limited upside potential hawthorn bancshares report second quarter result walmart flash deal give massive saving on kitchen essential this week army secretary withdraws west point job offer to former biden official amid pressure from farright activist hawthorn bancshares report second quarter result cnbc daily open the tariff rate you get is not just about your trade policy citi on board a transfer partner with american airline u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate worker sue hormel alleging violation of minnesota new sick and safe time law federal reserve vote on interest rate illinois tool work achieves record q boost outlook tesla tsla get analyst support a robotaxi vision move toward bay area launch ebay stock surge on earnings beat rosy guidance tc layoff expose deeper workforce crisis than rival analyst weigh in invesco canada announces risk rating change to canadian mutual fund fed decides against interest rate cutbut powell face first double dissent in decade u economy slowed in first half of a tariff scrambled data the new york time senate help committee unanimously pass esop association legislative priority the fed stay on hold and the key number to watch when meta and microsoft report cnbc the fed stay on hold and the key number to watch when meta and microsoft report federal reserve hold it benchmark rate steady at today fomc meeting fed leaf fund rate unchanged ap news summary at pm edt federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut some small maine college football program can finally join the playoff party it about time foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local gaza reaching tipping point with clinic full of malnourished child say save the child worker we are doing it with a heavy heart israeli right group accuse government of genocide newport beach fiscal folly a it pay two city manager live now senate foreign relation subcommittee hearing on finding opportunity for usafrica partnership man in custody after a virginia council member wa set on fire see the global impact of the sixthlargest earthquake ever wa review reconnecting vancouver wildlife area with columbia river whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast illinois lawmaker official seek input into how auto insurance rate are set whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast sc say lack of scientific standard prevents testing for freshwater amoeba that attack brain whats the difference between shame and guilt the ethical life podcast pope mark th anniversary of helsinki accord school and county begin to see payment delay a pennsylvania budget stalemate hit a month democrat blast politics of fear after trump claim against obama top aide a tiny california city prone to tsunami saw the highest wave in continental u after quake he always too late trump continues criticism of powell over interest rate do to require inperson consular interview for most nonimmigrant visa applicant trump administration is launching a new private health tracking system with big tech help trump unveils south korea trade deal boasting b investment in u gop sen josh hawley democrat vote to advance congressional stock trading ban texas republican unveil congressional map giving them a chance to pick up seat trump announces tariff on india and unspecified penalty for buying russian oil loyalty over democracy why is the democratic party favorability rating so low senate committee advance trump nominee to lead cybersecurity agency that protects election system virginia city councilman set on fire in local magazine office virginia city councilman set on fire in workplace attack suspect charged with attempted murder automaker are eating the cost of tariff for now kamala harris decides against run for california governor in doj say releasing epstein transcript serf public interest in new court filing federal reserve keep interest rate unchanged for fifth time army secretary withdraws west point job offer to former biden official amid pressure from farright activist analysisus reversal on key climate finding spell uncertainty for business u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro fed decides against interest rate cutbut powell face first double dissent in decade exclusive trump issue veto threat against bernie sander latest antiisrael move senate help committee unanimously pass esop association legislative priority federal reserve leaf interest rate unchanged even a trump demand cut state rep face new shoplifting charge senate panel advance bill banning congressional stock trading why harrison ford think politics may be making a healthy swing to the right scammer play into confusion over tariff immigration drug trafficking fed hold rate steady but see first double dissent in three decade gloversville republican committee endorses antonucci for mayor fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade whither the democratic party editorial gop senate leader reject trump call for end to bipartisan judicial nomination tradition epstein and maxwell grand jury transcript include testimony from only two witness justice department say texas republican propose new u house map with more winnable gop seat</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>boeing narrow loss ahead of new cfo arrival how cadiz plan to deliver water relief to droughtprone community nvidias nvda ai chip in high demand despite export limit jefferies weighs in gaza reaching tipping point with clinic full of malnourished child say save the child worker we are doing it with a heavy heart israeli right group accuse government of genocide ap news summary at pm edt hoffa legend endures year after exdetroit union leader disappearance shiba inu news today shib price face key resistance a trader await august breakout chatgpt ceo sends a stern warning on this alarming practice meta q earnings update wall street is bullish eyeing ai opportunity with stock up this year business insider executive contract whats common and what to look for man in custody after a virginia council member wa set on fire ncdhhs partner with talkspace to provide free virtual mental health therapy to teen involved in or impacted by the justice system wall street stick with apple aapl a earnings and ai question loom ap technology summarybrief at pm edt edge fall protection expands headquarters and team to support continued growth fed hold main rate steady overriding two dissenting vote see the global impact of the sixthlargest earthquake ever ruvi ai ruvi just caught whale attention coinmarketcap listing spark frenzy could turn into figure unlike cardano ada inventhelp inventor develops new warming cooling vest ctk best coin under ozak ai could jump in one month new mexicobased wesst to close office cut staff amid federal funding uncertainty amazon sleek and stylish vintage laptop backpack is on sale for and shopper say it fit everything best portable bluetooth speaker of cpkc see profit and revenue jump on stronger volume barclays warns trader against chasing high oil price providence st mary foundation golf tournament raise adcolor announces nominee for th annual adcolor award fm to conclude with expertled ask anything closing session what are the advantage and disadvantage of artificial intelligence rebuilding america how skilled trade can revive community and career alibaba baba enters the ai wearable race with new smart glass divided fed hold key interest rate steady defying trump demand for aggressive cut whats going on with meta stock wednesday stronger sugar output in brazil pressure sugar price elon musk plan to build boring co tunnel in nashville spark partisan feud gemini cli hack expose critical security flaw in coding tool oklo stock is surging wednesday whats driving the action your labor day shopping guide to the best endofsummer deal high noon say some vodka seltzer were mislabeled a celsius energy drink issue recall high noon recall vodka seltzer pack mislabeled a celsius energy drink cbs news guest column minimum wage falling further behind cost of living solid july job gain reinforce fed wait and see rate stance how deeb ghezlan is expanding capital access for america real estate operator ap business summarybrief at pm edt dollar strength undercut ny cocoa price dont steal that hotel pillow buy it here for off watch live too late powell explains why ratecuts remain off the table despite dissent growth doubt federal reserve leaf interest rate unchanged even a trump demand cut how stablecoins are transforming enterprise financial strategy the fed keep borrowing cost high despite trump push for cutsheres why amazon to rally more than here are top analyst forecast for wednesday nba veteran charged with defrauding over k from strip casino ge vernova gev get mixed analyst call downgrade with a higher price target fed skip rate cut againbut reveals something we havent seen since reduced tariff risk weigh on arabica coffee white house trump suspends de minimis exemption for commercial shipment globally construction pro react to interest rate decision trump announces tariff on india and unspecified penalty for buying russian oil cnbc host mercilessly mock elizabeth warren and dems economic fearmongering v reality whats going on with coinbase stock today clean energy tax credit are going away here how to get them before it too late automaker are eating the cost of tariff for now npr what is a home equity agreement what is a home equity agreement what is a home equity agreement aw shuck national oyster day is tuesday aug who owns authorized user reward sometimes it complicated u senator raise alarm over delta air line testing of personalized pricing servicenow now downgraded due to limited upside potential hawthorn bancshares report second quarter result walmart flash deal give massive saving on kitchen essential this week army secretary withdraws west point job offer to former biden official amid pressure from farright activist hawthorn bancshares report second quarter result cnbc daily open the tariff rate you get is not just about your trade policy citi on board a transfer partner with american airline u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate u stock market hold steady after the fed make no move on interest rate worker sue hormel alleging violation of minnesota new sick and safe time law federal reserve vote on interest rate illinois tool work achieves record q boost outlook tesla tsla get analyst support a robotaxi vision move toward bay area launch ebay stock surge on earnings beat rosy guidance tc layoff expose deeper workforce crisis than rival analyst weigh in invesco canada announces risk rating change to canadian mutual fund fed decides against interest rate cutbut powell face first double dissent in decade u economy slowed in first half of a tariff scrambled data the new york time senate help committee unanimously pass esop association legislative priority the fed stay on hold and the key number to watch when meta and microsoft report cnbc the fed stay on hold and the key number to watch when meta and microsoft report federal reserve hold it benchmark rate steady at today fomc meeting fed leaf fund rate unchanged ap news summary at pm edt federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut federal reserve leaf interest rate unchanged even a trump demand cut some small maine college football program can finally join the playoff party it about time foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local foreign couple flock to denmark to get married copenhagen want to save room for local gaza reaching tipping point with clinic full of malnourished child say save the child worker we are doing it with a heavy heart israeli right group accuse government of genocide newport beach fiscal folly a it pay two city manager live now senate foreign relation subcommittee hearing on finding opportunity for usafrica partnership man in custody after a virginia council member wa set on fire see the global impact of the sixthlargest earthquake ever wa review reconnecting vancouver wildlife area with columbia river whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast illinois lawmaker official seek input into how auto insurance rate are set whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast whats the difference between shame and guilt the ethical life podcast sc say lack of scientific standard prevents testing for freshwater amoeba that attack brain whats the difference between shame and guilt the ethical life podcast pope mark th anniversary of helsinki accord school and county begin to see payment delay a pennsylvania budget stalemate hit a month democrat blast politics of fear after trump claim against obama top aide a tiny california city prone to tsunami saw the highest wave in continental u after quake he always too late trump continues criticism of powell over interest rate do to require inperson consular interview for most nonimmigrant visa applicant trump administration is launching a new private health tracking system with big tech help trump unveils south korea trade deal boasting b investment in u gop sen josh hawley democrat vote to advance congressional stock trading ban texas republican unveil congressional map giving them a chance to pick up seat trump announces tariff on india and unspecified penalty for buying russian oil loyalty over democracy why is the democratic party favorability rating so low senate committee advance trump nominee to lead cybersecurity agency that protects election system virginia city councilman set on fire in local magazine office virginia city councilman set on fire in workplace attack suspect charged with attempted murder automaker are eating the cost of tariff for now kamala harris decides against run for california governor in doj say releasing epstein transcript serf public interest in new court filing federal reserve keep interest rate unchanged for fifth time army secretary withdraws west point job offer to former biden official amid pressure from farright activist analysisus reversal on key climate finding spell uncertainty for business u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro u sanction brazil supreme court justice overseeing case against bolsonaro fed decides against interest rate cutbut powell face first double dissent in decade exclusive trump issue veto threat against bernie sander latest antiisrael move senate help committee unanimously pass esop association legislative priority federal reserve leaf interest rate unchanged even a trump demand cut state rep face new shoplifting charge senate panel advance bill banning congressional stock trading why harrison ford think politics may be making a healthy swing to the right scammer play into confusion over tariff immigration drug trafficking fed hold rate steady but see first double dissent in three decade gloversville republican committee endorses antonucci for mayor fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade fed hold rate steady but see first double dissent in three decade whither the democratic party editorial gop senate leader reject trump call for end to bipartisan judicial nomination tradition epstein and maxwell grand jury transcript include testimony from only two witness justice department say texas republican propose new u house map with more winnable gop seat</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="O27" t="n">
+        <v>95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>125</v>
+      </c>
+      <c r="S27" t="n">
+        <v>74</v>
+      </c>
+      <c r="T27" t="n">
+        <v>228</v>
+      </c>
+      <c r="U27" t="n">
+        <v>143</v>
+      </c>
+      <c r="V27" t="n">
+        <v>62</v>
+      </c>
+      <c r="W27" t="n">
+        <v>29</v>
+      </c>
+      <c r="X27" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -2512,7 +2512,7 @@
         <v>6427.02001953125</v>
       </c>
       <c r="F27" t="n">
-        <v>4035281000</v>
+        <v>6077080000</v>
       </c>
       <c r="G27" t="n">
         <v>-0.003694819341153</v>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2573,6 +2573,84 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6238.009765625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6287.27978515625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6212.68994140625</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6287.27978515625</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5827150000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0159921331401484</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>miniso group holding limited unsponsored adr nysemnso given consensus recommendation of moderate buy by brokerage cleanspark nasdaqclsk research coverage started at ladenburg thalmsh sh i got accepted to harvard stanford and princeton thing my parent did at an early age it made all the difference tva report billion in operating revenue up from best free machine learning course on udemy youdao to report second quarter financial result on august zto to announce second quarter and halfyear interim financial result of on august u eastern time from the financial service csuite to leading a national school choice movement with erika donalds from the corner office closing the prime age employment gap netease to report second quarter financial result on august in remittix ethereumbased token might be your fast track to figure huge bonus are powering this surge cwm llc ha stake in cooperstandard holding inc nysecps invesco pharmaceutical etf nysearcapjp share sold by envestnet asset management inc ring energy inc nyseamericanrei share sold by bank of new york mellon corp intrinsic value partner llc ha million stock holding in ishares core sp smallcap etf nysearcaijr wealthquest corp sell share of ishares core sp smallcap etf nysearcaijr eastern bank sell share of ishares msci eafe etf nysearcaefa alexander randolph advisory inc buy share of ishares msci eafe etf nysearcaefa cordatus wealth management llc decrease stock position in ishares msci eafe etf nysearcaefa rvw wealth llc lower stock position in ishares msci eafe etf nysearcaefa u financial advisor llc grows stock holding in ishares msci eafe etf nysearcaefa tarbox family office inc sell share of ishares msci eafe etf nysearcaefa efg asset management america corp acquires share of ishares msci eafe etf nysearcaefa sound view wealth advisor group llc cut stock position in ishares russell growth etf nysearcaiwf ishares msci eafe etf nysearcaefa stock holding trimmed by lyell wealth management lp tillman hartley llc raise stock holding in ishares msci eafe etf nysearcaefa harvest fund management co ltd take position in eastgroup property inc nyseegp empirical financial service llc dba empirical wealth management ha million stock holding in ishares core sp smallcap etf nysearcaijr north star asset management inc acquires share of ishares msci eafe etf nysearcaefa efg asset management america corp sell share of ishares core sp smallcap etf nysearcaijr first national trust co ha million stock holding in ishares russell growth etf nysearcaiwf fiera capital corp ha million stake in tencent music entertainment group sponsored adr nysetme fiera capital corp sell share of blackrock muniholdings fund inc nysemhd envestnet asset management inc lower stock holding in invesco pharmaceutical etf nysearcapjp foundation investment advisor llc raise position in fidelity quality factor etf nysearcafqal foundation investment advisor llc decrease stake in global x sp catholic value etf nasdaqcath cwm llc buy share of cooperstandard holding inc nysecps fiera capital corp lower stake in inv vk mun opp nysevmo foundation investment advisor llc sell share of innovator u equity power buffer etf september batspsep foundation investment advisor llc purchase share of ishares russell midcap etf nysearcaiwr foundation investment advisor llc trim holding in ishares dow jones u etf nysearcaiyy foundation investment advisor llc buy share of innovator u equity ultra buffer etf september batsusep foundation investment advisor llc lower position in proshares ultra qqq nysearcaqld foundation investment advisor llc acquires share of american century u quality growth etf nysearcaqgro wealthquest corp ha million stock position in ishares core sp smallcap etf nysearcaijr empirical financial service llc dba empirical wealth management ha million stock holding in ishares core sp smallcap etf nysearcaijr alexander randolph advisory inc purchase share of ishares msci eafe etf nysearcaefa efg asset management america corp grows stake in ishares msci eafe etf nysearcaefa inmune bio inmb to release quarterly earnings on thursday rvw wealth llc sell share of ishares msci eafe etf nysearcaefa gen digital gen expected to announce earnings on thursday anghami nasdaqangh share set to reverse split on monday august th barclays forecast strong price appreciation for rtx nysertx stock stifel nicolaus issue pessimistic forecast for revvity nyservty stock price whitefiber inc plan million ipo for week of august th wyfi whitefiber inc plan million ipo for week of august th wyfi northrop grumman nysenoc given new price target at barclays apple doe it again promotes samsungs galaxy z flip by mistake sarepta therapeutic nasdaqsrpt raised to equal weight at barclays raymond james financial reaffirms outperform rating for alerus financial nasdaqalrs keycorp issue positive forecast for cadence design system nasdaqcdns stock price todd m schneider sell share of cintas corporation nasdaqctas stock columbia banking system nasdaqcolb given new price target at barclays jpmorgan chase co boost cadence design system nasdaqcdns price target to justin rosenstein sell share of asana inc nyseasan stock insider selling asana inc nyseasan director sell in stock east west bancorp inc nasdaqewbc ceo sell in stock holding ltd v sell share of cipher mining inc nasdaqcifr stock august j troendle sell share of medpace holding inc nasdaqmedp stock kellanova nysek major shareholder kellogg w k foundation trust sell share keefe bruyette wood cut meritage home nysemth price target to skywest nasdaqskyw stock price expected to rise evercore isi analyst say carvana co nysecvna ceo sell in stock insider selling medpace holding inc nasdaqmedp cfo sell share of stock michael o mccarthy iii sell share of quantumscape corporation nyseqs stock insider selling arista network inc nyseanet ceo sell share of stock august j troendle sell share of medpace holding inc nasdaqmedp stock keefe bruyette wood issue pessimistic forecast for meritage home nysemth stock price ubs group cut charter communication nasdaqchtr price target to john s jenkins sell share of te connectivity ltd nysetel stock tony xu sell share of doordash inc nasdaqdash stock vladimir galkin acquires share of newegg commerce inc nasdaqnegg stock tractor supply company nasdaqtsco cfo sell in stock doordash inc nasdaqdash ceo tony xu sell share tmobile u inc nasdaqtmus director telekom ag deutsche sell share tmobile u inc nasdaqtmus director telekom ag deutsche sell share peter l briger jr purchase share of microstrategy incorporated nasdaqmstr stock barclays cut hca healthcare nysehca price target to vanguard u momentum factor etf batsvfmo share purchased by empirical financial service llc dba empirical wealth management ishares russell etf nysearcaiwb share purchased by empirical financial service llc dba empirical wealth management synovus financial nysesnv price target cut to by analyst at stephen stephen raise ryder system nyser price target to ishares msci usa quality factor etf batsqual is empirical financial service llc dba empirical wealth management th largest position scotiabank increase lightspeed commerce nyselspd price target to range resource nyserrc price target raised to alexander randolph advisory inc sell share of royce otc micro nysermt ubs group raise u food nyseusfd price target to empirical financial service llc dba empirical wealth management grows position in vanguard smallcap value etf nysearcavbr empirical financial service llc dba empirical wealth management grows stock position in vanguard ftse allworld exus smallcap etf nysearcavss barrington research reaffirms outperform rating for quad graphic nysequad bg food inc nysebgs given average recommendation of reduce by analyst the real genocide isnt happening in gaza wyoming parent shouldnt lose hope about paused education choice fund republican already seem to be surrendering north carolina u senate race opinion alvia lewis frey despite friend effort i still forget thing what would carson say buuu group limited buuu plan to raise million in august th ipo barclays raise rtx nysertx price target to corporacion inmobiliaria vesta nysevtmx stock price expected to rise barclays analyst say trump warns canada backing palestinian state could damage u trade deal ptc therapeutic nasdaqptct price target raised to holding ltd v sell share of cipher mining inc nasdaqcifr stock teledyne technology incorporated nysetdy director sell in stock dominic ng sell share of east west bancorp inc nasdaqewbc stock insider selling maplebear inc nasdaqcart insider sell share of stock michael o mccarthy iii sell share of quantumscape corporation nyseqs stock cadence design system nasdaqcdns given new price target at jpmorgan chase co hca healthcare nysehca given a price target at royal bank of canada insider selling medpace holding inc nasdaqmedp president sell share of stock coliseum capital management l acquires share of sonos inc nasdaqsono stock ishares esg aware msci usa etf nasdaqesgu holding cut by empirical financial service llc dba empirical wealth management hershey nysehsy stock price expected to rise stifel nicolaus analyst say vanguard smallcap value etf nysearcavbr share acquired by empirical financial service llc dba empirical wealth management ishares short maturity municipal bond active etf batsmear share acquired by alexander randolph advisory inc standex international nysesxi receives outperform rating from barrington research ubs group issue positive forecast for hexcel nysehxl stock price u food nyseusfd price target raised to citigroup ha lowered expectation for waste connection nysewcn stock price procore technology nysepcor price target raised to lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation republican in texas release a proposal for a new congressional map brett j hart sell share of united airline holding inc nasdaqual stock trump medium technology group corp nasdaqdjtww short interest down in july ffbw inc nasdaqffbw see large decline in short interest kamala harris political future short interest in great elm capital corp note due nasdaqgeccz decline by aureus greenway holding inc nasdaqagh major shareholder sell in stock fidelity disruptive finance etf nasdaqfdff trading down time to sell atlas nasdaqatcol share up should you buy global gas co nasdaqhgasw short interest update liontown resource otcmktslinrf stock price down here what happened virnetx nysevhc share cross above day moving average here why senator alex padilla on redistricting effort by republican sen alex padilla say republican want to rig midterm with redistricting plan global x interest rate hedge etf nysearcarate stock price up here what happened cardio diagnostics nasdaqcdio trading higher time to buy benev capital bevff to release earnings on thursday avant brand otcmktsavtbf stock price down here why wearable device nasdaqwlds trading down time to sell coinshares international otcmktscnsrf trading higher still a buy first mid bancshares fmbh to release quarterly earnings on thursday heritage global hgbl to release earnings on thursday ecovyst ecvt projected to post earnings on thursday local leader to face texas lawmaker today a question linger about deadly july flooding trump blast failed former russian president medvedev to watch his word over war threat methuen mayor on publicly supporting market basket ceo if it not broken why fix it the democratic party face an uphill battle ahead of the next election cycle the democratic party is still trying to figure out it message after s defeat hoxton planning management llc acquires share of ishares global infrastructure etf nasdaqigf schwab shortterm u treasury etf nysearcascho share sold by towercrest capital management atlas wealth llc ha million stake in john hancock multifactor mid cap etf nysearcajhmm grantvest financial group llc raise holding in vanguard midcap value etf nysearcavoe grantvest financial group llc raise position in vanguard russell etf nasdaqvtwo grantvest financial group llc ha million stock holding in first trust rising dividend achiever etf nasdaqrdvy atlas wealth llc decrease holding in invesco sp smallcap financials etf nasdaqpscf cordatus wealth management llc raise position in hsbc holding plc nysehsbc lyell wealth management lp ha million position in ishares ibonds dec term corporate etf nysearcaibdu tillman hartley llc sell share of vanguard shortterm treasury etf nasdaqvgsh no jail time for man who vowed to kill a many jew a possible in toronto barclays forecast strong price appreciation for cemex nysecx stock tigress financial raise carnival nyseccl price target to d boral capital reiterates buy rating for canfite biopharma nysecanf north west tsenwc stock rating upgraded by royal bank of canada first quantum mineral tsefm price target raised to c d boral capital reaffirms buy rating for eon resource nyseamericaneonr keefe bruyette wood increase seacoast banking corporation of florida nasdaqsbcf price target to stephen issue positive forecast for autonation nysean stock price labor union representing some costco employee for short crossword clue im in no mood to argue with you crossword clue collaborative wealth managment inc decrease stock holding in spdr portfolio short term treasury etf nysearcaspts collaborative wealth managment inc sell share of spdr blackstone senior loan etf nysearcasrln lyell wealth management lp raise holding in vaneck merk gold etf nysearcaounz invesco national amtfree municipal bond etf nysearcapza stock position raised by collaborative wealth managment inc collaborative wealth managment inc ha position in proshares sp aristocrat etf batsnobl goodman financial corp grows stake in spdr portfolio sp mid cap etf nysearcaspmd collaborative wealth managment inc ha stock position in first trust tcw opportunistic fixed income etf nasdaqfixd collaborative wealth managment inc cut position in ishares core dividend growth etf nysearcadgro collaborative wealth managment inc buy share of spdr portfolio developed world exus etf nysearcaspdw vanguard shortterm corporate bond etf nasdaqvcsh share sold by goodman financial corp microsoft and openai try to rebalance their relationship redburn atlantic upgrade moonlake immunotherapeutics nasdaqmltx to hold neuren pharmaceutical otcmktsnurpf trading up here what happened gentex nasdaqgntx price target raised to singing machine nasdaqmics trading down here why domino pizza group otcmktsdmpzf share down should you sell agronomics otcmktsagnmf trading down whats next life nasdaqlif stock price expected to rise stifel nicolaus analyst say fortinet nasdaqftnt given new price target at well fargo company global oncology diagnostics market to reach billion by u childhood vaccination rate fall again a exemption set another record u childhood vaccination rate fall again a exemption set another record u childhood vaccination rate fall again a exemption set another record scotland give goahead for world largest offshore wind farm in israel there is a sea change a former official see opposition growing u kindergarten vaccination rate inched down again last year and the exemption rate rose again u kindergarten vaccination rate inched down again last year and the exemption rate rose again state street new coveredcall etf could turbocharge your monthly income what copper collapse mean for gold silver and mining stock gotb take over new york city with immersive curlpowered popups carronade share perspective on viasat tiktok mom hack tariff with backtoschool budget no idea if this is possible china is researching way to sabotage elon musk starlink satellite with laser sec launch project crypto here what it mean for you patent fee reimagined evaluating the trump administration valuedriven fee structure and it impact on innovator stock market news today market up on meta microsoft boost sp seeking alpha popular energy drink pulled from shelf for containing vodka collaborative wealth managment inc reduces stock position in the walt disney company nysedis bottling plant proposed in perth under planning board review stay adventure ready this summer with the igloo qt cooler now off employerfriendly noncompete legislation becomes law in florida erayak power solution group announces million registered direct offering lyno ai best presale to invest in bitcoin consolidates after fomc meeting what doe powell decision mean for eth xrp dogecoin best cryptos to buy and hold top pick for and beyond campines agile navigation through the trade war effect gray medium name eric walter a general manager of knoe and kaqy in monroe louisiana best workout apps in rudolph libbe group top crains annual ne ohio contractor list eu eye group lng buy to meet u commitment nvrh cost containment step include reduction in staff position walmart is selling a sophisticated burberry cologne for just and shopper like it nice subtle scent the linkedin hiring playbook for manager adam emrich named vice president of customer solution and sale at southern linc highyield dividend giant demolished analyst q earnings expectation construction on million white house ballroom to begin in september construction on million white house ballroom to begin in september data scientist ibm a scam or an inside job how coindcx lost m in crypto survey reveals barrier in u cleantech innovation estonia emerges a strategic partner survey reveals barrier in u cleantech innovation estonia emerges a strategic partner tenable holding analyst raise their forecast after betterthanexpected q earnings letter dont use tax dollar to betray due process datarobot zillow la vega is short k home a housing deficit continues to grow where venetian elegance meet miami skyline the european allure of cipriani residence parkview health commits to building fullservice hospital in west lafayette higher sugar output in brazil weighs on price real estate expert lance kammes highlight why family are moving to wheaton il in hellonation magazine homebuying expert sue lantz explains mortgage preapprovals in hellonation magazine fence expert corin clark explains what people misunderstand about residential installation in hellonation magazine almost through phase thanks to coinmarketcap listing ruvi ai ruvi holder eye gain catch it before it outpaces cardano ada cocoa price settle sharply higher on supply woe expert say ruvi ai ruvi could be this year biggest gainer presale skyrocket after coinmarketcap listing just like early ethereum eth forget prime walmart ha jlab earbuds for under brazil tariff risk underpin arabica coffee price justice kavanaugh defends supreme court terse emergency docket order my turn august is national breastfeeding month forward together lowcost highyield invesco etf with strong track record power your adventure with off the samsung t shield tb portable ssd ethereum eye new rally nomy research identifies ai boom a key driver gold gann cycle suggests bottom is inbut resistance loom these analyst boost their forecast on trane technology following q result mark carney fast fact how new u tariff on the eu and uk could affect the cost of booze my turn the connecticut river eight project figma triple in firstday trading figmas stock soar in it highly anticipated ipo market cap instantly hit b techcrunch trump announces day negotiating period with mexico a tariff rate stay in place invent inventor develops central vacuum system for vehicle interior pbt what to say and not say during a job interview figma stock blast off with wellreceived ipo the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom apple q earnings today analyst want update on ai progress iphone demand with the stock down business insider kolter urban selects firstservice residential to manage selene oceanfront residence kolter urban selects firstservice residential to manage selene oceanfront residence ohfa expands team with diverse hiring spree to bolster housing effort in ohio figma more than triple in nyse debut after selling share at rail deal will open new market for top u container port yahoo finance rail deal will open new market for top u container port uk want lender to simplify digital loan application amazon ad business jump year over year making b spire declares dividend spire declares dividend a most california city fall fresno and bakersfield climb in renter ranking justin timberlake reveals lyme disease diagnosis flo reach settlement in class action lawsuit after judge said he would toss plantiffs claim time to pay up on time uk government announces crackdown on late payment to small business starbucks could see a breakdown after stalling around key level according to the chart global trade in photo a a new deadline approach on trump tariff global trade in photo a a new deadline approach on trump tariff global trade in photo a a new deadline approach on trump tariff i cant watch this candace parker call out wnba for demanding big pay despite terrible play ap business summarybrief at pm edt china summons nvidia over backdoor safety risk in h chip construction of trump million white house ballroom to begin in september live now schumer senate democrat discus the effect of trump tariff trump sends witkoff and huckabee to inspect food distribution in gaza in israel there is a sea change a former official see opposition growing trump sends witkoff and huckabee to inspect food distribution in gaza more than national guard troop leaving la newsom say trump political theater backfired addison primary election result bidens postpresidential fall from grace even sadder than you think st louis to restart water shutoffs ending covid pause u and ecuador sign agreement to combat transnational crime epic game store is bringing fortnite back to google play detroit mayor primary election result feminist rape hoax obliterates life of canadian hockey star a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration man indicted after string of burglary at business storage unit in multnomah village trump sends witkoff and huckabee to inspect food distribution in gaza judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat should yearolds have a vote editorial branighan branighan branighan branighan branighan branighan branighan branighan branighan branighan it field trip day at the retirement home lefty engage in geriatric theatrics at wi rep steils home judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat illinois lawmaker official seek input into how auto insurance rate are set judge overseeing trump case speak out against threat trump go off on secondtier senator josh hawley for supporting bill he hate national view sorry big bird but you were the dumbest waste of tax dollar white house announces u official will travel into gaza lehigh county controller mark pinsley enters crowded race for congress in lehigh valley elephant in the room the latest america school child face trump order to resume pushup and pullups trump envoy to visit gaza a pressure mount on israel karoline leavitt announces white house will begin construction of new state ballroom ap news summary at pm edt the order of maine november ballot question ha been set justice kavanaugh defends supreme court terse emergency docket order justice kavanaugh defends supreme court terse emergency docket order fbi never probed confidential talk between dnc clinton campaign and george soros group bombshell intel file show mark carney fast fact froma harrop news for the downwardly mobile elite youre still elite epping police investigating biting incident at new england dragway a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom john brennan hope career dojfbi official are not going to carry on this absurd effort nudge nudge important to report traffic incident accident letter how trump made one of the most controversial post policy the new normal guest columnist question for rep comer klamath county board of commissioner meeting zoombombed what maine voter need to know about upcoming referendum question what maine voter need to know about upcoming referendum question justin timberlake reveals lyme disease diagnosis trump to approve new gaza aid plan after witkoff visit friday white house kamala harris decision kickstarts the democratic presidential primary takeaway how aid is distributed in gaza here the big beautiful bill million pet project that few noticed zuckerberg overtakes bezos for world thirdrichest person a meta rally add billion to his fortune the latest america school child face trump order to resume pushup and pullups the latest america school child face trump order to resume pushup and pullups trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza inside trump huge new vanity project a he build ft gold ballroom exclusive ron johnson urge hegseth to address military covid mandate victim following dcnf report u special envoy ambassador will inspect food distribution in gaza donald trump joke on south park help lift viewership by white house call sydney sweeney ad outrage cancel culture run amok rnc chair michael whatley announces senate bid in north carolina justin early to run for house district university of iowa need a reminder that no one is above antidei law watch grant help develop housing in kensington project how the left lost the working class trump threatens putin ally after he dared to compare him to sleepy joe trump sending witkoff huckabee to gaza amid aid and hunger crisis</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>miniso group holding limited unsponsored adr nysemnso given consensus recommendation of moderate buy by brokerage cleanspark nasdaqclsk research coverage started at ladenburg thalmsh sh i got accepted to harvard stanford and princeton thing my parent did at an early age it made all the difference tva report billion in operating revenue up from best free machine learning course on udemy youdao to report second quarter financial result on august zto to announce second quarter and halfyear interim financial result of on august u eastern time from the financial service csuite to leading a national school choice movement with erika donalds from the corner office closing the prime age employment gap netease to report second quarter financial result on august in remittix ethereumbased token might be your fast track to figure huge bonus are powering this surge cwm llc ha stake in cooperstandard holding inc nysecps invesco pharmaceutical etf nysearcapjp share sold by envestnet asset management inc ring energy inc nyseamericanrei share sold by bank of new york mellon corp intrinsic value partner llc ha million stock holding in ishares core sp smallcap etf nysearcaijr wealthquest corp sell share of ishares core sp smallcap etf nysearcaijr eastern bank sell share of ishares msci eafe etf nysearcaefa alexander randolph advisory inc buy share of ishares msci eafe etf nysearcaefa cordatus wealth management llc decrease stock position in ishares msci eafe etf nysearcaefa rvw wealth llc lower stock position in ishares msci eafe etf nysearcaefa u financial advisor llc grows stock holding in ishares msci eafe etf nysearcaefa tarbox family office inc sell share of ishares msci eafe etf nysearcaefa efg asset management america corp acquires share of ishares msci eafe etf nysearcaefa sound view wealth advisor group llc cut stock position in ishares russell growth etf nysearcaiwf ishares msci eafe etf nysearcaefa stock holding trimmed by lyell wealth management lp tillman hartley llc raise stock holding in ishares msci eafe etf nysearcaefa harvest fund management co ltd take position in eastgroup property inc nyseegp empirical financial service llc dba empirical wealth management ha million stock holding in ishares core sp smallcap etf nysearcaijr north star asset management inc acquires share of ishares msci eafe etf nysearcaefa efg asset management america corp sell share of ishares core sp smallcap etf nysearcaijr first national trust co ha million stock holding in ishares russell growth etf nysearcaiwf fiera capital corp ha million stake in tencent music entertainment group sponsored adr nysetme fiera capital corp sell share of blackrock muniholdings fund inc nysemhd envestnet asset management inc lower stock holding in invesco pharmaceutical etf nysearcapjp foundation investment advisor llc raise position in fidelity quality factor etf nysearcafqal foundation investment advisor llc decrease stake in global x sp catholic value etf nasdaqcath cwm llc buy share of cooperstandard holding inc nysecps fiera capital corp lower stake in inv vk mun opp nysevmo foundation investment advisor llc sell share of innovator u equity power buffer etf september batspsep foundation investment advisor llc purchase share of ishares russell midcap etf nysearcaiwr foundation investment advisor llc trim holding in ishares dow jones u etf nysearcaiyy foundation investment advisor llc buy share of innovator u equity ultra buffer etf september batsusep foundation investment advisor llc lower position in proshares ultra qqq nysearcaqld foundation investment advisor llc acquires share of american century u quality growth etf nysearcaqgro wealthquest corp ha million stock position in ishares core sp smallcap etf nysearcaijr empirical financial service llc dba empirical wealth management ha million stock holding in ishares core sp smallcap etf nysearcaijr alexander randolph advisory inc purchase share of ishares msci eafe etf nysearcaefa efg asset management america corp grows stake in ishares msci eafe etf nysearcaefa inmune bio inmb to release quarterly earnings on thursday rvw wealth llc sell share of ishares msci eafe etf nysearcaefa gen digital gen expected to announce earnings on thursday anghami nasdaqangh share set to reverse split on monday august th barclays forecast strong price appreciation for rtx nysertx stock stifel nicolaus issue pessimistic forecast for revvity nyservty stock price whitefiber inc plan million ipo for week of august th wyfi whitefiber inc plan million ipo for week of august th wyfi northrop grumman nysenoc given new price target at barclays apple doe it again promotes samsungs galaxy z flip by mistake sarepta therapeutic nasdaqsrpt raised to equal weight at barclays raymond james financial reaffirms outperform rating for alerus financial nasdaqalrs keycorp issue positive forecast for cadence design system nasdaqcdns stock price todd m schneider sell share of cintas corporation nasdaqctas stock columbia banking system nasdaqcolb given new price target at barclays jpmorgan chase co boost cadence design system nasdaqcdns price target to justin rosenstein sell share of asana inc nyseasan stock insider selling asana inc nyseasan director sell in stock east west bancorp inc nasdaqewbc ceo sell in stock holding ltd v sell share of cipher mining inc nasdaqcifr stock august j troendle sell share of medpace holding inc nasdaqmedp stock kellanova nysek major shareholder kellogg w k foundation trust sell share keefe bruyette wood cut meritage home nysemth price target to skywest nasdaqskyw stock price expected to rise evercore isi analyst say carvana co nysecvna ceo sell in stock insider selling medpace holding inc nasdaqmedp cfo sell share of stock michael o mccarthy iii sell share of quantumscape corporation nyseqs stock insider selling arista network inc nyseanet ceo sell share of stock august j troendle sell share of medpace holding inc nasdaqmedp stock keefe bruyette wood issue pessimistic forecast for meritage home nysemth stock price ubs group cut charter communication nasdaqchtr price target to john s jenkins sell share of te connectivity ltd nysetel stock tony xu sell share of doordash inc nasdaqdash stock vladimir galkin acquires share of newegg commerce inc nasdaqnegg stock tractor supply company nasdaqtsco cfo sell in stock doordash inc nasdaqdash ceo tony xu sell share tmobile u inc nasdaqtmus director telekom ag deutsche sell share tmobile u inc nasdaqtmus director telekom ag deutsche sell share peter l briger jr purchase share of microstrategy incorporated nasdaqmstr stock barclays cut hca healthcare nysehca price target to vanguard u momentum factor etf batsvfmo share purchased by empirical financial service llc dba empirical wealth management ishares russell etf nysearcaiwb share purchased by empirical financial service llc dba empirical wealth management synovus financial nysesnv price target cut to by analyst at stephen stephen raise ryder system nyser price target to ishares msci usa quality factor etf batsqual is empirical financial service llc dba empirical wealth management th largest position scotiabank increase lightspeed commerce nyselspd price target to range resource nyserrc price target raised to alexander randolph advisory inc sell share of royce otc micro nysermt ubs group raise u food nyseusfd price target to empirical financial service llc dba empirical wealth management grows position in vanguard smallcap value etf nysearcavbr empirical financial service llc dba empirical wealth management grows stock position in vanguard ftse allworld exus smallcap etf nysearcavss barrington research reaffirms outperform rating for quad graphic nysequad bg food inc nysebgs given average recommendation of reduce by analyst the real genocide isnt happening in gaza wyoming parent shouldnt lose hope about paused education choice fund republican already seem to be surrendering north carolina u senate race opinion alvia lewis frey despite friend effort i still forget thing what would carson say buuu group limited buuu plan to raise million in august th ipo barclays raise rtx nysertx price target to corporacion inmobiliaria vesta nysevtmx stock price expected to rise barclays analyst say trump warns canada backing palestinian state could damage u trade deal ptc therapeutic nasdaqptct price target raised to holding ltd v sell share of cipher mining inc nasdaqcifr stock teledyne technology incorporated nysetdy director sell in stock dominic ng sell share of east west bancorp inc nasdaqewbc stock insider selling maplebear inc nasdaqcart insider sell share of stock michael o mccarthy iii sell share of quantumscape corporation nyseqs stock cadence design system nasdaqcdns given new price target at jpmorgan chase co hca healthcare nysehca given a price target at royal bank of canada insider selling medpace holding inc nasdaqmedp president sell share of stock coliseum capital management l acquires share of sonos inc nasdaqsono stock ishares esg aware msci usa etf nasdaqesgu holding cut by empirical financial service llc dba empirical wealth management hershey nysehsy stock price expected to rise stifel nicolaus analyst say vanguard smallcap value etf nysearcavbr share acquired by empirical financial service llc dba empirical wealth management ishares short maturity municipal bond active etf batsmear share acquired by alexander randolph advisory inc standex international nysesxi receives outperform rating from barrington research ubs group issue positive forecast for hexcel nysehxl stock price u food nyseusfd price target raised to citigroup ha lowered expectation for waste connection nysewcn stock price procore technology nysepcor price target raised to lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation lithuania prime minister gintautas paluckas step down after investigation and protest calling for his resignation republican in texas release a proposal for a new congressional map brett j hart sell share of united airline holding inc nasdaqual stock trump medium technology group corp nasdaqdjtww short interest down in july ffbw inc nasdaqffbw see large decline in short interest kamala harris political future short interest in great elm capital corp note due nasdaqgeccz decline by aureus greenway holding inc nasdaqagh major shareholder sell in stock fidelity disruptive finance etf nasdaqfdff trading down time to sell atlas nasdaqatcol share up should you buy global gas co nasdaqhgasw short interest update liontown resource otcmktslinrf stock price down here what happened virnetx nysevhc share cross above day moving average here why senator alex padilla on redistricting effort by republican sen alex padilla say republican want to rig midterm with redistricting plan global x interest rate hedge etf nysearcarate stock price up here what happened cardio diagnostics nasdaqcdio trading higher time to buy benev capital bevff to release earnings on thursday avant brand otcmktsavtbf stock price down here why wearable device nasdaqwlds trading down time to sell coinshares international otcmktscnsrf trading higher still a buy first mid bancshares fmbh to release quarterly earnings on thursday heritage global hgbl to release earnings on thursday ecovyst ecvt projected to post earnings on thursday local leader to face texas lawmaker today a question linger about deadly july flooding trump blast failed former russian president medvedev to watch his word over war threat methuen mayor on publicly supporting market basket ceo if it not broken why fix it the democratic party face an uphill battle ahead of the next election cycle the democratic party is still trying to figure out it message after s defeat hoxton planning management llc acquires share of ishares global infrastructure etf nasdaqigf schwab shortterm u treasury etf nysearcascho share sold by towercrest capital management atlas wealth llc ha million stake in john hancock multifactor mid cap etf nysearcajhmm grantvest financial group llc raise holding in vanguard midcap value etf nysearcavoe grantvest financial group llc raise position in vanguard russell etf nasdaqvtwo grantvest financial group llc ha million stock holding in first trust rising dividend achiever etf nasdaqrdvy atlas wealth llc decrease holding in invesco sp smallcap financials etf nasdaqpscf cordatus wealth management llc raise position in hsbc holding plc nysehsbc lyell wealth management lp ha million position in ishares ibonds dec term corporate etf nysearcaibdu tillman hartley llc sell share of vanguard shortterm treasury etf nasdaqvgsh no jail time for man who vowed to kill a many jew a possible in toronto barclays forecast strong price appreciation for cemex nysecx stock tigress financial raise carnival nyseccl price target to d boral capital reiterates buy rating for canfite biopharma nysecanf north west tsenwc stock rating upgraded by royal bank of canada first quantum mineral tsefm price target raised to c d boral capital reaffirms buy rating for eon resource nyseamericaneonr keefe bruyette wood increase seacoast banking corporation of florida nasdaqsbcf price target to stephen issue positive forecast for autonation nysean stock price labor union representing some costco employee for short crossword clue im in no mood to argue with you crossword clue collaborative wealth managment inc decrease stock holding in spdr portfolio short term treasury etf nysearcaspts collaborative wealth managment inc sell share of spdr blackstone senior loan etf nysearcasrln lyell wealth management lp raise holding in vaneck merk gold etf nysearcaounz invesco national amtfree municipal bond etf nysearcapza stock position raised by collaborative wealth managment inc collaborative wealth managment inc ha position in proshares sp aristocrat etf batsnobl goodman financial corp grows stake in spdr portfolio sp mid cap etf nysearcaspmd collaborative wealth managment inc ha stock position in first trust tcw opportunistic fixed income etf nasdaqfixd collaborative wealth managment inc cut position in ishares core dividend growth etf nysearcadgro collaborative wealth managment inc buy share of spdr portfolio developed world exus etf nysearcaspdw vanguard shortterm corporate bond etf nasdaqvcsh share sold by goodman financial corp microsoft and openai try to rebalance their relationship redburn atlantic upgrade moonlake immunotherapeutics nasdaqmltx to hold neuren pharmaceutical otcmktsnurpf trading up here what happened gentex nasdaqgntx price target raised to singing machine nasdaqmics trading down here why domino pizza group otcmktsdmpzf share down should you sell agronomics otcmktsagnmf trading down whats next life nasdaqlif stock price expected to rise stifel nicolaus analyst say fortinet nasdaqftnt given new price target at well fargo company global oncology diagnostics market to reach billion by u childhood vaccination rate fall again a exemption set another record u childhood vaccination rate fall again a exemption set another record u childhood vaccination rate fall again a exemption set another record scotland give goahead for world largest offshore wind farm in israel there is a sea change a former official see opposition growing u kindergarten vaccination rate inched down again last year and the exemption rate rose again u kindergarten vaccination rate inched down again last year and the exemption rate rose again state street new coveredcall etf could turbocharge your monthly income what copper collapse mean for gold silver and mining stock gotb take over new york city with immersive curlpowered popups carronade share perspective on viasat tiktok mom hack tariff with backtoschool budget no idea if this is possible china is researching way to sabotage elon musk starlink satellite with laser sec launch project crypto here what it mean for you patent fee reimagined evaluating the trump administration valuedriven fee structure and it impact on innovator stock market news today market up on meta microsoft boost sp seeking alpha popular energy drink pulled from shelf for containing vodka collaborative wealth managment inc reduces stock position in the walt disney company nysedis bottling plant proposed in perth under planning board review stay adventure ready this summer with the igloo qt cooler now off employerfriendly noncompete legislation becomes law in florida erayak power solution group announces million registered direct offering lyno ai best presale to invest in bitcoin consolidates after fomc meeting what doe powell decision mean for eth xrp dogecoin best cryptos to buy and hold top pick for and beyond campines agile navigation through the trade war effect gray medium name eric walter a general manager of knoe and kaqy in monroe louisiana best workout apps in rudolph libbe group top crains annual ne ohio contractor list eu eye group lng buy to meet u commitment nvrh cost containment step include reduction in staff position walmart is selling a sophisticated burberry cologne for just and shopper like it nice subtle scent the linkedin hiring playbook for manager adam emrich named vice president of customer solution and sale at southern linc highyield dividend giant demolished analyst q earnings expectation construction on million white house ballroom to begin in september construction on million white house ballroom to begin in september data scientist ibm a scam or an inside job how coindcx lost m in crypto survey reveals barrier in u cleantech innovation estonia emerges a strategic partner survey reveals barrier in u cleantech innovation estonia emerges a strategic partner tenable holding analyst raise their forecast after betterthanexpected q earnings letter dont use tax dollar to betray due process datarobot zillow la vega is short k home a housing deficit continues to grow where venetian elegance meet miami skyline the european allure of cipriani residence parkview health commits to building fullservice hospital in west lafayette higher sugar output in brazil weighs on price real estate expert lance kammes highlight why family are moving to wheaton il in hellonation magazine homebuying expert sue lantz explains mortgage preapprovals in hellonation magazine fence expert corin clark explains what people misunderstand about residential installation in hellonation magazine almost through phase thanks to coinmarketcap listing ruvi ai ruvi holder eye gain catch it before it outpaces cardano ada cocoa price settle sharply higher on supply woe expert say ruvi ai ruvi could be this year biggest gainer presale skyrocket after coinmarketcap listing just like early ethereum eth forget prime walmart ha jlab earbuds for under brazil tariff risk underpin arabica coffee price justice kavanaugh defends supreme court terse emergency docket order my turn august is national breastfeeding month forward together lowcost highyield invesco etf with strong track record power your adventure with off the samsung t shield tb portable ssd ethereum eye new rally nomy research identifies ai boom a key driver gold gann cycle suggests bottom is inbut resistance loom these analyst boost their forecast on trane technology following q result mark carney fast fact how new u tariff on the eu and uk could affect the cost of booze my turn the connecticut river eight project figma triple in firstday trading figmas stock soar in it highly anticipated ipo market cap instantly hit b techcrunch trump announces day negotiating period with mexico a tariff rate stay in place invent inventor develops central vacuum system for vehicle interior pbt what to say and not say during a job interview figma stock blast off with wellreceived ipo the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom apple q earnings today analyst want update on ai progress iphone demand with the stock down business insider kolter urban selects firstservice residential to manage selene oceanfront residence kolter urban selects firstservice residential to manage selene oceanfront residence ohfa expands team with diverse hiring spree to bolster housing effort in ohio figma more than triple in nyse debut after selling share at rail deal will open new market for top u container port yahoo finance rail deal will open new market for top u container port uk want lender to simplify digital loan application amazon ad business jump year over year making b spire declares dividend spire declares dividend a most california city fall fresno and bakersfield climb in renter ranking justin timberlake reveals lyme disease diagnosis flo reach settlement in class action lawsuit after judge said he would toss plantiffs claim time to pay up on time uk government announces crackdown on late payment to small business starbucks could see a breakdown after stalling around key level according to the chart global trade in photo a a new deadline approach on trump tariff global trade in photo a a new deadline approach on trump tariff global trade in photo a a new deadline approach on trump tariff i cant watch this candace parker call out wnba for demanding big pay despite terrible play ap business summarybrief at pm edt china summons nvidia over backdoor safety risk in h chip construction of trump million white house ballroom to begin in september live now schumer senate democrat discus the effect of trump tariff trump sends witkoff and huckabee to inspect food distribution in gaza in israel there is a sea change a former official see opposition growing trump sends witkoff and huckabee to inspect food distribution in gaza more than national guard troop leaving la newsom say trump political theater backfired addison primary election result bidens postpresidential fall from grace even sadder than you think st louis to restart water shutoffs ending covid pause u and ecuador sign agreement to combat transnational crime epic game store is bringing fortnite back to google play detroit mayor primary election result feminist rape hoax obliterates life of canadian hockey star a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration man indicted after string of burglary at business storage unit in multnomah village trump sends witkoff and huckabee to inspect food distribution in gaza judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat should yearolds have a vote editorial branighan branighan branighan branighan branighan branighan branighan branighan branighan branighan it field trip day at the retirement home lefty engage in geriatric theatrics at wi rep steils home judge overseeing trump case speak out against threat judge overseeing trump case speak out against threat illinois lawmaker official seek input into how auto insurance rate are set judge overseeing trump case speak out against threat trump go off on secondtier senator josh hawley for supporting bill he hate national view sorry big bird but you were the dumbest waste of tax dollar white house announces u official will travel into gaza lehigh county controller mark pinsley enters crowded race for congress in lehigh valley elephant in the room the latest america school child face trump order to resume pushup and pullups trump envoy to visit gaza a pressure mount on israel karoline leavitt announces white house will begin construction of new state ballroom ap news summary at pm edt the order of maine november ballot question ha been set justice kavanaugh defends supreme court terse emergency docket order justice kavanaugh defends supreme court terse emergency docket order fbi never probed confidential talk between dnc clinton campaign and george soros group bombshell intel file show mark carney fast fact froma harrop news for the downwardly mobile elite youre still elite epping police investigating biting incident at new england dragway a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration a look at college with federal money targeted by the trump administration the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom the latest judge question trump authority to impose sweeping tariff aug deadline loom john brennan hope career dojfbi official are not going to carry on this absurd effort nudge nudge important to report traffic incident accident letter how trump made one of the most controversial post policy the new normal guest columnist question for rep comer klamath county board of commissioner meeting zoombombed what maine voter need to know about upcoming referendum question what maine voter need to know about upcoming referendum question justin timberlake reveals lyme disease diagnosis trump to approve new gaza aid plan after witkoff visit friday white house kamala harris decision kickstarts the democratic presidential primary takeaway how aid is distributed in gaza here the big beautiful bill million pet project that few noticed zuckerberg overtakes bezos for world thirdrichest person a meta rally add billion to his fortune the latest america school child face trump order to resume pushup and pullups the latest america school child face trump order to resume pushup and pullups trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza trump special envoy witkoff and u ambassador huckabee will inspect food distribution in gaza inside trump huge new vanity project a he build ft gold ballroom exclusive ron johnson urge hegseth to address military covid mandate victim following dcnf report u special envoy ambassador will inspect food distribution in gaza donald trump joke on south park help lift viewership by white house call sydney sweeney ad outrage cancel culture run amok rnc chair michael whatley announces senate bid in north carolina justin early to run for house district university of iowa need a reminder that no one is above antidei law watch grant help develop housing in kensington project how the left lost the working class trump threatens putin ally after he dared to compare him to sleepy joe trump sending witkoff huckabee to gaza amid aid and hunger crisis</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9991</v>
+      </c>
+      <c r="O28" t="n">
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>309</v>
+      </c>
+      <c r="S28" t="n">
+        <v>108</v>
+      </c>
+      <c r="T28" t="n">
+        <v>410</v>
+      </c>
+      <c r="U28" t="n">
+        <v>160</v>
+      </c>
+      <c r="V28" t="n">
+        <v>68</v>
+      </c>
+      <c r="W28" t="n">
+        <v>40</v>
+      </c>
+      <c r="X28" t="n">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2651,6 +2651,84 @@
         <v>168</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6329.93994140625</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6330.68994140625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6271.7099609375</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6271.7099609375</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4842580000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.014737100330916</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>nintendo break sale record did delayed gta release save switch fedex corporation fdxs ceo is a hitter say jim cramer inside gamesxs ai revolution can india become the next global gamechanger intel corporation intc taught me not to trust ai chatbots say jim cramer ipo stock of the week china stock leader atour test buy point amid market fall the procter gamble company pg it just not great say jim cramer espn obtains redzone other medium asset from nfl in blockbuster deal per report this week in ai key to agentic ai adoption plus ai action plan from u china mcdonalds plan major ai expansion to streamline customer order executive say paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame oil major beat back billion fine in kazakhstan paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame the outdated management mindset holding your business back paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame i worked in the building where people were killed here how to make your building more secure paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame columbia is selling a stylish quilted jacket for and reviewer say it is wellmade paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame top action comedy anime series in paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame already hit your k limit in here what to do next cadence design system inc cdnss number show nvidia is in great shape in china say jim cramer alnylams amvuttra make powerful entrance eye firstline dominance president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report nvidia corporation nvda could be in great shape in china say jim cramer the boeing company ba a horse it ceo ha done a great job say jim cramer doj identifies tariff fraud a enforcement priority waste management inc wms ceo is doing a remarkable job say jim cramer merck co inc mrk need to move on from talking about it animal division say jim cramer starbucks corporation sbux dont worry about luckin coffee say jim cramer sarah jessica parker announces emotional and poetic end to and just like that carrier global corporation carr delivered a good quarter say jim cramer iphone pro launch in september new colour a pro chip expected india price and more otis worldwide corporation otis had a tough quarter china wa horrible say jim cramer a apple watch series is just one click away at stacksocial celestica inc cl is up huge say jim cramer ai evolution prompt sense of urgency among cfo oracle jury say tesla wa partly to blame for fatal crash trump issue nuclear threat to russiaand wall street fear gauge go vertical crypto founder take note these sec roundtable could decide the rule that govern you sugar price pressured a brazil ramp up sugar production this week in stablecoins building nextgen rail for enterprise finance tesla must pay million in damage after fatal autopilot crash jury say cnbc miami jury find tesla partly liable in autopilot crash award million in punitive damage nbc news bond etf could catch a tailwind from job data tesla tsla is found liable in fatal autopilot crash ha to pay million the latest u stock market and global trade partner react to trump new tariff no one can be that wrong trump fire labor statistic bos after weak revised job data the green revolution anand chandra cofounder executive director aryaag on fixing india agri gap with tech cocoa price sharply lower on the outlook for adequate supply what ghislaine maxwell move to a lowersecurity federal prison camp could signal reddit want to replace google a the internet top search engine investor are all in ct bond commission approves m to lower electric bill republican say it not enough coffee price plunge a supply concern ease the latest business and u trading partner worldwide respond to trump new tariff the latest business and u trading partner worldwide respond to trump new tariff nextnav and oscilloquartz partner to advance g based timing solution for critical infrastructure resmed analyst increase their forecast after strong q earnings hedge fund and insider trading news william heard warren buffett ray dalio bill ackman rokos capital management alden global capital clear channel outdoor holding inc cco and more here are reason we are not going to buy stock in friday nosediving market this is why coinbase stock coin is cratering today tipranks phoenix az lemonade stand squeeze success expands into western state with over million in sale top cryptos to join now for that could deliver big return a new bowling center wa big news in west valley bowl face endofmonth deadline corporation for public broadcasting will shutter after trump funding cut the best trader in congress how to track politician stock trade a dallas bank is confident it loss will pay off best gold stock to watch in midtiers and junior beat the major online creator led by mrbeast and mark rober want to raise million for clean water access online creator led by mrbeast and mark rober want to raise million for clean water access online creator led by mrbeast and mark rober want to raise million for clean water access former chairman of savannah economic development dy jury order tesla to pay m in autopilot crash case opening it up to other costly lawsuit jury order tesla to pay m in autopilot crash case opening it up to other costly lawsuit online creator led by mrbeast and mark rober want to raise million for clean water access tesla found partially liable for fatal crash involving driverassistance technology jury order million in damage the washington post india secret weapon for defence sovereignty through ai and zerochina tech trump injects a new dose of uncertainty in tariff a he push start date back to aug trump injects a new dose of uncertainty in tariff a he push start date back to aug these analyst boost their forecast on microstrategy following q result trump injects a new dose of uncertainty in tariff a he push start date back to aug unit moving and portable storage return a primary sponsor for timmy hill at watkins glen nascar truck series race tech stock lead selloff a soft labor data fuel fed cut bet the eye of the hurricane why the u job market ha soured economist say here what could get more expensive from trump massive tariff hike here what could get more expensive from trump massive tariff hike trump seek to leave his goldplated stain on the white house beatrice police department hosting national night out nicole leone former executive director erie humane society ha september trial date president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report north carolina u senate race turn into a battle for the middle class sarah jessica parker announces emotional and poetic end to and just like that ghislaine maxwell join famous prisoner in move to texas prison camp wave of fake credential spark political fallout in spain gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade corporation for public broadcasting which fund pb npr to close after federal aid cut nyc subway nightmare flood trap commuter in filth and failure the latest u stock market and global trade partner react to trump new tariff what ghislaine maxwell move to a lowersecurity federal prison camp could signal what new public comment rule mean for speaking at local meeting in bismarckmandan area corporation for public broadcasting will shutter after trump funding cut congressman view here the truth about impact of beautiful bill on st louis county trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev state college rally planned a another local health system cut youth trans care more american couple are turning to italy dolce vita in a quest for memorable wedding city say thursday odor came from construction of city new industrial water plant trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia cult of cruelty ghastly photo video of emaciated israeli hostage released by gaza terrorist here what could get more expensive from trump massive tariff hike red state move to slash medicaid funding for planned parenthood trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev guest columnist we must empower support girl and boy trump order nuclear submarine repositioned after provocative statement from russia editorial maxwell talk giving more life to a conspiracy shribman who a hero in the age of trump brown fulfilling the promise of the ada a trophy hunter killed a lion in zimbabwe that wa part of a research project sparking anger pensacola man traveled to orlando stealing smokey bear sign along the way official say kamala harris insufferably cackle over the government spying on american through wireless earpods western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens trump say he deploying two nuclear sub after provocative comment from exrussian leader democrat are struggling to block trump texas power grab the healing power of sunlight office cleaner who came facetoface with the manhattan gunman detail his deadly rampage corporation for public broadcasting funder of npr and pb say it will end operation within month after federal budget cut dozen of protester swarm chuck schumer kirsten gillibrands nyc office to let gaza live fourth circuit rule unanimously in favor of employee in two case involving employer allegation of breach of restrictive covenant city county official talk about animal control a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation trump plan to build million white house party room america rising part a federal judge just called out the trump administration for lying to the supreme court k nieth to retire fbi official reportedly redacted reference to trump from epstein file trump positioning two nuclear submarine near russia following russian official threat of war how immigration legislation is dangerous to immigrant judge pause removal of k migrant from honduras nicaragua and nepal in overthetop ruling democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan trump weighs in on american eagle sydney sweeney ad shiba inu and cardano set to breakout a one new token set sight on gain top cryptos to buy in trimiq weight loss official launched in uk and ireland with green tea probiotic complex free spin no deposit bonus casino online real money casino no deposit by wild casino the shock job report set off this recession alert and hold fresh clue that ai may be boosting unemployment jpmorgan say fortune crypto presale that could make you a millionaire in dogecoin ada xrp cant match ozak ai potential arialief for neuropathy supplement official launch of a new hope for sciatic nerve discomfort relief the ig choice ha gone off the rail reader commentary what to know if youre at risk of having your wage garnished over student loan debt m raised and climbing ruvi ai ruvi called ripple xrp a coinmarketcap listing made it token one of the highest in demand why parent are suing snapchat over fentanyl death tea encouraged it user to spill then the apps data got leaked npr federal reserve governor resigns creating vacancy for trump federal reserve governor resigns creating vacancy for trump upicom bragar eagel squire pc is reminds investor of class action against neogen alto bragar eagel squire pc is reminds investor of class action against neogen alto rxsight and replimune and encourages investor to contact the firm audizen drop officially launched natural tinnitus support inspired by audifort europe ev sale report tesla ha plus win in a ev share market matsato knife official launch in australia usa redefining precision and power in the kitchen warren buffett dividend stock you can buy and hold forever crushed q earnings luka doncic agrees to a threeyear million contract extension through with the la lakers the financial swamp of banking regulator who decide which american get their bank account shut down sam altman compare openai to the manhattan projectand he not joking about the risk the democrat have a mamdani problem editorial toncoin at ondo cross while cold wallet entry crypto reward outclass both weekend gaming best ipad game to try in little pepe lilpepe price prediction for show strong potential to beat solana sol and cardano ada sluggish summer in sin city la vega see big drop in tourist ap business summarybrief at pm edt ap business summarybrief at pm edt from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price texas panel advance redrawn congressional map that could take democratic seat your money exit a business or equity position without regret pepes chart turn positive litecoin gather whale support blockdag expands web reach with devs a day workweek isnt good just for team moral it also good for the bottom line teleflex raise outlook following strong q and biotronik acquisition tucson trolley tour operator seek to expand reach former trump prosecutor jack smith probed for alleged election interference u hiring slowed sharply over the summer the wall street journal mstr news michael saylor explains why strategy strc preferred stock is the firm iphone moment coindesk harvard say it will comply with dhs request to hand over employment form missed binance coin bnb expert say ruvi ai ruvi audited token is next millionaire maker a coinmarketcap listing spark high demand what to know if youre at risk of having your wage garnished over student loan debt how to safely download and install game on your laptop shib find support ondo hold while cold wallet price gas rebate make it a top crypto to watch little pepe lilpepe gather momentum with gain ahead while cardano ada nears run the trump administration take a very orwellian turn how this week avalanche of news from washington to wall street kept investor guessing westchester capital management inc trim stake in valero energy corporation nysevlo united super pty ltd in it capacity a trustee for the construction building union superannuation fund make new investment in valero energy corporation nysevlo decadeold bitcoin wallet emptied million in btc moved amid market correction how florida quietly surpassed california in solar growth ukrainian longrange drone hit multiple russian refinery factory overnight journointerior designer jim acosta guarantee trump wh ballroom is going to look like st americu appoints new community relation manager mitsubishi ufj trust banking corp purchase share of ge aerospace nysege j safra sarasin holding ag purchase share of thermo fisher scientific inc nysetmo mitsubishi ufj trust banking corp sell share of thermo fisher scientific inc nysetmo banco santander sa ha million stake in thermo fisher scientific inc nysetmo the walt disney company nysedis share bought by bank of nova scotia trust co the walt disney company nysedis stake lifted by r squared ltd the walt disney company nysedis share acquired by j safra sarasin holding ag the walt disney company nysedis share bought by j safra sarasin holding ag banco santander sa increase stock holding in the walt disney company nysedis this ai is set to flip every major altcoinare you in figma ipo surprise winner is a charity with million sharesand a famous backstory that sparked a bitter feud over an oil fortune decade ago fortune the hidden signal in oil market moor cabot inc ha million stock holding in the goldman sachs group inc nysegs moor cabot inc buy share of the goldman sachs group inc nysegs hartford investment management co cut stock position in zoetis inc nysezts how florida quietly surpassed california in solar growth cnbc lesson from a decade of empowering woman entrepreneur to lead boldly best trucking bookkeeping service three stock to consider today blockdags no vesting pas with roi end soon eth eye jup drop just of smallbusiness owner say the child care crisis is a critical problem here why pepeto price forecast will this presale meme coin surpass dogecoin shiba inu and ethereum editorial beyond the number study into subminimum must consider all ramification thing to know about palantir pltr before it report q earnings best trucking bookkeeping service it super disrespectful wnba player exasperated after sex toy thrown onto court for second time in a week claude cutoff anthropic revoke openais api access ahead of gpt launch malaga cove capital llc sell share of abbott laboratory nyseabt bayforest capital ltd ha stake in fidelity national financial inc nysefnf vestcor inc buy share of fidelity national financial inc nysefnf modera wealth management llc sell share of arista network inc nyseanet bank of nova scotia sell share of procter gamble company the nysepg bank of nova scotia increase stock holding in arista network inc nyseanet aviso wealth management acquires share of procter gamble company the nysepg aviso wealth management cut position in the boeing company nyseba j safra sarasin holding ag purchase share of abbott laboratory nyseabt pathway financial adviser llc purchase share of eli lilly and company nyselly aviso wealth management lower stock position in the boeing company nyseba procter gamble company the nysepg share bought by j safra sarasin holding ag what are the best dividend growth stock i should invest in right now hims alert bragar eagel squire pc announces that a class action lawsuit ha been steve witkoff meet with hostage family in tel aviv susan estrich the harvard fight money v principle jet holiday ad audio used in ice deportation video shes so cringe christine pelosi tease that shes running but not the way youd think video from the dream of dr king to the nightmare that is donald trump opinion from the dream of dr king to the nightmare that is donald trump opinion from the dream of dr king to the nightmare that is donald trump opinion guam d printing facility to enhance navy maintenance capability the ig choice ha gone off the rail reader commentary trump motif can be opaque i asked a feminist economist to bare them india stand firm on russian oil import despite trump sanction threat pedaling dei cycling weekly demand bike community include fat black woman or theyre racist the u military just launched it largest air exercise in year pennsylvania lawmaker say child care is broken but dont agree on how to fix it yet twice told tale city council attends team building workshop if trump save maxwell he will destroy everything he promised pope thrill hundred of thousand of young catholic at holy year youth festival pope thrill hundred of thousand of young catholic at holy year youth festival are republican doing enough to confirm trump nominee conservative critic say no texas panel advance redrawn congressional map that could take democratic seat trump wa asked about his press secretary performance his answer took a weird turn a i see it corvallis ha done nothing to help gazans how top democrat are already gearing up for online texas is moving forward with it radical redistricting plan america trucker need a place to park george mason university president keep job get a raise despite trump admins probe in which way is the bls biased donna brazile say nprpbsdefunding maga cannot compete with idea cue a hard trip over hillary right degree wrong time new graduate face discouraging odds of landing a job trump administration move to ban abortion care for veteran unspeakably cruel manhunt intensifies for suspect in montana bar mass shooting texas panel advance redrawn congressional map that could take democratic seat bill maher know trump losing credibility when these supporter smell bullst kevin oleary slam trump for whacking bls chief after disappointing job report you dont shoot the messenger trump administration halted civil right lawsuit targeting abuse of prisoner and the mentally ill it wa never about safety one week in here whats blocked by the uk orwellian online bill these three country dominate the fighter jet export marketfor now tiktok can shape america next generation and beijing know it former trump prosecutor jack smith probed for alleged election interference virginia end fiscal year with million surplus for next budget bonus editorial cartoon for aug other voice conserving enhancing agricultural resource with solar energy trump alum share chilling google message from before secondterm return lawfare at it finest texas house panel advance redrawn congressional map that would add more gop seat letter nd representative helping put our nation closer to fiscal crisis tracey weiss our ocean backyard coming soon opening the gate to cotonicoast dairy senate make progress in averting government shutdown much earlier than usual no piecemeal deal witkoff tell hostage family trump want full gaza agreement will the wnba approve record m deal to bring connecticut sun to boston proud democrat call into chris cuomos show admits she wa wrong about trump shes not the only one texas house committee advance gopfriendly map texas house committee advance gopfriendly map texas house committee advance gopfriendly map release the epstein file and end the coverup texas house committee advance gopfriendly map texas house committee advance gopfriendly map texas house committee advance gopfriendly map the trump administration take a very orwellian turn new photo reveal iconic white house rose garden paved over after trump makeover the nfls new kickoff rule is here to stay with a slight tweak what else is changing oversea chinese banking corp ltd raise position in ecolab inc nyseecl westchester capital management inc ha million stake in becton dickinson and company nysebdx ecolab inc nyseecl share purchased by mirabaud cie sa limited option for democrat to retaliate if texas republican redraw congressional map trump hit brazilian product with tariff over bolsonaro sign that someone you know is secretly broke do they apply to the people around you party poopers less than of american friendship cross political line texas house committee advance redrawn congressional map congressional redistricting map pass house committee pushing dems towards quorum break how trump became the new master of the senate luka doncic lakers agree to year million extension banco santander sa grows stock position in the walt disney company nysedis union pacific corporation nyseunp share sold by mitsubishi ufj trust banking corp moor cabot inc ha million stock holding in zoetis inc nysezts black swimmer teach others to help end history of aquatic segregation laduke let the sun shine so say former intelligence agent rolling stone claim the kremlin made up russiagate evidence can donald trump f diplomacy keep everyone happy laduke let the sun shine laduke let the sun shine in japan launched a second strike on pearl harborsort of laduke let the sun shine your view people have the right to sign recall petition laduke let the sun shine letter to the editor the generosity of kentuckian laduke let the sun shine laduke let the sun shine it super disrespectful wnba player exasperated after sex toy thrown onto court for second time in a week it trump economy now the latest financial number offer some warning sign aviso wealth management sell share of eli lilly and company nyselly j safra sarasin holding ag buy share of procter gamble company the nysepg steve witkoff meet with hostage family in tel aviv u court upholds order blocking indiscriminate targeting by immigration patrol u court upholds order blocking indiscriminate targeting by immigration patrol oversea chinese banking corp ltd reduces stock position in welltower inc nysewell here what we know about the anaconda shooter the victim and ongoing search effort banque cantonale vaudoise purchase new position in entergy corporation nyseetr the sherwinwilliams company nyseshw position lifted by banco santander sa lsv asset management sell share of phillips nysepsx profit drop at warren buffetts berkshire hathaway a it writes down it kraft heinz investment moor cabot inc sell share of thermo fisher scientific inc nysetmo trump tariff are making money that may make them hard to quit the new york time revolution camp unhinged white liberal spend weekend smashing junk in antitrump fury sen josh hawleys longshot stock trading ban bill advance rankles trump larimer county restaurant inspection made july st louis boeing worker again reject contract strike to begin at midnight former associate executive director file lawsuit against ahsaa boeings st louis union worker will strike on monday boeing defense union poised for it first strike since bloombergcom mahjong the latest networking opp for woman entrepreneur why analyst say this audited ai token is the next big thing coinmarketcap listing spark daily sale in the million luxury label lose their luster amid changing vibe gucci sale plunge and lvmh disappoints best crypto to buy now and secure early gain north texas father of win million at choctaw casino this cookware maker is bracing for steel tariff behind a wall of pot and pan nbc news opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day trump live update white house defends firing bls commissioner over weak job number the new york time opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day white house official defend firing of labor official a critic warn of trust erosion clickbait and clean water youtubers are the new philanthropist palantir advanced micro walt disney pfizer zoominfo and more stock to watch this week barrons sen blackburn to introduce bill to root out embedded foreign interest free iq test online with instant result reliable accurate free realiqonline roll out new iq testing experience himerex pro this himerex pro uk app set new standard in aidriven trading with unmatched security and user approval ev lead vehicle category in california berkshire earnings key takeaway strong profit no buyback high cash level barrons steam and itchio pull hundred of adult game over alleged visa mastercard pressure pauline ferrandprevot win tour de france femmes becoming first french rider to win event since iam district member in st louis reject latest boeing offer strike for fair contract iam union bmw sue teen entrepreneur twice over alibaba trademark infringement top trader see ripple xrp hitting binance coin bnb and little pepe lilpepe when to buy for maximum roi starbucks to close pickup store in back to starbucks pivot citigroup launch stratum elite card to rival chase sapphire reserve disney world ferry crash into dock in stormy weather injuring rider u manufacturing resurgence foreign firm relocate amid tariff the fantastic four first step hold it lead atop the box office the fantastic four first step hold it lead atop the box office the fantastic four first step hold it lead atop the box office la vega unemployment at amid tourism drop and visitor de</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nintendo break sale record did delayed gta release save switch fedex corporation fdxs ceo is a hitter say jim cramer inside gamesxs ai revolution can india become the next global gamechanger intel corporation intc taught me not to trust ai chatbots say jim cramer ipo stock of the week china stock leader atour test buy point amid market fall the procter gamble company pg it just not great say jim cramer espn obtains redzone other medium asset from nfl in blockbuster deal per report this week in ai key to agentic ai adoption plus ai action plan from u china mcdonalds plan major ai expansion to streamline customer order executive say paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame oil major beat back billion fine in kazakhstan paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame the outdated management mindset holding your business back paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame i worked in the building where people were killed here how to make your building more secure paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame columbia is selling a stylish quilted jacket for and reviewer say it is wellmade paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame top action comedy anime series in paula deen ha abruptly closed the savannah restaurant that launched her to food network fame paula deen ha abruptly closed the savannah restaurant that launched her to food network fame already hit your k limit in here what to do next cadence design system inc cdnss number show nvidia is in great shape in china say jim cramer alnylams amvuttra make powerful entrance eye firstline dominance president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report nvidia corporation nvda could be in great shape in china say jim cramer the boeing company ba a horse it ceo ha done a great job say jim cramer doj identifies tariff fraud a enforcement priority waste management inc wms ceo is doing a remarkable job say jim cramer merck co inc mrk need to move on from talking about it animal division say jim cramer starbucks corporation sbux dont worry about luckin coffee say jim cramer sarah jessica parker announces emotional and poetic end to and just like that carrier global corporation carr delivered a good quarter say jim cramer iphone pro launch in september new colour a pro chip expected india price and more otis worldwide corporation otis had a tough quarter china wa horrible say jim cramer a apple watch series is just one click away at stacksocial celestica inc cl is up huge say jim cramer ai evolution prompt sense of urgency among cfo oracle jury say tesla wa partly to blame for fatal crash trump issue nuclear threat to russiaand wall street fear gauge go vertical crypto founder take note these sec roundtable could decide the rule that govern you sugar price pressured a brazil ramp up sugar production this week in stablecoins building nextgen rail for enterprise finance tesla must pay million in damage after fatal autopilot crash jury say cnbc miami jury find tesla partly liable in autopilot crash award million in punitive damage nbc news bond etf could catch a tailwind from job data tesla tsla is found liable in fatal autopilot crash ha to pay million the latest u stock market and global trade partner react to trump new tariff no one can be that wrong trump fire labor statistic bos after weak revised job data the green revolution anand chandra cofounder executive director aryaag on fixing india agri gap with tech cocoa price sharply lower on the outlook for adequate supply what ghislaine maxwell move to a lowersecurity federal prison camp could signal reddit want to replace google a the internet top search engine investor are all in ct bond commission approves m to lower electric bill republican say it not enough coffee price plunge a supply concern ease the latest business and u trading partner worldwide respond to trump new tariff the latest business and u trading partner worldwide respond to trump new tariff nextnav and oscilloquartz partner to advance g based timing solution for critical infrastructure resmed analyst increase their forecast after strong q earnings hedge fund and insider trading news william heard warren buffett ray dalio bill ackman rokos capital management alden global capital clear channel outdoor holding inc cco and more here are reason we are not going to buy stock in friday nosediving market this is why coinbase stock coin is cratering today tipranks phoenix az lemonade stand squeeze success expands into western state with over million in sale top cryptos to join now for that could deliver big return a new bowling center wa big news in west valley bowl face endofmonth deadline corporation for public broadcasting will shutter after trump funding cut the best trader in congress how to track politician stock trade a dallas bank is confident it loss will pay off best gold stock to watch in midtiers and junior beat the major online creator led by mrbeast and mark rober want to raise million for clean water access online creator led by mrbeast and mark rober want to raise million for clean water access online creator led by mrbeast and mark rober want to raise million for clean water access former chairman of savannah economic development dy jury order tesla to pay m in autopilot crash case opening it up to other costly lawsuit jury order tesla to pay m in autopilot crash case opening it up to other costly lawsuit online creator led by mrbeast and mark rober want to raise million for clean water access tesla found partially liable for fatal crash involving driverassistance technology jury order million in damage the washington post india secret weapon for defence sovereignty through ai and zerochina tech trump injects a new dose of uncertainty in tariff a he push start date back to aug trump injects a new dose of uncertainty in tariff a he push start date back to aug these analyst boost their forecast on microstrategy following q result trump injects a new dose of uncertainty in tariff a he push start date back to aug unit moving and portable storage return a primary sponsor for timmy hill at watkins glen nascar truck series race tech stock lead selloff a soft labor data fuel fed cut bet the eye of the hurricane why the u job market ha soured economist say here what could get more expensive from trump massive tariff hike here what could get more expensive from trump massive tariff hike trump seek to leave his goldplated stain on the white house beatrice police department hosting national night out nicole leone former executive director erie humane society ha september trial date president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report president trump seek firing of government official overseeing job data after weak employment report north carolina u senate race turn into a battle for the middle class sarah jessica parker announces emotional and poetic end to and just like that ghislaine maxwell join famous prisoner in move to texas prison camp wave of fake credential spark political fallout in spain gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas jeffrey epstein former girlfriend ghislaine maxwell is transferred to a prison camp in texas gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade gop congressman suggests hed lose money and go broke if adviser stop stock trade corporation for public broadcasting which fund pb npr to close after federal aid cut nyc subway nightmare flood trap commuter in filth and failure the latest u stock market and global trade partner react to trump new tariff what ghislaine maxwell move to a lowersecurity federal prison camp could signal what new public comment rule mean for speaking at local meeting in bismarckmandan area corporation for public broadcasting will shutter after trump funding cut congressman view here the truth about impact of beautiful bill on st louis county trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev state college rally planned a another local health system cut youth trans care more american couple are turning to italy dolce vita in a quest for memorable wedding city say thursday odor came from construction of city new industrial water plant trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia cult of cruelty ghastly photo video of emaciated israeli hostage released by gaza terrorist here what could get more expensive from trump massive tariff hike red state move to slash medicaid funding for planned parenthood trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump announces nuclear submarine positioned near russia trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev trump order u nuclear sub repositioned over statement from exrussian leader medvedev guest columnist we must empower support girl and boy trump order nuclear submarine repositioned after provocative statement from russia editorial maxwell talk giving more life to a conspiracy shribman who a hero in the age of trump brown fulfilling the promise of the ada a trophy hunter killed a lion in zimbabwe that wa part of a research project sparking anger pensacola man traveled to orlando stealing smokey bear sign along the way official say kamala harris insufferably cackle over the government spying on american through wireless earpods western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens western country speak of a future palestinian state a the nightmare unfolding in gaza worsens trump say he deploying two nuclear sub after provocative comment from exrussian leader democrat are struggling to block trump texas power grab the healing power of sunlight office cleaner who came facetoface with the manhattan gunman detail his deadly rampage corporation for public broadcasting funder of npr and pb say it will end operation within month after federal budget cut dozen of protester swarm chuck schumer kirsten gillibrands nyc office to let gaza live fourth circuit rule unanimously in favor of employee in two case involving employer allegation of breach of restrictive covenant city county official talk about animal control a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation a texas researcher wa held at an airport for over a week now he face deportation trump plan to build million white house party room america rising part a federal judge just called out the trump administration for lying to the supreme court k nieth to retire fbi official reportedly redacted reference to trump from epstein file trump positioning two nuclear submarine near russia following russian official threat of war how immigration legislation is dangerous to immigrant judge pause removal of k migrant from honduras nicaragua and nepal in overthetop ruling democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan democrat launching summer blitz to press republican on trump spending plan trump weighs in on american eagle sydney sweeney ad shiba inu and cardano set to breakout a one new token set sight on gain top cryptos to buy in trimiq weight loss official launched in uk and ireland with green tea probiotic complex free spin no deposit bonus casino online real money casino no deposit by wild casino the shock job report set off this recession alert and hold fresh clue that ai may be boosting unemployment jpmorgan say fortune crypto presale that could make you a millionaire in dogecoin ada xrp cant match ozak ai potential arialief for neuropathy supplement official launch of a new hope for sciatic nerve discomfort relief the ig choice ha gone off the rail reader commentary what to know if youre at risk of having your wage garnished over student loan debt m raised and climbing ruvi ai ruvi called ripple xrp a coinmarketcap listing made it token one of the highest in demand why parent are suing snapchat over fentanyl death tea encouraged it user to spill then the apps data got leaked npr federal reserve governor resigns creating vacancy for trump federal reserve governor resigns creating vacancy for trump upicom bragar eagel squire pc is reminds investor of class action against neogen alto bragar eagel squire pc is reminds investor of class action against neogen alto rxsight and replimune and encourages investor to contact the firm audizen drop officially launched natural tinnitus support inspired by audifort europe ev sale report tesla ha plus win in a ev share market matsato knife official launch in australia usa redefining precision and power in the kitchen warren buffett dividend stock you can buy and hold forever crushed q earnings luka doncic agrees to a threeyear million contract extension through with the la lakers the financial swamp of banking regulator who decide which american get their bank account shut down sam altman compare openai to the manhattan projectand he not joking about the risk the democrat have a mamdani problem editorial toncoin at ondo cross while cold wallet entry crypto reward outclass both weekend gaming best ipad game to try in little pepe lilpepe price prediction for show strong potential to beat solana sol and cardano ada sluggish summer in sin city la vega see big drop in tourist ap business summarybrief at pm edt ap business summarybrief at pm edt from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price from lao to brazil trump tariff leave a lot of loser but even the winner will pay a price texas panel advance redrawn congressional map that could take democratic seat your money exit a business or equity position without regret pepes chart turn positive litecoin gather whale support blockdag expands web reach with devs a day workweek isnt good just for team moral it also good for the bottom line teleflex raise outlook following strong q and biotronik acquisition tucson trolley tour operator seek to expand reach former trump prosecutor jack smith probed for alleged election interference u hiring slowed sharply over the summer the wall street journal mstr news michael saylor explains why strategy strc preferred stock is the firm iphone moment coindesk harvard say it will comply with dhs request to hand over employment form missed binance coin bnb expert say ruvi ai ruvi audited token is next millionaire maker a coinmarketcap listing spark high demand what to know if youre at risk of having your wage garnished over student loan debt how to safely download and install game on your laptop shib find support ondo hold while cold wallet price gas rebate make it a top crypto to watch little pepe lilpepe gather momentum with gain ahead while cardano ada nears run the trump administration take a very orwellian turn how this week avalanche of news from washington to wall street kept investor guessing westchester capital management inc trim stake in valero energy corporation nysevlo united super pty ltd in it capacity a trustee for the construction building union superannuation fund make new investment in valero energy corporation nysevlo decadeold bitcoin wallet emptied million in btc moved amid market correction how florida quietly surpassed california in solar growth ukrainian longrange drone hit multiple russian refinery factory overnight journointerior designer jim acosta guarantee trump wh ballroom is going to look like st americu appoints new community relation manager mitsubishi ufj trust banking corp purchase share of ge aerospace nysege j safra sarasin holding ag purchase share of thermo fisher scientific inc nysetmo mitsubishi ufj trust banking corp sell share of thermo fisher scientific inc nysetmo banco santander sa ha million stake in thermo fisher scientific inc nysetmo the walt disney company nysedis share bought by bank of nova scotia trust co the walt disney company nysedis stake lifted by r squared ltd the walt disney company nysedis share acquired by j safra sarasin holding ag the walt disney company nysedis share bought by j safra sarasin holding ag banco santander sa increase stock holding in the walt disney company nysedis this ai is set to flip every major altcoinare you in figma ipo surprise winner is a charity with million sharesand a famous backstory that sparked a bitter feud over an oil fortune decade ago fortune the hidden signal in oil market moor cabot inc ha million stock holding in the goldman sachs group inc nysegs moor cabot inc buy share of the goldman sachs group inc nysegs hartford investment management co cut stock position in zoetis inc nysezts how florida quietly surpassed california in solar growth cnbc lesson from a decade of empowering woman entrepreneur to lead boldly best trucking bookkeeping service three stock to consider today blockdags no vesting pas with roi end soon eth eye jup drop just of smallbusiness owner say the child care crisis is a critical problem here why pepeto price forecast will this presale meme coin surpass dogecoin shiba inu and ethereum editorial beyond the number study into subminimum must consider all ramification thing to know about palantir pltr before it report q earnings best trucking bookkeeping service it super disrespectful wnba player exasperated after sex toy thrown onto court for second time in a week claude cutoff anthropic revoke openais api access ahead of gpt launch malaga cove capital llc sell share of abbott laboratory nyseabt bayforest capital ltd ha stake in fidelity national financial inc nysefnf vestcor inc buy share of fidelity national financial inc nysefnf modera wealth management llc sell share of arista network inc nyseanet bank of nova scotia sell share of procter gamble company the nysepg bank of nova scotia increase stock holding in arista network inc nyseanet aviso wealth management acquires share of procter gamble company the nysepg aviso wealth management cut position in the boeing company nyseba j safra sarasin holding ag purchase share of abbott laboratory nyseabt pathway financial adviser llc purchase share of eli lilly and company nyselly aviso wealth management lower stock position in the boeing company nyseba procter gamble company the nysepg share bought by j safra sarasin holding ag what are the best dividend growth stock i should invest in right now hims alert bragar eagel squire pc announces that a class action lawsuit ha been steve witkoff meet with hostage family in tel aviv susan estrich the harvard fight money v principle jet holiday ad audio used in ice deportation video shes so cringe christine pelosi tease that shes running but not the way youd think video from the dream of dr king to the nightmare that is donald trump opinion from the dream of dr king to the nightmare that is donald trump opinion from the dream of dr king to the nightmare that is donald trump opinion guam d printing facility to enhance navy maintenance capability the ig choice ha gone off the rail reader commentary trump motif can be opaque i asked a feminist economist to bare them india stand firm on russian oil import despite trump sanction threat pedaling dei cycling weekly demand bike community include fat black woman or theyre racist the u military just launched it largest air exercise in year pennsylvania lawmaker say child care is broken but dont agree on how to fix it yet twice told tale city council attends team building workshop if trump save maxwell he will destroy everything he promised pope thrill hundred of thousand of young catholic at holy year youth festival pope thrill hundred of thousand of young catholic at holy year youth festival are republican doing enough to confirm trump nominee conservative critic say no texas panel advance redrawn congressional map that could take democratic seat trump wa asked about his press secretary performance his answer took a weird turn a i see it corvallis ha done nothing to help gazans how top democrat are already gearing up for online texas is moving forward with it radical redistricting plan america trucker need a place to park george mason university president keep job get a raise despite trump admins probe in which way is the bls biased donna brazile say nprpbsdefunding maga cannot compete with idea cue a hard trip over hillary right degree wrong time new graduate face discouraging odds of landing a job trump administration move to ban abortion care for veteran unspeakably cruel manhunt intensifies for suspect in montana bar mass shooting texas panel advance redrawn congressional map that could take democratic seat bill maher know trump losing credibility when these supporter smell bullst kevin oleary slam trump for whacking bls chief after disappointing job report you dont shoot the messenger trump administration halted civil right lawsuit targeting abuse of prisoner and the mentally ill it wa never about safety one week in here whats blocked by the uk orwellian online bill these three country dominate the fighter jet export marketfor now tiktok can shape america next generation and beijing know it former trump prosecutor jack smith probed for alleged election interference virginia end fiscal year with million surplus for next budget bonus editorial cartoon for aug other voice conserving enhancing agricultural resource with solar energy trump alum share chilling google message from before secondterm return lawfare at it finest texas house panel advance redrawn congressional map that would add more gop seat letter nd representative helping put our nation closer to fiscal crisis tracey weiss our ocean backyard coming soon opening the gate to cotonicoast dairy senate make progress in averting government shutdown much earlier than usual no piecemeal deal witkoff tell hostage family trump want full gaza agreement will the wnba approve record m deal to bring connecticut sun to boston proud democrat call into chris cuomos show admits she wa wrong about trump shes not the only one texas house committee advance gopfriendly map texas house committee advance gopfriendly map texas house committee advance gopfriendly map release the epstein file and end the coverup texas house committee advance gopfriendly map texas house committee advance gopfriendly map texas house committee advance gopfriendly map the trump administration take a very orwellian turn new photo reveal iconic white house rose garden paved over after trump makeover the nfls new kickoff rule is here to stay with a slight tweak what else is changing oversea chinese banking corp ltd raise position in ecolab inc nyseecl westchester capital management inc ha million stake in becton dickinson and company nysebdx ecolab inc nyseecl share purchased by mirabaud cie sa limited option for democrat to retaliate if texas republican redraw congressional map trump hit brazilian product with tariff over bolsonaro sign that someone you know is secretly broke do they apply to the people around you party poopers less than of american friendship cross political line texas house committee advance redrawn congressional map congressional redistricting map pass house committee pushing dems towards quorum break how trump became the new master of the senate luka doncic lakers agree to year million extension banco santander sa grows stock position in the walt disney company nysedis union pacific corporation nyseunp share sold by mitsubishi ufj trust banking corp moor cabot inc ha million stock holding in zoetis inc nysezts black swimmer teach others to help end history of aquatic segregation laduke let the sun shine so say former intelligence agent rolling stone claim the kremlin made up russiagate evidence can donald trump f diplomacy keep everyone happy laduke let the sun shine laduke let the sun shine in japan launched a second strike on pearl harborsort of laduke let the sun shine your view people have the right to sign recall petition laduke let the sun shine letter to the editor the generosity of kentuckian laduke let the sun shine laduke let the sun shine it super disrespectful wnba player exasperated after sex toy thrown onto court for second time in a week it trump economy now the latest financial number offer some warning sign aviso wealth management sell share of eli lilly and company nyselly j safra sarasin holding ag buy share of procter gamble company the nysepg steve witkoff meet with hostage family in tel aviv u court upholds order blocking indiscriminate targeting by immigration patrol u court upholds order blocking indiscriminate targeting by immigration patrol oversea chinese banking corp ltd reduces stock position in welltower inc nysewell here what we know about the anaconda shooter the victim and ongoing search effort banque cantonale vaudoise purchase new position in entergy corporation nyseetr the sherwinwilliams company nyseshw position lifted by banco santander sa lsv asset management sell share of phillips nysepsx profit drop at warren buffetts berkshire hathaway a it writes down it kraft heinz investment moor cabot inc sell share of thermo fisher scientific inc nysetmo trump tariff are making money that may make them hard to quit the new york time revolution camp unhinged white liberal spend weekend smashing junk in antitrump fury sen josh hawleys longshot stock trading ban bill advance rankles trump larimer county restaurant inspection made july st louis boeing worker again reject contract strike to begin at midnight former associate executive director file lawsuit against ahsaa boeings st louis union worker will strike on monday boeing defense union poised for it first strike since bloombergcom mahjong the latest networking opp for woman entrepreneur why analyst say this audited ai token is the next big thing coinmarketcap listing spark daily sale in the million luxury label lose their luster amid changing vibe gucci sale plunge and lvmh disappoints best crypto to buy now and secure early gain north texas father of win million at choctaw casino this cookware maker is bracing for steel tariff behind a wall of pot and pan nbc news opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day trump live update white house defends firing bls commissioner over weak job number the new york time opec country to boost oil production by barrel per day opec country to boost oil production by barrel per day white house official defend firing of labor official a critic warn of trust erosion clickbait and clean water youtubers are the new philanthropist palantir advanced micro walt disney pfizer zoominfo and more stock to watch this week barrons sen blackburn to introduce bill to root out embedded foreign interest free iq test online with instant result reliable accurate free realiqonline roll out new iq testing experience himerex pro this himerex pro uk app set new standard in aidriven trading with unmatched security and user approval ev lead vehicle category in california berkshire earnings key takeaway strong profit no buyback high cash level barrons steam and itchio pull hundred of adult game over alleged visa mastercard pressure pauline ferrandprevot win tour de france femmes becoming first french rider to win event since iam district member in st louis reject latest boeing offer strike for fair contract iam union bmw sue teen entrepreneur twice over alibaba trademark infringement top trader see ripple xrp hitting binance coin bnb and little pepe lilpepe when to buy for maximum roi starbucks to close pickup store in back to starbucks pivot citigroup launch stratum elite card to rival chase sapphire reserve disney world ferry crash into dock in stormy weather injuring rider u manufacturing resurgence foreign firm relocate amid tariff the fantastic four first step hold it lead atop the box office the fantastic four first step hold it lead atop the box office the fantastic four first step hold it lead atop the box office la vega unemployment at amid tourism drop and visitor de</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>189</v>
+      </c>
+      <c r="P29" t="n">
+        <v>151</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>348</v>
+      </c>
+      <c r="S29" t="n">
+        <v>224</v>
+      </c>
+      <c r="T29" t="n">
+        <v>473</v>
+      </c>
+      <c r="U29" t="n">
+        <v>258</v>
+      </c>
+      <c r="V29" t="n">
+        <v>112</v>
+      </c>
+      <c r="W29" t="n">
+        <v>71</v>
+      </c>
+      <c r="X29" t="n">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,6 +2729,84 @@
         <v>177</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6299.18994140625</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6346</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6289.3701171875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6336.6298828125</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5517410000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0048578659963033</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>tpg re finance trust q eps beat prologis see narrow window before warehouse rent increase ap business summarybrief at pm edt tesla award ceo musk million of share valued at about billion fox nation greenlights two new season of god family football tesla award ceo musk million of share valued at about billion ap news nyse martin say ipo market open for pretty much all sector exxonmobil q eps beat but stock fell magnera announces participation at the ubs global material conference magnera announces participation at the ubs global material conference danville cvb award in tourism grant panama port challenge could turn into trump win man accused in atm robbery bombing arrested in newport beach wipfli secures strategic investment from new mountain capital wild brawl erupts between ton of parent during youth football game all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend poltreg dos first patient in phase ii trial for presymptomatic type diabetes with ptg what a september rate cut would mean for stock plus a bullish call on ai spending clash of trade reality show aim to boost prestige of u manufacturing why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury palantir earnings due a nvidia broadcom shake off trump tariff investor business daily bitcoin news today m outflow hit digital asset amid fed rate fear fanzone scoreboard the ultimate gameday upgrade for nfl fan amazon metal water hose is absolutely a life changer apple io why you should update your iphone today naphtha cushion china q oil demand decline oxford bank corporation announces six month and second quarter operating result fanzone scoreboard the ultimate gameday upgrade for nfl fan thousand of boeing worker who build fighter jet and weapon go on strike palantirs ultraexpensive valuation spark worry into result yahoo finance agibank raise brl billion in debenture offering to strengthen it funding strategy and support sustainable growth kremlin urge careful use of nuclear rhetoric a medvedev pivot to saying trump blackmailed by mossad recent home sale in the area bond yield continue to decline to lowest level since april healthcare workforce management market surge amid drive for operational efficiency and cost reduction tx rail product inc report financial result for third quarter of fiscal delta say ai speed up market analysis to price airfare letter potential for a repeat firefly aerospace lift ipo range that would value company at over billion cftc issue noaction relief for sefs on order book obligation sarat sethi inflation not coming down ha put fed in quandary nyse texas tap former abbott official a president shareholder investigation halper sadeh llc investigates sptn base rkda on behalf of shareholder how is the trump bill changing plan bnb integration announced for q in apirones cryptogateway search for suspect in tennessee killing focus near university source say a rd arrest announced hhi water quality laboratory receives excellence recognition shareholder investigation halper sadeh llc investigates sptn base rkda on behalf of shareholder all major la vega strip casino are unionized defying national trend homestyle direct medically tailored meal delivery score high in pennsylvania all major la vega strip casino are unionized defying national trend homestyle direct expands access to medically tailored meal in california hireright appoints jim desmond a chief information security officer what may happen to stock market next pridestaff launch new fort worth west office to strengthen workforce solution in north texas live will palantir post a big earnings beat after the bell local husbandandwife team to lead pridestaff asheville office the ultimate guide to top cryptos to join now for massive roi ww grainger analyst cut their forecast after q earnings skylight health launch valuebased multispecialty platform mark herr communication issue statement regarding the notice of appeal by anne pramaggiore mark herr communication issue statement regarding the notice of appeal by anne pramaggiore stock that soared the last time market were this wobbly tesla gain on elon musk new pay package is tsla stock a buy euro strengthens a postpayroll fallout set stage for fed september rate cut legendary investor vinod khosla advises gen z to invest in this one skill because chatgpt can teach you everything else fortune roadwork to alter traffic on ssu campus these analyst raise their forecast on nvent electric after strong q earnings ap business summarybrief at pm edt wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout microbiome sequencing market on the rise cagr forecast why opendoor technology stock wa soaring again today trump will raise india tariff rate substantially over russian oil purchasesheres why india might not budge these analyst increase their forecast on regeneron pharmaceutical after betterthanexpected earnings fed rate cut now likely a soft data erodes confidence in economic resilience elon musk unveils grok update after controversial post by the ai chatbot why nvidia is the biggest risk to the stock marketnot tariff barrons dude perfect partner with regal cinema to launch dude perfect the hero tour movie in hundred of theater worldwide sp could plummet say morgan stanley tipranks cal thomas starvation in gaza whom to blame former football coach enters georgia senate race european union say it pausing retaliatory tariff against the u amid trade talk gerken named sterling professor of law dhs say daca recipient are illegal alien tell them to selfdeport ap news summary at pm edt cbo republican megabill to cost t due to higher borrowing cost state department may require visa applicant to post bond of up to to enter the u state department may require visa applicant to post bond of up to to enter the u state department may require visa applicant to post bond of up to to enter the u all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend mitch mcconnells legacy come under fire in kentucky race to replace him in the senate davenport open application for round of dream home improvement funding davenport open application for round of dream home improvement funding trump say sweeneys ad is hottest american eagle stock go wild a the great new jersey denizen yogi berra observed it deja vu all over again noncompete clause are under fire in new jersey once more how many woman on the board fewer company are saying mtg sour on republican party claim gop turned it back on america first for tax paid minnesota offer a taxpayer receipt for where dollar go pic of woman at tx capitol fighting to use womens bathroom sum up how dumb transmovement really is search for suspect in tennessee killing focus near university source say a rd arrest announced all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend sex offender harassed marjorie taylor greene turn on gop for abandoning maga base officer find teen girl when arresting man for sex trafficking mpd say mamdani study america worst mayor brandon johnson to avoid his political pitfall report now i love her ad trump praise sydney sweeney amid jean ad fallout ap news summary at pm edt ap news summary at pm edt donald trump and the deconstruction of america mitch mcconnells legacy come under fire in kentucky race to replace him in the senate men accused of shooting up woman glenburn home and car trump shootthemessenger tactic will only hurt the economy more america best idea is under fierce attack u rep kelly morrison introduces legislation to boost police recruitment funding these epstein revelation show the deep state is real and it work for trump mary moriarty dont accept simplistic narrative on carjacking prosecution texas dems flee to illinois to block redistricting vote texas dems flee to illinois to block redistricting vote copy famine in gaza ocean city mayor vow further effort on ebike safety after nearly hitting rider with democrat out of state whats next for texas special session trump threatens to substantially raise tariff on indian good a it continues to buy russian oil trump threatens to substantially raise tariff on indian good a it continues to buy russian oil mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate every minute is crucial here israeli journalist on hostage held inside gaza michta published in realcleardefense and featured in realclearworld on nato and european security nyt claim many jewish voter back mamdani you wont believe who they interviewed college grad compete with ai for entrylevel job guest commentary cpuc dont saddle monterey peninsula ratepayer with desalination project celtic minority owner offer recordbreaking amount to buy move wnba team report mr william bill sander dubose sr how the supreme court kickstarted the redistricting arm race minnesota department of correction expands online application for visitor at adult facility state department may require visa applicant to post bond of up to to enter the u trump administration wont say why it transferred ghislaine maxwell to a minimumsecurity prison new law to make new hampshire library record available to parent grammywinner doechii bringing tour to san diego mortgage lender stick with bidenera reappraisal guidance white south african farm owner on trial for allegedly murdering two black woman and feeding their body to pig trump to substantially raise tariff on india for buying russian oil banana republic stuff top economist react to trump firing bls statistic chief ghislaine maxwell prison transfer add to trump epstein morass look on cnn host face a lee zeldin politely take her climate change b apart is priceless watch texas hold em gov abbott threatens legal action for absent dems mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate letter ballroom location not a good idea ap news summary at pm edt new u visa rule could require bond from visitor it feel less like advertising and more like brainwashing mainer injured when their utv rolled over in nh gravel pit former ct chief state attorney fined in ethic case what to know texas house issue arrest warrant for rogue democrat who fled to blue state rep nancy mace is latest republican to announce bid for south carolina governor minnesota congresswoman call for more police recruitment funding why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>tpg re finance trust q eps beat prologis see narrow window before warehouse rent increase ap business summarybrief at pm edt tesla award ceo musk million of share valued at about billion fox nation greenlights two new season of god family football tesla award ceo musk million of share valued at about billion ap news nyse martin say ipo market open for pretty much all sector exxonmobil q eps beat but stock fell magnera announces participation at the ubs global material conference magnera announces participation at the ubs global material conference danville cvb award in tourism grant panama port challenge could turn into trump win man accused in atm robbery bombing arrested in newport beach wipfli secures strategic investment from new mountain capital wild brawl erupts between ton of parent during youth football game all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend poltreg dos first patient in phase ii trial for presymptomatic type diabetes with ptg what a september rate cut would mean for stock plus a bullish call on ai spending clash of trade reality show aim to boost prestige of u manufacturing why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury why gen z driver suffer the highest rate of crash injury palantir earnings due a nvidia broadcom shake off trump tariff investor business daily bitcoin news today m outflow hit digital asset amid fed rate fear fanzone scoreboard the ultimate gameday upgrade for nfl fan amazon metal water hose is absolutely a life changer apple io why you should update your iphone today naphtha cushion china q oil demand decline oxford bank corporation announces six month and second quarter operating result fanzone scoreboard the ultimate gameday upgrade for nfl fan thousand of boeing worker who build fighter jet and weapon go on strike palantirs ultraexpensive valuation spark worry into result yahoo finance agibank raise brl billion in debenture offering to strengthen it funding strategy and support sustainable growth kremlin urge careful use of nuclear rhetoric a medvedev pivot to saying trump blackmailed by mossad recent home sale in the area bond yield continue to decline to lowest level since april healthcare workforce management market surge amid drive for operational efficiency and cost reduction tx rail product inc report financial result for third quarter of fiscal delta say ai speed up market analysis to price airfare letter potential for a repeat firefly aerospace lift ipo range that would value company at over billion cftc issue noaction relief for sefs on order book obligation sarat sethi inflation not coming down ha put fed in quandary nyse texas tap former abbott official a president shareholder investigation halper sadeh llc investigates sptn base rkda on behalf of shareholder how is the trump bill changing plan bnb integration announced for q in apirones cryptogateway search for suspect in tennessee killing focus near university source say a rd arrest announced hhi water quality laboratory receives excellence recognition shareholder investigation halper sadeh llc investigates sptn base rkda on behalf of shareholder all major la vega strip casino are unionized defying national trend homestyle direct medically tailored meal delivery score high in pennsylvania all major la vega strip casino are unionized defying national trend homestyle direct expands access to medically tailored meal in california hireright appoints jim desmond a chief information security officer what may happen to stock market next pridestaff launch new fort worth west office to strengthen workforce solution in north texas live will palantir post a big earnings beat after the bell local husbandandwife team to lead pridestaff asheville office the ultimate guide to top cryptos to join now for massive roi ww grainger analyst cut their forecast after q earnings skylight health launch valuebased multispecialty platform mark herr communication issue statement regarding the notice of appeal by anne pramaggiore mark herr communication issue statement regarding the notice of appeal by anne pramaggiore stock that soared the last time market were this wobbly tesla gain on elon musk new pay package is tsla stock a buy euro strengthens a postpayroll fallout set stage for fed september rate cut legendary investor vinod khosla advises gen z to invest in this one skill because chatgpt can teach you everything else fortune roadwork to alter traffic on ssu campus these analyst raise their forecast on nvent electric after strong q earnings ap business summarybrief at pm edt wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout wall street rally and u stock recover much of friday wipeout microbiome sequencing market on the rise cagr forecast why opendoor technology stock wa soaring again today trump will raise india tariff rate substantially over russian oil purchasesheres why india might not budge these analyst increase their forecast on regeneron pharmaceutical after betterthanexpected earnings fed rate cut now likely a soft data erodes confidence in economic resilience elon musk unveils grok update after controversial post by the ai chatbot why nvidia is the biggest risk to the stock marketnot tariff barrons dude perfect partner with regal cinema to launch dude perfect the hero tour movie in hundred of theater worldwide sp could plummet say morgan stanley tipranks cal thomas starvation in gaza whom to blame former football coach enters georgia senate race european union say it pausing retaliatory tariff against the u amid trade talk gerken named sterling professor of law dhs say daca recipient are illegal alien tell them to selfdeport ap news summary at pm edt cbo republican megabill to cost t due to higher borrowing cost state department may require visa applicant to post bond of up to to enter the u state department may require visa applicant to post bond of up to to enter the u state department may require visa applicant to post bond of up to to enter the u all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend mitch mcconnells legacy come under fire in kentucky race to replace him in the senate davenport open application for round of dream home improvement funding davenport open application for round of dream home improvement funding trump say sweeneys ad is hottest american eagle stock go wild a the great new jersey denizen yogi berra observed it deja vu all over again noncompete clause are under fire in new jersey once more how many woman on the board fewer company are saying mtg sour on republican party claim gop turned it back on america first for tax paid minnesota offer a taxpayer receipt for where dollar go pic of woman at tx capitol fighting to use womens bathroom sum up how dumb transmovement really is search for suspect in tennessee killing focus near university source say a rd arrest announced all major la vega strip casino are unionized defying national trend all major la vega strip casino are unionized defying national trend sex offender harassed marjorie taylor greene turn on gop for abandoning maga base officer find teen girl when arresting man for sex trafficking mpd say mamdani study america worst mayor brandon johnson to avoid his political pitfall report now i love her ad trump praise sydney sweeney amid jean ad fallout ap news summary at pm edt ap news summary at pm edt donald trump and the deconstruction of america mitch mcconnells legacy come under fire in kentucky race to replace him in the senate men accused of shooting up woman glenburn home and car trump shootthemessenger tactic will only hurt the economy more america best idea is under fierce attack u rep kelly morrison introduces legislation to boost police recruitment funding these epstein revelation show the deep state is real and it work for trump mary moriarty dont accept simplistic narrative on carjacking prosecution texas dems flee to illinois to block redistricting vote texas dems flee to illinois to block redistricting vote copy famine in gaza ocean city mayor vow further effort on ebike safety after nearly hitting rider with democrat out of state whats next for texas special session trump threatens to substantially raise tariff on indian good a it continues to buy russian oil trump threatens to substantially raise tariff on indian good a it continues to buy russian oil mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate every minute is crucial here israeli journalist on hostage held inside gaza michta published in realcleardefense and featured in realclearworld on nato and european security nyt claim many jewish voter back mamdani you wont believe who they interviewed college grad compete with ai for entrylevel job guest commentary cpuc dont saddle monterey peninsula ratepayer with desalination project celtic minority owner offer recordbreaking amount to buy move wnba team report mr william bill sander dubose sr how the supreme court kickstarted the redistricting arm race minnesota department of correction expands online application for visitor at adult facility state department may require visa applicant to post bond of up to to enter the u trump administration wont say why it transferred ghislaine maxwell to a minimumsecurity prison new law to make new hampshire library record available to parent grammywinner doechii bringing tour to san diego mortgage lender stick with bidenera reappraisal guidance white south african farm owner on trial for allegedly murdering two black woman and feeding their body to pig trump to substantially raise tariff on india for buying russian oil banana republic stuff top economist react to trump firing bls statistic chief ghislaine maxwell prison transfer add to trump epstein morass look on cnn host face a lee zeldin politely take her climate change b apart is priceless watch texas hold em gov abbott threatens legal action for absent dems mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate mitch mcconnells legacy come under fire in kentucky race to replace him in the senate letter ballroom location not a good idea ap news summary at pm edt new u visa rule could require bond from visitor it feel less like advertising and more like brainwashing mainer injured when their utv rolled over in nh gravel pit former ct chief state attorney fined in ethic case what to know texas house issue arrest warrant for rogue democrat who fled to blue state rep nancy mace is latest republican to announce bid for south carolina governor minnesota congresswoman call for more police recruitment funding why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them why dozen of democrat left texas and how republican want to punish them</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.9984</v>
+      </c>
+      <c r="O30" t="n">
+        <v>87</v>
+      </c>
+      <c r="P30" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>106</v>
+      </c>
+      <c r="S30" t="n">
+        <v>44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>162</v>
+      </c>
+      <c r="U30" t="n">
+        <v>121</v>
+      </c>
+      <c r="V30" t="n">
+        <v>58</v>
+      </c>
+      <c r="W30" t="n">
+        <v>20</v>
+      </c>
+      <c r="X30" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,6 +2807,84 @@
         <v>47</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6345.06005859375</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6352.830078125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6301.10986328125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6309.2998046875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5408560000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0072819072950924</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>when independent contractor are actually employee lesson from the m steadfast medical staffing judgment coursera cour q earnings call transcript ap business summarybrief at pm edt cohu q revenue rise wayfair post m q profit revenue up to b trump narrow fed chair candidate to four excluding treasury secretary bessent trump narrow fed chair candidate to four excluding treasury secretary bessent service sector slows down in july rural grocery store pilot project aim to prevent food desert in north dakota rural grocery store pilot project aim to prevent food desert in north dakota texas community q net jump trump say bank discriminate against conservativesincluding him the wall street journal microsoft cloud and ai revenue soar tevogenai expands collaboration with databricks and microsoft to build the beta version of it predictcelltm model with a focus on oncology trump administration officially end thing email for federal employee cbs news citizen bet on open banking to ease account switching best free tech book to read online cftc eye spot crypto trading on future market public opinion due august arabica coffee price sharply higher on brazil coffee crop concern danica mason named among top female entrepreneur build equity from the ground up with red team go franklin resource q revenue beat fincen seeing scam urge bank beware crypto atm mel gordon appointed ceo of chronicle heritage signaling a new era of stability and scalable growth cardano ada face new challenger a rollblock presale heat up with x speculation weave q revenue jump ensign ensg q earnings call transcript real estate expert kim nicols offer insight on buying luxury real estate in granite bay in hellonation magazine former x ceo yaccarino take helm at glp focused telehealth firm emed reuters california marijuana grower said employee were among hundred detained in immigration raid california marijuana grower said employee were among hundred detained in immigration raid u pressure tsmc to buy intel stake for taiwan tariff relief vertical aerospace move beyond can it fly with aciturri deal in focus linda yaccarino join health tech platform emed a ceo after leaving x techcrunch intels a chip woe low yield delay panther lake production gold technical setup turn bullish with job miss and cpi ahead michael novogratz say bitcoin ethereum treasury frenzy may be over what now join sdccu for free resource on national financial awareness day investor alert investigation of bellring brand inc brbr announced by holzer holzer llc gainey mckenna egleston announces a class action lawsuit ha been filed against lineage bed bath beyond could be headed your way here whats next for the revived retail chain bed bath beyond could be headed your way here whats next for the revived retail chain real good food announces corporate action requesting transfer of share to transfer agent johnson fistel investigates fairness of proposed sale of staar surgical johnson fistel commences investigation of agilon health inc birdie bringing froyo back with plan for location in west village week of july morning news rating today move back to first in demo ethereum news today ethereum etf see record m outflow a blackrock lead withdrawal gainey mckenna egleston announces a class action lawsuit ha been filed against lineage inc line sprott inc declares second quarter dividend featuring locus control report find landfill methane monitoring and tuning system among lowest cost ghg reduction sprott inc declares second quarter dividend middleton co inc ma sell share of procter gamble company the nysepg thoroughbred financial service llc acquires share of procter gamble company the nysepg palantir ceo warns of america ai danger zone a he plan to bring superpower to bluecollar worker fortune roku expands streaming option with new adfree service at month century complete expands to nevada with new home in pahrump replenish nutrient announces beiseker facility update crypto news today sharplink boost eth holding figure plan public listing galaxy mull tokenized stock paramount skydance board to include david ellison sherry lansing oracle safra catz the fda is targeting orange juice here why and what the science say the washington post introducing transparent lab grassfed protein shake the protein shake thor drink built to scale how barak diskin bridge real estate and startup growth westfield capital management co lp decrease stock position in alphabet inc nasdaqgoog alphabet inc nasdaqgoog position cut by atrium wealth solution inc syntegra private wealth group llc ha position in alphabet inc nasdaqgoog inspire medical system analyst lower their forecast after q result meta illegally collected data from flo period and pregnancy app jury find ar technica examining the future niagen bioscience earnings outlook earnings outlook for jack in the box a look ahead innovative ind props earnings forecast insight into helmerich paynes upcoming earnings a look ahead horace mann educatorss earnings forecast whats next honest co earnings preview what are the best smart glass of herbalife earnings preview rosen law firm urge novo nordisk a nyse nvo investor with loss in excess of k to contact the firm for information about their right a glimpse of genco shipping trading earnings potential a look ahead fastlys earnings forecast examining the future national vision holdingss earnings outlook earnings outlook for oscar health spotlight on mercadolibre analyzing the surge in option activity this is what whale are betting on philip morris intl a look into citigroup inc price over earnings is the market bullish or bearish on msc industrial direct co how is the market feeling about alphabet infoblox appoints joshua husk a chief revenue officer to accelerate global growth whats driving the market sentiment around caretrust reit bullet blockchain announces strategic initiative to accelerate growth and cement market leadership wyoming average gas price fall by cent per gallon in past week shiba inu shib may miss the mark but analyst say ruvi ai ruvi coinmarketcap listing powered surge ha it closer than ever novo nordisk expands legal action to protect u patient from unsafe nonfdaapproved compounded semaglutide pr newswire infoblox appoints joshua husk a chief revenue officer to accelerate global growth bullet blockchain announces strategic initiative to accelerate growth and cement market leadership beer institute release june taxable removal estimate report porsche gt r with manthey package arrives at porsche track experience buzz wear off for michigan marijuana business best meme coin to invest in today little pepe lilpepe to rally like pepe coin pepe did in cold wallet cashback utility set new standard while sol aim for doge eye target william raveis named top luxury brokerage at inman golden i club award beer institute release june taxable removal estimate report trump administration end musk controversial five thing email for federal worker live now ncsl hold discussion on citizenship and voting ag completes expansion of cold case unit trump give coal a boost gut renewables and will return haze to the four corner opinion trump narrow fed chair candidate to four excluding treasury secretary bessent track live update michigan primary election result track live result detroit mayoral primary election endoflease eviction allowed under new state law editorial quire served community with honor compassion texas ag asks judge to officially remove awol dems from seat this texas republican stalked trump to get his endorsementand flopped trump firing of bureau of labor statistic commissioner will prove damaging woof watch don lemon bonkers trumptrashing therapy session with the runaway texas dem disaster video federal judge blast republican for trying to pas obviously unconstitutional law city council approves limited shortterm rental in centertown overlay sjc confines zoning standing analysis to actual proposed use speculation a to future us is irrelevant time for yall to love america again texas dems in illinois call on republican to be brave ap news summary at pm edt trump take an unexpected walk on the white house roof to survey new project trump plan to take over gaza aid effort u official say opinion with harris out who lead california governor race pentagon keep a lid on golden dome marjorie taylor greene call for george santos year sentence to be commuted editorial the fed wa right to say no on interest rate banihashemi what possibility is there for true reform in iran garrity boiled frog syndrome they decided to cheat national democrat gov jb pritzker vow to do whatever it take to win redistricting battle well well what do we have here ethic committee rip aoc for spouse shenanigan and hooboy thread ayotte sign bill to tighten absentee voting ensure accessible voting exportsmouth teen pleads guilty to charge related to hatemotivated vandalism spree trump admin unveils rule to unleash american drone dominance eagle running back saquon barkley decline invitation to join trump sport council tulsi gabbard tell pod force one she belief there may be alien and still ha a lot of question on nj drone trump will restore a confederate monument in the nation capital justice department to seek federal hate crime charge and death penalty in killing of israeli embassy staffer the state of america judiciary with judge j michael luttig there it is jasmine crockett admits dems lose when voter id is the law of the land watch election is on democrat see opportunity and a wide open primary why spanish fighter jet are patrolling iceland sky raising deposit insurance limit would cost consumer over billion henderson state lawmaker running for dina titus house seat ct put back on federal list of sanctuary jurisdiction why the state top lawyer disagrees house committee issue subpoena for epstein file and deposition with the clinton republican next redistricting target missouri port will kirsten baesler be confirmed for a spot in the trump administration trump jack smith probe isnt just hypocritical it could backfire spectacularly u government proposes easing some restriction on drone traveling long distance live now state department spokesperson hold press briefing aug marjorie taylor greene call for george santos year sentence to be commuted marjorie taylor greene call for george santos year sentence to be commuted trump creates white house task force for los angeles olympics chuck todd worry democratic party hasnt lost enough to learn lesson change course aws announces general availability of amazon elastic vmware service trump plan drug tariff of up to live now texas house hold legislative session day after democrat flee state gop congressman face heated town hall where hundred boo him for supporting trump big bill the latest house committee issue subpoena for epstein file deposition with clinton and others palantir book it first billion in quarterly sale and dodge doge axe elizabeth warren go to the mat for mamdani but it the new york post with the takedown eazy grease accelerates multiregional expansion with liquid recovery solution merger building dominant uco collection network african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal a former rolling stone say the met ha his stolen guitar the museum dispute it sterlington welcome leading private wealth team from morgan lewis new snap rule candy and soda no longer covered in additional state trump and democrat turn rival texas and california into proxy for national power struggle tariff trade and tension donald trump central asia policy massachusetts police training material classify mom for liberty a hate group alongside antifa the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance aug might be one of the shortest day of the year here why from the publisher how to gain enemy and sow mistrust trump take an unexpected walk on the white house roof to survey new project trump take an unexpected walk on the white house roof to survey new project mayor brandon johnson say police fire pension sweetener will make chicago finance far more difficult staa alert monsey firm of wohl fruchter investigating fairness of the sale of staar surgical to alcon justice department open grand jury probe into investigation of trump and russia report nato to coordinate regular and largescale arm delivery to ukraine most will be bought in the u alligator alcatraz ha some new competition the speedway slammer pbgh announces aurora chen a vice president of advisory service sen michael bennet asks fed to allow colorado plan that would let toddler stay on medicaid tesla billion muskcentric gamble marjorie taylor greene urge trump to commute george santos sentence illinois gov pritzker commends texas democrat who fled state to block gop redistricting plan illinois gov pritzker commends texas democrat who fled state to block gop redistricting plan trump tour white house roof hint at further renovation woke men mocked by woman for obnoxious performative drinking habit you guy ruined matcha</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>when independent contractor are actually employee lesson from the m steadfast medical staffing judgment coursera cour q earnings call transcript ap business summarybrief at pm edt cohu q revenue rise wayfair post m q profit revenue up to b trump narrow fed chair candidate to four excluding treasury secretary bessent trump narrow fed chair candidate to four excluding treasury secretary bessent service sector slows down in july rural grocery store pilot project aim to prevent food desert in north dakota rural grocery store pilot project aim to prevent food desert in north dakota texas community q net jump trump say bank discriminate against conservativesincluding him the wall street journal microsoft cloud and ai revenue soar tevogenai expands collaboration with databricks and microsoft to build the beta version of it predictcelltm model with a focus on oncology trump administration officially end thing email for federal employee cbs news citizen bet on open banking to ease account switching best free tech book to read online cftc eye spot crypto trading on future market public opinion due august arabica coffee price sharply higher on brazil coffee crop concern danica mason named among top female entrepreneur build equity from the ground up with red team go franklin resource q revenue beat fincen seeing scam urge bank beware crypto atm mel gordon appointed ceo of chronicle heritage signaling a new era of stability and scalable growth cardano ada face new challenger a rollblock presale heat up with x speculation weave q revenue jump ensign ensg q earnings call transcript real estate expert kim nicols offer insight on buying luxury real estate in granite bay in hellonation magazine former x ceo yaccarino take helm at glp focused telehealth firm emed reuters california marijuana grower said employee were among hundred detained in immigration raid california marijuana grower said employee were among hundred detained in immigration raid u pressure tsmc to buy intel stake for taiwan tariff relief vertical aerospace move beyond can it fly with aciturri deal in focus linda yaccarino join health tech platform emed a ceo after leaving x techcrunch intels a chip woe low yield delay panther lake production gold technical setup turn bullish with job miss and cpi ahead michael novogratz say bitcoin ethereum treasury frenzy may be over what now join sdccu for free resource on national financial awareness day investor alert investigation of bellring brand inc brbr announced by holzer holzer llc gainey mckenna egleston announces a class action lawsuit ha been filed against lineage bed bath beyond could be headed your way here whats next for the revived retail chain bed bath beyond could be headed your way here whats next for the revived retail chain real good food announces corporate action requesting transfer of share to transfer agent johnson fistel investigates fairness of proposed sale of staar surgical johnson fistel commences investigation of agilon health inc birdie bringing froyo back with plan for location in west village week of july morning news rating today move back to first in demo ethereum news today ethereum etf see record m outflow a blackrock lead withdrawal gainey mckenna egleston announces a class action lawsuit ha been filed against lineage inc line sprott inc declares second quarter dividend featuring locus control report find landfill methane monitoring and tuning system among lowest cost ghg reduction sprott inc declares second quarter dividend middleton co inc ma sell share of procter gamble company the nysepg thoroughbred financial service llc acquires share of procter gamble company the nysepg palantir ceo warns of america ai danger zone a he plan to bring superpower to bluecollar worker fortune roku expands streaming option with new adfree service at month century complete expands to nevada with new home in pahrump replenish nutrient announces beiseker facility update crypto news today sharplink boost eth holding figure plan public listing galaxy mull tokenized stock paramount skydance board to include david ellison sherry lansing oracle safra catz the fda is targeting orange juice here why and what the science say the washington post introducing transparent lab grassfed protein shake the protein shake thor drink built to scale how barak diskin bridge real estate and startup growth westfield capital management co lp decrease stock position in alphabet inc nasdaqgoog alphabet inc nasdaqgoog position cut by atrium wealth solution inc syntegra private wealth group llc ha position in alphabet inc nasdaqgoog inspire medical system analyst lower their forecast after q result meta illegally collected data from flo period and pregnancy app jury find ar technica examining the future niagen bioscience earnings outlook earnings outlook for jack in the box a look ahead innovative ind props earnings forecast insight into helmerich paynes upcoming earnings a look ahead horace mann educatorss earnings forecast whats next honest co earnings preview what are the best smart glass of herbalife earnings preview rosen law firm urge novo nordisk a nyse nvo investor with loss in excess of k to contact the firm for information about their right a glimpse of genco shipping trading earnings potential a look ahead fastlys earnings forecast examining the future national vision holdingss earnings outlook earnings outlook for oscar health spotlight on mercadolibre analyzing the surge in option activity this is what whale are betting on philip morris intl a look into citigroup inc price over earnings is the market bullish or bearish on msc industrial direct co how is the market feeling about alphabet infoblox appoints joshua husk a chief revenue officer to accelerate global growth whats driving the market sentiment around caretrust reit bullet blockchain announces strategic initiative to accelerate growth and cement market leadership wyoming average gas price fall by cent per gallon in past week shiba inu shib may miss the mark but analyst say ruvi ai ruvi coinmarketcap listing powered surge ha it closer than ever novo nordisk expands legal action to protect u patient from unsafe nonfdaapproved compounded semaglutide pr newswire infoblox appoints joshua husk a chief revenue officer to accelerate global growth bullet blockchain announces strategic initiative to accelerate growth and cement market leadership beer institute release june taxable removal estimate report porsche gt r with manthey package arrives at porsche track experience buzz wear off for michigan marijuana business best meme coin to invest in today little pepe lilpepe to rally like pepe coin pepe did in cold wallet cashback utility set new standard while sol aim for doge eye target william raveis named top luxury brokerage at inman golden i club award beer institute release june taxable removal estimate report trump administration end musk controversial five thing email for federal worker live now ncsl hold discussion on citizenship and voting ag completes expansion of cold case unit trump give coal a boost gut renewables and will return haze to the four corner opinion trump narrow fed chair candidate to four excluding treasury secretary bessent track live update michigan primary election result track live result detroit mayoral primary election endoflease eviction allowed under new state law editorial quire served community with honor compassion texas ag asks judge to officially remove awol dems from seat this texas republican stalked trump to get his endorsementand flopped trump firing of bureau of labor statistic commissioner will prove damaging woof watch don lemon bonkers trumptrashing therapy session with the runaway texas dem disaster video federal judge blast republican for trying to pas obviously unconstitutional law city council approves limited shortterm rental in centertown overlay sjc confines zoning standing analysis to actual proposed use speculation a to future us is irrelevant time for yall to love america again texas dems in illinois call on republican to be brave ap news summary at pm edt trump take an unexpected walk on the white house roof to survey new project trump plan to take over gaza aid effort u official say opinion with harris out who lead california governor race pentagon keep a lid on golden dome marjorie taylor greene call for george santos year sentence to be commuted editorial the fed wa right to say no on interest rate banihashemi what possibility is there for true reform in iran garrity boiled frog syndrome they decided to cheat national democrat gov jb pritzker vow to do whatever it take to win redistricting battle well well what do we have here ethic committee rip aoc for spouse shenanigan and hooboy thread ayotte sign bill to tighten absentee voting ensure accessible voting exportsmouth teen pleads guilty to charge related to hatemotivated vandalism spree trump admin unveils rule to unleash american drone dominance eagle running back saquon barkley decline invitation to join trump sport council tulsi gabbard tell pod force one she belief there may be alien and still ha a lot of question on nj drone trump will restore a confederate monument in the nation capital justice department to seek federal hate crime charge and death penalty in killing of israeli embassy staffer the state of america judiciary with judge j michael luttig there it is jasmine crockett admits dems lose when voter id is the law of the land watch election is on democrat see opportunity and a wide open primary why spanish fighter jet are patrolling iceland sky raising deposit insurance limit would cost consumer over billion henderson state lawmaker running for dina titus house seat ct put back on federal list of sanctuary jurisdiction why the state top lawyer disagrees house committee issue subpoena for epstein file and deposition with the clinton republican next redistricting target missouri port will kirsten baesler be confirmed for a spot in the trump administration trump jack smith probe isnt just hypocritical it could backfire spectacularly u government proposes easing some restriction on drone traveling long distance live now state department spokesperson hold press briefing aug marjorie taylor greene call for george santos year sentence to be commuted marjorie taylor greene call for george santos year sentence to be commuted trump creates white house task force for los angeles olympics chuck todd worry democratic party hasnt lost enough to learn lesson change course aws announces general availability of amazon elastic vmware service trump plan drug tariff of up to live now texas house hold legislative session day after democrat flee state gop congressman face heated town hall where hundred boo him for supporting trump big bill the latest house committee issue subpoena for epstein file deposition with clinton and others palantir book it first billion in quarterly sale and dodge doge axe elizabeth warren go to the mat for mamdani but it the new york post with the takedown eazy grease accelerates multiregional expansion with liquid recovery solution merger building dominant uco collection network african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal african nation have agreed to take deportee from the u what we know about the secretive deal a former rolling stone say the met ha his stolen guitar the museum dispute it sterlington welcome leading private wealth team from morgan lewis new snap rule candy and soda no longer covered in additional state trump and democrat turn rival texas and california into proxy for national power struggle tariff trade and tension donald trump central asia policy massachusetts police training material classify mom for liberty a hate group alongside antifa the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance the trump administration dismisses most on a federal board overseeing puerto rico finance aug might be one of the shortest day of the year here why from the publisher how to gain enemy and sow mistrust trump take an unexpected walk on the white house roof to survey new project trump take an unexpected walk on the white house roof to survey new project mayor brandon johnson say police fire pension sweetener will make chicago finance far more difficult staa alert monsey firm of wohl fruchter investigating fairness of the sale of staar surgical to alcon justice department open grand jury probe into investigation of trump and russia report nato to coordinate regular and largescale arm delivery to ukraine most will be bought in the u alligator alcatraz ha some new competition the speedway slammer pbgh announces aurora chen a vice president of advisory service sen michael bennet asks fed to allow colorado plan that would let toddler stay on medicaid tesla billion muskcentric gamble marjorie taylor greene urge trump to commute george santos sentence illinois gov pritzker commends texas democrat who fled state to block gop redistricting plan illinois gov pritzker commends texas democrat who fled state to block gop redistricting plan trump tour white house roof hint at further renovation woke men mocked by woman for obnoxious performative drinking habit you guy ruined matcha</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="O31" t="n">
+        <v>67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>130</v>
+      </c>
+      <c r="S31" t="n">
+        <v>64</v>
+      </c>
+      <c r="T31" t="n">
+        <v>182</v>
+      </c>
+      <c r="U31" t="n">
+        <v>107</v>
+      </c>
+      <c r="V31" t="n">
+        <v>44</v>
+      </c>
+      <c r="W31" t="n">
+        <v>32</v>
+      </c>
+      <c r="X31" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2885,6 +2885,84 @@
         <v>47</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6340</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6389.7099609375</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6310.31982421875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6374.31982421875</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5306090000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.0007974800154801</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>u tariff on asian mining rig slow bitcoin growth a firm eye canada domestic production outfront medium out q eps drop u auctioning seized m russian superyacht with state room helipad gym spa millennials lead the coffee badging revolt to protest return to office a business push to fill empty seat fortune castleinspired home from metal icon list for million global payment gpn q eps jump blazing new trail minnesota city are considering municipal cannabis store whats going on with ionq share today one gas ogs q net income jump ofsis enforcement overhaul what the july consultation mean for uk sanction compliance titus pressing for information on commodity commission nominee earnings season make it clear ai is the only game in town general dynamic board declares dividend myth about metabolism could be holding you back allegiant algt q earnings call transcript sm entertainment revenue up on new release from riize nct wish strong merch sale chatham cldt eps drop wall street oil gas lending down ytd niit learning system limited niit mt announces q fy apriljune result why opendoor technology stock wa tumbling today rosen a ranked and leading law firm encourages irobot corporation investor to secure counsel before important deadline in security class action irbt deloitte india and embark form a strategic alliance to offer endtoend solution for global capability centre how workplace toxicity played a role in the titan submersible disaster mcdonalds announces nostalgic mcdonaldland meal organic avocado mattress are up to off ahead of labor day phone jewelry linen which product could cost more due to trump india tariff jeff wood join patriot growth insurance service a premier client practice leader claires known for piercing million of teen ear file for chapter nd time since a catastrophic funding model court sends sec back to the drawing board tyson beck celebrity mint release first ever coin design featuring basketball icon dennis rodman new york city board denies mayor adam m in matching campaign fund best hp business laptop in strong pick for smart work beloved brooklyn restaurant from chef baxtrom close august claires known for piercing million of teen ear again file for chapter cliq digital ag dylan medium to vote against proposed share buyback and cliq digital currently no longer considers delisting latest global arabinogalactan market sizeshare worth usd million by at a cagr custom market insight analysis outlook leader report trend forecast segmentation growth rate value swot analysis coupa add tariff impact planning to supply chain tool amgen stock sink a market eye maritides next move how can you borrow less for grad school live will q earnings fuel doordashs dash next rally jenavalve responds to ftc action against proposed edward lifesciences acquisition roger williams university school of law named to best law school for by the princeton review israeli society is living in trauma say frenchisraeli journalist pioneer realty capital secures million dollar bond refinancing for texas student housing project from event to improvement step for turning dash cam alert into driver coaching a cautionary tale state ag prevail with a lump of coal for major investment firm a rally for apple lead wall street higher tween jewelry retailer claires file for second bankruptcy bloombergcom brazil request consultation at world trade organization over trump tariff brazil request consultation at world trade organization over trump tariff smart payment solution launch mony a revolutionary upi app for tourist and nris visiting india apple share pop ahead of trumpcook investment announcement at white house best crypto to buy today arctic pablos entry might be the last golden ticket a shiba inu and cheems revive interest c o r r e c t i o n enercom inc enercom announces andrew rapp senior advisor in the u department of energy a keynote speaker on august th at enercoms th anniversary energy investment conference rhode island writes it own cybersecurity rule for nonbanks ap trending summarybrief at pm edt rosen skilled investor counsel encourages lockheed martin corporation investor to secure rosen skilled investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt china fight mosquitoborne chikungunya virus with drone fine and net a thousand fall ill a preview of sabre earnings preview relay therapeutics earnings direct equity source featured in exclusive qa with two time emmy award winner jim knox a look ahead realreals earnings forecast claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since a look ahead advanced drainage systemss earnings forecast earnings outlook for warby parker snap stock is falling wednesday whats going on u is auctioning a seized m russian superyacht with state room a helipad a gym and a spa cloudsquare unveils new website and brand direction cementing it role a the leading lending platform for alternative finance we want to get there first and claim that for america nasa chief explains push for nuclear reactor on the moon video space walker dunlops earnings a preview exploring construction partnerss earnings expectation tesla cfo taneja excfo kirkhorn named in robotaxi shareholder suit altura join kuviai to enable ai agent in blockchain gaming earnings preview for peloton interactive mapped america hottest zip code revealed region by region realtorcom a peek at dwave quantum future earnings preview penn entertainment earnings rdo equipment co announces layoff delta exchange launch tracker a gamechanging alternative to spot crypto trading behind the scene of caterpillar latest option trend volatility isnt just a metric anymore it driving market structure cava group option frenzy what you need to know jen pawol will be major league baseball first woman to umpire in a regularseason game this weekend mother issue heartbreaking warning after son dy taking popular natural supplement ladbible best hacking surveillance game in origis energy and pioneer community energy announce year solar battery storage agreement richmond american community hosting open house in saratoga spring glencore scrap london listing move missed binance coin bnb roi analyst say ruvi ai ruvi could be your last chance to catch similar gain a phase nears end ethena gain vechain expands but cold wallet cwt token could be the hidden x crypto for adam zyglis cook getting messy suspected south american gang member arrested in maine by border patrol opinion with trump and ice involved los angeles shouldnt host the olympics midair skydiving collision over flathead county leaf one dead moran and marshall lied by omission myth about metabolism could be holding you back pekin restaurant currently closed due to unexpected plumbing issue should professional athlete still be role model the ethical life podcast return national park service to reinstall confederate statue felled by blm mob in should professional athlete still be role model the ethical life podcast gop rep cory mill accused by exgirlfriend of threatening to release sexually explicit image video of her cnn politics texas democrat loses touch with reality compare redistricting to the holocaust rosen a ranked and leading law firm encourages irobot corporation investor to secure counsel before important deadline in security class action irbt cincinnati brawl victim want onlooker who didnt help prosecuted rfk jr launch crackdown on kratom legal morphine substance often found in smoke shop product jonah goldberg kamala harris wont cure what ail the democratic party tim burchett signal hed take blackburn senate seat if she becomes governor once again demanding answer mahmoud khalils terrorist support and his unjustified presence in america former state worker and environmental advocate launch independent run for maine governor roger williams university school of law named to best law school for by the princeton review israeli society is living in trauma say frenchisraeli journalist ucla in talk with trump administration to end m freeze analysis lebanon decision on weapon corner hezbollah watch fox news rave about trump weird white house roof walk james city county police announces school zone speed camera installation former ct criminal justice official pay to resolve ethic complaint denies wrongdoing rosen skilled investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt china fight mosquitoborne chikungunya virus with drone fine and net a thousand fall ill the latest putin host trump envoy witkoff for crucial talk on ukraine peace deal rep jolanda jones apologizes for comparing texas redistricting plan to holocaust political analyst say if kamala slam biden in her book his team will level her crisp trump suit perfectly our national cognitive dissonance trump say he may deploy national guard in dc editorial redistricting a cynical power play by politician rowley six month into his presidency donald trump ha created a police state se cupp to trump truth is only what he want it be trump envoy witkoff meet putin ahead of russiaukraine peace deadline trump envoy witkoff meet putin ahead of russiaukraine peace deadline jen pawol will be major league baseball first woman to umpire in a regularseason game this weekend the death of highspeed rail not so fast editorial ai help rapidly crack yearlong mystery in alp platte county senator nominated by trump to serve in administration ocean city to consider declaring condemned condo in need of rehabilitation what are cool roof and how do they work india paid the price for underestimating china pl missile disgusting tom homan skewer farleft dem declaring her allegiance to foreign nation over her own country will doj crackdown prompt sanctuary jurisdiction to alter immigration policy democratic politician at iowa state fair john seiler next state school chief will follow delinquent thurmond despite court order federal official use penske truck to trick and arrest immigrant in la several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight democracy be damned texas and california plot dueling congressional gerrymander raap policy study release solving for access and affordability pdabs are not the answer several state threaten to redraw congressional map after texas kick off fight soldier shot before arrest made at army fort stewart in georgia soldier wounded in mass shooting at fort stewart in georgia independentminor party candidate join luzerne county ballot to woody allen epstein wa dracula serviced by young female vampire u sanction narcorapper el makabelico who laundered streaming proceeds to bloodthirsty mexican drug lord a massive u measles outbreak ha slowed but the start of the school year brings renewed risk of spread stanford student newspaper sue trump administration over use of immigration law to target propalestinian student why moderate dems scapegoat bibi dems should drop green energy and other commentary appeal court directs jeffco judge to reconsider releasing man car from lakewood police custody how trump is exploiting musk big ball pritzker democrat vow to win redistricting battle in the wild of the anaconda range expert say elusive gunman ha advantage over searcher pritzker democrat vow to win redistricting battle copy missouri gop see redistricting call a opening for limiting constitutional amendment rising dem star say party isnt playing dead amid gerrymandering chaos from gop bully fort stewart lockdown five soldier shot in active shooter incident dozen killed seeking aid in gaza a israel weighs further military action lawrence odonnell shred trump for playing dumb on ghislaine maxwell prison transfer drill sergeant are back hegseth reinstates practice to make basic great again bridge result for aug tribal group assert sovereignty a fed crack down on genderaffirming care tribal group assert sovereignty a fed crack down on genderaffirming care what to know about mrna vaccine what to know about mrna vaccine lunar lunacy cbs morning host worried colonization could harm the moon indigenous population wut openai is practically giving chatgpt to the government for free trump hate all democrat not just mamdani reader commentary leftist agitator disrupt trump official at student event in washington dc the mindful minute by jon heydenreich funny dozen killed seeking aid in gaza a israel weighs further military action dozen killed seeking aid in gaza a israel weighs further military action indycar distance itself from speedway slammer immigration detention facility defiance over compliance harvard med school continuing to use racial preference complaint say opinion trump destroys our source of information about job this is beyond irresponsible how form of pay got issued to exst louis comptroller mistake and bigger mistake the u dragon lady celebrated it th anniversary with a historic flight america is prepared for a strike on our nuclear weapon deadline alert faruqi faruqi llp investigates claim on behalf of investor of altimmune the real reason democrat are panicking about redistricting support at work central ohio workforce development network launch employee resource network to help employee thrive</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>u tariff on asian mining rig slow bitcoin growth a firm eye canada domestic production outfront medium out q eps drop u auctioning seized m russian superyacht with state room helipad gym spa millennials lead the coffee badging revolt to protest return to office a business push to fill empty seat fortune castleinspired home from metal icon list for million global payment gpn q eps jump blazing new trail minnesota city are considering municipal cannabis store whats going on with ionq share today one gas ogs q net income jump ofsis enforcement overhaul what the july consultation mean for uk sanction compliance titus pressing for information on commodity commission nominee earnings season make it clear ai is the only game in town general dynamic board declares dividend myth about metabolism could be holding you back allegiant algt q earnings call transcript sm entertainment revenue up on new release from riize nct wish strong merch sale chatham cldt eps drop wall street oil gas lending down ytd niit learning system limited niit mt announces q fy apriljune result why opendoor technology stock wa tumbling today rosen a ranked and leading law firm encourages irobot corporation investor to secure counsel before important deadline in security class action irbt deloitte india and embark form a strategic alliance to offer endtoend solution for global capability centre how workplace toxicity played a role in the titan submersible disaster mcdonalds announces nostalgic mcdonaldland meal organic avocado mattress are up to off ahead of labor day phone jewelry linen which product could cost more due to trump india tariff jeff wood join patriot growth insurance service a premier client practice leader claires known for piercing million of teen ear file for chapter nd time since a catastrophic funding model court sends sec back to the drawing board tyson beck celebrity mint release first ever coin design featuring basketball icon dennis rodman new york city board denies mayor adam m in matching campaign fund best hp business laptop in strong pick for smart work beloved brooklyn restaurant from chef baxtrom close august claires known for piercing million of teen ear again file for chapter cliq digital ag dylan medium to vote against proposed share buyback and cliq digital currently no longer considers delisting latest global arabinogalactan market sizeshare worth usd million by at a cagr custom market insight analysis outlook leader report trend forecast segmentation growth rate value swot analysis coupa add tariff impact planning to supply chain tool amgen stock sink a market eye maritides next move how can you borrow less for grad school live will q earnings fuel doordashs dash next rally jenavalve responds to ftc action against proposed edward lifesciences acquisition roger williams university school of law named to best law school for by the princeton review israeli society is living in trauma say frenchisraeli journalist pioneer realty capital secures million dollar bond refinancing for texas student housing project from event to improvement step for turning dash cam alert into driver coaching a cautionary tale state ag prevail with a lump of coal for major investment firm a rally for apple lead wall street higher tween jewelry retailer claires file for second bankruptcy bloombergcom brazil request consultation at world trade organization over trump tariff brazil request consultation at world trade organization over trump tariff smart payment solution launch mony a revolutionary upi app for tourist and nris visiting india apple share pop ahead of trumpcook investment announcement at white house best crypto to buy today arctic pablos entry might be the last golden ticket a shiba inu and cheems revive interest c o r r e c t i o n enercom inc enercom announces andrew rapp senior advisor in the u department of energy a keynote speaker on august th at enercoms th anniversary energy investment conference rhode island writes it own cybersecurity rule for nonbanks ap trending summarybrief at pm edt rosen skilled investor counsel encourages lockheed martin corporation investor to secure rosen skilled investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt china fight mosquitoborne chikungunya virus with drone fine and net a thousand fall ill a preview of sabre earnings preview relay therapeutics earnings direct equity source featured in exclusive qa with two time emmy award winner jim knox a look ahead realreals earnings forecast claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since claires known for piercing million of teen ear file for chapter nd time since a look ahead advanced drainage systemss earnings forecast earnings outlook for warby parker snap stock is falling wednesday whats going on u is auctioning a seized m russian superyacht with state room a helipad a gym and a spa cloudsquare unveils new website and brand direction cementing it role a the leading lending platform for alternative finance we want to get there first and claim that for america nasa chief explains push for nuclear reactor on the moon video space walker dunlops earnings a preview exploring construction partnerss earnings expectation tesla cfo taneja excfo kirkhorn named in robotaxi shareholder suit altura join kuviai to enable ai agent in blockchain gaming earnings preview for peloton interactive mapped america hottest zip code revealed region by region realtorcom a peek at dwave quantum future earnings preview penn entertainment earnings rdo equipment co announces layoff delta exchange launch tracker a gamechanging alternative to spot crypto trading behind the scene of caterpillar latest option trend volatility isnt just a metric anymore it driving market structure cava group option frenzy what you need to know jen pawol will be major league baseball first woman to umpire in a regularseason game this weekend mother issue heartbreaking warning after son dy taking popular natural supplement ladbible best hacking surveillance game in origis energy and pioneer community energy announce year solar battery storage agreement richmond american community hosting open house in saratoga spring glencore scrap london listing move missed binance coin bnb roi analyst say ruvi ai ruvi could be your last chance to catch similar gain a phase nears end ethena gain vechain expands but cold wallet cwt token could be the hidden x crypto for adam zyglis cook getting messy suspected south american gang member arrested in maine by border patrol opinion with trump and ice involved los angeles shouldnt host the olympics midair skydiving collision over flathead county leaf one dead moran and marshall lied by omission myth about metabolism could be holding you back pekin restaurant currently closed due to unexpected plumbing issue should professional athlete still be role model the ethical life podcast return national park service to reinstall confederate statue felled by blm mob in should professional athlete still be role model the ethical life podcast gop rep cory mill accused by exgirlfriend of threatening to release sexually explicit image video of her cnn politics texas democrat loses touch with reality compare redistricting to the holocaust rosen a ranked and leading law firm encourages irobot corporation investor to secure counsel before important deadline in security class action irbt cincinnati brawl victim want onlooker who didnt help prosecuted rfk jr launch crackdown on kratom legal morphine substance often found in smoke shop product jonah goldberg kamala harris wont cure what ail the democratic party tim burchett signal hed take blackburn senate seat if she becomes governor once again demanding answer mahmoud khalils terrorist support and his unjustified presence in america former state worker and environmental advocate launch independent run for maine governor roger williams university school of law named to best law school for by the princeton review israeli society is living in trauma say frenchisraeli journalist ucla in talk with trump administration to end m freeze analysis lebanon decision on weapon corner hezbollah watch fox news rave about trump weird white house roof walk james city county police announces school zone speed camera installation former ct criminal justice official pay to resolve ethic complaint denies wrongdoing rosen skilled investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt china fight mosquitoborne chikungunya virus with drone fine and net a thousand fall ill the latest putin host trump envoy witkoff for crucial talk on ukraine peace deal rep jolanda jones apologizes for comparing texas redistricting plan to holocaust political analyst say if kamala slam biden in her book his team will level her crisp trump suit perfectly our national cognitive dissonance trump say he may deploy national guard in dc editorial redistricting a cynical power play by politician rowley six month into his presidency donald trump ha created a police state se cupp to trump truth is only what he want it be trump envoy witkoff meet putin ahead of russiaukraine peace deadline trump envoy witkoff meet putin ahead of russiaukraine peace deadline jen pawol will be major league baseball first woman to umpire in a regularseason game this weekend the death of highspeed rail not so fast editorial ai help rapidly crack yearlong mystery in alp platte county senator nominated by trump to serve in administration ocean city to consider declaring condemned condo in need of rehabilitation what are cool roof and how do they work india paid the price for underestimating china pl missile disgusting tom homan skewer farleft dem declaring her allegiance to foreign nation over her own country will doj crackdown prompt sanctuary jurisdiction to alter immigration policy democratic politician at iowa state fair john seiler next state school chief will follow delinquent thurmond despite court order federal official use penske truck to trick and arrest immigrant in la several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight several state threaten to redraw congressional map after texas kick off fight democracy be damned texas and california plot dueling congressional gerrymander raap policy study release solving for access and affordability pdabs are not the answer several state threaten to redraw congressional map after texas kick off fight soldier shot before arrest made at army fort stewart in georgia soldier wounded in mass shooting at fort stewart in georgia independentminor party candidate join luzerne county ballot to woody allen epstein wa dracula serviced by young female vampire u sanction narcorapper el makabelico who laundered streaming proceeds to bloodthirsty mexican drug lord a massive u measles outbreak ha slowed but the start of the school year brings renewed risk of spread stanford student newspaper sue trump administration over use of immigration law to target propalestinian student why moderate dems scapegoat bibi dems should drop green energy and other commentary appeal court directs jeffco judge to reconsider releasing man car from lakewood police custody how trump is exploiting musk big ball pritzker democrat vow to win redistricting battle in the wild of the anaconda range expert say elusive gunman ha advantage over searcher pritzker democrat vow to win redistricting battle copy missouri gop see redistricting call a opening for limiting constitutional amendment rising dem star say party isnt playing dead amid gerrymandering chaos from gop bully fort stewart lockdown five soldier shot in active shooter incident dozen killed seeking aid in gaza a israel weighs further military action lawrence odonnell shred trump for playing dumb on ghislaine maxwell prison transfer drill sergeant are back hegseth reinstates practice to make basic great again bridge result for aug tribal group assert sovereignty a fed crack down on genderaffirming care tribal group assert sovereignty a fed crack down on genderaffirming care what to know about mrna vaccine what to know about mrna vaccine lunar lunacy cbs morning host worried colonization could harm the moon indigenous population wut openai is practically giving chatgpt to the government for free trump hate all democrat not just mamdani reader commentary leftist agitator disrupt trump official at student event in washington dc the mindful minute by jon heydenreich funny dozen killed seeking aid in gaza a israel weighs further military action dozen killed seeking aid in gaza a israel weighs further military action indycar distance itself from speedway slammer immigration detention facility defiance over compliance harvard med school continuing to use racial preference complaint say opinion trump destroys our source of information about job this is beyond irresponsible how form of pay got issued to exst louis comptroller mistake and bigger mistake the u dragon lady celebrated it th anniversary with a historic flight america is prepared for a strike on our nuclear weapon deadline alert faruqi faruqi llp investigates claim on behalf of investor of altimmune the real reason democrat are panicking about redistricting support at work central ohio workforce development network launch employee resource network to help employee thrive</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.9941</v>
+      </c>
+      <c r="O32" t="n">
+        <v>73</v>
+      </c>
+      <c r="P32" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>135</v>
+      </c>
+      <c r="S32" t="n">
+        <v>53</v>
+      </c>
+      <c r="T32" t="n">
+        <v>204</v>
+      </c>
+      <c r="U32" t="n">
+        <v>130</v>
+      </c>
+      <c r="V32" t="n">
+        <v>33</v>
+      </c>
+      <c r="W32" t="n">
+        <v>32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,6 +2963,84 @@
         <v>43</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6389.4501953125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6395.16015625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6355.22021484375</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6355.22021484375</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4769910000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0077997153489748</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>these analyst revise their forecast on viridian therapeutic following q result kelly clarksons exhusband brandon blackstock dead at after cancer battle arctic pablo coin open final presale stage after raising m and burning over billion token france top court strike down pesticide clause in farming law investor confidence wane a jobys loss mount and commercial timeline remains elusive veteran fund manager turn head with palantir stock price target coinmarketcap listing and early entry bonus analyst say ruvi ai ruvi ha a clear path to gain like early ethereum eth did these analyst revise their forecast on wixcom following q result the year bond auction went poorly yield are popping higher barrons jstar holding announces closing of underwriter overallotment option in connection with initial public offering shiba inu shib holder are jumping to this audited ai token early entry bonus and cmc listing made analyst call it the next millionaire maker eli lilly share plummet toward worst day in yearsheres why it down forbes dogecoin news today dogecoin face bearish indicator a consolidation continues near macys is selling a cotton sheet set for thats cool and comfortable consumer energy the principal subsidiary of cm energy declares quarterly dividend on preferred stock if you bought ozak ai with in july you could be sitting on by the end of august jstar holding announces closing of underwriter overallotment option in connection with initial public offering age verification in gta online how it impact gamers north american energy opportunity corp welcome murray macleod stewart to executive leadership and acquires equity interest in mjolnir resource corp tesla stock get crazy prediction from ceo elon musk draftkings stock surrender q earnings pop whats going on magnite analyst boost their forecast after betterthanexpected q earnings the latest a trump sweeping new tariff take effect u trading partner scramble worldwide the latest a trump sweeping new tariff take effect u trading partner scramble worldwide fastly tap new cfo amid record revenue what u consumer can expect from new tariff on imported good ltl proving to be big growth engine at rxo these analyst slash their forecast on vertex after q result sempra stock rise after second quarter earnings exceed analyst estimate tim scannell former stryker president coo named chair of longeviti neuro solution amid m capital infusion from soleus capital abbvie inc nyseabbv share sold by beacon harbor wealth advisor inc tim scannell former stryker president coo named chair of longeviti neuro solution amid m capital infusion from soleus capital tailoredspace expands with new del mar coworking location state of ohio welcome beta technology aircraft ap technology summarybrief at pm edt booming real estate market in quebec city cma exceptional sale and price in july with legionnaire case growing new york must take a comprehensive approach to address disease two merging boston bank to rebrand under new beacon name crypto news today trump to allow crypto in k plan euphoria raise m paxos settle with ny regulator conocophillips q fy earnings call transcript smb acquiring bb payable fuel priority q topline jump apple win wall street backing a billion u investment eas trump tension boost growth plan dow dip over point u initial claim rise what to know about trump newest and most sweeping tariff dentsply sirona maintains outlook despite sale decline orland library renovation project complete intel stock plummet amid ceo resignation demand trump tariff threat sprout social analyst cut their forecast after q earnings paramount and skydance close their billion merger kicking off reign of new entertainment giant trump is calling for intels ceo to step down here why warren buffett buy stock of company with million howard stern decision to make change in the board of director change in the board of director here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household whoa massive million judgment against assurance iq ftc slam assurance iq for misleading health plan marketing in violation of the ftc act and telemarketing sale rule can opendoor survive the real estate deep freeze these analyst increase their forecast on applovin after strong q earnings crypto group claim responsibility for hurling sex toy at wnba game cces sullivan fresh farmer market feed community support local farm whale activity signal major breakout ahead for ripple xrp and new eth layer token below mgic investment corporation receives moody rating upgrade lyno ai begin first presale round offering aidriven crypto arbitrage access at calcium aluminate cement market size will attain usd million by growing at cagr exclusive report by zion market research global calcium aluminate cement market size share trend analysis report traveler will have a new international flight option outside of big airline calcium aluminate cement market size will attain usd million by growing at cagr exclusive report by zion market research global calcium aluminate cement market size share trend analysis report universal uvv q earnings call transcript datacapable appoints duke energy veteran sandy buzzard to transform utility customer engagement former x ceo linda yaccarino named top exec of weightloss company former x ceo linda yaccarino named top exec of weightloss company datacapable appoints duke energy veteran sandy buzzard to transform utility customer engagement millennials tell u how your finance have changed under the trump administration toyota brace for billion hit from new u tariff amid trade tension developer buy worth of farmland to build luxury home in lehigh valley ramaco resource inc announces closing of upsized million public offering trump push u pickup truck export in trade deal despite tight road abroad realty income o q earnings call transcript new percent additional tariff on import from india ap business summarybrief at pm edt what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good united airline resolve tech problem that hit more than flight but residual delay likely check out what whale are doing with axon here why sam altman say openais gpt fall short of agi business insider this is what whale are betting on netflix analyst cheer disney dtc profit park strength but flag capex linear tv risk rxst investor alert robbins geller rudman dowd llp announces that rxsight inc investor with substantial loss have opportunity to lead security class action lawsuit m grant via community west bank fuel visalia affordable housing how do fiduciary advisor protect your financial interest top low price crypto presale project you can still afford cold wallet x entry stuns investor aircraft airframe fuel system market is forecasted to reach u billion in say stratview research gap already emerging in u and russian view of potential trumpputin summit kelly clarksons exhusband brandon blackstock dead at after cancer battle two pennsylvania state trooper have been shot governor say mamdani call alleged cuomotrump conversation disqualifying harvard scientist say research could be set back year after funding freeze south park come for kristi noem and ice american tell u something you actually love about american culture rural voice fourth season to cover immigration health care mental health social isolation and tribal right in rural minnesota top u firm modelled economic scenario for relocating palestinian from gaza outstanding scifi western procedural or action series maybe it time to bring back the genre emmy court vacates fed interchange rule dealing blow to bank stephen miller run the number on why dems are melting down over trump deportation and census change trump seek to change how census collect data and want to exclude immigrant in u illegally letter attack on jewish student must end fbi force out more leader including exdirector who fought trump demand for jan agent name ap news summary at pm edt fbi ousts more leader including exdirector who resisted trump demand for jan agent name letter mac and the tax cut note from a recovering conservative state of ohio welcome beta technology aircraft doe rosalias silence on gaza mean that activism only happens online netanyahu say israel intends to take control of all of gaza trans men wut welp here the dumbest thing youll read maybe ever about masculinity no really a top republican in the georgia governor race is suing his rival over campaign financing here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household california ag confirms ota may decline to apply conflicting tax regulation in individual appeal a top republican in the georgia governor race is suing his rival over campaign financing a top republican in the georgia governor race is suing his rival over campaign financing what u consumer can expect from new tariff on imported good two die when helicopter strike powerlines and crash into a barge on the mississippi river republican call for investigation into state senator who posted ice sighting rxst investor alert robbins geller rudman dowd llp announces that rxsight inc investor with substantial loss have opportunity to lead security class action lawsuit former superman turn into an ice supervillain will india save russia t armata mbt what the useu trade deal mean for you elon musk plan for a new political party will likely be derailed by a u political system hostile to new voice trump say intel ceo is highly conflicted call for resignation anderson man sentenced for impersonating homeland security officer and possessing incendiary bomb all diva no wow jasmine crockett staffer spill the tea about their horrible noshow bos from hell republican senator claim rfk jr mrna vaccine decision undermines trump agenda doug lamalfa to host town hall in chico on monday republican are out to get janet mill steve collins netanyahu say israel plan to take over all of gaza in bid to destroy hamas this one shocking stat prof that the american dream is dying what they did there wa torture u fisherman disappeared decade ago leaving only his empty boat authority just found his dna in a boot gov maura healey sign law that strengthens transgender reproductive health care protection swiss to seek more talk with u a horror tariff kick in netanyahu say israel plan to take over all of gaza in bid to destroy hamas man who brutally beat elderly prolifers dodge prison time who wear the pant in the family charlie bryant to seek second term on conyers city council ice ha a new courthouse tactic get immigrant case tossed then arrest them outside eleventh circuit expands government authority under the mandatory victim restitution act to collect unsatisfied restitution obligation new leadership appointed in haiti a gang threaten to overthrow government democrat slam texas senator cornyn over alleged fbi role in locating fleeing lawmaker prioritizing protection of civilian in future peace operation applying lesson from year of poc maine is not affordable for young people letter former acting director of the fbi and other official pushed out source say trump want to change the census here how the census work trump want to change the census here how the census work opinion what should voter look for in a new hennepin county attorney trump is honoring purple heart recipient including who sent him medal after attempt on his life trump is honoring purple heart recipient including who sent him medal after attempt on his life bonus editorial carton for aug texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan police seek possible sexual assault victim of unlicensed massage business their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them senior fbi official who resisted trump administration demand reportedly pushed out senior fbi official who resisted trump administration demand reportedly pushed out texas redistricting saga take a shocking turn takeaway from aps report on alaska native response to oil and mining proposal netanyahu say israel plan to take over gaza a official discus widening it offensive trump push for drilling mining sharpens debate for alaska native about land they view a sacred opinion federal official should have to pas fitness test fan point out the irony in former superman actor dean cain joining ice french algerian tie hit new low after macron hardens stance america need big ball not mahmoud khalil vance boelter pleads not guilty in minnesota lawmaker shooting gop strategist lay out how census disproportionately hurt republican netanyahu say israel to control not govern gaza th circuit opts in to the evolving collective action debate russian drone test nato article defense guarantee ahead of friday sanction deadline specialty clothing store facing tariff on good from india concerned about future</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>these analyst revise their forecast on viridian therapeutic following q result kelly clarksons exhusband brandon blackstock dead at after cancer battle arctic pablo coin open final presale stage after raising m and burning over billion token france top court strike down pesticide clause in farming law investor confidence wane a jobys loss mount and commercial timeline remains elusive veteran fund manager turn head with palantir stock price target coinmarketcap listing and early entry bonus analyst say ruvi ai ruvi ha a clear path to gain like early ethereum eth did these analyst revise their forecast on wixcom following q result the year bond auction went poorly yield are popping higher barrons jstar holding announces closing of underwriter overallotment option in connection with initial public offering shiba inu shib holder are jumping to this audited ai token early entry bonus and cmc listing made analyst call it the next millionaire maker eli lilly share plummet toward worst day in yearsheres why it down forbes dogecoin news today dogecoin face bearish indicator a consolidation continues near macys is selling a cotton sheet set for thats cool and comfortable consumer energy the principal subsidiary of cm energy declares quarterly dividend on preferred stock if you bought ozak ai with in july you could be sitting on by the end of august jstar holding announces closing of underwriter overallotment option in connection with initial public offering age verification in gta online how it impact gamers north american energy opportunity corp welcome murray macleod stewart to executive leadership and acquires equity interest in mjolnir resource corp tesla stock get crazy prediction from ceo elon musk draftkings stock surrender q earnings pop whats going on magnite analyst boost their forecast after betterthanexpected q earnings the latest a trump sweeping new tariff take effect u trading partner scramble worldwide the latest a trump sweeping new tariff take effect u trading partner scramble worldwide fastly tap new cfo amid record revenue what u consumer can expect from new tariff on imported good ltl proving to be big growth engine at rxo these analyst slash their forecast on vertex after q result sempra stock rise after second quarter earnings exceed analyst estimate tim scannell former stryker president coo named chair of longeviti neuro solution amid m capital infusion from soleus capital abbvie inc nyseabbv share sold by beacon harbor wealth advisor inc tim scannell former stryker president coo named chair of longeviti neuro solution amid m capital infusion from soleus capital tailoredspace expands with new del mar coworking location state of ohio welcome beta technology aircraft ap technology summarybrief at pm edt booming real estate market in quebec city cma exceptional sale and price in july with legionnaire case growing new york must take a comprehensive approach to address disease two merging boston bank to rebrand under new beacon name crypto news today trump to allow crypto in k plan euphoria raise m paxos settle with ny regulator conocophillips q fy earnings call transcript smb acquiring bb payable fuel priority q topline jump apple win wall street backing a billion u investment eas trump tension boost growth plan dow dip over point u initial claim rise what to know about trump newest and most sweeping tariff dentsply sirona maintains outlook despite sale decline orland library renovation project complete intel stock plummet amid ceo resignation demand trump tariff threat sprout social analyst cut their forecast after q earnings paramount and skydance close their billion merger kicking off reign of new entertainment giant trump is calling for intels ceo to step down here why warren buffett buy stock of company with million howard stern decision to make change in the board of director change in the board of director here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household whoa massive million judgment against assurance iq ftc slam assurance iq for misleading health plan marketing in violation of the ftc act and telemarketing sale rule can opendoor survive the real estate deep freeze these analyst increase their forecast on applovin after strong q earnings crypto group claim responsibility for hurling sex toy at wnba game cces sullivan fresh farmer market feed community support local farm whale activity signal major breakout ahead for ripple xrp and new eth layer token below mgic investment corporation receives moody rating upgrade lyno ai begin first presale round offering aidriven crypto arbitrage access at calcium aluminate cement market size will attain usd million by growing at cagr exclusive report by zion market research global calcium aluminate cement market size share trend analysis report traveler will have a new international flight option outside of big airline calcium aluminate cement market size will attain usd million by growing at cagr exclusive report by zion market research global calcium aluminate cement market size share trend analysis report universal uvv q earnings call transcript datacapable appoints duke energy veteran sandy buzzard to transform utility customer engagement former x ceo linda yaccarino named top exec of weightloss company former x ceo linda yaccarino named top exec of weightloss company datacapable appoints duke energy veteran sandy buzzard to transform utility customer engagement millennials tell u how your finance have changed under the trump administration toyota brace for billion hit from new u tariff amid trade tension developer buy worth of farmland to build luxury home in lehigh valley ramaco resource inc announces closing of upsized million public offering trump push u pickup truck export in trade deal despite tight road abroad realty income o q earnings call transcript new percent additional tariff on import from india ap business summarybrief at pm edt what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good what u consumer can expect from new tariff on imported good united airline resolve tech problem that hit more than flight but residual delay likely check out what whale are doing with axon here why sam altman say openais gpt fall short of agi business insider this is what whale are betting on netflix analyst cheer disney dtc profit park strength but flag capex linear tv risk rxst investor alert robbins geller rudman dowd llp announces that rxsight inc investor with substantial loss have opportunity to lead security class action lawsuit m grant via community west bank fuel visalia affordable housing how do fiduciary advisor protect your financial interest top low price crypto presale project you can still afford cold wallet x entry stuns investor aircraft airframe fuel system market is forecasted to reach u billion in say stratview research gap already emerging in u and russian view of potential trumpputin summit kelly clarksons exhusband brandon blackstock dead at after cancer battle two pennsylvania state trooper have been shot governor say mamdani call alleged cuomotrump conversation disqualifying harvard scientist say research could be set back year after funding freeze south park come for kristi noem and ice american tell u something you actually love about american culture rural voice fourth season to cover immigration health care mental health social isolation and tribal right in rural minnesota top u firm modelled economic scenario for relocating palestinian from gaza outstanding scifi western procedural or action series maybe it time to bring back the genre emmy court vacates fed interchange rule dealing blow to bank stephen miller run the number on why dems are melting down over trump deportation and census change trump seek to change how census collect data and want to exclude immigrant in u illegally letter attack on jewish student must end fbi force out more leader including exdirector who fought trump demand for jan agent name ap news summary at pm edt fbi ousts more leader including exdirector who resisted trump demand for jan agent name letter mac and the tax cut note from a recovering conservative state of ohio welcome beta technology aircraft doe rosalias silence on gaza mean that activism only happens online netanyahu say israel intends to take control of all of gaza trans men wut welp here the dumbest thing youll read maybe ever about masculinity no really a top republican in the georgia governor race is suing his rival over campaign financing here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household here what the new tariff could cost each u household california ag confirms ota may decline to apply conflicting tax regulation in individual appeal a top republican in the georgia governor race is suing his rival over campaign financing a top republican in the georgia governor race is suing his rival over campaign financing what u consumer can expect from new tariff on imported good two die when helicopter strike powerlines and crash into a barge on the mississippi river republican call for investigation into state senator who posted ice sighting rxst investor alert robbins geller rudman dowd llp announces that rxsight inc investor with substantial loss have opportunity to lead security class action lawsuit former superman turn into an ice supervillain will india save russia t armata mbt what the useu trade deal mean for you elon musk plan for a new political party will likely be derailed by a u political system hostile to new voice trump say intel ceo is highly conflicted call for resignation anderson man sentenced for impersonating homeland security officer and possessing incendiary bomb all diva no wow jasmine crockett staffer spill the tea about their horrible noshow bos from hell republican senator claim rfk jr mrna vaccine decision undermines trump agenda doug lamalfa to host town hall in chico on monday republican are out to get janet mill steve collins netanyahu say israel plan to take over all of gaza in bid to destroy hamas this one shocking stat prof that the american dream is dying what they did there wa torture u fisherman disappeared decade ago leaving only his empty boat authority just found his dna in a boot gov maura healey sign law that strengthens transgender reproductive health care protection swiss to seek more talk with u a horror tariff kick in netanyahu say israel plan to take over all of gaza in bid to destroy hamas man who brutally beat elderly prolifers dodge prison time who wear the pant in the family charlie bryant to seek second term on conyers city council ice ha a new courthouse tactic get immigrant case tossed then arrest them outside eleventh circuit expands government authority under the mandatory victim restitution act to collect unsatisfied restitution obligation new leadership appointed in haiti a gang threaten to overthrow government democrat slam texas senator cornyn over alleged fbi role in locating fleeing lawmaker prioritizing protection of civilian in future peace operation applying lesson from year of poc maine is not affordable for young people letter former acting director of the fbi and other official pushed out source say trump want to change the census here how the census work trump want to change the census here how the census work opinion what should voter look for in a new hennepin county attorney trump is honoring purple heart recipient including who sent him medal after attempt on his life trump is honoring purple heart recipient including who sent him medal after attempt on his life bonus editorial carton for aug texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan texas democrat plead for donation to extend their walkout and block trump redistricting plan police seek possible sexual assault victim of unlicensed massage business their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them their deportation proceeding were closed for year trump official are reviving them senior fbi official who resisted trump administration demand reportedly pushed out senior fbi official who resisted trump administration demand reportedly pushed out texas redistricting saga take a shocking turn takeaway from aps report on alaska native response to oil and mining proposal netanyahu say israel plan to take over gaza a official discus widening it offensive trump push for drilling mining sharpens debate for alaska native about land they view a sacred opinion federal official should have to pas fitness test fan point out the irony in former superman actor dean cain joining ice french algerian tie hit new low after macron hardens stance america need big ball not mahmoud khalil vance boelter pleads not guilty in minnesota lawmaker shooting gop strategist lay out how census disproportionately hurt republican netanyahu say israel to control not govern gaza th circuit opts in to the evolving collective action debate russian drone test nato article defense guarantee ahead of friday sanction deadline specialty clothing store facing tariff on good from india concerned about future</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.9875</v>
+      </c>
+      <c r="O33" t="n">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>136</v>
+      </c>
+      <c r="S33" t="n">
+        <v>76</v>
+      </c>
+      <c r="T33" t="n">
+        <v>193</v>
+      </c>
+      <c r="U33" t="n">
+        <v>124</v>
+      </c>
+      <c r="V33" t="n">
+        <v>49</v>
+      </c>
+      <c r="W33" t="n">
+        <v>43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3041,6 +3041,84 @@
         <v>41</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6373.4501953125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6407.25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6364.06005859375</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6389.669921875</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4652400000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.0025041278217863</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>spirit of halloweentown is calling festival ticket go on sale august passenger injured in icon of the sea water slide panel shatter kate spade outlet shopper say this crossbody bag is a timeless accessory and it on sale for only nvr inc announces share repurchase authorization car coffee and clothing are poised to get pricier with new tariff bitcoin news today bitcoin auction for dogwifhat meme cap hit k amid growing nft interest nvr inc announces share repurchase authorization top cryptos to invest before end of august best rakshabandhan tech gift under r taketwo q net booking up fran drescher wont run for sagaftra president a candidate line up for race gold miner earn double the profit of yet still undervalued trump warns of great depression a court weighs billion tariff rollback this small city ha managed to keep rent down since and it a quick train ride from nyc sec end lawsuit against ripple company to pay million fine reuters dow jones today stock surge a major index on track to post solid weekly gain apple extends rally gold at record high level investopedia investor alert morris kandinov llp investigating phh wai pcla and epwk stockholder are encouraged to contact the firm a florida woman posed a a nurse and treated thousand of unsuspecting patient official say gold price jump to record high following surprise u tariff ruling apple stock retake key level after dodging tariff bullet apple stock retake key level after dodging tariff bullet investor business daily trump pursues record billion settlement from ucla over antisemitism claim dwave quantum cash hoard fuel aggressive expansion analyst report parkerhannifin corp minsud announces option grant fat brand open first cobranded round table pizza and fatburger in california openstore shift focus from shopify aggregator to menswear brand run to samsung now for up to off a new tv score off your first order at small the purrfect cat meal service rosen a ranked and leading law firm encourages fiserv inc investor to secure counsel denver employee no longer with the city after incident at cannabis club rosen a ranked and leading law firm encourages fiserv inc investor to secure counsel before important deadline in security class action fi examining the future growgenerations earnings outlook a look at perasos upcoming earnings report a peek at teloss future earnings apple aapl confirms billion u investment after white house tease shore living welcome new realtor to team u global investor launch it smart beta sea etf on the mexican stock exchange joining jet and goau earnings preview for quest resource holding insight into quipt home medical upcoming earnings a preview of hf food group earnings examining the future virtras earnings outlook a look ahead gaia earnings forecast connex credit union data breach expose personal information murphy law firm investigates legal claim a glimpse of synchronoss technologiess earnings potential rosen a ranked and leading law firm encourages flywire corporation investor to secure uncovering potential microvast holdingss earnings preview analyst have this to say about elanco animal health an overview of aris water solutionss earnings deep dive into mirum pharmaceutical stock analyst perspective rating expert outlook abcellera biologics through the eye of analyst demystifying penn entertainment insight from analyst review what analyst rating have to say about iovance biotherapeutics tmobile u unusual option activity unpacking the latest option trading trend in cai unpacking the latest option trading trend in ford motor whats driving the market sentiment around affirm holding what doe the market think about paylocity holding pe ratio insight for jdcom taketwo interactive stock a deep dive into analyst perspective rating what doe the market think about ubs gr popular grocery store supplier file chapter bankruptcy how doe a k hardship withdrawal work and is it smart to take one ripple xrp tron trx poised for gain but trader are watching this crypto for a bigger run in samsung galaxy z fold what make it the best foldable phone cardanos ada lead in the race is in danger ruvi ai ruvi coinmarketcap listing get it industry spotlight a analyst call it the top summer play bofa reiterates buy on alphabet googl a gemini gain traction and kpis hold steady xrp news today xrp rally hit with institutional buying and legal victory in play rosen a ranked and leading law firm encourages flywire corporation investor to secure counsel before important deadline in security class action flyw fed president issue stern warning on lasting price increase trump clash with intels ceo is a crucial test for u chip making market update cmcsa cv expe msi pgr ph unh yum hims final deadline rosen a top ranked law firm encourages hims hers health inc fannie freddie stock offering could come a soon a this year barrons amazon amzn aws unveils amazon evsa new way to run vmware workload in the cloud recordhigh gold price push jeweler to offer gilded veneer to prevent sticker shock best ev penny stock to buy according to hedge fund royal expert reveal hypocrisy of william kates secret greek holiday electric vehicle supply equipment market size will attain usd billion by growing at cagr exclusive report by zion market research global electric vehicle supply equipment market size share trend analysis report electric vehicle supply equipment market size will attain usd billion by growing at cagr exclusive report by zion market research global electric vehicle supply equipment market size share trend analysis report san mateo burger popup start this weekend at coyote point best canadian gold stock to buy according to hedge fund doj asks court to release epstein grand jury evidencebut unclear how much may already be public trump approval rating drop in poll this week but rise slightly in retailer tariffbattered import volume to be weaker in gear for the great outdoors is up to off for this great sale at backcountry cool down anywhere save on this ultra cooling shark fan celebrate cbd day with off sitewide at sunday scaries qqq and friend hit high tech etf thrive despite trade turbulence parent trap star reunite in new movie freakier friday deutsche bank reiterates buy on microsoft msftai driving doubledigit efficiency gain ap business summarybrief at pm edt boar head plan to reopen troubled deli meat plant but report of sanitation problem persist boar head plan to reopen troubled deli meat plant but report of sanitation problem persist intel ceo fire back at trump demand to resign mcdonalds menu brings back classic character for shake meal nvidia nvda get overweight rating a ai capex stay strong into mexican authority accuse adidas of cultural appropriation over new sandal design gold future jump to record high a u imposes tariff on swiss gold bar import amd ai growth story gain steambarclays see room for more upside montgomery county democratic state rep call on senate republican to pas funding for septum friday assorted link opinion direct primary care provides medical treatment the oldfashioned way not sure whats more humiliating meidastouch pushing fake jd vance story or the obama bro who bought it report trump seek billion from ucla over antisemitism claim texas state rep isnt backing down from fighting overtly racist redistricting map investigation stalled while georgia state election board tried to change voting rule justice department subpoena new york ag james a it probe whether she violated trump right photo show israeli demonstrating for the release of hostage and ending the gaza war photo show israeli demonstrating for the release of hostage and ending the gaza war gov gavin newsom appoints new judge to bay area superior court kristi noem slam south park for petty and lazy spoof of her only the liberal nuclear energy now reactor on the moon and at denver airport bauer south carolina former lieutenant governor end gop primary challenge to sen graham bauer south carolina former lieutenant governor end gop primary challenge to sen graham bauer south carolina former lieutenant governor end gop primary challenge to sen graham watchdog group asks for probe of acquisition of qatari jet on trump behalf mandan approves preliminary budget with small property tax increase ap news summary at pm edt israel plan to take over gaza city stir fear for civilian and hostage the latest trump will host armenia and azerbaijan for a white house peace summit exclusive full video show leadup to brutal attack of elderly prolifers by man who dodged prison u global investor launch it smart beta sea etf on the mexican stock exchange exclusive federal law enforcement to begin interviewing unaccompanied migrant child in government custody texas republican vow to go nuclear in redistricting row trump action unlikely to affect fed independence trump tariff are killing f sale is there a better way to manage grizzly bear state urged to step up in matching federal momentum for developing nuclear energy trump considering use of military force against mexican drug cartel what doe occupying gaza accomplish for israel live now texas hold legislative session after democrat lawmaker depart doj asks court to release epstein grand jury evidencebut unclear how much may already be public trump approval rating drop in poll this week but rise slightly in plane cabin fill with toxic smoke a power bank catch fire over the ocean hour away from landing how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very president trump sign debanking executive order horizontal review for bank and credit union are next parent trap star reunite in new movie freakier friday boar head plan to reopen troubled deli meat plant but report of sanitation problem persist intel ceo fire back at trump demand to resign how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very city can make do with fewer public employee florida updated agreement on handling detainee at alligator alcatraz but a month after it opened florida updated agreement on handling alligator alcatraz detainee but a month after it opened trump is asking the supreme court to bless stephen miller racial profiling white house pause public tour amid ballroom construction landrum police chief resigns after year of service minute before gunfire erupted at fort stewart the shooting suspect texted his family saying i love yall uncle say what to know about israel plan to retake gaza city what to know about israel plan to retake gaza city update labrynth launch the red tape index to help america build smarter faster other view millennials are avoiding divorce but their american dream ha changed house republican try to defend medicaid cutsand it go poorly dhs secretary kristi noem truth nuke a reporter pushing dem talking point disguised a question ice family separation are forcing child to parent themselves ap news summary at pm edt columnist helen ubinas my philadelphia inquirer farewell lt governor kounalakis announces switch for governor race to treasurer thomas financial group and phoenix lender service close million usda business possible outcome of a gerrymandering battle royale reason republican redistricting power grab might backfire doe your state have official drink if so what is it here the answer warren call on fed to activate additional capital charge special prosecutor ag bondi assigns to letitia james and adam schiff should scare the hell out of them trumpappointed judge toss contempt finding against administration doj informs judge it will ask supreme court to quickly rule on trump birthright citizenship order epa terminates billion solar for all program what to know about past meeting between putin and his american counterpart germany halt military export to israel for use in gaza amid outcry over netanyahu plan when real life feel like a jurassic park moment pete davidson thought the starstudded audience at the snl special wa terrible just peachy fema tell staff to work for ice or risk getting fired letter to the editor leave the judging to jesus tarantula overcome southwest during mating season right now the worst thing you can be is a racist marc maron fire back at howie mandels comment using donald trump a an example dam if you do dam if dont private berk lake murky future opinion opinion to keep finest city title san diego must clean up it act russia mediterranean flotilla is in a sorry state aquaculture can help produce more u seafood pennsylvania advocate call for shutdown of moshannon after ice detainee death putin say hell end war with ukraine with one major concession trump double reward to million for arrest of venezuela president to face u drug charge blue state throw tantrum over trump food stamp fraud crackdown couple welcome baby born from yearold embryo sen kelly bill help military medic enter civilian career b bombed a smiley face into the ground because it ran out of target jd vance go fishing for trout with uk lammy germany halt military export to israel for use in gaza amid outcry over netanyahu plan germany halt military export to israel for use in gaza amid outcry over netanyahu plan appeal court remove boasbergs contempt order in trump admin deportation case why trump tariff hit poor country with higher rate than rich one diana taurasi endorses caitlin clark joining shortlist of wnba player with signature shoe mixedbreed dog buddy is a sweetheart ready for a welcoming new home a top federal reserve official say dour job data back the case for rate cut a top federal reserve official say dour job data back the case for rate cut a top federal reserve official say dour job data back the case for rate cut common lead a strong opening night for san jose jazz summer fest a top federal reserve official say dour job data back the case for rate cut ap news morton meyerson texas businessman and perot lieutenant dy at why xiaomi succeeded at making electric car but apple failed jim cramer delivers straight talk on tricky sp market top crypto token under that could see big gain in fastestgrowing cryptos in blockdag toncoin cronos tron gaining fast top cryptos under to buy nowozak ai lead the list while nearing m presale momentum and x token growth potential cardano price prediction ada eye x growth but this cheaper crypto might soar x in why clean energy fuel stock raced nearly higher today here why joby aviation stock flew higher in july china ev tipping point racing from to new sale in record time rethinking state government presence in baltimore editorial massachusetts makarevich understandable separation agreement language aid employer in unpaid wage case building growth lane that work in any market weekend binge best family series to watch on hotstar from low market cap to big ambition most promising cryptos in landlord say ruby lius plan for bay property defies commercial common sense rosie odonnell claim abc gonna cancel the view michigan governor tell president trump tariff are hurting auto job fda official return to agency after loomerled ouster cnn lula and putin discus peace in ukraine before u summit after the mustang ford is teasing the return of another beloved car a an ev gizmodo apple ai momentum is building here what it mean for investor top crypto gainer today blockdag stellar uniswap hedera are the one to watch ukraine drone revolution ha exposed a u military vulnerability how to trade in corporate life for your next big idea best meme coin to buy new pepe coin rival is growing faster than pepe when it gained billion market cap in day court rule pension fund position wa not so baseless a to mandate an award of attorney fee new art cafe community space to open in camp washington this summer whistleblower tie clinton campaign to fake russia hack sperry trump meeting with putin pose high stake for the ukraine war and his legacy investor alert pomerantz law firm investigates claim on behalf of investor of agilon health inc agl investor alert pomerantz law firm investigates claim on behalf of investor of inspire medical system inc insp dol resurrects paid program employer can selfreport resolve violation rosen recognized investor counsel encourages lockheed martin corporation investor to secure investor alert pomerantz law firm investigates claim on behalf of investor of national grid rosen recognized investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt trump pick for the fed fuel an existential threat a central bank independence is targeted jpmorgan say fortune what to know about instagram map location sharing and privacy concern the new york time a gpt launch openai loyalist pushed altman for gptos return citing performance and reliability flipkart freedom sale huge discount on ipad oneplus pad samsung tab top presale cryptos in this month that are breaking funding record cold wallet dexboss aurealone lightchain ai taxloss harvesting part iii investment strategy u fed bowman latest job data stiffens support for three rate cut in california rooftop solar rule in limbo after state supreme court ruling top altcoins to buy blockchainfx presale at might dwarf polkadot and cosmos gain speech by vice chair for supervision bowman on the economic outlook and community banking federal reserve board gov irs white house clashed over immigrant data before tax chief wa ousted u fed bowman latest job data stiffens support for three rate cut in reuters fed bowman call for community bank reform favor rate cut these are dead decision zelensky reject ceding territory after trump talk landswap fed bowman back a september rate cut the wall street journal thumzup medium corporation announces update to the term of it proposed public offering im what is the perfect growth etf to pair with voo for longterm wealth reddit stock pop after a blowout quarter but is it a buy best crypto to buy this month magacoin finance gain whale support from solana and doge polk county chamber of commerce ha new home from hollywood to silicon valley how eventbrites ceo bet k on a phone closet startup is qualcomm the best semiconductor stock to buy right now best crypto to buy now blockdag shiba inu cardano xrp stand out fpl reach potential rate settlement deep dive american havent saved for retirement state are creating automatic saving plan ai can solve the genz and millennial engagement crisis put yourself in front of the next major investing trend trump tariff are making international stock market great again reason why ozak ai could be the best investment this august x growth still on the table investor alert pomerantz law firm investigates claim on behalf of investor of barnes noble education inc bned why burger cost so much right now trump announces white house press conference to stop violent crime in washington dcdespite historically low rate whitmer told trump in private that michigan auto job depend on a tariff change of course whitmer told trump in private that michigan auto job depend on a tariff change of course how a cia hit on al qaeda ensnared a u citizen in afghanistan byd ev struck by lightning hold up fine your daily dose of insightful news and perspective investor alert pomerantz law firm investigates claim on behalf of investor of exelixis inc exel ai can be used to develop biological and chemical weapon investor alert pomerantz law firm investigates claim on behalf of investor of anika investor alert pomerantz law firm investigates claim on behalf of investor of anika therapeutic inc anik investor alert pomerantz law firm investigates claim on behalf of investor of neogenomics inc neo investor alert pomerantz law firm investigates claim on behalf of investor of praxis precision medicine inc prax how compounding return can help you retire a millionaire even on a modest income investor alert pomerantz law firm investigates claim on behalf of investor of albany international corp ain top new cryptocurrencies to buy in top presale coin to buy today before price jump in the next stage investor alert pomerantz law firm investigates claim on behalf of investor of tronox holding plc trox investor alert pomerantz law firm investigates claim on behalf of investor of confluent inc cflt crew splash down in pacific after return from iss if youd invested in nvidia stock year ago here how much youd have today vinay prasad return to the fda week after his ouster statnewscom farmer consider the good and bad of incorporating artificial intelligence on the farm farmer consider the good and bad of incorporating artificial intelligence on the farm only a blink left to buy in arctic pablo shock market with b toke burned a shiba inu and pudgy penguin rally bathroom tool that save money and water all you need is this simple upgrade reader view essentia aspirus need to do more for duluth laguna niguel man pleads guilty to firing semiautomatic rifle at sheriff helicopter justice department target new york attorney general a trump foe here what to know justice department target new york attorney general a trump foe here what to know man suckerpunched during argument at eureka sport bar charge filed end of racial consent decree poised to change federal hiring sin city economic slump signal wider slowdown the soviet union yakk fighter wa too powerful for it own design wnba coach say female athlete have been subjected to adult toy projectile for century wut trump team push for ouster of top iea official california poverty crisis will hamper newsoms national climb avoid buying this canned coconut milk brand our taste test show it the absolute worst security flaw in web server enables remote code execution cve london police arrest people a propalestinian protester defy new law london police arrest people a propalestinian protester defy new law trump narcos strategy collides with mexico strong opposition to u deployment oc man sentenced to year for la street takeover that left nursing student dead extrump lawyer call president middecade redistricting scheme more brazen than watergate welcome to the next phase of american heist secretary duffy host press conference on one big beautiful bill act and air traffic control trump warns of new great depression if court block his tariff plan it would be all over again why did judge throw out conviction in murder of chris paul grandfather in winstonsalem beto orourke trash texas republican these motherfkers are panicking beto orourke trash texas republican these motherfkers are panicking trump to host news conference to stop violent crime and make dc one of the safest city in the world mexican president rule out trump reported military plan against mexico drug cartel kelly army arrival worried the town fda official return to agency after loomerled ouster illinois gov jb pritzker forgets map exist when slamming antidemocracy gopers over redistricting nyc limit housing discrimination based on criminal background is criminal history history breastfeeding at work redefined puerto rico new code usher in major change to save animal county must mobilize more volunteer to save animal county must mobilize more volunteer diddy lawyer mark geragos say diddy would be trump supporter if pardoned clip of the week old man wanders around on a roofand more the soviet union insane first attempt at an aircraft carrier ag paxton call on california to aid texas in arresting house democrat that left the state ai the road to utopia or dystopia man charged with raping unconscious woman multiple time in irvine trump meeting with putin pose high stake for the ukraine war and his legacy homeland security secretary kristi noem blast illinois leader during visit ambassador mike huckabee slam british pm keir starmer for for condemning israel did uk surrender to nazi and drop food to them doj seek to unseal jeffrey epstein ghislaine maxwell grand jury record chairlift collapse at a resort and leaf at least hurt including person who sustained a spinal cord injury watt rebellion th anniversary renews call for kerner report plan to fight poverty court order reinstatement and back pay for pittsburgh officer fired after taser arrest death restored nagasaki bell ring in year since abomb strong march demand britain break tie with israel howie carr suffolk high sheriff steven tompkins earns his democrat credential government house repair wont break taxpayer reader commentary california focus require id from federal agent end some fear israel face growing global condemnation over military expansion in gaza founder of trump burger chain could be deported after ice arrest bernie sander kick off fighting the oligarchy tour in west virginia the dred scott dissent lincoln loved the three strategic bomber the u air force cant live without la county evacuation warning lifted a canyon fire continues burning national perspective newton third law rule washington politics artifact in u museum explain the outsized role of racism in the nation history did i miss a memo adam schiffs lawyer say mortgage fraud allegation have been debunked trump announces white house press conference to stop violent crime in washington dcdespite historically low rate fda leader resigned after push from big pharma now he back live now texas house hold legislative session on aug for democrat lawmaker to come back investor alert pomerantz law firm investigates claim on behalf of investor of exelixis inc exel hundred defy police brutality to oppose palestine action ban investor alert pomerantz law firm investigates claim on behalf of investor of anika therapeutic inc anik investor alert pomerantz law firm investigates claim on behalf of investor of neogenomics inc neo investor alert pomerantz law firm investigates claim on behalf of investor of praxis precision medicine inc prax the nation capital wait for trump next move a a federal takeover threat loom investor alert pomerantz law firm investigates claim on behalf of investor of albany international corp ain trump planned computer chip tariff spark confusion among business and trading partner investor alert pomerantz law firm investigates claim on behalf of investor of tronox holding plc trox investor alert pomerantz law firm investigates claim on behalf of investor of confluent inc cflt how to keep hezbollah away from power gop seek to game system thats not a noble cause reader commentary larimer county restaurant inspection made aug iran wont allow trumpbacked azerbaijan corridor top aide say he wa on the fbi most wanted list now he running for congress this physicianscientist is taking on trump on behalf of disadvantaged community we are at war bring it on democrat ready to fight dirty to stop trump gerrymandering is despicable chase empsall the time is now to speak out rick hausman the f lightning ii is still the greatest fighter jet in the world france sends crew to keep fatal wildfire from reigniting shaw walz shouldnt run for reelection and fargo poor communication david cone drop new country album if you dont count the money im the richest man in town grand haven twp to discus pair of development past page for august to accused in death of manchester emt retired firefighter ordered held on unrelated charge susan shelley good riddance to cafe penalty lawmaker urge meta to shut down instagram map abysmal at protecting child politics without shame gerrymandering make hypocrisy a political punch line judge block beto orourke from financially supporting texas democrat who left the state local view like caesar rome u feeling more vulnerable pomerantz law firm announces the filing of a class action against tesla inc and certain officer tsla bonior a tribute to the courageous ukrainian people london police arrest demonstrator supporting the banned palestine action group pomerantz law firm announces the filing of a class action against irobot corporation and certain officer irbt brickner navalny an american hero letter to the editor geothermal is way to go letter to the editor pritzker just a hypocrite white house mull inviting zelensky to trumpputin talk in alaska d printing and ai cut nuclear reactor build time to day google test ai finance platform with chatbot and live insight stanford forgoes m cal grant to keep legacy admission boar head to reopen virginia plant after fatal listeria outbreak concern why cold wallet top the list of top crypto to buy with x roi outpacing shiba inus and toncoins gain twenty suspected mossad spy arrested in iran top meme coin in august with massive roi potential aveo capital partner llc decrease position in exxon mobil corporation nysexom shaquille oneal admits family mistake left him lonely in squarefoot home i know i messed up and when i didnt have that i wa lost owner connected to monster energy announce plan to expand thrifty ice cream gasket market is forecasted to reach u billion in say stratview research microelectronics vacuum valve market is forecasted to reach u billion in say stratview research semiconductor fluid conveyance market is forecasted to reach u billion in say stratview research semiconductor seal market is forecasted to reach u billion in say stratview research the debt and deficit problem isnt what you think microelectronics vacuum valve market is forecasted to reach u billion in say stratview research forget shiba inu shib and pepe coin pepe the best meme coin to buy in is still very undervalued semiconductor vacuum valve market is forecasted to reach u billion in say stratview research semiconductor fluid conveyance market is forecasted to reach u billion in say stratview research semiconductor seal market is forecasted to reach u billion in say stratview research gasket market is forecasted to reach u billion in say stratview research last hour to grab blockdag at before price change xrp hype reach key level semiconductor vacuum valve market is forecasted to reach u billion in say stratview research weapon horror film score a box office victory weapon horror film score a box office victory tesla cybertruck is suddenly sold out sort of gizmodo cobblestone capital advisor llc ny decrease stock position in oracle corporation nyseorcl ccm investment group llc purchase new position in chevron corporation nysecvx third ave outlook brightening cbre say largest u retailer to pay million for overcharging customer newsnation new offshore wind study confirms the obvious a malevolently incompetent clown is steering the u clown car financial literacy key term every firstgeneration american should know luxury houseboat rental a growing trend in virginia beach solana price prediction suggests modest gainsozak ai could leave it behind strengthening family community llc acquires share of mcdonalds corporation nysemcd accenture plc nyseacn share bought by covington investment advisor inc coin gaining steam the best altcoin to buy now for major growth largest stock exchange in the world by market cap in designing a weekly financial health check for your truck or fleet best ethereum ecosystem coin by market cap in connor clark lunn investment management ltd acquires new share in eaton corporation plc nyseetn eye on atlantic basin a tropical development likely next week more than half of industry are already shedding worker a telling sign thats accompanied past recession top economist say fortune united flight ua is declaring an emergency and diverting to new york airlive chevron corporation nysecvx share acquired by first american trust fsb linscomb wealth inc ha million stock holding in visa inc nysev northeast financial group inc ha holding in eli lilly and company nyselly business people coborns exec david best tapped to lead cub food nina roza longquan the dragon spring and dark chocolate scoop prize at locarno pro industry award king luther capital management corp trim stake in exxon mobil corporation nysexom a robot cop named parker spark controversy in wealthy maryland county the washington post inflation fed leadership and other key thing to watch this week blockdag achieves m presale milestone in record time solana hold at bnb near bessent say tariff should melt if trade rebalances nik</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>spirit of halloweentown is calling festival ticket go on sale august passenger injured in icon of the sea water slide panel shatter kate spade outlet shopper say this crossbody bag is a timeless accessory and it on sale for only nvr inc announces share repurchase authorization car coffee and clothing are poised to get pricier with new tariff bitcoin news today bitcoin auction for dogwifhat meme cap hit k amid growing nft interest nvr inc announces share repurchase authorization top cryptos to invest before end of august best rakshabandhan tech gift under r taketwo q net booking up fran drescher wont run for sagaftra president a candidate line up for race gold miner earn double the profit of yet still undervalued trump warns of great depression a court weighs billion tariff rollback this small city ha managed to keep rent down since and it a quick train ride from nyc sec end lawsuit against ripple company to pay million fine reuters dow jones today stock surge a major index on track to post solid weekly gain apple extends rally gold at record high level investopedia investor alert morris kandinov llp investigating phh wai pcla and epwk stockholder are encouraged to contact the firm a florida woman posed a a nurse and treated thousand of unsuspecting patient official say gold price jump to record high following surprise u tariff ruling apple stock retake key level after dodging tariff bullet apple stock retake key level after dodging tariff bullet investor business daily trump pursues record billion settlement from ucla over antisemitism claim dwave quantum cash hoard fuel aggressive expansion analyst report parkerhannifin corp minsud announces option grant fat brand open first cobranded round table pizza and fatburger in california openstore shift focus from shopify aggregator to menswear brand run to samsung now for up to off a new tv score off your first order at small the purrfect cat meal service rosen a ranked and leading law firm encourages fiserv inc investor to secure counsel denver employee no longer with the city after incident at cannabis club rosen a ranked and leading law firm encourages fiserv inc investor to secure counsel before important deadline in security class action fi examining the future growgenerations earnings outlook a look at perasos upcoming earnings report a peek at teloss future earnings apple aapl confirms billion u investment after white house tease shore living welcome new realtor to team u global investor launch it smart beta sea etf on the mexican stock exchange joining jet and goau earnings preview for quest resource holding insight into quipt home medical upcoming earnings a preview of hf food group earnings examining the future virtras earnings outlook a look ahead gaia earnings forecast connex credit union data breach expose personal information murphy law firm investigates legal claim a glimpse of synchronoss technologiess earnings potential rosen a ranked and leading law firm encourages flywire corporation investor to secure uncovering potential microvast holdingss earnings preview analyst have this to say about elanco animal health an overview of aris water solutionss earnings deep dive into mirum pharmaceutical stock analyst perspective rating expert outlook abcellera biologics through the eye of analyst demystifying penn entertainment insight from analyst review what analyst rating have to say about iovance biotherapeutics tmobile u unusual option activity unpacking the latest option trading trend in cai unpacking the latest option trading trend in ford motor whats driving the market sentiment around affirm holding what doe the market think about paylocity holding pe ratio insight for jdcom taketwo interactive stock a deep dive into analyst perspective rating what doe the market think about ubs gr popular grocery store supplier file chapter bankruptcy how doe a k hardship withdrawal work and is it smart to take one ripple xrp tron trx poised for gain but trader are watching this crypto for a bigger run in samsung galaxy z fold what make it the best foldable phone cardanos ada lead in the race is in danger ruvi ai ruvi coinmarketcap listing get it industry spotlight a analyst call it the top summer play bofa reiterates buy on alphabet googl a gemini gain traction and kpis hold steady xrp news today xrp rally hit with institutional buying and legal victory in play rosen a ranked and leading law firm encourages flywire corporation investor to secure counsel before important deadline in security class action flyw fed president issue stern warning on lasting price increase trump clash with intels ceo is a crucial test for u chip making market update cmcsa cv expe msi pgr ph unh yum hims final deadline rosen a top ranked law firm encourages hims hers health inc fannie freddie stock offering could come a soon a this year barrons amazon amzn aws unveils amazon evsa new way to run vmware workload in the cloud recordhigh gold price push jeweler to offer gilded veneer to prevent sticker shock best ev penny stock to buy according to hedge fund royal expert reveal hypocrisy of william kates secret greek holiday electric vehicle supply equipment market size will attain usd billion by growing at cagr exclusive report by zion market research global electric vehicle supply equipment market size share trend analysis report electric vehicle supply equipment market size will attain usd billion by growing at cagr exclusive report by zion market research global electric vehicle supply equipment market size share trend analysis report san mateo burger popup start this weekend at coyote point best canadian gold stock to buy according to hedge fund doj asks court to release epstein grand jury evidencebut unclear how much may already be public trump approval rating drop in poll this week but rise slightly in retailer tariffbattered import volume to be weaker in gear for the great outdoors is up to off for this great sale at backcountry cool down anywhere save on this ultra cooling shark fan celebrate cbd day with off sitewide at sunday scaries qqq and friend hit high tech etf thrive despite trade turbulence parent trap star reunite in new movie freakier friday deutsche bank reiterates buy on microsoft msftai driving doubledigit efficiency gain ap business summarybrief at pm edt boar head plan to reopen troubled deli meat plant but report of sanitation problem persist boar head plan to reopen troubled deli meat plant but report of sanitation problem persist intel ceo fire back at trump demand to resign mcdonalds menu brings back classic character for shake meal nvidia nvda get overweight rating a ai capex stay strong into mexican authority accuse adidas of cultural appropriation over new sandal design gold future jump to record high a u imposes tariff on swiss gold bar import amd ai growth story gain steambarclays see room for more upside montgomery county democratic state rep call on senate republican to pas funding for septum friday assorted link opinion direct primary care provides medical treatment the oldfashioned way not sure whats more humiliating meidastouch pushing fake jd vance story or the obama bro who bought it report trump seek billion from ucla over antisemitism claim texas state rep isnt backing down from fighting overtly racist redistricting map investigation stalled while georgia state election board tried to change voting rule justice department subpoena new york ag james a it probe whether she violated trump right photo show israeli demonstrating for the release of hostage and ending the gaza war photo show israeli demonstrating for the release of hostage and ending the gaza war gov gavin newsom appoints new judge to bay area superior court kristi noem slam south park for petty and lazy spoof of her only the liberal nuclear energy now reactor on the moon and at denver airport bauer south carolina former lieutenant governor end gop primary challenge to sen graham bauer south carolina former lieutenant governor end gop primary challenge to sen graham bauer south carolina former lieutenant governor end gop primary challenge to sen graham watchdog group asks for probe of acquisition of qatari jet on trump behalf mandan approves preliminary budget with small property tax increase ap news summary at pm edt israel plan to take over gaza city stir fear for civilian and hostage the latest trump will host armenia and azerbaijan for a white house peace summit exclusive full video show leadup to brutal attack of elderly prolifers by man who dodged prison u global investor launch it smart beta sea etf on the mexican stock exchange exclusive federal law enforcement to begin interviewing unaccompanied migrant child in government custody texas republican vow to go nuclear in redistricting row trump action unlikely to affect fed independence trump tariff are killing f sale is there a better way to manage grizzly bear state urged to step up in matching federal momentum for developing nuclear energy trump considering use of military force against mexican drug cartel what doe occupying gaza accomplish for israel live now texas hold legislative session after democrat lawmaker depart doj asks court to release epstein grand jury evidencebut unclear how much may already be public trump approval rating drop in poll this week but rise slightly in plane cabin fill with toxic smoke a power bank catch fire over the ocean hour away from landing how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very president trump sign debanking executive order horizontal review for bank and credit union are next parent trap star reunite in new movie freakier friday boar head plan to reopen troubled deli meat plant but report of sanitation problem persist intel ceo fire back at trump demand to resign how closely do congressional delegation reflect how people vote not very how closely do congressional delegation reflect how people vote not very city can make do with fewer public employee florida updated agreement on handling detainee at alligator alcatraz but a month after it opened florida updated agreement on handling alligator alcatraz detainee but a month after it opened trump is asking the supreme court to bless stephen miller racial profiling white house pause public tour amid ballroom construction landrum police chief resigns after year of service minute before gunfire erupted at fort stewart the shooting suspect texted his family saying i love yall uncle say what to know about israel plan to retake gaza city what to know about israel plan to retake gaza city update labrynth launch the red tape index to help america build smarter faster other view millennials are avoiding divorce but their american dream ha changed house republican try to defend medicaid cutsand it go poorly dhs secretary kristi noem truth nuke a reporter pushing dem talking point disguised a question ice family separation are forcing child to parent themselves ap news summary at pm edt columnist helen ubinas my philadelphia inquirer farewell lt governor kounalakis announces switch for governor race to treasurer thomas financial group and phoenix lender service close million usda business possible outcome of a gerrymandering battle royale reason republican redistricting power grab might backfire doe your state have official drink if so what is it here the answer warren call on fed to activate additional capital charge special prosecutor ag bondi assigns to letitia james and adam schiff should scare the hell out of them trumpappointed judge toss contempt finding against administration doj informs judge it will ask supreme court to quickly rule on trump birthright citizenship order epa terminates billion solar for all program what to know about past meeting between putin and his american counterpart germany halt military export to israel for use in gaza amid outcry over netanyahu plan when real life feel like a jurassic park moment pete davidson thought the starstudded audience at the snl special wa terrible just peachy fema tell staff to work for ice or risk getting fired letter to the editor leave the judging to jesus tarantula overcome southwest during mating season right now the worst thing you can be is a racist marc maron fire back at howie mandels comment using donald trump a an example dam if you do dam if dont private berk lake murky future opinion opinion to keep finest city title san diego must clean up it act russia mediterranean flotilla is in a sorry state aquaculture can help produce more u seafood pennsylvania advocate call for shutdown of moshannon after ice detainee death putin say hell end war with ukraine with one major concession trump double reward to million for arrest of venezuela president to face u drug charge blue state throw tantrum over trump food stamp fraud crackdown couple welcome baby born from yearold embryo sen kelly bill help military medic enter civilian career b bombed a smiley face into the ground because it ran out of target jd vance go fishing for trout with uk lammy germany halt military export to israel for use in gaza amid outcry over netanyahu plan germany halt military export to israel for use in gaza amid outcry over netanyahu plan appeal court remove boasbergs contempt order in trump admin deportation case why trump tariff hit poor country with higher rate than rich one diana taurasi endorses caitlin clark joining shortlist of wnba player with signature shoe mixedbreed dog buddy is a sweetheart ready for a welcoming new home a top federal reserve official say dour job data back the case for rate cut a top federal reserve official say dour job data back the case for rate cut a top federal reserve official say dour job data back the case for rate cut common lead a strong opening night for san jose jazz summer fest a top federal reserve official say dour job data back the case for rate cut ap news morton meyerson texas businessman and perot lieutenant dy at why xiaomi succeeded at making electric car but apple failed jim cramer delivers straight talk on tricky sp market top crypto token under that could see big gain in fastestgrowing cryptos in blockdag toncoin cronos tron gaining fast top cryptos under to buy nowozak ai lead the list while nearing m presale momentum and x token growth potential cardano price prediction ada eye x growth but this cheaper crypto might soar x in why clean energy fuel stock raced nearly higher today here why joby aviation stock flew higher in july china ev tipping point racing from to new sale in record time rethinking state government presence in baltimore editorial massachusetts makarevich understandable separation agreement language aid employer in unpaid wage case building growth lane that work in any market weekend binge best family series to watch on hotstar from low market cap to big ambition most promising cryptos in landlord say ruby lius plan for bay property defies commercial common sense rosie odonnell claim abc gonna cancel the view michigan governor tell president trump tariff are hurting auto job fda official return to agency after loomerled ouster cnn lula and putin discus peace in ukraine before u summit after the mustang ford is teasing the return of another beloved car a an ev gizmodo apple ai momentum is building here what it mean for investor top crypto gainer today blockdag stellar uniswap hedera are the one to watch ukraine drone revolution ha exposed a u military vulnerability how to trade in corporate life for your next big idea best meme coin to buy new pepe coin rival is growing faster than pepe when it gained billion market cap in day court rule pension fund position wa not so baseless a to mandate an award of attorney fee new art cafe community space to open in camp washington this summer whistleblower tie clinton campaign to fake russia hack sperry trump meeting with putin pose high stake for the ukraine war and his legacy investor alert pomerantz law firm investigates claim on behalf of investor of agilon health inc agl investor alert pomerantz law firm investigates claim on behalf of investor of inspire medical system inc insp dol resurrects paid program employer can selfreport resolve violation rosen recognized investor counsel encourages lockheed martin corporation investor to secure investor alert pomerantz law firm investigates claim on behalf of investor of national grid rosen recognized investor counsel encourages lockheed martin corporation investor to secure counsel before important deadline in security class action lmt trump pick for the fed fuel an existential threat a central bank independence is targeted jpmorgan say fortune what to know about instagram map location sharing and privacy concern the new york time a gpt launch openai loyalist pushed altman for gptos return citing performance and reliability flipkart freedom sale huge discount on ipad oneplus pad samsung tab top presale cryptos in this month that are breaking funding record cold wallet dexboss aurealone lightchain ai taxloss harvesting part iii investment strategy u fed bowman latest job data stiffens support for three rate cut in california rooftop solar rule in limbo after state supreme court ruling top altcoins to buy blockchainfx presale at might dwarf polkadot and cosmos gain speech by vice chair for supervision bowman on the economic outlook and community banking federal reserve board gov irs white house clashed over immigrant data before tax chief wa ousted u fed bowman latest job data stiffens support for three rate cut in reuters fed bowman call for community bank reform favor rate cut these are dead decision zelensky reject ceding territory after trump talk landswap fed bowman back a september rate cut the wall street journal thumzup medium corporation announces update to the term of it proposed public offering im what is the perfect growth etf to pair with voo for longterm wealth reddit stock pop after a blowout quarter but is it a buy best crypto to buy this month magacoin finance gain whale support from solana and doge polk county chamber of commerce ha new home from hollywood to silicon valley how eventbrites ceo bet k on a phone closet startup is qualcomm the best semiconductor stock to buy right now best crypto to buy now blockdag shiba inu cardano xrp stand out fpl reach potential rate settlement deep dive american havent saved for retirement state are creating automatic saving plan ai can solve the genz and millennial engagement crisis put yourself in front of the next major investing trend trump tariff are making international stock market great again reason why ozak ai could be the best investment this august x growth still on the table investor alert pomerantz law firm investigates claim on behalf of investor of barnes noble education inc bned why burger cost so much right now trump announces white house press conference to stop violent crime in washington dcdespite historically low rate whitmer told trump in private that michigan auto job depend on a tariff change of course whitmer told trump in private that michigan auto job depend on a tariff change of course how a cia hit on al qaeda ensnared a u citizen in afghanistan byd ev struck by lightning hold up fine your daily dose of insightful news and perspective investor alert pomerantz law firm investigates claim on behalf of investor of exelixis inc exel ai can be used to develop biological and chemical weapon investor alert pomerantz law firm investigates claim on behalf of investor of anika investor alert pomerantz law firm investigates claim on behalf of investor of anika therapeutic inc anik investor alert pomerantz law firm investigates claim on behalf of investor of neogenomics inc neo investor alert pomerantz law firm investigates claim on behalf of investor of praxis precision medicine inc prax how compounding return can help you retire a millionaire even on a modest income investor alert pomerantz law firm investigates claim on behalf of investor of albany international corp ain top new cryptocurrencies to buy in top presale coin to buy today before price jump in the next stage investor alert pomerantz law firm investigates claim on behalf of investor of tronox holding plc trox investor alert pomerantz law firm investigates claim on behalf of investor of confluent inc cflt crew splash down in pacific after return from iss if youd invested in nvidia stock year ago here how much youd have today vinay prasad return to the fda week after his ouster statnewscom farmer consider the good and bad of incorporating artificial intelligence on the farm farmer consider the good and bad of incorporating artificial intelligence on the farm only a blink left to buy in arctic pablo shock market with b toke burned a shiba inu and pudgy penguin rally bathroom tool that save money and water all you need is this simple upgrade reader view essentia aspirus need to do more for duluth laguna niguel man pleads guilty to firing semiautomatic rifle at sheriff helicopter justice department target new york attorney general a trump foe here what to know justice department target new york attorney general a trump foe here what to know man suckerpunched during argument at eureka sport bar charge filed end of racial consent decree poised to change federal hiring sin city economic slump signal wider slowdown the soviet union yakk fighter wa too powerful for it own design wnba coach say female athlete have been subjected to adult toy projectile for century wut trump team push for ouster of top iea official california poverty crisis will hamper newsoms national climb avoid buying this canned coconut milk brand our taste test show it the absolute worst security flaw in web server enables remote code execution cve london police arrest people a propalestinian protester defy new law london police arrest people a propalestinian protester defy new law trump narcos strategy collides with mexico strong opposition to u deployment oc man sentenced to year for la street takeover that left nursing student dead extrump lawyer call president middecade redistricting scheme more brazen than watergate welcome to the next phase of american heist secretary duffy host press conference on one big beautiful bill act and air traffic control trump warns of new great depression if court block his tariff plan it would be all over again why did judge throw out conviction in murder of chris paul grandfather in winstonsalem beto orourke trash texas republican these motherfkers are panicking beto orourke trash texas republican these motherfkers are panicking trump to host news conference to stop violent crime and make dc one of the safest city in the world mexican president rule out trump reported military plan against mexico drug cartel kelly army arrival worried the town fda official return to agency after loomerled ouster illinois gov jb pritzker forgets map exist when slamming antidemocracy gopers over redistricting nyc limit housing discrimination based on criminal background is criminal history history breastfeeding at work redefined puerto rico new code usher in major change to save animal county must mobilize more volunteer to save animal county must mobilize more volunteer diddy lawyer mark geragos say diddy would be trump supporter if pardoned clip of the week old man wanders around on a roofand more the soviet union insane first attempt at an aircraft carrier ag paxton call on california to aid texas in arresting house democrat that left the state ai the road to utopia or dystopia man charged with raping unconscious woman multiple time in irvine trump meeting with putin pose high stake for the ukraine war and his legacy homeland security secretary kristi noem blast illinois leader during visit ambassador mike huckabee slam british pm keir starmer for for condemning israel did uk surrender to nazi and drop food to them doj seek to unseal jeffrey epstein ghislaine maxwell grand jury record chairlift collapse at a resort and leaf at least hurt including person who sustained a spinal cord injury watt rebellion th anniversary renews call for kerner report plan to fight poverty court order reinstatement and back pay for pittsburgh officer fired after taser arrest death restored nagasaki bell ring in year since abomb strong march demand britain break tie with israel howie carr suffolk high sheriff steven tompkins earns his democrat credential government house repair wont break taxpayer reader commentary california focus require id from federal agent end some fear israel face growing global condemnation over military expansion in gaza founder of trump burger chain could be deported after ice arrest bernie sander kick off fighting the oligarchy tour in west virginia the dred scott dissent lincoln loved the three strategic bomber the u air force cant live without la county evacuation warning lifted a canyon fire continues burning national perspective newton third law rule washington politics artifact in u museum explain the outsized role of racism in the nation history did i miss a memo adam schiffs lawyer say mortgage fraud allegation have been debunked trump announces white house press conference to stop violent crime in washington dcdespite historically low rate fda leader resigned after push from big pharma now he back live now texas house hold legislative session on aug for democrat lawmaker to come back investor alert pomerantz law firm investigates claim on behalf of investor of exelixis inc exel hundred defy police brutality to oppose palestine action ban investor alert pomerantz law firm investigates claim on behalf of investor of anika therapeutic inc anik investor alert pomerantz law firm investigates claim on behalf of investor of neogenomics inc neo investor alert pomerantz law firm investigates claim on behalf of investor of praxis precision medicine inc prax the nation capital wait for trump next move a a federal takeover threat loom investor alert pomerantz law firm investigates claim on behalf of investor of albany international corp ain trump planned computer chip tariff spark confusion among business and trading partner investor alert pomerantz law firm investigates claim on behalf of investor of tronox holding plc trox investor alert pomerantz law firm investigates claim on behalf of investor of confluent inc cflt how to keep hezbollah away from power gop seek to game system thats not a noble cause reader commentary larimer county restaurant inspection made aug iran wont allow trumpbacked azerbaijan corridor top aide say he wa on the fbi most wanted list now he running for congress this physicianscientist is taking on trump on behalf of disadvantaged community we are at war bring it on democrat ready to fight dirty to stop trump gerrymandering is despicable chase empsall the time is now to speak out rick hausman the f lightning ii is still the greatest fighter jet in the world france sends crew to keep fatal wildfire from reigniting shaw walz shouldnt run for reelection and fargo poor communication david cone drop new country album if you dont count the money im the richest man in town grand haven twp to discus pair of development past page for august to accused in death of manchester emt retired firefighter ordered held on unrelated charge susan shelley good riddance to cafe penalty lawmaker urge meta to shut down instagram map abysmal at protecting child politics without shame gerrymandering make hypocrisy a political punch line judge block beto orourke from financially supporting texas democrat who left the state local view like caesar rome u feeling more vulnerable pomerantz law firm announces the filing of a class action against tesla inc and certain officer tsla bonior a tribute to the courageous ukrainian people london police arrest demonstrator supporting the banned palestine action group pomerantz law firm announces the filing of a class action against irobot corporation and certain officer irbt brickner navalny an american hero letter to the editor geothermal is way to go letter to the editor pritzker just a hypocrite white house mull inviting zelensky to trumpputin talk in alaska d printing and ai cut nuclear reactor build time to day google test ai finance platform with chatbot and live insight stanford forgoes m cal grant to keep legacy admission boar head to reopen virginia plant after fatal listeria outbreak concern why cold wallet top the list of top crypto to buy with x roi outpacing shiba inus and toncoins gain twenty suspected mossad spy arrested in iran top meme coin in august with massive roi potential aveo capital partner llc decrease position in exxon mobil corporation nysexom shaquille oneal admits family mistake left him lonely in squarefoot home i know i messed up and when i didnt have that i wa lost owner connected to monster energy announce plan to expand thrifty ice cream gasket market is forecasted to reach u billion in say stratview research microelectronics vacuum valve market is forecasted to reach u billion in say stratview research semiconductor fluid conveyance market is forecasted to reach u billion in say stratview research semiconductor seal market is forecasted to reach u billion in say stratview research the debt and deficit problem isnt what you think microelectronics vacuum valve market is forecasted to reach u billion in say stratview research forget shiba inu shib and pepe coin pepe the best meme coin to buy in is still very undervalued semiconductor vacuum valve market is forecasted to reach u billion in say stratview research semiconductor fluid conveyance market is forecasted to reach u billion in say stratview research semiconductor seal market is forecasted to reach u billion in say stratview research gasket market is forecasted to reach u billion in say stratview research last hour to grab blockdag at before price change xrp hype reach key level semiconductor vacuum valve market is forecasted to reach u billion in say stratview research weapon horror film score a box office victory weapon horror film score a box office victory tesla cybertruck is suddenly sold out sort of gizmodo cobblestone capital advisor llc ny decrease stock position in oracle corporation nyseorcl ccm investment group llc purchase new position in chevron corporation nysecvx third ave outlook brightening cbre say largest u retailer to pay million for overcharging customer newsnation new offshore wind study confirms the obvious a malevolently incompetent clown is steering the u clown car financial literacy key term every firstgeneration american should know luxury houseboat rental a growing trend in virginia beach solana price prediction suggests modest gainsozak ai could leave it behind strengthening family community llc acquires share of mcdonalds corporation nysemcd accenture plc nyseacn share bought by covington investment advisor inc coin gaining steam the best altcoin to buy now for major growth largest stock exchange in the world by market cap in designing a weekly financial health check for your truck or fleet best ethereum ecosystem coin by market cap in connor clark lunn investment management ltd acquires new share in eaton corporation plc nyseetn eye on atlantic basin a tropical development likely next week more than half of industry are already shedding worker a telling sign thats accompanied past recession top economist say fortune united flight ua is declaring an emergency and diverting to new york airlive chevron corporation nysecvx share acquired by first american trust fsb linscomb wealth inc ha million stock holding in visa inc nysev northeast financial group inc ha holding in eli lilly and company nyselly business people coborns exec david best tapped to lead cub food nina roza longquan the dragon spring and dark chocolate scoop prize at locarno pro industry award king luther capital management corp trim stake in exxon mobil corporation nysexom a robot cop named parker spark controversy in wealthy maryland county the washington post inflation fed leadership and other key thing to watch this week blockdag achieves m presale milestone in record time solana hold at bnb near bessent say tariff should melt if trade rebalances nik</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="O34" t="n">
+        <v>208</v>
+      </c>
+      <c r="P34" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>344</v>
+      </c>
+      <c r="S34" t="n">
+        <v>130</v>
+      </c>
+      <c r="T34" t="n">
+        <v>424</v>
+      </c>
+      <c r="U34" t="n">
+        <v>275</v>
+      </c>
+      <c r="V34" t="n">
+        <v>114</v>
+      </c>
+      <c r="W34" t="n">
+        <v>64</v>
+      </c>
+      <c r="X34" t="n">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3119,6 +3119,84 @@
         <v>127</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6441.64013671875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6444.25</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6385.759765625</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6395.169921875</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1667322000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0106990624099332</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>from power plant to the moon the u nuclear revival in dogecoin jump in a week what is going on teenage mutant ninja turtle pizzeria to debut in la thestreet pro analyst tackle tariff crypto and more in market roundtable solar stock outshine sp in despite policy headwind why share of tesla are soaring today time tracking and trust what today employee really think amazon is selling a storage cart for thats great for small place cold wallet m presale entry beat xrps price test and eths resistance goal why many smallbusinesses owner fear even a short recession will sink them creating a load history tracker that improves rate negotiation crypto news today strategy m bitcoin purchase bullish upsizes ipo alt sigma b fundraising move solana price prediction etf approval could help sol overtake xrp but this cheaper token will rally x and outshine their roi bank of america strategist expect fed to lower interest rate benny brown acquires wide open music publishing form new publishing company affirm stock revisits this place a buy now pay later delight shopper demi lovato reunites with exboyfriend joe jonas for a camp rock performance new pickleball kingdom indoor facility coming soon to south brunswick nj nasfm honor fire chief todd parker for excellence in emergency response virginia obamacare premium set to jump sharply scc report virginia obamacare premium set to jump sharply scc report going online in russia can be frustrating complicated and even dangerous chatgpt get smarter with gpt top feature youll love if youd invested in interactive broker ibkr stock year ago here how much youd have today graphene market to grow at cagr by lynch carpenter investigates claim in pandora data breach neptune frozen treat opening in malaga cove plaza top tech news today taylor swift ai scandal iphone price hike tesla dojo shutdown metas talent war siri upgrade stock market party to be ruined by sudden economic slowdown say stifel cnbc bitcoin hovers around whats next lockheed martin could lose major deal after u hit switzerland with tariff top meme coin to invest for maximum gain in xrp news today analyst react to m xrp transfer to coinbase is it routine move ford hit the pedal on ev production with billion overhaul of kentucky plant fed bowman say job data solidifies case for rate cut u consumer to bear brunt of tariff hit goldman economist say u consumer to bear brunt of tariff hit goldman economist say roll royce share price is on a sizzling hot streak but beware of the danger top laptop brand in the usa in ibd live qa stock list for monday aug why good leader ask great question manufacturer urged to act with technologyfirst plan a disruption intensifies say infotech research group in new report philippe cousteau earthecho international announces diverse youth advocate join the blue carbon ambassador program play the perfect game this summer with flightpath golf tee what to expect from tuesday report on inflation investopedia evercommerce to present at third quarter investor conference evercommerce to present at third quarter investor conference comedic multihyphenate matt mathews sign with wme hurry and grab a macbook air for just at back market air india suspends flight to washington dc amid ongoing tension this is what whale are betting on lockheed martin smart money is betting big in ups option aircraft gasket market is forecasted to reach u million in say stratview research best cryptos to invest in that could deliver massive longterm gain blockdag litecoin stellar toncoin solar stock outshine oil and gas benchmark after climate credit cut aerospace pilot control market is forecasted to reach u billion in say stratview research xml announces launch of new xml woman website relaunch of xml woman division aircraft gasket market is forecasted to reach u million in say stratview research aerospace pilot control market is forecasted to reach u billion in say stratview research diversified foodservice supply appoints lev peker a chief executive officer body armor plate market is forecasted to reach u million in say stratview research body armor plate market is forecasted to reach u million in say stratview research best typec hub for macbook in venchi bringing beloved italian chocolate to century city tegna stock rocket on nexstar merger talk fcc appears set to ease local tv rule in order to smooth deal path deadline btc miner stance on cloud mining in if youd invested in zoetis zts stock year ago here how much youd have today fda may not renew pfizers authorization for covid shot in younger child moderna prepares to boost supply ja mining offer fixed usd yield with crypto deposit alphabet inc nasdaqgoog share acquired by gouws capital llc kohmann bosshard financial service llc purchase share of costco wholesale corporation nasdaqcost gouws capital llc boost stock holding in thermo fisher scientific inc nysetmo ana alsharif became the face of the war in gaza for million then israel killed him home condition made rescue effort difficult pfd protect partner with sentin to pioneer aipowered industrial inspection gear up for the new school year with off therabody best seller wall street biggest bear is expecting a stockmarket pullback this year trump say gold import will not face u tariff bloombergcom irobots future isnt looking up russian seeking asylum in u facing new obstacle say usbased activist morse corp awarded m u army ota for uas development morse corp awarded m u army ota for uas development aem united state ag tractor and combine report july aem united state ag tractor and combine report july scientist say they cruised the ocean in a deepsea submersible and came across an undiscovered ecosystem macys is selling a cozy puma hoodie for thats super soft winnebago industry announces strategic leadership change to drive future growth how to stretch backtoschool budget at salvage store openai and google vet periodic lab seek million investment aol dialup got america online in the s it ending next month trump say gold will not be tariffed cnbc how turmeric water fight inflammation aussivo reveals vision to build blockchainverified cloud trust layer a new standard for transparency in the digital world the viral govee floor lamp is still at prime day price silver at doublevibration support ahead of gann time cluster unit building at rockaway reach completion in brownsville fill up your shopping cart with today best target deal including over off outdoor gear headphone kitchen good and more communication service stock whale activity in today session playhouse under construction for popup park in virginia beach aol is finally disconnecting it dialup internet year on barack obamas official portrait moved to nonpublic area in white house western union ceo ice raid tariff no threat to instamex deal video show moment of explosion at u steel plant in pennsylvania trump gross white house makeover reach petty new low crowded north county field vying to replace brian williams in missouri senate how the world most valuable company got caught in the middle of trump spat with china commentary vance right to call out warped partisan representation why is trump attacking intels ceo demi lovato reunites with exboyfriend joe jonas for a camp rock performance mamdani launch tour of new york city with a message linking cuomo to trump nasfm honor fire chief todd parker for excellence in emergency response what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska trump lash out at crockett renews call for cognitive test lynch carpenter investigates claim in pandora data breach president mayor police chief social worker trump is a man of many hat trump say he and putin will discus ukraine future border israel plan to widen coming offensive beyond gaza city into last area not under it control israel plan to widen coming offensive beyond gaza city into last area not under it control israel plan to widen coming offensive beyond gaza city into last area not under it control u senate candidate set the tone for kentucky republican during statewide dinner what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska photo of trump emergency declaration a the national guard is activated in washington photo of trump emergency declaration a the national guard is activated in washington trump mistake alaska for russia and yes there snark surveillance case test chapter a standing and unfairness standard clinton county sheriff office arrest individual involved with multicounty sex trafficking operation a judge brutal rebuke of trump epstein gambit cnn politics what to know about the putintrump summit in alaska local view give ailing minnesota kid a fighting chance philippe cousteau earthecho international announces diverse youth advocate join the blue carbon ambassador program california couple file lawsuit against klp in conway over shortterm rental rule rubio hit medium over gaza narrative say some ally making it harder to achieve peace multiple men have impersonated ice agent to kidnap and assault woman multiple men have impersonated ice agent to kidnap and assault woman doe using ai dumb you down vote to save a historic building from demolition trump promised to fix inflation he doing this instead south carolina lawmaker awaiting trial on child sex abuse material charge resigns from office nvidia to share of revenue from chip sale to china with u government trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff ana alsharif became the face of the war in gaza for million then israel killed him trump say he placing washington police under federal control and deploying the national guard trump declares crime in dc will be cleaned up real quick during his announcement that he taking over the city police department chinese ship collide on chase in disputed water ap news summary at pm edt trump say he placing washington police under federal control and activating the national guard houlihan financial resource group ltd sell share of international business machine corporation nyseibm meridian wealth management llc ha million position in broadcom inc nasdaqavgo motley fool asset management llc raise stock holding in broadcom inc nasdaqavgo colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra russian seeking asylum in u facing new obstacle say usbased activist trump warns protester amid dc crime crack down you spit and we hit trump suggests he can send national guard troop into other u city beyond dc scientist say they cruised the ocean in a deepsea submersible and came across an undiscovered ecosystem dillon associate inc increase holding in salesforce inc nysecrm colombian presidential candidate miguel uribe turbay dy two month after assassination attempt live now texas hold legislative session after democrat leave state jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis maga v miga laura loomer block marjorie taylor greene on social medium escalating a feud over america israel policy trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug danish zoo asks for donated pet to feed to carnivore trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug el paso police man dy when he hit tree get ejected trump team get blasted by judge for clumsy epstein diversion raw politics is now driving law enforcement at the department of justice civil right division nancy pelosi get all high and mighty lying about trump j and the ntl guard and oh hell no old woman this candidate for california governor ha a potential conflict of interest in her own home ishares core sp etf nysearcaivv share sold by aveo capital partner llc maine state library not victimized a suggested letter maine state library not victimized a suggested letter here are the country that have recognized a palestinian state johnson fistel investigates fairness of proposed sale of meridianlink currently the most dangerous place maia wealth llc purchase share of ishares core u aggregate bond etf nysearcaagg my wife of year just died my grief is so overwhelming i can barely cope</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>from power plant to the moon the u nuclear revival in dogecoin jump in a week what is going on teenage mutant ninja turtle pizzeria to debut in la thestreet pro analyst tackle tariff crypto and more in market roundtable solar stock outshine sp in despite policy headwind why share of tesla are soaring today time tracking and trust what today employee really think amazon is selling a storage cart for thats great for small place cold wallet m presale entry beat xrps price test and eths resistance goal why many smallbusinesses owner fear even a short recession will sink them creating a load history tracker that improves rate negotiation crypto news today strategy m bitcoin purchase bullish upsizes ipo alt sigma b fundraising move solana price prediction etf approval could help sol overtake xrp but this cheaper token will rally x and outshine their roi bank of america strategist expect fed to lower interest rate benny brown acquires wide open music publishing form new publishing company affirm stock revisits this place a buy now pay later delight shopper demi lovato reunites with exboyfriend joe jonas for a camp rock performance new pickleball kingdom indoor facility coming soon to south brunswick nj nasfm honor fire chief todd parker for excellence in emergency response virginia obamacare premium set to jump sharply scc report virginia obamacare premium set to jump sharply scc report going online in russia can be frustrating complicated and even dangerous chatgpt get smarter with gpt top feature youll love if youd invested in interactive broker ibkr stock year ago here how much youd have today graphene market to grow at cagr by lynch carpenter investigates claim in pandora data breach neptune frozen treat opening in malaga cove plaza top tech news today taylor swift ai scandal iphone price hike tesla dojo shutdown metas talent war siri upgrade stock market party to be ruined by sudden economic slowdown say stifel cnbc bitcoin hovers around whats next lockheed martin could lose major deal after u hit switzerland with tariff top meme coin to invest for maximum gain in xrp news today analyst react to m xrp transfer to coinbase is it routine move ford hit the pedal on ev production with billion overhaul of kentucky plant fed bowman say job data solidifies case for rate cut u consumer to bear brunt of tariff hit goldman economist say u consumer to bear brunt of tariff hit goldman economist say roll royce share price is on a sizzling hot streak but beware of the danger top laptop brand in the usa in ibd live qa stock list for monday aug why good leader ask great question manufacturer urged to act with technologyfirst plan a disruption intensifies say infotech research group in new report philippe cousteau earthecho international announces diverse youth advocate join the blue carbon ambassador program play the perfect game this summer with flightpath golf tee what to expect from tuesday report on inflation investopedia evercommerce to present at third quarter investor conference evercommerce to present at third quarter investor conference comedic multihyphenate matt mathews sign with wme hurry and grab a macbook air for just at back market air india suspends flight to washington dc amid ongoing tension this is what whale are betting on lockheed martin smart money is betting big in ups option aircraft gasket market is forecasted to reach u million in say stratview research best cryptos to invest in that could deliver massive longterm gain blockdag litecoin stellar toncoin solar stock outshine oil and gas benchmark after climate credit cut aerospace pilot control market is forecasted to reach u billion in say stratview research xml announces launch of new xml woman website relaunch of xml woman division aircraft gasket market is forecasted to reach u million in say stratview research aerospace pilot control market is forecasted to reach u billion in say stratview research diversified foodservice supply appoints lev peker a chief executive officer body armor plate market is forecasted to reach u million in say stratview research body armor plate market is forecasted to reach u million in say stratview research best typec hub for macbook in venchi bringing beloved italian chocolate to century city tegna stock rocket on nexstar merger talk fcc appears set to ease local tv rule in order to smooth deal path deadline btc miner stance on cloud mining in if youd invested in zoetis zts stock year ago here how much youd have today fda may not renew pfizers authorization for covid shot in younger child moderna prepares to boost supply ja mining offer fixed usd yield with crypto deposit alphabet inc nasdaqgoog share acquired by gouws capital llc kohmann bosshard financial service llc purchase share of costco wholesale corporation nasdaqcost gouws capital llc boost stock holding in thermo fisher scientific inc nysetmo ana alsharif became the face of the war in gaza for million then israel killed him home condition made rescue effort difficult pfd protect partner with sentin to pioneer aipowered industrial inspection gear up for the new school year with off therabody best seller wall street biggest bear is expecting a stockmarket pullback this year trump say gold import will not face u tariff bloombergcom irobots future isnt looking up russian seeking asylum in u facing new obstacle say usbased activist morse corp awarded m u army ota for uas development morse corp awarded m u army ota for uas development aem united state ag tractor and combine report july aem united state ag tractor and combine report july scientist say they cruised the ocean in a deepsea submersible and came across an undiscovered ecosystem macys is selling a cozy puma hoodie for thats super soft winnebago industry announces strategic leadership change to drive future growth how to stretch backtoschool budget at salvage store openai and google vet periodic lab seek million investment aol dialup got america online in the s it ending next month trump say gold will not be tariffed cnbc how turmeric water fight inflammation aussivo reveals vision to build blockchainverified cloud trust layer a new standard for transparency in the digital world the viral govee floor lamp is still at prime day price silver at doublevibration support ahead of gann time cluster unit building at rockaway reach completion in brownsville fill up your shopping cart with today best target deal including over off outdoor gear headphone kitchen good and more communication service stock whale activity in today session playhouse under construction for popup park in virginia beach aol is finally disconnecting it dialup internet year on barack obamas official portrait moved to nonpublic area in white house western union ceo ice raid tariff no threat to instamex deal video show moment of explosion at u steel plant in pennsylvania trump gross white house makeover reach petty new low crowded north county field vying to replace brian williams in missouri senate how the world most valuable company got caught in the middle of trump spat with china commentary vance right to call out warped partisan representation why is trump attacking intels ceo demi lovato reunites with exboyfriend joe jonas for a camp rock performance mamdani launch tour of new york city with a message linking cuomo to trump nasfm honor fire chief todd parker for excellence in emergency response what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska trump lash out at crockett renews call for cognitive test lynch carpenter investigates claim in pandora data breach president mayor police chief social worker trump is a man of many hat trump say he and putin will discus ukraine future border israel plan to widen coming offensive beyond gaza city into last area not under it control israel plan to widen coming offensive beyond gaza city into last area not under it control israel plan to widen coming offensive beyond gaza city into last area not under it control u senate candidate set the tone for kentucky republican during statewide dinner what to know about the putintrump summit in alaska what to know about the putintrump summit in alaska photo of trump emergency declaration a the national guard is activated in washington photo of trump emergency declaration a the national guard is activated in washington trump mistake alaska for russia and yes there snark surveillance case test chapter a standing and unfairness standard clinton county sheriff office arrest individual involved with multicounty sex trafficking operation a judge brutal rebuke of trump epstein gambit cnn politics what to know about the putintrump summit in alaska local view give ailing minnesota kid a fighting chance philippe cousteau earthecho international announces diverse youth advocate join the blue carbon ambassador program california couple file lawsuit against klp in conway over shortterm rental rule rubio hit medium over gaza narrative say some ally making it harder to achieve peace multiple men have impersonated ice agent to kidnap and assault woman multiple men have impersonated ice agent to kidnap and assault woman doe using ai dumb you down vote to save a historic building from demolition trump promised to fix inflation he doing this instead south carolina lawmaker awaiting trial on child sex abuse material charge resigns from office nvidia to share of revenue from chip sale to china with u government trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff trump say gold wont face tariff ana alsharif became the face of the war in gaza for million then israel killed him trump say he placing washington police under federal control and deploying the national guard trump declares crime in dc will be cleaned up real quick during his announcement that he taking over the city police department chinese ship collide on chase in disputed water ap news summary at pm edt trump say he placing washington police under federal control and activating the national guard houlihan financial resource group ltd sell share of international business machine corporation nyseibm meridian wealth management llc ha million position in broadcom inc nasdaqavgo motley fool asset management llc raise stock holding in broadcom inc nasdaqavgo colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra colorado congressional democrat visit aurora ice facility meet with detained activist jeanette vizguerra russian seeking asylum in u facing new obstacle say usbased activist trump warns protester amid dc crime crack down you spit and we hit trump suggests he can send national guard troop into other u city beyond dc scientist say they cruised the ocean in a deepsea submersible and came across an undiscovered ecosystem dillon associate inc increase holding in salesforce inc nysecrm colombian presidential candidate miguel uribe turbay dy two month after assassination attempt live now texas hold legislative session after democrat leave state jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis jeffries hammer trump for seizing control of dc police no basis maga v miga laura loomer block marjorie taylor greene on social medium escalating a feud over america israel policy trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug danish zoo asks for donated pet to feed to carnivore trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug trump looking at reclassifying marijuana a less dangerous drug el paso police man dy when he hit tree get ejected trump team get blasted by judge for clumsy epstein diversion raw politics is now driving law enforcement at the department of justice civil right division nancy pelosi get all high and mighty lying about trump j and the ntl guard and oh hell no old woman this candidate for california governor ha a potential conflict of interest in her own home ishares core sp etf nysearcaivv share sold by aveo capital partner llc maine state library not victimized a suggested letter maine state library not victimized a suggested letter here are the country that have recognized a palestinian state johnson fistel investigates fairness of proposed sale of meridianlink currently the most dangerous place maia wealth llc purchase share of ishares core u aggregate bond etf nysearcaagg my wife of year just died my grief is so overwhelming i can barely cope</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.9077</v>
+      </c>
+      <c r="O35" t="n">
+        <v>89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>119</v>
+      </c>
+      <c r="S35" t="n">
+        <v>78</v>
+      </c>
+      <c r="T35" t="n">
+        <v>181</v>
+      </c>
+      <c r="U35" t="n">
+        <v>114</v>
+      </c>
+      <c r="V35" t="n">
+        <v>36</v>
+      </c>
+      <c r="W35" t="n">
+        <v>36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -3124,10 +3124,10 @@
         <v>45881</v>
       </c>
       <c r="B35" t="n">
-        <v>6441.64013671875</v>
+        <v>6445.759765625</v>
       </c>
       <c r="C35" t="n">
-        <v>6444.25</v>
+        <v>6446.5498046875</v>
       </c>
       <c r="D35" t="n">
         <v>6385.759765625</v>
@@ -3136,10 +3136,10 @@
         <v>6395.169921875</v>
       </c>
       <c r="F35" t="n">
-        <v>1667322000</v>
+        <v>5135300000</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0106990624099332</v>
+        <v>0.0113454358466127</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3197,6 +3197,84 @@
         <v>56</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6466.580078125</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6480.27978515625</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6445.02001953125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6462.669921875</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3088354000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0032300788824048</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>mp material nysemp stock price up on analyst upgrade affinity bancshares nasdaqafbi v dime community bancshares nasdaqdcom head to head analysis oms energy technology nasdaqomse north american construction group nysenoa headtohead survey reviewing blade air mobility blde and the competition analyzing haverty furniture company nysehvta and brand house collective nasdaqtbhc head to head survey armstrong world industry nyseawi and obayashi otcmktsobycf headtohead review ayro nasdaqayro tesla nasdaqtsla reviewing humana nysehum joint nasdaqjynt financial review kayne anderson bdc nysekbdc hercules capital nysehtgc head to head comparison marui group otcmktsmaury kohl nysekss portillos nasdaqptlo stock rating lowered by wall street zen contrasting bark nysebark and fireman contractor otcmktsfrcn head to head survey southern first bancshares nasdaqsfst v people bancorp of north carolina nasdaqpebk financial comparison city office reit nysecio v lamar advertising nasdaqlamr sadot group nasdaqsdot versus grove collaborative nysegrov headtohead contrast headtohead analysis office property income trust nasdaqopi versus safehold nysesafe financial review ho innovation otcmktsheoff and ho america nasdaqhto lharris technology nyselhx v safran otcmktssafry head to head review orion group nyseorn v mastec nysemtz head to head review headtohead comparison vertiv nysevrt v leidos nyseldos head to head survey hess midstream partner nysehesm v xplr infrastructure nysexifr financial contrast arcutis biotherapeutics nasdaqarqt v novocure nasdaqnvcr contrasting onewater marine nasdaqonew and peloton interactive nasdaqpton critical survey t biosystems nasdaqttoo and perspective therapeutic nysecatx comparing castor maritime nasdaqctrm and united maritime nasdaqusea crypto price today bitcoin price fall to xrp at and solana at riskified ltd nyserskd receives consensus recommendation of hold from brokerage roku inc nasdaqroku given average rating of moderate buy by brokerage financial analysis ameramex international otcmktsammx willis lease finance nasdaqwlfc academy sport and outdoors inc nasdaqaso receives consensus recommendation of moderate buy from analyst brp inc tsedoo given consensus recommendation of hold by brokerage unicredit otcmktsuncry trading down here what happened annaly capital management inc nysenly given average rating of moderate buy by analyst pagseguro digital ltd nysepags receives consensus rating of moderate buy from analyst palantir technology inc nasdaqpltr receives average rating of hold from brokerage travere therapeutic inc nasdaqtvtx given consensus rating of moderate buy by analyst hbo max viu set to offer streaming bundle in asian country sartorius stedim biotech epadim share down should you sell hr real estate investment trust otcmktshruff share up time to buy midnight sun mining cvemma stock price up whats next bmo laddered preferred share index etf tsezpr share down whats next dream industrial real estate investment trust otcmktsdreuf trading down whats next tgs asa otcmktstgsgy trading down whats next doman building material group otcmktscwxzf stock price down should you sell wimi hologram cloud nasdaqwimi trading up still a buy u solar fund lonusfp stock price down whats next titan mining otcmktstnmcf share down whats next china minsheng otcmktscmaky stock price down whats next rational aktiengesellschaft otcmktsrtllf stock price down should you sell intellinetics otcmktsinlxd trading up here what happened melrose industry otcmktsmlspf trading down whats next nippon steel sumitomo metal otcmktsnpscy trading down here what happened barclays etn fi enhanced europe etn series c nysearcaffeu trading up whats next imab nasdaqimab trading higher here why wisdomtree cloud computing fund nasdaqwcld trading down time to sell thai oil public otcmktstoipf trading higher whats next xtrackers international real estate etf nysearcahauz trading down here why fibra uno otcmktsfbasf trading down whats next aimia otcmktsgapff stock price down here what happened camino mineral cvecor share up here what happened sompo otcmktssmpny trading down time to sell foxby otcmktsfxby share up time to buy bmo low volatility canadian equity etf tsezlb trading down time to sell urbana otcmktsubaaf stock price up whats next china citic bank otcmktschcjy stock price down here why biglari nysebha stock price up whats next permrock royalty trust nyseprt trading higher should you buy nufarm otcmktsnufmf trading higher still a buy cascade otcmktscadnf stock price down whats next metaurus u equity exdividend fundseries nysearcaxdiv trading down whats next wisdomtree balanced income fund nysearcawbal share up should you buy midnight sun mining cvemma stock price up whats next uxin nasdaquxin trading up time to buy serica energy otcmktssqzzf trading up whats next bmo laddered preferred share index etf tsezpr share down whats next artis real estate investment trust otcmktsaresf trading down whats next aptus defined risk etf batsdrsk trading down time to sell salmar asa otcmktssalrf share up whats next rpar risk parity etf nysearcarpar share down should you sell sgl carbon otcmktssglff stock price down should you sell overlay share large cap equity etf nysearcaovl share down should you sell boc hong kong otcmktsbhkly share up here what happened amplify alternative harvest etf nysearcamj share up whats next sartorius stedim biotech epadim trading down should you sell manolete partner lonmano stock price down should you sell portfolioplus sp small cap etf nysearcappsc trading higher time to buy vanguard growth etf portfolio tsevgro share down time to sell charlotte web otcmktscwbhf share up here why collplant biotechnology nasdaqclgn trading higher here why iphone pro launch date and price in india revealed check all detail musk grok ai briefly suspended on x for claiming israel commits genocide aersale nasdaqasle raised to strongbuy at wall street zen top tech news nvidias ai chip approved for china meta raise b for ai growth wall street zen downgrade cormedix nasdaqcrmd to buy dragonfly energy dfli expected to announce earnings on thursday mediwound mdwd projected to post quarterly earnings on thursday draftkings nasdaqdkng upgraded at wall street zen palvella therapeutic pvla to release earnings on thursday unusual machine umac expected to announce quarterly earnings on thursday westbow press announces the book answer with truth ha earned exclusive lighthouse recognition portillos nasdaqptlo cut to sell at wall street zen procept biorobotics nasdaqprct rating increased to hold at wall street zen fanatic branded nfl nba mlb nhl apparel sale banned in australia souad m hanna aersale nasdaqasle upgraded at wall street zen donegal group nasdaqdgica stock rating lowered by wall street zen cormedix nasdaqcrmd cut to buy at wall street zen acurx pharmaceutical nasdaqacxp upgraded at wall street zen cricut nasdaqcrct upgraded at wall street zen capital one financial nysecof cut to hold at wall street zen capri nysecpri upgraded at wall street zen citizen nysecia upgraded at wall street zen bwx technology nysebwxt lowered to hold rating by wall street zen vimeo nasdaqvmeo upgraded by wall street zen to buy rating frederick should revisit it district map brehm would be effective leader on council trump say plan to test out putin a europe engages ukraine greg abbott threatens to eliminate democratic district a texas prepares redistricting counterstrike against california map overhaul knightscope nasdaqkscp cut to sell at wall street zen klaviyo nysekvyo upgraded at wall street zen figma nysefig upgraded at wall street zen rxo nyserxo upgraded at wall street zen interactive strength nasdaqtrnr upgraded at wall street zen guardian pharmacy service nysegrdn cut to hold at wall street zen audioeye nasdaqaeye cut to hold at wall street zen biomarin pharmaceutical nasdaqbmrn rating increased to strongbuy at wall street zen banner nasdaqbanr cut to sell at wall street zen alerus financial nasdaqalrs stock rating upgraded by wall street zen ascent solar technology nasdaqasti upgraded at wall street zen ardelyx nasdaqardx upgraded at wall street zen berry nasdaqbry cut to sell at wall street zen applied optoelectronics nasdaqaaoi lowered to sell rating by wall street zen vitesse energy nysevts upgraded at wall street zen amer sport nyseas cut to hold at wall street zen brookdale senior living nysebkd rating increased to hold at wall street zen aflac nyseafl upgraded at wall street zen sapiens international spns expected to announce earnings on wednesday northpointe bancshares inc nysenpb lockup period will expire tomorrow raskin on dc crime do you trust the dems who created the mess or trump who doe the impossible trump back burt jones in republican race for georgia governor in kimmel guest host nicole byer make a dangerous example out of trump dc talk hartselle candidate forum to spotlight local issue u designates baloch separatist a a terror group over role in attack in pakistan eu leader appeal to trump to defend europe security interest at his war summit with putin death notice jean phyllis williams eu leader appeal to trump to defend europe security interest at his war summit with putin the forgotten story of the world deadliest plane crash angler break record after getting green light to reel in harmful fish my fishing pole took a hard hit point coal need to be part of america energy future wdt thought for aug your view constitutional amendment would permit limit on political spending trump back burt jones in republican race for georgia governor in trump back burt jones in republican race for georgia governor in trump back burt jones in republican race for georgia governor in counterpoint america need affordable energy coal doesnt fit the bill u and china extend trade truce another day easing tension between world largest economy u and china extend trade truce another day easing tension between world largest economy at th hour ups bow to teamster strike threat in state nancy pelosi say american know republican ripped away health care will lose midterm unacceptable they want to change rule midgame south korean president lee will travel to washington for aug meeting with trump trump washington police takeover echo history of racist narrative about urban crime hamas hostage video silenced israeli medias talk of gaza aid crisis shareholder action reminder faruqi faruqi llp investigates claim on behalf of investor of lockheed martin fifa move ahead with new human right strategy for world cup game but advocate are skeptical fifa move ahead with new human right strategy for world cup game but advocate are skeptical fifa move ahead with new human right strategy for world cup game but advocate are skeptical inflation likely moved higher last month a tariff bite putting the fed in bind trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime federal becomes local the nation capital find itself at the center of a donald trump maelstrom federal becomes local the nation capital find itself at the center of a donald trump maelstrom federal becomes local the nation capital find itself at the center of a donald trump maelstrom letter richard bryan critique donald trump david larson what the dmv can learn from chickfila john hood tariff threat hurt carolina worker letter making my point my turn our right to freedom of conscience and the rowan early voting calendar cartoon what harris campaign memoir should be called editorial hamas steal aid to fund war promote propaganda editorial dallas morning news money role in american politics could get even worse when truth becomes the enemy of the state how to win on immigration go away with leonidas g demas letter stop the hate if you want to up the birth rate scott jennings trigger dems by saying nobody in their right mind think washington dc is safe anna mae midge stellmach trial expose internal tension over trump use of national guard in la photo of mourning for colombian sen miguel uribe who died month after shooting at a rally photo of mourning for colombian sen miguel uribe who died month after shooting at a rally trump unprecedented takeover of dc police come a crime is down figure show application for sd development of affordable housing being accepted library board wont meet in august welcome to south dakota newest news desert with new law city mull election move protest a trump take over dc police deploys national guard in capital dem whistleblower adam schiff okayed leaking of classified info to smear trump in russian collusion hoax letter a reminder from an old friend goodship raise million in series b funding round tesla launch mile model in china a ufc fight at the white house white say it happening a part of deal with paramount cold wallet presale pull in m bonk slip sol breakout loom cenovus indigenous group circle meg energy in possible joint bid pepe coin price prediction at could ozak ai deliver a stronger roi new mexico climate investment center debut energyefficiency loan program for small business nonprofit cardinal health to extend reach by acquiring solaris health dow rally point sp hit new record a cpi report give fed green light to cut rate live update cnbc this best selling jump starter is under for a limited time switzerland could experience unique economic problem from trump tariff bosscattm home service and technology recognized for fourth consecutive year on the inc list of america fastestgrowing private company nuvei tap stablecoins to expand money movement operation fermi americatm name two highly successful nuclear developer mesut and sezin uzman to spearhead nuclear power delivery dow surge point u core inflation rise to meta stock hit new high a thread rocket past million user ai startup perplexity make billion bid for google chrome browser a pause in bitcoin can still be profitable with this option on ibit dutch bros coffee to open th lake houstonarea location in kingwood slqt investor have opportunity to lead selectquote inc security fraud lawsuit with the schall law firm a new chapter for crypto moonshot magax magax bitcoin hyper and aurealone microsoft forecast strong cash flow for fy raising price target to your guide to the top meme coin to invest in trump plan b ipo to privatize fannie mae freddie mac the ally are mostly alright but is that a good thing what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy elon musk threatens apple with lawsuit over openai sparking online feud with sam altman the guardian ibs in america despite advance ibs remains a burden for many million forddirect partner with podium to deliver aipowered conversation to ford and lincoln retailer iconic u film company kodak warns it may go out of business usa today rddt deadline rosen a leading investor right law firm encourages reddit inc investor to crypto entrepreneur who caused market crash pleads guilty to fraud rddt deadline rosen a leading investor right law firm encourages reddit inc investor to secure counsel before important august deadline in security class action rddt gear up for your next project with up to off select tool at the home depot cardinal fiscal q earnings snapshot northern virginia housing market cool slightly a inventory grows resideo technology pop a honeywell indemnity buyout boost growth story iceland eclipse festival to blend music art and space talk hedge fund and insider trading news seth klarman ray dalio ken griffin steve cohen renaissance technology millennium management third point shift payment inc four fastenal co fast and more european auto exporter say tariff stalling business seeing oceanfront property in ukraine trump real estate history shape his presidency spotlight on sezzle analyzing the surge in option activity decoding sofi technologiess option activity whats the big picture peoplesoft how to find own america greatest opportunity why ethereum is rising today rent medical cost drive yearoveryear inflation the magnificent iran and russia vow to block u caucasus ambition best cryptos to buy now in august top crypto opportunity to watch in blockdag xrp stellar solana best dell gaming laptop to buy in abacus insurance and financial service join world insurance associate u july tariff revenue jump fails to halt wider budget deficit bloombergcom best ergonomic gadget for remote worker our view make lasting cut to govguam cost during budget talk why bigbearai stock is cratering today why pubmatic stock fell this morning want to attend world cup game for free fifa need volunteer ai startup perplexity offer to buy google chrome browser for billion the new york time easyfeast unveils new brand identity honoring it mission to make homemade meal easier dow jones leader cisco magnificent seven stock alphabet in new buy zone oryx dental recognized a a top software company on the inc list here why share in united airline took off today advent technology holding inc enhances license to groundbreaking ion pair technology developed at los alamo national laboratory by acquiring exclusivity in marine aviation and portable power field spacex rival ast spacemobile prepares to deploy nearly five dozen satellite signed lanie gardner is on the right track onerpm ink daya g love special sauce generation z saving habit a look at their financial priority and insight zelensky refuse to cede donbas say doing so would give putin springboard for future offensive dorrance planetarium what the cuttingedge led dome at the arizona science center will look like atlantic american corporation report second quarter result for na fallon commander speaks at ceda breakfast atlantic american corporation report second quarter result for gamechange solar rise to third globally and second in u solar tracker market terraform lab founder do kwon pleads guilty to fraud in b terraluna collapse fhlbank san francisco invests million to preserve affordable housing in arizona metro denver inflation hold steady ahead of upcoming tariff keep your toothbrush germfree with the bril uv light toothbrush sanitizer elon musk went from promising tesla unsupervised selfdriving to less nag while los angeles burned rule to protect home from wildfire were on hold spirit airline sound the alarm on it future ability to stay in business what is ai automation and how doe it work official opening of a housing project for adult living with autism spectrum disorder in the gaspe region citizen name barclays executive a it next finance chief worth of labubus headed for black market recovered from socal home los angeles time kucoin first to support ubs umint collateral via digift bridging tokenized rwas and crypto trading bird fan are getting shortchanged reader commentary business spat between daryl hall and john oates ha been resolved in arbitration attorney say desjardins post surplus earnings of million for the second quarter of and surpasses billion in asset family safety stock life surge a parent seek peace of mind bank of america corporation nysebac stock holding decreased by finer wealth management inc tesla inc nasdaqtsla share acquired by saiph capital llc this spy pen secretly record k hd video and audio and it off now the latest national guard arrives in washington dc for trump federal takeover of local police silicon valley lawmaker want to decriminalize homelessness no one is above the law tx ag paxton seek to hold beto orourke in contempt for defying court order ai is reshaping hacking no one agrees how fast trump threatens allowing major lawsuit against fed chair powell over central bank renovation gifford fire grows to more than acre a it shift west in slo county black bear qb embrace life in maine ready to lead football team u teen influencer pilot accused of unauthorized antarctic landing reach deal to leave chile new research discovers the first known latterday saint polygamist with black ancestry israel is in talk to possibly resettle palestinian from gaza in south sudan israel is in talk to possibly resettle palestinian from gaza in south sudan trump takeover of washington law enforcement begin a national guard troop arrive texas senate pass redistricting map despite democrat walkout but house still cant consider bill with no quorum transgender woman sue over jail assault texas republican plan another special session to deliver trump more gop congressional seat texas republican plan another special session to deliver trump more gop congressional seat trump name heritage foundation ej antoni to lead bureau of labor statistic israel is in talk to possibly resettle palestinian from gaza in south sudan israel is in talk to possibly resettle palestinian from gaza in south sudan zelenskyy say putin want the rest of ukraine donetsk region a part of a ceasefire doge land big legal win a appeal court strike down preliminary injunction appeal court remove block on doge data access a familiar name raise democrat spirit in ohio senate race this is how it done here the arrest list from night with trump national guard protecting dc what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy dc top cop clueless on chain of command chief pamela smith deidriven disaster white house say homeless people in dc could be susceptible to jail time white house confirms trumpputin summit in anchorage calling it listening exercise what to know about trump potential change in federal marijuana policy trump use of troop for policing hasnt been seen since america wa ruled by a king trump considering lawsuit against fed a he bash chair jerome powell seeing oceanfront property in ukraine trump real estate history shape his presidency live now u attorney pirro ice and state official announce indictment of haitian gang leader we dont despise the medium enough foreign press association president condemns death of hamas journo how should american college measure merit bank fee for data access threaten the foundation of open banking deja vu another british f just made an emergency landing in japan lima one bill mcdonald honored by housingwire ap news summary at pm edt u citizen detained by ice say she wa denied water for hour israel is in talk to possibly resettle palestinian from gaza in south sudan u designates baloch separatist a a terror group over role in attack in pakistan syria u and jordan say they will work toward a lasting truce in wake of syrian sectarian clash zelensky refuse to cede donbas say doing so would give putin springboard for future offensive paxton urge texas judge to jail beto orourke over fundraising related to redistricting fight more republican join georgia competitive race for lieutenant governor more republican join georgia competitive race for lieutenant governor letter notsofree speech armstrong williams when the bench becomes the battlefield staff commentary takeaway from aps reporting on armed group recruiting child in colombia ashley biden daughter of joe and jill biden file for divorce after year of marriage county call million bond election to build jail live now department of state hold press briefing aug violent guerrilla are taking colombia child unarmed indigenous group are confronting them violent guerrilla are taking colombia child unarmed indigenous group are confronting them boom winsome earlesears just dropped another ad that abigail spanberger will have to answer for watch what to know about the putintrump summit in alaska cdc shooting linked to suspect covid vaccine belief former staff blame rfk jr hostility toward agency the palestinian journalist killed in the war in gaza endured hunger and grief the palestinian journalist killed in the war in gaza endured hunger and grief newsnation cut interview after guest call out trump hypocrisy on live tv newsnation cut interview after guest call out trump hypocrisy on live tv business spat between daryl hall and john oates ha been resolved in arbitration attorney say zelenskyy say putin want the rest of ukraine donetsk region a part of a ceasefire whats at stake a trump prepares to meet putin in alaska shacarri richardson address domestic violence arrest and apologizes to christian coleman musk blow stack after apple snub his racist chatbot texas twostep two additional bill from the texas legislative session that contractor need to know trump want to make the census count a salute to legend like kathy bates jean smart and harrison ford on finally getting their emmy flower inside senate dems summer warpath against trump trump weighs major lawsuit against powell over federal building renovation cost jimmy kimmel obtained italian citizenship in case he need to flee second trump administration it so much worse teen in northfield triple murder to forgo trial and plead guilty teenager in northfield triple murder to plead guilty trump threatens powell with major lawsuit over fed renovation ap news summary at pm edt russian troop advance in ukraine ahead of trumpputin peace summit tinfoil or not you decide damning thread tie nick fuentes to january th in a very troubling way the ncaa is a billiondollar sport behemoth that should not be a nonprofit bosnia serb leader dodik avoids prison term a election loom zelenskyy say russia want a ukrainian withdrawal from ukraine eastern donetsk region a part of a ceasefire deal zelenskyy say russia want a ukrainian withdrawal from ukraine eastern donetsk region a part of a ceasefire deal liar another gop rep face a raucous town hall angered by trump agenda liar another gop rep face a raucous town hall angered by trump agenda poll open in primary election for slain rep melissa hortmans seat pete hegseth belongs to an archconservative church network here what to know cnn slap trump with new nickname accidentally make him sound cooler sherrod brown to launch a comeback attempt for senate in ohio trump v newsom showdown land in court with family tie to the nation highest bench desantis name state sen jay collins a lieutenant governor desantis pick the chuck norris of florida politics a new top deputy allegiant airline to add direct flight from appleton to orlando here what to know bonus editorial cartoon for aug zelenskiy say ukraine wont withdraw troop from donbas first court hearing to take place tuesday in riley strain lawsuit for motion hearing trump washington dc takeover begin a national guard troop arrive</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>mp material nysemp stock price up on analyst upgrade affinity bancshares nasdaqafbi v dime community bancshares nasdaqdcom head to head analysis oms energy technology nasdaqomse north american construction group nysenoa headtohead survey reviewing blade air mobility blde and the competition analyzing haverty furniture company nysehvta and brand house collective nasdaqtbhc head to head survey armstrong world industry nyseawi and obayashi otcmktsobycf headtohead review ayro nasdaqayro tesla nasdaqtsla reviewing humana nysehum joint nasdaqjynt financial review kayne anderson bdc nysekbdc hercules capital nysehtgc head to head comparison marui group otcmktsmaury kohl nysekss portillos nasdaqptlo stock rating lowered by wall street zen contrasting bark nysebark and fireman contractor otcmktsfrcn head to head survey southern first bancshares nasdaqsfst v people bancorp of north carolina nasdaqpebk financial comparison city office reit nysecio v lamar advertising nasdaqlamr sadot group nasdaqsdot versus grove collaborative nysegrov headtohead contrast headtohead analysis office property income trust nasdaqopi versus safehold nysesafe financial review ho innovation otcmktsheoff and ho america nasdaqhto lharris technology nyselhx v safran otcmktssafry head to head review orion group nyseorn v mastec nysemtz head to head review headtohead comparison vertiv nysevrt v leidos nyseldos head to head survey hess midstream partner nysehesm v xplr infrastructure nysexifr financial contrast arcutis biotherapeutics nasdaqarqt v novocure nasdaqnvcr contrasting onewater marine nasdaqonew and peloton interactive nasdaqpton critical survey t biosystems nasdaqttoo and perspective therapeutic nysecatx comparing castor maritime nasdaqctrm and united maritime nasdaqusea crypto price today bitcoin price fall to xrp at and solana at riskified ltd nyserskd receives consensus recommendation of hold from brokerage roku inc nasdaqroku given average rating of moderate buy by brokerage financial analysis ameramex international otcmktsammx willis lease finance nasdaqwlfc academy sport and outdoors inc nasdaqaso receives consensus recommendation of moderate buy from analyst brp inc tsedoo given consensus recommendation of hold by brokerage unicredit otcmktsuncry trading down here what happened annaly capital management inc nysenly given average rating of moderate buy by analyst pagseguro digital ltd nysepags receives consensus rating of moderate buy from analyst palantir technology inc nasdaqpltr receives average rating of hold from brokerage travere therapeutic inc nasdaqtvtx given consensus rating of moderate buy by analyst hbo max viu set to offer streaming bundle in asian country sartorius stedim biotech epadim share down should you sell hr real estate investment trust otcmktshruff share up time to buy midnight sun mining cvemma stock price up whats next bmo laddered preferred share index etf tsezpr share down whats next dream industrial real estate investment trust otcmktsdreuf trading down whats next tgs asa otcmktstgsgy trading down whats next doman building material group otcmktscwxzf stock price down should you sell wimi hologram cloud nasdaqwimi trading up still a buy u solar fund lonusfp stock price down whats next titan mining otcmktstnmcf share down whats next china minsheng otcmktscmaky stock price down whats next rational aktiengesellschaft otcmktsrtllf stock price down should you sell intellinetics otcmktsinlxd trading up here what happened melrose industry otcmktsmlspf trading down whats next nippon steel sumitomo metal otcmktsnpscy trading down here what happened barclays etn fi enhanced europe etn series c nysearcaffeu trading up whats next imab nasdaqimab trading higher here why wisdomtree cloud computing fund nasdaqwcld trading down time to sell thai oil public otcmktstoipf trading higher whats next xtrackers international real estate etf nysearcahauz trading down here why fibra uno otcmktsfbasf trading down whats next aimia otcmktsgapff stock price down here what happened camino mineral cvecor share up here what happened sompo otcmktssmpny trading down time to sell foxby otcmktsfxby share up time to buy bmo low volatility canadian equity etf tsezlb trading down time to sell urbana otcmktsubaaf stock price up whats next china citic bank otcmktschcjy stock price down here why biglari nysebha stock price up whats next permrock royalty trust nyseprt trading higher should you buy nufarm otcmktsnufmf trading higher still a buy cascade otcmktscadnf stock price down whats next metaurus u equity exdividend fundseries nysearcaxdiv trading down whats next wisdomtree balanced income fund nysearcawbal share up should you buy midnight sun mining cvemma stock price up whats next uxin nasdaquxin trading up time to buy serica energy otcmktssqzzf trading up whats next bmo laddered preferred share index etf tsezpr share down whats next artis real estate investment trust otcmktsaresf trading down whats next aptus defined risk etf batsdrsk trading down time to sell salmar asa otcmktssalrf share up whats next rpar risk parity etf nysearcarpar share down should you sell sgl carbon otcmktssglff stock price down should you sell overlay share large cap equity etf nysearcaovl share down should you sell boc hong kong otcmktsbhkly share up here what happened amplify alternative harvest etf nysearcamj share up whats next sartorius stedim biotech epadim trading down should you sell manolete partner lonmano stock price down should you sell portfolioplus sp small cap etf nysearcappsc trading higher time to buy vanguard growth etf portfolio tsevgro share down time to sell charlotte web otcmktscwbhf share up here why collplant biotechnology nasdaqclgn trading higher here why iphone pro launch date and price in india revealed check all detail musk grok ai briefly suspended on x for claiming israel commits genocide aersale nasdaqasle raised to strongbuy at wall street zen top tech news nvidias ai chip approved for china meta raise b for ai growth wall street zen downgrade cormedix nasdaqcrmd to buy dragonfly energy dfli expected to announce earnings on thursday mediwound mdwd projected to post quarterly earnings on thursday draftkings nasdaqdkng upgraded at wall street zen palvella therapeutic pvla to release earnings on thursday unusual machine umac expected to announce quarterly earnings on thursday westbow press announces the book answer with truth ha earned exclusive lighthouse recognition portillos nasdaqptlo cut to sell at wall street zen procept biorobotics nasdaqprct rating increased to hold at wall street zen fanatic branded nfl nba mlb nhl apparel sale banned in australia souad m hanna aersale nasdaqasle upgraded at wall street zen donegal group nasdaqdgica stock rating lowered by wall street zen cormedix nasdaqcrmd cut to buy at wall street zen acurx pharmaceutical nasdaqacxp upgraded at wall street zen cricut nasdaqcrct upgraded at wall street zen capital one financial nysecof cut to hold at wall street zen capri nysecpri upgraded at wall street zen citizen nysecia upgraded at wall street zen bwx technology nysebwxt lowered to hold rating by wall street zen vimeo nasdaqvmeo upgraded by wall street zen to buy rating frederick should revisit it district map brehm would be effective leader on council trump say plan to test out putin a europe engages ukraine greg abbott threatens to eliminate democratic district a texas prepares redistricting counterstrike against california map overhaul knightscope nasdaqkscp cut to sell at wall street zen klaviyo nysekvyo upgraded at wall street zen figma nysefig upgraded at wall street zen rxo nyserxo upgraded at wall street zen interactive strength nasdaqtrnr upgraded at wall street zen guardian pharmacy service nysegrdn cut to hold at wall street zen audioeye nasdaqaeye cut to hold at wall street zen biomarin pharmaceutical nasdaqbmrn rating increased to strongbuy at wall street zen banner nasdaqbanr cut to sell at wall street zen alerus financial nasdaqalrs stock rating upgraded by wall street zen ascent solar technology nasdaqasti upgraded at wall street zen ardelyx nasdaqardx upgraded at wall street zen berry nasdaqbry cut to sell at wall street zen applied optoelectronics nasdaqaaoi lowered to sell rating by wall street zen vitesse energy nysevts upgraded at wall street zen amer sport nyseas cut to hold at wall street zen brookdale senior living nysebkd rating increased to hold at wall street zen aflac nyseafl upgraded at wall street zen sapiens international spns expected to announce earnings on wednesday northpointe bancshares inc nysenpb lockup period will expire tomorrow raskin on dc crime do you trust the dems who created the mess or trump who doe the impossible trump back burt jones in republican race for georgia governor in kimmel guest host nicole byer make a dangerous example out of trump dc talk hartselle candidate forum to spotlight local issue u designates baloch separatist a a terror group over role in attack in pakistan eu leader appeal to trump to defend europe security interest at his war summit with putin death notice jean phyllis williams eu leader appeal to trump to defend europe security interest at his war summit with putin the forgotten story of the world deadliest plane crash angler break record after getting green light to reel in harmful fish my fishing pole took a hard hit point coal need to be part of america energy future wdt thought for aug your view constitutional amendment would permit limit on political spending trump back burt jones in republican race for georgia governor in trump back burt jones in republican race for georgia governor in trump back burt jones in republican race for georgia governor in counterpoint america need affordable energy coal doesnt fit the bill u and china extend trade truce another day easing tension between world largest economy u and china extend trade truce another day easing tension between world largest economy at th hour ups bow to teamster strike threat in state nancy pelosi say american know republican ripped away health care will lose midterm unacceptable they want to change rule midgame south korean president lee will travel to washington for aug meeting with trump trump washington police takeover echo history of racist narrative about urban crime hamas hostage video silenced israeli medias talk of gaza aid crisis shareholder action reminder faruqi faruqi llp investigates claim on behalf of investor of lockheed martin fifa move ahead with new human right strategy for world cup game but advocate are skeptical fifa move ahead with new human right strategy for world cup game but advocate are skeptical fifa move ahead with new human right strategy for world cup game but advocate are skeptical inflation likely moved higher last month a tariff bite putting the fed in bind trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime trump washington police takeover echo history of racist narrative about urban crime federal becomes local the nation capital find itself at the center of a donald trump maelstrom federal becomes local the nation capital find itself at the center of a donald trump maelstrom federal becomes local the nation capital find itself at the center of a donald trump maelstrom letter richard bryan critique donald trump david larson what the dmv can learn from chickfila john hood tariff threat hurt carolina worker letter making my point my turn our right to freedom of conscience and the rowan early voting calendar cartoon what harris campaign memoir should be called editorial hamas steal aid to fund war promote propaganda editorial dallas morning news money role in american politics could get even worse when truth becomes the enemy of the state how to win on immigration go away with leonidas g demas letter stop the hate if you want to up the birth rate scott jennings trigger dems by saying nobody in their right mind think washington dc is safe anna mae midge stellmach trial expose internal tension over trump use of national guard in la photo of mourning for colombian sen miguel uribe who died month after shooting at a rally photo of mourning for colombian sen miguel uribe who died month after shooting at a rally trump unprecedented takeover of dc police come a crime is down figure show application for sd development of affordable housing being accepted library board wont meet in august welcome to south dakota newest news desert with new law city mull election move protest a trump take over dc police deploys national guard in capital dem whistleblower adam schiff okayed leaking of classified info to smear trump in russian collusion hoax letter a reminder from an old friend goodship raise million in series b funding round tesla launch mile model in china a ufc fight at the white house white say it happening a part of deal with paramount cold wallet presale pull in m bonk slip sol breakout loom cenovus indigenous group circle meg energy in possible joint bid pepe coin price prediction at could ozak ai deliver a stronger roi new mexico climate investment center debut energyefficiency loan program for small business nonprofit cardinal health to extend reach by acquiring solaris health dow rally point sp hit new record a cpi report give fed green light to cut rate live update cnbc this best selling jump starter is under for a limited time switzerland could experience unique economic problem from trump tariff bosscattm home service and technology recognized for fourth consecutive year on the inc list of america fastestgrowing private company nuvei tap stablecoins to expand money movement operation fermi americatm name two highly successful nuclear developer mesut and sezin uzman to spearhead nuclear power delivery dow surge point u core inflation rise to meta stock hit new high a thread rocket past million user ai startup perplexity make billion bid for google chrome browser a pause in bitcoin can still be profitable with this option on ibit dutch bros coffee to open th lake houstonarea location in kingwood slqt investor have opportunity to lead selectquote inc security fraud lawsuit with the schall law firm a new chapter for crypto moonshot magax magax bitcoin hyper and aurealone microsoft forecast strong cash flow for fy raising price target to your guide to the top meme coin to invest in trump plan b ipo to privatize fannie mae freddie mac the ally are mostly alright but is that a good thing what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy elon musk threatens apple with lawsuit over openai sparking online feud with sam altman the guardian ibs in america despite advance ibs remains a burden for many million forddirect partner with podium to deliver aipowered conversation to ford and lincoln retailer iconic u film company kodak warns it may go out of business usa today rddt deadline rosen a leading investor right law firm encourages reddit inc investor to crypto entrepreneur who caused market crash pleads guilty to fraud rddt deadline rosen a leading investor right law firm encourages reddit inc investor to secure counsel before important august deadline in security class action rddt gear up for your next project with up to off select tool at the home depot cardinal fiscal q earnings snapshot northern virginia housing market cool slightly a inventory grows resideo technology pop a honeywell indemnity buyout boost growth story iceland eclipse festival to blend music art and space talk hedge fund and insider trading news seth klarman ray dalio ken griffin steve cohen renaissance technology millennium management third point shift payment inc four fastenal co fast and more european auto exporter say tariff stalling business seeing oceanfront property in ukraine trump real estate history shape his presidency spotlight on sezzle analyzing the surge in option activity decoding sofi technologiess option activity whats the big picture peoplesoft how to find own america greatest opportunity why ethereum is rising today rent medical cost drive yearoveryear inflation the magnificent iran and russia vow to block u caucasus ambition best cryptos to buy now in august top crypto opportunity to watch in blockdag xrp stellar solana best dell gaming laptop to buy in abacus insurance and financial service join world insurance associate u july tariff revenue jump fails to halt wider budget deficit bloombergcom best ergonomic gadget for remote worker our view make lasting cut to govguam cost during budget talk why bigbearai stock is cratering today why pubmatic stock fell this morning want to attend world cup game for free fifa need volunteer ai startup perplexity offer to buy google chrome browser for billion the new york time easyfeast unveils new brand identity honoring it mission to make homemade meal easier dow jones leader cisco magnificent seven stock alphabet in new buy zone oryx dental recognized a a top software company on the inc list here why share in united airline took off today advent technology holding inc enhances license to groundbreaking ion pair technology developed at los alamo national laboratory by acquiring exclusivity in marine aviation and portable power field spacex rival ast spacemobile prepares to deploy nearly five dozen satellite signed lanie gardner is on the right track onerpm ink daya g love special sauce generation z saving habit a look at their financial priority and insight zelensky refuse to cede donbas say doing so would give putin springboard for future offensive dorrance planetarium what the cuttingedge led dome at the arizona science center will look like atlantic american corporation report second quarter result for na fallon commander speaks at ceda breakfast atlantic american corporation report second quarter result for gamechange solar rise to third globally and second in u solar tracker market terraform lab founder do kwon pleads guilty to fraud in b terraluna collapse fhlbank san francisco invests million to preserve affordable housing in arizona metro denver inflation hold steady ahead of upcoming tariff keep your toothbrush germfree with the bril uv light toothbrush sanitizer elon musk went from promising tesla unsupervised selfdriving to less nag while los angeles burned rule to protect home from wildfire were on hold spirit airline sound the alarm on it future ability to stay in business what is ai automation and how doe it work official opening of a housing project for adult living with autism spectrum disorder in the gaspe region citizen name barclays executive a it next finance chief worth of labubus headed for black market recovered from socal home los angeles time kucoin first to support ubs umint collateral via digift bridging tokenized rwas and crypto trading bird fan are getting shortchanged reader commentary business spat between daryl hall and john oates ha been resolved in arbitration attorney say desjardins post surplus earnings of million for the second quarter of and surpasses billion in asset family safety stock life surge a parent seek peace of mind bank of america corporation nysebac stock holding decreased by finer wealth management inc tesla inc nasdaqtsla share acquired by saiph capital llc this spy pen secretly record k hd video and audio and it off now the latest national guard arrives in washington dc for trump federal takeover of local police silicon valley lawmaker want to decriminalize homelessness no one is above the law tx ag paxton seek to hold beto orourke in contempt for defying court order ai is reshaping hacking no one agrees how fast trump threatens allowing major lawsuit against fed chair powell over central bank renovation gifford fire grows to more than acre a it shift west in slo county black bear qb embrace life in maine ready to lead football team u teen influencer pilot accused of unauthorized antarctic landing reach deal to leave chile new research discovers the first known latterday saint polygamist with black ancestry israel is in talk to possibly resettle palestinian from gaza in south sudan israel is in talk to possibly resettle palestinian from gaza in south sudan trump takeover of washington law enforcement begin a national guard troop arrive texas senate pass redistricting map despite democrat walkout but house still cant consider bill with no quorum transgender woman sue over jail assault texas republican plan another special session to deliver trump more gop congressional seat texas republican plan another special session to deliver trump more gop congressional seat trump name heritage foundation ej antoni to lead bureau of labor statistic israel is in talk to possibly resettle palestinian from gaza in south sudan israel is in talk to possibly resettle palestinian from gaza in south sudan zelenskyy say putin want the rest of ukraine donetsk region a part of a ceasefire doge land big legal win a appeal court strike down preliminary injunction appeal court remove block on doge data access a familiar name raise democrat spirit in ohio senate race this is how it done here the arrest list from night with trump national guard protecting dc what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy what to know about trump potential change in federal marijuana policy dc top cop clueless on chain of command chief pamela smith deidriven disaster white house say homeless people in dc could be susceptible to jail time white house confirms trumpputin summit in anchorage calling it listening exercise what to know about trump potential change in federal marijuana policy trump use of troop for policing hasnt been seen since america wa ruled by a king trump considering lawsuit against fed a he bash chair jerome powell seeing oceanfront property in ukraine trump real estate history shape his presidency live now u attorney pirro ice and state official announce indictment of haitian gang leader we dont despise the medium enough foreign press association president condemns death of hamas journo how should american college measure merit bank fee for data access threaten the foundation of open banking deja vu another british f just made an emergency landing in japan lima one bill mcdonald honored by housingwire ap news summary at pm edt u citizen detained by ice say she wa denied water for hour israel is in talk to possibly resettle palestinian from gaza in south sudan u designates baloch separatist a a terror group over role in attack in pakistan syria u and jordan say they will work toward a lasting truce in wake of syrian sectarian clash zelensky refuse to cede donbas say doing so would give putin springboard for future offensive paxton urge texas judge to jail beto orourke over fundraising related to redistricting fight more republican join georgia competitive race for lieutenant governor more republican join georgia competitive race for lieutenant governor letter notsofree speech armstrong williams when the bench becomes the battlefield staff commentary takeaway from aps reporting on armed group recruiting child in colombia ashley biden daughter of joe and jill biden file for divorce after year of marriage county call million bond election to build jail live now department of state hold press briefing aug violent guerrilla are taking colombia child unarmed indigenous group are confronting them violent guerrilla are taking colombia child unarmed indigenous group are confronting them boom winsome earlesears just dropped another ad that abigail spanberger will have to answer for watch what to know about the putintrump summit in alaska cdc shooting linked to suspect covid vaccine belief former staff blame rfk jr hostility toward agency the palestinian journalist killed in the war in gaza endured hunger and grief the palestinian journalist killed in the war in gaza endured hunger and grief newsnation cut interview after guest call out trump hypocrisy on live tv newsnation cut interview after guest call out trump hypocrisy on live tv business spat between daryl hall and john oates ha been resolved in arbitration attorney say zelenskyy say putin want the rest of ukraine donetsk region a part of a ceasefire whats at stake a trump prepares to meet putin in alaska shacarri richardson address domestic violence arrest and apologizes to christian coleman musk blow stack after apple snub his racist chatbot texas twostep two additional bill from the texas legislative session that contractor need to know trump want to make the census count a salute to legend like kathy bates jean smart and harrison ford on finally getting their emmy flower inside senate dems summer warpath against trump trump weighs major lawsuit against powell over federal building renovation cost jimmy kimmel obtained italian citizenship in case he need to flee second trump administration it so much worse teen in northfield triple murder to forgo trial and plead guilty teenager in northfield triple murder to plead guilty trump threatens powell with major lawsuit over fed renovation ap news summary at pm edt russian troop advance in ukraine ahead of trumpputin peace summit tinfoil or not you decide damning thread tie nick fuentes to january th in a very troubling way the ncaa is a billiondollar sport behemoth that should not be a nonprofit bosnia serb leader dodik avoids prison term a election loom zelenskyy say russia want a ukrainian withdrawal from ukraine eastern donetsk region a part of a ceasefire deal zelenskyy say russia want a ukrainian withdrawal from ukraine eastern donetsk region a part of a ceasefire deal liar another gop rep face a raucous town hall angered by trump agenda liar another gop rep face a raucous town hall angered by trump agenda poll open in primary election for slain rep melissa hortmans seat pete hegseth belongs to an archconservative church network here what to know cnn slap trump with new nickname accidentally make him sound cooler sherrod brown to launch a comeback attempt for senate in ohio trump v newsom showdown land in court with family tie to the nation highest bench desantis name state sen jay collins a lieutenant governor desantis pick the chuck norris of florida politics a new top deputy allegiant airline to add direct flight from appleton to orlando here what to know bonus editorial cartoon for aug zelenskiy say ukraine wont withdraw troop from donbas first court hearing to take place tuesday in riley strain lawsuit for motion hearing trump washington dc takeover begin a national guard troop arrive</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.9994</v>
+      </c>
+      <c r="O36" t="n">
+        <v>157</v>
+      </c>
+      <c r="P36" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>233</v>
+      </c>
+      <c r="S36" t="n">
+        <v>120</v>
+      </c>
+      <c r="T36" t="n">
+        <v>303</v>
+      </c>
+      <c r="U36" t="n">
+        <v>203</v>
+      </c>
+      <c r="V36" t="n">
+        <v>82</v>
+      </c>
+      <c r="W36" t="n">
+        <v>47</v>
+      </c>
+      <c r="X36" t="n">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -3214,7 +3214,7 @@
         <v>6462.669921875</v>
       </c>
       <c r="F36" t="n">
-        <v>3088354000</v>
+        <v>5195950000</v>
       </c>
       <c r="G36" t="n">
         <v>0.0032300788824048</v>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,6 +3275,84 @@
         <v>88</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6468.5400390625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6473.919921875</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6441.06982421875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6453.4599609375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2766449000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0003030908012924</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>invesco ltd acquires share of archrock inc nysearoc invesco ltd lower position in datadog inc nasdaqddog invesco ltd sell share of enbridge inc nyseenb invesco ltd lower stake in datadog inc nasdaqddog palo alto network inc nasdaqpanw share sold by entropy technology lp entropy technology lp sell share of palo alto network inc nasdaqpanw entropy technology lp raise stock holding in plain gp holding lp nysepagp entropy technology lp purchase new share in snap inc nysesnap entropy technology lp purchase share of makemytrip limited nasdaqmmyt entropy technology lp make new investment in coinbase global inc nasdaqcoin entropy technology lp make new investment in spx technology inc nysespxc entropy technology lp invests in makemytrip limited nasdaqmmyt entropy technology lp take position in innodata inc nasdaqinod entropy technology lp sell share of mohawk industry inc nysemhk share in coinbase global inc nasdaqcoin purchased by entropy technology lp entropy technology lp buy new share in innodata inc nasdaqinod share in glacier bancorp inc nasdaqgbci purchased by entropy technology lp entropy technology lp acquires share of biomarin pharmaceutical inc nasdaqbmrn entropy technology lp purchase new stake in integer holding corporation nyseitgr share in glacier bancorp inc nasdaqgbci bought by entropy technology lp share in cellebrite di ltd nasdaqclbt bought by entropy technology lp reason pfizers yielding dividend is getting safer possible reason warren buffett shunned his favorite stock for the fourth straight quarter despite sitting on billion in cash mitsubishi ufj asset management co ltd boost stock position in urban edge property nyseue li auto inc sponsored adr nasdaqli share sold by mitsubishi ufj asset management co ltd swiss national bank ha million stock holding in interpublic group of company inc the nyseipg mitsubishi ufj asset management co ltd purchase share of bwx technology inc nysebwxt medical property trust inc nysempw share purchased by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd raise holding in urban edge property nyseue news corporation nasdaqnwsa share sold by swiss national bank outfront medium inc nyseout share acquired by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd ha million position in sl green realty corporation nyseslg mitsubishi ufj asset management co ltd decrease stake in sprout farmer market inc nasdaqsfm mitsubishi ufj asset management co ltd buy share of millrose property inc nysemrp mitsubishi ufj asset management co ltd cut holding in lucid group inc nasdaqlcid mitsubishi ufj asset management co ltd reduces stock position in liquidia technology inc nasdaqlqda mitsubishi ufj asset management co ltd ha million stock position in sprout farmer market inc nasdaqsfm mitsubishi ufj asset management co ltd increase stock holding in ducommun incorporated nysedco mitsubishi ufj asset management co ltd reduces stake in lucid group inc nasdaqlcid li auto inc sponsored adr nasdaqli share sold by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd ha million stake in sabra healthcare reit inc nasdaqsbra china target lithuanian bank in response to new eu sanction procept biorobotics corporation nasdaqprct share bought by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd buy share of esco technology inc nyseese maryland state retirement pension system reduces position in toast inc nysetost maryland state retirement pension system reduces stock position in rollins inc nyserol mitsubishi ufj asset management co ltd raise stock holding in planet lab pbc nysepl mitsubishi ufj asset management co ltd grows stock holding in caretrust reit inc nasdaqctre mitsubishi ufj asset management co ltd reduces holding in xpeng inc sponsored adr nysexpev headtohead survey metallurgical corp of china mlluy the competition maryland state retirement pension system sell share of toast inc nysetost sun community inc nysesui stock position cut by maryland state retirement pension system maryland state retirement pension system cut stake in burlington store inc nyseburl maryland state retirement pension system sell share of nutanix nasdaqntnx reviewing metallurgical corp of china mlluy and it peer financial contrast nu skin enterprise nysenus and pitanium nasdaqptnm ehang holding limited unsponsored adr nasdaqeh receives average pt from analyst mitsubishi ufj asset management co ltd acquires share of asml holding nv nasdaqasml gold price hover near record high on fed rate cut expectation entain plc otcmktsgmvhf receives average rating of moderate buy from analyst h b fuller company nyseful vp sell in stock swiss re ltd otcmktsssrey receives consensus recommendation of hold from analyst erste group bank ag otcmktsebkdy receives consensus rating of moderate buy from brokerage svenska handelsbanken ab publ otcmktssvnly receives average recommendation of reduce from brokerage april underwood sell share of zillow group inc nasdaqz stock diana sue ferguson acquires share of sally beauty holding inc nysesbh stock jayshree ullal sell share of arista network inc nyseanet stock unity software inc nyseu coo sell in stock joao magalhaes sell share of h b fuller company nyseful stock anglo american otcmktsngloy receives average recommendation of hold from analyst svenska handelsbanken ab publ otcmktssvnly receives consensus rating of reduce from analyst diana sue ferguson acquires share of sally beauty holding inc nysesbh stock centerspace nysecsr ceo purchase in stock nordea bank ab otcmktsnrdby given consensus recommendation of moderate buy by analyst april underwood sell share of zillow group inc nasdaqz stock john f sheridan acquires share of tandem diabetes care inc nasdaqtndm stock idaho strategic resource inc nyseamericanidr director kevin g shiell sell share entain plc otcmktsgmvhf given average recommendation of moderate buy by brokerage alexander blum sell share of unity software inc nyseu stock wgn in chicago hire akemi harrison a news director lumen technology nyselumn grupo televisa nysetv head to head survey a hidden fuel source beneath the midwest scientist are investigating prediction this artificial intelligence ai stock could hit a trillion valuation by top wall street forecaster revamp brinker international expectation ahead of q earnings oi glass inc nyseoi receives average rating of moderate buy from analyst oi glass inc nyseoi given consensus rating of moderate buy by analyst zion bancorporation national association ut take position in charter communication inc nasdaqchtr zion bancorporation national association ut make new investment in mettlertoledo international inc nysemtd share in midamerica apartment community inc nysemaa purchased by zion bancorporation national association ut zion bancorporation national association ut acquires share of halliburton company nysehal zion bancorporation national association ut purchase share of everest group ltd nyseeg perplexity billion dream of buying chrome is never going to happen it also kind of brilliant oscar health inc nyseoscr share bought by connor clark lunn investment management ltd zion bancorporation national association ut take position in evergy inc nasdaqevrg zion bancorporation national association ut take position in garmin ltd nysegrmn connor clark lunn investment management ltd purchase share of commercecom inc nasdaqcmrc zion bancorporation national association ut acquires share of old dominion freight line inc nasdaqodfl zion bancorporation national association ut take position in halliburton company nysehal connor clark lunn investment management ltd increase position in tuya inc sponsored adr nysetuya zion bancorporation national association ut invests in eqt corporation nyseeqt cop cartel and the new drone war on the southern border chris murphy go all in on funding bill boycott a dems seek bipartisanship letter support is plummeting for war on palestine hamas terrorist posing a aid worker taken out by israel japan pokemon happy meal promo end poorly american eagle sydney sweeney ad divide young people poll federal policing take effect in washingtonwhat to know trump cant accept bad news here how that hurt the first amendment opinion nyt chief white house reporter challenged to walk dc at night after mocking trump today in history august east germany close berlin border country once ruled by cleopatra crossword clue partner on a political ticket crossword clue congress must hear from jeffrey epstein victim about ghislaine maxwell role opinion a america navy shrink time is running out to prevent communist china from seizing control of the pacific a fix is needed so candidate wont shun public financing for governor race steve collins presidential order on homelessness push u back in time opinion today in history august east germany close berlin border saving life no more rfk risk u all in targeting mrna vaccine research we have a responsibility to house mainer who live outside opinion letter posting commandment in school is part of learning column coal need to be part of america energy future column america need affordable energy coal doesnt fit the bill more than gop attorney general call on rfk jr fda to reinstate safeguard for abortion drug red state can now protect kid from trans procedure after court victory ap news summary at am edt rural homeowner share how he avoided a hour blackout without a gas generator no one else can do this pax trumpana trump nobel peace prize resume tennessee town approves deal to turn closed prison into immigration detention facility tennessee town approves deal to turn closed prison into immigration detention facility editorial money role in american politics could get even worse white house reviewing all smithsonian museum exhibit content before america celebration in anthony scaramucci share warning about maga going marxist and maoist yale professor alleges assault on freemarket capitalism morning brief low inflation tariff truce wchina dc takeover fallout plan for postwar gaza elizabeth warren say trump promised to slash power bill in half but instead cost rose aid program vanished and ceo cashed in zelenskyy to visit berlin for european virtual meeting ahead of the trumpputin summit german government say reader sound off on investigating tish james troop in dc and hamas culpability donald trump a strongman riling up his base and investigating his enemy out of our past august senegal prime minister move to increase tobacco tax to save life stimulate economic growth paul geisler woman might see themselves in basf planetarium show another viewpoint vaccine decision show rfk jr unfit jungbunzlauer awarded platinum medal from ecovadis for sustainability performance duffy toni marie ppr team preview helix highlander letter for wednesday august dea head say phone call are coming from all over the country from fed agent wanting to help in dc letter green energy is still needed just say no to more marijuana appeal court allows arkansas firstinthenation ban on gender transition care for minor to be enforced chisholm chisholm kilpatrick ltd and national veteran legal service program challenge va denial of benefit to caregiver after veteran death havard getting by with a little help from your friend trump at the kennedy center on the same day recipient of the honor are announced trump unveils nomination for judicial post california and trump spar in court over military deployment in la obituary lois eastman death notice shirley f bennett death notice clifford g foster lewis welcome to american politics without norm this small maine town had school budget trouble then the cost got higher trump official tell census worker congress ha final say over the count not trump san diego resident rally for killed al jazeera journalist dc crime forget issue scott jennings show dems are on the losing side of a one here why trump bls nominee ha ignited a cascade of criticism from economist trump administration threatens fine jail for washington homeless bernie sander say do this instead california governor demand trump abandon texas redistricting push threatens ballot measure response wife of south korea jailed expresident yoon arrested over corruption allegation leaving a top trump administration post the president may have an ambassadorship for you leaving a top trump administration post the president may have an ambassadorship for you judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern alligator alcatraz migrant jail could halt construction over environmental concern construction at alligator alcatraz migrant jail could be halted over environmental concern construction at alligator alcatraz migrant jail could be halted over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern charles gleason lawson ap news in brief at am edt clarence page time for democrat to get serious about their political future seth meyers give trump a failing score after leaving this name out of cognitive brag cartoon democrat are desperate for this letter nevada a sanctuary state trump is making major concession to union boss is it worth it letter gov newsom and the gender confusion club letter natural gas pay off for pa letter right age for sex letter where is our humanity cartoon dont trust him the word of the day letter union leader ignores psycho with hbombs tyler t ray caswell ha nh economy headed in the right direction congressman interacts with local official business leader letter social security now but can it long persist garrison keillor one favor lord if you have a moment editorial reviewjournal socialism lead to worse thing than expensive food can we somehow make backtoschool safe again israel emerging occupation consensus letter voting restriction will do more harm than good in nh len cannon more conservative point of view required fresh grocery arrive in san diego the same day with amazon cisco earnings are imminent these most accurate analyst revise forecast ahead of earnings call stock of the day new alltime high for amd advanced ceramic and nanoceramics lead the way in a market positioned for longterm growth amazon stock gain on big expansion of perishable delivery instacart grocery stock fall investor business daily saga communication inc declares a quarterly cash dividend of per share amazon expands it perishable delivery service putting pressure on traditional grocer ap news alibaba stock soar can ai innovation sustain the growth cold wallet m stage presale offer roi before price move higher in july saga communication inc declares a quarterly cash dividend of per share amazon expands it perishable delivery service putting pressure on traditional grocer tesla diner cut menu and hour amid surging demand in hollywood the nuke race is on energy department tap startup to build a reactor by mid barrons wait the u wind industry is coming back krg baghdad strike another oil deal podcastone post percent gain in q mario paglino and gianni grossi die designer made barbies into art worksport wksp q earnings call transcript apple plot expansion into ai robot home security and smart display bloombergcom south maintains lead in construction backlog driven by population growth new york sue zelle say security lapse led to billion consumer fraud loss reuters wescap management group inc ha position in johnson johnson nysejnj msh capital advisor llc acquires share of johnson johnson nysejnj hurricane owner tom dundon strike tentative deal to buy the portland trail blazer best thriller anime show on crunchyroll amazon roll out sameday perishable grocery delivery to more than u city nvidia face b sale threat a china target h chip over security inventhelp inventor develops new refueling accessory mho pure insurance flip the script on teen driving safetyfocused on education and safety not tracking amazon expands sameday grocery delivery rival stock plunge toll brother announces final opportunity to own a new luxury home at parklynn hill community in fountain inn south carolina connecticut green bank and goodleap partner to create an aipowered virtual power plant initiative to unlock saving for homeowner and enhance grid reliability toll brother announces final opportunity to own a new luxury home at parklynn hill community in fountain inn south carolina nissan cut ariya ev price by over with a new entrylevel model crypto exchange bullish valued at nearly billion in blowout nyse debut reuters deleteme v optery top tool to erase personal data from broker vietnam hightech push to become asia next tiger by leadingre add accounttech to solution group program princeton top linkedins first u college ranking for career rigetti computing stay the course in push for quantum advantage mobile momentum how u consumer and merchant are shaping unified commerce why share of globale online are sinking today well fargo company nysewfc share purchased by financial network wealth advisor llc debt surge past trillion a interest cost eclipse defense spending intellicheck report result tampa ma firm buy naming right to nhl arena the secure mat keep your bathroom clean and safe walmart offer permanent grocery discount to m u worker why cfo must stop treating compensation a a cost twin owner opt to halt the sale and keep the club in the family adding new investor instead ai drive layoff at microsoft and intel for efficiency twin owner opt to halt sale keep club in family public notice greenlight electricity centre project participant funding available costco stock is trading lower wednesday whats going on u housing market frozen by high rate awaits fed cut for thaw what the option market tell u about galaxy digital lowes companiess option a look at what the big money is thinking united airline holdingss option frenzy what you need to know looking into midamerica apartment recent short interest is the market bullish or bearish on insulet a look into borgwarner inc price over earnings what doe the market think about united parcel service best job and career in data science kazakhstan top central asia in digital advancement ecovyst report solid q tightens fullyear guidance new opportunity for business and cooperation are created with the visit to argentina of three central american and caribbean minister and the participation of international expert in a farmer conference way a chatbot will help your customer service team outdoor holding company announces preferred stock dividend top crypto coin to buy blockdag aave link and bnb setting the standard for community strength if you bought worth of shiba inu exactly year ago here what youd have one new coin promise far bigger return sp company see no recession a economy and earnings improve youtube add custom ctas to promote tool for higher ad conversion ap business summarybrief at pm edt this data center play offer fresh buy point but test a moving average boat trader unveils innovation to transform the boatbuying and selling experience u firm stockpile import at la port amid tariff fear att million settlement you could receive up to urban one report revenue drop in q playboy to relocate global headquarters to miami beach plan to develop new playboy club tampa businessman sentenced to federal prison for tax fraud casual dining take a hit stock to watch barrons overlooked stock that are soaring even more than ai save up to on the mindblowing galaxy book pro ai is joining cybersecurity team it could be a bad idea citrin cooperman expands west coast presence with acquisition of bpsd amazon expands sameday grocery delivery to u city secure investment management rank on the inc list of america fastestgrowing private company a leap in national ranking new york ag sue zelle parent over b fraud loss seek reform bolt stock is trading higher wednesday whats going on rigetti revenue drop percent in q little pepe lilpepe presale hit a investor snap up billion token to end stage early no shoe at the startup backtoschool deal alert save when you buy of school supply at amazon tom dundon to buy the portland trail blazer from paul allen estate report blazer find buyer staying in portland coffee sold in state recalled for potential glass fragment aolcom need a boost ankers back to school sale is slashing off charger power bank and more cima selected to lead a unique and major water research project bank of america corporation nysebac share purchased by mondrian investment partner ltd union pacific train derails in texas car off track no injury washington dc police union accuses city of cooking the book with crime stats kiss star say theyre grateful for kennedy center honor stevens democrat need a creative approach to the midterm election ltte frustrated by year of stalled street rotary and tree work fagan the heritage foundation founder legacy is complicated federal court allows doge access to sensitive data on million of american rfk jr is trying to make covid great again why did we build community that discourage walking the ethical life podcast the latest trump warns of very severe consequence if putin continues ukraine war australia punter playing at nebraska break down while discussing homesickness biden admin scrapped bestqualified standard for air traffic controller academy doc show flesheating bacteria found in swimmer who wa at cape cod beach trump shock troop coming to a city near you federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say why democrat have limited power to fight republican redistricting trump real endgame with crime in dc is coming into view national guard presence will grow in dc wednesday night white house say child pregnant woman mistreated in immigration detention sen ossoff say what bangladesh ha achieved in the year since it revolution chesapeake council to allow member virtual participation in some meeting environmental concern could halt construction at florida alligator alcatraz immigration jail environmental concern could halt construction at florida alligator alcatraz immigration jail reporter share eyewitness account from front line of the russiaukraine war federal agent will be out on patrol in washington the white house say trump is engaged in stalinist attempt to rewrite u history axelrod warns live now texas house democrat hold news conference with indiana lawmaker trump visit kennedy center and announces honoree see the full list gaslighter king gavin newsom get ratioed into orbit for attacking stephen miller crime stat truth can public medium survive did india really shoot down an f fighting falcon fighter a freedom caucus target jackson hole housing policy gordon back community solution state leader take on record fee california wa a model for transparency now the capitol operates in the dark california wa a model for transparency now the capitol operates in the dark port a deep dive into how the sausage get made in north dakota trump say he doesnt believe he can convince putin to stop bombing ukrainian civilian att million settlement you could receive up to tulsi gabbard release damning email that put clapper in the hot seat judge is skeptical of justice department lawsuit against federal judge a trump try to limit power of judiciary trump threatens very severe consequence if russia doesnt agree to end ukraine war trump predicts little progress in potential shutdown talk with crazy schumer jeffries zohran mamdani take aim at trump immigration policy in fiery staten island speech we are fighting to keep nyc a sanctuary city auditor california could save million a year by letting state employee work remote trump warns putin of very severe consequence if ukraine war continues trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan new york claim zelles shoddy security enabled a billion dollar in scam wall street journal give trump a stern warning new connection credit union clubhouse coming to riverside golf course judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day he a bit of a mouth local react to vance visit president trump announces sylvester stallone kiss a kennedy center honoree trump name kennedy center honoree say hell host award show brit throw vance a not welcome party on his latest vacation trump tariff are forcing canada to address it money laundering problem trump administration lawsuit against all of maryland federal judge meet skepticism in court u senate approves m to expand willmar veterinary testing lab trump pledged to move homeless people from washington what we know and dont know about his plan allegedly nonpartisan common cause unmasked cheering leftist gerrymandering while condemning the gop pocatello model railroad and historical society open house set for saturday ap news summary at pm edt the latest trump warns of very severe consequence if putin continues ukraine war nyc ramp up effort to remove mentally ill from street subway trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia epa terminates center for rural affair million solar grant trump look to extend dc police takeover beyond day trump look to extend dc police takeover beyond day harvard and the trump administration are nearing a settlement including a million payment harvard and the trump administration are nearing a settlement including a million payment harvard and the trump administration are nearing a settlement including a million payment trump detail expectation for meeting with putin chicago rapper king yella hold chest fall over after drinking crown royal throughout interview a trump turn dc into a fascist laboratory we must mount our own defense what to know about the putintrump summit in alaska maga hang mission accomplished hype on trump tariff jonah goldberg</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>invesco ltd acquires share of archrock inc nysearoc invesco ltd lower position in datadog inc nasdaqddog invesco ltd sell share of enbridge inc nyseenb invesco ltd lower stake in datadog inc nasdaqddog palo alto network inc nasdaqpanw share sold by entropy technology lp entropy technology lp sell share of palo alto network inc nasdaqpanw entropy technology lp raise stock holding in plain gp holding lp nysepagp entropy technology lp purchase new share in snap inc nysesnap entropy technology lp purchase share of makemytrip limited nasdaqmmyt entropy technology lp make new investment in coinbase global inc nasdaqcoin entropy technology lp make new investment in spx technology inc nysespxc entropy technology lp invests in makemytrip limited nasdaqmmyt entropy technology lp take position in innodata inc nasdaqinod entropy technology lp sell share of mohawk industry inc nysemhk share in coinbase global inc nasdaqcoin purchased by entropy technology lp entropy technology lp buy new share in innodata inc nasdaqinod share in glacier bancorp inc nasdaqgbci purchased by entropy technology lp entropy technology lp acquires share of biomarin pharmaceutical inc nasdaqbmrn entropy technology lp purchase new stake in integer holding corporation nyseitgr share in glacier bancorp inc nasdaqgbci bought by entropy technology lp share in cellebrite di ltd nasdaqclbt bought by entropy technology lp reason pfizers yielding dividend is getting safer possible reason warren buffett shunned his favorite stock for the fourth straight quarter despite sitting on billion in cash mitsubishi ufj asset management co ltd boost stock position in urban edge property nyseue li auto inc sponsored adr nasdaqli share sold by mitsubishi ufj asset management co ltd swiss national bank ha million stock holding in interpublic group of company inc the nyseipg mitsubishi ufj asset management co ltd purchase share of bwx technology inc nysebwxt medical property trust inc nysempw share purchased by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd raise holding in urban edge property nyseue news corporation nasdaqnwsa share sold by swiss national bank outfront medium inc nyseout share acquired by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd ha million position in sl green realty corporation nyseslg mitsubishi ufj asset management co ltd decrease stake in sprout farmer market inc nasdaqsfm mitsubishi ufj asset management co ltd buy share of millrose property inc nysemrp mitsubishi ufj asset management co ltd cut holding in lucid group inc nasdaqlcid mitsubishi ufj asset management co ltd reduces stock position in liquidia technology inc nasdaqlqda mitsubishi ufj asset management co ltd ha million stock position in sprout farmer market inc nasdaqsfm mitsubishi ufj asset management co ltd increase stock holding in ducommun incorporated nysedco mitsubishi ufj asset management co ltd reduces stake in lucid group inc nasdaqlcid li auto inc sponsored adr nasdaqli share sold by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd ha million stake in sabra healthcare reit inc nasdaqsbra china target lithuanian bank in response to new eu sanction procept biorobotics corporation nasdaqprct share bought by mitsubishi ufj asset management co ltd mitsubishi ufj asset management co ltd buy share of esco technology inc nyseese maryland state retirement pension system reduces position in toast inc nysetost maryland state retirement pension system reduces stock position in rollins inc nyserol mitsubishi ufj asset management co ltd raise stock holding in planet lab pbc nysepl mitsubishi ufj asset management co ltd grows stock holding in caretrust reit inc nasdaqctre mitsubishi ufj asset management co ltd reduces holding in xpeng inc sponsored adr nysexpev headtohead survey metallurgical corp of china mlluy the competition maryland state retirement pension system sell share of toast inc nysetost sun community inc nysesui stock position cut by maryland state retirement pension system maryland state retirement pension system cut stake in burlington store inc nyseburl maryland state retirement pension system sell share of nutanix nasdaqntnx reviewing metallurgical corp of china mlluy and it peer financial contrast nu skin enterprise nysenus and pitanium nasdaqptnm ehang holding limited unsponsored adr nasdaqeh receives average pt from analyst mitsubishi ufj asset management co ltd acquires share of asml holding nv nasdaqasml gold price hover near record high on fed rate cut expectation entain plc otcmktsgmvhf receives average rating of moderate buy from analyst h b fuller company nyseful vp sell in stock swiss re ltd otcmktsssrey receives consensus recommendation of hold from analyst erste group bank ag otcmktsebkdy receives consensus rating of moderate buy from brokerage svenska handelsbanken ab publ otcmktssvnly receives average recommendation of reduce from brokerage april underwood sell share of zillow group inc nasdaqz stock diana sue ferguson acquires share of sally beauty holding inc nysesbh stock jayshree ullal sell share of arista network inc nyseanet stock unity software inc nyseu coo sell in stock joao magalhaes sell share of h b fuller company nyseful stock anglo american otcmktsngloy receives average recommendation of hold from analyst svenska handelsbanken ab publ otcmktssvnly receives consensus rating of reduce from analyst diana sue ferguson acquires share of sally beauty holding inc nysesbh stock centerspace nysecsr ceo purchase in stock nordea bank ab otcmktsnrdby given consensus recommendation of moderate buy by analyst april underwood sell share of zillow group inc nasdaqz stock john f sheridan acquires share of tandem diabetes care inc nasdaqtndm stock idaho strategic resource inc nyseamericanidr director kevin g shiell sell share entain plc otcmktsgmvhf given average recommendation of moderate buy by brokerage alexander blum sell share of unity software inc nyseu stock wgn in chicago hire akemi harrison a news director lumen technology nyselumn grupo televisa nysetv head to head survey a hidden fuel source beneath the midwest scientist are investigating prediction this artificial intelligence ai stock could hit a trillion valuation by top wall street forecaster revamp brinker international expectation ahead of q earnings oi glass inc nyseoi receives average rating of moderate buy from analyst oi glass inc nyseoi given consensus rating of moderate buy by analyst zion bancorporation national association ut take position in charter communication inc nasdaqchtr zion bancorporation national association ut make new investment in mettlertoledo international inc nysemtd share in midamerica apartment community inc nysemaa purchased by zion bancorporation national association ut zion bancorporation national association ut acquires share of halliburton company nysehal zion bancorporation national association ut purchase share of everest group ltd nyseeg perplexity billion dream of buying chrome is never going to happen it also kind of brilliant oscar health inc nyseoscr share bought by connor clark lunn investment management ltd zion bancorporation national association ut take position in evergy inc nasdaqevrg zion bancorporation national association ut take position in garmin ltd nysegrmn connor clark lunn investment management ltd purchase share of commercecom inc nasdaqcmrc zion bancorporation national association ut acquires share of old dominion freight line inc nasdaqodfl zion bancorporation national association ut take position in halliburton company nysehal connor clark lunn investment management ltd increase position in tuya inc sponsored adr nysetuya zion bancorporation national association ut invests in eqt corporation nyseeqt cop cartel and the new drone war on the southern border chris murphy go all in on funding bill boycott a dems seek bipartisanship letter support is plummeting for war on palestine hamas terrorist posing a aid worker taken out by israel japan pokemon happy meal promo end poorly american eagle sydney sweeney ad divide young people poll federal policing take effect in washingtonwhat to know trump cant accept bad news here how that hurt the first amendment opinion nyt chief white house reporter challenged to walk dc at night after mocking trump today in history august east germany close berlin border country once ruled by cleopatra crossword clue partner on a political ticket crossword clue congress must hear from jeffrey epstein victim about ghislaine maxwell role opinion a america navy shrink time is running out to prevent communist china from seizing control of the pacific a fix is needed so candidate wont shun public financing for governor race steve collins presidential order on homelessness push u back in time opinion today in history august east germany close berlin border saving life no more rfk risk u all in targeting mrna vaccine research we have a responsibility to house mainer who live outside opinion letter posting commandment in school is part of learning column coal need to be part of america energy future column america need affordable energy coal doesnt fit the bill more than gop attorney general call on rfk jr fda to reinstate safeguard for abortion drug red state can now protect kid from trans procedure after court victory ap news summary at am edt rural homeowner share how he avoided a hour blackout without a gas generator no one else can do this pax trumpana trump nobel peace prize resume tennessee town approves deal to turn closed prison into immigration detention facility tennessee town approves deal to turn closed prison into immigration detention facility editorial money role in american politics could get even worse white house reviewing all smithsonian museum exhibit content before america celebration in anthony scaramucci share warning about maga going marxist and maoist yale professor alleges assault on freemarket capitalism morning brief low inflation tariff truce wchina dc takeover fallout plan for postwar gaza elizabeth warren say trump promised to slash power bill in half but instead cost rose aid program vanished and ceo cashed in zelenskyy to visit berlin for european virtual meeting ahead of the trumpputin summit german government say reader sound off on investigating tish james troop in dc and hamas culpability donald trump a strongman riling up his base and investigating his enemy out of our past august senegal prime minister move to increase tobacco tax to save life stimulate economic growth paul geisler woman might see themselves in basf planetarium show another viewpoint vaccine decision show rfk jr unfit jungbunzlauer awarded platinum medal from ecovadis for sustainability performance duffy toni marie ppr team preview helix highlander letter for wednesday august dea head say phone call are coming from all over the country from fed agent wanting to help in dc letter green energy is still needed just say no to more marijuana appeal court allows arkansas firstinthenation ban on gender transition care for minor to be enforced chisholm chisholm kilpatrick ltd and national veteran legal service program challenge va denial of benefit to caregiver after veteran death havard getting by with a little help from your friend trump at the kennedy center on the same day recipient of the honor are announced trump unveils nomination for judicial post california and trump spar in court over military deployment in la obituary lois eastman death notice shirley f bennett death notice clifford g foster lewis welcome to american politics without norm this small maine town had school budget trouble then the cost got higher trump official tell census worker congress ha final say over the count not trump san diego resident rally for killed al jazeera journalist dc crime forget issue scott jennings show dems are on the losing side of a one here why trump bls nominee ha ignited a cascade of criticism from economist trump administration threatens fine jail for washington homeless bernie sander say do this instead california governor demand trump abandon texas redistricting push threatens ballot measure response wife of south korea jailed expresident yoon arrested over corruption allegation leaving a top trump administration post the president may have an ambassadorship for you leaving a top trump administration post the president may have an ambassadorship for you judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern alligator alcatraz migrant jail could halt construction over environmental concern construction at alligator alcatraz migrant jail could be halted over environmental concern construction at alligator alcatraz migrant jail could be halted over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern judge to hear argument on halting alligator alcatraz construction over environmental concern charles gleason lawson ap news in brief at am edt clarence page time for democrat to get serious about their political future seth meyers give trump a failing score after leaving this name out of cognitive brag cartoon democrat are desperate for this letter nevada a sanctuary state trump is making major concession to union boss is it worth it letter gov newsom and the gender confusion club letter natural gas pay off for pa letter right age for sex letter where is our humanity cartoon dont trust him the word of the day letter union leader ignores psycho with hbombs tyler t ray caswell ha nh economy headed in the right direction congressman interacts with local official business leader letter social security now but can it long persist garrison keillor one favor lord if you have a moment editorial reviewjournal socialism lead to worse thing than expensive food can we somehow make backtoschool safe again israel emerging occupation consensus letter voting restriction will do more harm than good in nh len cannon more conservative point of view required fresh grocery arrive in san diego the same day with amazon cisco earnings are imminent these most accurate analyst revise forecast ahead of earnings call stock of the day new alltime high for amd advanced ceramic and nanoceramics lead the way in a market positioned for longterm growth amazon stock gain on big expansion of perishable delivery instacart grocery stock fall investor business daily saga communication inc declares a quarterly cash dividend of per share amazon expands it perishable delivery service putting pressure on traditional grocer ap news alibaba stock soar can ai innovation sustain the growth cold wallet m stage presale offer roi before price move higher in july saga communication inc declares a quarterly cash dividend of per share amazon expands it perishable delivery service putting pressure on traditional grocer tesla diner cut menu and hour amid surging demand in hollywood the nuke race is on energy department tap startup to build a reactor by mid barrons wait the u wind industry is coming back krg baghdad strike another oil deal podcastone post percent gain in q mario paglino and gianni grossi die designer made barbies into art worksport wksp q earnings call transcript apple plot expansion into ai robot home security and smart display bloombergcom south maintains lead in construction backlog driven by population growth new york sue zelle say security lapse led to billion consumer fraud loss reuters wescap management group inc ha position in johnson johnson nysejnj msh capital advisor llc acquires share of johnson johnson nysejnj hurricane owner tom dundon strike tentative deal to buy the portland trail blazer best thriller anime show on crunchyroll amazon roll out sameday perishable grocery delivery to more than u city nvidia face b sale threat a china target h chip over security inventhelp inventor develops new refueling accessory mho pure insurance flip the script on teen driving safetyfocused on education and safety not tracking amazon expands sameday grocery delivery rival stock plunge toll brother announces final opportunity to own a new luxury home at parklynn hill community in fountain inn south carolina connecticut green bank and goodleap partner to create an aipowered virtual power plant initiative to unlock saving for homeowner and enhance grid reliability toll brother announces final opportunity to own a new luxury home at parklynn hill community in fountain inn south carolina nissan cut ariya ev price by over with a new entrylevel model crypto exchange bullish valued at nearly billion in blowout nyse debut reuters deleteme v optery top tool to erase personal data from broker vietnam hightech push to become asia next tiger by leadingre add accounttech to solution group program princeton top linkedins first u college ranking for career rigetti computing stay the course in push for quantum advantage mobile momentum how u consumer and merchant are shaping unified commerce why share of globale online are sinking today well fargo company nysewfc share purchased by financial network wealth advisor llc debt surge past trillion a interest cost eclipse defense spending intellicheck report result tampa ma firm buy naming right to nhl arena the secure mat keep your bathroom clean and safe walmart offer permanent grocery discount to m u worker why cfo must stop treating compensation a a cost twin owner opt to halt the sale and keep the club in the family adding new investor instead ai drive layoff at microsoft and intel for efficiency twin owner opt to halt sale keep club in family public notice greenlight electricity centre project participant funding available costco stock is trading lower wednesday whats going on u housing market frozen by high rate awaits fed cut for thaw what the option market tell u about galaxy digital lowes companiess option a look at what the big money is thinking united airline holdingss option frenzy what you need to know looking into midamerica apartment recent short interest is the market bullish or bearish on insulet a look into borgwarner inc price over earnings what doe the market think about united parcel service best job and career in data science kazakhstan top central asia in digital advancement ecovyst report solid q tightens fullyear guidance new opportunity for business and cooperation are created with the visit to argentina of three central american and caribbean minister and the participation of international expert in a farmer conference way a chatbot will help your customer service team outdoor holding company announces preferred stock dividend top crypto coin to buy blockdag aave link and bnb setting the standard for community strength if you bought worth of shiba inu exactly year ago here what youd have one new coin promise far bigger return sp company see no recession a economy and earnings improve youtube add custom ctas to promote tool for higher ad conversion ap business summarybrief at pm edt this data center play offer fresh buy point but test a moving average boat trader unveils innovation to transform the boatbuying and selling experience u firm stockpile import at la port amid tariff fear att million settlement you could receive up to urban one report revenue drop in q playboy to relocate global headquarters to miami beach plan to develop new playboy club tampa businessman sentenced to federal prison for tax fraud casual dining take a hit stock to watch barrons overlooked stock that are soaring even more than ai save up to on the mindblowing galaxy book pro ai is joining cybersecurity team it could be a bad idea citrin cooperman expands west coast presence with acquisition of bpsd amazon expands sameday grocery delivery to u city secure investment management rank on the inc list of america fastestgrowing private company a leap in national ranking new york ag sue zelle parent over b fraud loss seek reform bolt stock is trading higher wednesday whats going on rigetti revenue drop percent in q little pepe lilpepe presale hit a investor snap up billion token to end stage early no shoe at the startup backtoschool deal alert save when you buy of school supply at amazon tom dundon to buy the portland trail blazer from paul allen estate report blazer find buyer staying in portland coffee sold in state recalled for potential glass fragment aolcom need a boost ankers back to school sale is slashing off charger power bank and more cima selected to lead a unique and major water research project bank of america corporation nysebac share purchased by mondrian investment partner ltd union pacific train derails in texas car off track no injury washington dc police union accuses city of cooking the book with crime stats kiss star say theyre grateful for kennedy center honor stevens democrat need a creative approach to the midterm election ltte frustrated by year of stalled street rotary and tree work fagan the heritage foundation founder legacy is complicated federal court allows doge access to sensitive data on million of american rfk jr is trying to make covid great again why did we build community that discourage walking the ethical life podcast the latest trump warns of very severe consequence if putin continues ukraine war australia punter playing at nebraska break down while discussing homesickness biden admin scrapped bestqualified standard for air traffic controller academy doc show flesheating bacteria found in swimmer who wa at cape cod beach trump shock troop coming to a city near you federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say federal agent will be out on patrol in washington the white house say why democrat have limited power to fight republican redistricting trump real endgame with crime in dc is coming into view national guard presence will grow in dc wednesday night white house say child pregnant woman mistreated in immigration detention sen ossoff say what bangladesh ha achieved in the year since it revolution chesapeake council to allow member virtual participation in some meeting environmental concern could halt construction at florida alligator alcatraz immigration jail environmental concern could halt construction at florida alligator alcatraz immigration jail reporter share eyewitness account from front line of the russiaukraine war federal agent will be out on patrol in washington the white house say trump is engaged in stalinist attempt to rewrite u history axelrod warns live now texas house democrat hold news conference with indiana lawmaker trump visit kennedy center and announces honoree see the full list gaslighter king gavin newsom get ratioed into orbit for attacking stephen miller crime stat truth can public medium survive did india really shoot down an f fighting falcon fighter a freedom caucus target jackson hole housing policy gordon back community solution state leader take on record fee california wa a model for transparency now the capitol operates in the dark california wa a model for transparency now the capitol operates in the dark port a deep dive into how the sausage get made in north dakota trump say he doesnt believe he can convince putin to stop bombing ukrainian civilian att million settlement you could receive up to tulsi gabbard release damning email that put clapper in the hot seat judge is skeptical of justice department lawsuit against federal judge a trump try to limit power of judiciary trump threatens very severe consequence if russia doesnt agree to end ukraine war trump predicts little progress in potential shutdown talk with crazy schumer jeffries zohran mamdani take aim at trump immigration policy in fiery staten island speech we are fighting to keep nyc a sanctuary city auditor california could save million a year by letting state employee work remote trump warns putin of very severe consequence if ukraine war continues trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan trump pledged to move homeless people from washington what we know and dont know about his plan new york claim zelles shoddy security enabled a billion dollar in scam wall street journal give trump a stern warning new connection credit union clubhouse coming to riverside golf course judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day judge skeptical of trump administration suit against maryland judge will rule by labor day he a bit of a mouth local react to vance visit president trump announces sylvester stallone kiss a kennedy center honoree trump name kennedy center honoree say hell host award show brit throw vance a not welcome party on his latest vacation trump tariff are forcing canada to address it money laundering problem trump administration lawsuit against all of maryland federal judge meet skepticism in court u senate approves m to expand willmar veterinary testing lab trump pledged to move homeless people from washington what we know and dont know about his plan allegedly nonpartisan common cause unmasked cheering leftist gerrymandering while condemning the gop pocatello model railroad and historical society open house set for saturday ap news summary at pm edt the latest trump warns of very severe consequence if putin continues ukraine war nyc ramp up effort to remove mentally ill from street subway trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia trumpputin summit on ukraine is latest chapter in alaska long history and tension with russia epa terminates center for rural affair million solar grant trump look to extend dc police takeover beyond day trump look to extend dc police takeover beyond day harvard and the trump administration are nearing a settlement including a million payment harvard and the trump administration are nearing a settlement including a million payment harvard and the trump administration are nearing a settlement including a million payment trump detail expectation for meeting with putin chicago rapper king yella hold chest fall over after drinking crown royal throughout interview a trump turn dc into a fascist laboratory we must mount our own defense what to know about the putintrump summit in alaska maga hang mission accomplished hype on trump tariff jonah goldberg</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>129</v>
+      </c>
+      <c r="P37" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>315</v>
+      </c>
+      <c r="S37" t="n">
+        <v>99</v>
+      </c>
+      <c r="T37" t="n">
+        <v>424</v>
+      </c>
+      <c r="U37" t="n">
+        <v>193</v>
+      </c>
+      <c r="V37" t="n">
+        <v>98</v>
+      </c>
+      <c r="W37" t="n">
+        <v>40</v>
+      </c>
+      <c r="X37" t="n">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -3292,7 +3292,7 @@
         <v>6453.4599609375</v>
       </c>
       <c r="F37" t="n">
-        <v>2766449000</v>
+        <v>4462050000</v>
       </c>
       <c r="G37" t="n">
         <v>0.0003030908012924</v>

--- a/notebooks/stock_news_tone.xlsx
+++ b/notebooks/stock_news_tone.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,6 +3353,84 @@
         <v>145</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6449.7998046875</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6481.33984375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6441.85009765625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6477.3798828125</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4575060000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.0028971350972291</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>boring stock offering an over annual dividend yield there a small problem with trump export deal with nvidia and amd the constitution say it illegal fortune trump chief intervened to save rfk jr top vaccine aide politico revisiting carrie bradshaws apartment in sex and the city and and just like that fed face high bar for big cut despite white house pressure the new york time fed face high bar for big cut despite white house pressure bitcoin price soar to a etf inflow surge how trump get what he want from company nbc news wanf in atlanta release new schedule for life after cbs home for sale in manhattan and brooklyn the live music business is booming now rap is getting a piece too there money to be made in maha food company want in cetera investment adviser sell share of camden property trust nysecpt the cost to rebuild a home after a natural disaster is rising pnc financial service group inc acquires share of on holding ag nyseonon pnc financial service group inc raise position in five below inc nasdaqfive pnc financial service group inc purchase share of the madison square garden company nysemsgs tko group holding inc nysetko share acquired by pnc financial service group inc the latest chatgpt is supposed to be phd level smart it cant even label a map crypto presale alert blockchainfx bfx set for explosive growth can it beat bitcoin hyper blockdag big tech ai boom is reordering the u power grid the new york time crisis intervention effort yield impressive result trump is tightening the screw on corporate america and ceo are staying mum titanbay appoints exubs exec a head of switzerland is xrp a buy while it below best spy tv show to watch now on peacock in vipshop report unaudited second quarter financial result instacart is partying like it with third eye blind frosted tip and ring pop new report cleaner manufacturing could save life and prevent million of asthma attack titanbay appoints exubs exec a head of switzerland trump is tightening the screw on corporate america and ceo are staying mum npr weibo announces second quarter unaudited financial result ai development is accelerating vanguard etf to buy right now inside thailand frantic effort to close tariff loophole to the u china offer interest subsidy for loan amid sluggish economy pinterest share just sank time to buy the dip or run for the hill cava group nysecava price target cut to by analyst at morgan stanley nvidia corporation nasdaqnvda share purchased by richard c young co ltd kingsview wealth management llc purchase share of nvidia corporation nasdaqnvda cava group nysecava price target lowered to at citigroup tat technology tatt buy rating reaffirmed at lake street capital summit x llc purchase share of amazoncom inc nasdaqamzn nvidia corporation nasdaqnvda share sold by forum financial management lp repay nasdaqrpay receives neutral rating from ubs group snowflake nysesnow given new price target at ubs group nvidia corporation nasdaqnvda share sold by asset advisor investment management llc rivian automotive nasdaqrivn given new price target at morgan stanley fluence energy nasdaqflnc price target lowered to at royal bank of canada commerzbank aktiengesellschaft fi ha million stock holding in nvidia corporation nasdaqnvda meet the yield dividend stock that could soar in brachioplasty market to surpass usd billion by fueled by rising aesthetic awareness and technological advancement sn insider titanbay appoints paul essen bakery owner say they closed for a mental health break their employee say theyve been ghosted wkmg in orlando give news director autumn jones all the job vanguard group inc trim stock holding in blueprint medicine corporation nasdaqbpmc vanguard group inc ha million stock position in interdigital inc nasdaqidcc charles schwab investment management inc cut stock holding in bright horizon family solution inc nysebfam fluor corporation nyseflr share sold by vanguard group inc charles schwab investment management inc sell share of mattel inc nasdaqmat clearwater analytics holding inc nysecwan share acquired by vanguard group inc agco corporation nyseagco share sold by vanguard group inc vanguard group inc reduces position in ollies bargain outlet holding inc nasdaqolli vanguard group inc sell share of first american financial corporation nysefaf charles schwab investment management inc reduces holding in ally financial inc nyseally u bancorp de acquires share of graphic packaging holding company nysegpk vanguard group inc reduces position in lantheus holding inc nasdaqlnth charles schwab investment management inc boost position in dropbox inc nasdaqdbx vanguard group inc cut position in lincoln national corporation nyselnc vanguard group inc decrease position in itron inc nasdaqitri vanguard group inc trim stake in dropbox inc nasdaqdbx charles schwab investment management inc sell share of spotify technology nysespot chart industry inc nysegtls share purchased by charles schwab investment management inc nov inc nysenov share bought by vanguard group inc charles schwab investment management inc ha million stock position in spx technology inc nysespxc charles schwab investment management inc reduces position in talen energy corporation nasdaqtln curtisswright corporation nysecw position increased by charles schwab investment management inc vanguard group inc sell share of mattel inc nasdaqmat u bancorp de reduces holding in bce inc nysebce vanguard group inc lower stock holding in chart industry inc nysegtls atrium wealth solution inc ha stock position in ppg industry inc nyseppg analyst issue forecast for saputos q earnings tsesap atrium wealth solution inc buy share of vanguard international dividend appreciation etf nasdaqvigi vanguard group inc sell share of antero midstream corporation nyseam atrium wealth solution inc ha stake in southwest gas corporation nyseswx atrium wealth solution inc reduces position in sarepta therapeutic inc nasdaqsrpt vanguard group inc ha million holding in simpson manufacturing company inc nysessd vanguard group inc sell share of universal display corporation nasdaqoled vanguard group inc decrease stock holding in flowserve corporation nysefls share in spdr sp capital market etf nysearcakce bought by atrium wealth solution inc vanguard group inc sell share of credo technology group holding ltd nasdaqcrdo vanguard group inc acquires share of american airline group inc nasdaqaal atrium wealth solution inc invests in ugi corporation nyseugi atrium wealth solution inc decrease position in ingersoll rand inc nyseir home bancshares inc nysehomb share sold by atrium wealth solution inc vanguard group inc sell share of option care health inc nasdaqopch atrium wealth solution inc ha stock holding in rb global inc nyserba sl green realty corporation nyseslg share bought by vanguard group inc atrium wealth solution inc make new investment in crown holding inc nysecck notice regarding uaborkela financial statement for month period ended june nagarro release unaudited q result post yoy revenue growth in constant currency and increase in gross profit despite global macroeconomic challenge parent dont want cell phone ban at school we want smarter rule opinion mexico under pressure from trump sends cartel member to u the key to success at trumpputin alaska summit on ukraine low expectation opinion welcome to the menodivorce why woman arent sweating marriage in a sea of hot flash a tropical storm erin track west palm beach advises resident to stay alert prepared letter new challenge require a new congressman cctv foreign journalist open blind box at shuiting gate america must secure social security now republican pitch trump domestic policy agenda in iowa but some entrepreneur arent yet sold cnn politics the latest chatgpt is supposed to be phd level smart it cant even label a map wfp is leveraging it power in the mayoral race firstofitskind micropathway initiative now help community college build industryaligned training program my legacy is of broken men michael thomas on dream alcoholism and black fatherhood conquistador stolen yearold receipt return to mexico priscilla presley accused of hastening lisa mary death for financial gain memoir on a hill finding the best way to tell the story of america letter why now and why all the surprise eye on art frazier brings lowell to life in all gallery show rosner appointed ferc chair a trump move to reshape regulator u deploys force to take on latin american drug cartel in the southern caribbean today in history august fdr sign social security act now jimmy fallon is using taylor swift to suggest trump had sinister tie to epstein activist amariyanna copenys hometown crossword clue it not just dc republican seem happy to let trump do whatever he want opinion letter wondering if congressman still walk with jesus cincinnati beating suspect face year in prison after new charge from doj no peace without ukraine trumpputin alaska talk call for sober strategy oil city civic center to offer tour of national transit building thompson cosponsors bill to expand k career counseling idea opinion tom durkin come together debence receives grant for kid program grove city college ranked no for most religious student in u year ago aug lucas foley go to bat for bay state ag should too brokerage set cargojet inc tsecjt pt at c brokerage set penn entertainment inc nasdaqpenn target price at cbre group inc nysecbre receives consensus target price from analyst under armour nyseuaa price target lowered to at telsey advisory group john hood german settler helped shape nc rebellion today in historyaug failed gop candidate sentenced to year in connection with shooting spree at democrat official home stage mechanic and hanover in worcester make going out fun prokidney corp nasdaqprok receives average rating of hold from analyst spx technology inc nysespxc given average rating of buy by brokerage adapthealth corp nasdaqahco receives consensus target price from analyst contineum therapeutic inc nasdaqctnm receives consensus price target from brokerage on inc nyseontf receives consensus rating of hold from brokerage ap news summary at am edt douglas cohn and eleanor clift the shamed the shameless and the shirked editorial why is healey hesitating to call for tompkins resignation guest opinion erich menzel sculpture and art in the park event put loveland on the map ap news summary at am edt morning brief arrest since trump dc takeover trumpputin peace talk immigrant exodus social security is the cornerstone of retirement income fbi agent are again pulled from their day job to address a trump priority cnn politics cost of living in california still a discussion at county level propalestinian protester hold demonstration outside ivp reader sound off on turning against israel misusing troop and reckless bikers sbdc guide resident on starting legal homebased food business icf international nasdaqicfi price target raised to hang feng technology innovation co ltd fofo announces august th ipo alaska a source of russian imperial nostalgia powerful sister of north korean leader denies removal of frontline speaker cal thomas washington dc then and now emera tseema price target raised to c expensify nasdaqexfy cut to hold at wall street zen emera tseema price target raised to c rosenblatt security cut hut nasdaqhut price target to irs reportedly confirms stimulus check for eligible american rumor of august payout debunked plan late summer rollout american healthcare reit nyseahr price target raised to trump eas space regulation in boost for elon musk spacex jeff bezos blue origin and more pearson nysepso downgraded to hold rating by wall street zen first interstate bancsystem nasdaqfibk cut to sell at wall street zen morgan stanley cut primo brand nyseprmb price target to speaking out no longer interested in preventing pain and suffering north korea denies removing border loudspeaker ct real estate investment trust tsecrtun price target raised to c national bankshares cut boralex tseblx price target to c constellation software tsecsu price target raised to c share buyback program approved by plus lonplus board of director hong kong lashed with another torrential downpour redwire nyserdw price target lowered to at canaccord genuity group trisura group tsetsu price target raised to c gdi integrated facility service tsegdi downgraded by td security to hold leon furniture tselnf price target raised to c power co of canada tsepow price target raised to c at desjardins savaria tsesis price target raised to c saputo tsesap price target raised to c letter the right betrays every value it claim to hold youngkin order investigation into claim staff at virginia school arranged abortion without parental consent ap news summary at am edt flower food flo expected to announce earnings on friday kodiak gas service nysekgs to repurchase million in outstanding share trump nobel peace prize push gain steam president clinch backing from pakistan cambodia israel ahead of meeting with putin gop senator spill on the illegal measure he take to deal with dc crime fear softcat plc lonsct insider buy in stock jpmorgan global core real asset limited lonjara insider sell in stock fresnillo lonfres stock price expected to rise royal bank of canada analyst say asiamet resource lonars receives house stock rating from shore capital jpmorgan global core real asset limited lonjara insider sell in stock battalion oil post q revenue drop netease stock drop after chinese video game firm miss sale target aebi schmidt group building momentum after merging with the shyft group strong order backlog additional synergy upside and commitment to delever ask a real estate pro how can we stop complaining neighbor harassing behavior ask a real estate pro how can we stop complaining neighbor harassing behavior bessent see nvidia amd china agreement a a model for others nov declares regular quarterly dividend permanent magnet market worth billion by exclusive report by marketsandmarketstm clean energy tax credit market participant remain bullish the wall street journal rare earth rally after department of defense set a price floor aery technology report record q fy result cash flow positive m net income turnaround and strongest start to a fiscal year in company history envirogold global retains cantor fitzgerald a financial advisor p announces dual listing on nyse texas dividendpaying dow jones stock to buy in august u and australia support for nova estelle project realme pro review is it worth a buy shattuck lab report second quarter financial result and recent business highlight medium advisory air canada to hold medium availability with senior executive today aimia report second quarter result reiterates aebitda guidance and lower holdco cost target for the year advance auto part report second quarter result and reaffirms full year sale operating margin and free cash flow guidance calibercos sale drop percent nd century q earnings snapshot aquestive therapeutic announces pricing of million underwrit